--- a/Data/branch_wise_aging_stock.xlsx
+++ b/Data/branch_wise_aging_stock.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2880" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="156">
   <si>
     <t>BRAND</t>
   </si>
@@ -1167,7 +1167,7 @@
         <v>174</v>
       </c>
       <c r="AN2">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="AO2">
         <v>86</v>
@@ -1224,7 +1224,7 @@
         <v>81</v>
       </c>
       <c r="BG2">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="BH2">
         <v>93</v>
@@ -1367,10 +1367,10 @@
         <v>689</v>
       </c>
       <c r="AN3">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="AO3">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="AP3">
         <v>1060</v>
@@ -1388,7 +1388,7 @@
         <v>325</v>
       </c>
       <c r="AU3">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="AV3">
         <v>198</v>
@@ -1412,7 +1412,7 @@
         <v>674</v>
       </c>
       <c r="BC3">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="BD3">
         <v>471</v>
@@ -1421,7 +1421,7 @@
         <v>211</v>
       </c>
       <c r="BF3">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="BG3">
         <v>311</v>
@@ -1564,10 +1564,10 @@
         <v>81</v>
       </c>
       <c r="AM4">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AN4">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="AO4">
         <v>250</v>
@@ -1576,7 +1576,7 @@
         <v>163</v>
       </c>
       <c r="AQ4">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="AR4">
         <v>181</v>
@@ -1585,10 +1585,10 @@
         <v>136</v>
       </c>
       <c r="AT4">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AU4">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AV4">
         <v>214</v>
@@ -1621,7 +1621,7 @@
         <v>104</v>
       </c>
       <c r="BF4">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="BG4">
         <v>79</v>
@@ -1767,7 +1767,7 @@
         <v>191</v>
       </c>
       <c r="AM5">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="AN5">
         <v>758</v>
@@ -1788,7 +1788,7 @@
         <v>185</v>
       </c>
       <c r="AT5">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AU5">
         <v>251</v>
@@ -1815,7 +1815,7 @@
         <v>215</v>
       </c>
       <c r="BC5">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="BD5">
         <v>415</v>
@@ -1824,7 +1824,7 @@
         <v>153</v>
       </c>
       <c r="BF5">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="BG5">
         <v>233</v>
@@ -1833,13 +1833,13 @@
         <v>165</v>
       </c>
       <c r="BI5">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="BJ5">
         <v>186</v>
       </c>
       <c r="BK5">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BL5">
         <v>263</v>
@@ -1970,22 +1970,22 @@
         <v>370</v>
       </c>
       <c r="AL6">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="AM6">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="AN6">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="AO6">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="AP6">
         <v>939</v>
       </c>
       <c r="AQ6">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AR6">
         <v>751</v>
@@ -1997,7 +1997,7 @@
         <v>2201</v>
       </c>
       <c r="AU6">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="AV6">
         <v>597</v>
@@ -2030,22 +2030,22 @@
         <v>448</v>
       </c>
       <c r="BF6">
-        <v>1364</v>
+        <v>1355</v>
       </c>
       <c r="BG6">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="BH6">
         <v>398</v>
       </c>
       <c r="BI6">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="BJ6">
         <v>375</v>
       </c>
       <c r="BK6">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="BL6">
         <v>458</v>
@@ -2054,13 +2054,13 @@
         <v>4060</v>
       </c>
       <c r="BN6">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="BO6">
         <v>651</v>
       </c>
       <c r="BP6">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7" spans="1:68">
@@ -2173,40 +2173,40 @@
         <v>1153</v>
       </c>
       <c r="AL7">
-        <v>1058</v>
+        <v>1045</v>
       </c>
       <c r="AM7">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="AN7">
-        <v>1498</v>
+        <v>1483</v>
       </c>
       <c r="AO7">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="AP7">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="AQ7">
         <v>1160</v>
       </c>
       <c r="AR7">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="AS7">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="AT7">
-        <v>1254</v>
+        <v>1230</v>
       </c>
       <c r="AU7">
-        <v>1384</v>
+        <v>1369</v>
       </c>
       <c r="AV7">
-        <v>1269</v>
+        <v>1255</v>
       </c>
       <c r="AW7">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="AX7">
         <v>1104</v>
@@ -2215,52 +2215,52 @@
         <v>1213</v>
       </c>
       <c r="AZ7">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="BA7">
-        <v>2736</v>
+        <v>2738</v>
       </c>
       <c r="BB7">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="BC7">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="BD7">
         <v>1837</v>
       </c>
       <c r="BE7">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="BF7">
-        <v>1280</v>
+        <v>1253</v>
       </c>
       <c r="BG7">
-        <v>1350</v>
+        <v>1313</v>
       </c>
       <c r="BH7">
         <v>1219</v>
       </c>
       <c r="BI7">
-        <v>1203</v>
+        <v>1197</v>
       </c>
       <c r="BJ7">
-        <v>1155</v>
+        <v>1146</v>
       </c>
       <c r="BK7">
-        <v>1181</v>
+        <v>1171</v>
       </c>
       <c r="BL7">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="BN7">
         <v>680</v>
       </c>
       <c r="BO7">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="BP7">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:68">
@@ -2579,13 +2579,13 @@
         <v>164</v>
       </c>
       <c r="AL9">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="AM9">
         <v>275</v>
       </c>
       <c r="AN9">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AO9">
         <v>375</v>
@@ -2603,7 +2603,7 @@
         <v>389</v>
       </c>
       <c r="AT9">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AU9">
         <v>156</v>
@@ -2636,10 +2636,10 @@
         <v>125</v>
       </c>
       <c r="BE9">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="BF9">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="BG9">
         <v>325</v>
@@ -2648,13 +2648,13 @@
         <v>346</v>
       </c>
       <c r="BI9">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="BJ9">
         <v>165</v>
       </c>
       <c r="BK9">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="BL9">
         <v>203</v>
@@ -3000,7 +3000,7 @@
         <v>356</v>
       </c>
       <c r="AP11">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AQ11">
         <v>432</v>
@@ -3009,25 +3009,25 @@
         <v>229</v>
       </c>
       <c r="AS11">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AT11">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AU11">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AV11">
         <v>469</v>
       </c>
       <c r="AW11">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="AX11">
         <v>453</v>
       </c>
       <c r="AY11">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="AZ11">
         <v>447</v>
@@ -3045,13 +3045,13 @@
         <v>92</v>
       </c>
       <c r="BE11">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="BF11">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="BG11">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BH11">
         <v>356</v>
@@ -3060,7 +3060,7 @@
         <v>419</v>
       </c>
       <c r="BJ11">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="BK11">
         <v>515</v>
@@ -3078,7 +3078,7 @@
         <v>421</v>
       </c>
       <c r="BP11">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="12" spans="1:68">
@@ -3194,10 +3194,10 @@
         <v>97</v>
       </c>
       <c r="AL12">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AM12">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AN12">
         <v>135</v>
@@ -3221,7 +3221,7 @@
         <v>137</v>
       </c>
       <c r="AU12">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AV12">
         <v>161</v>
@@ -3245,7 +3245,7 @@
         <v>92</v>
       </c>
       <c r="BC12">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BD12">
         <v>296</v>
@@ -3254,7 +3254,7 @@
         <v>82</v>
       </c>
       <c r="BF12">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="BG12">
         <v>88</v>
@@ -3394,7 +3394,7 @@
         <v>80</v>
       </c>
       <c r="AK13">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="AL13">
         <v>35</v>
@@ -3403,28 +3403,28 @@
         <v>775</v>
       </c>
       <c r="AN13">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="AO13">
-        <v>1216</v>
+        <v>1220</v>
       </c>
       <c r="AP13">
         <v>684</v>
       </c>
       <c r="AQ13">
-        <v>869</v>
+        <v>853</v>
       </c>
       <c r="AR13">
         <v>500</v>
       </c>
       <c r="AT13">
-        <v>754</v>
+        <v>736</v>
       </c>
       <c r="AU13">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AV13">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AW13">
         <v>954</v>
@@ -3451,13 +3451,13 @@
         <v>109</v>
       </c>
       <c r="BE13">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="BF13">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="BG13">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="BH13">
         <v>370</v>
@@ -3466,10 +3466,10 @@
         <v>1220</v>
       </c>
       <c r="BJ13">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="BK13">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="BL13">
         <v>1295</v>
@@ -3597,7 +3597,7 @@
         <v>81</v>
       </c>
       <c r="AK14">
-        <v>3540</v>
+        <v>3520</v>
       </c>
       <c r="AL14">
         <v>2210</v>
@@ -3606,7 +3606,7 @@
         <v>3391</v>
       </c>
       <c r="AN14">
-        <v>2602</v>
+        <v>2592</v>
       </c>
       <c r="AO14">
         <v>2541</v>
@@ -3615,7 +3615,7 @@
         <v>2857</v>
       </c>
       <c r="AQ14">
-        <v>3135</v>
+        <v>3129</v>
       </c>
       <c r="AR14">
         <v>3219</v>
@@ -3642,7 +3642,7 @@
         <v>2385</v>
       </c>
       <c r="AZ14">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="BA14">
         <v>3368</v>
@@ -3657,10 +3657,10 @@
         <v>1804</v>
       </c>
       <c r="BE14">
-        <v>1940</v>
+        <v>1932</v>
       </c>
       <c r="BF14">
-        <v>2739</v>
+        <v>2734</v>
       </c>
       <c r="BG14">
         <v>2574</v>
@@ -3803,43 +3803,43 @@
         <v>82</v>
       </c>
       <c r="AK15">
-        <v>3872</v>
+        <v>3869</v>
       </c>
       <c r="AL15">
-        <v>6452</v>
+        <v>6445</v>
       </c>
       <c r="AM15">
         <v>6715</v>
       </c>
       <c r="AN15">
-        <v>2693</v>
+        <v>2692</v>
       </c>
       <c r="AO15">
-        <v>4121</v>
+        <v>4124</v>
       </c>
       <c r="AP15">
-        <v>4706</v>
+        <v>4708</v>
       </c>
       <c r="AQ15">
         <v>2802</v>
       </c>
       <c r="AR15">
-        <v>7782</v>
+        <v>7779</v>
       </c>
       <c r="AS15">
-        <v>4343</v>
+        <v>4340</v>
       </c>
       <c r="AT15">
-        <v>3377</v>
+        <v>3331</v>
       </c>
       <c r="AU15">
-        <v>7819</v>
+        <v>7803</v>
       </c>
       <c r="AV15">
-        <v>3917</v>
+        <v>3915</v>
       </c>
       <c r="AW15">
-        <v>5698</v>
+        <v>5692</v>
       </c>
       <c r="AX15">
         <v>2881</v>
@@ -3848,40 +3848,40 @@
         <v>2278</v>
       </c>
       <c r="AZ15">
-        <v>4796</v>
+        <v>4792</v>
       </c>
       <c r="BA15">
-        <v>7941</v>
+        <v>7942</v>
       </c>
       <c r="BB15">
-        <v>3260</v>
+        <v>3256</v>
       </c>
       <c r="BC15">
-        <v>4458</v>
+        <v>4457</v>
       </c>
       <c r="BD15">
-        <v>4022</v>
+        <v>4023</v>
       </c>
       <c r="BE15">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="BF15">
-        <v>3437</v>
+        <v>3422</v>
       </c>
       <c r="BG15">
-        <v>2724</v>
+        <v>2716</v>
       </c>
       <c r="BH15">
         <v>4687</v>
       </c>
       <c r="BI15">
-        <v>2745</v>
+        <v>2743</v>
       </c>
       <c r="BJ15">
-        <v>1432</v>
+        <v>1428</v>
       </c>
       <c r="BK15">
-        <v>2743</v>
+        <v>2739</v>
       </c>
       <c r="BL15">
         <v>2642</v>
@@ -3893,10 +3893,10 @@
         <v>2932</v>
       </c>
       <c r="BO15">
-        <v>3296</v>
+        <v>3295</v>
       </c>
       <c r="BP15">
-        <v>2091</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="16" spans="1:68">
@@ -4009,13 +4009,13 @@
         <v>83</v>
       </c>
       <c r="AK16">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="AL16">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="AM16">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="AN16">
         <v>1554</v>
@@ -4027,22 +4027,22 @@
         <v>1747</v>
       </c>
       <c r="AQ16">
-        <v>1198</v>
+        <v>1194</v>
       </c>
       <c r="AR16">
         <v>1136</v>
       </c>
       <c r="AS16">
-        <v>2573</v>
+        <v>2569</v>
       </c>
       <c r="AT16">
-        <v>1058</v>
+        <v>1047</v>
       </c>
       <c r="AU16">
-        <v>1512</v>
+        <v>1507</v>
       </c>
       <c r="AV16">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="AW16">
         <v>1157</v>
@@ -4054,7 +4054,7 @@
         <v>1491</v>
       </c>
       <c r="AZ16">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="BA16">
         <v>2750</v>
@@ -4063,31 +4063,31 @@
         <v>1075</v>
       </c>
       <c r="BC16">
-        <v>1495</v>
+        <v>1493</v>
       </c>
       <c r="BD16">
         <v>1450</v>
       </c>
       <c r="BE16">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BF16">
-        <v>2781</v>
+        <v>2773</v>
       </c>
       <c r="BG16">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="BH16">
         <v>1441</v>
       </c>
       <c r="BI16">
-        <v>1861</v>
+        <v>1858</v>
       </c>
       <c r="BJ16">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="BK16">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="BL16">
         <v>3061</v>
@@ -4099,10 +4099,10 @@
         <v>1452</v>
       </c>
       <c r="BO16">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="BP16">
-        <v>1215</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="17" spans="1:68">
@@ -4215,43 +4215,43 @@
         <v>84</v>
       </c>
       <c r="AK17">
-        <v>3502</v>
+        <v>3500</v>
       </c>
       <c r="AL17">
-        <v>7791</v>
+        <v>7787</v>
       </c>
       <c r="AM17">
-        <v>3533</v>
+        <v>3535</v>
       </c>
       <c r="AN17">
-        <v>3136</v>
+        <v>3134</v>
       </c>
       <c r="AO17">
-        <v>4055</v>
+        <v>4057</v>
       </c>
       <c r="AP17">
-        <v>2826</v>
+        <v>2827</v>
       </c>
       <c r="AQ17">
-        <v>3652</v>
+        <v>3648</v>
       </c>
       <c r="AR17">
-        <v>4190</v>
+        <v>4187</v>
       </c>
       <c r="AS17">
-        <v>6923</v>
+        <v>6920</v>
       </c>
       <c r="AT17">
-        <v>4805</v>
+        <v>4786</v>
       </c>
       <c r="AU17">
-        <v>4655</v>
+        <v>4639</v>
       </c>
       <c r="AV17">
-        <v>3450</v>
+        <v>3449</v>
       </c>
       <c r="AW17">
-        <v>1927</v>
+        <v>1926</v>
       </c>
       <c r="AX17">
         <v>5096</v>
@@ -4260,40 +4260,40 @@
         <v>3032</v>
       </c>
       <c r="AZ17">
-        <v>3183</v>
+        <v>3178</v>
       </c>
       <c r="BA17">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="BB17">
-        <v>2226</v>
+        <v>2220</v>
       </c>
       <c r="BC17">
-        <v>3722</v>
+        <v>3718</v>
       </c>
       <c r="BD17">
         <v>2035</v>
       </c>
       <c r="BE17">
-        <v>6464</v>
+        <v>6461</v>
       </c>
       <c r="BF17">
-        <v>3565</v>
+        <v>3540</v>
       </c>
       <c r="BG17">
-        <v>3676</v>
+        <v>3670</v>
       </c>
       <c r="BH17">
-        <v>4928</v>
+        <v>4926</v>
       </c>
       <c r="BI17">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="BJ17">
-        <v>3721</v>
+        <v>3719</v>
       </c>
       <c r="BK17">
-        <v>4184</v>
+        <v>4180</v>
       </c>
       <c r="BL17">
         <v>5021</v>
@@ -4305,10 +4305,10 @@
         <v>1977</v>
       </c>
       <c r="BO17">
-        <v>3824</v>
+        <v>3822</v>
       </c>
       <c r="BP17">
-        <v>4550</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="18" spans="1:68">
@@ -4427,7 +4427,7 @@
         <v>467</v>
       </c>
       <c r="AM18">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AN18">
         <v>205</v>
@@ -4469,7 +4469,7 @@
         <v>600</v>
       </c>
       <c r="BA18">
-        <v>5245</v>
+        <v>5248</v>
       </c>
       <c r="BB18">
         <v>393</v>
@@ -4484,7 +4484,7 @@
         <v>206</v>
       </c>
       <c r="BF18">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="BG18">
         <v>126</v>
@@ -4496,10 +4496,10 @@
         <v>606</v>
       </c>
       <c r="BJ18">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="BK18">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="BL18">
         <v>458</v>
@@ -4630,7 +4630,7 @@
         <v>198</v>
       </c>
       <c r="AL19">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM19">
         <v>268</v>
@@ -4836,13 +4836,13 @@
         <v>6078</v>
       </c>
       <c r="AL20">
-        <v>5941</v>
+        <v>5940</v>
       </c>
       <c r="AM20">
-        <v>6067</v>
+        <v>6078</v>
       </c>
       <c r="AN20">
-        <v>6828</v>
+        <v>6806</v>
       </c>
       <c r="AO20">
         <v>9468</v>
@@ -4851,25 +4851,25 @@
         <v>5790</v>
       </c>
       <c r="AQ20">
-        <v>4237</v>
+        <v>4171</v>
       </c>
       <c r="AR20">
         <v>5093</v>
       </c>
       <c r="AS20">
-        <v>5056</v>
+        <v>5054</v>
       </c>
       <c r="AT20">
-        <v>5965</v>
+        <v>5950</v>
       </c>
       <c r="AU20">
-        <v>3968</v>
+        <v>3954</v>
       </c>
       <c r="AV20">
-        <v>2612</v>
+        <v>2595</v>
       </c>
       <c r="AW20">
-        <v>3836</v>
+        <v>3834</v>
       </c>
       <c r="AX20">
         <v>4500</v>
@@ -4878,10 +4878,10 @@
         <v>1988</v>
       </c>
       <c r="AZ20">
-        <v>5116</v>
+        <v>5114</v>
       </c>
       <c r="BA20">
-        <v>3393</v>
+        <v>10929</v>
       </c>
       <c r="BB20">
         <v>2373</v>
@@ -4893,25 +4893,25 @@
         <v>2745</v>
       </c>
       <c r="BE20">
-        <v>6610</v>
+        <v>6599</v>
       </c>
       <c r="BF20">
-        <v>5836</v>
+        <v>5753</v>
       </c>
       <c r="BG20">
-        <v>2906</v>
+        <v>2869</v>
       </c>
       <c r="BH20">
         <v>4736</v>
       </c>
       <c r="BI20">
-        <v>6071</v>
+        <v>6067</v>
       </c>
       <c r="BJ20">
         <v>4758</v>
       </c>
       <c r="BK20">
-        <v>6096</v>
+        <v>6084</v>
       </c>
       <c r="BL20">
         <v>5222</v>
@@ -4923,10 +4923,10 @@
         <v>2567</v>
       </c>
       <c r="BO20">
-        <v>3433</v>
+        <v>3422</v>
       </c>
       <c r="BP20">
-        <v>4766</v>
+        <v>4764</v>
       </c>
     </row>
     <row r="21" spans="1:68">
@@ -5036,7 +5036,7 @@
         <v>88</v>
       </c>
       <c r="AK21">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AL21">
         <v>376</v>
@@ -5045,7 +5045,7 @@
         <v>190</v>
       </c>
       <c r="AN21">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AO21">
         <v>812</v>
@@ -5054,7 +5054,7 @@
         <v>594</v>
       </c>
       <c r="AQ21">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AR21">
         <v>253</v>
@@ -5063,13 +5063,13 @@
         <v>151</v>
       </c>
       <c r="AT21">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="AU21">
         <v>550</v>
       </c>
       <c r="AV21">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AW21">
         <v>219</v>
@@ -5096,19 +5096,19 @@
         <v>457</v>
       </c>
       <c r="BE21">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="BF21">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="BG21">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="BH21">
         <v>952</v>
       </c>
       <c r="BI21">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="BJ21">
         <v>532</v>
@@ -5123,10 +5123,10 @@
         <v>177</v>
       </c>
       <c r="BO21">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BP21">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="22" spans="1:68">
@@ -5239,16 +5239,16 @@
         <v>89</v>
       </c>
       <c r="AK22">
-        <v>6668</v>
+        <v>6659</v>
       </c>
       <c r="AL22">
-        <v>8275</v>
+        <v>8263</v>
       </c>
       <c r="AM22">
         <v>3856</v>
       </c>
       <c r="AN22">
-        <v>6231</v>
+        <v>6230</v>
       </c>
       <c r="AO22">
         <v>4898</v>
@@ -5263,16 +5263,16 @@
         <v>4970</v>
       </c>
       <c r="AS22">
-        <v>8084</v>
+        <v>8072</v>
       </c>
       <c r="AT22">
-        <v>3120</v>
+        <v>3102</v>
       </c>
       <c r="AU22">
-        <v>5914</v>
+        <v>5900</v>
       </c>
       <c r="AV22">
-        <v>3016</v>
+        <v>2977</v>
       </c>
       <c r="AW22">
         <v>4478</v>
@@ -5281,43 +5281,43 @@
         <v>4111</v>
       </c>
       <c r="AY22">
-        <v>3268</v>
+        <v>3269</v>
       </c>
       <c r="AZ22">
-        <v>5688</v>
+        <v>5684</v>
       </c>
       <c r="BA22">
         <v>16092</v>
       </c>
       <c r="BB22">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="BC22">
-        <v>5795</v>
+        <v>5792</v>
       </c>
       <c r="BD22">
         <v>3076</v>
       </c>
       <c r="BE22">
-        <v>3104</v>
+        <v>3091</v>
       </c>
       <c r="BF22">
-        <v>4603</v>
+        <v>4574</v>
       </c>
       <c r="BG22">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="BH22">
         <v>7694</v>
       </c>
       <c r="BI22">
-        <v>5766</v>
+        <v>5760</v>
       </c>
       <c r="BJ22">
-        <v>4642</v>
+        <v>4621</v>
       </c>
       <c r="BK22">
-        <v>7481</v>
+        <v>7455</v>
       </c>
       <c r="BL22">
         <v>3895</v>
@@ -5329,10 +5329,10 @@
         <v>3337</v>
       </c>
       <c r="BO22">
-        <v>2439</v>
+        <v>2438</v>
       </c>
       <c r="BP22">
-        <v>1180</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="23" spans="1:68">
@@ -5654,7 +5654,7 @@
         <v>93</v>
       </c>
       <c r="AL24">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AM24">
         <v>183</v>
@@ -5675,13 +5675,13 @@
         <v>430</v>
       </c>
       <c r="AS24">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AT24">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AU24">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="AV24">
         <v>232</v>
@@ -5693,7 +5693,7 @@
         <v>171</v>
       </c>
       <c r="AY24">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AZ24">
         <v>313</v>
@@ -5702,7 +5702,7 @@
         <v>706</v>
       </c>
       <c r="BB24">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BC24">
         <v>251</v>
@@ -5711,10 +5711,10 @@
         <v>370</v>
       </c>
       <c r="BE24">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="BF24">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BG24">
         <v>479</v>
@@ -5723,10 +5723,10 @@
         <v>356</v>
       </c>
       <c r="BI24">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="BJ24">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="BK24">
         <v>549</v>
@@ -5866,7 +5866,7 @@
         <v>3578</v>
       </c>
       <c r="AN25">
-        <v>3467</v>
+        <v>3437</v>
       </c>
       <c r="AO25">
         <v>2715</v>
@@ -5887,19 +5887,19 @@
         <v>1120</v>
       </c>
       <c r="AU25">
-        <v>3310</v>
+        <v>3305</v>
       </c>
       <c r="AV25">
         <v>2315</v>
       </c>
       <c r="AW25">
-        <v>5672</v>
+        <v>5666</v>
       </c>
       <c r="AX25">
         <v>2552</v>
       </c>
       <c r="AY25">
-        <v>1580</v>
+        <v>1585</v>
       </c>
       <c r="AZ25">
         <v>3067</v>
@@ -5923,16 +5923,16 @@
         <v>2800</v>
       </c>
       <c r="BG25">
-        <v>3055</v>
+        <v>3050</v>
       </c>
       <c r="BH25">
         <v>6303</v>
       </c>
       <c r="BI25">
-        <v>4475</v>
+        <v>4465</v>
       </c>
       <c r="BJ25">
-        <v>3994</v>
+        <v>3964</v>
       </c>
       <c r="BK25">
         <v>4036</v>
@@ -6066,7 +6066,7 @@
         <v>1393</v>
       </c>
       <c r="AL26">
-        <v>4608</v>
+        <v>4618</v>
       </c>
       <c r="AM26">
         <v>1238</v>
@@ -6129,7 +6129,7 @@
         <v>1919</v>
       </c>
       <c r="BG26">
-        <v>1752</v>
+        <v>1747</v>
       </c>
       <c r="BH26">
         <v>8901</v>
@@ -6866,7 +6866,7 @@
         <v>41</v>
       </c>
       <c r="AL30">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AM30">
         <v>46</v>
@@ -6941,7 +6941,7 @@
         <v>68</v>
       </c>
       <c r="BK30">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BL30">
         <v>9</v>
@@ -7069,7 +7069,7 @@
         <v>98</v>
       </c>
       <c r="AK31">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="AL31">
         <v>119</v>
@@ -7123,7 +7123,7 @@
         <v>112</v>
       </c>
       <c r="BC31">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BD31">
         <v>75</v>
@@ -7284,7 +7284,7 @@
         <v>187</v>
       </c>
       <c r="AN32">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AO32">
         <v>125</v>
@@ -7329,7 +7329,7 @@
         <v>133</v>
       </c>
       <c r="BC32">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="BD32">
         <v>239</v>
@@ -7338,7 +7338,7 @@
         <v>51</v>
       </c>
       <c r="BF32">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="BG32">
         <v>89</v>
@@ -7353,7 +7353,7 @@
         <v>81</v>
       </c>
       <c r="BK32">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BL32">
         <v>70</v>
@@ -7544,7 +7544,7 @@
         <v>21</v>
       </c>
       <c r="BF33">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BG33">
         <v>47</v>
@@ -7690,13 +7690,13 @@
         <v>702</v>
       </c>
       <c r="AL34">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="AM34">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AN34">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="AO34">
         <v>308</v>
@@ -7705,7 +7705,7 @@
         <v>487</v>
       </c>
       <c r="AQ34">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AR34">
         <v>927</v>
@@ -7714,13 +7714,13 @@
         <v>390</v>
       </c>
       <c r="AT34">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="AU34">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="AV34">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="AW34">
         <v>608</v>
@@ -7732,7 +7732,7 @@
         <v>229</v>
       </c>
       <c r="AZ34">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="BA34">
         <v>989</v>
@@ -7747,25 +7747,25 @@
         <v>343</v>
       </c>
       <c r="BE34">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="BF34">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="BG34">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="BH34">
         <v>663</v>
       </c>
       <c r="BI34">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="BJ34">
         <v>359</v>
       </c>
       <c r="BK34">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="BL34">
         <v>292</v>
@@ -7777,7 +7777,7 @@
         <v>487</v>
       </c>
       <c r="BO34">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="BP34">
         <v>471</v>
@@ -7896,7 +7896,7 @@
         <v>180</v>
       </c>
       <c r="AM35">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AN35">
         <v>369</v>
@@ -7956,19 +7956,19 @@
         <v>181</v>
       </c>
       <c r="BG35">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BH35">
         <v>206</v>
       </c>
       <c r="BI35">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BJ35">
         <v>150</v>
       </c>
       <c r="BK35">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="BL35">
         <v>92</v>
@@ -7980,7 +7980,7 @@
         <v>167</v>
       </c>
       <c r="BP35">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -8117,13 +8117,13 @@
         <v>70</v>
       </c>
       <c r="AT36">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AU36">
         <v>131</v>
       </c>
       <c r="AV36">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AW36">
         <v>86</v>
@@ -8296,10 +8296,10 @@
         <v>436</v>
       </c>
       <c r="AL37">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AM37">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AN37">
         <v>316</v>
@@ -8317,16 +8317,16 @@
         <v>347</v>
       </c>
       <c r="AS37">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AT37">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AU37">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AV37">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="AW37">
         <v>126</v>
@@ -8353,13 +8353,13 @@
         <v>180</v>
       </c>
       <c r="BE37">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="BF37">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="BG37">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="BH37">
         <v>235</v>
@@ -8386,7 +8386,7 @@
         <v>184</v>
       </c>
       <c r="BP37">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="38" spans="1:68">
@@ -8502,10 +8502,10 @@
         <v>1297</v>
       </c>
       <c r="AL38">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="AM38">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="AN38">
         <v>708</v>
@@ -8517,25 +8517,25 @@
         <v>1247</v>
       </c>
       <c r="AQ38">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="AR38">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="AS38">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="AT38">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="AU38">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="AV38">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="AW38">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="AX38">
         <v>446</v>
@@ -8544,7 +8544,7 @@
         <v>563</v>
       </c>
       <c r="AZ38">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="BA38">
         <v>2084</v>
@@ -8559,25 +8559,25 @@
         <v>646</v>
       </c>
       <c r="BE38">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="BF38">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="BG38">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="BH38">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="BI38">
-        <v>1539</v>
+        <v>1537</v>
       </c>
       <c r="BJ38">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="BK38">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="BL38">
         <v>1229</v>
@@ -8711,7 +8711,7 @@
         <v>823</v>
       </c>
       <c r="AM39">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AN39">
         <v>557</v>
@@ -8723,7 +8723,7 @@
         <v>488</v>
       </c>
       <c r="AQ39">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="AR39">
         <v>400</v>
@@ -8732,13 +8732,13 @@
         <v>683</v>
       </c>
       <c r="AT39">
-        <v>960</v>
+        <v>946</v>
       </c>
       <c r="AU39">
         <v>547</v>
       </c>
       <c r="AV39">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="AW39">
         <v>444</v>
@@ -8783,7 +8783,7 @@
         <v>446</v>
       </c>
       <c r="BK39">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="BL39">
         <v>561</v>
@@ -8795,7 +8795,7 @@
         <v>776</v>
       </c>
       <c r="BO39">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="BP39">
         <v>903</v>
@@ -8908,13 +8908,13 @@
         <v>187</v>
       </c>
       <c r="AL40">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="AM40">
         <v>147</v>
       </c>
       <c r="AN40">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AO40">
         <v>290</v>
@@ -8935,10 +8935,10 @@
         <v>284</v>
       </c>
       <c r="AV40">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AW40">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AX40">
         <v>322</v>
@@ -8950,10 +8950,10 @@
         <v>91</v>
       </c>
       <c r="BA40">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="BB40">
-        <v>681</v>
+        <v>202</v>
       </c>
       <c r="BC40">
         <v>125</v>
@@ -8962,13 +8962,13 @@
         <v>454</v>
       </c>
       <c r="BE40">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="BF40">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BG40">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="BH40">
         <v>209</v>
@@ -8977,7 +8977,7 @@
         <v>93</v>
       </c>
       <c r="BJ40">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BK40">
         <v>56</v>
@@ -8992,7 +8992,7 @@
         <v>240</v>
       </c>
       <c r="BP40">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:68">
@@ -9108,13 +9108,13 @@
         <v>1654</v>
       </c>
       <c r="AL41">
-        <v>1651</v>
+        <v>1646</v>
       </c>
       <c r="AM41">
         <v>1535</v>
       </c>
       <c r="AN41">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="AO41">
         <v>910</v>
@@ -9123,25 +9123,25 @@
         <v>991</v>
       </c>
       <c r="AQ41">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="AR41">
         <v>1637</v>
       </c>
       <c r="AS41">
-        <v>1413</v>
+        <v>1411</v>
       </c>
       <c r="AT41">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="AU41">
         <v>1941</v>
       </c>
       <c r="AV41">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="AW41">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="AX41">
         <v>1068</v>
@@ -9159,31 +9159,31 @@
         <v>551</v>
       </c>
       <c r="BC41">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="BD41">
         <v>556</v>
       </c>
       <c r="BE41">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="BF41">
-        <v>1684</v>
+        <v>1677</v>
       </c>
       <c r="BG41">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="BH41">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="BI41">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="BJ41">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="BK41">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="BL41">
         <v>1094</v>
@@ -9198,7 +9198,7 @@
         <v>1028</v>
       </c>
       <c r="BP41">
-        <v>1411</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -9514,7 +9514,7 @@
         <v>170</v>
       </c>
       <c r="AL43">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AM43">
         <v>50</v>
@@ -9523,7 +9523,7 @@
         <v>606</v>
       </c>
       <c r="AO43">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="AP43">
         <v>1026</v>
@@ -9538,7 +9538,7 @@
         <v>214</v>
       </c>
       <c r="AU43">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AV43">
         <v>896</v>
@@ -9568,7 +9568,7 @@
         <v>74</v>
       </c>
       <c r="BE43">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="BF43">
         <v>275</v>
@@ -9711,52 +9711,52 @@
         <v>111</v>
       </c>
       <c r="AK44">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="AL44">
-        <v>1217</v>
+        <v>1214</v>
       </c>
       <c r="AM44">
         <v>433</v>
       </c>
       <c r="AN44">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="AO44">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="AP44">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="AQ44">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="AR44">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="AS44">
         <v>657</v>
       </c>
       <c r="AT44">
-        <v>1146</v>
+        <v>1139</v>
       </c>
       <c r="AU44">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AV44">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="AW44">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="AX44">
         <v>1330</v>
       </c>
       <c r="AY44">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="AZ44">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="BA44">
         <v>830</v>
@@ -9771,13 +9771,13 @@
         <v>423</v>
       </c>
       <c r="BE44">
-        <v>1472</v>
+        <v>1465</v>
       </c>
       <c r="BF44">
-        <v>1111</v>
+        <v>1089</v>
       </c>
       <c r="BG44">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="BH44">
         <v>964</v>
@@ -9789,10 +9789,10 @@
         <v>856</v>
       </c>
       <c r="BK44">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="BL44">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="BM44">
         <v>18</v>
@@ -9801,10 +9801,10 @@
         <v>1436</v>
       </c>
       <c r="BO44">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="BP44">
-        <v>895</v>
+        <v>889</v>
       </c>
     </row>
     <row r="45" spans="1:68">
@@ -9920,16 +9920,16 @@
         <v>2314</v>
       </c>
       <c r="AL45">
-        <v>3027</v>
+        <v>3023</v>
       </c>
       <c r="AM45">
-        <v>1596</v>
+        <v>1602</v>
       </c>
       <c r="AN45">
         <v>1432</v>
       </c>
       <c r="AO45">
-        <v>2368</v>
+        <v>2366</v>
       </c>
       <c r="AP45">
         <v>2049</v>
@@ -9938,19 +9938,19 @@
         <v>2310</v>
       </c>
       <c r="AR45">
-        <v>3179</v>
+        <v>3174</v>
       </c>
       <c r="AS45">
         <v>3190</v>
       </c>
       <c r="AT45">
-        <v>2227</v>
+        <v>2212</v>
       </c>
       <c r="AU45">
-        <v>1854</v>
+        <v>1851</v>
       </c>
       <c r="AV45">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="AW45">
         <v>1980</v>
@@ -9962,7 +9962,7 @@
         <v>1814</v>
       </c>
       <c r="AZ45">
-        <v>1381</v>
+        <v>1366</v>
       </c>
       <c r="BA45">
         <v>4492</v>
@@ -9977,13 +9977,13 @@
         <v>2172</v>
       </c>
       <c r="BE45">
-        <v>2181</v>
+        <v>2159</v>
       </c>
       <c r="BF45">
-        <v>2258</v>
+        <v>2218</v>
       </c>
       <c r="BG45">
-        <v>2015</v>
+        <v>2009</v>
       </c>
       <c r="BH45">
         <v>1364</v>
@@ -9995,7 +9995,7 @@
         <v>2149</v>
       </c>
       <c r="BK45">
-        <v>2462</v>
+        <v>2451</v>
       </c>
       <c r="BL45">
         <v>1532</v>
@@ -10135,7 +10135,7 @@
         <v>44</v>
       </c>
       <c r="AT46">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AU46">
         <v>21</v>
@@ -10296,7 +10296,7 @@
         <v>50</v>
       </c>
       <c r="AT47">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AU47">
         <v>70</v>
@@ -10454,7 +10454,7 @@
         <v>362</v>
       </c>
       <c r="AL48">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="AM48">
         <v>463</v>
@@ -10472,19 +10472,19 @@
         <v>709</v>
       </c>
       <c r="AR48">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="AS48">
         <v>337</v>
       </c>
       <c r="AT48">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="AU48">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="AV48">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AW48">
         <v>431</v>
@@ -10502,10 +10502,10 @@
         <v>1164</v>
       </c>
       <c r="BB48">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BC48">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="BD48">
         <v>499</v>
@@ -10514,10 +10514,10 @@
         <v>437</v>
       </c>
       <c r="BF48">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="BG48">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BH48">
         <v>702</v>
@@ -10529,7 +10529,7 @@
         <v>519</v>
       </c>
       <c r="BK48">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="BL48">
         <v>566</v>
@@ -10666,10 +10666,10 @@
         <v>151</v>
       </c>
       <c r="AN49">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AO49">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AP49">
         <v>213</v>
@@ -10687,13 +10687,13 @@
         <v>117</v>
       </c>
       <c r="AU49">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AV49">
         <v>193</v>
       </c>
       <c r="AW49">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AX49">
         <v>127</v>
@@ -10720,10 +10720,10 @@
         <v>118</v>
       </c>
       <c r="BF49">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="BG49">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="BH49">
         <v>95</v>
@@ -10863,16 +10863,16 @@
         <v>117</v>
       </c>
       <c r="AK50">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="AL50">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="AM50">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="AN50">
-        <v>1156</v>
+        <v>1144</v>
       </c>
       <c r="AO50">
         <v>911</v>
@@ -10881,7 +10881,7 @@
         <v>384</v>
       </c>
       <c r="AQ50">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AR50">
         <v>906</v>
@@ -10890,16 +10890,16 @@
         <v>691</v>
       </c>
       <c r="AT50">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="AU50">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="AV50">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AW50">
-        <v>506</v>
+        <v>475</v>
       </c>
       <c r="AX50">
         <v>276</v>
@@ -10908,40 +10908,40 @@
         <v>348</v>
       </c>
       <c r="AZ50">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="BA50">
-        <v>1143</v>
+        <v>1623</v>
       </c>
       <c r="BB50">
         <v>430</v>
       </c>
       <c r="BC50">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="BD50">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="BE50">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="BF50">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="BG50">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="BH50">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="BI50">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="BJ50">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="BK50">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="BL50">
         <v>832</v>
@@ -10956,7 +10956,7 @@
         <v>911</v>
       </c>
       <c r="BP50">
-        <v>621</v>
+        <v>602</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11084,7 +11084,7 @@
         <v>154</v>
       </c>
       <c r="BB51">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="BC51">
         <v>33</v>
@@ -11296,7 +11296,7 @@
         <v>53</v>
       </c>
       <c r="BF52">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BG52">
         <v>61</v>
@@ -11451,7 +11451,7 @@
         <v>848</v>
       </c>
       <c r="AO53">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="AP53">
         <v>833</v>
@@ -11463,7 +11463,7 @@
         <v>479</v>
       </c>
       <c r="AS53">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="AT53">
         <v>344</v>
@@ -11472,7 +11472,7 @@
         <v>504</v>
       </c>
       <c r="AV53">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AW53">
         <v>413</v>
@@ -11481,7 +11481,7 @@
         <v>294</v>
       </c>
       <c r="AY53">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="AZ53">
         <v>855</v>
@@ -11499,10 +11499,10 @@
         <v>626</v>
       </c>
       <c r="BE53">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="BF53">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="BG53">
         <v>306</v>
@@ -11514,7 +11514,7 @@
         <v>709</v>
       </c>
       <c r="BJ53">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="BK53">
         <v>415</v>
@@ -11569,6 +11569,9 @@
       <c r="P54" t="s">
         <v>150</v>
       </c>
+      <c r="Q54" t="s">
+        <v>150</v>
+      </c>
       <c r="S54" t="s">
         <v>150</v>
       </c>
@@ -11612,7 +11615,7 @@
         <v>8</v>
       </c>
       <c r="AO54">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP54">
         <v>41</v>
@@ -11632,6 +11635,9 @@
       <c r="AX54">
         <v>44</v>
       </c>
+      <c r="AY54">
+        <v>1</v>
+      </c>
       <c r="BA54">
         <v>67</v>
       </c>
@@ -11645,16 +11651,16 @@
         <v>20</v>
       </c>
       <c r="BE54">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BG54">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BI54">
         <v>20</v>
       </c>
       <c r="BJ54">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BL54">
         <v>15</v>
@@ -11836,7 +11842,7 @@
         <v>13</v>
       </c>
       <c r="BF55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BG55">
         <v>17</v>
@@ -11982,22 +11988,22 @@
         <v>2892</v>
       </c>
       <c r="AL56">
-        <v>1969</v>
+        <v>2966</v>
       </c>
       <c r="AM56">
         <v>2715</v>
       </c>
       <c r="AN56">
-        <v>1415</v>
+        <v>1406</v>
       </c>
       <c r="AO56">
-        <v>2454</v>
+        <v>3454</v>
       </c>
       <c r="AP56">
-        <v>3205</v>
+        <v>3214</v>
       </c>
       <c r="AQ56">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AR56">
         <v>2051</v>
@@ -12006,19 +12012,19 @@
         <v>2853</v>
       </c>
       <c r="AT56">
-        <v>1687</v>
+        <v>1676</v>
       </c>
       <c r="AU56">
-        <v>2739</v>
+        <v>2730</v>
       </c>
       <c r="AV56">
         <v>2280</v>
       </c>
       <c r="AW56">
-        <v>2393</v>
+        <v>2392</v>
       </c>
       <c r="AX56">
-        <v>1863</v>
+        <v>2866</v>
       </c>
       <c r="AY56">
         <v>2980</v>
@@ -12042,10 +12048,10 @@
         <v>2616</v>
       </c>
       <c r="BF56">
-        <v>2894</v>
+        <v>2887</v>
       </c>
       <c r="BG56">
-        <v>1738</v>
+        <v>1735</v>
       </c>
       <c r="BH56">
         <v>460</v>
@@ -12054,7 +12060,7 @@
         <v>2967</v>
       </c>
       <c r="BJ56">
-        <v>2514</v>
+        <v>3014</v>
       </c>
       <c r="BK56">
         <v>568</v>
@@ -12072,7 +12078,7 @@
         <v>1910</v>
       </c>
       <c r="BP56">
-        <v>5208</v>
+        <v>5206</v>
       </c>
     </row>
     <row r="57" spans="1:68">
@@ -12209,13 +12215,13 @@
         <v>215</v>
       </c>
       <c r="AT57">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="AU57">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AV57">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AW57">
         <v>413</v>
@@ -12245,7 +12251,7 @@
         <v>125</v>
       </c>
       <c r="BF57">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="BG57">
         <v>296</v>
@@ -12257,7 +12263,7 @@
         <v>277</v>
       </c>
       <c r="BJ57">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="BK57">
         <v>55</v>
@@ -12397,22 +12403,22 @@
         <v>905</v>
       </c>
       <c r="AP58">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="AQ58">
-        <v>3434</v>
+        <v>3404</v>
       </c>
       <c r="AR58">
-        <v>1383</v>
+        <v>1378</v>
       </c>
       <c r="AS58">
         <v>864</v>
       </c>
       <c r="AT58">
-        <v>1318</v>
+        <v>1314</v>
       </c>
       <c r="AU58">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="AV58">
         <v>993</v>
@@ -12427,7 +12433,7 @@
         <v>1514</v>
       </c>
       <c r="AZ58">
-        <v>1771</v>
+        <v>1765</v>
       </c>
       <c r="BA58">
         <v>726</v>
@@ -12448,7 +12454,7 @@
         <v>2515</v>
       </c>
       <c r="BG58">
-        <v>1536</v>
+        <v>1531</v>
       </c>
       <c r="BH58">
         <v>2470</v>
@@ -12469,7 +12475,7 @@
         <v>1601</v>
       </c>
       <c r="BO58">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="BP58">
         <v>2244</v>
@@ -12603,7 +12609,7 @@
         <v>178</v>
       </c>
       <c r="AU59">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AV59">
         <v>250</v>
@@ -12800,7 +12806,7 @@
         <v>96</v>
       </c>
       <c r="AT60">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AU60">
         <v>113</v>
@@ -12836,7 +12842,7 @@
         <v>173</v>
       </c>
       <c r="BF60">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BG60">
         <v>119</v>
@@ -13020,28 +13026,28 @@
         <v>1009</v>
       </c>
       <c r="AM62">
-        <v>1607</v>
+        <v>1609</v>
       </c>
       <c r="AN62">
         <v>1161</v>
       </c>
       <c r="AO62">
-        <v>1796</v>
+        <v>1792</v>
       </c>
       <c r="AP62">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="AQ62">
-        <v>2539</v>
+        <v>2529</v>
       </c>
       <c r="AR62">
-        <v>2517</v>
+        <v>2515</v>
       </c>
       <c r="AS62">
         <v>992</v>
       </c>
       <c r="AT62">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="AU62">
         <v>833</v>
@@ -13074,19 +13080,19 @@
         <v>841</v>
       </c>
       <c r="BE62">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="BF62">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="BG62">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="BH62">
         <v>1563</v>
       </c>
       <c r="BI62">
-        <v>2041</v>
+        <v>2043</v>
       </c>
       <c r="BJ62">
         <v>2054</v>
@@ -13101,7 +13107,7 @@
         <v>1901</v>
       </c>
       <c r="BO62">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="BP62">
         <v>1676</v>
@@ -13280,7 +13286,7 @@
         <v>121</v>
       </c>
       <c r="BG63">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="BH63">
         <v>16</v>
@@ -13426,10 +13432,10 @@
         <v>427</v>
       </c>
       <c r="AN64">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AO64">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AP64">
         <v>1246</v>
@@ -13438,7 +13444,7 @@
         <v>484</v>
       </c>
       <c r="AR64">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="AS64">
         <v>627</v>
@@ -13447,10 +13453,10 @@
         <v>449</v>
       </c>
       <c r="AU64">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="AV64">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AW64">
         <v>596</v>
@@ -13462,16 +13468,16 @@
         <v>796</v>
       </c>
       <c r="AZ64">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="BA64">
-        <v>8623</v>
+        <v>8625</v>
       </c>
       <c r="BB64">
         <v>815</v>
       </c>
       <c r="BC64">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="BD64">
         <v>1069</v>
@@ -13480,10 +13486,10 @@
         <v>344</v>
       </c>
       <c r="BF64">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="BG64">
-        <v>718</v>
+        <v>710</v>
       </c>
       <c r="BH64">
         <v>430</v>
@@ -13495,7 +13501,7 @@
         <v>788</v>
       </c>
       <c r="BK64">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="BL64">
         <v>174</v>
@@ -13510,7 +13516,7 @@
         <v>227</v>
       </c>
       <c r="BP64">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -13814,7 +13820,7 @@
         <v>218</v>
       </c>
       <c r="AL66">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="AM66">
         <v>152</v>
@@ -13826,7 +13832,7 @@
         <v>119</v>
       </c>
       <c r="AP66">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AQ66">
         <v>88</v>
@@ -13838,7 +13844,7 @@
         <v>155</v>
       </c>
       <c r="AT66">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AU66">
         <v>101</v>
@@ -13871,7 +13877,7 @@
         <v>153</v>
       </c>
       <c r="BF66">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BG66">
         <v>62</v>
@@ -14014,7 +14020,7 @@
         <v>399</v>
       </c>
       <c r="AL67">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="AM67">
         <v>480</v>
@@ -14038,7 +14044,7 @@
         <v>501</v>
       </c>
       <c r="AT67">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AU67">
         <v>738</v>
@@ -14047,7 +14053,7 @@
         <v>270</v>
       </c>
       <c r="AW67">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AX67">
         <v>499</v>
@@ -14056,7 +14062,7 @@
         <v>378</v>
       </c>
       <c r="AZ67">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="BA67">
         <v>8826</v>
@@ -14071,10 +14077,10 @@
         <v>550</v>
       </c>
       <c r="BE67">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="BF67">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="BG67">
         <v>173</v>
@@ -14217,10 +14223,10 @@
         <v>206</v>
       </c>
       <c r="AL68">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AM68">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AN68">
         <v>341</v>
@@ -14232,7 +14238,7 @@
         <v>396</v>
       </c>
       <c r="AQ68">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AR68">
         <v>455</v>
@@ -14280,7 +14286,7 @@
         <v>323</v>
       </c>
       <c r="BG68">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="BH68">
         <v>155</v>
@@ -14417,7 +14423,7 @@
         <v>136</v>
       </c>
       <c r="AK69">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="AL69">
         <v>734</v>
@@ -14426,7 +14432,7 @@
         <v>644</v>
       </c>
       <c r="AN69">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AO69">
         <v>439</v>
@@ -14435,7 +14441,7 @@
         <v>663</v>
       </c>
       <c r="AQ69">
-        <v>879</v>
+        <v>868</v>
       </c>
       <c r="AR69">
         <v>663</v>
@@ -14444,10 +14450,10 @@
         <v>246</v>
       </c>
       <c r="AT69">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="AU69">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="AV69">
         <v>798</v>
@@ -14480,10 +14486,10 @@
         <v>807</v>
       </c>
       <c r="BF69">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="BG69">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="BH69">
         <v>210</v>
@@ -14510,7 +14516,7 @@
         <v>749</v>
       </c>
       <c r="BP69">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -14623,13 +14629,13 @@
         <v>252</v>
       </c>
       <c r="AL70">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AM70">
         <v>92</v>
       </c>
       <c r="AN70">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AO70">
         <v>228</v>
@@ -14683,7 +14689,7 @@
         <v>200</v>
       </c>
       <c r="BG70">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BH70">
         <v>156</v>
@@ -14826,13 +14832,13 @@
         <v>1112</v>
       </c>
       <c r="AL71">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AM71">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AN71">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="AO71">
         <v>587</v>
@@ -14850,7 +14856,7 @@
         <v>595</v>
       </c>
       <c r="AT71">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="AU71">
         <v>907</v>
@@ -14877,7 +14883,7 @@
         <v>1130</v>
       </c>
       <c r="BC71">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="BD71">
         <v>2341</v>
@@ -14886,22 +14892,22 @@
         <v>994</v>
       </c>
       <c r="BF71">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="BG71">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="BH71">
         <v>658</v>
       </c>
       <c r="BI71">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="BJ71">
         <v>965</v>
       </c>
       <c r="BK71">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="BL71">
         <v>488</v>
@@ -14913,7 +14919,7 @@
         <v>649</v>
       </c>
       <c r="BO71">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="BP71">
         <v>871</v>
@@ -15053,7 +15059,7 @@
         <v>31</v>
       </c>
       <c r="AT72">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AU72">
         <v>83</v>
@@ -15226,10 +15232,10 @@
         <v>140</v>
       </c>
       <c r="AK73">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="AL73">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="AM73">
         <v>38</v>
@@ -15241,28 +15247,28 @@
         <v>3047</v>
       </c>
       <c r="AP73">
-        <v>7273</v>
+        <v>7275</v>
       </c>
       <c r="AQ73">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AR73">
-        <v>2303</v>
+        <v>2289</v>
       </c>
       <c r="AS73">
         <v>27</v>
       </c>
       <c r="AT73">
-        <v>1737</v>
+        <v>1666</v>
       </c>
       <c r="AU73">
         <v>13</v>
       </c>
       <c r="AV73">
-        <v>2966</v>
+        <v>2955</v>
       </c>
       <c r="AW73">
-        <v>2621</v>
+        <v>2619</v>
       </c>
       <c r="AX73">
         <v>2078</v>
@@ -15271,7 +15277,7 @@
         <v>528</v>
       </c>
       <c r="AZ73">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="BA73">
         <v>1058</v>
@@ -15280,16 +15286,16 @@
         <v>3293</v>
       </c>
       <c r="BC73">
-        <v>2994</v>
+        <v>2972</v>
       </c>
       <c r="BD73">
         <v>1418</v>
       </c>
       <c r="BE73">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="BG73">
-        <v>990</v>
+        <v>946</v>
       </c>
       <c r="BH73">
         <v>1974</v>
@@ -15301,7 +15307,7 @@
         <v>5090</v>
       </c>
       <c r="BK73">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="BL73">
         <v>3639</v>
@@ -15316,7 +15322,7 @@
         <v>3547</v>
       </c>
       <c r="BP73">
-        <v>204</v>
+        <v>171</v>
       </c>
     </row>
     <row r="74" spans="1:68">
@@ -15432,7 +15438,7 @@
         <v>208</v>
       </c>
       <c r="AM74">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AN74">
         <v>143</v>
@@ -15471,7 +15477,7 @@
         <v>127</v>
       </c>
       <c r="AZ74">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BA74">
         <v>90</v>
@@ -15486,7 +15492,7 @@
         <v>249</v>
       </c>
       <c r="BF74">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="BG74">
         <v>57</v>
@@ -15638,7 +15644,7 @@
         <v>816</v>
       </c>
       <c r="AN75">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AO75">
         <v>381</v>
@@ -15656,7 +15662,7 @@
         <v>580</v>
       </c>
       <c r="AT75">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="AU75">
         <v>505</v>
@@ -15692,7 +15698,7 @@
         <v>213</v>
       </c>
       <c r="BF75">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="BG75">
         <v>493</v>
@@ -15701,13 +15707,13 @@
         <v>411</v>
       </c>
       <c r="BI75">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BJ75">
         <v>321</v>
       </c>
       <c r="BK75">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="BL75">
         <v>673</v>
@@ -15820,7 +15826,7 @@
         <v>12</v>
       </c>
       <c r="AO76">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AP76">
         <v>109</v>
@@ -16211,7 +16217,7 @@
         <v>1911</v>
       </c>
       <c r="AQ78">
-        <v>1391</v>
+        <v>1375</v>
       </c>
       <c r="AR78">
         <v>1420</v>
@@ -16220,13 +16226,13 @@
         <v>1138</v>
       </c>
       <c r="AT78">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="AU78">
         <v>1088</v>
       </c>
       <c r="AV78">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="AW78">
         <v>956</v>
@@ -16247,16 +16253,16 @@
         <v>952</v>
       </c>
       <c r="BC78">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="BD78">
         <v>1020</v>
       </c>
       <c r="BE78">
-        <v>2349</v>
+        <v>2338</v>
       </c>
       <c r="BF78">
-        <v>2022</v>
+        <v>2016</v>
       </c>
       <c r="BG78">
         <v>1497</v>
@@ -16265,7 +16271,7 @@
         <v>1126</v>
       </c>
       <c r="BI78">
-        <v>1593</v>
+        <v>1584</v>
       </c>
       <c r="BJ78">
         <v>1403</v>
@@ -16274,7 +16280,7 @@
         <v>2165</v>
       </c>
       <c r="BL78">
-        <v>1203</v>
+        <v>1205</v>
       </c>
       <c r="BM78">
         <v>81</v>
@@ -16283,10 +16289,10 @@
         <v>1588</v>
       </c>
       <c r="BO78">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="BP78">
-        <v>1418</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -16408,7 +16414,7 @@
         <v>900</v>
       </c>
       <c r="AN79">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="AO79">
         <v>1353</v>
@@ -16420,7 +16426,7 @@
         <v>1166</v>
       </c>
       <c r="AR79">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="AS79">
         <v>881</v>
@@ -16429,7 +16435,7 @@
         <v>1168</v>
       </c>
       <c r="AU79">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AV79">
         <v>1069</v>
@@ -16453,7 +16459,7 @@
         <v>1218</v>
       </c>
       <c r="BC79">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="BD79">
         <v>1550</v>
@@ -16608,16 +16614,16 @@
         <v>1943</v>
       </c>
       <c r="AL80">
-        <v>2695</v>
+        <v>2697</v>
       </c>
       <c r="AM80">
         <v>1393</v>
       </c>
       <c r="AN80">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="AO80">
-        <v>1128</v>
+        <v>1117</v>
       </c>
       <c r="AP80">
         <v>1363</v>
@@ -16626,19 +16632,19 @@
         <v>2397</v>
       </c>
       <c r="AR80">
-        <v>2640</v>
+        <v>2642</v>
       </c>
       <c r="AS80">
         <v>2429</v>
       </c>
       <c r="AT80">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="AU80">
-        <v>2343</v>
+        <v>2316</v>
       </c>
       <c r="AV80">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="AW80">
         <v>1211</v>
@@ -16668,10 +16674,10 @@
         <v>1472</v>
       </c>
       <c r="BF80">
-        <v>2160</v>
+        <v>2145</v>
       </c>
       <c r="BG80">
-        <v>1939</v>
+        <v>1934</v>
       </c>
       <c r="BH80">
         <v>2757</v>
@@ -16680,7 +16686,7 @@
         <v>1500</v>
       </c>
       <c r="BJ80">
-        <v>1309</v>
+        <v>1314</v>
       </c>
       <c r="BK80">
         <v>3467</v>
@@ -16695,10 +16701,10 @@
         <v>3583</v>
       </c>
       <c r="BO80">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="BP80">
-        <v>1910</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="81" spans="1:68">
@@ -16820,10 +16826,10 @@
         <v>1914</v>
       </c>
       <c r="AN81">
-        <v>5559</v>
+        <v>5548</v>
       </c>
       <c r="AO81">
-        <v>10112</v>
+        <v>10090</v>
       </c>
       <c r="AP81">
         <v>5467</v>
@@ -16835,19 +16841,19 @@
         <v>2807</v>
       </c>
       <c r="AS81">
-        <v>3206</v>
+        <v>3204</v>
       </c>
       <c r="AT81">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="AU81">
-        <v>2537</v>
+        <v>2526</v>
       </c>
       <c r="AV81">
-        <v>3164</v>
+        <v>3163</v>
       </c>
       <c r="AW81">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="AX81">
         <v>1621</v>
@@ -16865,37 +16871,37 @@
         <v>2083</v>
       </c>
       <c r="BC81">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="BD81">
         <v>1384</v>
       </c>
       <c r="BE81">
-        <v>2598</v>
+        <v>2585</v>
       </c>
       <c r="BF81">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="BG81">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="BH81">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="BI81">
-        <v>3196</v>
+        <v>3195</v>
       </c>
       <c r="BJ81">
-        <v>2344</v>
+        <v>2340</v>
       </c>
       <c r="BK81">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="BL81">
         <v>1718</v>
       </c>
       <c r="BM81">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="BN81">
         <v>2192</v>
@@ -16904,7 +16910,7 @@
         <v>1875</v>
       </c>
       <c r="BP81">
-        <v>1911</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="82" spans="1:68">
@@ -17047,7 +17053,7 @@
         <v>407</v>
       </c>
       <c r="AU82">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AV82">
         <v>188</v>
@@ -17077,10 +17083,10 @@
         <v>711</v>
       </c>
       <c r="BE82">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="BF82">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="BG82">
         <v>745</v>
@@ -17110,7 +17116,7 @@
         <v>411</v>
       </c>
       <c r="BP82">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>

--- a/Data/branch_wise_aging_stock.xlsx
+++ b/Data/branch_wise_aging_stock.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2881" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885" uniqueCount="156">
   <si>
     <t>BRAND</t>
   </si>
@@ -1158,7 +1158,7 @@
         <v>69</v>
       </c>
       <c r="AK2">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="AL2">
         <v>251</v>
@@ -1173,7 +1173,7 @@
         <v>86</v>
       </c>
       <c r="AP2">
-        <v>187</v>
+        <v>331</v>
       </c>
       <c r="AQ2">
         <v>232</v>
@@ -1200,31 +1200,31 @@
         <v>72</v>
       </c>
       <c r="AY2">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="AZ2">
         <v>116</v>
       </c>
       <c r="BA2">
-        <v>1404</v>
+        <v>1260</v>
       </c>
       <c r="BB2">
-        <v>202</v>
+        <v>152</v>
       </c>
       <c r="BC2">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="BD2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="BE2">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="BF2">
-        <v>81</v>
+        <v>201</v>
       </c>
       <c r="BG2">
-        <v>39</v>
+        <v>519</v>
       </c>
       <c r="BH2">
         <v>93</v>
@@ -1236,16 +1236,16 @@
         <v>176</v>
       </c>
       <c r="BK2">
-        <v>155</v>
+        <v>251</v>
       </c>
       <c r="BL2">
         <v>236</v>
       </c>
       <c r="BN2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="BO2">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="BP2">
         <v>156</v>
@@ -1358,97 +1358,97 @@
         <v>70</v>
       </c>
       <c r="AK3">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AL3">
-        <v>440</v>
+        <v>739</v>
       </c>
       <c r="AM3">
-        <v>689</v>
+        <v>805</v>
       </c>
       <c r="AN3">
-        <v>1241</v>
+        <v>1203</v>
       </c>
       <c r="AO3">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="AP3">
-        <v>1060</v>
+        <v>1290</v>
       </c>
       <c r="AQ3">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="AR3">
         <v>457</v>
       </c>
       <c r="AS3">
-        <v>411</v>
+        <v>517</v>
       </c>
       <c r="AT3">
         <v>325</v>
       </c>
       <c r="AU3">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="AV3">
         <v>198</v>
       </c>
       <c r="AW3">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AX3">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AY3">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="AZ3">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="BA3">
-        <v>7721</v>
+        <v>7359</v>
       </c>
       <c r="BB3">
         <v>674</v>
       </c>
       <c r="BC3">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="BD3">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="BE3">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BF3">
-        <v>432</v>
+        <v>546</v>
       </c>
       <c r="BG3">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="BH3">
         <v>262</v>
       </c>
       <c r="BI3">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="BJ3">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="BK3">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="BL3">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="BN3">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="BO3">
         <v>279</v>
       </c>
       <c r="BP3">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" spans="1:68">
@@ -1558,25 +1558,25 @@
         <v>71</v>
       </c>
       <c r="AK4">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="AL4">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AM4">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="AN4">
-        <v>496</v>
+        <v>483</v>
       </c>
       <c r="AO4">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AP4">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AQ4">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="AR4">
         <v>181</v>
@@ -1588,13 +1588,13 @@
         <v>62</v>
       </c>
       <c r="AU4">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AV4">
         <v>214</v>
       </c>
       <c r="AW4">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AX4">
         <v>128</v>
@@ -1603,37 +1603,37 @@
         <v>165</v>
       </c>
       <c r="AZ4">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="BA4">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="BB4">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="BC4">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="BD4">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="BE4">
         <v>104</v>
       </c>
       <c r="BF4">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="BG4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BH4">
         <v>172</v>
       </c>
       <c r="BI4">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BJ4">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="BK4">
         <v>307</v>
@@ -1642,7 +1642,7 @@
         <v>60</v>
       </c>
       <c r="BN4">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="BO4">
         <v>208</v>
@@ -1767,28 +1767,28 @@
         <v>191</v>
       </c>
       <c r="AM5">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AN5">
-        <v>758</v>
+        <v>742</v>
       </c>
       <c r="AO5">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AP5">
-        <v>302</v>
+        <v>564</v>
       </c>
       <c r="AQ5">
-        <v>143</v>
+        <v>198</v>
       </c>
       <c r="AR5">
         <v>152</v>
       </c>
       <c r="AS5">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="AT5">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AU5">
         <v>251</v>
@@ -1800,31 +1800,31 @@
         <v>163</v>
       </c>
       <c r="AX5">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AY5">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AZ5">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="BA5">
-        <v>1351</v>
+        <v>1265</v>
       </c>
       <c r="BB5">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="BC5">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="BD5">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="BE5">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="BF5">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="BG5">
         <v>233</v>
@@ -1833,28 +1833,28 @@
         <v>165</v>
       </c>
       <c r="BI5">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BJ5">
         <v>186</v>
       </c>
       <c r="BK5">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="BL5">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="BM5">
         <v>4</v>
       </c>
       <c r="BN5">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="BO5">
         <v>196</v>
       </c>
       <c r="BP5">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:68">
@@ -1967,100 +1967,100 @@
         <v>73</v>
       </c>
       <c r="AK6">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AL6">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="AM6">
-        <v>949</v>
+        <v>928</v>
       </c>
       <c r="AN6">
-        <v>1382</v>
+        <v>1357</v>
       </c>
       <c r="AO6">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="AP6">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="AQ6">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="AR6">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="AS6">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="AT6">
-        <v>2201</v>
+        <v>2198</v>
       </c>
       <c r="AU6">
-        <v>845</v>
+        <v>827</v>
       </c>
       <c r="AV6">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="AW6">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AX6">
+        <v>349</v>
+      </c>
+      <c r="AY6">
+        <v>614</v>
+      </c>
+      <c r="AZ6">
+        <v>556</v>
+      </c>
+      <c r="BA6">
         <v>353</v>
       </c>
-      <c r="AY6">
-        <v>620</v>
-      </c>
-      <c r="AZ6">
-        <v>566</v>
-      </c>
-      <c r="BA6">
-        <v>371</v>
-      </c>
       <c r="BB6">
-        <v>356</v>
+        <v>305</v>
       </c>
       <c r="BC6">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="BD6">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="BE6">
-        <v>448</v>
+        <v>438</v>
       </c>
       <c r="BF6">
-        <v>1355</v>
+        <v>1330</v>
       </c>
       <c r="BG6">
-        <v>923</v>
+        <v>911</v>
       </c>
       <c r="BH6">
         <v>398</v>
       </c>
       <c r="BI6">
-        <v>682</v>
+        <v>667</v>
       </c>
       <c r="BJ6">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="BK6">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="BL6">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="BM6">
-        <v>4060</v>
+        <v>763</v>
       </c>
       <c r="BN6">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="BO6">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="BP6">
-        <v>451</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:68">
@@ -2170,97 +2170,97 @@
         <v>74</v>
       </c>
       <c r="AK7">
-        <v>1153</v>
+        <v>1090</v>
       </c>
       <c r="AL7">
-        <v>1045</v>
+        <v>1002</v>
       </c>
       <c r="AM7">
-        <v>1297</v>
+        <v>1214</v>
       </c>
       <c r="AN7">
-        <v>1483</v>
+        <v>1449</v>
       </c>
       <c r="AO7">
-        <v>1326</v>
+        <v>1274</v>
       </c>
       <c r="AP7">
-        <v>1057</v>
+        <v>974</v>
       </c>
       <c r="AQ7">
-        <v>1160</v>
+        <v>1119</v>
       </c>
       <c r="AR7">
-        <v>1246</v>
+        <v>1211</v>
       </c>
       <c r="AS7">
-        <v>713</v>
+        <v>653</v>
       </c>
       <c r="AT7">
-        <v>1230</v>
+        <v>1144</v>
       </c>
       <c r="AU7">
-        <v>1369</v>
+        <v>1291</v>
       </c>
       <c r="AV7">
-        <v>1255</v>
+        <v>1223</v>
       </c>
       <c r="AW7">
-        <v>425</v>
+        <v>361</v>
       </c>
       <c r="AX7">
-        <v>1104</v>
+        <v>1058</v>
       </c>
       <c r="AY7">
-        <v>1213</v>
+        <v>1177</v>
       </c>
       <c r="AZ7">
-        <v>1181</v>
+        <v>1143</v>
       </c>
       <c r="BA7">
-        <v>2738</v>
+        <v>1810</v>
       </c>
       <c r="BB7">
-        <v>447</v>
+        <v>895</v>
       </c>
       <c r="BC7">
-        <v>668</v>
+        <v>637</v>
       </c>
       <c r="BD7">
-        <v>1837</v>
+        <v>1689</v>
       </c>
       <c r="BE7">
-        <v>996</v>
+        <v>938</v>
       </c>
       <c r="BF7">
-        <v>1253</v>
+        <v>1150</v>
       </c>
       <c r="BG7">
-        <v>1313</v>
+        <v>1240</v>
       </c>
       <c r="BH7">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="BI7">
-        <v>1197</v>
+        <v>1137</v>
       </c>
       <c r="BJ7">
-        <v>1146</v>
+        <v>1093</v>
       </c>
       <c r="BK7">
-        <v>1171</v>
+        <v>1135</v>
       </c>
       <c r="BL7">
-        <v>1050</v>
+        <v>976</v>
       </c>
       <c r="BN7">
-        <v>680</v>
+        <v>608</v>
       </c>
       <c r="BO7">
-        <v>1346</v>
+        <v>1305</v>
       </c>
       <c r="BP7">
-        <v>497</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:68">
@@ -2421,10 +2421,10 @@
         <v>22</v>
       </c>
       <c r="BA8">
-        <v>1820</v>
+        <v>1792</v>
       </c>
       <c r="BB8">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="BC8">
         <v>57</v>
@@ -2433,7 +2433,7 @@
         <v>146</v>
       </c>
       <c r="BE8">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BF8">
         <v>43</v>
@@ -2445,7 +2445,7 @@
         <v>141</v>
       </c>
       <c r="BI8">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BJ8">
         <v>53</v>
@@ -2576,94 +2576,94 @@
         <v>76</v>
       </c>
       <c r="AK9">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="AL9">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="AM9">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="AN9">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="AO9">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="AP9">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AQ9">
         <v>171</v>
       </c>
       <c r="AR9">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="AS9">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AT9">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="AU9">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="AV9">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AW9">
         <v>319</v>
       </c>
       <c r="AX9">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="AY9">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AZ9">
-        <v>270</v>
+        <v>251</v>
       </c>
       <c r="BA9">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="BB9">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="BC9">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="BD9">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="BE9">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="BF9">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="BG9">
-        <v>325</v>
+        <v>304</v>
       </c>
       <c r="BH9">
         <v>346</v>
       </c>
       <c r="BI9">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="BJ9">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="BK9">
-        <v>71</v>
+        <v>133</v>
       </c>
       <c r="BL9">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="BN9">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="BO9">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="BP9">
         <v>56</v>
@@ -2782,28 +2782,28 @@
         <v>82</v>
       </c>
       <c r="AL10">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AM10">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AN10">
         <v>97</v>
       </c>
       <c r="AO10">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AP10">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AQ10">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AR10">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="AS10">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AT10">
         <v>38</v>
@@ -2815,16 +2815,16 @@
         <v>125</v>
       </c>
       <c r="AW10">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="AX10">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AY10">
         <v>51</v>
       </c>
       <c r="AZ10">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="BA10">
         <v>863</v>
@@ -2857,7 +2857,7 @@
         <v>99</v>
       </c>
       <c r="BK10">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BL10">
         <v>110</v>
@@ -2866,10 +2866,10 @@
         <v>185</v>
       </c>
       <c r="BN10">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="BO10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BP10">
         <v>133</v>
@@ -2985,100 +2985,100 @@
         <v>78</v>
       </c>
       <c r="AK11">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="AL11">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="AM11">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="AN11">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="AO11">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="AP11">
-        <v>495</v>
+        <v>466</v>
       </c>
       <c r="AQ11">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="AR11">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="AS11">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="AT11">
-        <v>227</v>
+        <v>199</v>
       </c>
       <c r="AU11">
-        <v>234</v>
+        <v>200</v>
       </c>
       <c r="AV11">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="AW11">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="AX11">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="AY11">
-        <v>717</v>
+        <v>709</v>
       </c>
       <c r="AZ11">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="BA11">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="BB11">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="BC11">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="BD11">
-        <v>92</v>
+        <v>139</v>
       </c>
       <c r="BE11">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="BF11">
-        <v>219</v>
+        <v>168</v>
       </c>
       <c r="BG11">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="BH11">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BI11">
-        <v>419</v>
+        <v>394</v>
       </c>
       <c r="BJ11">
-        <v>378</v>
+        <v>323</v>
       </c>
       <c r="BK11">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="BL11">
-        <v>329</v>
+        <v>308</v>
       </c>
       <c r="BM11">
         <v>3308</v>
       </c>
       <c r="BN11">
-        <v>224</v>
+        <v>198</v>
       </c>
       <c r="BO11">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="BP11">
-        <v>382</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:68">
@@ -3194,91 +3194,91 @@
         <v>97</v>
       </c>
       <c r="AL12">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="AM12">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AN12">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AO12">
         <v>158</v>
       </c>
       <c r="AP12">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AQ12">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AR12">
         <v>126</v>
       </c>
       <c r="AS12">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="AT12">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="AU12">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AV12">
         <v>161</v>
       </c>
       <c r="AW12">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AX12">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="AY12">
         <v>105</v>
       </c>
       <c r="AZ12">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="BA12">
-        <v>446</v>
+        <v>347</v>
       </c>
       <c r="BB12">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BC12">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="BD12">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="BE12">
         <v>82</v>
       </c>
       <c r="BF12">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="BG12">
-        <v>88</v>
+        <v>134</v>
       </c>
       <c r="BH12">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BI12">
         <v>181</v>
       </c>
       <c r="BJ12">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="BK12">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="BL12">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="BM12">
         <v>317</v>
       </c>
       <c r="BN12">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="BO12">
         <v>58</v>
@@ -3297,9 +3297,6 @@
       <c r="C13" t="s">
         <v>150</v>
       </c>
-      <c r="D13" t="s">
-        <v>150</v>
-      </c>
       <c r="E13" t="s">
         <v>150</v>
       </c>
@@ -3318,6 +3315,9 @@
       <c r="J13" t="s">
         <v>150</v>
       </c>
+      <c r="K13" t="s">
+        <v>150</v>
+      </c>
       <c r="L13" t="s">
         <v>150</v>
       </c>
@@ -3328,9 +3328,6 @@
         <v>150</v>
       </c>
       <c r="O13" t="s">
-        <v>150</v>
-      </c>
-      <c r="P13" t="s">
         <v>150</v>
       </c>
       <c r="Q13" t="s">
@@ -3394,97 +3391,94 @@
         <v>80</v>
       </c>
       <c r="AK13">
-        <v>988</v>
-      </c>
-      <c r="AL13">
-        <v>35</v>
+        <v>940</v>
       </c>
       <c r="AM13">
-        <v>775</v>
+        <v>762</v>
       </c>
       <c r="AN13">
-        <v>991</v>
+        <v>966</v>
       </c>
       <c r="AO13">
-        <v>1220</v>
+        <v>1144</v>
       </c>
       <c r="AP13">
-        <v>684</v>
+        <v>634</v>
       </c>
       <c r="AQ13">
-        <v>853</v>
+        <v>820</v>
       </c>
       <c r="AR13">
-        <v>500</v>
+        <v>461</v>
+      </c>
+      <c r="AS13">
+        <v>444</v>
       </c>
       <c r="AT13">
-        <v>736</v>
+        <v>582</v>
       </c>
       <c r="AU13">
-        <v>679</v>
+        <v>522</v>
       </c>
       <c r="AV13">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="AW13">
-        <v>954</v>
-      </c>
-      <c r="AX13">
-        <v>1</v>
+        <v>923</v>
       </c>
       <c r="AY13">
-        <v>1936</v>
+        <v>1897</v>
       </c>
       <c r="AZ13">
-        <v>1255</v>
+        <v>1214</v>
       </c>
       <c r="BA13">
-        <v>587</v>
+        <v>345</v>
       </c>
       <c r="BB13">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="BC13">
-        <v>2028</v>
+        <v>1990</v>
       </c>
       <c r="BD13">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="BE13">
-        <v>603</v>
+        <v>515</v>
       </c>
       <c r="BF13">
-        <v>408</v>
+        <v>205</v>
       </c>
       <c r="BG13">
-        <v>597</v>
+        <v>571</v>
       </c>
       <c r="BH13">
         <v>370</v>
       </c>
       <c r="BI13">
-        <v>1220</v>
+        <v>1091</v>
       </c>
       <c r="BJ13">
-        <v>1504</v>
+        <v>1452</v>
       </c>
       <c r="BK13">
-        <v>391</v>
+        <v>352</v>
       </c>
       <c r="BL13">
-        <v>1295</v>
+        <v>1213</v>
       </c>
       <c r="BM13">
         <v>60</v>
       </c>
       <c r="BN13">
-        <v>1418</v>
+        <v>1393</v>
       </c>
       <c r="BO13">
-        <v>864</v>
+        <v>806</v>
       </c>
       <c r="BP13">
-        <v>1181</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="14" spans="1:68">
@@ -3597,70 +3591,70 @@
         <v>81</v>
       </c>
       <c r="AK14">
-        <v>3520</v>
+        <v>3474</v>
       </c>
       <c r="AL14">
-        <v>2210</v>
+        <v>2192</v>
       </c>
       <c r="AM14">
-        <v>3391</v>
+        <v>3313</v>
       </c>
       <c r="AN14">
-        <v>2592</v>
+        <v>2572</v>
       </c>
       <c r="AO14">
-        <v>2541</v>
+        <v>2513</v>
       </c>
       <c r="AP14">
-        <v>2857</v>
+        <v>2849</v>
       </c>
       <c r="AQ14">
-        <v>3129</v>
+        <v>3022</v>
       </c>
       <c r="AR14">
-        <v>3219</v>
+        <v>3199</v>
       </c>
       <c r="AS14">
-        <v>1875</v>
+        <v>1861</v>
       </c>
       <c r="AT14">
-        <v>2142</v>
+        <v>2064</v>
       </c>
       <c r="AU14">
         <v>1985</v>
       </c>
       <c r="AV14">
-        <v>3302</v>
+        <v>3276</v>
       </c>
       <c r="AW14">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="AX14">
-        <v>2926</v>
+        <v>2886</v>
       </c>
       <c r="AY14">
-        <v>2385</v>
+        <v>2373</v>
       </c>
       <c r="AZ14">
-        <v>2849</v>
+        <v>2679</v>
       </c>
       <c r="BA14">
-        <v>3368</v>
+        <v>3358</v>
       </c>
       <c r="BB14">
-        <v>3488</v>
+        <v>3484</v>
       </c>
       <c r="BC14">
         <v>2798</v>
       </c>
       <c r="BD14">
-        <v>1804</v>
+        <v>1750</v>
       </c>
       <c r="BE14">
-        <v>1932</v>
+        <v>1860</v>
       </c>
       <c r="BF14">
-        <v>2734</v>
+        <v>2666</v>
       </c>
       <c r="BG14">
         <v>2574</v>
@@ -3669,28 +3663,28 @@
         <v>2351</v>
       </c>
       <c r="BI14">
-        <v>2663</v>
+        <v>2537</v>
       </c>
       <c r="BJ14">
-        <v>2907</v>
+        <v>2874</v>
       </c>
       <c r="BK14">
-        <v>5364</v>
+        <v>5321</v>
       </c>
       <c r="BL14">
-        <v>2525</v>
+        <v>2515</v>
       </c>
       <c r="BM14">
         <v>5450</v>
       </c>
       <c r="BN14">
-        <v>1815</v>
+        <v>1809</v>
       </c>
       <c r="BO14">
-        <v>3215</v>
+        <v>3200</v>
       </c>
       <c r="BP14">
-        <v>2497</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="15" spans="1:68">
@@ -3803,100 +3797,100 @@
         <v>82</v>
       </c>
       <c r="AK15">
+        <v>3792</v>
+      </c>
+      <c r="AL15">
+        <v>6364</v>
+      </c>
+      <c r="AM15">
+        <v>6631</v>
+      </c>
+      <c r="AN15">
+        <v>2623</v>
+      </c>
+      <c r="AO15">
+        <v>4002</v>
+      </c>
+      <c r="AP15">
+        <v>6297</v>
+      </c>
+      <c r="AQ15">
+        <v>2768</v>
+      </c>
+      <c r="AR15">
+        <v>7743</v>
+      </c>
+      <c r="AS15">
+        <v>4200</v>
+      </c>
+      <c r="AT15">
+        <v>3238</v>
+      </c>
+      <c r="AU15">
+        <v>7767</v>
+      </c>
+      <c r="AV15">
         <v>3869</v>
       </c>
-      <c r="AL15">
-        <v>6445</v>
-      </c>
-      <c r="AM15">
-        <v>6715</v>
-      </c>
-      <c r="AN15">
-        <v>2692</v>
-      </c>
-      <c r="AO15">
-        <v>4124</v>
-      </c>
-      <c r="AP15">
-        <v>4708</v>
-      </c>
-      <c r="AQ15">
-        <v>2802</v>
-      </c>
-      <c r="AR15">
-        <v>7779</v>
-      </c>
-      <c r="AS15">
-        <v>4340</v>
-      </c>
-      <c r="AT15">
-        <v>3331</v>
-      </c>
-      <c r="AU15">
-        <v>7803</v>
-      </c>
-      <c r="AV15">
-        <v>3915</v>
-      </c>
       <c r="AW15">
-        <v>5692</v>
+        <v>5538</v>
       </c>
       <c r="AX15">
-        <v>2881</v>
+        <v>2856</v>
       </c>
       <c r="AY15">
-        <v>2278</v>
+        <v>2209</v>
       </c>
       <c r="AZ15">
-        <v>4792</v>
+        <v>4717</v>
       </c>
       <c r="BA15">
-        <v>7942</v>
+        <v>7869</v>
       </c>
       <c r="BB15">
-        <v>3256</v>
+        <v>3215</v>
       </c>
       <c r="BC15">
-        <v>4457</v>
+        <v>4403</v>
       </c>
       <c r="BD15">
-        <v>4023</v>
+        <v>3957</v>
       </c>
       <c r="BE15">
-        <v>2179</v>
+        <v>2101</v>
       </c>
       <c r="BF15">
-        <v>3422</v>
+        <v>3329</v>
       </c>
       <c r="BG15">
-        <v>2716</v>
+        <v>2660</v>
       </c>
       <c r="BH15">
-        <v>4687</v>
+        <v>4681</v>
       </c>
       <c r="BI15">
-        <v>2743</v>
+        <v>2648</v>
       </c>
       <c r="BJ15">
-        <v>1428</v>
+        <v>1194</v>
       </c>
       <c r="BK15">
-        <v>2739</v>
+        <v>2689</v>
       </c>
       <c r="BL15">
-        <v>2642</v>
+        <v>2478</v>
       </c>
       <c r="BM15">
         <v>22608</v>
       </c>
       <c r="BN15">
-        <v>2932</v>
+        <v>2820</v>
       </c>
       <c r="BO15">
-        <v>3295</v>
+        <v>3248</v>
       </c>
       <c r="BP15">
-        <v>2088</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="16" spans="1:68">
@@ -4009,100 +4003,100 @@
         <v>83</v>
       </c>
       <c r="AK16">
-        <v>960</v>
+        <v>911</v>
       </c>
       <c r="AL16">
-        <v>2634</v>
+        <v>2614</v>
       </c>
       <c r="AM16">
-        <v>865</v>
+        <v>817</v>
       </c>
       <c r="AN16">
-        <v>1554</v>
+        <v>1544</v>
       </c>
       <c r="AO16">
-        <v>1789</v>
+        <v>1760</v>
       </c>
       <c r="AP16">
-        <v>1747</v>
+        <v>1722</v>
       </c>
       <c r="AQ16">
-        <v>1194</v>
+        <v>1162</v>
       </c>
       <c r="AR16">
-        <v>1136</v>
+        <v>1121</v>
       </c>
       <c r="AS16">
-        <v>2569</v>
+        <v>2510</v>
       </c>
       <c r="AT16">
-        <v>1047</v>
+        <v>1030</v>
       </c>
       <c r="AU16">
-        <v>1507</v>
+        <v>1491</v>
       </c>
       <c r="AV16">
-        <v>1453</v>
+        <v>1426</v>
       </c>
       <c r="AW16">
-        <v>1157</v>
+        <v>1130</v>
       </c>
       <c r="AX16">
-        <v>1394</v>
+        <v>1378</v>
       </c>
       <c r="AY16">
-        <v>1491</v>
+        <v>1449</v>
       </c>
       <c r="AZ16">
-        <v>1979</v>
+        <v>1931</v>
       </c>
       <c r="BA16">
-        <v>2750</v>
+        <v>2728</v>
       </c>
       <c r="BB16">
-        <v>1075</v>
+        <v>1058</v>
       </c>
       <c r="BC16">
-        <v>1493</v>
+        <v>1459</v>
       </c>
       <c r="BD16">
-        <v>1450</v>
+        <v>1427</v>
       </c>
       <c r="BE16">
-        <v>2485</v>
+        <v>2411</v>
       </c>
       <c r="BF16">
-        <v>2773</v>
+        <v>2732</v>
       </c>
       <c r="BG16">
-        <v>767</v>
+        <v>740</v>
       </c>
       <c r="BH16">
         <v>1441</v>
       </c>
       <c r="BI16">
-        <v>1858</v>
+        <v>1753</v>
       </c>
       <c r="BJ16">
-        <v>2191</v>
+        <v>2072</v>
       </c>
       <c r="BK16">
-        <v>1211</v>
+        <v>1148</v>
       </c>
       <c r="BL16">
-        <v>3061</v>
+        <v>3018</v>
       </c>
       <c r="BM16">
         <v>3607</v>
       </c>
       <c r="BN16">
-        <v>1452</v>
+        <v>1416</v>
       </c>
       <c r="BO16">
-        <v>1643</v>
+        <v>1627</v>
       </c>
       <c r="BP16">
-        <v>1212</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="17" spans="1:68">
@@ -4215,100 +4209,100 @@
         <v>84</v>
       </c>
       <c r="AK17">
-        <v>3500</v>
+        <v>3413</v>
       </c>
       <c r="AL17">
-        <v>7787</v>
+        <v>7726</v>
       </c>
       <c r="AM17">
-        <v>3535</v>
+        <v>3448</v>
       </c>
       <c r="AN17">
-        <v>3134</v>
+        <v>3085</v>
       </c>
       <c r="AO17">
-        <v>4057</v>
+        <v>3989</v>
       </c>
       <c r="AP17">
-        <v>2827</v>
+        <v>2744</v>
       </c>
       <c r="AQ17">
-        <v>3648</v>
+        <v>3590</v>
       </c>
       <c r="AR17">
-        <v>4187</v>
+        <v>4132</v>
       </c>
       <c r="AS17">
-        <v>6920</v>
+        <v>6805</v>
       </c>
       <c r="AT17">
-        <v>4786</v>
+        <v>4722</v>
       </c>
       <c r="AU17">
-        <v>4639</v>
+        <v>4549</v>
       </c>
       <c r="AV17">
-        <v>3449</v>
+        <v>3412</v>
       </c>
       <c r="AW17">
-        <v>1926</v>
+        <v>1844</v>
       </c>
       <c r="AX17">
-        <v>5096</v>
+        <v>5038</v>
       </c>
       <c r="AY17">
-        <v>3032</v>
+        <v>2978</v>
       </c>
       <c r="AZ17">
-        <v>3178</v>
+        <v>3086</v>
       </c>
       <c r="BA17">
-        <v>2251</v>
+        <v>2192</v>
       </c>
       <c r="BB17">
-        <v>2220</v>
+        <v>2166</v>
       </c>
       <c r="BC17">
-        <v>3718</v>
+        <v>3665</v>
       </c>
       <c r="BD17">
-        <v>2035</v>
+        <v>1966</v>
       </c>
       <c r="BE17">
-        <v>6461</v>
+        <v>6371</v>
       </c>
       <c r="BF17">
-        <v>3540</v>
+        <v>3415</v>
       </c>
       <c r="BG17">
-        <v>3670</v>
+        <v>3610</v>
       </c>
       <c r="BH17">
-        <v>4926</v>
+        <v>4921</v>
       </c>
       <c r="BI17">
-        <v>2944</v>
+        <v>2804</v>
       </c>
       <c r="BJ17">
-        <v>3719</v>
+        <v>3442</v>
       </c>
       <c r="BK17">
-        <v>4180</v>
+        <v>4097</v>
       </c>
       <c r="BL17">
-        <v>5021</v>
+        <v>4927</v>
       </c>
       <c r="BM17">
-        <v>12445</v>
+        <v>12443</v>
       </c>
       <c r="BN17">
-        <v>1977</v>
+        <v>1899</v>
       </c>
       <c r="BO17">
-        <v>3822</v>
+        <v>3759</v>
       </c>
       <c r="BP17">
-        <v>4545</v>
+        <v>4449</v>
       </c>
     </row>
     <row r="18" spans="1:68">
@@ -4421,22 +4415,22 @@
         <v>85</v>
       </c>
       <c r="AK18">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AL18">
-        <v>467</v>
+        <v>584</v>
       </c>
       <c r="AM18">
         <v>347</v>
       </c>
       <c r="AN18">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AO18">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="AP18">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="AQ18">
         <v>615</v>
@@ -4445,46 +4439,46 @@
         <v>162</v>
       </c>
       <c r="AS18">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AT18">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="AU18">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AV18">
-        <v>272</v>
+        <v>564</v>
       </c>
       <c r="AW18">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="AX18">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="AY18">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AZ18">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="BA18">
-        <v>5248</v>
+        <v>4948</v>
       </c>
       <c r="BB18">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="BC18">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="BD18">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="BE18">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="BF18">
-        <v>370</v>
+        <v>487</v>
       </c>
       <c r="BG18">
         <v>126</v>
@@ -4493,25 +4487,25 @@
         <v>171</v>
       </c>
       <c r="BI18">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="BJ18">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="BK18">
-        <v>505</v>
+        <v>604</v>
       </c>
       <c r="BL18">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="BM18">
         <v>3516</v>
       </c>
       <c r="BN18">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BO18">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="BP18">
         <v>319</v>
@@ -4627,10 +4621,10 @@
         <v>86</v>
       </c>
       <c r="AK19">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL19">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM19">
         <v>268</v>
@@ -4639,19 +4633,19 @@
         <v>127</v>
       </c>
       <c r="AO19">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AP19">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AQ19">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AR19">
         <v>241</v>
       </c>
       <c r="AS19">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AT19">
         <v>195</v>
@@ -4672,7 +4666,7 @@
         <v>137</v>
       </c>
       <c r="AZ19">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="BA19">
         <v>1558</v>
@@ -4681,16 +4675,16 @@
         <v>369</v>
       </c>
       <c r="BC19">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BD19">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="BE19">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="BF19">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="BG19">
         <v>178</v>
@@ -4699,13 +4693,13 @@
         <v>265</v>
       </c>
       <c r="BI19">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="BJ19">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="BK19">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BL19">
         <v>349</v>
@@ -4714,13 +4708,13 @@
         <v>6005</v>
       </c>
       <c r="BN19">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="BO19">
         <v>344</v>
       </c>
       <c r="BP19">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:68">
@@ -4833,100 +4827,100 @@
         <v>87</v>
       </c>
       <c r="AK20">
-        <v>6078</v>
+        <v>5996</v>
       </c>
       <c r="AL20">
+        <v>6782</v>
+      </c>
+      <c r="AM20">
+        <v>8819</v>
+      </c>
+      <c r="AN20">
+        <v>6657</v>
+      </c>
+      <c r="AO20">
+        <v>9198</v>
+      </c>
+      <c r="AP20">
+        <v>7080</v>
+      </c>
+      <c r="AQ20">
+        <v>5243</v>
+      </c>
+      <c r="AR20">
+        <v>4993</v>
+      </c>
+      <c r="AS20">
+        <v>4826</v>
+      </c>
+      <c r="AT20">
+        <v>5727</v>
+      </c>
+      <c r="AU20">
+        <v>3617</v>
+      </c>
+      <c r="AV20">
+        <v>3713</v>
+      </c>
+      <c r="AW20">
+        <v>3718</v>
+      </c>
+      <c r="AX20">
+        <v>4461</v>
+      </c>
+      <c r="AY20">
+        <v>1868</v>
+      </c>
+      <c r="AZ20">
+        <v>4996</v>
+      </c>
+      <c r="BA20">
+        <v>3631</v>
+      </c>
+      <c r="BB20">
+        <v>2361</v>
+      </c>
+      <c r="BC20">
+        <v>1329</v>
+      </c>
+      <c r="BD20">
+        <v>2647</v>
+      </c>
+      <c r="BE20">
+        <v>6357</v>
+      </c>
+      <c r="BF20">
+        <v>6538</v>
+      </c>
+      <c r="BG20">
+        <v>3225</v>
+      </c>
+      <c r="BH20">
+        <v>4734</v>
+      </c>
+      <c r="BI20">
         <v>5940</v>
       </c>
-      <c r="AM20">
-        <v>6078</v>
-      </c>
-      <c r="AN20">
-        <v>6806</v>
-      </c>
-      <c r="AO20">
-        <v>9468</v>
-      </c>
-      <c r="AP20">
-        <v>5790</v>
-      </c>
-      <c r="AQ20">
-        <v>4171</v>
-      </c>
-      <c r="AR20">
-        <v>5093</v>
-      </c>
-      <c r="AS20">
-        <v>5054</v>
-      </c>
-      <c r="AT20">
-        <v>5950</v>
-      </c>
-      <c r="AU20">
-        <v>3954</v>
-      </c>
-      <c r="AV20">
-        <v>2595</v>
-      </c>
-      <c r="AW20">
-        <v>3834</v>
-      </c>
-      <c r="AX20">
-        <v>4500</v>
-      </c>
-      <c r="AY20">
-        <v>1988</v>
-      </c>
-      <c r="AZ20">
-        <v>5114</v>
-      </c>
-      <c r="BA20">
-        <v>10929</v>
-      </c>
-      <c r="BB20">
-        <v>2373</v>
-      </c>
-      <c r="BC20">
-        <v>1482</v>
-      </c>
-      <c r="BD20">
-        <v>2745</v>
-      </c>
-      <c r="BE20">
-        <v>6599</v>
-      </c>
-      <c r="BF20">
-        <v>5753</v>
-      </c>
-      <c r="BG20">
-        <v>2869</v>
-      </c>
-      <c r="BH20">
-        <v>4736</v>
-      </c>
-      <c r="BI20">
-        <v>6067</v>
-      </c>
       <c r="BJ20">
-        <v>4758</v>
+        <v>4563</v>
       </c>
       <c r="BK20">
-        <v>6084</v>
+        <v>7693</v>
       </c>
       <c r="BL20">
-        <v>5222</v>
+        <v>5057</v>
       </c>
       <c r="BM20">
-        <v>30350</v>
+        <v>9056</v>
       </c>
       <c r="BN20">
-        <v>2567</v>
+        <v>2312</v>
       </c>
       <c r="BO20">
-        <v>3422</v>
+        <v>3275</v>
       </c>
       <c r="BP20">
-        <v>4764</v>
+        <v>4536</v>
       </c>
     </row>
     <row r="21" spans="1:68">
@@ -5036,97 +5030,97 @@
         <v>88</v>
       </c>
       <c r="AK21">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="AL21">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="AM21">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="AN21">
-        <v>755</v>
+        <v>738</v>
       </c>
       <c r="AO21">
-        <v>812</v>
+        <v>795</v>
       </c>
       <c r="AP21">
-        <v>594</v>
+        <v>581</v>
       </c>
       <c r="AQ21">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="AR21">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="AS21">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT21">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="AU21">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="AV21">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="AW21">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AX21">
         <v>143</v>
       </c>
       <c r="AY21">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AZ21">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="BA21">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="BB21">
         <v>213</v>
       </c>
       <c r="BC21">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="BD21">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="BE21">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="BF21">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="BG21">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="BH21">
         <v>952</v>
       </c>
       <c r="BI21">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="BJ21">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="BK21">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="BL21">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="BN21">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="BO21">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="BP21">
-        <v>972</v>
+        <v>964</v>
       </c>
     </row>
     <row r="22" spans="1:68">
@@ -5239,100 +5233,100 @@
         <v>89</v>
       </c>
       <c r="AK22">
-        <v>6659</v>
+        <v>6594</v>
       </c>
       <c r="AL22">
-        <v>8263</v>
+        <v>9639</v>
       </c>
       <c r="AM22">
-        <v>3856</v>
+        <v>5582</v>
       </c>
       <c r="AN22">
-        <v>6230</v>
+        <v>6076</v>
       </c>
       <c r="AO22">
-        <v>4898</v>
+        <v>4794</v>
       </c>
       <c r="AP22">
-        <v>5358</v>
+        <v>7066</v>
       </c>
       <c r="AQ22">
-        <v>5888</v>
+        <v>5806</v>
       </c>
       <c r="AR22">
-        <v>4970</v>
+        <v>4936</v>
       </c>
       <c r="AS22">
-        <v>8072</v>
+        <v>8939</v>
       </c>
       <c r="AT22">
-        <v>3102</v>
+        <v>3007</v>
       </c>
       <c r="AU22">
-        <v>5900</v>
+        <v>5773</v>
       </c>
       <c r="AV22">
-        <v>2977</v>
+        <v>2886</v>
       </c>
       <c r="AW22">
-        <v>4478</v>
+        <v>4435</v>
       </c>
       <c r="AX22">
-        <v>4111</v>
+        <v>4074</v>
       </c>
       <c r="AY22">
-        <v>3269</v>
+        <v>3245</v>
       </c>
       <c r="AZ22">
-        <v>5684</v>
+        <v>5608</v>
       </c>
       <c r="BA22">
-        <v>16092</v>
+        <v>7035</v>
       </c>
       <c r="BB22">
-        <v>2072</v>
+        <v>2041</v>
       </c>
       <c r="BC22">
-        <v>5792</v>
+        <v>5749</v>
       </c>
       <c r="BD22">
-        <v>3076</v>
+        <v>3020</v>
       </c>
       <c r="BE22">
-        <v>3091</v>
+        <v>2965</v>
       </c>
       <c r="BF22">
-        <v>4574</v>
+        <v>5877</v>
       </c>
       <c r="BG22">
-        <v>984</v>
+        <v>2023</v>
       </c>
       <c r="BH22">
-        <v>7694</v>
+        <v>7679</v>
       </c>
       <c r="BI22">
-        <v>5760</v>
+        <v>5662</v>
       </c>
       <c r="BJ22">
-        <v>4621</v>
+        <v>4510</v>
       </c>
       <c r="BK22">
-        <v>7455</v>
+        <v>7631</v>
       </c>
       <c r="BL22">
-        <v>3895</v>
+        <v>3828</v>
       </c>
       <c r="BM22">
-        <v>3600</v>
+        <v>10750</v>
       </c>
       <c r="BN22">
-        <v>3337</v>
+        <v>3241</v>
       </c>
       <c r="BO22">
-        <v>2438</v>
+        <v>2358</v>
       </c>
       <c r="BP22">
-        <v>1157</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="23" spans="1:68">
@@ -5445,16 +5439,16 @@
         <v>90</v>
       </c>
       <c r="AK23">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="AL23">
-        <v>801</v>
+        <v>911</v>
       </c>
       <c r="AM23">
         <v>1230</v>
       </c>
       <c r="AN23">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="AO23">
         <v>1015</v>
@@ -5466,7 +5460,7 @@
         <v>1411</v>
       </c>
       <c r="AR23">
-        <v>1074</v>
+        <v>1068</v>
       </c>
       <c r="AS23">
         <v>748</v>
@@ -5478,10 +5472,10 @@
         <v>650</v>
       </c>
       <c r="AV23">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="AW23">
-        <v>1146</v>
+        <v>1116</v>
       </c>
       <c r="AX23">
         <v>370</v>
@@ -5493,16 +5487,16 @@
         <v>912</v>
       </c>
       <c r="BA23">
-        <v>4510</v>
+        <v>4042</v>
       </c>
       <c r="BB23">
-        <v>1855</v>
+        <v>1755</v>
       </c>
       <c r="BC23">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="BD23">
-        <v>1127</v>
+        <v>1090</v>
       </c>
       <c r="BE23">
         <v>371</v>
@@ -5523,7 +5517,7 @@
         <v>241</v>
       </c>
       <c r="BK23">
-        <v>989</v>
+        <v>959</v>
       </c>
       <c r="BL23">
         <v>417</v>
@@ -5535,10 +5529,10 @@
         <v>371</v>
       </c>
       <c r="BO23">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="BP23">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="24" spans="1:68">
@@ -5651,88 +5645,88 @@
         <v>91</v>
       </c>
       <c r="AK24">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AL24">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="AM24">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AN24">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AO24">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AP24">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="AQ24">
-        <v>866</v>
+        <v>809</v>
       </c>
       <c r="AR24">
         <v>430</v>
       </c>
       <c r="AS24">
-        <v>128</v>
+        <v>261</v>
       </c>
       <c r="AT24">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AU24">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="AV24">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AW24">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="AX24">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AY24">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AZ24">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="BA24">
-        <v>706</v>
+        <v>558</v>
       </c>
       <c r="BB24">
         <v>200</v>
       </c>
       <c r="BC24">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="BD24">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="BE24">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BF24">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="BG24">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="BH24">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="BI24">
-        <v>254</v>
+        <v>229</v>
       </c>
       <c r="BJ24">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="BK24">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="BL24">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="BM24">
         <v>44</v>
@@ -5741,10 +5735,10 @@
         <v>297</v>
       </c>
       <c r="BO24">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="BP24">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:68">
@@ -5857,100 +5851,100 @@
         <v>92</v>
       </c>
       <c r="AK25">
-        <v>5546</v>
+        <v>5526</v>
       </c>
       <c r="AL25">
-        <v>5755</v>
+        <v>5709</v>
       </c>
       <c r="AM25">
-        <v>3578</v>
+        <v>3558</v>
       </c>
       <c r="AN25">
-        <v>3437</v>
+        <v>3383</v>
       </c>
       <c r="AO25">
-        <v>2715</v>
+        <v>2695</v>
       </c>
       <c r="AP25">
-        <v>2993</v>
+        <v>2973</v>
       </c>
       <c r="AQ25">
-        <v>3459</v>
+        <v>3417</v>
       </c>
       <c r="AR25">
         <v>4119</v>
       </c>
       <c r="AS25">
-        <v>4695</v>
+        <v>4670</v>
       </c>
       <c r="AT25">
-        <v>1120</v>
+        <v>1100</v>
       </c>
       <c r="AU25">
         <v>3305</v>
       </c>
       <c r="AV25">
-        <v>2315</v>
+        <v>1627</v>
       </c>
       <c r="AW25">
-        <v>5666</v>
+        <v>5640</v>
       </c>
       <c r="AX25">
-        <v>2552</v>
+        <v>2542</v>
       </c>
       <c r="AY25">
         <v>1585</v>
       </c>
       <c r="AZ25">
-        <v>3067</v>
+        <v>3000</v>
       </c>
       <c r="BA25">
         <v>2302</v>
       </c>
       <c r="BB25">
-        <v>2998</v>
+        <v>2993</v>
       </c>
       <c r="BC25">
-        <v>3664</v>
+        <v>3643</v>
       </c>
       <c r="BD25">
         <v>2758</v>
       </c>
       <c r="BE25">
-        <v>2747</v>
+        <v>2732</v>
       </c>
       <c r="BF25">
-        <v>2800</v>
+        <v>2789</v>
       </c>
       <c r="BG25">
-        <v>3050</v>
+        <v>3044</v>
       </c>
       <c r="BH25">
-        <v>6303</v>
+        <v>5843</v>
       </c>
       <c r="BI25">
-        <v>4465</v>
+        <v>4375</v>
       </c>
       <c r="BJ25">
-        <v>3964</v>
+        <v>3868</v>
       </c>
       <c r="BK25">
-        <v>4036</v>
+        <v>4021</v>
       </c>
       <c r="BL25">
-        <v>1457</v>
+        <v>1427</v>
       </c>
       <c r="BM25">
         <v>6378</v>
       </c>
       <c r="BN25">
-        <v>3400</v>
+        <v>3379</v>
       </c>
       <c r="BO25">
-        <v>3105</v>
+        <v>3000</v>
       </c>
       <c r="BP25">
-        <v>4702</v>
+        <v>4692</v>
       </c>
     </row>
     <row r="26" spans="1:68">
@@ -6063,94 +6057,94 @@
         <v>93</v>
       </c>
       <c r="AK26">
-        <v>1393</v>
+        <v>1398</v>
       </c>
       <c r="AL26">
-        <v>4618</v>
+        <v>4549</v>
       </c>
       <c r="AM26">
-        <v>1238</v>
+        <v>1223</v>
       </c>
       <c r="AN26">
-        <v>2265</v>
+        <v>2250</v>
       </c>
       <c r="AO26">
-        <v>2223</v>
+        <v>2213</v>
       </c>
       <c r="AP26">
-        <v>2025</v>
+        <v>2000</v>
       </c>
       <c r="AQ26">
-        <v>1074</v>
+        <v>1059</v>
       </c>
       <c r="AR26">
-        <v>1751</v>
+        <v>1745</v>
       </c>
       <c r="AS26">
-        <v>9937</v>
+        <v>9836</v>
       </c>
       <c r="AT26">
-        <v>3108</v>
+        <v>3098</v>
       </c>
       <c r="AU26">
-        <v>4015</v>
+        <v>3990</v>
       </c>
       <c r="AV26">
-        <v>3894</v>
+        <v>3817</v>
       </c>
       <c r="AW26">
-        <v>4486</v>
+        <v>4332</v>
       </c>
       <c r="AX26">
         <v>1594</v>
       </c>
       <c r="AY26">
-        <v>1699</v>
+        <v>1694</v>
       </c>
       <c r="AZ26">
-        <v>6527</v>
+        <v>6522</v>
       </c>
       <c r="BA26">
         <v>2084</v>
       </c>
       <c r="BB26">
-        <v>1806</v>
+        <v>1801</v>
       </c>
       <c r="BC26">
-        <v>1905</v>
+        <v>1900</v>
       </c>
       <c r="BD26">
         <v>2978</v>
       </c>
       <c r="BE26">
-        <v>2734</v>
+        <v>2729</v>
       </c>
       <c r="BF26">
-        <v>1919</v>
+        <v>1903</v>
       </c>
       <c r="BG26">
         <v>1747</v>
       </c>
       <c r="BH26">
-        <v>8901</v>
+        <v>8201</v>
       </c>
       <c r="BI26">
-        <v>4522</v>
+        <v>4497</v>
       </c>
       <c r="BJ26">
-        <v>3923</v>
+        <v>3863</v>
       </c>
       <c r="BK26">
         <v>2808</v>
       </c>
       <c r="BL26">
-        <v>1725</v>
+        <v>1709</v>
       </c>
       <c r="BM26">
         <v>18791</v>
       </c>
       <c r="BN26">
-        <v>1064</v>
+        <v>1024</v>
       </c>
       <c r="BO26">
         <v>1718</v>
@@ -6269,7 +6263,7 @@
         <v>94</v>
       </c>
       <c r="AK27">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AL27">
         <v>89</v>
@@ -6278,79 +6272,79 @@
         <v>107</v>
       </c>
       <c r="AN27">
-        <v>316</v>
+        <v>190</v>
       </c>
       <c r="AO27">
         <v>157</v>
       </c>
       <c r="AP27">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AQ27">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AR27">
         <v>165</v>
       </c>
       <c r="AS27">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="AT27">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="AU27">
         <v>102</v>
       </c>
       <c r="AV27">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AW27">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AX27">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AY27">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ27">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BA27">
-        <v>885</v>
+        <v>845</v>
       </c>
       <c r="BB27">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BC27">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="BD27">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="BE27">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="BF27">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="BG27">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="BH27">
         <v>110</v>
       </c>
       <c r="BI27">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="BJ27">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="BK27">
-        <v>286</v>
+        <v>361</v>
       </c>
       <c r="BL27">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="BM27">
         <v>235</v>
@@ -6359,10 +6353,10 @@
         <v>160</v>
       </c>
       <c r="BO27">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="BP27">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:68">
@@ -6466,7 +6460,7 @@
         <v>95</v>
       </c>
       <c r="AK28">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AL28">
         <v>39</v>
@@ -6517,7 +6511,7 @@
         <v>365</v>
       </c>
       <c r="BB28">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BC28">
         <v>13</v>
@@ -6690,13 +6684,13 @@
         <v>34</v>
       </c>
       <c r="AU29">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AV29">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="AW29">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AX29">
         <v>43</v>
@@ -6708,22 +6702,22 @@
         <v>69</v>
       </c>
       <c r="BA29">
-        <v>1169</v>
+        <v>1121</v>
       </c>
       <c r="BB29">
         <v>78</v>
       </c>
       <c r="BC29">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BD29">
         <v>92</v>
       </c>
       <c r="BE29">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BF29">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BG29">
         <v>22</v>
@@ -6732,7 +6726,7 @@
         <v>33</v>
       </c>
       <c r="BI29">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="BJ29">
         <v>52</v>
@@ -6863,22 +6857,22 @@
         <v>97</v>
       </c>
       <c r="AK30">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="AL30">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AM30">
         <v>46</v>
       </c>
       <c r="AN30">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AO30">
         <v>109</v>
       </c>
       <c r="AP30">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AQ30">
         <v>95</v>
@@ -6887,46 +6881,46 @@
         <v>72</v>
       </c>
       <c r="AS30">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="AT30">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AU30">
+        <v>36</v>
+      </c>
+      <c r="AV30">
         <v>38</v>
-      </c>
-      <c r="AV30">
-        <v>39</v>
       </c>
       <c r="AW30">
         <v>66</v>
       </c>
       <c r="AX30">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AY30">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AZ30">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BA30">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BB30">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BC30">
         <v>74</v>
       </c>
       <c r="BD30">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BE30">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="BF30">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BG30">
         <v>28</v>
@@ -6935,25 +6929,25 @@
         <v>46</v>
       </c>
       <c r="BI30">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BJ30">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BK30">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="BL30">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BM30">
         <v>17</v>
       </c>
       <c r="BN30">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="BO30">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="BP30">
         <v>74</v>
@@ -7069,16 +7063,16 @@
         <v>98</v>
       </c>
       <c r="AK31">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="AL31">
         <v>119</v>
       </c>
       <c r="AM31">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="AN31">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AO31">
         <v>72</v>
@@ -7087,22 +7081,22 @@
         <v>143</v>
       </c>
       <c r="AQ31">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AR31">
         <v>72</v>
       </c>
       <c r="AS31">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AT31">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AU31">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="AV31">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="AW31">
         <v>146</v>
@@ -7111,28 +7105,28 @@
         <v>94</v>
       </c>
       <c r="AY31">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AZ31">
         <v>117</v>
       </c>
       <c r="BA31">
-        <v>812</v>
+        <v>644</v>
       </c>
       <c r="BB31">
         <v>112</v>
       </c>
       <c r="BC31">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BD31">
         <v>75</v>
       </c>
       <c r="BE31">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="BF31">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="BG31">
         <v>65</v>
@@ -7141,16 +7135,16 @@
         <v>34</v>
       </c>
       <c r="BI31">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="BJ31">
         <v>107</v>
       </c>
       <c r="BK31">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="BL31">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BM31">
         <v>28</v>
@@ -7159,7 +7153,7 @@
         <v>93</v>
       </c>
       <c r="BO31">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BP31">
         <v>145</v>
@@ -7287,13 +7281,13 @@
         <v>88</v>
       </c>
       <c r="AO32">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="AP32">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="AQ32">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AR32">
         <v>98</v>
@@ -7302,43 +7296,43 @@
         <v>72</v>
       </c>
       <c r="AT32">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="AU32">
         <v>54</v>
       </c>
       <c r="AV32">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="AW32">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AX32">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AY32">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AZ32">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="BA32">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="BB32">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="BC32">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="BD32">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="BE32">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BF32">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="BG32">
         <v>89</v>
@@ -7347,13 +7341,13 @@
         <v>66</v>
       </c>
       <c r="BI32">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BJ32">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BK32">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BL32">
         <v>70</v>
@@ -7362,7 +7356,7 @@
         <v>58</v>
       </c>
       <c r="BN32">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="BO32">
         <v>50</v>
@@ -7481,25 +7475,25 @@
         <v>100</v>
       </c>
       <c r="AK33">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL33">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AM33">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AN33">
         <v>43</v>
       </c>
       <c r="AO33">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AP33">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AQ33">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR33">
         <v>50</v>
@@ -7517,16 +7511,16 @@
         <v>66</v>
       </c>
       <c r="AW33">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AX33">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AY33">
         <v>28</v>
       </c>
       <c r="AZ33">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA33">
         <v>139</v>
@@ -7544,7 +7538,7 @@
         <v>21</v>
       </c>
       <c r="BF33">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BG33">
         <v>47</v>
@@ -7568,7 +7562,7 @@
         <v>58</v>
       </c>
       <c r="BN33">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="BO33">
         <v>11</v>
@@ -7687,100 +7681,100 @@
         <v>101</v>
       </c>
       <c r="AK34">
-        <v>702</v>
+        <v>667</v>
       </c>
       <c r="AL34">
-        <v>689</v>
+        <v>655</v>
       </c>
       <c r="AM34">
-        <v>347</v>
+        <v>280</v>
       </c>
       <c r="AN34">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="AO34">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="AP34">
-        <v>487</v>
+        <v>469</v>
       </c>
       <c r="AQ34">
-        <v>423</v>
+        <v>386</v>
       </c>
       <c r="AR34">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="AS34">
-        <v>390</v>
+        <v>339</v>
       </c>
       <c r="AT34">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="AU34">
-        <v>649</v>
+        <v>627</v>
       </c>
       <c r="AV34">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="AW34">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="AX34">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="AY34">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="AZ34">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="BA34">
-        <v>989</v>
+        <v>917</v>
       </c>
       <c r="BB34">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="BC34">
-        <v>637</v>
+        <v>618</v>
       </c>
       <c r="BD34">
-        <v>343</v>
+        <v>296</v>
       </c>
       <c r="BE34">
-        <v>510</v>
+        <v>465</v>
       </c>
       <c r="BF34">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="BG34">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="BH34">
-        <v>663</v>
+        <v>651</v>
       </c>
       <c r="BI34">
-        <v>694</v>
+        <v>652</v>
       </c>
       <c r="BJ34">
-        <v>359</v>
+        <v>314</v>
       </c>
       <c r="BK34">
-        <v>730</v>
+        <v>701</v>
       </c>
       <c r="BL34">
-        <v>292</v>
+        <v>251</v>
       </c>
       <c r="BM34">
         <v>1</v>
       </c>
       <c r="BN34">
-        <v>487</v>
+        <v>438</v>
       </c>
       <c r="BO34">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="BP34">
-        <v>471</v>
+        <v>409</v>
       </c>
     </row>
     <row r="35" spans="1:68">
@@ -7890,97 +7884,97 @@
         <v>102</v>
       </c>
       <c r="AK35">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AL35">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AM35">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AN35">
         <v>369</v>
       </c>
       <c r="AO35">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AP35">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="AQ35">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AR35">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AS35">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="AT35">
-        <v>538</v>
+        <v>526</v>
       </c>
       <c r="AU35">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="AV35">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AW35">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="AX35">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AY35">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AZ35">
         <v>154</v>
       </c>
       <c r="BA35">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="BB35">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="BC35">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="BD35">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="BE35">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="BF35">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="BG35">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="BH35">
         <v>206</v>
       </c>
       <c r="BI35">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="BJ35">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="BK35">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="BL35">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="BN35">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="BO35">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="BP35">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -8090,7 +8084,7 @@
         <v>103</v>
       </c>
       <c r="AK36">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="AL36">
         <v>151</v>
@@ -8099,22 +8093,22 @@
         <v>181</v>
       </c>
       <c r="AN36">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AO36">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AP36">
         <v>179</v>
       </c>
       <c r="AQ36">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AR36">
         <v>82</v>
       </c>
       <c r="AS36">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AT36">
         <v>52</v>
@@ -8123,7 +8117,7 @@
         <v>131</v>
       </c>
       <c r="AV36">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AW36">
         <v>86</v>
@@ -8135,49 +8129,49 @@
         <v>81</v>
       </c>
       <c r="AZ36">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="BA36">
-        <v>1111</v>
+        <v>1043</v>
       </c>
       <c r="BB36">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="BC36">
         <v>434</v>
       </c>
       <c r="BD36">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="BE36">
         <v>110</v>
       </c>
       <c r="BF36">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BG36">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BH36">
         <v>213</v>
       </c>
       <c r="BI36">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="BJ36">
         <v>113</v>
       </c>
       <c r="BK36">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="BL36">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="BN36">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="BO36">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BP36">
         <v>86</v>
@@ -8293,100 +8287,100 @@
         <v>104</v>
       </c>
       <c r="AK37">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="AL37">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="AM37">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="AN37">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="AO37">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="AP37">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="AQ37">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="AR37">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AS37">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="AT37">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AU37">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="AV37">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="AW37">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AX37">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AY37">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AZ37">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="BA37">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="BB37">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BC37">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="BD37">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="BE37">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="BF37">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="BG37">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="BH37">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="BI37">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="BJ37">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="BK37">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="BL37">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="BM37">
         <v>458</v>
       </c>
       <c r="BN37">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="BO37">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="BP37">
-        <v>563</v>
+        <v>553</v>
       </c>
     </row>
     <row r="38" spans="1:68">
@@ -8499,100 +8493,100 @@
         <v>105</v>
       </c>
       <c r="AK38">
-        <v>1297</v>
+        <v>1271</v>
       </c>
       <c r="AL38">
-        <v>790</v>
+        <v>978</v>
       </c>
       <c r="AM38">
-        <v>836</v>
+        <v>823</v>
       </c>
       <c r="AN38">
-        <v>708</v>
+        <v>696</v>
       </c>
       <c r="AO38">
-        <v>834</v>
+        <v>819</v>
       </c>
       <c r="AP38">
-        <v>1247</v>
+        <v>1468</v>
       </c>
       <c r="AQ38">
-        <v>1054</v>
+        <v>1027</v>
       </c>
       <c r="AR38">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="AS38">
-        <v>1507</v>
+        <v>1881</v>
       </c>
       <c r="AT38">
-        <v>1182</v>
+        <v>1166</v>
       </c>
       <c r="AU38">
-        <v>924</v>
+        <v>911</v>
       </c>
       <c r="AV38">
-        <v>1076</v>
+        <v>1061</v>
       </c>
       <c r="AW38">
-        <v>813</v>
+        <v>800</v>
       </c>
       <c r="AX38">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="AY38">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="AZ38">
-        <v>709</v>
+        <v>693</v>
       </c>
       <c r="BA38">
-        <v>2084</v>
+        <v>1616</v>
       </c>
       <c r="BB38">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="BC38">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="BD38">
-        <v>646</v>
+        <v>617</v>
       </c>
       <c r="BE38">
-        <v>932</v>
+        <v>916</v>
       </c>
       <c r="BF38">
-        <v>1055</v>
+        <v>1020</v>
       </c>
       <c r="BG38">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="BH38">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="BI38">
-        <v>1537</v>
+        <v>1517</v>
       </c>
       <c r="BJ38">
-        <v>1356</v>
+        <v>1335</v>
       </c>
       <c r="BK38">
-        <v>894</v>
+        <v>1279</v>
       </c>
       <c r="BL38">
-        <v>1229</v>
+        <v>1190</v>
       </c>
       <c r="BM38">
         <v>1768</v>
       </c>
       <c r="BN38">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="BO38">
-        <v>806</v>
+        <v>788</v>
       </c>
       <c r="BP38">
-        <v>1014</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="39" spans="1:68">
@@ -8705,100 +8699,100 @@
         <v>106</v>
       </c>
       <c r="AK39">
-        <v>797</v>
+        <v>774</v>
       </c>
       <c r="AL39">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="AM39">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AN39">
         <v>557</v>
       </c>
       <c r="AO39">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="AP39">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="AQ39">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="AR39">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="AS39">
-        <v>683</v>
+        <v>660</v>
       </c>
       <c r="AT39">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="AU39">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="AV39">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="AW39">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="AX39">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="AY39">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="AZ39">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="BA39">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="BB39">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="BC39">
-        <v>654</v>
+        <v>645</v>
       </c>
       <c r="BD39">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="BE39">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="BF39">
-        <v>872</v>
+        <v>848</v>
       </c>
       <c r="BG39">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="BH39">
         <v>463</v>
       </c>
       <c r="BI39">
-        <v>743</v>
+        <v>721</v>
       </c>
       <c r="BJ39">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="BK39">
-        <v>528</v>
+        <v>499</v>
       </c>
       <c r="BL39">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="BM39">
         <v>3188</v>
       </c>
       <c r="BN39">
-        <v>776</v>
+        <v>747</v>
       </c>
       <c r="BO39">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="BP39">
-        <v>903</v>
+        <v>901</v>
       </c>
     </row>
     <row r="40" spans="1:68">
@@ -8832,6 +8826,9 @@
       <c r="J40" t="s">
         <v>150</v>
       </c>
+      <c r="K40" t="s">
+        <v>150</v>
+      </c>
       <c r="L40" t="s">
         <v>150</v>
       </c>
@@ -8905,94 +8902,97 @@
         <v>107</v>
       </c>
       <c r="AK40">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AL40">
-        <v>598</v>
+        <v>301</v>
       </c>
       <c r="AM40">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="AN40">
-        <v>695</v>
+        <v>401</v>
       </c>
       <c r="AO40">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="AP40">
-        <v>526</v>
+        <v>235</v>
       </c>
       <c r="AQ40">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="AR40">
-        <v>328</v>
+        <v>326</v>
+      </c>
+      <c r="AS40">
+        <v>57</v>
       </c>
       <c r="AT40">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="AU40">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="AV40">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="AW40">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AX40">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AY40">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AZ40">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="BA40">
-        <v>91</v>
+        <v>563</v>
       </c>
       <c r="BB40">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="BC40">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="BD40">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="BE40">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="BF40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BG40">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="BH40">
         <v>209</v>
       </c>
       <c r="BI40">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="BJ40">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="BK40">
-        <v>56</v>
+        <v>143</v>
       </c>
       <c r="BL40">
-        <v>659</v>
+        <v>363</v>
       </c>
       <c r="BN40">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="BO40">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="BP40">
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41" spans="1:68">
@@ -9105,100 +9105,100 @@
         <v>108</v>
       </c>
       <c r="AK41">
-        <v>1654</v>
+        <v>1625</v>
       </c>
       <c r="AL41">
-        <v>1646</v>
+        <v>1787</v>
       </c>
       <c r="AM41">
-        <v>1535</v>
+        <v>1516</v>
       </c>
       <c r="AN41">
-        <v>1139</v>
+        <v>1123</v>
       </c>
       <c r="AO41">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="AP41">
-        <v>991</v>
+        <v>964</v>
       </c>
       <c r="AQ41">
-        <v>1152</v>
+        <v>1135</v>
       </c>
       <c r="AR41">
-        <v>1637</v>
+        <v>1633</v>
       </c>
       <c r="AS41">
-        <v>1411</v>
+        <v>1379</v>
       </c>
       <c r="AT41">
-        <v>744</v>
+        <v>723</v>
       </c>
       <c r="AU41">
-        <v>1941</v>
+        <v>1931</v>
       </c>
       <c r="AV41">
-        <v>1407</v>
+        <v>1392</v>
       </c>
       <c r="AW41">
-        <v>1032</v>
+        <v>1008</v>
       </c>
       <c r="AX41">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="AY41">
-        <v>1330</v>
+        <v>1314</v>
       </c>
       <c r="AZ41">
-        <v>803</v>
+        <v>771</v>
       </c>
       <c r="BA41">
-        <v>2100</v>
+        <v>1589</v>
       </c>
       <c r="BB41">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="BC41">
-        <v>1108</v>
+        <v>1088</v>
       </c>
       <c r="BD41">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="BE41">
-        <v>2086</v>
+        <v>2055</v>
       </c>
       <c r="BF41">
-        <v>1677</v>
+        <v>1649</v>
       </c>
       <c r="BG41">
-        <v>1190</v>
+        <v>1183</v>
       </c>
       <c r="BH41">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="BI41">
-        <v>1655</v>
+        <v>1630</v>
       </c>
       <c r="BJ41">
-        <v>1435</v>
+        <v>1414</v>
       </c>
       <c r="BK41">
-        <v>935</v>
+        <v>911</v>
       </c>
       <c r="BL41">
-        <v>1094</v>
+        <v>1060</v>
       </c>
       <c r="BM41">
         <v>14828</v>
       </c>
       <c r="BN41">
-        <v>1754</v>
+        <v>1718</v>
       </c>
       <c r="BO41">
-        <v>1028</v>
+        <v>1018</v>
       </c>
       <c r="BP41">
-        <v>1409</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -9311,37 +9311,37 @@
         <v>109</v>
       </c>
       <c r="AK42">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="AL42">
         <v>48</v>
       </c>
       <c r="AM42">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AN42">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AO42">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AP42">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AQ42">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AR42">
         <v>52</v>
       </c>
       <c r="AS42">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AT42">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AU42">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AV42">
         <v>44</v>
@@ -9350,46 +9350,46 @@
         <v>34</v>
       </c>
       <c r="AX42">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AY42">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AZ42">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BA42">
-        <v>1103</v>
+        <v>982</v>
       </c>
       <c r="BB42">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BC42">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="BD42">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BE42">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BF42">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="BG42">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BH42">
         <v>36</v>
       </c>
       <c r="BI42">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="BJ42">
         <v>110</v>
       </c>
       <c r="BK42">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="BL42">
         <v>100</v>
@@ -9398,10 +9398,10 @@
         <v>110</v>
       </c>
       <c r="BN42">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BO42">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="BP42">
         <v>49</v>
@@ -9511,91 +9511,91 @@
         <v>110</v>
       </c>
       <c r="AK43">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="AL43">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="AM43">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AN43">
-        <v>606</v>
+        <v>580</v>
       </c>
       <c r="AO43">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="AP43">
-        <v>1026</v>
+        <v>1018</v>
       </c>
       <c r="AQ43">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="AR43">
         <v>434</v>
       </c>
       <c r="AS43">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="AU43">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AV43">
         <v>896</v>
       </c>
       <c r="AW43">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AX43">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="AY43">
         <v>309</v>
       </c>
       <c r="AZ43">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="BA43">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="BB43">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="BC43">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="BD43">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="BE43">
-        <v>439</v>
+        <v>385</v>
       </c>
       <c r="BF43">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="BG43">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="BH43">
         <v>437</v>
       </c>
       <c r="BI43">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="BJ43">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="BK43">
-        <v>52</v>
+        <v>16</v>
       </c>
       <c r="BL43">
-        <v>144</v>
+        <v>76</v>
       </c>
       <c r="BM43">
         <v>872</v>
       </c>
       <c r="BN43">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="BO43">
         <v>353</v>
@@ -9711,100 +9711,100 @@
         <v>111</v>
       </c>
       <c r="AK44">
+        <v>563</v>
+      </c>
+      <c r="AL44">
+        <v>1195</v>
+      </c>
+      <c r="AM44">
+        <v>393</v>
+      </c>
+      <c r="AN44">
+        <v>939</v>
+      </c>
+      <c r="AO44">
+        <v>572</v>
+      </c>
+      <c r="AP44">
+        <v>998</v>
+      </c>
+      <c r="AQ44">
         <v>615</v>
       </c>
-      <c r="AL44">
-        <v>1214</v>
-      </c>
-      <c r="AM44">
-        <v>433</v>
-      </c>
-      <c r="AN44">
-        <v>964</v>
-      </c>
-      <c r="AO44">
-        <v>631</v>
-      </c>
-      <c r="AP44">
-        <v>1029</v>
-      </c>
-      <c r="AQ44">
-        <v>637</v>
-      </c>
       <c r="AR44">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="AS44">
-        <v>657</v>
+        <v>606</v>
       </c>
       <c r="AT44">
-        <v>1139</v>
+        <v>1094</v>
       </c>
       <c r="AU44">
-        <v>642</v>
+        <v>617</v>
       </c>
       <c r="AV44">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="AW44">
-        <v>590</v>
+        <v>539</v>
       </c>
       <c r="AX44">
-        <v>1330</v>
+        <v>1296</v>
       </c>
       <c r="AY44">
-        <v>985</v>
+        <v>967</v>
       </c>
       <c r="AZ44">
-        <v>708</v>
+        <v>674</v>
       </c>
       <c r="BA44">
-        <v>830</v>
+        <v>771</v>
       </c>
       <c r="BB44">
-        <v>547</v>
+        <v>494</v>
       </c>
       <c r="BC44">
-        <v>887</v>
+        <v>872</v>
       </c>
       <c r="BD44">
-        <v>423</v>
+        <v>373</v>
       </c>
       <c r="BE44">
-        <v>1465</v>
+        <v>1424</v>
       </c>
       <c r="BF44">
-        <v>1089</v>
+        <v>997</v>
       </c>
       <c r="BG44">
-        <v>639</v>
+        <v>592</v>
       </c>
       <c r="BH44">
         <v>964</v>
       </c>
       <c r="BI44">
-        <v>926</v>
+        <v>861</v>
       </c>
       <c r="BJ44">
-        <v>856</v>
+        <v>807</v>
       </c>
       <c r="BK44">
-        <v>944</v>
+        <v>906</v>
       </c>
       <c r="BL44">
-        <v>527</v>
+        <v>475</v>
       </c>
       <c r="BM44">
         <v>18</v>
       </c>
       <c r="BN44">
-        <v>1436</v>
+        <v>1384</v>
       </c>
       <c r="BO44">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="BP44">
-        <v>889</v>
+        <v>851</v>
       </c>
     </row>
     <row r="45" spans="1:68">
@@ -9917,100 +9917,100 @@
         <v>112</v>
       </c>
       <c r="AK45">
-        <v>2314</v>
+        <v>2262</v>
       </c>
       <c r="AL45">
-        <v>3023</v>
+        <v>2958</v>
       </c>
       <c r="AM45">
-        <v>1602</v>
+        <v>1545</v>
       </c>
       <c r="AN45">
-        <v>1432</v>
+        <v>1399</v>
       </c>
       <c r="AO45">
-        <v>2366</v>
+        <v>2274</v>
       </c>
       <c r="AP45">
-        <v>2049</v>
+        <v>2486</v>
       </c>
       <c r="AQ45">
-        <v>2310</v>
+        <v>2268</v>
       </c>
       <c r="AR45">
-        <v>3174</v>
+        <v>3149</v>
       </c>
       <c r="AS45">
-        <v>3190</v>
+        <v>3130</v>
       </c>
       <c r="AT45">
-        <v>2212</v>
+        <v>2160</v>
       </c>
       <c r="AU45">
-        <v>1851</v>
+        <v>1812</v>
       </c>
       <c r="AV45">
-        <v>2092</v>
+        <v>2045</v>
       </c>
       <c r="AW45">
-        <v>1980</v>
+        <v>1958</v>
       </c>
       <c r="AX45">
-        <v>1438</v>
+        <v>1419</v>
       </c>
       <c r="AY45">
-        <v>1814</v>
+        <v>1739</v>
       </c>
       <c r="AZ45">
-        <v>1366</v>
+        <v>1279</v>
       </c>
       <c r="BA45">
-        <v>4492</v>
+        <v>2542</v>
       </c>
       <c r="BB45">
-        <v>1524</v>
+        <v>1502</v>
       </c>
       <c r="BC45">
-        <v>1523</v>
+        <v>1512</v>
       </c>
       <c r="BD45">
-        <v>2172</v>
+        <v>2112</v>
       </c>
       <c r="BE45">
-        <v>2159</v>
+        <v>2097</v>
       </c>
       <c r="BF45">
-        <v>2218</v>
+        <v>2577</v>
       </c>
       <c r="BG45">
-        <v>2009</v>
+        <v>1954</v>
       </c>
       <c r="BH45">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="BI45">
-        <v>1987</v>
+        <v>1954</v>
       </c>
       <c r="BJ45">
-        <v>2149</v>
+        <v>2120</v>
       </c>
       <c r="BK45">
-        <v>2451</v>
+        <v>2390</v>
       </c>
       <c r="BL45">
-        <v>1532</v>
+        <v>1435</v>
       </c>
       <c r="BM45">
-        <v>14782</v>
+        <v>7006</v>
       </c>
       <c r="BN45">
-        <v>2615</v>
+        <v>2561</v>
       </c>
       <c r="BO45">
-        <v>2034</v>
+        <v>2000</v>
       </c>
       <c r="BP45">
-        <v>2042</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="46" spans="1:68">
@@ -10092,6 +10092,9 @@
       <c r="AB46" t="s">
         <v>150</v>
       </c>
+      <c r="AC46" t="s">
+        <v>150</v>
+      </c>
       <c r="AD46" t="s">
         <v>150</v>
       </c>
@@ -10111,7 +10114,7 @@
         <v>113</v>
       </c>
       <c r="AK46">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AL46">
         <v>12</v>
@@ -10120,13 +10123,13 @@
         <v>23</v>
       </c>
       <c r="AN46">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AP46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ46">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AR46">
         <v>26</v>
@@ -10138,13 +10141,13 @@
         <v>15</v>
       </c>
       <c r="AU46">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV46">
         <v>6</v>
       </c>
       <c r="AW46">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AX46">
         <v>35</v>
@@ -10153,13 +10156,13 @@
         <v>30</v>
       </c>
       <c r="AZ46">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB46">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BC46">
         <v>9</v>
@@ -10168,25 +10171,28 @@
         <v>38</v>
       </c>
       <c r="BE46">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BF46">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BH46">
         <v>40</v>
       </c>
       <c r="BI46">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BJ46">
         <v>17</v>
       </c>
+      <c r="BK46">
+        <v>36</v>
+      </c>
       <c r="BL46">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BN46">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BO46">
         <v>53</v>
@@ -10262,6 +10268,9 @@
       <c r="AD47" t="s">
         <v>150</v>
       </c>
+      <c r="AE47" t="s">
+        <v>155</v>
+      </c>
       <c r="AF47" t="s">
         <v>150</v>
       </c>
@@ -10278,13 +10287,13 @@
         <v>81</v>
       </c>
       <c r="AM47">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AN47">
         <v>52</v>
       </c>
       <c r="AO47">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP47">
         <v>9</v>
@@ -10299,7 +10308,7 @@
         <v>27</v>
       </c>
       <c r="AU47">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AW47">
         <v>100</v>
@@ -10308,7 +10317,7 @@
         <v>23</v>
       </c>
       <c r="BA47">
-        <v>20</v>
+        <v>4577</v>
       </c>
       <c r="BC47">
         <v>47</v>
@@ -10329,10 +10338,13 @@
         <v>74</v>
       </c>
       <c r="BK47">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BL47">
         <v>72</v>
+      </c>
+      <c r="BM47">
+        <v>50</v>
       </c>
       <c r="BN47">
         <v>30</v>
@@ -10451,100 +10463,100 @@
         <v>115</v>
       </c>
       <c r="AK48">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AL48">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="AM48">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="AN48">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AO48">
-        <v>551</v>
+        <v>542</v>
       </c>
       <c r="AP48">
+        <v>422</v>
+      </c>
+      <c r="AQ48">
+        <v>691</v>
+      </c>
+      <c r="AR48">
+        <v>779</v>
+      </c>
+      <c r="AS48">
+        <v>327</v>
+      </c>
+      <c r="AT48">
+        <v>947</v>
+      </c>
+      <c r="AU48">
+        <v>688</v>
+      </c>
+      <c r="AV48">
+        <v>424</v>
+      </c>
+      <c r="AW48">
         <v>429</v>
       </c>
-      <c r="AQ48">
-        <v>709</v>
-      </c>
-      <c r="AR48">
-        <v>782</v>
-      </c>
-      <c r="AS48">
-        <v>337</v>
-      </c>
-      <c r="AT48">
-        <v>954</v>
-      </c>
-      <c r="AU48">
-        <v>696</v>
-      </c>
-      <c r="AV48">
-        <v>433</v>
-      </c>
-      <c r="AW48">
-        <v>431</v>
-      </c>
       <c r="AX48">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="AY48">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="AZ48">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="BA48">
-        <v>1164</v>
+        <v>1151</v>
       </c>
       <c r="BB48">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="BC48">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="BD48">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="BE48">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="BF48">
-        <v>477</v>
+        <v>459</v>
       </c>
       <c r="BG48">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="BH48">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="BI48">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="BJ48">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="BK48">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="BL48">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="BM48">
         <v>15</v>
       </c>
       <c r="BN48">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="BO48">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="BP48">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="49" spans="1:68">
@@ -10657,7 +10669,7 @@
         <v>116</v>
       </c>
       <c r="AK49">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AL49">
         <v>49</v>
@@ -10666,43 +10678,43 @@
         <v>151</v>
       </c>
       <c r="AN49">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AO49">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AP49">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AQ49">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="AR49">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AS49">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="AT49">
         <v>117</v>
       </c>
       <c r="AU49">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="AV49">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AW49">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AX49">
         <v>127</v>
       </c>
       <c r="AY49">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AZ49">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="BA49">
         <v>360</v>
@@ -10711,19 +10723,19 @@
         <v>42</v>
       </c>
       <c r="BC49">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BD49">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="BE49">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="BF49">
         <v>32</v>
       </c>
       <c r="BG49">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="BH49">
         <v>95</v>
@@ -10732,22 +10744,22 @@
         <v>184</v>
       </c>
       <c r="BJ49">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="BK49">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="BL49">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BM49">
         <v>6</v>
       </c>
       <c r="BN49">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="BO49">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="BP49">
         <v>126</v>
@@ -10863,100 +10875,100 @@
         <v>117</v>
       </c>
       <c r="AK50">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="AL50">
-        <v>765</v>
+        <v>716</v>
       </c>
       <c r="AM50">
-        <v>910</v>
+        <v>836</v>
       </c>
       <c r="AN50">
-        <v>1144</v>
+        <v>324</v>
       </c>
       <c r="AO50">
-        <v>911</v>
+        <v>589</v>
       </c>
       <c r="AP50">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="AQ50">
-        <v>376</v>
+        <v>329</v>
       </c>
       <c r="AR50">
-        <v>906</v>
+        <v>188</v>
       </c>
       <c r="AS50">
-        <v>691</v>
+        <v>541</v>
       </c>
       <c r="AT50">
-        <v>718</v>
+        <v>668</v>
       </c>
       <c r="AU50">
-        <v>842</v>
+        <v>781</v>
       </c>
       <c r="AV50">
-        <v>385</v>
+        <v>348</v>
       </c>
       <c r="AW50">
-        <v>475</v>
+        <v>340</v>
       </c>
       <c r="AX50">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="AY50">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="AZ50">
-        <v>632</v>
+        <v>601</v>
       </c>
       <c r="BA50">
-        <v>1623</v>
+        <v>722</v>
       </c>
       <c r="BB50">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="BC50">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="BD50">
-        <v>725</v>
+        <v>672</v>
       </c>
       <c r="BE50">
-        <v>913</v>
+        <v>852</v>
       </c>
       <c r="BF50">
-        <v>447</v>
+        <v>405</v>
       </c>
       <c r="BG50">
-        <v>377</v>
+        <v>328</v>
       </c>
       <c r="BH50">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="BI50">
-        <v>749</v>
+        <v>712</v>
       </c>
       <c r="BJ50">
-        <v>1022</v>
+        <v>1001</v>
       </c>
       <c r="BK50">
-        <v>238</v>
+        <v>219</v>
       </c>
       <c r="BL50">
-        <v>832</v>
+        <v>814</v>
       </c>
       <c r="BM50">
         <v>437</v>
       </c>
       <c r="BN50">
-        <v>218</v>
+        <v>137</v>
       </c>
       <c r="BO50">
-        <v>911</v>
+        <v>899</v>
       </c>
       <c r="BP50">
-        <v>602</v>
+        <v>581</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11242,16 +11254,16 @@
         <v>17</v>
       </c>
       <c r="AN52">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AO52">
         <v>121</v>
       </c>
       <c r="AP52">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="AQ52">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AR52">
         <v>76</v>
@@ -11269,7 +11281,7 @@
         <v>83</v>
       </c>
       <c r="AW52">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AX52">
         <v>61</v>
@@ -11287,7 +11299,7 @@
         <v>177</v>
       </c>
       <c r="BC52">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BD52">
         <v>160</v>
@@ -11320,7 +11332,7 @@
         <v>30</v>
       </c>
       <c r="BN52">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="BO52">
         <v>56</v>
@@ -11439,100 +11451,100 @@
         <v>120</v>
       </c>
       <c r="AK53">
+        <v>481</v>
+      </c>
+      <c r="AL53">
+        <v>317</v>
+      </c>
+      <c r="AM53">
+        <v>498</v>
+      </c>
+      <c r="AN53">
+        <v>839</v>
+      </c>
+      <c r="AO53">
+        <v>633</v>
+      </c>
+      <c r="AP53">
+        <v>830</v>
+      </c>
+      <c r="AQ53">
+        <v>526</v>
+      </c>
+      <c r="AR53">
+        <v>476</v>
+      </c>
+      <c r="AS53">
+        <v>523</v>
+      </c>
+      <c r="AT53">
+        <v>342</v>
+      </c>
+      <c r="AU53">
+        <v>497</v>
+      </c>
+      <c r="AV53">
+        <v>289</v>
+      </c>
+      <c r="AW53">
+        <v>404</v>
+      </c>
+      <c r="AX53">
+        <v>289</v>
+      </c>
+      <c r="AY53">
+        <v>789</v>
+      </c>
+      <c r="AZ53">
+        <v>839</v>
+      </c>
+      <c r="BA53">
+        <v>1204</v>
+      </c>
+      <c r="BB53">
+        <v>439</v>
+      </c>
+      <c r="BC53">
+        <v>448</v>
+      </c>
+      <c r="BD53">
+        <v>598</v>
+      </c>
+      <c r="BE53">
+        <v>353</v>
+      </c>
+      <c r="BF53">
+        <v>568</v>
+      </c>
+      <c r="BG53">
+        <v>296</v>
+      </c>
+      <c r="BH53">
+        <v>237</v>
+      </c>
+      <c r="BI53">
+        <v>704</v>
+      </c>
+      <c r="BJ53">
+        <v>533</v>
+      </c>
+      <c r="BK53">
         <v>483</v>
       </c>
-      <c r="AL53">
-        <v>319</v>
-      </c>
-      <c r="AM53">
-        <v>508</v>
-      </c>
-      <c r="AN53">
-        <v>848</v>
-      </c>
-      <c r="AO53">
-        <v>635</v>
-      </c>
-      <c r="AP53">
-        <v>833</v>
-      </c>
-      <c r="AQ53">
-        <v>525</v>
-      </c>
-      <c r="AR53">
-        <v>479</v>
-      </c>
-      <c r="AS53">
-        <v>545</v>
-      </c>
-      <c r="AT53">
-        <v>344</v>
-      </c>
-      <c r="AU53">
-        <v>504</v>
-      </c>
-      <c r="AV53">
-        <v>292</v>
-      </c>
-      <c r="AW53">
-        <v>413</v>
-      </c>
-      <c r="AX53">
-        <v>294</v>
-      </c>
-      <c r="AY53">
-        <v>799</v>
-      </c>
-      <c r="AZ53">
-        <v>855</v>
-      </c>
-      <c r="BA53">
-        <v>1209</v>
-      </c>
-      <c r="BB53">
-        <v>446</v>
-      </c>
-      <c r="BC53">
-        <v>462</v>
-      </c>
-      <c r="BD53">
-        <v>626</v>
-      </c>
-      <c r="BE53">
-        <v>361</v>
-      </c>
-      <c r="BF53">
-        <v>583</v>
-      </c>
-      <c r="BG53">
-        <v>306</v>
-      </c>
-      <c r="BH53">
-        <v>238</v>
-      </c>
-      <c r="BI53">
-        <v>709</v>
-      </c>
-      <c r="BJ53">
-        <v>540</v>
-      </c>
-      <c r="BK53">
-        <v>415</v>
-      </c>
       <c r="BL53">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="BM53">
         <v>2477</v>
       </c>
       <c r="BN53">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="BO53">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="BP53">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="54" spans="1:68">
@@ -11554,6 +11566,9 @@
       <c r="H54" t="s">
         <v>150</v>
       </c>
+      <c r="I54" t="s">
+        <v>150</v>
+      </c>
       <c r="J54" t="s">
         <v>150</v>
       </c>
@@ -11563,13 +11578,7 @@
       <c r="M54" t="s">
         <v>150</v>
       </c>
-      <c r="O54" t="s">
-        <v>150</v>
-      </c>
       <c r="P54" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q54" t="s">
         <v>150</v>
       </c>
       <c r="S54" t="s">
@@ -11609,64 +11618,61 @@
         <v>121</v>
       </c>
       <c r="AM54">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AN54">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AO54">
         <v>4</v>
       </c>
       <c r="AP54">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="AQ54">
+        <v>1</v>
       </c>
       <c r="AR54">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AS54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU54">
-        <v>50</v>
-      </c>
-      <c r="AW54">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="AX54">
-        <v>44</v>
-      </c>
-      <c r="AY54">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="BA54">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="BB54">
+        <v>15</v>
+      </c>
+      <c r="BC54">
+        <v>6</v>
+      </c>
+      <c r="BD54">
+        <v>13</v>
+      </c>
+      <c r="BE54">
+        <v>20</v>
+      </c>
+      <c r="BG54">
         <v>17</v>
       </c>
-      <c r="BC54">
-        <v>8</v>
-      </c>
-      <c r="BD54">
-        <v>20</v>
-      </c>
-      <c r="BE54">
-        <v>22</v>
-      </c>
-      <c r="BG54">
-        <v>18</v>
-      </c>
       <c r="BI54">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BJ54">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="BL54">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BO54">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:68">
@@ -11797,19 +11803,19 @@
         <v>13</v>
       </c>
       <c r="AQ55">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AR55">
         <v>8</v>
       </c>
       <c r="AS55">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT55">
         <v>45</v>
       </c>
       <c r="AU55">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AV55">
         <v>67</v>
@@ -11827,7 +11833,7 @@
         <v>29</v>
       </c>
       <c r="BA55">
-        <v>2004</v>
+        <v>1946</v>
       </c>
       <c r="BB55">
         <v>95</v>
@@ -11857,7 +11863,7 @@
         <v>14</v>
       </c>
       <c r="BK55">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BL55">
         <v>11</v>
@@ -11869,7 +11875,7 @@
         <v>62</v>
       </c>
       <c r="BO55">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BP55">
         <v>51</v>
@@ -11985,100 +11991,100 @@
         <v>123</v>
       </c>
       <c r="AK56">
-        <v>2892</v>
+        <v>2872</v>
       </c>
       <c r="AL56">
-        <v>2966</v>
+        <v>3410</v>
       </c>
       <c r="AM56">
-        <v>2715</v>
+        <v>2679</v>
       </c>
       <c r="AN56">
-        <v>1406</v>
+        <v>1293</v>
       </c>
       <c r="AO56">
-        <v>3454</v>
+        <v>3391</v>
       </c>
       <c r="AP56">
-        <v>3214</v>
+        <v>4534</v>
       </c>
       <c r="AQ56">
-        <v>557</v>
+        <v>528</v>
       </c>
       <c r="AR56">
-        <v>2051</v>
+        <v>2024</v>
       </c>
       <c r="AS56">
-        <v>2853</v>
+        <v>3323</v>
       </c>
       <c r="AT56">
-        <v>1676</v>
+        <v>1636</v>
       </c>
       <c r="AU56">
-        <v>2730</v>
+        <v>2631</v>
       </c>
       <c r="AV56">
-        <v>2280</v>
+        <v>2271</v>
       </c>
       <c r="AW56">
-        <v>2392</v>
+        <v>2348</v>
       </c>
       <c r="AX56">
-        <v>2866</v>
+        <v>2842</v>
       </c>
       <c r="AY56">
-        <v>2980</v>
+        <v>2926</v>
       </c>
       <c r="AZ56">
-        <v>1163</v>
+        <v>1663</v>
       </c>
       <c r="BA56">
-        <v>1737</v>
+        <v>1697</v>
       </c>
       <c r="BB56">
-        <v>1868</v>
+        <v>1864</v>
       </c>
       <c r="BC56">
-        <v>4320</v>
+        <v>4306</v>
       </c>
       <c r="BD56">
-        <v>3087</v>
+        <v>3012</v>
       </c>
       <c r="BE56">
-        <v>2616</v>
+        <v>2551</v>
       </c>
       <c r="BF56">
-        <v>2887</v>
+        <v>2777</v>
       </c>
       <c r="BG56">
-        <v>1735</v>
+        <v>1726</v>
       </c>
       <c r="BH56">
-        <v>460</v>
+        <v>1460</v>
       </c>
       <c r="BI56">
-        <v>2967</v>
+        <v>3911</v>
       </c>
       <c r="BJ56">
-        <v>3014</v>
+        <v>3005</v>
       </c>
       <c r="BK56">
-        <v>568</v>
+        <v>1568</v>
       </c>
       <c r="BL56">
-        <v>1814</v>
+        <v>1776</v>
       </c>
       <c r="BM56">
         <v>3268</v>
       </c>
       <c r="BN56">
-        <v>4458</v>
+        <v>4363</v>
       </c>
       <c r="BO56">
-        <v>1910</v>
+        <v>1894</v>
       </c>
       <c r="BP56">
-        <v>5206</v>
+        <v>5044</v>
       </c>
     </row>
     <row r="57" spans="1:68">
@@ -12188,94 +12194,94 @@
         <v>124</v>
       </c>
       <c r="AK57">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="AL57">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AM57">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AN57">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AO57">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AP57">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="AQ57">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="AR57">
         <v>459</v>
       </c>
       <c r="AS57">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AT57">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="AU57">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="AV57">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="AW57">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AX57">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AY57">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AZ57">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="BA57">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="BB57">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="BC57">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="BD57">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="BE57">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="BF57">
         <v>186</v>
       </c>
       <c r="BG57">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BH57">
         <v>422</v>
       </c>
       <c r="BI57">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="BJ57">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BK57">
-        <v>55</v>
+        <v>170</v>
       </c>
       <c r="BL57">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="BN57">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="BO57">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="BP57">
         <v>192</v>
@@ -12388,97 +12394,97 @@
         <v>125</v>
       </c>
       <c r="AK58">
-        <v>1886</v>
+        <v>1855</v>
       </c>
       <c r="AL58">
         <v>2198</v>
       </c>
       <c r="AM58">
-        <v>1977</v>
+        <v>1962</v>
       </c>
       <c r="AN58">
-        <v>2410</v>
+        <v>2384</v>
       </c>
       <c r="AO58">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="AP58">
-        <v>1967</v>
+        <v>1942</v>
       </c>
       <c r="AQ58">
-        <v>3404</v>
+        <v>3313</v>
       </c>
       <c r="AR58">
         <v>1378</v>
       </c>
       <c r="AS58">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="AT58">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="AU58">
-        <v>875</v>
+        <v>858</v>
       </c>
       <c r="AV58">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="AW58">
         <v>2232</v>
       </c>
       <c r="AX58">
-        <v>913</v>
+        <v>903</v>
       </c>
       <c r="AY58">
         <v>1514</v>
       </c>
       <c r="AZ58">
-        <v>1765</v>
+        <v>1749</v>
       </c>
       <c r="BA58">
         <v>726</v>
       </c>
       <c r="BB58">
-        <v>1004</v>
+        <v>991</v>
       </c>
       <c r="BC58">
-        <v>1356</v>
+        <v>1333</v>
       </c>
       <c r="BD58">
-        <v>1755</v>
+        <v>1735</v>
       </c>
       <c r="BE58">
-        <v>1871</v>
+        <v>1746</v>
       </c>
       <c r="BF58">
-        <v>2515</v>
+        <v>2497</v>
       </c>
       <c r="BG58">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="BH58">
         <v>2470</v>
       </c>
       <c r="BI58">
-        <v>2239</v>
+        <v>2138</v>
       </c>
       <c r="BJ58">
-        <v>1885</v>
+        <v>1852</v>
       </c>
       <c r="BK58">
-        <v>1425</v>
+        <v>1863</v>
       </c>
       <c r="BL58">
-        <v>2295</v>
+        <v>2292</v>
       </c>
       <c r="BN58">
-        <v>1601</v>
+        <v>1585</v>
       </c>
       <c r="BO58">
-        <v>2149</v>
+        <v>2125</v>
       </c>
       <c r="BP58">
-        <v>2244</v>
+        <v>2233</v>
       </c>
     </row>
     <row r="59" spans="1:68">
@@ -12512,6 +12518,9 @@
       <c r="J59" t="s">
         <v>150</v>
       </c>
+      <c r="K59" t="s">
+        <v>150</v>
+      </c>
       <c r="L59" t="s">
         <v>150</v>
       </c>
@@ -12539,9 +12548,6 @@
       <c r="T59" t="s">
         <v>150</v>
       </c>
-      <c r="V59" t="s">
-        <v>150</v>
-      </c>
       <c r="W59" t="s">
         <v>150</v>
       </c>
@@ -12560,11 +12566,11 @@
       <c r="AB59" t="s">
         <v>150</v>
       </c>
+      <c r="AC59" t="s">
+        <v>150</v>
+      </c>
       <c r="AD59" t="s">
         <v>150</v>
-      </c>
-      <c r="AE59" t="s">
-        <v>155</v>
       </c>
       <c r="AF59" t="s">
         <v>150</v>
@@ -12588,28 +12594,31 @@
         <v>407</v>
       </c>
       <c r="AM59">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="AN59">
-        <v>232</v>
+        <v>197</v>
       </c>
       <c r="AO59">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="AP59">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="AQ59">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="AR59">
         <v>79</v>
       </c>
+      <c r="AS59">
+        <v>3</v>
+      </c>
       <c r="AT59">
         <v>178</v>
       </c>
       <c r="AU59">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="AV59">
         <v>250</v>
@@ -12618,10 +12627,10 @@
         <v>369</v>
       </c>
       <c r="AX59">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AY59">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="AZ59">
         <v>234</v>
@@ -12632,41 +12641,38 @@
       <c r="BB59">
         <v>57</v>
       </c>
-      <c r="BD59">
-        <v>2</v>
-      </c>
       <c r="BE59">
-        <v>163</v>
+        <v>142</v>
       </c>
       <c r="BF59">
         <v>24</v>
       </c>
       <c r="BG59">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="BH59">
         <v>85</v>
       </c>
       <c r="BI59">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="BJ59">
-        <v>59</v>
+        <v>47</v>
+      </c>
+      <c r="BK59">
+        <v>48</v>
       </c>
       <c r="BL59">
         <v>174</v>
       </c>
-      <c r="BM59">
-        <v>6276</v>
-      </c>
       <c r="BN59">
         <v>147</v>
       </c>
       <c r="BO59">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="BP59">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -12788,37 +12794,37 @@
         <v>123</v>
       </c>
       <c r="AN60">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AO60">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AP60">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AQ60">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="AR60">
         <v>127</v>
       </c>
       <c r="AS60">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="AT60">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AU60">
         <v>113</v>
       </c>
       <c r="AV60">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AW60">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AX60">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AY60">
         <v>50</v>
@@ -12830,22 +12836,22 @@
         <v>435</v>
       </c>
       <c r="BB60">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BC60">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BD60">
         <v>195</v>
       </c>
       <c r="BE60">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="BF60">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="BG60">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BH60">
         <v>44</v>
@@ -12857,7 +12863,7 @@
         <v>313</v>
       </c>
       <c r="BK60">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="BL60">
         <v>107</v>
@@ -12866,13 +12872,13 @@
         <v>28</v>
       </c>
       <c r="BN60">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="BO60">
         <v>77</v>
       </c>
       <c r="BP60">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="61" spans="1:68">
@@ -13020,97 +13026,97 @@
         <v>129</v>
       </c>
       <c r="AK62">
-        <v>2099</v>
+        <v>2083</v>
       </c>
       <c r="AL62">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="AM62">
-        <v>1609</v>
+        <v>1569</v>
       </c>
       <c r="AN62">
-        <v>1161</v>
+        <v>1142</v>
       </c>
       <c r="AO62">
-        <v>1792</v>
+        <v>1757</v>
       </c>
       <c r="AP62">
-        <v>1172</v>
+        <v>1156</v>
       </c>
       <c r="AQ62">
-        <v>2529</v>
+        <v>2398</v>
       </c>
       <c r="AR62">
-        <v>2515</v>
+        <v>2509</v>
       </c>
       <c r="AS62">
-        <v>992</v>
+        <v>975</v>
       </c>
       <c r="AT62">
-        <v>829</v>
+        <v>817</v>
       </c>
       <c r="AU62">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="AV62">
-        <v>1010</v>
+        <v>982</v>
       </c>
       <c r="AW62">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="AX62">
-        <v>1309</v>
+        <v>1296</v>
       </c>
       <c r="AY62">
-        <v>1483</v>
+        <v>1460</v>
       </c>
       <c r="AZ62">
-        <v>694</v>
+        <v>676</v>
       </c>
       <c r="BA62">
-        <v>1195</v>
+        <v>1184</v>
       </c>
       <c r="BB62">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="BC62">
-        <v>1493</v>
+        <v>1457</v>
       </c>
       <c r="BD62">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="BE62">
-        <v>1605</v>
+        <v>1547</v>
       </c>
       <c r="BF62">
-        <v>1130</v>
+        <v>1110</v>
       </c>
       <c r="BG62">
-        <v>1680</v>
+        <v>1676</v>
       </c>
       <c r="BH62">
         <v>1563</v>
       </c>
       <c r="BI62">
-        <v>2043</v>
+        <v>1992</v>
       </c>
       <c r="BJ62">
-        <v>2054</v>
+        <v>1798</v>
       </c>
       <c r="BK62">
-        <v>3215</v>
+        <v>3639</v>
       </c>
       <c r="BL62">
-        <v>2287</v>
+        <v>2271</v>
       </c>
       <c r="BN62">
-        <v>1901</v>
+        <v>1853</v>
       </c>
       <c r="BO62">
-        <v>862</v>
+        <v>848</v>
       </c>
       <c r="BP62">
-        <v>1676</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="63" spans="1:68">
@@ -13220,31 +13226,31 @@
         <v>130</v>
       </c>
       <c r="AK63">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AL63">
         <v>139</v>
       </c>
       <c r="AM63">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AN63">
         <v>38</v>
       </c>
       <c r="AO63">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AP63">
         <v>97</v>
       </c>
       <c r="AQ63">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AR63">
         <v>184</v>
       </c>
       <c r="AS63">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="AT63">
         <v>111</v>
@@ -13256,7 +13262,7 @@
         <v>139</v>
       </c>
       <c r="AW63">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AX63">
         <v>332</v>
@@ -13265,16 +13271,16 @@
         <v>144</v>
       </c>
       <c r="AZ63">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="BA63">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="BB63">
         <v>76</v>
       </c>
       <c r="BC63">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="BD63">
         <v>53</v>
@@ -13295,16 +13301,16 @@
         <v>151</v>
       </c>
       <c r="BJ63">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="BK63">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="BL63">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BN63">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="BO63">
         <v>139</v>
@@ -13423,94 +13429,94 @@
         <v>131</v>
       </c>
       <c r="AK64">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="AL64">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AM64">
-        <v>427</v>
+        <v>735</v>
       </c>
       <c r="AN64">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="AO64">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="AP64">
-        <v>1246</v>
+        <v>1227</v>
       </c>
       <c r="AQ64">
-        <v>484</v>
+        <v>800</v>
       </c>
       <c r="AR64">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="AS64">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="AT64">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="AU64">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="AV64">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="AW64">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="AX64">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="AY64">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="AZ64">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="BA64">
-        <v>8625</v>
+        <v>7325</v>
       </c>
       <c r="BB64">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="BC64">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="BD64">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="BE64">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="BF64">
-        <v>1084</v>
+        <v>1072</v>
       </c>
       <c r="BG64">
-        <v>710</v>
+        <v>697</v>
       </c>
       <c r="BH64">
         <v>430</v>
       </c>
       <c r="BI64">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="BJ64">
-        <v>788</v>
+        <v>784</v>
       </c>
       <c r="BK64">
-        <v>1126</v>
+        <v>1112</v>
       </c>
       <c r="BL64">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="BM64">
         <v>9</v>
       </c>
       <c r="BN64">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="BO64">
         <v>227</v>
@@ -13592,6 +13598,9 @@
       <c r="X65" t="s">
         <v>150</v>
       </c>
+      <c r="Y65" t="s">
+        <v>150</v>
+      </c>
       <c r="Z65" t="s">
         <v>150</v>
       </c>
@@ -13629,7 +13638,7 @@
         <v>106</v>
       </c>
       <c r="AM65">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AN65">
         <v>24</v>
@@ -13638,7 +13647,7 @@
         <v>117</v>
       </c>
       <c r="AP65">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AQ65">
         <v>40</v>
@@ -13647,13 +13656,13 @@
         <v>81</v>
       </c>
       <c r="AS65">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AT65">
         <v>135</v>
       </c>
       <c r="AU65">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV65">
         <v>57</v>
@@ -13688,23 +13697,26 @@
       <c r="BF65">
         <v>36</v>
       </c>
+      <c r="BG65">
+        <v>60</v>
+      </c>
       <c r="BH65">
         <v>4</v>
       </c>
       <c r="BI65">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="BJ65">
         <v>63</v>
       </c>
       <c r="BK65">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="BL65">
         <v>210</v>
       </c>
       <c r="BN65">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BO65">
         <v>61</v>
@@ -13820,91 +13832,91 @@
         <v>218</v>
       </c>
       <c r="AL66">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AM66">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AN66">
         <v>213</v>
       </c>
       <c r="AO66">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AP66">
-        <v>79</v>
+        <v>198</v>
       </c>
       <c r="AQ66">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="AR66">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AS66">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AT66">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="AU66">
         <v>101</v>
       </c>
       <c r="AV66">
-        <v>52</v>
+        <v>130</v>
       </c>
       <c r="AW66">
         <v>191</v>
       </c>
       <c r="AX66">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AZ66">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="BA66">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="BB66">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BC66">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="BD66">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="BE66">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="BF66">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="BG66">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BH66">
         <v>214</v>
       </c>
       <c r="BI66">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BJ66">
         <v>69</v>
       </c>
       <c r="BK66">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="BL66">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="BN66">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="BO66">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="BP66">
-        <v>158</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:68">
@@ -14020,97 +14032,97 @@
         <v>399</v>
       </c>
       <c r="AL67">
-        <v>326</v>
+        <v>679</v>
       </c>
       <c r="AM67">
-        <v>480</v>
+        <v>833</v>
       </c>
       <c r="AN67">
         <v>372</v>
       </c>
       <c r="AO67">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="AP67">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AQ67">
-        <v>449</v>
+        <v>804</v>
       </c>
       <c r="AR67">
+        <v>485</v>
+      </c>
+      <c r="AS67">
         <v>495</v>
       </c>
-      <c r="AS67">
-        <v>501</v>
-      </c>
       <c r="AT67">
+        <v>299</v>
+      </c>
+      <c r="AU67">
+        <v>732</v>
+      </c>
+      <c r="AV67">
+        <v>550</v>
+      </c>
+      <c r="AW67">
         <v>305</v>
       </c>
-      <c r="AU67">
-        <v>738</v>
-      </c>
-      <c r="AV67">
-        <v>270</v>
-      </c>
-      <c r="AW67">
-        <v>307</v>
-      </c>
       <c r="AX67">
-        <v>499</v>
+        <v>486</v>
       </c>
       <c r="AY67">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="AZ67">
-        <v>768</v>
+        <v>757</v>
       </c>
       <c r="BA67">
-        <v>8826</v>
+        <v>7217</v>
       </c>
       <c r="BB67">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="BC67">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="BD67">
-        <v>550</v>
+        <v>490</v>
       </c>
       <c r="BE67">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="BF67">
-        <v>306</v>
+        <v>580</v>
       </c>
       <c r="BG67">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="BH67">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BI67">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="BJ67">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BK67">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="BL67">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="BM67">
         <v>2545</v>
       </c>
       <c r="BN67">
-        <v>734</v>
+        <v>723</v>
       </c>
       <c r="BO67">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="BP67">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -14223,22 +14235,22 @@
         <v>206</v>
       </c>
       <c r="AL68">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AM68">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="AN68">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="AO68">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AP68">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="AQ68">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AR68">
         <v>455</v>
@@ -14247,25 +14259,25 @@
         <v>326</v>
       </c>
       <c r="AT68">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AU68">
         <v>130</v>
       </c>
       <c r="AV68">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AW68">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AX68">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AY68">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="AZ68">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="BA68">
         <v>602</v>
@@ -14274,7 +14286,7 @@
         <v>204</v>
       </c>
       <c r="BC68">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="BD68">
         <v>331</v>
@@ -14286,31 +14298,31 @@
         <v>323</v>
       </c>
       <c r="BG68">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BH68">
         <v>155</v>
       </c>
       <c r="BI68">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="BJ68">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BK68">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="BL68">
         <v>434</v>
       </c>
       <c r="BN68">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="BO68">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="BP68">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:68">
@@ -14423,100 +14435,100 @@
         <v>136</v>
       </c>
       <c r="AK69">
-        <v>1025</v>
+        <v>1009</v>
       </c>
       <c r="AL69">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="AM69">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="AN69">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AO69">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="AP69">
         <v>663</v>
       </c>
       <c r="AQ69">
-        <v>868</v>
+        <v>853</v>
       </c>
       <c r="AR69">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AS69">
-        <v>246</v>
+        <v>412</v>
       </c>
       <c r="AT69">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="AU69">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="AV69">
+        <v>784</v>
+      </c>
+      <c r="AW69">
+        <v>340</v>
+      </c>
+      <c r="AX69">
+        <v>469</v>
+      </c>
+      <c r="AY69">
+        <v>486</v>
+      </c>
+      <c r="AZ69">
+        <v>463</v>
+      </c>
+      <c r="BA69">
+        <v>1411</v>
+      </c>
+      <c r="BB69">
+        <v>427</v>
+      </c>
+      <c r="BC69">
+        <v>612</v>
+      </c>
+      <c r="BD69">
+        <v>717</v>
+      </c>
+      <c r="BE69">
         <v>798</v>
       </c>
-      <c r="AW69">
-        <v>343</v>
-      </c>
-      <c r="AX69">
-        <v>471</v>
-      </c>
-      <c r="AY69">
-        <v>497</v>
-      </c>
-      <c r="AZ69">
-        <v>473</v>
-      </c>
-      <c r="BA69">
-        <v>1771</v>
-      </c>
-      <c r="BB69">
-        <v>431</v>
-      </c>
-      <c r="BC69">
-        <v>623</v>
-      </c>
-      <c r="BD69">
-        <v>718</v>
-      </c>
-      <c r="BE69">
-        <v>807</v>
-      </c>
       <c r="BF69">
-        <v>657</v>
+        <v>826</v>
       </c>
       <c r="BG69">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="BH69">
         <v>210</v>
       </c>
       <c r="BI69">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="BJ69">
-        <v>652</v>
+        <v>633</v>
       </c>
       <c r="BK69">
-        <v>653</v>
+        <v>828</v>
       </c>
       <c r="BL69">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="BM69">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="BN69">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="BO69">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="BP69">
-        <v>316</v>
+        <v>309</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -14626,7 +14638,7 @@
         <v>137</v>
       </c>
       <c r="AK70">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="AL70">
         <v>124</v>
@@ -14635,19 +14647,19 @@
         <v>92</v>
       </c>
       <c r="AN70">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="AO70">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AP70">
         <v>87</v>
       </c>
       <c r="AR70">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="AS70">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AT70">
         <v>640</v>
@@ -14656,10 +14668,10 @@
         <v>221</v>
       </c>
       <c r="AV70">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="AW70">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX70">
         <v>149</v>
@@ -14668,16 +14680,16 @@
         <v>107</v>
       </c>
       <c r="AZ70">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BA70">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="BB70">
         <v>215</v>
       </c>
       <c r="BC70">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="BD70">
         <v>55</v>
@@ -14689,19 +14701,19 @@
         <v>200</v>
       </c>
       <c r="BG70">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="BH70">
         <v>156</v>
       </c>
       <c r="BI70">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="BJ70">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="BK70">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="BL70">
         <v>119</v>
@@ -14710,10 +14722,10 @@
         <v>7159</v>
       </c>
       <c r="BN70">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="BO70">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="BP70">
         <v>260</v>
@@ -14829,100 +14841,100 @@
         <v>138</v>
       </c>
       <c r="AK71">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="AL71">
-        <v>517</v>
+        <v>744</v>
       </c>
       <c r="AM71">
-        <v>269</v>
+        <v>661</v>
       </c>
       <c r="AN71">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="AO71">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="AP71">
-        <v>711</v>
+        <v>941</v>
       </c>
       <c r="AQ71">
-        <v>272</v>
+        <v>671</v>
       </c>
       <c r="AR71">
         <v>142</v>
       </c>
       <c r="AS71">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="AT71">
-        <v>945</v>
+        <v>930</v>
       </c>
       <c r="AU71">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="AV71">
-        <v>631</v>
+        <v>1026</v>
       </c>
       <c r="AW71">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="AX71">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AY71">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="AZ71">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="BA71">
-        <v>7748</v>
+        <v>7060</v>
       </c>
       <c r="BB71">
-        <v>1130</v>
+        <v>1115</v>
       </c>
       <c r="BC71">
         <v>528</v>
       </c>
       <c r="BD71">
-        <v>2341</v>
+        <v>2312</v>
       </c>
       <c r="BE71">
         <v>994</v>
       </c>
       <c r="BF71">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="BG71">
-        <v>549</v>
+        <v>654</v>
       </c>
       <c r="BH71">
         <v>658</v>
       </c>
       <c r="BI71">
-        <v>919</v>
+        <v>903</v>
       </c>
       <c r="BJ71">
-        <v>965</v>
+        <v>948</v>
       </c>
       <c r="BK71">
-        <v>353</v>
+        <v>991</v>
       </c>
       <c r="BL71">
-        <v>488</v>
+        <v>468</v>
       </c>
       <c r="BM71">
         <v>7</v>
       </c>
       <c r="BN71">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="BO71">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="BP71">
-        <v>871</v>
+        <v>860</v>
       </c>
     </row>
     <row r="72" spans="1:68">
@@ -15010,6 +15022,9 @@
       <c r="AB72" t="s">
         <v>150</v>
       </c>
+      <c r="AC72" t="s">
+        <v>150</v>
+      </c>
       <c r="AD72" t="s">
         <v>150</v>
       </c>
@@ -15032,13 +15047,13 @@
         <v>139</v>
       </c>
       <c r="AK72">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="AL72">
         <v>31</v>
       </c>
       <c r="AM72">
-        <v>323</v>
+        <v>304</v>
       </c>
       <c r="AN72">
         <v>19</v>
@@ -15050,7 +15065,7 @@
         <v>71</v>
       </c>
       <c r="AQ72">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="AR72">
         <v>34</v>
@@ -15059,7 +15074,7 @@
         <v>31</v>
       </c>
       <c r="AT72">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AU72">
         <v>83</v>
@@ -15077,19 +15092,19 @@
         <v>13</v>
       </c>
       <c r="AZ72">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BA72">
         <v>512</v>
       </c>
       <c r="BB72">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="BC72">
         <v>128</v>
       </c>
       <c r="BD72">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="BE72">
         <v>24</v>
@@ -15107,10 +15122,13 @@
         <v>51</v>
       </c>
       <c r="BJ72">
-        <v>63</v>
+        <v>62</v>
+      </c>
+      <c r="BK72">
+        <v>42</v>
       </c>
       <c r="BL72">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BM72">
         <v>1090</v>
@@ -15119,10 +15137,10 @@
         <v>75</v>
       </c>
       <c r="BO72">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BP72">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:68">
@@ -15195,6 +15213,9 @@
       <c r="W73" t="s">
         <v>150</v>
       </c>
+      <c r="X73" t="s">
+        <v>150</v>
+      </c>
       <c r="Y73" t="s">
         <v>154</v>
       </c>
@@ -15232,97 +15253,100 @@
         <v>140</v>
       </c>
       <c r="AK73">
-        <v>230</v>
+        <v>1</v>
       </c>
       <c r="AL73">
-        <v>845</v>
+        <v>695</v>
       </c>
       <c r="AM73">
-        <v>38</v>
+        <v>414</v>
       </c>
       <c r="AN73">
-        <v>532</v>
+        <v>371</v>
       </c>
       <c r="AO73">
-        <v>3047</v>
+        <v>2792</v>
       </c>
       <c r="AP73">
-        <v>7275</v>
+        <v>7201</v>
       </c>
       <c r="AQ73">
-        <v>324</v>
+        <v>666</v>
       </c>
       <c r="AR73">
-        <v>2289</v>
+        <v>2007</v>
       </c>
       <c r="AS73">
-        <v>27</v>
+        <v>508</v>
       </c>
       <c r="AT73">
-        <v>1666</v>
+        <v>1356</v>
       </c>
       <c r="AU73">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AV73">
-        <v>2955</v>
+        <v>2910</v>
       </c>
       <c r="AW73">
-        <v>2619</v>
+        <v>2513</v>
       </c>
       <c r="AX73">
-        <v>2078</v>
+        <v>1987</v>
       </c>
       <c r="AY73">
-        <v>528</v>
+        <v>440</v>
       </c>
       <c r="AZ73">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="BA73">
-        <v>1058</v>
+        <v>132</v>
       </c>
       <c r="BB73">
-        <v>3293</v>
+        <v>3264</v>
       </c>
       <c r="BC73">
-        <v>2972</v>
+        <v>2780</v>
       </c>
       <c r="BD73">
-        <v>1418</v>
+        <v>1189</v>
       </c>
       <c r="BE73">
-        <v>555</v>
+        <v>71</v>
+      </c>
+      <c r="BF73">
+        <v>11</v>
       </c>
       <c r="BG73">
-        <v>946</v>
+        <v>767</v>
       </c>
       <c r="BH73">
-        <v>1974</v>
+        <v>1950</v>
       </c>
       <c r="BI73">
-        <v>2588</v>
+        <v>2332</v>
       </c>
       <c r="BJ73">
-        <v>5090</v>
+        <v>4779</v>
       </c>
       <c r="BK73">
-        <v>1146</v>
+        <v>798</v>
       </c>
       <c r="BL73">
-        <v>3639</v>
+        <v>3498</v>
       </c>
       <c r="BM73">
         <v>2903</v>
       </c>
       <c r="BN73">
-        <v>810</v>
+        <v>639</v>
       </c>
       <c r="BO73">
-        <v>3547</v>
+        <v>3382</v>
       </c>
       <c r="BP73">
-        <v>171</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:68">
@@ -15419,9 +15443,6 @@
       <c r="AF74" t="s">
         <v>150</v>
       </c>
-      <c r="AG74" t="s">
-        <v>150</v>
-      </c>
       <c r="AH74" t="s">
         <v>150</v>
       </c>
@@ -15432,67 +15453,67 @@
         <v>141</v>
       </c>
       <c r="AK74">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="AL74">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AM74">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AN74">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="AO74">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AP74">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AQ74">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AR74">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AS74">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="AT74">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="AU74">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AV74">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AW74">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AX74">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AY74">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AZ74">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="BA74">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="BB74">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="BC74">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="BD74">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="BF74">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="BG74">
         <v>57</v>
@@ -15501,28 +15522,25 @@
         <v>116</v>
       </c>
       <c r="BI74">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="BJ74">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="BK74">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="BL74">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="BM74">
         <v>4</v>
       </c>
       <c r="BN74">
-        <v>269</v>
-      </c>
-      <c r="BO74">
-        <v>5</v>
+        <v>262</v>
       </c>
       <c r="BP74">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="75" spans="1:68">
@@ -15635,94 +15653,94 @@
         <v>142</v>
       </c>
       <c r="AK75">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AL75">
         <v>823</v>
       </c>
       <c r="AM75">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="AN75">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="AO75">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AP75">
         <v>701</v>
       </c>
       <c r="AQ75">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="AR75">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="AS75">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="AT75">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AU75">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AV75">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="AW75">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="AX75">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AY75">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="AZ75">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="BA75">
-        <v>2911</v>
+        <v>2777</v>
       </c>
       <c r="BB75">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="BC75">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="BD75">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="BE75">
         <v>213</v>
       </c>
       <c r="BF75">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="BG75">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="BH75">
         <v>411</v>
       </c>
       <c r="BI75">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="BJ75">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BK75">
-        <v>231</v>
+        <v>360</v>
       </c>
       <c r="BL75">
-        <v>673</v>
+        <v>654</v>
       </c>
       <c r="BM75">
         <v>12820</v>
       </c>
       <c r="BN75">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="BO75">
         <v>381</v>
@@ -15829,13 +15847,13 @@
         <v>94</v>
       </c>
       <c r="AP76">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AQ76">
         <v>2</v>
       </c>
       <c r="AR76">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AS76">
         <v>112</v>
@@ -15850,10 +15868,10 @@
         <v>135</v>
       </c>
       <c r="AY76">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AZ76">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="BA76">
         <v>42</v>
@@ -15865,10 +15883,10 @@
         <v>83</v>
       </c>
       <c r="BE76">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BG76">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BH76">
         <v>136</v>
@@ -15977,6 +15995,9 @@
       <c r="AB77" t="s">
         <v>150</v>
       </c>
+      <c r="AC77" t="s">
+        <v>150</v>
+      </c>
       <c r="AD77" t="s">
         <v>150</v>
       </c>
@@ -15999,13 +16020,13 @@
         <v>144</v>
       </c>
       <c r="AK77">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="AL77">
         <v>108</v>
       </c>
       <c r="AM77">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AN77">
         <v>58</v>
@@ -16017,16 +16038,16 @@
         <v>290</v>
       </c>
       <c r="AQ77">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AR77">
         <v>205</v>
       </c>
       <c r="AS77">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AT77">
-        <v>975</v>
+        <v>957</v>
       </c>
       <c r="AU77">
         <v>99</v>
@@ -16035,13 +16056,13 @@
         <v>49</v>
       </c>
       <c r="AX77">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AY77">
         <v>149</v>
       </c>
       <c r="AZ77">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BA77">
         <v>139</v>
@@ -16056,7 +16077,7 @@
         <v>158</v>
       </c>
       <c r="BE77">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="BF77">
         <v>267</v>
@@ -16068,13 +16089,16 @@
         <v>85</v>
       </c>
       <c r="BI77">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="BJ77">
         <v>169</v>
       </c>
+      <c r="BK77">
+        <v>40</v>
+      </c>
       <c r="BL77">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="BM77">
         <v>132</v>
@@ -16083,7 +16107,7 @@
         <v>165</v>
       </c>
       <c r="BO77">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="BP77">
         <v>273</v>
@@ -16199,100 +16223,100 @@
         <v>145</v>
       </c>
       <c r="AK78">
-        <v>1931</v>
+        <v>1925</v>
       </c>
       <c r="AL78">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="AM78">
-        <v>1365</v>
+        <v>1352</v>
       </c>
       <c r="AN78">
-        <v>1464</v>
+        <v>1447</v>
       </c>
       <c r="AO78">
-        <v>618</v>
+        <v>599</v>
       </c>
       <c r="AP78">
-        <v>1911</v>
+        <v>1899</v>
       </c>
       <c r="AQ78">
-        <v>1375</v>
+        <v>1341</v>
       </c>
       <c r="AR78">
-        <v>1420</v>
+        <v>1409</v>
       </c>
       <c r="AS78">
-        <v>1138</v>
+        <v>1119</v>
       </c>
       <c r="AT78">
-        <v>1346</v>
+        <v>1310</v>
       </c>
       <c r="AU78">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="AV78">
-        <v>1214</v>
+        <v>1211</v>
       </c>
       <c r="AW78">
-        <v>956</v>
+        <v>936</v>
       </c>
       <c r="AX78">
-        <v>981</v>
+        <v>971</v>
       </c>
       <c r="AY78">
-        <v>952</v>
+        <v>926</v>
       </c>
       <c r="AZ78">
-        <v>1057</v>
+        <v>1036</v>
       </c>
       <c r="BA78">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="BB78">
         <v>952</v>
       </c>
       <c r="BC78">
-        <v>2966</v>
+        <v>2947</v>
       </c>
       <c r="BD78">
-        <v>1020</v>
+        <v>1006</v>
       </c>
       <c r="BE78">
-        <v>2338</v>
+        <v>2278</v>
       </c>
       <c r="BF78">
-        <v>2016</v>
+        <v>1996</v>
       </c>
       <c r="BG78">
-        <v>1497</v>
+        <v>1487</v>
       </c>
       <c r="BH78">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="BI78">
-        <v>1584</v>
+        <v>1456</v>
       </c>
       <c r="BJ78">
-        <v>1403</v>
+        <v>1236</v>
       </c>
       <c r="BK78">
-        <v>2165</v>
+        <v>2144</v>
       </c>
       <c r="BL78">
-        <v>1205</v>
+        <v>1179</v>
       </c>
       <c r="BM78">
         <v>81</v>
       </c>
       <c r="BN78">
-        <v>1588</v>
+        <v>1580</v>
       </c>
       <c r="BO78">
-        <v>1979</v>
+        <v>1952</v>
       </c>
       <c r="BP78">
-        <v>1396</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -16405,97 +16429,97 @@
         <v>146</v>
       </c>
       <c r="AK79">
-        <v>1155</v>
+        <v>1149</v>
       </c>
       <c r="AL79">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="AM79">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="AN79">
-        <v>1795</v>
+        <v>1782</v>
       </c>
       <c r="AO79">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="AP79">
-        <v>1297</v>
+        <v>1290</v>
       </c>
       <c r="AQ79">
         <v>1166</v>
       </c>
       <c r="AR79">
-        <v>1089</v>
+        <v>1082</v>
       </c>
       <c r="AS79">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="AT79">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="AU79">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="AV79">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="AW79">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="AX79">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="AY79">
-        <v>1787</v>
+        <v>1774</v>
       </c>
       <c r="AZ79">
         <v>837</v>
       </c>
       <c r="BA79">
-        <v>941</v>
+        <v>581</v>
       </c>
       <c r="BB79">
         <v>1218</v>
       </c>
       <c r="BC79">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="BD79">
         <v>1550</v>
       </c>
       <c r="BE79">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="BF79">
-        <v>1673</v>
+        <v>1666</v>
       </c>
       <c r="BG79">
-        <v>1160</v>
+        <v>1154</v>
       </c>
       <c r="BH79">
         <v>1715</v>
       </c>
       <c r="BI79">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="BJ79">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="BK79">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="BL79">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="BM79">
         <v>33</v>
       </c>
       <c r="BN79">
-        <v>973</v>
+        <v>964</v>
       </c>
       <c r="BO79">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="BP79">
         <v>1448</v>
@@ -16611,100 +16635,100 @@
         <v>147</v>
       </c>
       <c r="AK80">
-        <v>1943</v>
+        <v>1928</v>
       </c>
       <c r="AL80">
-        <v>2697</v>
+        <v>2652</v>
       </c>
       <c r="AM80">
-        <v>1393</v>
+        <v>1305</v>
       </c>
       <c r="AN80">
-        <v>2000</v>
+        <v>1919</v>
       </c>
       <c r="AO80">
-        <v>1117</v>
+        <v>1089</v>
       </c>
       <c r="AP80">
-        <v>1363</v>
+        <v>1316</v>
       </c>
       <c r="AQ80">
-        <v>2397</v>
+        <v>2361</v>
       </c>
       <c r="AR80">
         <v>2642</v>
       </c>
       <c r="AS80">
-        <v>2429</v>
+        <v>2424</v>
       </c>
       <c r="AT80">
-        <v>1684</v>
+        <v>1654</v>
       </c>
       <c r="AU80">
-        <v>2316</v>
+        <v>2265</v>
       </c>
       <c r="AV80">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="AW80">
-        <v>1211</v>
+        <v>1205</v>
       </c>
       <c r="AX80">
-        <v>1959</v>
+        <v>1933</v>
       </c>
       <c r="AY80">
-        <v>1407</v>
+        <v>1360</v>
       </c>
       <c r="AZ80">
-        <v>2047</v>
+        <v>2005</v>
       </c>
       <c r="BA80">
-        <v>2837</v>
+        <v>2826</v>
       </c>
       <c r="BB80">
-        <v>3002</v>
+        <v>2996</v>
       </c>
       <c r="BC80">
-        <v>1645</v>
+        <v>1589</v>
       </c>
       <c r="BD80">
-        <v>2118</v>
+        <v>2094</v>
       </c>
       <c r="BE80">
-        <v>1472</v>
+        <v>1326</v>
       </c>
       <c r="BF80">
-        <v>2145</v>
+        <v>2071</v>
       </c>
       <c r="BG80">
-        <v>1934</v>
+        <v>1837</v>
       </c>
       <c r="BH80">
         <v>2757</v>
       </c>
       <c r="BI80">
-        <v>1500</v>
+        <v>1480</v>
       </c>
       <c r="BJ80">
-        <v>1314</v>
+        <v>920</v>
       </c>
       <c r="BK80">
-        <v>3467</v>
+        <v>3442</v>
       </c>
       <c r="BL80">
-        <v>1328</v>
+        <v>1275</v>
       </c>
       <c r="BM80">
         <v>43</v>
       </c>
       <c r="BN80">
-        <v>3583</v>
+        <v>3554</v>
       </c>
       <c r="BO80">
-        <v>1510</v>
+        <v>1437</v>
       </c>
       <c r="BP80">
-        <v>1899</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="81" spans="1:68">
@@ -16817,100 +16841,100 @@
         <v>148</v>
       </c>
       <c r="AK81">
-        <v>3201</v>
+        <v>3158</v>
       </c>
       <c r="AL81">
-        <v>4811</v>
+        <v>8654</v>
       </c>
       <c r="AM81">
-        <v>1914</v>
+        <v>3638</v>
       </c>
       <c r="AN81">
-        <v>5548</v>
+        <v>5464</v>
       </c>
       <c r="AO81">
-        <v>10090</v>
+        <v>10014</v>
       </c>
       <c r="AP81">
-        <v>5467</v>
+        <v>5377</v>
       </c>
       <c r="AQ81">
-        <v>2103</v>
+        <v>2029</v>
       </c>
       <c r="AR81">
-        <v>2807</v>
+        <v>2789</v>
       </c>
       <c r="AS81">
-        <v>3204</v>
+        <v>3116</v>
       </c>
       <c r="AT81">
-        <v>1795</v>
+        <v>1741</v>
       </c>
       <c r="AU81">
-        <v>2526</v>
+        <v>2525</v>
       </c>
       <c r="AV81">
-        <v>3163</v>
+        <v>3139</v>
       </c>
       <c r="AW81">
-        <v>3219</v>
+        <v>3178</v>
       </c>
       <c r="AX81">
-        <v>1621</v>
+        <v>1598</v>
       </c>
       <c r="AY81">
-        <v>3277</v>
+        <v>3237</v>
       </c>
       <c r="AZ81">
+        <v>2766</v>
+      </c>
+      <c r="BA81">
+        <v>18250</v>
+      </c>
+      <c r="BB81">
+        <v>2065</v>
+      </c>
+      <c r="BC81">
         <v>2858</v>
       </c>
-      <c r="BA81">
-        <v>12079</v>
-      </c>
-      <c r="BB81">
-        <v>2083</v>
-      </c>
-      <c r="BC81">
-        <v>2913</v>
-      </c>
       <c r="BD81">
-        <v>1384</v>
+        <v>1318</v>
       </c>
       <c r="BE81">
-        <v>2585</v>
+        <v>2514</v>
       </c>
       <c r="BF81">
-        <v>2513</v>
+        <v>3571</v>
       </c>
       <c r="BG81">
-        <v>2813</v>
+        <v>2775</v>
       </c>
       <c r="BH81">
-        <v>2395</v>
+        <v>2393</v>
       </c>
       <c r="BI81">
-        <v>3195</v>
+        <v>3159</v>
       </c>
       <c r="BJ81">
-        <v>2340</v>
+        <v>2270</v>
       </c>
       <c r="BK81">
-        <v>2097</v>
+        <v>2060</v>
       </c>
       <c r="BL81">
-        <v>1718</v>
+        <v>1675</v>
       </c>
       <c r="BM81">
-        <v>88</v>
+        <v>15922</v>
       </c>
       <c r="BN81">
-        <v>2192</v>
+        <v>2133</v>
       </c>
       <c r="BO81">
-        <v>1875</v>
+        <v>1833</v>
       </c>
       <c r="BP81">
-        <v>1901</v>
+        <v>1859</v>
       </c>
     </row>
     <row r="82" spans="1:68">
@@ -17023,97 +17047,97 @@
         <v>149</v>
       </c>
       <c r="AK82">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AL82">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="AM82">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="AN82">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AO82">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="AP82">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="AQ82">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="AR82">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AS82">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="AT82">
-        <v>407</v>
+        <v>385</v>
       </c>
       <c r="AU82">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="AV82">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="AW82">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AX82">
         <v>191</v>
       </c>
       <c r="AY82">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="AZ82">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="BA82">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="BB82">
         <v>573</v>
       </c>
       <c r="BC82">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="BD82">
-        <v>711</v>
+        <v>670</v>
       </c>
       <c r="BE82">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="BF82">
-        <v>749</v>
+        <v>710</v>
       </c>
       <c r="BG82">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="BH82">
         <v>551</v>
       </c>
       <c r="BI82">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="BJ82">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="BK82">
         <v>436</v>
       </c>
       <c r="BL82">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="BM82">
         <v>75</v>
       </c>
       <c r="BN82">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="BO82">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="BP82">
         <v>521</v>

--- a/Data/branch_wise_aging_stock.xlsx
+++ b/Data/branch_wise_aging_stock.xlsx
@@ -1564,7 +1564,7 @@
         <v>80</v>
       </c>
       <c r="AM4">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AN4">
         <v>483</v>
@@ -1776,7 +1776,7 @@
         <v>257</v>
       </c>
       <c r="AP5">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AQ5">
         <v>198</v>
@@ -2027,7 +2027,7 @@
         <v>396</v>
       </c>
       <c r="BE6">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="BF6">
         <v>1330</v>
@@ -2185,7 +2185,7 @@
         <v>1274</v>
       </c>
       <c r="AP7">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="AQ7">
         <v>1119</v>
@@ -2197,7 +2197,7 @@
         <v>653</v>
       </c>
       <c r="AT7">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="AU7">
         <v>1291</v>
@@ -2806,7 +2806,7 @@
         <v>62</v>
       </c>
       <c r="AT10">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AU10">
         <v>103</v>
@@ -2991,7 +2991,7 @@
         <v>358</v>
       </c>
       <c r="AM11">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="AN11">
         <v>303</v>
@@ -3000,7 +3000,7 @@
         <v>317</v>
       </c>
       <c r="AP11">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="AQ11">
         <v>422</v>
@@ -3012,7 +3012,7 @@
         <v>19</v>
       </c>
       <c r="AT11">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AU11">
         <v>200</v>
@@ -3415,7 +3415,7 @@
         <v>444</v>
       </c>
       <c r="AT13">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="AU13">
         <v>522</v>
@@ -3597,7 +3597,7 @@
         <v>2192</v>
       </c>
       <c r="AM14">
-        <v>3313</v>
+        <v>3303</v>
       </c>
       <c r="AN14">
         <v>2572</v>
@@ -3669,7 +3669,7 @@
         <v>2874</v>
       </c>
       <c r="BK14">
-        <v>5321</v>
+        <v>5324</v>
       </c>
       <c r="BL14">
         <v>2515</v>
@@ -3797,22 +3797,22 @@
         <v>82</v>
       </c>
       <c r="AK15">
-        <v>3792</v>
+        <v>3793</v>
       </c>
       <c r="AL15">
         <v>6364</v>
       </c>
       <c r="AM15">
-        <v>6631</v>
+        <v>6628</v>
       </c>
       <c r="AN15">
         <v>2623</v>
       </c>
       <c r="AO15">
-        <v>4002</v>
+        <v>4001</v>
       </c>
       <c r="AP15">
-        <v>6297</v>
+        <v>6296</v>
       </c>
       <c r="AQ15">
         <v>2768</v>
@@ -3824,13 +3824,13 @@
         <v>4200</v>
       </c>
       <c r="AT15">
-        <v>3238</v>
+        <v>3230</v>
       </c>
       <c r="AU15">
         <v>7767</v>
       </c>
       <c r="AV15">
-        <v>3869</v>
+        <v>3870</v>
       </c>
       <c r="AW15">
         <v>5538</v>
@@ -3842,7 +3842,7 @@
         <v>2209</v>
       </c>
       <c r="AZ15">
-        <v>4717</v>
+        <v>4716</v>
       </c>
       <c r="BA15">
         <v>7869</v>
@@ -4003,13 +4003,13 @@
         <v>83</v>
       </c>
       <c r="AK16">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="AL16">
         <v>2614</v>
       </c>
       <c r="AM16">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AN16">
         <v>1544</v>
@@ -4018,7 +4018,7 @@
         <v>1760</v>
       </c>
       <c r="AP16">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="AQ16">
         <v>1162</v>
@@ -4027,7 +4027,7 @@
         <v>1121</v>
       </c>
       <c r="AS16">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="AT16">
         <v>1030</v>
@@ -4063,7 +4063,7 @@
         <v>1427</v>
       </c>
       <c r="BE16">
-        <v>2411</v>
+        <v>2413</v>
       </c>
       <c r="BF16">
         <v>2732</v>
@@ -4215,16 +4215,16 @@
         <v>7726</v>
       </c>
       <c r="AM17">
-        <v>3448</v>
+        <v>3446</v>
       </c>
       <c r="AN17">
         <v>3085</v>
       </c>
       <c r="AO17">
-        <v>3989</v>
+        <v>3988</v>
       </c>
       <c r="AP17">
-        <v>2744</v>
+        <v>2742</v>
       </c>
       <c r="AQ17">
         <v>3590</v>
@@ -4236,7 +4236,7 @@
         <v>6805</v>
       </c>
       <c r="AT17">
-        <v>4722</v>
+        <v>4719</v>
       </c>
       <c r="AU17">
         <v>4549</v>
@@ -4245,13 +4245,13 @@
         <v>3412</v>
       </c>
       <c r="AW17">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="AX17">
         <v>5038</v>
       </c>
       <c r="AY17">
-        <v>2978</v>
+        <v>2979</v>
       </c>
       <c r="AZ17">
         <v>3086</v>
@@ -4281,7 +4281,7 @@
         <v>4921</v>
       </c>
       <c r="BI17">
-        <v>2804</v>
+        <v>2805</v>
       </c>
       <c r="BJ17">
         <v>3442</v>
@@ -4290,7 +4290,7 @@
         <v>4097</v>
       </c>
       <c r="BL17">
-        <v>4927</v>
+        <v>4928</v>
       </c>
       <c r="BM17">
         <v>12443</v>
@@ -4430,7 +4430,7 @@
         <v>271</v>
       </c>
       <c r="AP18">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AQ18">
         <v>615</v>
@@ -4827,7 +4827,7 @@
         <v>87</v>
       </c>
       <c r="AK20">
-        <v>5996</v>
+        <v>5997</v>
       </c>
       <c r="AL20">
         <v>6782</v>
@@ -4842,7 +4842,7 @@
         <v>9198</v>
       </c>
       <c r="AP20">
-        <v>7080</v>
+        <v>7067</v>
       </c>
       <c r="AQ20">
         <v>5243</v>
@@ -4854,13 +4854,13 @@
         <v>4826</v>
       </c>
       <c r="AT20">
-        <v>5727</v>
+        <v>5726</v>
       </c>
       <c r="AU20">
         <v>3617</v>
       </c>
       <c r="AV20">
-        <v>3713</v>
+        <v>3714</v>
       </c>
       <c r="AW20">
         <v>3718</v>
@@ -4875,7 +4875,7 @@
         <v>4996</v>
       </c>
       <c r="BA20">
-        <v>3631</v>
+        <v>3679</v>
       </c>
       <c r="BB20">
         <v>2361</v>
@@ -5233,7 +5233,7 @@
         <v>89</v>
       </c>
       <c r="AK22">
-        <v>6594</v>
+        <v>6596</v>
       </c>
       <c r="AL22">
         <v>9639</v>
@@ -5248,25 +5248,25 @@
         <v>4794</v>
       </c>
       <c r="AP22">
-        <v>7066</v>
+        <v>7061</v>
       </c>
       <c r="AQ22">
         <v>5806</v>
       </c>
       <c r="AR22">
-        <v>4936</v>
+        <v>4937</v>
       </c>
       <c r="AS22">
         <v>8939</v>
       </c>
       <c r="AT22">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="AU22">
         <v>5773</v>
       </c>
       <c r="AV22">
-        <v>2886</v>
+        <v>2888</v>
       </c>
       <c r="AW22">
         <v>4435</v>
@@ -5466,7 +5466,7 @@
         <v>748</v>
       </c>
       <c r="AT23">
-        <v>856</v>
+        <v>756</v>
       </c>
       <c r="AU23">
         <v>650</v>
@@ -5690,7 +5690,7 @@
         <v>202</v>
       </c>
       <c r="AZ24">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="BA24">
         <v>558</v>
@@ -6063,7 +6063,7 @@
         <v>4549</v>
       </c>
       <c r="AM26">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="AN26">
         <v>2250</v>
@@ -6087,7 +6087,7 @@
         <v>3098</v>
       </c>
       <c r="AU26">
-        <v>3990</v>
+        <v>4000</v>
       </c>
       <c r="AV26">
         <v>3817</v>
@@ -7696,7 +7696,7 @@
         <v>295</v>
       </c>
       <c r="AP34">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AQ34">
         <v>386</v>
@@ -8314,7 +8314,7 @@
         <v>325</v>
       </c>
       <c r="AT37">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AU37">
         <v>152</v>
@@ -8493,7 +8493,7 @@
         <v>105</v>
       </c>
       <c r="AK38">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="AL38">
         <v>978</v>
@@ -8571,10 +8571,10 @@
         <v>1335</v>
       </c>
       <c r="BK38">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="BL38">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="BM38">
         <v>1768</v>
@@ -9120,7 +9120,7 @@
         <v>890</v>
       </c>
       <c r="AP41">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AQ41">
         <v>1135</v>
@@ -9153,7 +9153,7 @@
         <v>771</v>
       </c>
       <c r="BA41">
-        <v>1589</v>
+        <v>1749</v>
       </c>
       <c r="BB41">
         <v>533</v>
@@ -9517,7 +9517,7 @@
         <v>169</v>
       </c>
       <c r="AM43">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="AN43">
         <v>580</v>
@@ -9717,7 +9717,7 @@
         <v>1195</v>
       </c>
       <c r="AM44">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="AN44">
         <v>939</v>
@@ -9735,10 +9735,10 @@
         <v>587</v>
       </c>
       <c r="AS44">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="AT44">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="AU44">
         <v>617</v>
@@ -9756,7 +9756,7 @@
         <v>967</v>
       </c>
       <c r="AZ44">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="BA44">
         <v>771</v>
@@ -9929,7 +9929,7 @@
         <v>1399</v>
       </c>
       <c r="AO45">
-        <v>2274</v>
+        <v>2263</v>
       </c>
       <c r="AP45">
         <v>2486</v>
@@ -10159,7 +10159,7 @@
         <v>6</v>
       </c>
       <c r="BA46">
-        <v>3</v>
+        <v>2523</v>
       </c>
       <c r="BB46">
         <v>54</v>
@@ -10317,7 +10317,7 @@
         <v>23</v>
       </c>
       <c r="BA47">
-        <v>4577</v>
+        <v>4817</v>
       </c>
       <c r="BC47">
         <v>47</v>
@@ -10478,7 +10478,7 @@
         <v>542</v>
       </c>
       <c r="AP48">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="AQ48">
         <v>691</v>
@@ -10493,7 +10493,7 @@
         <v>947</v>
       </c>
       <c r="AU48">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="AV48">
         <v>424</v>
@@ -10896,7 +10896,7 @@
         <v>329</v>
       </c>
       <c r="AR50">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AS50">
         <v>541</v>
@@ -10953,7 +10953,7 @@
         <v>1001</v>
       </c>
       <c r="BK50">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="BL50">
         <v>814</v>
@@ -12006,7 +12006,7 @@
         <v>3391</v>
       </c>
       <c r="AP56">
-        <v>4534</v>
+        <v>4524</v>
       </c>
       <c r="AQ56">
         <v>528</v>
@@ -12221,7 +12221,7 @@
         <v>210</v>
       </c>
       <c r="AT57">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="AU57">
         <v>98</v>
@@ -13086,7 +13086,7 @@
         <v>831</v>
       </c>
       <c r="BE62">
-        <v>1547</v>
+        <v>1549</v>
       </c>
       <c r="BF62">
         <v>1110</v>
@@ -13104,7 +13104,7 @@
         <v>1798</v>
       </c>
       <c r="BK62">
-        <v>3639</v>
+        <v>3641</v>
       </c>
       <c r="BL62">
         <v>2271</v>
@@ -14044,7 +14044,7 @@
         <v>598</v>
       </c>
       <c r="AP67">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AQ67">
         <v>804</v>
@@ -14259,7 +14259,7 @@
         <v>326</v>
       </c>
       <c r="AT68">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AU68">
         <v>130</v>
@@ -14435,7 +14435,7 @@
         <v>136</v>
       </c>
       <c r="AK69">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="AL69">
         <v>728</v>
@@ -14847,7 +14847,7 @@
         <v>744</v>
       </c>
       <c r="AM71">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="AN71">
         <v>357</v>
@@ -15259,7 +15259,7 @@
         <v>695</v>
       </c>
       <c r="AM73">
-        <v>414</v>
+        <v>392</v>
       </c>
       <c r="AN73">
         <v>371</v>
@@ -15268,7 +15268,7 @@
         <v>2792</v>
       </c>
       <c r="AP73">
-        <v>7201</v>
+        <v>7199</v>
       </c>
       <c r="AQ73">
         <v>666</v>
@@ -15286,7 +15286,7 @@
         <v>3</v>
       </c>
       <c r="AV73">
-        <v>2910</v>
+        <v>2921</v>
       </c>
       <c r="AW73">
         <v>2513</v>
@@ -15304,7 +15304,7 @@
         <v>132</v>
       </c>
       <c r="BB73">
-        <v>3264</v>
+        <v>864</v>
       </c>
       <c r="BC73">
         <v>2780</v>
@@ -15459,16 +15459,16 @@
         <v>207</v>
       </c>
       <c r="AM74">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AN74">
         <v>133</v>
       </c>
       <c r="AO74">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AP74">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AQ74">
         <v>76</v>
@@ -15668,7 +15668,7 @@
         <v>382</v>
       </c>
       <c r="AP75">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="AQ75">
         <v>487</v>
@@ -16847,7 +16847,7 @@
         <v>8654</v>
       </c>
       <c r="AM81">
-        <v>3638</v>
+        <v>3637</v>
       </c>
       <c r="AN81">
         <v>5464</v>
@@ -16919,7 +16919,7 @@
         <v>2270</v>
       </c>
       <c r="BK81">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="BL81">
         <v>1675</v>

--- a/Data/branch_wise_aging_stock.xlsx
+++ b/Data/branch_wise_aging_stock.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2885" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2887" uniqueCount="156">
   <si>
     <t>BRAND</t>
   </si>
@@ -1167,10 +1167,10 @@
         <v>174</v>
       </c>
       <c r="AN2">
-        <v>302</v>
+        <v>202</v>
       </c>
       <c r="AO2">
-        <v>86</v>
+        <v>182</v>
       </c>
       <c r="AP2">
         <v>331</v>
@@ -1206,7 +1206,7 @@
         <v>116</v>
       </c>
       <c r="BA2">
-        <v>1260</v>
+        <v>564</v>
       </c>
       <c r="BB2">
         <v>152</v>
@@ -1224,7 +1224,7 @@
         <v>201</v>
       </c>
       <c r="BG2">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="BH2">
         <v>93</v>
@@ -1242,7 +1242,7 @@
         <v>236</v>
       </c>
       <c r="BN2">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="BO2">
         <v>133</v>
@@ -1370,25 +1370,25 @@
         <v>1203</v>
       </c>
       <c r="AO3">
-        <v>1252</v>
+        <v>1249</v>
       </c>
       <c r="AP3">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="AQ3">
-        <v>433</v>
+        <v>552</v>
       </c>
       <c r="AR3">
         <v>457</v>
       </c>
       <c r="AS3">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AT3">
         <v>325</v>
       </c>
       <c r="AU3">
-        <v>1183</v>
+        <v>1173</v>
       </c>
       <c r="AV3">
         <v>198</v>
@@ -1397,7 +1397,7 @@
         <v>219</v>
       </c>
       <c r="AX3">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="AY3">
         <v>324</v>
@@ -1406,7 +1406,7 @@
         <v>309</v>
       </c>
       <c r="BA3">
-        <v>7359</v>
+        <v>6752</v>
       </c>
       <c r="BB3">
         <v>674</v>
@@ -1415,7 +1415,7 @@
         <v>389</v>
       </c>
       <c r="BD3">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="BE3">
         <v>209</v>
@@ -1442,7 +1442,7 @@
         <v>557</v>
       </c>
       <c r="BN3">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="BO3">
         <v>279</v>
@@ -1597,7 +1597,7 @@
         <v>166</v>
       </c>
       <c r="AX4">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AY4">
         <v>165</v>
@@ -1606,16 +1606,16 @@
         <v>167</v>
       </c>
       <c r="BA4">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="BB4">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="BC4">
         <v>115</v>
       </c>
       <c r="BD4">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="BE4">
         <v>104</v>
@@ -1642,7 +1642,7 @@
         <v>60</v>
       </c>
       <c r="BN4">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BO4">
         <v>208</v>
@@ -1773,7 +1773,7 @@
         <v>742</v>
       </c>
       <c r="AO5">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AP5">
         <v>562</v>
@@ -1809,10 +1809,10 @@
         <v>321</v>
       </c>
       <c r="BA5">
-        <v>1265</v>
+        <v>1259</v>
       </c>
       <c r="BB5">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="BC5">
         <v>185</v>
@@ -1821,7 +1821,7 @@
         <v>411</v>
       </c>
       <c r="BE5">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="BF5">
         <v>368</v>
@@ -1839,7 +1839,7 @@
         <v>186</v>
       </c>
       <c r="BK5">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BL5">
         <v>261</v>
@@ -1848,7 +1848,7 @@
         <v>4</v>
       </c>
       <c r="BN5">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BO5">
         <v>196</v>
@@ -1970,7 +1970,7 @@
         <v>368</v>
       </c>
       <c r="AL6">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="AM6">
         <v>928</v>
@@ -1979,16 +1979,16 @@
         <v>1357</v>
       </c>
       <c r="AO6">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="AP6">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="AQ6">
         <v>641</v>
       </c>
       <c r="AR6">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="AS6">
         <v>637</v>
@@ -1997,7 +1997,7 @@
         <v>2198</v>
       </c>
       <c r="AU6">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="AV6">
         <v>593</v>
@@ -2006,34 +2006,34 @@
         <v>525</v>
       </c>
       <c r="AX6">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AY6">
         <v>614</v>
       </c>
       <c r="AZ6">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="BA6">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="BB6">
-        <v>305</v>
+        <v>272</v>
       </c>
       <c r="BC6">
         <v>411</v>
       </c>
       <c r="BD6">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="BE6">
         <v>440</v>
       </c>
       <c r="BF6">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="BG6">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="BH6">
         <v>398</v>
@@ -2054,10 +2054,10 @@
         <v>763</v>
       </c>
       <c r="BN6">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="BO6">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="BP6">
         <v>445</v>
@@ -2170,91 +2170,91 @@
         <v>74</v>
       </c>
       <c r="AK7">
-        <v>1090</v>
+        <v>1074</v>
       </c>
       <c r="AL7">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="AM7">
-        <v>1214</v>
+        <v>1199</v>
       </c>
       <c r="AN7">
         <v>1449</v>
       </c>
       <c r="AO7">
-        <v>1274</v>
+        <v>1234</v>
       </c>
       <c r="AP7">
-        <v>970</v>
+        <v>949</v>
       </c>
       <c r="AQ7">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="AR7">
-        <v>1211</v>
+        <v>1204</v>
       </c>
       <c r="AS7">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="AT7">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="AU7">
-        <v>1291</v>
+        <v>1284</v>
       </c>
       <c r="AV7">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="AW7">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="AX7">
-        <v>1058</v>
+        <v>1049</v>
       </c>
       <c r="AY7">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="AZ7">
-        <v>1143</v>
+        <v>1128</v>
       </c>
       <c r="BA7">
-        <v>1810</v>
+        <v>1658</v>
       </c>
       <c r="BB7">
-        <v>895</v>
+        <v>823</v>
       </c>
       <c r="BC7">
         <v>637</v>
       </c>
       <c r="BD7">
-        <v>1689</v>
+        <v>1564</v>
       </c>
       <c r="BE7">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="BF7">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="BG7">
-        <v>1240</v>
+        <v>1218</v>
       </c>
       <c r="BH7">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="BI7">
         <v>1137</v>
       </c>
       <c r="BJ7">
-        <v>1093</v>
+        <v>1083</v>
       </c>
       <c r="BK7">
         <v>1135</v>
       </c>
       <c r="BL7">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="BN7">
-        <v>608</v>
+        <v>565</v>
       </c>
       <c r="BO7">
         <v>1305</v>
@@ -2421,7 +2421,7 @@
         <v>22</v>
       </c>
       <c r="BA8">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="BB8">
         <v>211</v>
@@ -2588,19 +2588,19 @@
         <v>141</v>
       </c>
       <c r="AO9">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="AP9">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="AQ9">
         <v>171</v>
       </c>
       <c r="AR9">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AS9">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AT9">
         <v>191</v>
@@ -2618,13 +2618,13 @@
         <v>71</v>
       </c>
       <c r="AY9">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AZ9">
         <v>251</v>
       </c>
       <c r="BA9">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="BB9">
         <v>147</v>
@@ -2633,13 +2633,13 @@
         <v>117</v>
       </c>
       <c r="BD9">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="BE9">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BF9">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="BG9">
         <v>304</v>
@@ -2657,10 +2657,10 @@
         <v>133</v>
       </c>
       <c r="BL9">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="BN9">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BO9">
         <v>78</v>
@@ -2827,10 +2827,10 @@
         <v>86</v>
       </c>
       <c r="BA10">
-        <v>863</v>
+        <v>743</v>
       </c>
       <c r="BB10">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BC10">
         <v>31</v>
@@ -2985,7 +2985,7 @@
         <v>78</v>
       </c>
       <c r="AK11">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AL11">
         <v>358</v>
@@ -2997,64 +2997,64 @@
         <v>303</v>
       </c>
       <c r="AO11">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="AP11">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="AQ11">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AR11">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="AS11">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AT11">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AU11">
         <v>200</v>
       </c>
       <c r="AV11">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AW11">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AX11">
-        <v>440</v>
+        <v>422</v>
       </c>
       <c r="AY11">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="AZ11">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="BA11">
-        <v>472</v>
+        <v>437</v>
       </c>
       <c r="BB11">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="BC11">
         <v>161</v>
       </c>
       <c r="BD11">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="BE11">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="BF11">
         <v>168</v>
       </c>
       <c r="BG11">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="BH11">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="BI11">
         <v>394</v>
@@ -3066,16 +3066,16 @@
         <v>501</v>
       </c>
       <c r="BL11">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="BM11">
         <v>3308</v>
       </c>
       <c r="BN11">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="BO11">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BP11">
         <v>354</v>
@@ -3215,13 +3215,13 @@
         <v>126</v>
       </c>
       <c r="AS12">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AT12">
         <v>124</v>
       </c>
       <c r="AU12">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AV12">
         <v>161</v>
@@ -3230,7 +3230,7 @@
         <v>165</v>
       </c>
       <c r="AX12">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AY12">
         <v>105</v>
@@ -3239,22 +3239,22 @@
         <v>119</v>
       </c>
       <c r="BA12">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="BB12">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BC12">
         <v>124</v>
       </c>
       <c r="BD12">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="BE12">
         <v>82</v>
       </c>
       <c r="BF12">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BG12">
         <v>134</v>
@@ -3278,7 +3278,7 @@
         <v>317</v>
       </c>
       <c r="BN12">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="BO12">
         <v>58</v>
@@ -3391,7 +3391,7 @@
         <v>80</v>
       </c>
       <c r="AK13">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AM13">
         <v>762</v>
@@ -3400,49 +3400,49 @@
         <v>966</v>
       </c>
       <c r="AO13">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="AP13">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="AQ13">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="AR13">
-        <v>461</v>
+        <v>443</v>
       </c>
       <c r="AS13">
         <v>444</v>
       </c>
       <c r="AT13">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="AU13">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="AV13">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AW13">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="AY13">
-        <v>1897</v>
+        <v>1894</v>
       </c>
       <c r="AZ13">
-        <v>1214</v>
+        <v>1198</v>
       </c>
       <c r="BA13">
-        <v>345</v>
+        <v>129</v>
       </c>
       <c r="BB13">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="BC13">
         <v>1990</v>
       </c>
       <c r="BD13">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="BE13">
         <v>515</v>
@@ -3451,7 +3451,7 @@
         <v>205</v>
       </c>
       <c r="BG13">
-        <v>571</v>
+        <v>554</v>
       </c>
       <c r="BH13">
         <v>370</v>
@@ -3466,13 +3466,13 @@
         <v>352</v>
       </c>
       <c r="BL13">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="BM13">
         <v>60</v>
       </c>
       <c r="BN13">
-        <v>1393</v>
+        <v>1379</v>
       </c>
       <c r="BO13">
         <v>806</v>
@@ -3591,7 +3591,7 @@
         <v>81</v>
       </c>
       <c r="AK14">
-        <v>3474</v>
+        <v>3402</v>
       </c>
       <c r="AL14">
         <v>2192</v>
@@ -3603,34 +3603,34 @@
         <v>2572</v>
       </c>
       <c r="AO14">
-        <v>2513</v>
+        <v>2493</v>
       </c>
       <c r="AP14">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="AQ14">
-        <v>3022</v>
+        <v>3015</v>
       </c>
       <c r="AR14">
-        <v>3199</v>
+        <v>3189</v>
       </c>
       <c r="AS14">
         <v>1861</v>
       </c>
       <c r="AT14">
-        <v>2064</v>
+        <v>2059</v>
       </c>
       <c r="AU14">
         <v>1985</v>
       </c>
       <c r="AV14">
-        <v>3276</v>
+        <v>3266</v>
       </c>
       <c r="AW14">
         <v>1238</v>
       </c>
       <c r="AX14">
-        <v>2886</v>
+        <v>2880</v>
       </c>
       <c r="AY14">
         <v>2373</v>
@@ -3639,16 +3639,16 @@
         <v>2679</v>
       </c>
       <c r="BA14">
-        <v>3358</v>
+        <v>3352</v>
       </c>
       <c r="BB14">
-        <v>3484</v>
+        <v>3482</v>
       </c>
       <c r="BC14">
         <v>2798</v>
       </c>
       <c r="BD14">
-        <v>1750</v>
+        <v>1736</v>
       </c>
       <c r="BE14">
         <v>1860</v>
@@ -3678,7 +3678,7 @@
         <v>5450</v>
       </c>
       <c r="BN14">
-        <v>1809</v>
+        <v>1806</v>
       </c>
       <c r="BO14">
         <v>3200</v>
@@ -3797,97 +3797,97 @@
         <v>82</v>
       </c>
       <c r="AK15">
-        <v>3793</v>
+        <v>3789</v>
       </c>
       <c r="AL15">
-        <v>6364</v>
+        <v>6350</v>
       </c>
       <c r="AM15">
-        <v>6628</v>
+        <v>6612</v>
       </c>
       <c r="AN15">
-        <v>2623</v>
+        <v>2624</v>
       </c>
       <c r="AO15">
-        <v>4001</v>
+        <v>3962</v>
       </c>
       <c r="AP15">
-        <v>6296</v>
+        <v>6267</v>
       </c>
       <c r="AQ15">
-        <v>2768</v>
+        <v>2761</v>
       </c>
       <c r="AR15">
-        <v>7743</v>
+        <v>7732</v>
       </c>
       <c r="AS15">
-        <v>4200</v>
+        <v>4185</v>
       </c>
       <c r="AT15">
-        <v>3230</v>
+        <v>3221</v>
       </c>
       <c r="AU15">
-        <v>7767</v>
+        <v>7764</v>
       </c>
       <c r="AV15">
-        <v>3870</v>
+        <v>3865</v>
       </c>
       <c r="AW15">
-        <v>5538</v>
+        <v>5526</v>
       </c>
       <c r="AX15">
-        <v>2856</v>
+        <v>2848</v>
       </c>
       <c r="AY15">
-        <v>2209</v>
+        <v>2193</v>
       </c>
       <c r="AZ15">
-        <v>4716</v>
+        <v>4691</v>
       </c>
       <c r="BA15">
-        <v>7869</v>
+        <v>6122</v>
       </c>
       <c r="BB15">
-        <v>3215</v>
+        <v>3166</v>
       </c>
       <c r="BC15">
-        <v>4403</v>
+        <v>4401</v>
       </c>
       <c r="BD15">
-        <v>3957</v>
+        <v>3901</v>
       </c>
       <c r="BE15">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="BF15">
-        <v>3329</v>
+        <v>3327</v>
       </c>
       <c r="BG15">
-        <v>2660</v>
+        <v>2634</v>
       </c>
       <c r="BH15">
-        <v>4681</v>
+        <v>4673</v>
       </c>
       <c r="BI15">
         <v>2648</v>
       </c>
       <c r="BJ15">
-        <v>1194</v>
+        <v>1189</v>
       </c>
       <c r="BK15">
-        <v>2689</v>
+        <v>2691</v>
       </c>
       <c r="BL15">
-        <v>2478</v>
+        <v>2477</v>
       </c>
       <c r="BM15">
         <v>22608</v>
       </c>
       <c r="BN15">
-        <v>2820</v>
+        <v>2795</v>
       </c>
       <c r="BO15">
-        <v>3248</v>
+        <v>3245</v>
       </c>
       <c r="BP15">
         <v>2005</v>
@@ -4003,76 +4003,76 @@
         <v>83</v>
       </c>
       <c r="AK16">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="AL16">
-        <v>2614</v>
+        <v>2609</v>
       </c>
       <c r="AM16">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="AN16">
         <v>1544</v>
       </c>
       <c r="AO16">
-        <v>1760</v>
+        <v>1750</v>
       </c>
       <c r="AP16">
-        <v>1721</v>
+        <v>1716</v>
       </c>
       <c r="AQ16">
-        <v>1162</v>
+        <v>1156</v>
       </c>
       <c r="AR16">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="AS16">
-        <v>2511</v>
+        <v>2508</v>
       </c>
       <c r="AT16">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="AU16">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="AV16">
-        <v>1426</v>
+        <v>1420</v>
       </c>
       <c r="AW16">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="AX16">
-        <v>1378</v>
+        <v>1373</v>
       </c>
       <c r="AY16">
-        <v>1449</v>
+        <v>1442</v>
       </c>
       <c r="AZ16">
-        <v>1931</v>
+        <v>1925</v>
       </c>
       <c r="BA16">
-        <v>2728</v>
+        <v>2703</v>
       </c>
       <c r="BB16">
-        <v>1058</v>
+        <v>1042</v>
       </c>
       <c r="BC16">
         <v>1459</v>
       </c>
       <c r="BD16">
-        <v>1427</v>
+        <v>1404</v>
       </c>
       <c r="BE16">
-        <v>2413</v>
+        <v>2410</v>
       </c>
       <c r="BF16">
         <v>2732</v>
       </c>
       <c r="BG16">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="BH16">
-        <v>1441</v>
+        <v>1439</v>
       </c>
       <c r="BI16">
         <v>1753</v>
@@ -4081,7 +4081,7 @@
         <v>2072</v>
       </c>
       <c r="BK16">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="BL16">
         <v>3018</v>
@@ -4090,10 +4090,10 @@
         <v>3607</v>
       </c>
       <c r="BN16">
-        <v>1416</v>
+        <v>1409</v>
       </c>
       <c r="BO16">
-        <v>1627</v>
+        <v>1620</v>
       </c>
       <c r="BP16">
         <v>1160</v>
@@ -4209,97 +4209,97 @@
         <v>84</v>
       </c>
       <c r="AK17">
-        <v>3413</v>
+        <v>3409</v>
       </c>
       <c r="AL17">
-        <v>7726</v>
+        <v>7717</v>
       </c>
       <c r="AM17">
-        <v>3446</v>
+        <v>3442</v>
       </c>
       <c r="AN17">
-        <v>3085</v>
+        <v>3086</v>
       </c>
       <c r="AO17">
-        <v>3988</v>
+        <v>3952</v>
       </c>
       <c r="AP17">
-        <v>2742</v>
+        <v>2718</v>
       </c>
       <c r="AQ17">
-        <v>3590</v>
+        <v>3584</v>
       </c>
       <c r="AR17">
-        <v>4132</v>
+        <v>4119</v>
       </c>
       <c r="AS17">
-        <v>6805</v>
+        <v>6794</v>
       </c>
       <c r="AT17">
-        <v>4719</v>
+        <v>4715</v>
       </c>
       <c r="AU17">
         <v>4549</v>
       </c>
       <c r="AV17">
-        <v>3412</v>
+        <v>3411</v>
       </c>
       <c r="AW17">
-        <v>1845</v>
+        <v>1837</v>
       </c>
       <c r="AX17">
-        <v>5038</v>
+        <v>5031</v>
       </c>
       <c r="AY17">
-        <v>2979</v>
+        <v>2953</v>
       </c>
       <c r="AZ17">
-        <v>3086</v>
+        <v>3070</v>
       </c>
       <c r="BA17">
-        <v>2192</v>
+        <v>2124</v>
       </c>
       <c r="BB17">
-        <v>2166</v>
+        <v>2116</v>
       </c>
       <c r="BC17">
-        <v>3665</v>
+        <v>3664</v>
       </c>
       <c r="BD17">
-        <v>1966</v>
+        <v>1904</v>
       </c>
       <c r="BE17">
-        <v>6371</v>
+        <v>6366</v>
       </c>
       <c r="BF17">
-        <v>3415</v>
+        <v>3414</v>
       </c>
       <c r="BG17">
-        <v>3610</v>
+        <v>3586</v>
       </c>
       <c r="BH17">
-        <v>4921</v>
+        <v>4913</v>
       </c>
       <c r="BI17">
         <v>2805</v>
       </c>
       <c r="BJ17">
-        <v>3442</v>
+        <v>3440</v>
       </c>
       <c r="BK17">
-        <v>4097</v>
+        <v>4098</v>
       </c>
       <c r="BL17">
-        <v>4928</v>
+        <v>4925</v>
       </c>
       <c r="BM17">
         <v>12443</v>
       </c>
       <c r="BN17">
-        <v>1899</v>
+        <v>1884</v>
       </c>
       <c r="BO17">
-        <v>3759</v>
+        <v>3752</v>
       </c>
       <c r="BP17">
         <v>4449</v>
@@ -4427,13 +4427,13 @@
         <v>204</v>
       </c>
       <c r="AO18">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AP18">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AQ18">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="AR18">
         <v>162</v>
@@ -4451,13 +4451,13 @@
         <v>564</v>
       </c>
       <c r="AW18">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AX18">
         <v>384</v>
       </c>
       <c r="AY18">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AZ18">
         <v>595</v>
@@ -4466,13 +4466,13 @@
         <v>4948</v>
       </c>
       <c r="BB18">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="BC18">
         <v>273</v>
       </c>
       <c r="BD18">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="BE18">
         <v>203</v>
@@ -4502,7 +4502,7 @@
         <v>3516</v>
       </c>
       <c r="BN18">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BO18">
         <v>201</v>
@@ -4633,19 +4633,19 @@
         <v>127</v>
       </c>
       <c r="AO19">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AP19">
         <v>356</v>
       </c>
       <c r="AQ19">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AR19">
         <v>241</v>
       </c>
       <c r="AS19">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AT19">
         <v>195</v>
@@ -4663,7 +4663,7 @@
         <v>382</v>
       </c>
       <c r="AY19">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AZ19">
         <v>176</v>
@@ -4678,7 +4678,7 @@
         <v>290</v>
       </c>
       <c r="BD19">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="BE19">
         <v>323</v>
@@ -4708,7 +4708,7 @@
         <v>6005</v>
       </c>
       <c r="BN19">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BO19">
         <v>344</v>
@@ -4827,31 +4827,31 @@
         <v>87</v>
       </c>
       <c r="AK20">
-        <v>5997</v>
+        <v>5985</v>
       </c>
       <c r="AL20">
-        <v>6782</v>
+        <v>6771</v>
       </c>
       <c r="AM20">
-        <v>8819</v>
+        <v>8797</v>
       </c>
       <c r="AN20">
         <v>6657</v>
       </c>
       <c r="AO20">
-        <v>9198</v>
+        <v>9144</v>
       </c>
       <c r="AP20">
-        <v>7067</v>
+        <v>7050</v>
       </c>
       <c r="AQ20">
-        <v>5243</v>
+        <v>7152</v>
       </c>
       <c r="AR20">
-        <v>4993</v>
+        <v>4955</v>
       </c>
       <c r="AS20">
-        <v>4826</v>
+        <v>4775</v>
       </c>
       <c r="AT20">
         <v>5726</v>
@@ -4860,43 +4860,43 @@
         <v>3617</v>
       </c>
       <c r="AV20">
-        <v>3714</v>
+        <v>3692</v>
       </c>
       <c r="AW20">
         <v>3718</v>
       </c>
       <c r="AX20">
-        <v>4461</v>
+        <v>4446</v>
       </c>
       <c r="AY20">
-        <v>1868</v>
+        <v>3032</v>
       </c>
       <c r="AZ20">
-        <v>4996</v>
+        <v>4975</v>
       </c>
       <c r="BA20">
-        <v>3679</v>
+        <v>8892</v>
       </c>
       <c r="BB20">
-        <v>2361</v>
+        <v>2309</v>
       </c>
       <c r="BC20">
         <v>1329</v>
       </c>
       <c r="BD20">
-        <v>2647</v>
+        <v>2568</v>
       </c>
       <c r="BE20">
-        <v>6357</v>
+        <v>6334</v>
       </c>
       <c r="BF20">
         <v>6538</v>
       </c>
       <c r="BG20">
-        <v>3225</v>
+        <v>3177</v>
       </c>
       <c r="BH20">
-        <v>4734</v>
+        <v>4735</v>
       </c>
       <c r="BI20">
         <v>5940</v>
@@ -4905,19 +4905,19 @@
         <v>4563</v>
       </c>
       <c r="BK20">
-        <v>7693</v>
+        <v>7694</v>
       </c>
       <c r="BL20">
-        <v>5057</v>
+        <v>5046</v>
       </c>
       <c r="BM20">
         <v>9056</v>
       </c>
       <c r="BN20">
-        <v>2312</v>
+        <v>2294</v>
       </c>
       <c r="BO20">
-        <v>3275</v>
+        <v>3272</v>
       </c>
       <c r="BP20">
         <v>4536</v>
@@ -5036,7 +5036,7 @@
         <v>368</v>
       </c>
       <c r="AM21">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AN21">
         <v>738</v>
@@ -5045,16 +5045,16 @@
         <v>795</v>
       </c>
       <c r="AP21">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AQ21">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="AR21">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="AS21">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AT21">
         <v>400</v>
@@ -5063,40 +5063,40 @@
         <v>545</v>
       </c>
       <c r="AV21">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AW21">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AX21">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AY21">
         <v>191</v>
       </c>
       <c r="AZ21">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="BA21">
         <v>1132</v>
       </c>
       <c r="BB21">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BC21">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="BD21">
         <v>454</v>
       </c>
       <c r="BE21">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BF21">
         <v>224</v>
       </c>
       <c r="BG21">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="BH21">
         <v>952</v>
@@ -5108,16 +5108,16 @@
         <v>524</v>
       </c>
       <c r="BK21">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="BL21">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="BN21">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="BO21">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BP21">
         <v>964</v>
@@ -5233,31 +5233,31 @@
         <v>89</v>
       </c>
       <c r="AK22">
-        <v>6596</v>
+        <v>6594</v>
       </c>
       <c r="AL22">
-        <v>9639</v>
+        <v>9626</v>
       </c>
       <c r="AM22">
         <v>5582</v>
       </c>
       <c r="AN22">
-        <v>6076</v>
+        <v>6077</v>
       </c>
       <c r="AO22">
-        <v>4794</v>
+        <v>4762</v>
       </c>
       <c r="AP22">
-        <v>7061</v>
+        <v>7031</v>
       </c>
       <c r="AQ22">
-        <v>5806</v>
+        <v>7241</v>
       </c>
       <c r="AR22">
-        <v>4937</v>
+        <v>4930</v>
       </c>
       <c r="AS22">
-        <v>8939</v>
+        <v>8920</v>
       </c>
       <c r="AT22">
         <v>3004</v>
@@ -5272,46 +5272,46 @@
         <v>4435</v>
       </c>
       <c r="AX22">
-        <v>4074</v>
+        <v>4069</v>
       </c>
       <c r="AY22">
-        <v>3245</v>
+        <v>3212</v>
       </c>
       <c r="AZ22">
-        <v>5608</v>
+        <v>5601</v>
       </c>
       <c r="BA22">
-        <v>7035</v>
+        <v>3764</v>
       </c>
       <c r="BB22">
-        <v>2041</v>
+        <v>1998</v>
       </c>
       <c r="BC22">
         <v>5749</v>
       </c>
       <c r="BD22">
-        <v>3020</v>
+        <v>2987</v>
       </c>
       <c r="BE22">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="BF22">
         <v>5877</v>
       </c>
       <c r="BG22">
-        <v>2023</v>
+        <v>1998</v>
       </c>
       <c r="BH22">
-        <v>7679</v>
+        <v>7681</v>
       </c>
       <c r="BI22">
         <v>5662</v>
       </c>
       <c r="BJ22">
-        <v>4510</v>
+        <v>4499</v>
       </c>
       <c r="BK22">
-        <v>7631</v>
+        <v>7632</v>
       </c>
       <c r="BL22">
         <v>3828</v>
@@ -5320,7 +5320,7 @@
         <v>10750</v>
       </c>
       <c r="BN22">
-        <v>3241</v>
+        <v>3222</v>
       </c>
       <c r="BO22">
         <v>2358</v>
@@ -5487,28 +5487,28 @@
         <v>912</v>
       </c>
       <c r="BA23">
-        <v>4042</v>
+        <v>3524</v>
       </c>
       <c r="BB23">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="BC23">
         <v>468</v>
       </c>
       <c r="BD23">
-        <v>1090</v>
+        <v>780</v>
       </c>
       <c r="BE23">
         <v>371</v>
       </c>
       <c r="BF23">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="BG23">
         <v>856</v>
       </c>
       <c r="BH23">
-        <v>280</v>
+        <v>436</v>
       </c>
       <c r="BI23">
         <v>1449</v>
@@ -5657,16 +5657,16 @@
         <v>269</v>
       </c>
       <c r="AO24">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="AP24">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AQ24">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AR24">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AS24">
         <v>261</v>
@@ -5687,16 +5687,16 @@
         <v>170</v>
       </c>
       <c r="AY24">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AZ24">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="BA24">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="BB24">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="BC24">
         <v>247</v>
@@ -5735,7 +5735,7 @@
         <v>297</v>
       </c>
       <c r="BO24">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="BP24">
         <v>281</v>
@@ -5863,13 +5863,13 @@
         <v>3383</v>
       </c>
       <c r="AO25">
-        <v>2695</v>
+        <v>2690</v>
       </c>
       <c r="AP25">
         <v>2973</v>
       </c>
       <c r="AQ25">
-        <v>3417</v>
+        <v>3387</v>
       </c>
       <c r="AR25">
         <v>4119</v>
@@ -5878,7 +5878,7 @@
         <v>4670</v>
       </c>
       <c r="AT25">
-        <v>1100</v>
+        <v>1090</v>
       </c>
       <c r="AU25">
         <v>3305</v>
@@ -5887,28 +5887,28 @@
         <v>1627</v>
       </c>
       <c r="AW25">
-        <v>5640</v>
+        <v>5634</v>
       </c>
       <c r="AX25">
         <v>2542</v>
       </c>
       <c r="AY25">
-        <v>1585</v>
+        <v>1575</v>
       </c>
       <c r="AZ25">
-        <v>3000</v>
+        <v>2970</v>
       </c>
       <c r="BA25">
-        <v>2302</v>
+        <v>2152</v>
       </c>
       <c r="BB25">
         <v>2993</v>
       </c>
       <c r="BC25">
-        <v>3643</v>
+        <v>3633</v>
       </c>
       <c r="BD25">
-        <v>2758</v>
+        <v>2748</v>
       </c>
       <c r="BE25">
         <v>2732</v>
@@ -5917,7 +5917,7 @@
         <v>2789</v>
       </c>
       <c r="BG25">
-        <v>3044</v>
+        <v>3039</v>
       </c>
       <c r="BH25">
         <v>5843</v>
@@ -5938,7 +5938,7 @@
         <v>6378</v>
       </c>
       <c r="BN25">
-        <v>3379</v>
+        <v>3329</v>
       </c>
       <c r="BO25">
         <v>3000</v>
@@ -6066,7 +6066,7 @@
         <v>1213</v>
       </c>
       <c r="AN26">
-        <v>2250</v>
+        <v>5457</v>
       </c>
       <c r="AO26">
         <v>2213</v>
@@ -6075,13 +6075,13 @@
         <v>2000</v>
       </c>
       <c r="AQ26">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="AR26">
         <v>1745</v>
       </c>
       <c r="AS26">
-        <v>9836</v>
+        <v>9805</v>
       </c>
       <c r="AT26">
         <v>3098</v>
@@ -6093,7 +6093,7 @@
         <v>3817</v>
       </c>
       <c r="AW26">
-        <v>4332</v>
+        <v>4326</v>
       </c>
       <c r="AX26">
         <v>1594</v>
@@ -6105,7 +6105,7 @@
         <v>6522</v>
       </c>
       <c r="BA26">
-        <v>2084</v>
+        <v>2064</v>
       </c>
       <c r="BB26">
         <v>1801</v>
@@ -6123,7 +6123,7 @@
         <v>1903</v>
       </c>
       <c r="BG26">
-        <v>1747</v>
+        <v>1742</v>
       </c>
       <c r="BH26">
         <v>8201</v>
@@ -6281,7 +6281,7 @@
         <v>105</v>
       </c>
       <c r="AQ27">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AR27">
         <v>165</v>
@@ -6308,10 +6308,10 @@
         <v>84</v>
       </c>
       <c r="AZ27">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA27">
-        <v>845</v>
+        <v>805</v>
       </c>
       <c r="BB27">
         <v>140</v>
@@ -6320,7 +6320,7 @@
         <v>155</v>
       </c>
       <c r="BD27">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="BE27">
         <v>99</v>
@@ -6332,7 +6332,7 @@
         <v>91</v>
       </c>
       <c r="BH27">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BI27">
         <v>143</v>
@@ -6350,7 +6350,7 @@
         <v>235</v>
       </c>
       <c r="BN27">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="BO27">
         <v>78</v>
@@ -6490,7 +6490,7 @@
         <v>10</v>
       </c>
       <c r="AU28">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AV28">
         <v>32</v>
@@ -6672,13 +6672,13 @@
         <v>67</v>
       </c>
       <c r="AQ29">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="AR29">
         <v>54</v>
       </c>
       <c r="AS29">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AT29">
         <v>34</v>
@@ -6696,13 +6696,13 @@
         <v>43</v>
       </c>
       <c r="AY29">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="AZ29">
         <v>69</v>
       </c>
       <c r="BA29">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="BB29">
         <v>78</v>
@@ -6872,10 +6872,10 @@
         <v>109</v>
       </c>
       <c r="AP30">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AQ30">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="AR30">
         <v>72</v>
@@ -6905,7 +6905,7 @@
         <v>36</v>
       </c>
       <c r="BA30">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BB30">
         <v>129</v>
@@ -6914,7 +6914,7 @@
         <v>74</v>
       </c>
       <c r="BD30">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="BE30">
         <v>42</v>
@@ -7063,7 +7063,7 @@
         <v>98</v>
       </c>
       <c r="AK31">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AL31">
         <v>119</v>
@@ -7081,7 +7081,7 @@
         <v>143</v>
       </c>
       <c r="AQ31">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="AR31">
         <v>72</v>
@@ -7105,13 +7105,13 @@
         <v>94</v>
       </c>
       <c r="AY31">
-        <v>84</v>
+        <v>132</v>
       </c>
       <c r="AZ31">
         <v>117</v>
       </c>
       <c r="BA31">
-        <v>644</v>
+        <v>619</v>
       </c>
       <c r="BB31">
         <v>112</v>
@@ -7120,10 +7120,10 @@
         <v>91</v>
       </c>
       <c r="BD31">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BE31">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BF31">
         <v>348</v>
@@ -7132,7 +7132,7 @@
         <v>65</v>
       </c>
       <c r="BH31">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="BI31">
         <v>77</v>
@@ -7150,7 +7150,7 @@
         <v>28</v>
       </c>
       <c r="BN31">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BO31">
         <v>121</v>
@@ -7305,19 +7305,19 @@
         <v>59</v>
       </c>
       <c r="AW32">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX32">
         <v>81</v>
       </c>
       <c r="AY32">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AZ32">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="BA32">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="BB32">
         <v>130</v>
@@ -7499,7 +7499,7 @@
         <v>50</v>
       </c>
       <c r="AS33">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT33">
         <v>8</v>
@@ -7562,7 +7562,7 @@
         <v>58</v>
       </c>
       <c r="BN33">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BO33">
         <v>11</v>
@@ -7681,10 +7681,10 @@
         <v>101</v>
       </c>
       <c r="AK34">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="AL34">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AM34">
         <v>280</v>
@@ -7693,73 +7693,73 @@
         <v>371</v>
       </c>
       <c r="AO34">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="AP34">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AQ34">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="AR34">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="AS34">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="AT34">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="AU34">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="AV34">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="AW34">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="AX34">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="AY34">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AZ34">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="BA34">
-        <v>917</v>
+        <v>774</v>
       </c>
       <c r="BB34">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="BC34">
         <v>618</v>
       </c>
       <c r="BD34">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="BE34">
         <v>465</v>
       </c>
       <c r="BF34">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BG34">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="BH34">
-        <v>651</v>
+        <v>756</v>
       </c>
       <c r="BI34">
         <v>652</v>
       </c>
       <c r="BJ34">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="BK34">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="BL34">
         <v>251</v>
@@ -7768,10 +7768,10 @@
         <v>1</v>
       </c>
       <c r="BN34">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="BO34">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="BP34">
         <v>409</v>
@@ -7896,10 +7896,10 @@
         <v>369</v>
       </c>
       <c r="AO35">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AP35">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="AQ35">
         <v>150</v>
@@ -7908,52 +7908,52 @@
         <v>230</v>
       </c>
       <c r="AS35">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AT35">
         <v>526</v>
       </c>
       <c r="AU35">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AV35">
         <v>76</v>
       </c>
       <c r="AW35">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AX35">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="AY35">
         <v>100</v>
       </c>
       <c r="AZ35">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BA35">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="BB35">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="BC35">
         <v>631</v>
       </c>
       <c r="BD35">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="BE35">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BF35">
         <v>178</v>
       </c>
       <c r="BG35">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="BH35">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="BI35">
         <v>72</v>
@@ -7962,13 +7962,13 @@
         <v>139</v>
       </c>
       <c r="BK35">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BL35">
         <v>86</v>
       </c>
       <c r="BN35">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BO35">
         <v>163</v>
@@ -8141,7 +8141,7 @@
         <v>434</v>
       </c>
       <c r="BD36">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="BE36">
         <v>110</v>
@@ -8290,7 +8290,7 @@
         <v>432</v>
       </c>
       <c r="AL37">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AM37">
         <v>98</v>
@@ -8299,13 +8299,13 @@
         <v>311</v>
       </c>
       <c r="AO37">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="AP37">
         <v>307</v>
       </c>
       <c r="AQ37">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AR37">
         <v>343</v>
@@ -8320,31 +8320,31 @@
         <v>152</v>
       </c>
       <c r="AV37">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AW37">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AX37">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AY37">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="AZ37">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="BA37">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="BB37">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BC37">
         <v>235</v>
       </c>
       <c r="BD37">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="BE37">
         <v>311</v>
@@ -8353,10 +8353,10 @@
         <v>771</v>
       </c>
       <c r="BG37">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="BH37">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BI37">
         <v>118</v>
@@ -8374,10 +8374,10 @@
         <v>458</v>
       </c>
       <c r="BN37">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="BO37">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="BP37">
         <v>553</v>
@@ -8493,10 +8493,10 @@
         <v>105</v>
       </c>
       <c r="AK38">
-        <v>1272</v>
+        <v>1268</v>
       </c>
       <c r="AL38">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AM38">
         <v>823</v>
@@ -8505,52 +8505,52 @@
         <v>696</v>
       </c>
       <c r="AO38">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="AP38">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="AQ38">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="AR38">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="AS38">
-        <v>1881</v>
+        <v>1878</v>
       </c>
       <c r="AT38">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="AU38">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="AV38">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="AW38">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="AX38">
         <v>442</v>
       </c>
       <c r="AY38">
-        <v>545</v>
+        <v>744</v>
       </c>
       <c r="AZ38">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="BA38">
-        <v>1616</v>
+        <v>1588</v>
       </c>
       <c r="BB38">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="BC38">
         <v>785</v>
       </c>
       <c r="BD38">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="BE38">
         <v>916</v>
@@ -8559,31 +8559,31 @@
         <v>1020</v>
       </c>
       <c r="BG38">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="BH38">
-        <v>500</v>
+        <v>619</v>
       </c>
       <c r="BI38">
         <v>1517</v>
       </c>
       <c r="BJ38">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="BK38">
         <v>1280</v>
       </c>
       <c r="BL38">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="BM38">
         <v>1768</v>
       </c>
       <c r="BN38">
-        <v>960</v>
+        <v>949</v>
       </c>
       <c r="BO38">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="BP38">
         <v>1004</v>
@@ -8699,7 +8699,7 @@
         <v>106</v>
       </c>
       <c r="AK39">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="AL39">
         <v>818</v>
@@ -8711,19 +8711,19 @@
         <v>557</v>
       </c>
       <c r="AO39">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AP39">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="AQ39">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AR39">
         <v>392</v>
       </c>
       <c r="AS39">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="AT39">
         <v>941</v>
@@ -8738,25 +8738,25 @@
         <v>440</v>
       </c>
       <c r="AX39">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="AY39">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AZ39">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="BA39">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="BB39">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="BC39">
         <v>645</v>
       </c>
       <c r="BD39">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="BE39">
         <v>641</v>
@@ -8765,7 +8765,7 @@
         <v>848</v>
       </c>
       <c r="BG39">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="BH39">
         <v>463</v>
@@ -8789,7 +8789,7 @@
         <v>747</v>
       </c>
       <c r="BO39">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="BP39">
         <v>901</v>
@@ -8902,7 +8902,7 @@
         <v>107</v>
       </c>
       <c r="AK40">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AL40">
         <v>301</v>
@@ -8914,13 +8914,13 @@
         <v>401</v>
       </c>
       <c r="AO40">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="AP40">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AQ40">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AR40">
         <v>326</v>
@@ -8929,7 +8929,7 @@
         <v>57</v>
       </c>
       <c r="AT40">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AU40">
         <v>279</v>
@@ -8941,37 +8941,37 @@
         <v>84</v>
       </c>
       <c r="AX40">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AY40">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AZ40">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="BA40">
-        <v>563</v>
+        <v>411</v>
       </c>
       <c r="BB40">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="BC40">
         <v>113</v>
       </c>
       <c r="BD40">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="BE40">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BF40">
         <v>1</v>
       </c>
       <c r="BG40">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BH40">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="BI40">
         <v>77</v>
@@ -8986,7 +8986,7 @@
         <v>363</v>
       </c>
       <c r="BN40">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="BO40">
         <v>233</v>
@@ -9105,10 +9105,10 @@
         <v>108</v>
       </c>
       <c r="AK41">
-        <v>1625</v>
+        <v>1620</v>
       </c>
       <c r="AL41">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="AM41">
         <v>1516</v>
@@ -9117,64 +9117,64 @@
         <v>1123</v>
       </c>
       <c r="AO41">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="AP41">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="AQ41">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="AR41">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="AS41">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="AT41">
         <v>723</v>
       </c>
       <c r="AU41">
-        <v>1931</v>
+        <v>1930</v>
       </c>
       <c r="AV41">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="AW41">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="AX41">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="AY41">
-        <v>1314</v>
+        <v>1631</v>
       </c>
       <c r="AZ41">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="BA41">
-        <v>1749</v>
+        <v>1413</v>
       </c>
       <c r="BB41">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="BC41">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="BD41">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="BE41">
-        <v>2055</v>
+        <v>2052</v>
       </c>
       <c r="BF41">
         <v>1649</v>
       </c>
       <c r="BG41">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="BH41">
-        <v>934</v>
+        <v>1092</v>
       </c>
       <c r="BI41">
         <v>1630</v>
@@ -9186,16 +9186,16 @@
         <v>911</v>
       </c>
       <c r="BL41">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="BM41">
         <v>14828</v>
       </c>
       <c r="BN41">
-        <v>1718</v>
+        <v>1712</v>
       </c>
       <c r="BO41">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="BP41">
         <v>1394</v>
@@ -9329,7 +9329,7 @@
         <v>99</v>
       </c>
       <c r="AQ42">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="AR42">
         <v>52</v>
@@ -9353,13 +9353,13 @@
         <v>31</v>
       </c>
       <c r="AY42">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AZ42">
         <v>60</v>
       </c>
       <c r="BA42">
-        <v>982</v>
+        <v>910</v>
       </c>
       <c r="BB42">
         <v>132</v>
@@ -9368,7 +9368,7 @@
         <v>62</v>
       </c>
       <c r="BD42">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BE42">
         <v>88</v>
@@ -9398,7 +9398,7 @@
         <v>110</v>
       </c>
       <c r="BN42">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BO42">
         <v>200</v>
@@ -9523,7 +9523,7 @@
         <v>580</v>
       </c>
       <c r="AO43">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="AP43">
         <v>1018</v>
@@ -9532,10 +9532,10 @@
         <v>167</v>
       </c>
       <c r="AR43">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="AS43">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AU43">
         <v>43</v>
@@ -9553,19 +9553,19 @@
         <v>309</v>
       </c>
       <c r="AZ43">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="BA43">
         <v>183</v>
       </c>
       <c r="BB43">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="BC43">
         <v>83</v>
       </c>
       <c r="BD43">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="BE43">
         <v>385</v>
@@ -9711,76 +9711,76 @@
         <v>111</v>
       </c>
       <c r="AK44">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="AL44">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="AM44">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="AN44">
         <v>939</v>
       </c>
       <c r="AO44">
-        <v>572</v>
+        <v>543</v>
       </c>
       <c r="AP44">
-        <v>998</v>
+        <v>988</v>
       </c>
       <c r="AQ44">
+        <v>612</v>
+      </c>
+      <c r="AR44">
+        <v>576</v>
+      </c>
+      <c r="AS44">
+        <v>598</v>
+      </c>
+      <c r="AT44">
+        <v>1088</v>
+      </c>
+      <c r="AU44">
         <v>615</v>
       </c>
-      <c r="AR44">
-        <v>587</v>
-      </c>
-      <c r="AS44">
-        <v>607</v>
-      </c>
-      <c r="AT44">
-        <v>1092</v>
-      </c>
-      <c r="AU44">
-        <v>617</v>
-      </c>
       <c r="AV44">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="AW44">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="AX44">
-        <v>1296</v>
+        <v>1289</v>
       </c>
       <c r="AY44">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="AZ44">
-        <v>672</v>
+        <v>644</v>
       </c>
       <c r="BA44">
-        <v>771</v>
+        <v>726</v>
       </c>
       <c r="BB44">
-        <v>494</v>
+        <v>468</v>
       </c>
       <c r="BC44">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="BD44">
-        <v>373</v>
+        <v>317</v>
       </c>
       <c r="BE44">
-        <v>1424</v>
+        <v>1414</v>
       </c>
       <c r="BF44">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="BG44">
-        <v>592</v>
+        <v>583</v>
       </c>
       <c r="BH44">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="BI44">
         <v>861</v>
@@ -9789,16 +9789,16 @@
         <v>807</v>
       </c>
       <c r="BK44">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="BL44">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="BM44">
         <v>18</v>
       </c>
       <c r="BN44">
-        <v>1384</v>
+        <v>1368</v>
       </c>
       <c r="BO44">
         <v>395</v>
@@ -9920,7 +9920,7 @@
         <v>2262</v>
       </c>
       <c r="AL45">
-        <v>2958</v>
+        <v>2950</v>
       </c>
       <c r="AM45">
         <v>1545</v>
@@ -9929,52 +9929,52 @@
         <v>1399</v>
       </c>
       <c r="AO45">
-        <v>2263</v>
+        <v>2255</v>
       </c>
       <c r="AP45">
-        <v>2486</v>
+        <v>2477</v>
       </c>
       <c r="AQ45">
-        <v>2268</v>
+        <v>2259</v>
       </c>
       <c r="AR45">
-        <v>3149</v>
+        <v>3143</v>
       </c>
       <c r="AS45">
-        <v>3130</v>
+        <v>3112</v>
       </c>
       <c r="AT45">
         <v>2160</v>
       </c>
       <c r="AU45">
-        <v>1812</v>
+        <v>1809</v>
       </c>
       <c r="AV45">
-        <v>2045</v>
+        <v>2039</v>
       </c>
       <c r="AW45">
         <v>1958</v>
       </c>
       <c r="AX45">
-        <v>1419</v>
+        <v>1417</v>
       </c>
       <c r="AY45">
-        <v>1739</v>
+        <v>1730</v>
       </c>
       <c r="AZ45">
-        <v>1279</v>
+        <v>1194</v>
       </c>
       <c r="BA45">
-        <v>2542</v>
+        <v>2512</v>
       </c>
       <c r="BB45">
-        <v>1502</v>
+        <v>2870</v>
       </c>
       <c r="BC45">
-        <v>1512</v>
+        <v>1507</v>
       </c>
       <c r="BD45">
-        <v>2112</v>
+        <v>3271</v>
       </c>
       <c r="BE45">
         <v>2097</v>
@@ -9983,7 +9983,7 @@
         <v>2577</v>
       </c>
       <c r="BG45">
-        <v>1954</v>
+        <v>3121</v>
       </c>
       <c r="BH45">
         <v>1363</v>
@@ -10004,7 +10004,7 @@
         <v>7006</v>
       </c>
       <c r="BN45">
-        <v>2561</v>
+        <v>2552</v>
       </c>
       <c r="BO45">
         <v>2000</v>
@@ -10159,7 +10159,7 @@
         <v>6</v>
       </c>
       <c r="BA46">
-        <v>2523</v>
+        <v>1911</v>
       </c>
       <c r="BB46">
         <v>54</v>
@@ -10168,7 +10168,7 @@
         <v>9</v>
       </c>
       <c r="BD46">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BE46">
         <v>45</v>
@@ -10317,7 +10317,7 @@
         <v>23</v>
       </c>
       <c r="BA47">
-        <v>4817</v>
+        <v>3733</v>
       </c>
       <c r="BC47">
         <v>47</v>
@@ -10329,7 +10329,7 @@
         <v>10</v>
       </c>
       <c r="BH47">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BI47">
         <v>123</v>
@@ -10469,16 +10469,16 @@
         <v>808</v>
       </c>
       <c r="AM48">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="AN48">
         <v>273</v>
       </c>
       <c r="AO48">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AP48">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AQ48">
         <v>691</v>
@@ -10496,13 +10496,13 @@
         <v>689</v>
       </c>
       <c r="AV48">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AW48">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="AX48">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AY48">
         <v>590</v>
@@ -10511,22 +10511,22 @@
         <v>315</v>
       </c>
       <c r="BA48">
-        <v>1151</v>
+        <v>1133</v>
       </c>
       <c r="BB48">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="BC48">
         <v>406</v>
       </c>
       <c r="BD48">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="BE48">
         <v>427</v>
       </c>
       <c r="BF48">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="BG48">
         <v>558</v>
@@ -10541,7 +10541,7 @@
         <v>502</v>
       </c>
       <c r="BK48">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="BL48">
         <v>562</v>
@@ -10550,10 +10550,10 @@
         <v>15</v>
       </c>
       <c r="BN48">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="BO48">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BP48">
         <v>436</v>
@@ -10669,7 +10669,7 @@
         <v>116</v>
       </c>
       <c r="AK49">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AL49">
         <v>49</v>
@@ -10681,16 +10681,16 @@
         <v>105</v>
       </c>
       <c r="AO49">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AP49">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="AQ49">
         <v>137</v>
       </c>
       <c r="AR49">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS49">
         <v>14</v>
@@ -10714,19 +10714,19 @@
         <v>151</v>
       </c>
       <c r="AZ49">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BA49">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="BB49">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BC49">
         <v>119</v>
       </c>
       <c r="BD49">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="BE49">
         <v>113</v>
@@ -10756,7 +10756,7 @@
         <v>6</v>
       </c>
       <c r="BN49">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="BO49">
         <v>83</v>
@@ -10875,76 +10875,76 @@
         <v>117</v>
       </c>
       <c r="AK50">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="AL50">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="AM50">
-        <v>836</v>
+        <v>808</v>
       </c>
       <c r="AN50">
         <v>324</v>
       </c>
       <c r="AO50">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="AP50">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="AQ50">
         <v>329</v>
       </c>
       <c r="AR50">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="AS50">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="AT50">
-        <v>668</v>
+        <v>468</v>
       </c>
       <c r="AU50">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="AV50">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="AW50">
         <v>340</v>
       </c>
       <c r="AX50">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="AY50">
-        <v>314</v>
+        <v>818</v>
       </c>
       <c r="AZ50">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="BA50">
-        <v>722</v>
+        <v>691</v>
       </c>
       <c r="BB50">
         <v>406</v>
       </c>
       <c r="BC50">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="BD50">
-        <v>672</v>
+        <v>507</v>
       </c>
       <c r="BE50">
         <v>852</v>
       </c>
       <c r="BF50">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="BG50">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="BH50">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="BI50">
         <v>712</v>
@@ -10953,7 +10953,7 @@
         <v>1001</v>
       </c>
       <c r="BK50">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="BL50">
         <v>814</v>
@@ -10962,7 +10962,7 @@
         <v>437</v>
       </c>
       <c r="BN50">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="BO50">
         <v>899</v>
@@ -11451,7 +11451,7 @@
         <v>120</v>
       </c>
       <c r="AK53">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="AL53">
         <v>317</v>
@@ -11463,10 +11463,10 @@
         <v>839</v>
       </c>
       <c r="AO53">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="AP53">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="AQ53">
         <v>526</v>
@@ -11484,13 +11484,13 @@
         <v>497</v>
       </c>
       <c r="AV53">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AW53">
         <v>404</v>
       </c>
       <c r="AX53">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="AY53">
         <v>789</v>
@@ -11502,16 +11502,16 @@
         <v>1204</v>
       </c>
       <c r="BB53">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="BC53">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="BD53">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="BE53">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="BF53">
         <v>568</v>
@@ -11520,7 +11520,7 @@
         <v>296</v>
       </c>
       <c r="BH53">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="BI53">
         <v>704</v>
@@ -11532,13 +11532,13 @@
         <v>483</v>
       </c>
       <c r="BL53">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="BM53">
         <v>2477</v>
       </c>
       <c r="BN53">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="BO53">
         <v>781</v>
@@ -11627,7 +11627,7 @@
         <v>4</v>
       </c>
       <c r="AP54">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AQ54">
         <v>1</v>
@@ -11642,7 +11642,7 @@
         <v>48</v>
       </c>
       <c r="AX54">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BA54">
         <v>55</v>
@@ -11651,13 +11651,13 @@
         <v>15</v>
       </c>
       <c r="BC54">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD54">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BE54">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BG54">
         <v>17</v>
@@ -11669,7 +11669,7 @@
         <v>9</v>
       </c>
       <c r="BL54">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BO54">
         <v>10</v>
@@ -11827,7 +11827,7 @@
         <v>59</v>
       </c>
       <c r="AY55">
-        <v>28</v>
+        <v>86</v>
       </c>
       <c r="AZ55">
         <v>29</v>
@@ -12000,22 +12000,22 @@
         <v>2679</v>
       </c>
       <c r="AN56">
-        <v>1293</v>
+        <v>2293</v>
       </c>
       <c r="AO56">
         <v>3391</v>
       </c>
       <c r="AP56">
-        <v>4524</v>
+        <v>4521</v>
       </c>
       <c r="AQ56">
         <v>528</v>
       </c>
       <c r="AR56">
-        <v>2024</v>
+        <v>1997</v>
       </c>
       <c r="AS56">
-        <v>3323</v>
+        <v>3305</v>
       </c>
       <c r="AT56">
         <v>1636</v>
@@ -12030,25 +12030,25 @@
         <v>2348</v>
       </c>
       <c r="AX56">
-        <v>2842</v>
+        <v>2832</v>
       </c>
       <c r="AY56">
-        <v>2926</v>
+        <v>2917</v>
       </c>
       <c r="AZ56">
         <v>1663</v>
       </c>
       <c r="BA56">
-        <v>1697</v>
+        <v>1179</v>
       </c>
       <c r="BB56">
-        <v>1864</v>
+        <v>1787</v>
       </c>
       <c r="BC56">
         <v>4306</v>
       </c>
       <c r="BD56">
-        <v>3012</v>
+        <v>2984</v>
       </c>
       <c r="BE56">
         <v>2551</v>
@@ -12057,10 +12057,10 @@
         <v>2777</v>
       </c>
       <c r="BG56">
-        <v>1726</v>
+        <v>1645</v>
       </c>
       <c r="BH56">
-        <v>1460</v>
+        <v>1960</v>
       </c>
       <c r="BI56">
         <v>3911</v>
@@ -12078,7 +12078,7 @@
         <v>3268</v>
       </c>
       <c r="BN56">
-        <v>4363</v>
+        <v>4358</v>
       </c>
       <c r="BO56">
         <v>1894</v>
@@ -12206,13 +12206,13 @@
         <v>201</v>
       </c>
       <c r="AO57">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="AP57">
         <v>261</v>
       </c>
       <c r="AQ57">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AR57">
         <v>459</v>
@@ -12245,22 +12245,22 @@
         <v>912</v>
       </c>
       <c r="BB57">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="BC57">
         <v>236</v>
       </c>
       <c r="BD57">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="BE57">
         <v>120</v>
       </c>
       <c r="BF57">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BG57">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="BH57">
         <v>422</v>
@@ -12275,7 +12275,7 @@
         <v>170</v>
       </c>
       <c r="BL57">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="BN57">
         <v>207</v>
@@ -12406,19 +12406,19 @@
         <v>2384</v>
       </c>
       <c r="AO58">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="AP58">
         <v>1942</v>
       </c>
       <c r="AQ58">
-        <v>3313</v>
+        <v>3308</v>
       </c>
       <c r="AR58">
         <v>1378</v>
       </c>
       <c r="AS58">
-        <v>851</v>
+        <v>845</v>
       </c>
       <c r="AT58">
         <v>1311</v>
@@ -12433,34 +12433,34 @@
         <v>2232</v>
       </c>
       <c r="AX58">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="AY58">
-        <v>1514</v>
+        <v>1499</v>
       </c>
       <c r="AZ58">
-        <v>1749</v>
+        <v>1739</v>
       </c>
       <c r="BA58">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="BB58">
-        <v>991</v>
+        <v>978</v>
       </c>
       <c r="BC58">
         <v>1333</v>
       </c>
       <c r="BD58">
+        <v>1729</v>
+      </c>
+      <c r="BE58">
         <v>1735</v>
       </c>
-      <c r="BE58">
-        <v>1746</v>
-      </c>
       <c r="BF58">
-        <v>2497</v>
+        <v>2493</v>
       </c>
       <c r="BG58">
-        <v>1534</v>
+        <v>1528</v>
       </c>
       <c r="BH58">
         <v>2470</v>
@@ -12472,13 +12472,13 @@
         <v>1852</v>
       </c>
       <c r="BK58">
-        <v>1863</v>
+        <v>1869</v>
       </c>
       <c r="BL58">
         <v>2292</v>
       </c>
       <c r="BN58">
-        <v>1585</v>
+        <v>1584</v>
       </c>
       <c r="BO58">
         <v>2125</v>
@@ -12591,7 +12591,7 @@
         <v>212</v>
       </c>
       <c r="AL59">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="AM59">
         <v>247</v>
@@ -12627,7 +12627,7 @@
         <v>369</v>
       </c>
       <c r="AX59">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AY59">
         <v>80</v>
@@ -12648,7 +12648,7 @@
         <v>24</v>
       </c>
       <c r="BG59">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="BH59">
         <v>85</v>
@@ -12788,7 +12788,7 @@
         <v>137</v>
       </c>
       <c r="AL60">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="AM60">
         <v>123</v>
@@ -12803,7 +12803,7 @@
         <v>123</v>
       </c>
       <c r="AQ60">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AR60">
         <v>127</v>
@@ -12824,7 +12824,7 @@
         <v>133</v>
       </c>
       <c r="AX60">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AY60">
         <v>50</v>
@@ -12913,7 +12913,7 @@
         <v>1</v>
       </c>
       <c r="BB61">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BK61">
         <v>156</v>
@@ -13038,52 +13038,52 @@
         <v>1142</v>
       </c>
       <c r="AO62">
-        <v>1757</v>
+        <v>1747</v>
       </c>
       <c r="AP62">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="AQ62">
-        <v>2398</v>
+        <v>2376</v>
       </c>
       <c r="AR62">
         <v>2509</v>
       </c>
       <c r="AS62">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="AT62">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="AU62">
         <v>823</v>
       </c>
       <c r="AV62">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="AW62">
         <v>1326</v>
       </c>
       <c r="AX62">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="AY62">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="AZ62">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="BA62">
-        <v>1184</v>
+        <v>1176</v>
       </c>
       <c r="BB62">
-        <v>1431</v>
+        <v>1427</v>
       </c>
       <c r="BC62">
         <v>1457</v>
       </c>
       <c r="BD62">
-        <v>831</v>
+        <v>806</v>
       </c>
       <c r="BE62">
         <v>1549</v>
@@ -13092,7 +13092,7 @@
         <v>1110</v>
       </c>
       <c r="BG62">
-        <v>1676</v>
+        <v>1672</v>
       </c>
       <c r="BH62">
         <v>1563</v>
@@ -13104,13 +13104,13 @@
         <v>1798</v>
       </c>
       <c r="BK62">
-        <v>3641</v>
+        <v>3639</v>
       </c>
       <c r="BL62">
         <v>2271</v>
       </c>
       <c r="BN62">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="BO62">
         <v>848</v>
@@ -13277,13 +13277,13 @@
         <v>409</v>
       </c>
       <c r="BB63">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BC63">
         <v>56</v>
       </c>
       <c r="BD63">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BE63">
         <v>263</v>
@@ -13441,16 +13441,16 @@
         <v>535</v>
       </c>
       <c r="AO64">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="AP64">
-        <v>1227</v>
+        <v>1223</v>
       </c>
       <c r="AQ64">
         <v>800</v>
       </c>
       <c r="AR64">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="AS64">
         <v>613</v>
@@ -13462,7 +13462,7 @@
         <v>458</v>
       </c>
       <c r="AV64">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="AW64">
         <v>594</v>
@@ -13477,16 +13477,16 @@
         <v>451</v>
       </c>
       <c r="BA64">
-        <v>7325</v>
+        <v>6994</v>
       </c>
       <c r="BB64">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="BC64">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="BD64">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="BE64">
         <v>335</v>
@@ -13495,7 +13495,7 @@
         <v>1072</v>
       </c>
       <c r="BG64">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="BH64">
         <v>430</v>
@@ -13516,7 +13516,7 @@
         <v>9</v>
       </c>
       <c r="BN64">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="BO64">
         <v>227</v>
@@ -13701,7 +13701,7 @@
         <v>60</v>
       </c>
       <c r="BH65">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="BI65">
         <v>53</v>
@@ -13774,6 +13774,9 @@
       <c r="P66" t="s">
         <v>150</v>
       </c>
+      <c r="Q66" t="s">
+        <v>150</v>
+      </c>
       <c r="R66" t="s">
         <v>150</v>
       </c>
@@ -13859,7 +13862,7 @@
         <v>125</v>
       </c>
       <c r="AU66">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AV66">
         <v>130</v>
@@ -13868,13 +13871,16 @@
         <v>191</v>
       </c>
       <c r="AX66">
-        <v>156</v>
+        <v>155</v>
+      </c>
+      <c r="AY66">
+        <v>76</v>
       </c>
       <c r="AZ66">
         <v>68</v>
       </c>
       <c r="BA66">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BB66">
         <v>171</v>
@@ -13883,7 +13889,7 @@
         <v>68</v>
       </c>
       <c r="BD66">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="BE66">
         <v>150</v>
@@ -14032,7 +14038,7 @@
         <v>399</v>
       </c>
       <c r="AL67">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="AM67">
         <v>833</v>
@@ -14041,22 +14047,22 @@
         <v>372</v>
       </c>
       <c r="AO67">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="AP67">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="AQ67">
-        <v>804</v>
+        <v>1092</v>
       </c>
       <c r="AR67">
         <v>485</v>
       </c>
       <c r="AS67">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="AT67">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AU67">
         <v>732</v>
@@ -14065,28 +14071,28 @@
         <v>550</v>
       </c>
       <c r="AW67">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="AX67">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="AY67">
-        <v>364</v>
+        <v>434</v>
       </c>
       <c r="AZ67">
         <v>757</v>
       </c>
       <c r="BA67">
-        <v>7217</v>
+        <v>5736</v>
       </c>
       <c r="BB67">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="BC67">
         <v>361</v>
       </c>
       <c r="BD67">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="BE67">
         <v>707</v>
@@ -14110,13 +14116,13 @@
         <v>301</v>
       </c>
       <c r="BL67">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="BM67">
         <v>2545</v>
       </c>
       <c r="BN67">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="BO67">
         <v>302</v>
@@ -14238,13 +14244,13 @@
         <v>186</v>
       </c>
       <c r="AM68">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AN68">
         <v>339</v>
       </c>
       <c r="AO68">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="AP68">
         <v>393</v>
@@ -14268,19 +14274,19 @@
         <v>93</v>
       </c>
       <c r="AW68">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AX68">
         <v>117</v>
       </c>
       <c r="AY68">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AZ68">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BA68">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="BB68">
         <v>204</v>
@@ -14447,13 +14453,13 @@
         <v>264</v>
       </c>
       <c r="AO69">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="AP69">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="AQ69">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="AR69">
         <v>662</v>
@@ -14462,7 +14468,7 @@
         <v>412</v>
       </c>
       <c r="AT69">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AU69">
         <v>326</v>
@@ -14477,22 +14483,22 @@
         <v>469</v>
       </c>
       <c r="AY69">
-        <v>486</v>
+        <v>666</v>
       </c>
       <c r="AZ69">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="BA69">
-        <v>1411</v>
+        <v>961</v>
       </c>
       <c r="BB69">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="BC69">
         <v>612</v>
       </c>
       <c r="BD69">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="BE69">
         <v>798</v>
@@ -14522,7 +14528,7 @@
         <v>804</v>
       </c>
       <c r="BN69">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="BO69">
         <v>735</v>
@@ -14556,6 +14562,9 @@
       <c r="H70" t="s">
         <v>150</v>
       </c>
+      <c r="I70" t="s">
+        <v>150</v>
+      </c>
       <c r="J70" t="s">
         <v>150</v>
       </c>
@@ -14655,6 +14664,9 @@
       <c r="AP70">
         <v>87</v>
       </c>
+      <c r="AQ70">
+        <v>52</v>
+      </c>
       <c r="AR70">
         <v>114</v>
       </c>
@@ -14680,10 +14692,10 @@
         <v>107</v>
       </c>
       <c r="AZ70">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="BA70">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="BB70">
         <v>215</v>
@@ -14853,13 +14865,13 @@
         <v>357</v>
       </c>
       <c r="AO71">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="AP71">
         <v>941</v>
       </c>
       <c r="AQ71">
-        <v>671</v>
+        <v>1070</v>
       </c>
       <c r="AR71">
         <v>142</v>
@@ -14874,7 +14886,7 @@
         <v>900</v>
       </c>
       <c r="AV71">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="AW71">
         <v>633</v>
@@ -14886,19 +14898,19 @@
         <v>402</v>
       </c>
       <c r="AZ71">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="BA71">
-        <v>7060</v>
+        <v>6039</v>
       </c>
       <c r="BB71">
-        <v>1115</v>
+        <v>1102</v>
       </c>
       <c r="BC71">
         <v>528</v>
       </c>
       <c r="BD71">
-        <v>2312</v>
+        <v>2292</v>
       </c>
       <c r="BE71">
         <v>994</v>
@@ -14916,7 +14928,7 @@
         <v>903</v>
       </c>
       <c r="BJ71">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="BK71">
         <v>991</v>
@@ -14928,7 +14940,7 @@
         <v>7</v>
       </c>
       <c r="BN71">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="BO71">
         <v>632</v>
@@ -15065,7 +15077,7 @@
         <v>71</v>
       </c>
       <c r="AQ72">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AR72">
         <v>34</v>
@@ -15098,13 +15110,13 @@
         <v>512</v>
       </c>
       <c r="BB72">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC72">
         <v>128</v>
       </c>
       <c r="BD72">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="BE72">
         <v>24</v>
@@ -15265,61 +15277,61 @@
         <v>371</v>
       </c>
       <c r="AO73">
-        <v>2792</v>
+        <v>2710</v>
       </c>
       <c r="AP73">
-        <v>7199</v>
+        <v>7171</v>
       </c>
       <c r="AQ73">
-        <v>666</v>
+        <v>611</v>
       </c>
       <c r="AR73">
-        <v>2007</v>
+        <v>1780</v>
       </c>
       <c r="AS73">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="AT73">
-        <v>1356</v>
+        <v>1343</v>
       </c>
       <c r="AU73">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AV73">
-        <v>2921</v>
+        <v>2932</v>
       </c>
       <c r="AW73">
         <v>2513</v>
       </c>
       <c r="AX73">
-        <v>1987</v>
+        <v>1941</v>
       </c>
       <c r="AY73">
-        <v>440</v>
+        <v>418</v>
       </c>
       <c r="AZ73">
         <v>42</v>
       </c>
       <c r="BA73">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="BB73">
-        <v>864</v>
+        <v>734</v>
       </c>
       <c r="BC73">
-        <v>2780</v>
+        <v>2777</v>
       </c>
       <c r="BD73">
-        <v>1189</v>
+        <v>918</v>
       </c>
       <c r="BE73">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="BF73">
         <v>11</v>
       </c>
       <c r="BG73">
-        <v>767</v>
+        <v>743</v>
       </c>
       <c r="BH73">
         <v>1950</v>
@@ -15331,7 +15343,7 @@
         <v>4779</v>
       </c>
       <c r="BK73">
-        <v>798</v>
+        <v>787</v>
       </c>
       <c r="BL73">
         <v>3498</v>
@@ -15340,7 +15352,7 @@
         <v>2903</v>
       </c>
       <c r="BN73">
-        <v>639</v>
+        <v>612</v>
       </c>
       <c r="BO73">
         <v>3382</v>
@@ -15465,25 +15477,25 @@
         <v>133</v>
       </c>
       <c r="AO74">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AP74">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="AQ74">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AR74">
         <v>250</v>
       </c>
       <c r="AS74">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AT74">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AU74">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AV74">
         <v>105</v>
@@ -15492,16 +15504,16 @@
         <v>199</v>
       </c>
       <c r="AX74">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AY74">
         <v>126</v>
       </c>
       <c r="AZ74">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BA74">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="BB74">
         <v>449</v>
@@ -15510,7 +15522,7 @@
         <v>64</v>
       </c>
       <c r="BD74">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="BF74">
         <v>20</v>
@@ -15525,7 +15537,7 @@
         <v>313</v>
       </c>
       <c r="BJ74">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BK74">
         <v>57</v>
@@ -15537,7 +15549,7 @@
         <v>4</v>
       </c>
       <c r="BN74">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="BP74">
         <v>220</v>
@@ -15665,22 +15677,22 @@
         <v>495</v>
       </c>
       <c r="AO75">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AP75">
         <v>699</v>
       </c>
       <c r="AQ75">
-        <v>487</v>
+        <v>617</v>
       </c>
       <c r="AR75">
         <v>453</v>
       </c>
       <c r="AS75">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="AT75">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AU75">
         <v>502</v>
@@ -15689,28 +15701,28 @@
         <v>443</v>
       </c>
       <c r="AW75">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AX75">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AY75">
         <v>488</v>
       </c>
       <c r="AZ75">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="BA75">
         <v>2777</v>
       </c>
       <c r="BB75">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="BC75">
         <v>490</v>
       </c>
       <c r="BD75">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="BE75">
         <v>213</v>
@@ -15740,7 +15752,7 @@
         <v>12820</v>
       </c>
       <c r="BN75">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="BO75">
         <v>381</v>
@@ -16235,7 +16247,7 @@
         <v>1447</v>
       </c>
       <c r="AO78">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="AP78">
         <v>1899</v>
@@ -16256,34 +16268,34 @@
         <v>1085</v>
       </c>
       <c r="AV78">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="AW78">
         <v>936</v>
       </c>
       <c r="AX78">
-        <v>971</v>
+        <v>957</v>
       </c>
       <c r="AY78">
-        <v>926</v>
+        <v>912</v>
       </c>
       <c r="AZ78">
         <v>1036</v>
       </c>
       <c r="BA78">
-        <v>1399</v>
+        <v>1389</v>
       </c>
       <c r="BB78">
-        <v>952</v>
+        <v>939</v>
       </c>
       <c r="BC78">
-        <v>2947</v>
+        <v>2937</v>
       </c>
       <c r="BD78">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="BE78">
-        <v>2278</v>
+        <v>2276</v>
       </c>
       <c r="BF78">
         <v>1996</v>
@@ -16310,7 +16322,7 @@
         <v>81</v>
       </c>
       <c r="BN78">
-        <v>1580</v>
+        <v>1579</v>
       </c>
       <c r="BO78">
         <v>1952</v>
@@ -16441,7 +16453,7 @@
         <v>1782</v>
       </c>
       <c r="AO79">
-        <v>1350</v>
+        <v>1342</v>
       </c>
       <c r="AP79">
         <v>1290</v>
@@ -16456,7 +16468,7 @@
         <v>875</v>
       </c>
       <c r="AT79">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="AU79">
         <v>905</v>
@@ -16477,16 +16489,16 @@
         <v>837</v>
       </c>
       <c r="BA79">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="BB79">
-        <v>1218</v>
+        <v>1215</v>
       </c>
       <c r="BC79">
         <v>638</v>
       </c>
       <c r="BD79">
-        <v>1550</v>
+        <v>1549</v>
       </c>
       <c r="BE79">
         <v>747</v>
@@ -16495,7 +16507,7 @@
         <v>1666</v>
       </c>
       <c r="BG79">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="BH79">
         <v>1715</v>
@@ -16644,22 +16656,22 @@
         <v>1305</v>
       </c>
       <c r="AN80">
-        <v>1919</v>
+        <v>1922</v>
       </c>
       <c r="AO80">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="AP80">
-        <v>1316</v>
+        <v>1300</v>
       </c>
       <c r="AQ80">
         <v>2361</v>
       </c>
       <c r="AR80">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="AS80">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="AT80">
         <v>1654</v>
@@ -16674,25 +16686,25 @@
         <v>1205</v>
       </c>
       <c r="AX80">
-        <v>1933</v>
+        <v>1932</v>
       </c>
       <c r="AY80">
-        <v>1360</v>
+        <v>1338</v>
       </c>
       <c r="AZ80">
         <v>2005</v>
       </c>
       <c r="BA80">
-        <v>2826</v>
+        <v>2816</v>
       </c>
       <c r="BB80">
-        <v>2996</v>
+        <v>2983</v>
       </c>
       <c r="BC80">
         <v>1589</v>
       </c>
       <c r="BD80">
-        <v>2094</v>
+        <v>2082</v>
       </c>
       <c r="BE80">
         <v>1326</v>
@@ -16701,7 +16713,7 @@
         <v>2071</v>
       </c>
       <c r="BG80">
-        <v>1837</v>
+        <v>1790</v>
       </c>
       <c r="BH80">
         <v>2757</v>
@@ -16722,7 +16734,7 @@
         <v>43</v>
       </c>
       <c r="BN80">
-        <v>3554</v>
+        <v>3552</v>
       </c>
       <c r="BO80">
         <v>1437</v>
@@ -16841,7 +16853,7 @@
         <v>148</v>
       </c>
       <c r="AK81">
-        <v>3158</v>
+        <v>4913</v>
       </c>
       <c r="AL81">
         <v>8654</v>
@@ -16850,55 +16862,55 @@
         <v>3637</v>
       </c>
       <c r="AN81">
-        <v>5464</v>
+        <v>5465</v>
       </c>
       <c r="AO81">
-        <v>10014</v>
+        <v>9988</v>
       </c>
       <c r="AP81">
-        <v>5377</v>
+        <v>5372</v>
       </c>
       <c r="AQ81">
-        <v>2029</v>
+        <v>2811</v>
       </c>
       <c r="AR81">
-        <v>2789</v>
+        <v>2766</v>
       </c>
       <c r="AS81">
         <v>3116</v>
       </c>
       <c r="AT81">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="AU81">
         <v>2525</v>
       </c>
       <c r="AV81">
-        <v>3139</v>
+        <v>3137</v>
       </c>
       <c r="AW81">
-        <v>3178</v>
+        <v>3177</v>
       </c>
       <c r="AX81">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="AY81">
-        <v>3237</v>
+        <v>3621</v>
       </c>
       <c r="AZ81">
-        <v>2766</v>
+        <v>2754</v>
       </c>
       <c r="BA81">
-        <v>18250</v>
+        <v>11591</v>
       </c>
       <c r="BB81">
-        <v>2065</v>
+        <v>3191</v>
       </c>
       <c r="BC81">
-        <v>2858</v>
+        <v>4027</v>
       </c>
       <c r="BD81">
-        <v>1318</v>
+        <v>2938</v>
       </c>
       <c r="BE81">
         <v>2514</v>
@@ -16907,10 +16919,10 @@
         <v>3571</v>
       </c>
       <c r="BG81">
-        <v>2775</v>
+        <v>4512</v>
       </c>
       <c r="BH81">
-        <v>2393</v>
+        <v>2390</v>
       </c>
       <c r="BI81">
         <v>3159</v>
@@ -16928,10 +16940,10 @@
         <v>15922</v>
       </c>
       <c r="BN81">
-        <v>2133</v>
+        <v>2089</v>
       </c>
       <c r="BO81">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="BP81">
         <v>1859</v>
@@ -17059,10 +17071,10 @@
         <v>393</v>
       </c>
       <c r="AO82">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="AP82">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AQ82">
         <v>419</v>
@@ -17071,7 +17083,7 @@
         <v>412</v>
       </c>
       <c r="AS82">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AT82">
         <v>385</v>
@@ -17092,10 +17104,10 @@
         <v>547</v>
       </c>
       <c r="AZ82">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="BA82">
-        <v>575</v>
+        <v>558</v>
       </c>
       <c r="BB82">
         <v>573</v>
@@ -17104,7 +17116,7 @@
         <v>414</v>
       </c>
       <c r="BD82">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="BE82">
         <v>637</v>
@@ -17113,10 +17125,10 @@
         <v>710</v>
       </c>
       <c r="BG82">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="BH82">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="BI82">
         <v>300</v>
@@ -17134,7 +17146,7 @@
         <v>75</v>
       </c>
       <c r="BN82">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="BO82">
         <v>410</v>

--- a/Data/branch_wise_aging_stock.xlsx
+++ b/Data/branch_wise_aging_stock.xlsx
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="AQ2" t="n">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="AR2" t="n">
         <v>243</v>
@@ -1058,7 +1058,7 @@
         <v>1697</v>
       </c>
       <c r="BH2" t="n">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="BI2" t="n">
         <v>120</v>
@@ -1588,7 +1588,7 @@
         <v>132</v>
       </c>
       <c r="AW4" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AX4" t="n">
         <v>169</v>
@@ -1908,7 +1908,7 @@
         <v>854</v>
       </c>
       <c r="BH5" t="n">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="BI5" t="n">
         <v>159</v>
@@ -2147,7 +2147,7 @@
         <v>338</v>
       </c>
       <c r="AR6" t="n">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="AS6" t="n">
         <v>734</v>
@@ -2195,7 +2195,7 @@
         <v>670</v>
       </c>
       <c r="BH6" t="n">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="BI6" t="n">
         <v>406</v>
@@ -2207,7 +2207,7 @@
         <v>552</v>
       </c>
       <c r="BL6" t="n">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="BM6" t="n">
         <v>801</v>
@@ -2216,7 +2216,7 @@
         <v>375</v>
       </c>
       <c r="BO6" t="n">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="BP6" t="n">
         <v>370</v>
@@ -2426,10 +2426,10 @@
         </is>
       </c>
       <c r="AQ7" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AR7" t="n">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AS7" t="n">
         <v>794</v>
@@ -2447,7 +2447,7 @@
         <v>526</v>
       </c>
       <c r="AX7" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AY7" t="n">
         <v>312</v>
@@ -2462,7 +2462,7 @@
         <v>780</v>
       </c>
       <c r="BC7" t="n">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="BD7" t="n">
         <v>644</v>
@@ -2477,19 +2477,19 @@
         <v>463</v>
       </c>
       <c r="BH7" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="BI7" t="n">
         <v>613</v>
       </c>
       <c r="BJ7" t="n">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="BK7" t="n">
         <v>585</v>
       </c>
       <c r="BL7" t="n">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="BM7" t="n">
         <v>617</v>
@@ -2498,7 +2498,7 @@
         <v>290</v>
       </c>
       <c r="BO7" t="n">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="BP7" t="n">
         <v>382</v>
@@ -2510,7 +2510,7 @@
         <v>1083</v>
       </c>
       <c r="BT7" t="n">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="BU7" t="n">
         <v>418</v>
@@ -3045,7 +3045,7 @@
         <v>165</v>
       </c>
       <c r="BG9" t="n">
-        <v>1209</v>
+        <v>1077</v>
       </c>
       <c r="BH9" t="n">
         <v>228</v>
@@ -3060,16 +3060,16 @@
         <v>503</v>
       </c>
       <c r="BL9" t="n">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="BM9" t="n">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="BN9" t="n">
         <v>388</v>
       </c>
       <c r="BO9" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BP9" t="n">
         <v>350</v>
@@ -3574,7 +3574,7 @@
         <v>499</v>
       </c>
       <c r="AR11" t="n">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="AS11" t="n">
         <v>555</v>
@@ -3589,7 +3589,7 @@
         <v>143</v>
       </c>
       <c r="AW11" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AX11" t="n">
         <v>401</v>
@@ -3619,7 +3619,7 @@
         <v>445</v>
       </c>
       <c r="BG11" t="n">
-        <v>1886</v>
+        <v>1805</v>
       </c>
       <c r="BH11" t="n">
         <v>804</v>
@@ -3628,13 +3628,13 @@
         <v>416</v>
       </c>
       <c r="BJ11" t="n">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="BK11" t="n">
         <v>614</v>
       </c>
       <c r="BL11" t="n">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="BM11" t="n">
         <v>852</v>
@@ -3643,7 +3643,7 @@
         <v>678</v>
       </c>
       <c r="BO11" t="n">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="BP11" t="n">
         <v>471</v>
@@ -3937,7 +3937,7 @@
         <v>83</v>
       </c>
       <c r="BT12" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BU12" t="n">
         <v>48</v>
@@ -4140,7 +4140,7 @@
         <v>1476</v>
       </c>
       <c r="AR13" t="n">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="AS13" t="n">
         <v>1003</v>
@@ -4200,7 +4200,7 @@
         <v>1215</v>
       </c>
       <c r="BL13" t="n">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="BM13" t="n">
         <v>979</v>
@@ -4209,7 +4209,7 @@
         <v>1319</v>
       </c>
       <c r="BO13" t="n">
-        <v>1656</v>
+        <v>1651</v>
       </c>
       <c r="BP13" t="n">
         <v>1920</v>
@@ -4224,7 +4224,7 @@
         <v>1441</v>
       </c>
       <c r="BT13" t="n">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="BU13" t="n">
         <v>1315</v>
@@ -4442,7 +4442,7 @@
         <v>2629</v>
       </c>
       <c r="AW14" t="n">
-        <v>2276</v>
+        <v>2270</v>
       </c>
       <c r="AX14" t="n">
         <v>2982</v>
@@ -4487,7 +4487,7 @@
         <v>1362</v>
       </c>
       <c r="BL14" t="n">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="BM14" t="n">
         <v>2475</v>
@@ -4496,7 +4496,7 @@
         <v>2305</v>
       </c>
       <c r="BO14" t="n">
-        <v>2057</v>
+        <v>2041</v>
       </c>
       <c r="BP14" t="n">
         <v>2518</v>
@@ -4511,7 +4511,7 @@
         <v>5450</v>
       </c>
       <c r="BT14" t="n">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="BU14" t="n">
         <v>2779</v>
@@ -4714,7 +4714,7 @@
         <v>3265</v>
       </c>
       <c r="AR15" t="n">
-        <v>6441</v>
+        <v>6425</v>
       </c>
       <c r="AS15" t="n">
         <v>5997</v>
@@ -4729,10 +4729,10 @@
         <v>5362</v>
       </c>
       <c r="AW15" t="n">
-        <v>4107</v>
+        <v>4106</v>
       </c>
       <c r="AX15" t="n">
-        <v>6969</v>
+        <v>6962</v>
       </c>
       <c r="AY15" t="n">
         <v>6070</v>
@@ -4762,28 +4762,28 @@
         <v>4844</v>
       </c>
       <c r="BH15" t="n">
-        <v>4416</v>
+        <v>4414</v>
       </c>
       <c r="BI15" t="n">
         <v>3831</v>
       </c>
       <c r="BJ15" t="n">
-        <v>3799</v>
+        <v>3794</v>
       </c>
       <c r="BK15" t="n">
         <v>3355</v>
       </c>
       <c r="BL15" t="n">
-        <v>2556</v>
+        <v>2548</v>
       </c>
       <c r="BM15" t="n">
-        <v>3623</v>
+        <v>3619</v>
       </c>
       <c r="BN15" t="n">
         <v>5514</v>
       </c>
       <c r="BO15" t="n">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="BP15" t="n">
         <v>3591</v>
@@ -4798,10 +4798,10 @@
         <v>199</v>
       </c>
       <c r="BT15" t="n">
-        <v>2075</v>
+        <v>2063</v>
       </c>
       <c r="BU15" t="n">
-        <v>2641</v>
+        <v>2640</v>
       </c>
       <c r="BV15" t="n">
         <v>1752</v>
@@ -4998,10 +4998,10 @@
         </is>
       </c>
       <c r="AQ16" t="n">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="AR16" t="n">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="AS16" t="n">
         <v>527</v>
@@ -5016,10 +5016,10 @@
         <v>1485</v>
       </c>
       <c r="AW16" t="n">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="AX16" t="n">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="AY16" t="n">
         <v>1820</v>
@@ -5049,28 +5049,28 @@
         <v>521</v>
       </c>
       <c r="BH16" t="n">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="BI16" t="n">
         <v>1204</v>
       </c>
       <c r="BJ16" t="n">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="BK16" t="n">
         <v>2140</v>
       </c>
       <c r="BL16" t="n">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="BM16" t="n">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="BN16" t="n">
         <v>1284</v>
       </c>
       <c r="BO16" t="n">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="BP16" t="n">
         <v>1523</v>
@@ -5288,7 +5288,7 @@
         <v>2688</v>
       </c>
       <c r="AR17" t="n">
-        <v>6749</v>
+        <v>6742</v>
       </c>
       <c r="AS17" t="n">
         <v>2706</v>
@@ -5303,10 +5303,10 @@
         <v>2166</v>
       </c>
       <c r="AW17" t="n">
-        <v>3055</v>
+        <v>3051</v>
       </c>
       <c r="AX17" t="n">
-        <v>3467</v>
+        <v>3464</v>
       </c>
       <c r="AY17" t="n">
         <v>5670</v>
@@ -5321,7 +5321,7 @@
         <v>2571</v>
       </c>
       <c r="BC17" t="n">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="BD17" t="n">
         <v>4557</v>
@@ -5336,28 +5336,28 @@
         <v>2605</v>
       </c>
       <c r="BH17" t="n">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="BI17" t="n">
         <v>3189</v>
       </c>
       <c r="BJ17" t="n">
-        <v>2960</v>
+        <v>2955</v>
       </c>
       <c r="BK17" t="n">
         <v>5951</v>
       </c>
       <c r="BL17" t="n">
-        <v>2555</v>
+        <v>2547</v>
       </c>
       <c r="BM17" t="n">
-        <v>2882</v>
+        <v>2877</v>
       </c>
       <c r="BN17" t="n">
         <v>4537</v>
       </c>
       <c r="BO17" t="n">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="BP17" t="n">
         <v>2169</v>
@@ -5372,7 +5372,7 @@
         <v>17702</v>
       </c>
       <c r="BT17" t="n">
-        <v>1330</v>
+        <v>1322</v>
       </c>
       <c r="BU17" t="n">
         <v>3106</v>
@@ -6164,10 +6164,10 @@
         <v>9779</v>
       </c>
       <c r="AW20" t="n">
-        <v>7126</v>
+        <v>7124</v>
       </c>
       <c r="AX20" t="n">
-        <v>7951</v>
+        <v>7938</v>
       </c>
       <c r="AY20" t="n">
         <v>7714</v>
@@ -6194,10 +6194,10 @@
         <v>6944</v>
       </c>
       <c r="BG20" t="n">
-        <v>4963</v>
+        <v>3523</v>
       </c>
       <c r="BH20" t="n">
-        <v>3191</v>
+        <v>3189</v>
       </c>
       <c r="BI20" t="n">
         <v>5381</v>
@@ -6209,16 +6209,16 @@
         <v>7705</v>
       </c>
       <c r="BL20" t="n">
-        <v>8322</v>
+        <v>8318</v>
       </c>
       <c r="BM20" t="n">
-        <v>4311</v>
+        <v>4245</v>
       </c>
       <c r="BN20" t="n">
         <v>5411</v>
       </c>
       <c r="BO20" t="n">
-        <v>7042</v>
+        <v>7030</v>
       </c>
       <c r="BP20" t="n">
         <v>5707</v>
@@ -6233,7 +6233,7 @@
         <v>25095</v>
       </c>
       <c r="BT20" t="n">
-        <v>6535</v>
+        <v>6531</v>
       </c>
       <c r="BU20" t="n">
         <v>4394</v>
@@ -6436,7 +6436,7 @@
         <v>395</v>
       </c>
       <c r="AR21" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AS21" t="n">
         <v>74</v>
@@ -6451,10 +6451,10 @@
         <v>447</v>
       </c>
       <c r="AW21" t="n">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="AX21" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AY21" t="n">
         <v>346</v>
@@ -6469,7 +6469,7 @@
         <v>125</v>
       </c>
       <c r="BC21" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BD21" t="n">
         <v>114</v>
@@ -6496,7 +6496,7 @@
         <v>72</v>
       </c>
       <c r="BL21" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BM21" t="n">
         <v>106</v>
@@ -6723,7 +6723,7 @@
         <v>7144</v>
       </c>
       <c r="AR22" t="n">
-        <v>11339</v>
+        <v>11338</v>
       </c>
       <c r="AS22" t="n">
         <v>5631</v>
@@ -6738,10 +6738,10 @@
         <v>6673</v>
       </c>
       <c r="AW22" t="n">
-        <v>7077</v>
+        <v>7073</v>
       </c>
       <c r="AX22" t="n">
-        <v>5522</v>
+        <v>5518</v>
       </c>
       <c r="AY22" t="n">
         <v>9296</v>
@@ -6768,7 +6768,7 @@
         <v>5523</v>
       </c>
       <c r="BG22" t="n">
-        <v>5099</v>
+        <v>3299</v>
       </c>
       <c r="BH22" t="n">
         <v>3132</v>
@@ -6783,16 +6783,16 @@
         <v>4238</v>
       </c>
       <c r="BL22" t="n">
-        <v>7354</v>
+        <v>7345</v>
       </c>
       <c r="BM22" t="n">
-        <v>4124</v>
+        <v>4102</v>
       </c>
       <c r="BN22" t="n">
         <v>7411</v>
       </c>
       <c r="BO22" t="n">
-        <v>6599</v>
+        <v>6586</v>
       </c>
       <c r="BP22" t="n">
         <v>5126</v>
@@ -6807,10 +6807,10 @@
         <v>6348</v>
       </c>
       <c r="BT22" t="n">
-        <v>4286</v>
+        <v>4280</v>
       </c>
       <c r="BU22" t="n">
-        <v>1769</v>
+        <v>1768</v>
       </c>
       <c r="BV22" t="n">
         <v>1037</v>
@@ -7043,7 +7043,7 @@
         <v>541</v>
       </c>
       <c r="BC23" t="n">
-        <v>952</v>
+        <v>902</v>
       </c>
       <c r="BD23" t="n">
         <v>310</v>
@@ -7330,7 +7330,7 @@
         <v>171</v>
       </c>
       <c r="BC24" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BD24" t="n">
         <v>161</v>
@@ -7351,7 +7351,7 @@
         <v>213</v>
       </c>
       <c r="BJ24" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="BK24" t="n">
         <v>127</v>
@@ -7581,7 +7581,7 @@
         </is>
       </c>
       <c r="AQ25" t="n">
-        <v>5062</v>
+        <v>5052</v>
       </c>
       <c r="AR25" t="n">
         <v>4965</v>
@@ -7653,7 +7653,7 @@
         <v>4974</v>
       </c>
       <c r="BO25" t="n">
-        <v>3423</v>
+        <v>3418</v>
       </c>
       <c r="BP25" t="n">
         <v>3338</v>
@@ -7889,7 +7889,7 @@
         <v>1526</v>
       </c>
       <c r="AX26" t="n">
-        <v>1539</v>
+        <v>1499</v>
       </c>
       <c r="AY26" t="n">
         <v>9080</v>
@@ -9359,7 +9359,7 @@
         <v>57</v>
       </c>
       <c r="BO31" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BP31" t="n">
         <v>95</v>
@@ -9653,7 +9653,7 @@
         <v>58</v>
       </c>
       <c r="BT32" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="BU32" t="n">
         <v>42</v>
@@ -10130,7 +10130,7 @@
         <v>326</v>
       </c>
       <c r="AR34" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AS34" t="n">
         <v>63</v>
@@ -10163,7 +10163,7 @@
         <v>345</v>
       </c>
       <c r="BC34" t="n">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="BD34" t="n">
         <v>182</v>
@@ -10196,7 +10196,7 @@
         <v>329</v>
       </c>
       <c r="BO34" t="n">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="BP34" t="n">
         <v>162</v>
@@ -10211,7 +10211,7 @@
         <v>13566</v>
       </c>
       <c r="BT34" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BU34" t="n">
         <v>220</v>
@@ -10490,7 +10490,7 @@
         <v>61</v>
       </c>
       <c r="BT35" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BU35" t="n">
         <v>110</v>
@@ -11020,7 +11020,7 @@
         <v>241</v>
       </c>
       <c r="BH37" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BI37" t="n">
         <v>155</v>
@@ -11292,7 +11292,7 @@
         <v>842</v>
       </c>
       <c r="BC38" t="n">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="BD38" t="n">
         <v>339</v>
@@ -11307,7 +11307,7 @@
         <v>25</v>
       </c>
       <c r="BH38" t="n">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="BI38" t="n">
         <v>637</v>
@@ -11328,7 +11328,7 @@
         <v>535</v>
       </c>
       <c r="BO38" t="n">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="BP38" t="n">
         <v>1249</v>
@@ -11343,10 +11343,10 @@
         <v>1738</v>
       </c>
       <c r="BT38" t="n">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="BU38" t="n">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="BV38" t="n">
         <v>847</v>
@@ -11630,7 +11630,7 @@
         <v>3188</v>
       </c>
       <c r="BT39" t="n">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="BU39" t="n">
         <v>1082</v>
@@ -11833,7 +11833,7 @@
         <v>513</v>
       </c>
       <c r="AR40" t="n">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="AS40" t="n">
         <v>1091</v>
@@ -11866,7 +11866,7 @@
         <v>669</v>
       </c>
       <c r="BC40" t="n">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="BD40" t="n">
         <v>506</v>
@@ -11878,10 +11878,10 @@
         <v>202</v>
       </c>
       <c r="BG40" t="n">
-        <v>8357</v>
+        <v>8069</v>
       </c>
       <c r="BH40" t="n">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="BI40" t="n">
         <v>639</v>
@@ -11902,7 +11902,7 @@
         <v>758</v>
       </c>
       <c r="BO40" t="n">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="BP40" t="n">
         <v>465</v>
@@ -11917,7 +11917,7 @@
         <v>4703</v>
       </c>
       <c r="BT40" t="n">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="BU40" t="n">
         <v>994</v>
@@ -12168,7 +12168,7 @@
         <v>3753</v>
       </c>
       <c r="BH41" t="n">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="BI41" t="n">
         <v>1223</v>
@@ -12180,7 +12180,7 @@
         <v>2137</v>
       </c>
       <c r="BL41" t="n">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="BM41" t="n">
         <v>1020</v>
@@ -12189,7 +12189,7 @@
         <v>975</v>
       </c>
       <c r="BO41" t="n">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="BP41" t="n">
         <v>1542</v>
@@ -12204,7 +12204,7 @@
         <v>14865</v>
       </c>
       <c r="BT41" t="n">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="BU41" t="n">
         <v>1161</v>
@@ -12491,7 +12491,7 @@
         <v>110</v>
       </c>
       <c r="BT42" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BU42" t="n">
         <v>64</v>
@@ -12946,7 +12946,7 @@
         <v>365</v>
       </c>
       <c r="AX44" t="n">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="AY44" t="n">
         <v>192</v>
@@ -12961,7 +12961,7 @@
         <v>412</v>
       </c>
       <c r="BC44" t="n">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="BD44" t="n">
         <v>541</v>
@@ -12976,7 +12976,7 @@
         <v>523</v>
       </c>
       <c r="BH44" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BI44" t="n">
         <v>686</v>
@@ -12988,16 +12988,16 @@
         <v>498</v>
       </c>
       <c r="BL44" t="n">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="BM44" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="BN44" t="n">
         <v>793</v>
       </c>
       <c r="BO44" t="n">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="BP44" t="n">
         <v>639</v>
@@ -13230,7 +13230,7 @@
         <v>1952</v>
       </c>
       <c r="AX45" t="n">
-        <v>2790</v>
+        <v>2787</v>
       </c>
       <c r="AY45" t="n">
         <v>2750</v>
@@ -13272,7 +13272,7 @@
         <v>1483</v>
       </c>
       <c r="BL45" t="n">
-        <v>1601</v>
+        <v>1594</v>
       </c>
       <c r="BM45" t="n">
         <v>2256</v>
@@ -14127,16 +14127,16 @@
         <v>350</v>
       </c>
       <c r="BJ48" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="BK48" t="n">
         <v>336</v>
       </c>
       <c r="BL48" t="n">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="BM48" t="n">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="BN48" t="n">
         <v>614</v>
@@ -14157,7 +14157,7 @@
         <v>15</v>
       </c>
       <c r="BT48" t="n">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="BU48" t="n">
         <v>231</v>
@@ -14405,7 +14405,7 @@
         <v>53</v>
       </c>
       <c r="BG49" t="n">
-        <v>3231</v>
+        <v>3111</v>
       </c>
       <c r="BH49" t="n">
         <v>36</v>
@@ -14707,10 +14707,10 @@
         <v>1002</v>
       </c>
       <c r="BL50" t="n">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="BM50" t="n">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="BN50" t="n">
         <v>1256</v>
@@ -14731,7 +14731,7 @@
         <v>400</v>
       </c>
       <c r="BT50" t="n">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="BU50" t="n">
         <v>1236</v>
@@ -15536,7 +15536,7 @@
         <v>2417</v>
       </c>
       <c r="BT53" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="BU53" t="n">
         <v>719</v>
@@ -16185,13 +16185,13 @@
         <v>934</v>
       </c>
       <c r="BH56" t="n">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="BI56" t="n">
         <v>3844</v>
       </c>
       <c r="BJ56" t="n">
-        <v>2502</v>
+        <v>2493</v>
       </c>
       <c r="BK56" t="n">
         <v>2154</v>
@@ -17276,7 +17276,7 @@
         <v>115</v>
       </c>
       <c r="AW60" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AX60" t="n">
         <v>118</v>
@@ -17294,7 +17294,7 @@
         <v>131</v>
       </c>
       <c r="BC60" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BD60" t="n">
         <v>274</v>
@@ -17666,7 +17666,7 @@
         <v>1273</v>
       </c>
       <c r="BL62" t="n">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="BM62" t="n">
         <v>1517</v>
@@ -17675,7 +17675,7 @@
         <v>1476</v>
       </c>
       <c r="BO62" t="n">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="BP62" t="n">
         <v>1189</v>
@@ -17687,7 +17687,7 @@
         <v>2151</v>
       </c>
       <c r="BT62" t="n">
-        <v>1538</v>
+        <v>1533</v>
       </c>
       <c r="BU62" t="n">
         <v>572</v>
@@ -18229,7 +18229,7 @@
         <v>290</v>
       </c>
       <c r="BL64" t="n">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="BM64" t="n">
         <v>695</v>
@@ -18238,7 +18238,7 @@
         <v>400</v>
       </c>
       <c r="BO64" t="n">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="BP64" t="n">
         <v>745</v>
@@ -18253,7 +18253,7 @@
         <v>9</v>
       </c>
       <c r="BT64" t="n">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="BU64" t="n">
         <v>516</v>
@@ -19041,13 +19041,13 @@
         <v>3976</v>
       </c>
       <c r="BH67" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="BI67" t="n">
         <v>321</v>
       </c>
       <c r="BJ67" t="n">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="BK67" t="n">
         <v>1306</v>
@@ -19287,10 +19287,10 @@
         <v>380</v>
       </c>
       <c r="AW68" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AX68" t="n">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AY68" t="n">
         <v>307</v>
@@ -19353,7 +19353,7 @@
         <v>430</v>
       </c>
       <c r="BT68" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BU68" t="n">
         <v>283</v>
@@ -19632,7 +19632,7 @@
         <v>365</v>
       </c>
       <c r="BT69" t="n">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="BU69" t="n">
         <v>640</v>
@@ -19887,7 +19887,7 @@
         <v>55</v>
       </c>
       <c r="BL70" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BM70" t="n">
         <v>32</v>
@@ -20183,7 +20183,7 @@
         <v>596</v>
       </c>
       <c r="BO71" t="n">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="BP71" t="n">
         <v>1087</v>
@@ -20723,7 +20723,7 @@
         <v>1359</v>
       </c>
       <c r="BO73" t="n">
-        <v>954</v>
+        <v>932</v>
       </c>
       <c r="BP73" t="n">
         <v>2965</v>
@@ -20962,7 +20962,7 @@
         <v>107</v>
       </c>
       <c r="BO74" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BP74" t="n">
         <v>128</v>
@@ -21243,7 +21243,7 @@
         <v>391</v>
       </c>
       <c r="BO75" t="n">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="BP75" t="n">
         <v>291</v>
@@ -21681,7 +21681,7 @@
         </is>
       </c>
       <c r="AQ77" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AR77" t="n">
         <v>207</v>
@@ -21753,7 +21753,7 @@
         <v>82</v>
       </c>
       <c r="BO77" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="BP77" t="n">
         <v>342</v>
@@ -22031,7 +22031,7 @@
         <v>1861</v>
       </c>
       <c r="BL78" t="n">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="BM78" t="n">
         <v>1321</v>
@@ -22318,7 +22318,7 @@
         <v>700</v>
       </c>
       <c r="BL79" t="n">
-        <v>1576</v>
+        <v>1575</v>
       </c>
       <c r="BM79" t="n">
         <v>1070</v>
@@ -22342,7 +22342,7 @@
         <v>33</v>
       </c>
       <c r="BT79" t="n">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="BU79" t="n">
         <v>1431</v>
@@ -22558,7 +22558,7 @@
         <v>2180</v>
       </c>
       <c r="AX80" t="n">
-        <v>2427</v>
+        <v>2406</v>
       </c>
       <c r="AY80" t="n">
         <v>2837</v>
@@ -22588,7 +22588,7 @@
         <v>2695</v>
       </c>
       <c r="BH80" t="n">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="BI80" t="n">
         <v>1176</v>
@@ -22600,7 +22600,7 @@
         <v>1464</v>
       </c>
       <c r="BL80" t="n">
-        <v>1964</v>
+        <v>1961</v>
       </c>
       <c r="BM80" t="n">
         <v>2340</v>
@@ -22824,7 +22824,7 @@
         <v>4463</v>
       </c>
       <c r="AR81" t="n">
-        <v>8196</v>
+        <v>8194</v>
       </c>
       <c r="AS81" t="n">
         <v>4277</v>
@@ -22842,7 +22842,7 @@
         <v>5405</v>
       </c>
       <c r="AX81" t="n">
-        <v>4033</v>
+        <v>4032</v>
       </c>
       <c r="AY81" t="n">
         <v>5103</v>
@@ -22878,13 +22878,13 @@
         <v>4698</v>
       </c>
       <c r="BJ81" t="n">
-        <v>3697</v>
+        <v>3696</v>
       </c>
       <c r="BK81" t="n">
         <v>3651</v>
       </c>
       <c r="BL81" t="n">
-        <v>3268</v>
+        <v>3267</v>
       </c>
       <c r="BM81" t="n">
         <v>4873</v>
@@ -22908,10 +22908,10 @@
         <v>1024</v>
       </c>
       <c r="BT81" t="n">
-        <v>5015</v>
+        <v>5009</v>
       </c>
       <c r="BU81" t="n">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="BV81" t="n">
         <v>2904</v>

--- a/Data/branch_wise_aging_stock.xlsx
+++ b/Data/branch_wise_aging_stock.xlsx
@@ -1010,22 +1010,22 @@
         <v>63</v>
       </c>
       <c r="AR2" t="n">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AS2" t="n">
         <v>158</v>
       </c>
       <c r="AT2" t="n">
-        <v>631</v>
+        <v>611</v>
       </c>
       <c r="AU2" t="n">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="AV2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AW2" t="n">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="AX2" t="n">
         <v>91</v>
@@ -1034,16 +1034,16 @@
         <v>150</v>
       </c>
       <c r="AZ2" t="n">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="BA2" t="n">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="BB2" t="n">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="BC2" t="n">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="BD2" t="n">
         <v>72</v>
@@ -1055,49 +1055,49 @@
         <v>114</v>
       </c>
       <c r="BG2" t="n">
-        <v>1697</v>
+        <v>1097</v>
       </c>
       <c r="BH2" t="n">
         <v>255</v>
       </c>
       <c r="BI2" t="n">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="BJ2" t="n">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="BK2" t="n">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="BL2" t="n">
-        <v>201</v>
+        <v>121</v>
       </c>
       <c r="BM2" t="n">
-        <v>454</v>
+        <v>194</v>
       </c>
       <c r="BN2" t="n">
         <v>93</v>
       </c>
       <c r="BO2" t="n">
-        <v>119</v>
+        <v>43</v>
       </c>
       <c r="BP2" t="n">
-        <v>176</v>
+        <v>86</v>
       </c>
       <c r="BQ2" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BR2" t="n">
         <v>236</v>
       </c>
       <c r="BT2" t="n">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="BU2" t="n">
         <v>133</v>
       </c>
       <c r="BV2" t="n">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
@@ -1289,91 +1289,91 @@
         <v>366</v>
       </c>
       <c r="AR3" t="n">
-        <v>814</v>
+        <v>802</v>
       </c>
       <c r="AS3" t="n">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="AT3" t="n">
-        <v>1234</v>
+        <v>1146</v>
       </c>
       <c r="AU3" t="n">
-        <v>1046</v>
+        <v>990</v>
       </c>
       <c r="AV3" t="n">
-        <v>1127</v>
+        <v>1085</v>
       </c>
       <c r="AW3" t="n">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="AX3" t="n">
         <v>441</v>
       </c>
       <c r="AY3" t="n">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="AZ3" t="n">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="BA3" t="n">
-        <v>1120</v>
+        <v>1086</v>
       </c>
       <c r="BB3" t="n">
         <v>168</v>
       </c>
       <c r="BC3" t="n">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="BD3" t="n">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="BE3" t="n">
         <v>319</v>
       </c>
       <c r="BF3" t="n">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="BG3" t="n">
-        <v>5509</v>
+        <v>5263</v>
       </c>
       <c r="BH3" t="n">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="BI3" t="n">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="BJ3" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="BK3" t="n">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="BL3" t="n">
-        <v>821</v>
+        <v>777</v>
       </c>
       <c r="BM3" t="n">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="BN3" t="n">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="BO3" t="n">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="BP3" t="n">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="BQ3" t="n">
-        <v>521</v>
+        <v>503</v>
       </c>
       <c r="BR3" t="n">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="BT3" t="n">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="BU3" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="BV3" t="n">
         <v>338</v>
@@ -1573,22 +1573,22 @@
         <v>238</v>
       </c>
       <c r="AR4" t="n">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="AS4" t="n">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AT4" t="n">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="AU4" t="n">
+        <v>202</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>129</v>
+      </c>
+      <c r="AW4" t="n">
         <v>217</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>132</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>233</v>
       </c>
       <c r="AX4" t="n">
         <v>169</v>
@@ -1597,16 +1597,16 @@
         <v>121</v>
       </c>
       <c r="AZ4" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BA4" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="BB4" t="n">
         <v>208</v>
       </c>
       <c r="BC4" t="n">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="BD4" t="n">
         <v>113</v>
@@ -1618,13 +1618,13 @@
         <v>163</v>
       </c>
       <c r="BG4" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="BH4" t="n">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="BI4" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BJ4" t="n">
         <v>158</v>
@@ -1633,37 +1633,37 @@
         <v>103</v>
       </c>
       <c r="BL4" t="n">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="BM4" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="BN4" t="n">
         <v>170</v>
       </c>
       <c r="BO4" t="n">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="BP4" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="BQ4" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="BR4" t="n">
-        <v>59</v>
-      </c>
-      <c r="BS4" t="n">
-        <v>2400</v>
+        <v>58</v>
       </c>
       <c r="BT4" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="BU4" t="n">
         <v>188</v>
       </c>
       <c r="BV4" t="n">
-        <v>171</v>
+        <v>170</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>2400</v>
       </c>
     </row>
     <row r="5">
@@ -1857,100 +1857,100 @@
         </is>
       </c>
       <c r="AQ5" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AR5" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="AS5" t="n">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AT5" t="n">
-        <v>673</v>
+        <v>658</v>
       </c>
       <c r="AU5" t="n">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AV5" t="n">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="AW5" t="n">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="AX5" t="n">
         <v>172</v>
       </c>
       <c r="AY5" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="AZ5" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="BA5" t="n">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="BB5" t="n">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="BC5" t="n">
         <v>162</v>
       </c>
       <c r="BD5" t="n">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="BE5" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BF5" t="n">
         <v>310</v>
       </c>
       <c r="BG5" t="n">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="BH5" t="n">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="BI5" t="n">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="BJ5" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="BK5" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BL5" t="n">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="BM5" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BN5" t="n">
         <v>157</v>
       </c>
       <c r="BO5" t="n">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="BP5" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="BQ5" t="n">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="BR5" t="n">
         <v>254</v>
       </c>
-      <c r="BS5" t="n">
-        <v>4</v>
-      </c>
       <c r="BT5" t="n">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="BU5" t="n">
         <v>190</v>
       </c>
       <c r="BV5" t="n">
-        <v>205</v>
+        <v>204</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -2144,100 +2144,100 @@
         </is>
       </c>
       <c r="AQ6" t="n">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AR6" t="n">
-        <v>1312</v>
+        <v>1295</v>
       </c>
       <c r="AS6" t="n">
+        <v>715</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>1149</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>729</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>729</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>554</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>693</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>530</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>2126</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>951</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>694</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>502</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>495</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>589</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>799</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>5149</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>324</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>387</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>345</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>542</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>1006</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>767</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>362</v>
+      </c>
+      <c r="BO6" t="n">
         <v>734</v>
       </c>
-      <c r="AT6" t="n">
-        <v>1185</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>752</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>779</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>568</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>699</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>540</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>2140</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>978</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>706</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>509</v>
-      </c>
-      <c r="BD6" t="n">
-        <v>509</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>593</v>
-      </c>
-      <c r="BF6" t="n">
-        <v>811</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>670</v>
-      </c>
-      <c r="BH6" t="n">
-        <v>342</v>
-      </c>
-      <c r="BI6" t="n">
-        <v>406</v>
-      </c>
-      <c r="BJ6" t="n">
-        <v>357</v>
-      </c>
-      <c r="BK6" t="n">
-        <v>552</v>
-      </c>
-      <c r="BL6" t="n">
-        <v>1061</v>
-      </c>
-      <c r="BM6" t="n">
-        <v>801</v>
-      </c>
-      <c r="BN6" t="n">
-        <v>375</v>
-      </c>
-      <c r="BO6" t="n">
-        <v>756</v>
-      </c>
       <c r="BP6" t="n">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="BQ6" t="n">
-        <v>816</v>
+        <v>798</v>
       </c>
       <c r="BR6" t="n">
-        <v>559</v>
-      </c>
-      <c r="BS6" t="n">
+        <v>550</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>410</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>604</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>510</v>
+      </c>
+      <c r="BW6" t="n">
         <v>628</v>
-      </c>
-      <c r="BT6" t="n">
-        <v>417</v>
-      </c>
-      <c r="BU6" t="n">
-        <v>611</v>
-      </c>
-      <c r="BV6" t="n">
-        <v>525</v>
       </c>
     </row>
     <row r="7">
@@ -2342,11 +2342,6 @@
           <t>More Than 120 Days</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>More Than 120 Days</t>
-        </is>
-      </c>
       <c r="W7" t="inlineStr">
         <is>
           <t>More Than 120 Days</t>
@@ -2426,97 +2421,94 @@
         </is>
       </c>
       <c r="AQ7" t="n">
-        <v>639</v>
+        <v>571</v>
       </c>
       <c r="AR7" t="n">
-        <v>411</v>
+        <v>236</v>
       </c>
       <c r="AS7" t="n">
-        <v>794</v>
+        <v>701</v>
       </c>
       <c r="AT7" t="n">
-        <v>586</v>
+        <v>509</v>
       </c>
       <c r="AU7" t="n">
-        <v>638</v>
+        <v>543</v>
       </c>
       <c r="AV7" t="n">
-        <v>252</v>
+        <v>160</v>
       </c>
       <c r="AW7" t="n">
-        <v>526</v>
+        <v>471</v>
       </c>
       <c r="AX7" t="n">
-        <v>220</v>
+        <v>154</v>
       </c>
       <c r="AY7" t="n">
-        <v>312</v>
+        <v>219</v>
       </c>
       <c r="AZ7" t="n">
-        <v>509</v>
+        <v>405</v>
       </c>
       <c r="BA7" t="n">
-        <v>311</v>
+        <v>218</v>
       </c>
       <c r="BB7" t="n">
-        <v>780</v>
+        <v>702</v>
       </c>
       <c r="BC7" t="n">
-        <v>395</v>
+        <v>759</v>
       </c>
       <c r="BD7" t="n">
-        <v>644</v>
+        <v>577</v>
       </c>
       <c r="BE7" t="n">
-        <v>361</v>
+        <v>302</v>
       </c>
       <c r="BF7" t="n">
-        <v>308</v>
+        <v>241</v>
       </c>
       <c r="BG7" t="n">
-        <v>463</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>58</v>
+        <v>296</v>
       </c>
       <c r="BI7" t="n">
-        <v>613</v>
+        <v>519</v>
       </c>
       <c r="BJ7" t="n">
-        <v>509</v>
+        <v>358</v>
       </c>
       <c r="BK7" t="n">
-        <v>585</v>
+        <v>500</v>
       </c>
       <c r="BL7" t="n">
-        <v>437</v>
+        <v>338</v>
       </c>
       <c r="BM7" t="n">
-        <v>617</v>
+        <v>515</v>
       </c>
       <c r="BN7" t="n">
-        <v>290</v>
+        <v>239</v>
       </c>
       <c r="BO7" t="n">
-        <v>550</v>
+        <v>491</v>
       </c>
       <c r="BP7" t="n">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="BQ7" t="n">
-        <v>729</v>
+        <v>685</v>
       </c>
       <c r="BR7" t="n">
-        <v>1083</v>
+        <v>1027</v>
       </c>
       <c r="BT7" t="n">
-        <v>606</v>
+        <v>530</v>
       </c>
       <c r="BU7" t="n">
-        <v>418</v>
+        <v>362</v>
       </c>
       <c r="BV7" t="n">
-        <v>392</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8">
@@ -2737,7 +2729,7 @@
         <v>84</v>
       </c>
       <c r="AZ8" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BA8" t="n">
         <v>88</v>
@@ -2758,7 +2750,7 @@
         <v>22</v>
       </c>
       <c r="BG8" t="n">
-        <v>2905</v>
+        <v>2875</v>
       </c>
       <c r="BH8" t="n">
         <v>191</v>
@@ -2767,13 +2759,13 @@
         <v>56</v>
       </c>
       <c r="BJ8" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="BK8" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BL8" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BM8" t="n">
         <v>44</v>
@@ -2793,9 +2785,6 @@
       <c r="BR8" t="n">
         <v>48</v>
       </c>
-      <c r="BS8" t="n">
-        <v>3541</v>
-      </c>
       <c r="BT8" t="n">
         <v>41</v>
       </c>
@@ -2804,6 +2793,9 @@
       </c>
       <c r="BV8" t="n">
         <v>63</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>3541</v>
       </c>
     </row>
     <row r="9">
@@ -2997,100 +2989,100 @@
         </is>
       </c>
       <c r="AQ9" t="n">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="AR9" t="n">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="AS9" t="n">
-        <v>309</v>
+        <v>438</v>
       </c>
       <c r="AT9" t="n">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="AU9" t="n">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="AV9" t="n">
-        <v>258</v>
+        <v>232</v>
       </c>
       <c r="AW9" t="n">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="AX9" t="n">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="AY9" t="n">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="AZ9" t="n">
-        <v>360</v>
+        <v>479</v>
       </c>
       <c r="BA9" t="n">
-        <v>207</v>
+        <v>339</v>
       </c>
       <c r="BB9" t="n">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="BC9" t="n">
-        <v>341</v>
+        <v>324</v>
       </c>
       <c r="BD9" t="n">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="BE9" t="n">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="BF9" t="n">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="BG9" t="n">
-        <v>1077</v>
+        <v>669</v>
       </c>
       <c r="BH9" t="n">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="BI9" t="n">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="BJ9" t="n">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="BK9" t="n">
-        <v>503</v>
+        <v>472</v>
       </c>
       <c r="BL9" t="n">
-        <v>343</v>
+        <v>289</v>
       </c>
       <c r="BM9" t="n">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="BN9" t="n">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="BO9" t="n">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="BP9" t="n">
         <v>350</v>
       </c>
       <c r="BQ9" t="n">
-        <v>154</v>
+        <v>263</v>
       </c>
       <c r="BR9" t="n">
-        <v>264</v>
-      </c>
-      <c r="BS9" t="n">
+        <v>324</v>
+      </c>
+      <c r="BT9" t="n">
+        <v>374</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>492</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>187</v>
+      </c>
+      <c r="BY9" t="n">
         <v>138</v>
-      </c>
-      <c r="BT9" t="n">
-        <v>402</v>
-      </c>
-      <c r="BU9" t="n">
-        <v>501</v>
-      </c>
-      <c r="BV9" t="n">
-        <v>191</v>
       </c>
     </row>
     <row r="10">
@@ -3284,7 +3276,7 @@
         </is>
       </c>
       <c r="AQ10" t="n">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="AR10" t="n">
         <v>170</v>
@@ -3299,16 +3291,16 @@
         <v>99</v>
       </c>
       <c r="AV10" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AW10" t="n">
         <v>69</v>
       </c>
       <c r="AX10" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AY10" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AZ10" t="n">
         <v>34</v>
@@ -3317,13 +3309,13 @@
         <v>94</v>
       </c>
       <c r="BB10" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="BC10" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="BD10" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BE10" t="n">
         <v>42</v>
@@ -3332,7 +3324,7 @@
         <v>135</v>
       </c>
       <c r="BG10" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BH10" t="n">
         <v>102</v>
@@ -3344,7 +3336,7 @@
         <v>137</v>
       </c>
       <c r="BK10" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BL10" t="n">
         <v>124</v>
@@ -3356,19 +3348,16 @@
         <v>21</v>
       </c>
       <c r="BO10" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BP10" t="n">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="BQ10" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="BR10" t="n">
-        <v>105</v>
-      </c>
-      <c r="BS10" t="n">
-        <v>185</v>
+        <v>104</v>
       </c>
       <c r="BT10" t="n">
         <v>136</v>
@@ -3378,6 +3367,9 @@
       </c>
       <c r="BV10" t="n">
         <v>125</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>185</v>
       </c>
     </row>
     <row r="11">
@@ -3571,100 +3563,100 @@
         </is>
       </c>
       <c r="AQ11" t="n">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="AR11" t="n">
-        <v>633</v>
+        <v>597</v>
       </c>
       <c r="AS11" t="n">
-        <v>555</v>
+        <v>684</v>
       </c>
       <c r="AT11" t="n">
-        <v>539</v>
+        <v>498</v>
       </c>
       <c r="AU11" t="n">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="AV11" t="n">
-        <v>143</v>
+        <v>515</v>
       </c>
       <c r="AW11" t="n">
-        <v>275</v>
+        <v>473</v>
       </c>
       <c r="AX11" t="n">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="AY11" t="n">
-        <v>1302</v>
+        <v>1246</v>
       </c>
       <c r="AZ11" t="n">
-        <v>387</v>
+        <v>511</v>
       </c>
       <c r="BA11" t="n">
-        <v>649</v>
+        <v>784</v>
       </c>
       <c r="BB11" t="n">
-        <v>534</v>
+        <v>508</v>
       </c>
       <c r="BC11" t="n">
-        <v>608</v>
+        <v>588</v>
       </c>
       <c r="BD11" t="n">
-        <v>487</v>
+        <v>451</v>
       </c>
       <c r="BE11" t="n">
-        <v>634</v>
+        <v>591</v>
       </c>
       <c r="BF11" t="n">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="BG11" t="n">
-        <v>1805</v>
+        <v>1261</v>
       </c>
       <c r="BH11" t="n">
-        <v>804</v>
+        <v>778</v>
       </c>
       <c r="BI11" t="n">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="BJ11" t="n">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="BK11" t="n">
-        <v>614</v>
+        <v>579</v>
       </c>
       <c r="BL11" t="n">
-        <v>401</v>
+        <v>350</v>
       </c>
       <c r="BM11" t="n">
-        <v>852</v>
+        <v>826</v>
       </c>
       <c r="BN11" t="n">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="BO11" t="n">
-        <v>709</v>
+        <v>670</v>
       </c>
       <c r="BP11" t="n">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="BQ11" t="n">
-        <v>379</v>
+        <v>439</v>
       </c>
       <c r="BR11" t="n">
-        <v>516</v>
-      </c>
-      <c r="BS11" t="n">
+        <v>496</v>
+      </c>
+      <c r="BT11" t="n">
+        <v>409</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>593</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>546</v>
+      </c>
+      <c r="BY11" t="n">
         <v>3291</v>
-      </c>
-      <c r="BT11" t="n">
-        <v>423</v>
-      </c>
-      <c r="BU11" t="n">
-        <v>627</v>
-      </c>
-      <c r="BV11" t="n">
-        <v>567</v>
       </c>
     </row>
     <row r="12">
@@ -3853,97 +3845,97 @@
         </is>
       </c>
       <c r="AQ12" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AR12" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AS12" t="n">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="AT12" t="n">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="AU12" t="n">
         <v>140</v>
       </c>
       <c r="AV12" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="AW12" t="n">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="AX12" t="n">
+        <v>152</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>219</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>97</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>96</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>132</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>153</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>44</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>89</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>94</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>368</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>122</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>94</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>213</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>71</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>117</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>110</v>
+      </c>
+      <c r="BN12" t="n">
         <v>155</v>
       </c>
-      <c r="AY12" t="n">
-        <v>227</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>103</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>110</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>135</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>155</v>
-      </c>
-      <c r="BD12" t="n">
+      <c r="BO12" t="n">
+        <v>177</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>89</v>
+      </c>
+      <c r="BQ12" t="n">
+        <v>113</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>82</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>133</v>
+      </c>
+      <c r="BU12" t="n">
         <v>47</v>
       </c>
-      <c r="BE12" t="n">
-        <v>90</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>95</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>384</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>125</v>
-      </c>
-      <c r="BI12" t="n">
-        <v>95</v>
-      </c>
-      <c r="BJ12" t="n">
-        <v>216</v>
-      </c>
-      <c r="BK12" t="n">
-        <v>72</v>
-      </c>
-      <c r="BL12" t="n">
-        <v>126</v>
-      </c>
-      <c r="BM12" t="n">
-        <v>114</v>
-      </c>
-      <c r="BN12" t="n">
-        <v>157</v>
-      </c>
-      <c r="BO12" t="n">
-        <v>179</v>
-      </c>
-      <c r="BP12" t="n">
-        <v>90</v>
-      </c>
-      <c r="BQ12" t="n">
-        <v>117</v>
-      </c>
-      <c r="BR12" t="n">
-        <v>83</v>
-      </c>
-      <c r="BT12" t="n">
-        <v>136</v>
-      </c>
-      <c r="BU12" t="n">
-        <v>48</v>
-      </c>
       <c r="BV12" t="n">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
@@ -4137,100 +4129,100 @@
         </is>
       </c>
       <c r="AQ13" t="n">
-        <v>1476</v>
+        <v>1389</v>
       </c>
       <c r="AR13" t="n">
-        <v>1427</v>
+        <v>1203</v>
       </c>
       <c r="AS13" t="n">
-        <v>1003</v>
+        <v>830</v>
       </c>
       <c r="AT13" t="n">
-        <v>1660</v>
+        <v>1597</v>
       </c>
       <c r="AU13" t="n">
-        <v>1610</v>
+        <v>1552</v>
       </c>
       <c r="AV13" t="n">
-        <v>1927</v>
+        <v>1867</v>
       </c>
       <c r="AW13" t="n">
-        <v>1576</v>
+        <v>1501</v>
       </c>
       <c r="AX13" t="n">
-        <v>1063</v>
+        <v>1018</v>
       </c>
       <c r="AY13" t="n">
-        <v>1582</v>
+        <v>1441</v>
       </c>
       <c r="AZ13" t="n">
-        <v>792</v>
+        <v>662</v>
       </c>
       <c r="BA13" t="n">
-        <v>885</v>
+        <v>764</v>
       </c>
       <c r="BB13" t="n">
-        <v>704</v>
+        <v>630</v>
       </c>
       <c r="BC13" t="n">
-        <v>782</v>
+        <v>754</v>
       </c>
       <c r="BD13" t="n">
-        <v>1260</v>
+        <v>1053</v>
       </c>
       <c r="BE13" t="n">
-        <v>783</v>
+        <v>680</v>
       </c>
       <c r="BF13" t="n">
-        <v>769</v>
+        <v>703</v>
       </c>
       <c r="BG13" t="n">
-        <v>555</v>
+        <v>503</v>
       </c>
       <c r="BH13" t="n">
-        <v>1378</v>
+        <v>1360</v>
       </c>
       <c r="BI13" t="n">
-        <v>1504</v>
+        <v>1392</v>
       </c>
       <c r="BJ13" t="n">
-        <v>2016</v>
+        <v>1982</v>
       </c>
       <c r="BK13" t="n">
-        <v>1215</v>
+        <v>1067</v>
       </c>
       <c r="BL13" t="n">
-        <v>398</v>
+        <v>151</v>
       </c>
       <c r="BM13" t="n">
-        <v>979</v>
+        <v>931</v>
       </c>
       <c r="BN13" t="n">
-        <v>1319</v>
+        <v>1301</v>
       </c>
       <c r="BO13" t="n">
-        <v>1651</v>
+        <v>1572</v>
       </c>
       <c r="BP13" t="n">
-        <v>1920</v>
+        <v>1913</v>
       </c>
       <c r="BQ13" t="n">
-        <v>2009</v>
+        <v>1951</v>
       </c>
       <c r="BR13" t="n">
-        <v>1030</v>
-      </c>
-      <c r="BS13" t="n">
-        <v>1441</v>
+        <v>1023</v>
       </c>
       <c r="BT13" t="n">
-        <v>1167</v>
+        <v>1115</v>
       </c>
       <c r="BU13" t="n">
-        <v>1315</v>
+        <v>1265</v>
       </c>
       <c r="BV13" t="n">
-        <v>578</v>
+        <v>977</v>
+      </c>
+      <c r="BY13" t="n">
+        <v>451</v>
       </c>
     </row>
     <row r="14">
@@ -4424,100 +4416,100 @@
         </is>
       </c>
       <c r="AQ14" t="n">
-        <v>3057</v>
+        <v>2983</v>
       </c>
       <c r="AR14" t="n">
-        <v>1520</v>
+        <v>1302</v>
       </c>
       <c r="AS14" t="n">
-        <v>2440</v>
+        <v>2387</v>
       </c>
       <c r="AT14" t="n">
-        <v>2490</v>
+        <v>2451</v>
       </c>
       <c r="AU14" t="n">
-        <v>2242</v>
+        <v>2226</v>
       </c>
       <c r="AV14" t="n">
-        <v>2629</v>
+        <v>2605</v>
       </c>
       <c r="AW14" t="n">
-        <v>2270</v>
+        <v>2020</v>
       </c>
       <c r="AX14" t="n">
-        <v>2982</v>
+        <v>2978</v>
       </c>
       <c r="AY14" t="n">
-        <v>1676</v>
+        <v>1634</v>
       </c>
       <c r="AZ14" t="n">
-        <v>2632</v>
+        <v>2593</v>
       </c>
       <c r="BA14" t="n">
-        <v>1828</v>
+        <v>1766</v>
       </c>
       <c r="BB14" t="n">
-        <v>2474</v>
+        <v>2340</v>
       </c>
       <c r="BC14" t="n">
-        <v>1140</v>
+        <v>1104</v>
       </c>
       <c r="BD14" t="n">
-        <v>2552</v>
+        <v>2528</v>
       </c>
       <c r="BE14" t="n">
-        <v>2227</v>
+        <v>2163</v>
       </c>
       <c r="BF14" t="n">
-        <v>1700</v>
+        <v>1539</v>
       </c>
       <c r="BG14" t="n">
-        <v>2295</v>
+        <v>2285</v>
       </c>
       <c r="BH14" t="n">
         <v>3409</v>
       </c>
       <c r="BI14" t="n">
-        <v>2563</v>
+        <v>2544</v>
       </c>
       <c r="BJ14" t="n">
-        <v>1645</v>
+        <v>1633</v>
       </c>
       <c r="BK14" t="n">
-        <v>1362</v>
+        <v>1213</v>
       </c>
       <c r="BL14" t="n">
-        <v>2015</v>
+        <v>1851</v>
       </c>
       <c r="BM14" t="n">
         <v>2475</v>
       </c>
       <c r="BN14" t="n">
-        <v>2305</v>
+        <v>2291</v>
       </c>
       <c r="BO14" t="n">
-        <v>2041</v>
+        <v>1901</v>
       </c>
       <c r="BP14" t="n">
-        <v>2518</v>
+        <v>2509</v>
       </c>
       <c r="BQ14" t="n">
-        <v>5051</v>
+        <v>5013</v>
       </c>
       <c r="BR14" t="n">
-        <v>2446</v>
-      </c>
-      <c r="BS14" t="n">
+        <v>2434</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>1450</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>2735</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>2229</v>
+      </c>
+      <c r="BY14" t="n">
         <v>5450</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>1479</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>2779</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>2280</v>
       </c>
     </row>
     <row r="15">
@@ -4711,100 +4703,100 @@
         </is>
       </c>
       <c r="AQ15" t="n">
-        <v>3265</v>
+        <v>3181</v>
       </c>
       <c r="AR15" t="n">
-        <v>6425</v>
+        <v>6159</v>
       </c>
       <c r="AS15" t="n">
-        <v>5997</v>
+        <v>5925</v>
       </c>
       <c r="AT15" t="n">
-        <v>1978</v>
+        <v>1839</v>
       </c>
       <c r="AU15" t="n">
-        <v>2918</v>
+        <v>2756</v>
       </c>
       <c r="AV15" t="n">
-        <v>5362</v>
+        <v>5188</v>
       </c>
       <c r="AW15" t="n">
-        <v>4106</v>
+        <v>4015</v>
       </c>
       <c r="AX15" t="n">
-        <v>6962</v>
+        <v>6905</v>
       </c>
       <c r="AY15" t="n">
-        <v>6070</v>
+        <v>5817</v>
       </c>
       <c r="AZ15" t="n">
-        <v>2469</v>
+        <v>2396</v>
       </c>
       <c r="BA15" t="n">
-        <v>7144</v>
+        <v>7059</v>
       </c>
       <c r="BB15" t="n">
-        <v>4774</v>
+        <v>4673</v>
       </c>
       <c r="BC15" t="n">
-        <v>4560</v>
+        <v>4339</v>
       </c>
       <c r="BD15" t="n">
-        <v>4230</v>
+        <v>4158</v>
       </c>
       <c r="BE15" t="n">
-        <v>1837</v>
+        <v>1778</v>
       </c>
       <c r="BF15" t="n">
-        <v>3976</v>
+        <v>3847</v>
       </c>
       <c r="BG15" t="n">
-        <v>4844</v>
+        <v>4775</v>
       </c>
       <c r="BH15" t="n">
-        <v>4414</v>
+        <v>4379</v>
       </c>
       <c r="BI15" t="n">
-        <v>3831</v>
+        <v>3768</v>
       </c>
       <c r="BJ15" t="n">
-        <v>3794</v>
+        <v>3723</v>
       </c>
       <c r="BK15" t="n">
-        <v>3355</v>
+        <v>3288</v>
       </c>
       <c r="BL15" t="n">
-        <v>2548</v>
+        <v>2439</v>
       </c>
       <c r="BM15" t="n">
-        <v>3619</v>
+        <v>3526</v>
       </c>
       <c r="BN15" t="n">
-        <v>5514</v>
+        <v>5412</v>
       </c>
       <c r="BO15" t="n">
-        <v>2169</v>
+        <v>2065</v>
       </c>
       <c r="BP15" t="n">
-        <v>3591</v>
+        <v>3501</v>
       </c>
       <c r="BQ15" t="n">
-        <v>4031</v>
+        <v>3988</v>
       </c>
       <c r="BR15" t="n">
-        <v>3363</v>
-      </c>
-      <c r="BS15" t="n">
+        <v>3266</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>1957</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>2556</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>1689</v>
+      </c>
+      <c r="BY15" t="n">
         <v>199</v>
-      </c>
-      <c r="BT15" t="n">
-        <v>2063</v>
-      </c>
-      <c r="BU15" t="n">
-        <v>2640</v>
-      </c>
-      <c r="BV15" t="n">
-        <v>1752</v>
       </c>
     </row>
     <row r="16">
@@ -4998,100 +4990,100 @@
         </is>
       </c>
       <c r="AQ16" t="n">
-        <v>1351</v>
+        <v>1264</v>
       </c>
       <c r="AR16" t="n">
-        <v>2288</v>
+        <v>2238</v>
       </c>
       <c r="AS16" t="n">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="AT16" t="n">
-        <v>1372</v>
+        <v>1342</v>
       </c>
       <c r="AU16" t="n">
-        <v>1465</v>
+        <v>1427</v>
       </c>
       <c r="AV16" t="n">
-        <v>1485</v>
+        <v>1438</v>
       </c>
       <c r="AW16" t="n">
-        <v>1248</v>
+        <v>1164</v>
       </c>
       <c r="AX16" t="n">
-        <v>870</v>
+        <v>847</v>
       </c>
       <c r="AY16" t="n">
-        <v>1820</v>
+        <v>1721</v>
       </c>
       <c r="AZ16" t="n">
-        <v>804</v>
+        <v>777</v>
       </c>
       <c r="BA16" t="n">
-        <v>1278</v>
+        <v>1235</v>
       </c>
       <c r="BB16" t="n">
-        <v>995</v>
+        <v>935</v>
       </c>
       <c r="BC16" t="n">
-        <v>803</v>
+        <v>729</v>
       </c>
       <c r="BD16" t="n">
-        <v>1211</v>
+        <v>1178</v>
       </c>
       <c r="BE16" t="n">
-        <v>1208</v>
+        <v>1164</v>
       </c>
       <c r="BF16" t="n">
-        <v>1515</v>
+        <v>1445</v>
       </c>
       <c r="BG16" t="n">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="BH16" t="n">
-        <v>916</v>
+        <v>899</v>
       </c>
       <c r="BI16" t="n">
-        <v>1204</v>
+        <v>1161</v>
       </c>
       <c r="BJ16" t="n">
-        <v>1202</v>
+        <v>1163</v>
       </c>
       <c r="BK16" t="n">
-        <v>2140</v>
+        <v>2110</v>
       </c>
       <c r="BL16" t="n">
-        <v>2396</v>
+        <v>1514</v>
       </c>
       <c r="BM16" t="n">
-        <v>452</v>
+        <v>408</v>
       </c>
       <c r="BN16" t="n">
-        <v>1284</v>
+        <v>1273</v>
       </c>
       <c r="BO16" t="n">
-        <v>1379</v>
+        <v>1295</v>
       </c>
       <c r="BP16" t="n">
-        <v>1523</v>
+        <v>1462</v>
       </c>
       <c r="BQ16" t="n">
-        <v>1245</v>
+        <v>1175</v>
       </c>
       <c r="BR16" t="n">
-        <v>2790</v>
-      </c>
-      <c r="BS16" t="n">
+        <v>2767</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>1096</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>1262</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>740</v>
+      </c>
+      <c r="BY16" t="n">
         <v>3607</v>
-      </c>
-      <c r="BT16" t="n">
-        <v>1127</v>
-      </c>
-      <c r="BU16" t="n">
-        <v>1313</v>
-      </c>
-      <c r="BV16" t="n">
-        <v>786</v>
       </c>
     </row>
     <row r="17">
@@ -5285,100 +5277,100 @@
         </is>
       </c>
       <c r="AQ17" t="n">
-        <v>2688</v>
+        <v>2589</v>
       </c>
       <c r="AR17" t="n">
-        <v>6742</v>
+        <v>6572</v>
       </c>
       <c r="AS17" t="n">
-        <v>2706</v>
+        <v>3934</v>
       </c>
       <c r="AT17" t="n">
-        <v>2676</v>
+        <v>2558</v>
       </c>
       <c r="AU17" t="n">
-        <v>3195</v>
+        <v>3111</v>
       </c>
       <c r="AV17" t="n">
-        <v>2166</v>
+        <v>2063</v>
       </c>
       <c r="AW17" t="n">
-        <v>3051</v>
+        <v>2885</v>
       </c>
       <c r="AX17" t="n">
-        <v>3464</v>
+        <v>3394</v>
       </c>
       <c r="AY17" t="n">
-        <v>5670</v>
+        <v>5448</v>
       </c>
       <c r="AZ17" t="n">
-        <v>4105</v>
+        <v>4025</v>
       </c>
       <c r="BA17" t="n">
-        <v>3650</v>
+        <v>4180</v>
       </c>
       <c r="BB17" t="n">
-        <v>2571</v>
+        <v>2461</v>
       </c>
       <c r="BC17" t="n">
-        <v>1228</v>
+        <v>1085</v>
       </c>
       <c r="BD17" t="n">
-        <v>4557</v>
+        <v>4466</v>
       </c>
       <c r="BE17" t="n">
-        <v>2575</v>
+        <v>2510</v>
       </c>
       <c r="BF17" t="n">
-        <v>2054</v>
+        <v>1902</v>
       </c>
       <c r="BG17" t="n">
-        <v>2605</v>
+        <v>7822</v>
       </c>
       <c r="BH17" t="n">
-        <v>687</v>
+        <v>1969</v>
       </c>
       <c r="BI17" t="n">
-        <v>3189</v>
+        <v>3083</v>
       </c>
       <c r="BJ17" t="n">
-        <v>2955</v>
+        <v>2900</v>
       </c>
       <c r="BK17" t="n">
-        <v>5951</v>
+        <v>5869</v>
       </c>
       <c r="BL17" t="n">
-        <v>2547</v>
+        <v>2440</v>
       </c>
       <c r="BM17" t="n">
-        <v>2877</v>
+        <v>2789</v>
       </c>
       <c r="BN17" t="n">
-        <v>4537</v>
+        <v>4494</v>
       </c>
       <c r="BO17" t="n">
-        <v>2117</v>
+        <v>1965</v>
       </c>
       <c r="BP17" t="n">
-        <v>2169</v>
+        <v>2068</v>
       </c>
       <c r="BQ17" t="n">
-        <v>3484</v>
+        <v>3368</v>
       </c>
       <c r="BR17" t="n">
-        <v>4247</v>
-      </c>
-      <c r="BS17" t="n">
-        <v>17702</v>
+        <v>4173</v>
       </c>
       <c r="BT17" t="n">
-        <v>1322</v>
+        <v>1213</v>
       </c>
       <c r="BU17" t="n">
-        <v>3106</v>
+        <v>3001</v>
       </c>
       <c r="BV17" t="n">
-        <v>3795</v>
+        <v>3716</v>
+      </c>
+      <c r="BY17" t="n">
+        <v>19286</v>
       </c>
     </row>
     <row r="18">
@@ -5572,10 +5564,10 @@
         </is>
       </c>
       <c r="AQ18" t="n">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AR18" t="n">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="AS18" t="n">
         <v>324</v>
@@ -5587,85 +5579,85 @@
         <v>217</v>
       </c>
       <c r="AV18" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AW18" t="n">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="AX18" t="n">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="AY18" t="n">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="AZ18" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="BA18" t="n">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BB18" t="n">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="BC18" t="n">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="BD18" t="n">
+        <v>370</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>223</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>664</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>3685</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>355</v>
+      </c>
+      <c r="BI18" t="n">
         <v>371</v>
       </c>
-      <c r="BE18" t="n">
+      <c r="BJ18" t="n">
+        <v>316</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>446</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>553</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>103</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>147</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>544</v>
+      </c>
+      <c r="BP18" t="n">
         <v>228</v>
       </c>
-      <c r="BF18" t="n">
-        <v>675</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>3686</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>358</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>373</v>
-      </c>
-      <c r="BJ18" t="n">
-        <v>324</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>451</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>561</v>
-      </c>
-      <c r="BM18" t="n">
-        <v>104</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>154</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>548</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>231</v>
-      </c>
       <c r="BQ18" t="n">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="BR18" t="n">
-        <v>437</v>
-      </c>
-      <c r="BS18" t="n">
+        <v>434</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>318</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>183</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>300</v>
+      </c>
+      <c r="BY18" t="n">
         <v>3433</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>322</v>
-      </c>
-      <c r="BU18" t="n">
-        <v>187</v>
-      </c>
-      <c r="BV18" t="n">
-        <v>303</v>
       </c>
     </row>
     <row r="19">
@@ -5859,100 +5851,100 @@
         </is>
       </c>
       <c r="AQ19" t="n">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="AR19" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AS19" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AT19" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AU19" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AV19" t="n">
         <v>349</v>
       </c>
       <c r="AW19" t="n">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="AX19" t="n">
         <v>235</v>
       </c>
       <c r="AY19" t="n">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="AZ19" t="n">
         <v>189</v>
       </c>
       <c r="BA19" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="BB19" t="n">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="BC19" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BD19" t="n">
         <v>377</v>
       </c>
       <c r="BE19" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="BF19" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BG19" t="n">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="BH19" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="BI19" t="n">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="BJ19" t="n">
         <v>674</v>
       </c>
       <c r="BK19" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="BL19" t="n">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="BM19" t="n">
         <v>174</v>
       </c>
       <c r="BN19" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="BO19" t="n">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="BP19" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="BQ19" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="BR19" t="n">
-        <v>344</v>
-      </c>
-      <c r="BS19" t="n">
+        <v>340</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>120</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>334</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>179</v>
+      </c>
+      <c r="BY19" t="n">
         <v>6005</v>
-      </c>
-      <c r="BT19" t="n">
-        <v>134</v>
-      </c>
-      <c r="BU19" t="n">
-        <v>336</v>
-      </c>
-      <c r="BV19" t="n">
-        <v>182</v>
       </c>
     </row>
     <row r="20">
@@ -6146,100 +6138,100 @@
         </is>
       </c>
       <c r="AQ20" t="n">
-        <v>6950</v>
+        <v>6749</v>
       </c>
       <c r="AR20" t="n">
-        <v>9219</v>
+        <v>8914</v>
       </c>
       <c r="AS20" t="n">
-        <v>10293</v>
+        <v>10966</v>
       </c>
       <c r="AT20" t="n">
-        <v>7568</v>
+        <v>7129</v>
       </c>
       <c r="AU20" t="n">
-        <v>11968</v>
+        <v>11693</v>
       </c>
       <c r="AV20" t="n">
-        <v>9779</v>
+        <v>9263</v>
       </c>
       <c r="AW20" t="n">
-        <v>7124</v>
+        <v>6782</v>
       </c>
       <c r="AX20" t="n">
-        <v>7938</v>
+        <v>7809</v>
       </c>
       <c r="AY20" t="n">
-        <v>7714</v>
+        <v>7276</v>
       </c>
       <c r="AZ20" t="n">
-        <v>5960</v>
+        <v>6242</v>
       </c>
       <c r="BA20" t="n">
-        <v>9325</v>
+        <v>10469</v>
       </c>
       <c r="BB20" t="n">
-        <v>4917</v>
+        <v>4801</v>
       </c>
       <c r="BC20" t="n">
-        <v>4903</v>
+        <v>4725</v>
       </c>
       <c r="BD20" t="n">
-        <v>4304</v>
+        <v>4223</v>
       </c>
       <c r="BE20" t="n">
-        <v>4680</v>
+        <v>4449</v>
       </c>
       <c r="BF20" t="n">
-        <v>6944</v>
+        <v>6812</v>
       </c>
       <c r="BG20" t="n">
-        <v>3523</v>
+        <v>3425</v>
       </c>
       <c r="BH20" t="n">
-        <v>3189</v>
+        <v>3165</v>
       </c>
       <c r="BI20" t="n">
-        <v>5381</v>
+        <v>5181</v>
       </c>
       <c r="BJ20" t="n">
-        <v>2916</v>
+        <v>4054</v>
       </c>
       <c r="BK20" t="n">
-        <v>7705</v>
+        <v>7302</v>
       </c>
       <c r="BL20" t="n">
-        <v>8318</v>
+        <v>7979</v>
       </c>
       <c r="BM20" t="n">
-        <v>4245</v>
+        <v>3896</v>
       </c>
       <c r="BN20" t="n">
-        <v>5411</v>
+        <v>5358</v>
       </c>
       <c r="BO20" t="n">
-        <v>7030</v>
+        <v>6866</v>
       </c>
       <c r="BP20" t="n">
-        <v>5707</v>
+        <v>5568</v>
       </c>
       <c r="BQ20" t="n">
-        <v>7508</v>
+        <v>8675</v>
       </c>
       <c r="BR20" t="n">
-        <v>7435</v>
-      </c>
-      <c r="BS20" t="n">
-        <v>25095</v>
+        <v>7188</v>
       </c>
       <c r="BT20" t="n">
-        <v>6531</v>
+        <v>6412</v>
       </c>
       <c r="BU20" t="n">
-        <v>4394</v>
+        <v>5144</v>
       </c>
       <c r="BV20" t="n">
-        <v>3979</v>
+        <v>3737</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>37308</v>
       </c>
     </row>
     <row r="21">
@@ -6349,11 +6341,6 @@
           <t>More Than 120 Days</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>More Than 120 Days</t>
-        </is>
-      </c>
       <c r="X21" t="inlineStr">
         <is>
           <t>More Than 120 Days</t>
@@ -6433,100 +6420,97 @@
         </is>
       </c>
       <c r="AQ21" t="n">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="AR21" t="n">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="AS21" t="n">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="AT21" t="n">
-        <v>617</v>
+        <v>596</v>
       </c>
       <c r="AU21" t="n">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="AV21" t="n">
-        <v>447</v>
+        <v>431</v>
       </c>
       <c r="AW21" t="n">
-        <v>714</v>
+        <v>696</v>
       </c>
       <c r="AX21" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AY21" t="n">
+        <v>311</v>
+      </c>
+      <c r="AZ21" t="n">
         <v>346</v>
       </c>
-      <c r="AZ21" t="n">
-        <v>360</v>
-      </c>
       <c r="BA21" t="n">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="BB21" t="n">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="BC21" t="n">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="BD21" t="n">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="BE21" t="n">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="BF21" t="n">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="BG21" t="n">
-        <v>512</v>
+        <v>211</v>
       </c>
       <c r="BH21" t="n">
-        <v>200</v>
-      </c>
-      <c r="BI21" t="n">
-        <v>31</v>
+        <v>198</v>
       </c>
       <c r="BJ21" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="BK21" t="n">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="BL21" t="n">
-        <v>107</v>
+        <v>84</v>
       </c>
       <c r="BM21" t="n">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="BN21" t="n">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="BO21" t="n">
-        <v>498</v>
+        <v>472</v>
       </c>
       <c r="BP21" t="n">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="BQ21" t="n">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="BR21" t="n">
-        <v>295</v>
-      </c>
-      <c r="BS21" t="n">
-        <v>5450</v>
+        <v>291</v>
       </c>
       <c r="BT21" t="n">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="BU21" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="BV21" t="n">
-        <v>891</v>
+        <v>887</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>3375</v>
       </c>
     </row>
     <row r="22">
@@ -6720,100 +6704,100 @@
         </is>
       </c>
       <c r="AQ22" t="n">
-        <v>7144</v>
+        <v>6998</v>
       </c>
       <c r="AR22" t="n">
-        <v>11338</v>
+        <v>11128</v>
       </c>
       <c r="AS22" t="n">
-        <v>5631</v>
+        <v>7294</v>
       </c>
       <c r="AT22" t="n">
-        <v>5683</v>
+        <v>5520</v>
       </c>
       <c r="AU22" t="n">
-        <v>5561</v>
+        <v>5442</v>
       </c>
       <c r="AV22" t="n">
-        <v>6673</v>
+        <v>6421</v>
       </c>
       <c r="AW22" t="n">
-        <v>7073</v>
+        <v>6932</v>
       </c>
       <c r="AX22" t="n">
-        <v>5518</v>
+        <v>5469</v>
       </c>
       <c r="AY22" t="n">
-        <v>9296</v>
+        <v>9069</v>
       </c>
       <c r="AZ22" t="n">
-        <v>3013</v>
+        <v>2905</v>
       </c>
       <c r="BA22" t="n">
-        <v>7530</v>
+        <v>8804</v>
       </c>
       <c r="BB22" t="n">
-        <v>3283</v>
+        <v>3102</v>
       </c>
       <c r="BC22" t="n">
-        <v>5951</v>
+        <v>5818</v>
       </c>
       <c r="BD22" t="n">
-        <v>5002</v>
+        <v>4931</v>
       </c>
       <c r="BE22" t="n">
-        <v>3764</v>
+        <v>3626</v>
       </c>
       <c r="BF22" t="n">
-        <v>5523</v>
+        <v>5387</v>
       </c>
       <c r="BG22" t="n">
-        <v>3299</v>
+        <v>2496</v>
       </c>
       <c r="BH22" t="n">
-        <v>3132</v>
+        <v>3102</v>
       </c>
       <c r="BI22" t="n">
-        <v>4993</v>
+        <v>4822</v>
       </c>
       <c r="BJ22" t="n">
-        <v>2467</v>
+        <v>2386</v>
       </c>
       <c r="BK22" t="n">
-        <v>4238</v>
+        <v>4082</v>
       </c>
       <c r="BL22" t="n">
-        <v>7345</v>
+        <v>7176</v>
       </c>
       <c r="BM22" t="n">
-        <v>4102</v>
+        <v>4002</v>
       </c>
       <c r="BN22" t="n">
-        <v>7411</v>
+        <v>7348</v>
       </c>
       <c r="BO22" t="n">
-        <v>6586</v>
+        <v>6448</v>
       </c>
       <c r="BP22" t="n">
-        <v>5126</v>
+        <v>5073</v>
       </c>
       <c r="BQ22" t="n">
-        <v>7006</v>
+        <v>8510</v>
       </c>
       <c r="BR22" t="n">
-        <v>4431</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>6348</v>
+        <v>4714</v>
       </c>
       <c r="BT22" t="n">
-        <v>4280</v>
+        <v>4216</v>
       </c>
       <c r="BU22" t="n">
-        <v>1768</v>
+        <v>2422</v>
       </c>
       <c r="BV22" t="n">
-        <v>1037</v>
+        <v>939</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>11244</v>
       </c>
     </row>
     <row r="23">
@@ -7010,7 +6994,7 @@
         <v>1532</v>
       </c>
       <c r="AR23" t="n">
-        <v>851</v>
+        <v>809</v>
       </c>
       <c r="AS23" t="n">
         <v>1346</v>
@@ -7022,10 +7006,10 @@
         <v>957</v>
       </c>
       <c r="AV23" t="n">
-        <v>779</v>
+        <v>629</v>
       </c>
       <c r="AW23" t="n">
-        <v>1381</v>
+        <v>1371</v>
       </c>
       <c r="AX23" t="n">
         <v>1008</v>
@@ -7034,16 +7018,16 @@
         <v>708</v>
       </c>
       <c r="AZ23" t="n">
-        <v>792</v>
+        <v>842</v>
       </c>
       <c r="BA23" t="n">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="BB23" t="n">
-        <v>541</v>
+        <v>491</v>
       </c>
       <c r="BC23" t="n">
-        <v>902</v>
+        <v>887</v>
       </c>
       <c r="BD23" t="n">
         <v>310</v>
@@ -7052,19 +7036,19 @@
         <v>293</v>
       </c>
       <c r="BF23" t="n">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="BG23" t="n">
-        <v>2760</v>
+        <v>2750</v>
       </c>
       <c r="BH23" t="n">
         <v>1653</v>
       </c>
       <c r="BI23" t="n">
-        <v>780</v>
+        <v>730</v>
       </c>
       <c r="BJ23" t="n">
-        <v>409</v>
+        <v>374</v>
       </c>
       <c r="BK23" t="n">
         <v>322</v>
@@ -7090,9 +7074,6 @@
       <c r="BR23" t="n">
         <v>656</v>
       </c>
-      <c r="BS23" t="n">
-        <v>24307</v>
-      </c>
       <c r="BT23" t="n">
         <v>311</v>
       </c>
@@ -7101,6 +7082,9 @@
       </c>
       <c r="BV23" t="n">
         <v>384</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>24307</v>
       </c>
     </row>
     <row r="24">
@@ -7294,100 +7278,100 @@
         </is>
       </c>
       <c r="AQ24" t="n">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="AR24" t="n">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="AS24" t="n">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="AT24" t="n">
         <v>249</v>
       </c>
       <c r="AU24" t="n">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="AV24" t="n">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AW24" t="n">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="AX24" t="n">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="AY24" t="n">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="AZ24" t="n">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="BA24" t="n">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="BB24" t="n">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="BC24" t="n">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="BD24" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="BE24" t="n">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="BF24" t="n">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="BG24" t="n">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="BH24" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BI24" t="n">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="BJ24" t="n">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="BK24" t="n">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="BL24" t="n">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="BM24" t="n">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="BN24" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="BO24" t="n">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="BP24" t="n">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="BQ24" t="n">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="BR24" t="n">
-        <v>341</v>
-      </c>
-      <c r="BS24" t="n">
-        <v>44</v>
+        <v>338</v>
       </c>
       <c r="BT24" t="n">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="BU24" t="n">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="BV24" t="n">
         <v>260</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -7581,52 +7565,52 @@
         </is>
       </c>
       <c r="AQ25" t="n">
-        <v>5052</v>
+        <v>5007</v>
       </c>
       <c r="AR25" t="n">
-        <v>4965</v>
+        <v>4850</v>
       </c>
       <c r="AS25" t="n">
-        <v>3260</v>
+        <v>3224</v>
       </c>
       <c r="AT25" t="n">
-        <v>2782</v>
+        <v>2682</v>
       </c>
       <c r="AU25" t="n">
-        <v>2569</v>
+        <v>2469</v>
       </c>
       <c r="AV25" t="n">
-        <v>2808</v>
+        <v>2798</v>
       </c>
       <c r="AW25" t="n">
-        <v>2846</v>
+        <v>2761</v>
       </c>
       <c r="AX25" t="n">
-        <v>3955</v>
+        <v>3950</v>
       </c>
       <c r="AY25" t="n">
-        <v>3895</v>
+        <v>3770</v>
       </c>
       <c r="AZ25" t="n">
         <v>852</v>
       </c>
       <c r="BA25" t="n">
-        <v>3070</v>
+        <v>3040</v>
       </c>
       <c r="BB25" t="n">
-        <v>866</v>
+        <v>656</v>
       </c>
       <c r="BC25" t="n">
-        <v>5336</v>
+        <v>5281</v>
       </c>
       <c r="BD25" t="n">
-        <v>2457</v>
+        <v>2392</v>
       </c>
       <c r="BE25" t="n">
-        <v>1475</v>
+        <v>1455</v>
       </c>
       <c r="BF25" t="n">
-        <v>2113</v>
+        <v>1756</v>
       </c>
       <c r="BG25" t="n">
         <v>1492</v>
@@ -7635,46 +7619,46 @@
         <v>2896</v>
       </c>
       <c r="BI25" t="n">
-        <v>3391</v>
+        <v>3346</v>
       </c>
       <c r="BJ25" t="n">
-        <v>2378</v>
+        <v>2348</v>
       </c>
       <c r="BK25" t="n">
-        <v>2587</v>
+        <v>2562</v>
       </c>
       <c r="BL25" t="n">
-        <v>2449</v>
+        <v>2409</v>
       </c>
       <c r="BM25" t="n">
-        <v>2581</v>
+        <v>2531</v>
       </c>
       <c r="BN25" t="n">
-        <v>4974</v>
+        <v>4924</v>
       </c>
       <c r="BO25" t="n">
-        <v>3418</v>
+        <v>3322</v>
       </c>
       <c r="BP25" t="n">
-        <v>3338</v>
+        <v>3177</v>
       </c>
       <c r="BQ25" t="n">
-        <v>3812</v>
+        <v>3773</v>
       </c>
       <c r="BR25" t="n">
-        <v>974</v>
-      </c>
-      <c r="BS25" t="n">
-        <v>3378</v>
+        <v>959</v>
       </c>
       <c r="BT25" t="n">
-        <v>2984</v>
+        <v>2924</v>
       </c>
       <c r="BU25" t="n">
-        <v>2787</v>
+        <v>2691</v>
       </c>
       <c r="BV25" t="n">
         <v>4062</v>
+      </c>
+      <c r="BY25" t="n">
+        <v>3378</v>
       </c>
     </row>
     <row r="26">
@@ -7868,52 +7852,52 @@
         </is>
       </c>
       <c r="AQ26" t="n">
-        <v>2132</v>
+        <v>2117</v>
       </c>
       <c r="AR26" t="n">
-        <v>8838</v>
+        <v>8408</v>
       </c>
       <c r="AS26" t="n">
-        <v>1094</v>
+        <v>1028</v>
       </c>
       <c r="AT26" t="n">
-        <v>5165</v>
+        <v>5085</v>
       </c>
       <c r="AU26" t="n">
-        <v>2138</v>
+        <v>2128</v>
       </c>
       <c r="AV26" t="n">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="AW26" t="n">
-        <v>1526</v>
+        <v>1511</v>
       </c>
       <c r="AX26" t="n">
         <v>1499</v>
       </c>
       <c r="AY26" t="n">
-        <v>9080</v>
+        <v>9004</v>
       </c>
       <c r="AZ26" t="n">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="BA26" t="n">
-        <v>3674</v>
+        <v>3643</v>
       </c>
       <c r="BB26" t="n">
-        <v>4715</v>
+        <v>4624</v>
       </c>
       <c r="BC26" t="n">
-        <v>3879</v>
+        <v>3779</v>
       </c>
       <c r="BD26" t="n">
         <v>1528</v>
       </c>
       <c r="BE26" t="n">
-        <v>1659</v>
+        <v>1609</v>
       </c>
       <c r="BF26" t="n">
-        <v>7769</v>
+        <v>7704</v>
       </c>
       <c r="BG26" t="n">
         <v>2029</v>
@@ -7922,46 +7906,46 @@
         <v>1796</v>
       </c>
       <c r="BI26" t="n">
-        <v>1820</v>
+        <v>1810</v>
       </c>
       <c r="BJ26" t="n">
         <v>2944</v>
       </c>
       <c r="BK26" t="n">
-        <v>2653</v>
+        <v>2638</v>
       </c>
       <c r="BL26" t="n">
-        <v>1802</v>
+        <v>1767</v>
       </c>
       <c r="BM26" t="n">
-        <v>1531</v>
+        <v>1506</v>
       </c>
       <c r="BN26" t="n">
-        <v>10186</v>
+        <v>10062</v>
       </c>
       <c r="BO26" t="n">
-        <v>4160</v>
+        <v>4155</v>
       </c>
       <c r="BP26" t="n">
-        <v>3628</v>
+        <v>3558</v>
       </c>
       <c r="BQ26" t="n">
-        <v>3443</v>
+        <v>3423</v>
       </c>
       <c r="BR26" t="n">
-        <v>1608</v>
-      </c>
-      <c r="BS26" t="n">
-        <v>3848</v>
+        <v>1603</v>
       </c>
       <c r="BT26" t="n">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="BU26" t="n">
-        <v>1613</v>
+        <v>1598</v>
       </c>
       <c r="BV26" t="n">
         <v>2022</v>
+      </c>
+      <c r="BY26" t="n">
+        <v>3848</v>
       </c>
     </row>
     <row r="27">
@@ -8155,100 +8139,100 @@
         </is>
       </c>
       <c r="AQ27" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AR27" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AS27" t="n">
-        <v>99</v>
+        <v>179</v>
       </c>
       <c r="AT27" t="n">
         <v>179</v>
       </c>
       <c r="AU27" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AV27" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="AW27" t="n">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AX27" t="n">
         <v>159</v>
       </c>
       <c r="AY27" t="n">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="AZ27" t="n">
         <v>111</v>
       </c>
       <c r="BA27" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BB27" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="BC27" t="n">
+        <v>91</v>
+      </c>
+      <c r="BD27" t="n">
         <v>94</v>
       </c>
-      <c r="BD27" t="n">
-        <v>95</v>
-      </c>
       <c r="BE27" t="n">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="BF27" t="n">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="BG27" t="n">
-        <v>1795</v>
+        <v>1635</v>
       </c>
       <c r="BH27" t="n">
         <v>131</v>
       </c>
       <c r="BI27" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="BJ27" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BK27" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BL27" t="n">
         <v>120</v>
       </c>
       <c r="BM27" t="n">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="BN27" t="n">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="BO27" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="BP27" t="n">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="BQ27" t="n">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="BR27" t="n">
-        <v>93</v>
-      </c>
-      <c r="BS27" t="n">
-        <v>942</v>
+        <v>89</v>
       </c>
       <c r="BT27" t="n">
         <v>129</v>
       </c>
       <c r="BU27" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="BV27" t="n">
         <v>93</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>942</v>
       </c>
     </row>
     <row r="28">
@@ -8461,7 +8445,7 @@
         <v>25</v>
       </c>
       <c r="AY28" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AZ28" t="n">
         <v>10</v>
@@ -8473,7 +8457,7 @@
         <v>29</v>
       </c>
       <c r="BC28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD28" t="n">
         <v>49</v>
@@ -8482,7 +8466,7 @@
         <v>7</v>
       </c>
       <c r="BF28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG28" t="n">
         <v>309</v>
@@ -8506,7 +8490,7 @@
         <v>40</v>
       </c>
       <c r="BN28" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BO28" t="n">
         <v>45</v>
@@ -8719,7 +8703,7 @@
         <v>69</v>
       </c>
       <c r="AR29" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS29" t="n">
         <v>16</v>
@@ -8746,22 +8730,22 @@
         <v>33</v>
       </c>
       <c r="BA29" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BB29" t="n">
         <v>52</v>
       </c>
       <c r="BC29" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BD29" t="n">
         <v>43</v>
       </c>
       <c r="BE29" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BF29" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BG29" t="n">
         <v>1033</v>
@@ -8788,10 +8772,10 @@
         <v>33</v>
       </c>
       <c r="BO29" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="BP29" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BQ29" t="n">
         <v>88</v>
@@ -9000,31 +8984,31 @@
         </is>
       </c>
       <c r="AQ30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AR30" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="AS30" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="AT30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AU30" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AV30" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AW30" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AX30" t="n">
         <v>68</v>
       </c>
       <c r="AY30" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AZ30" t="n">
         <v>54</v>
@@ -9042,28 +9026,28 @@
         <v>78</v>
       </c>
       <c r="BE30" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="BF30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BG30" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BH30" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BI30" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="BJ30" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BK30" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BL30" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BM30" t="n">
         <v>27</v>
@@ -9072,28 +9056,28 @@
         <v>45</v>
       </c>
       <c r="BO30" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BP30" t="n">
         <v>63</v>
       </c>
       <c r="BQ30" t="n">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="BR30" t="n">
-        <v>15</v>
-      </c>
-      <c r="BS30" t="n">
+        <v>13</v>
+      </c>
+      <c r="BT30" t="n">
         <v>17</v>
-      </c>
-      <c r="BT30" t="n">
-        <v>21</v>
       </c>
       <c r="BU30" t="n">
         <v>26</v>
       </c>
       <c r="BV30" t="n">
         <v>56</v>
+      </c>
+      <c r="BX30" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -9287,25 +9271,25 @@
         </is>
       </c>
       <c r="AQ31" t="n">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="AR31" t="n">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="AS31" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AT31" t="n">
         <v>61</v>
       </c>
       <c r="AU31" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AV31" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AW31" t="n">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="AX31" t="n">
         <v>68</v>
@@ -9314,43 +9298,43 @@
         <v>120</v>
       </c>
       <c r="AZ31" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="BA31" t="n">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="BB31" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="BC31" t="n">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="BD31" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BE31" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BF31" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="BG31" t="n">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="BH31" t="n">
         <v>99</v>
       </c>
       <c r="BI31" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="BJ31" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BK31" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="BL31" t="n">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="BM31" t="n">
         <v>57</v>
@@ -9359,28 +9343,28 @@
         <v>57</v>
       </c>
       <c r="BO31" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BP31" t="n">
         <v>95</v>
       </c>
       <c r="BQ31" t="n">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="BR31" t="n">
-        <v>93</v>
-      </c>
-      <c r="BS31" t="n">
+        <v>89</v>
+      </c>
+      <c r="BT31" t="n">
+        <v>74</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>89</v>
+      </c>
+      <c r="BV31" t="n">
+        <v>134</v>
+      </c>
+      <c r="BY31" t="n">
         <v>28</v>
-      </c>
-      <c r="BT31" t="n">
-        <v>75</v>
-      </c>
-      <c r="BU31" t="n">
-        <v>91</v>
-      </c>
-      <c r="BV31" t="n">
-        <v>136</v>
       </c>
     </row>
     <row r="32">
@@ -9569,67 +9553,67 @@
         </is>
       </c>
       <c r="AQ32" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AR32" t="n">
         <v>57</v>
       </c>
       <c r="AS32" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AT32" t="n">
         <v>74</v>
       </c>
       <c r="AU32" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AV32" t="n">
         <v>140</v>
       </c>
       <c r="AW32" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AX32" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AY32" t="n">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="AZ32" t="n">
         <v>11</v>
       </c>
       <c r="BA32" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BB32" t="n">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="BC32" t="n">
         <v>103</v>
       </c>
       <c r="BD32" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BE32" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BG32" t="n">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="BH32" t="n">
         <v>121</v>
       </c>
       <c r="BI32" t="n">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="BJ32" t="n">
         <v>228</v>
       </c>
       <c r="BK32" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="BL32" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="BM32" t="n">
         <v>84</v>
@@ -9638,28 +9622,28 @@
         <v>60</v>
       </c>
       <c r="BO32" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BP32" t="n">
         <v>72</v>
       </c>
       <c r="BQ32" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BR32" t="n">
         <v>62</v>
       </c>
-      <c r="BS32" t="n">
-        <v>58</v>
-      </c>
       <c r="BT32" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BU32" t="n">
         <v>42</v>
       </c>
       <c r="BV32" t="n">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="BX32" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="33">
@@ -9857,25 +9841,25 @@
         <v>49</v>
       </c>
       <c r="AT33" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AV33" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AW33" t="n">
         <v>25</v>
       </c>
       <c r="AX33" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AY33" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AZ33" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BA33" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="BB33" t="n">
         <v>65</v>
@@ -9890,7 +9874,7 @@
         <v>28</v>
       </c>
       <c r="BF33" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BG33" t="n">
         <v>67</v>
@@ -9899,7 +9883,7 @@
         <v>66</v>
       </c>
       <c r="BI33" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BJ33" t="n">
         <v>99</v>
@@ -9908,37 +9892,37 @@
         <v>20</v>
       </c>
       <c r="BL33" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="BM33" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BN33" t="n">
         <v>61</v>
       </c>
       <c r="BO33" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BP33" t="n">
         <v>50</v>
       </c>
       <c r="BQ33" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BR33" t="n">
         <v>37</v>
       </c>
-      <c r="BS33" t="n">
-        <v>58</v>
-      </c>
       <c r="BT33" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BU33" t="n">
         <v>39</v>
       </c>
       <c r="BV33" t="n">
         <v>50</v>
+      </c>
+      <c r="BX33" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="34">
@@ -10127,97 +10111,97 @@
         </is>
       </c>
       <c r="AQ34" t="n">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="AR34" t="n">
-        <v>181</v>
+        <v>115</v>
       </c>
       <c r="AS34" t="n">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="AT34" t="n">
-        <v>239</v>
+        <v>217</v>
       </c>
       <c r="AU34" t="n">
+        <v>117</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>289</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>74</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>111</v>
+      </c>
+      <c r="AY34" t="n">
         <v>161</v>
       </c>
-      <c r="AV34" t="n">
-        <v>323</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>143</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>121</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>29</v>
-      </c>
       <c r="AZ34" t="n">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="BA34" t="n">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="BB34" t="n">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="BC34" t="n">
-        <v>258</v>
+        <v>230</v>
       </c>
       <c r="BD34" t="n">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="BE34" t="n">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="BF34" t="n">
-        <v>168</v>
+        <v>111</v>
       </c>
       <c r="BG34" t="n">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="BH34" t="n">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="BI34" t="n">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="BK34" t="n">
-        <v>126</v>
+        <v>64</v>
       </c>
       <c r="BL34" t="n">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="BM34" t="n">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="BN34" t="n">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="BO34" t="n">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="BP34" t="n">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="BQ34" t="n">
-        <v>391</v>
+        <v>344</v>
       </c>
       <c r="BR34" t="n">
-        <v>67</v>
-      </c>
-      <c r="BS34" t="n">
-        <v>13566</v>
+        <v>51</v>
       </c>
       <c r="BT34" t="n">
-        <v>124</v>
+        <v>71</v>
       </c>
       <c r="BU34" t="n">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="BV34" t="n">
-        <v>106</v>
+        <v>60</v>
+      </c>
+      <c r="BY34" t="n">
+        <v>16686</v>
       </c>
     </row>
     <row r="35">
@@ -10406,97 +10390,97 @@
         </is>
       </c>
       <c r="AQ35" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AR35" t="n">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AS35" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="AT35" t="n">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AU35" t="n">
+        <v>112</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>567</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>122</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>210</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>69</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>473</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>165</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>25</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>186</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>42</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>135</v>
+      </c>
+      <c r="BG35" t="n">
         <v>119</v>
-      </c>
-      <c r="AV35" t="n">
-        <v>583</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>128</v>
-      </c>
-      <c r="AX35" t="n">
-        <v>212</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>71</v>
-      </c>
-      <c r="AZ35" t="n">
-        <v>478</v>
-      </c>
-      <c r="BA35" t="n">
-        <v>175</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>35</v>
-      </c>
-      <c r="BC35" t="n">
-        <v>9</v>
-      </c>
-      <c r="BD35" t="n">
-        <v>193</v>
-      </c>
-      <c r="BE35" t="n">
-        <v>47</v>
-      </c>
-      <c r="BF35" t="n">
-        <v>137</v>
-      </c>
-      <c r="BG35" t="n">
-        <v>233</v>
       </c>
       <c r="BH35" t="n">
         <v>394</v>
       </c>
       <c r="BI35" t="n">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="BJ35" t="n">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="BK35" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="BL35" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="BM35" t="n">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="BN35" t="n">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="BO35" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="BP35" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="BQ35" t="n">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="BR35" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BT35" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="BU35" t="n">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="BV35" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36">
@@ -10685,7 +10669,7 @@
         </is>
       </c>
       <c r="AQ36" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AR36" t="n">
         <v>137</v>
@@ -10700,16 +10684,16 @@
         <v>161</v>
       </c>
       <c r="AV36" t="n">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="AW36" t="n">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="AX36" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AY36" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AZ36" t="n">
         <v>88</v>
@@ -10718,7 +10702,7 @@
         <v>117</v>
       </c>
       <c r="BB36" t="n">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="BC36" t="n">
         <v>75</v>
@@ -10727,55 +10711,55 @@
         <v>105</v>
       </c>
       <c r="BE36" t="n">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="BF36" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="BG36" t="n">
         <v>914</v>
       </c>
       <c r="BH36" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BI36" t="n">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="BJ36" t="n">
         <v>183</v>
       </c>
       <c r="BK36" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BL36" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BM36" t="n">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="BN36" t="n">
         <v>208</v>
       </c>
       <c r="BO36" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BP36" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="BQ36" t="n">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="BR36" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="BT36" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BU36" t="n">
         <v>85</v>
       </c>
       <c r="BV36" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37">
@@ -10969,100 +10953,100 @@
         </is>
       </c>
       <c r="AQ37" t="n">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AR37" t="n">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="AS37" t="n">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="AT37" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AU37" t="n">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="AV37" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="AW37" t="n">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AX37" t="n">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="AY37" t="n">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="AZ37" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="BA37" t="n">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="BB37" t="n">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="BC37" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BD37" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="BE37" t="n">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="BF37" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="BG37" t="n">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="BH37" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BI37" t="n">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="BJ37" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="BK37" t="n">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="BL37" t="n">
-        <v>690</v>
+        <v>673</v>
       </c>
       <c r="BM37" t="n">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="BN37" t="n">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="BO37" t="n">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="BP37" t="n">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="BQ37" t="n">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="BR37" t="n">
-        <v>208</v>
-      </c>
-      <c r="BS37" t="n">
+        <v>201</v>
+      </c>
+      <c r="BT37" t="n">
+        <v>68</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>121</v>
+      </c>
+      <c r="BV37" t="n">
+        <v>495</v>
+      </c>
+      <c r="BX37" t="n">
         <v>458</v>
-      </c>
-      <c r="BT37" t="n">
-        <v>89</v>
-      </c>
-      <c r="BU37" t="n">
-        <v>126</v>
-      </c>
-      <c r="BV37" t="n">
-        <v>500</v>
       </c>
     </row>
     <row r="38">
@@ -11256,100 +11240,100 @@
         </is>
       </c>
       <c r="AQ38" t="n">
-        <v>1070</v>
+        <v>1041</v>
       </c>
       <c r="AR38" t="n">
-        <v>820</v>
+        <v>761</v>
       </c>
       <c r="AS38" t="n">
-        <v>696</v>
+        <v>671</v>
       </c>
       <c r="AT38" t="n">
-        <v>611</v>
+        <v>592</v>
       </c>
       <c r="AU38" t="n">
-        <v>691</v>
+        <v>674</v>
       </c>
       <c r="AV38" t="n">
-        <v>1228</v>
+        <v>1203</v>
       </c>
       <c r="AW38" t="n">
-        <v>876</v>
+        <v>851</v>
       </c>
       <c r="AX38" t="n">
-        <v>668</v>
+        <v>656</v>
       </c>
       <c r="AY38" t="n">
-        <v>1613</v>
+        <v>1555</v>
       </c>
       <c r="AZ38" t="n">
-        <v>948</v>
+        <v>924</v>
       </c>
       <c r="BA38" t="n">
-        <v>901</v>
+        <v>880</v>
       </c>
       <c r="BB38" t="n">
-        <v>842</v>
+        <v>805</v>
       </c>
       <c r="BC38" t="n">
-        <v>656</v>
+        <v>628</v>
       </c>
       <c r="BD38" t="n">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="BE38" t="n">
-        <v>606</v>
+        <v>575</v>
       </c>
       <c r="BF38" t="n">
-        <v>601</v>
+        <v>554</v>
       </c>
       <c r="BG38" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="BH38" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="BI38" t="n">
-        <v>637</v>
+        <v>608</v>
       </c>
       <c r="BJ38" t="n">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="BK38" t="n">
-        <v>730</v>
+        <v>707</v>
       </c>
       <c r="BL38" t="n">
-        <v>767</v>
+        <v>736</v>
       </c>
       <c r="BM38" t="n">
-        <v>590</v>
+        <v>556</v>
       </c>
       <c r="BN38" t="n">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="BO38" t="n">
-        <v>1393</v>
+        <v>1368</v>
       </c>
       <c r="BP38" t="n">
-        <v>1249</v>
+        <v>1229</v>
       </c>
       <c r="BQ38" t="n">
-        <v>1172</v>
+        <v>1159</v>
       </c>
       <c r="BR38" t="n">
-        <v>1004</v>
-      </c>
-      <c r="BS38" t="n">
+        <v>974</v>
+      </c>
+      <c r="BT38" t="n">
+        <v>660</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>732</v>
+      </c>
+      <c r="BV38" t="n">
+        <v>801</v>
+      </c>
+      <c r="BX38" t="n">
         <v>1738</v>
-      </c>
-      <c r="BT38" t="n">
-        <v>688</v>
-      </c>
-      <c r="BU38" t="n">
-        <v>746</v>
-      </c>
-      <c r="BV38" t="n">
-        <v>847</v>
       </c>
     </row>
     <row r="39">
@@ -11543,61 +11527,61 @@
         </is>
       </c>
       <c r="AQ39" t="n">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="AR39" t="n">
-        <v>666</v>
+        <v>621</v>
       </c>
       <c r="AS39" t="n">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="AT39" t="n">
-        <v>551</v>
+        <v>539</v>
       </c>
       <c r="AU39" t="n">
-        <v>371</v>
+        <v>351</v>
       </c>
       <c r="AV39" t="n">
-        <v>415</v>
+        <v>387</v>
       </c>
       <c r="AW39" t="n">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="AX39" t="n">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="AY39" t="n">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="AZ39" t="n">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="BA39" t="n">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="BB39" t="n">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="BC39" t="n">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="BD39" t="n">
-        <v>649</v>
+        <v>616</v>
       </c>
       <c r="BE39" t="n">
         <v>480</v>
       </c>
       <c r="BF39" t="n">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="BG39" t="n">
-        <v>590</v>
+        <v>437</v>
       </c>
       <c r="BH39" t="n">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="BI39" t="n">
-        <v>558</v>
+        <v>549</v>
       </c>
       <c r="BJ39" t="n">
         <v>729</v>
@@ -11606,37 +11590,37 @@
         <v>606</v>
       </c>
       <c r="BL39" t="n">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="BM39" t="n">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="BN39" t="n">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="BO39" t="n">
-        <v>643</v>
+        <v>620</v>
       </c>
       <c r="BP39" t="n">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="BQ39" t="n">
-        <v>391</v>
+        <v>366</v>
       </c>
       <c r="BR39" t="n">
-        <v>435</v>
-      </c>
-      <c r="BS39" t="n">
+        <v>416</v>
+      </c>
+      <c r="BT39" t="n">
+        <v>518</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>1072</v>
+      </c>
+      <c r="BV39" t="n">
+        <v>865</v>
+      </c>
+      <c r="BY39" t="n">
         <v>3188</v>
-      </c>
-      <c r="BT39" t="n">
-        <v>559</v>
-      </c>
-      <c r="BU39" t="n">
-        <v>1082</v>
-      </c>
-      <c r="BV39" t="n">
-        <v>869</v>
       </c>
     </row>
     <row r="40">
@@ -11830,100 +11814,100 @@
         </is>
       </c>
       <c r="AQ40" t="n">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="AR40" t="n">
-        <v>1048</v>
+        <v>1023</v>
       </c>
       <c r="AS40" t="n">
-        <v>1091</v>
+        <v>1314</v>
       </c>
       <c r="AT40" t="n">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="AU40" t="n">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="AV40" t="n">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AW40" t="n">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="AX40" t="n">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="AY40" t="n">
-        <v>936</v>
+        <v>906</v>
       </c>
       <c r="AZ40" t="n">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="BA40" t="n">
-        <v>566</v>
+        <v>1035</v>
       </c>
       <c r="BB40" t="n">
-        <v>669</v>
+        <v>650</v>
       </c>
       <c r="BC40" t="n">
-        <v>413</v>
+        <v>514</v>
       </c>
       <c r="BD40" t="n">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="BE40" t="n">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="BF40" t="n">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="BG40" t="n">
-        <v>8069</v>
+        <v>9585</v>
       </c>
       <c r="BH40" t="n">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="BI40" t="n">
-        <v>639</v>
+        <v>624</v>
       </c>
       <c r="BJ40" t="n">
-        <v>807</v>
+        <v>794</v>
       </c>
       <c r="BK40" t="n">
-        <v>739</v>
+        <v>732</v>
       </c>
       <c r="BL40" t="n">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="BM40" t="n">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="BN40" t="n">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="BO40" t="n">
-        <v>349</v>
+        <v>448</v>
       </c>
       <c r="BP40" t="n">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="BQ40" t="n">
-        <v>205</v>
+        <v>488</v>
       </c>
       <c r="BR40" t="n">
-        <v>450</v>
-      </c>
-      <c r="BS40" t="n">
-        <v>4703</v>
+        <v>555</v>
       </c>
       <c r="BT40" t="n">
-        <v>410</v>
+        <v>388</v>
       </c>
       <c r="BU40" t="n">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="BV40" t="n">
-        <v>166</v>
+        <v>156</v>
+      </c>
+      <c r="BY40" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -12117,100 +12101,100 @@
         </is>
       </c>
       <c r="AQ41" t="n">
-        <v>1561</v>
+        <v>1510</v>
       </c>
       <c r="AR41" t="n">
-        <v>1852</v>
+        <v>1797</v>
       </c>
       <c r="AS41" t="n">
-        <v>1365</v>
+        <v>1666</v>
       </c>
       <c r="AT41" t="n">
-        <v>1142</v>
+        <v>1115</v>
       </c>
       <c r="AU41" t="n">
-        <v>1032</v>
+        <v>995</v>
       </c>
       <c r="AV41" t="n">
-        <v>1256</v>
+        <v>1235</v>
       </c>
       <c r="AW41" t="n">
-        <v>937</v>
+        <v>887</v>
       </c>
       <c r="AX41" t="n">
-        <v>1531</v>
+        <v>1508</v>
       </c>
       <c r="AY41" t="n">
-        <v>1137</v>
+        <v>1093</v>
       </c>
       <c r="AZ41" t="n">
-        <v>847</v>
+        <v>1146</v>
       </c>
       <c r="BA41" t="n">
-        <v>1756</v>
+        <v>1732</v>
       </c>
       <c r="BB41" t="n">
+        <v>1135</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>930</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>946</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>1550</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>620</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>2139</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>469</v>
+      </c>
+      <c r="BI41" t="n">
         <v>1173</v>
       </c>
-      <c r="BC41" t="n">
-        <v>973</v>
-      </c>
-      <c r="BD41" t="n">
-        <v>971</v>
-      </c>
-      <c r="BE41" t="n">
-        <v>1584</v>
-      </c>
-      <c r="BF41" t="n">
-        <v>654</v>
-      </c>
-      <c r="BG41" t="n">
-        <v>3753</v>
-      </c>
-      <c r="BH41" t="n">
-        <v>487</v>
-      </c>
-      <c r="BI41" t="n">
-        <v>1223</v>
-      </c>
       <c r="BJ41" t="n">
-        <v>886</v>
+        <v>862</v>
       </c>
       <c r="BK41" t="n">
-        <v>2137</v>
+        <v>2096</v>
       </c>
       <c r="BL41" t="n">
-        <v>1652</v>
+        <v>1598</v>
       </c>
       <c r="BM41" t="n">
-        <v>1020</v>
+        <v>1005</v>
       </c>
       <c r="BN41" t="n">
-        <v>975</v>
+        <v>959</v>
       </c>
       <c r="BO41" t="n">
-        <v>1488</v>
+        <v>1443</v>
       </c>
       <c r="BP41" t="n">
-        <v>1542</v>
+        <v>1514</v>
       </c>
       <c r="BQ41" t="n">
-        <v>1347</v>
+        <v>1326</v>
       </c>
       <c r="BR41" t="n">
-        <v>1273</v>
-      </c>
-      <c r="BS41" t="n">
+        <v>1567</v>
+      </c>
+      <c r="BT41" t="n">
+        <v>1506</v>
+      </c>
+      <c r="BU41" t="n">
+        <v>1124</v>
+      </c>
+      <c r="BV41" t="n">
+        <v>1188</v>
+      </c>
+      <c r="BY41" t="n">
         <v>14865</v>
-      </c>
-      <c r="BT41" t="n">
-        <v>1517</v>
-      </c>
-      <c r="BU41" t="n">
-        <v>1161</v>
-      </c>
-      <c r="BV41" t="n">
-        <v>1219</v>
       </c>
     </row>
     <row r="42">
@@ -12404,22 +12388,22 @@
         </is>
       </c>
       <c r="AQ42" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AR42" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AS42" t="n">
         <v>101</v>
       </c>
       <c r="AT42" t="n">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="AU42" t="n">
         <v>64</v>
       </c>
       <c r="AV42" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AW42" t="n">
         <v>97</v>
@@ -12428,19 +12412,19 @@
         <v>50</v>
       </c>
       <c r="AY42" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AZ42" t="n">
         <v>85</v>
       </c>
       <c r="BA42" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="BB42" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BC42" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BD42" t="n">
         <v>52</v>
@@ -12455,19 +12439,19 @@
         <v>260</v>
       </c>
       <c r="BH42" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BI42" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="BJ42" t="n">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="BK42" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="BL42" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="BM42" t="n">
         <v>80</v>
@@ -12476,28 +12460,28 @@
         <v>55</v>
       </c>
       <c r="BO42" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BP42" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BQ42" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BR42" t="n">
         <v>119</v>
       </c>
-      <c r="BS42" t="n">
+      <c r="BT42" t="n">
+        <v>60</v>
+      </c>
+      <c r="BU42" t="n">
+        <v>97</v>
+      </c>
+      <c r="BV42" t="n">
+        <v>42</v>
+      </c>
+      <c r="BY42" t="n">
         <v>110</v>
-      </c>
-      <c r="BT42" t="n">
-        <v>59</v>
-      </c>
-      <c r="BU42" t="n">
-        <v>64</v>
-      </c>
-      <c r="BV42" t="n">
-        <v>43</v>
       </c>
     </row>
     <row r="43">
@@ -12661,82 +12645,82 @@
         </is>
       </c>
       <c r="AQ43" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="AR43" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="AS43" t="n">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="AT43" t="n">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="AU43" t="n">
         <v>754</v>
       </c>
       <c r="AV43" t="n">
-        <v>988</v>
+        <v>968</v>
       </c>
       <c r="AW43" t="n">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="AX43" t="n">
         <v>348</v>
       </c>
       <c r="AY43" t="n">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="BB43" t="n">
-        <v>870</v>
+        <v>862</v>
       </c>
       <c r="BC43" t="n">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="BD43" t="n">
-        <v>252</v>
+        <v>226</v>
       </c>
       <c r="BE43" t="n">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="BF43" t="n">
-        <v>278</v>
+        <v>257</v>
       </c>
       <c r="BG43" t="n">
-        <v>375</v>
+        <v>173</v>
       </c>
       <c r="BH43" t="n">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="BJ43" t="n">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="BK43" t="n">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="BL43" t="n">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="BM43" t="n">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="BN43" t="n">
         <v>381</v>
       </c>
       <c r="BO43" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="BP43" t="n">
         <v>181</v>
       </c>
       <c r="BR43" t="n">
-        <v>124</v>
-      </c>
-      <c r="BS43" t="n">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="BU43" t="n">
-        <v>221</v>
+        <v>193</v>
+      </c>
+      <c r="BY43" t="n">
+        <v>5192</v>
       </c>
     </row>
     <row r="44">
@@ -12911,6 +12895,11 @@
           <t>More Than 120 Days</t>
         </is>
       </c>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
       <c r="AN44" t="n">
         <v>18</v>
       </c>
@@ -12925,97 +12914,100 @@
         </is>
       </c>
       <c r="AQ44" t="n">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="AR44" t="n">
-        <v>865</v>
+        <v>798</v>
       </c>
       <c r="AS44" t="n">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="AT44" t="n">
-        <v>819</v>
+        <v>790</v>
       </c>
       <c r="AU44" t="n">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="AV44" t="n">
-        <v>555</v>
+        <v>450</v>
       </c>
       <c r="AW44" t="n">
-        <v>365</v>
+        <v>310</v>
       </c>
       <c r="AX44" t="n">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="AY44" t="n">
-        <v>192</v>
+        <v>111</v>
       </c>
       <c r="AZ44" t="n">
-        <v>306</v>
+        <v>239</v>
       </c>
       <c r="BA44" t="n">
-        <v>283</v>
+        <v>230</v>
       </c>
       <c r="BB44" t="n">
-        <v>412</v>
+        <v>364</v>
       </c>
       <c r="BC44" t="n">
-        <v>160</v>
+        <v>102</v>
       </c>
       <c r="BD44" t="n">
-        <v>541</v>
+        <v>505</v>
       </c>
       <c r="BE44" t="n">
-        <v>657</v>
+        <v>578</v>
       </c>
       <c r="BF44" t="n">
-        <v>278</v>
+        <v>204</v>
       </c>
       <c r="BG44" t="n">
-        <v>523</v>
+        <v>478</v>
       </c>
       <c r="BH44" t="n">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="BI44" t="n">
-        <v>686</v>
+        <v>636</v>
       </c>
       <c r="BJ44" t="n">
-        <v>621</v>
+        <v>581</v>
       </c>
       <c r="BK44" t="n">
-        <v>498</v>
+        <v>450</v>
       </c>
       <c r="BL44" t="n">
-        <v>405</v>
+        <v>327</v>
       </c>
       <c r="BM44" t="n">
-        <v>191</v>
+        <v>146</v>
       </c>
       <c r="BN44" t="n">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="BO44" t="n">
-        <v>610</v>
+        <v>562</v>
       </c>
       <c r="BP44" t="n">
-        <v>639</v>
+        <v>622</v>
       </c>
       <c r="BQ44" t="n">
-        <v>675</v>
+        <v>642</v>
       </c>
       <c r="BR44" t="n">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="BT44" t="n">
-        <v>460</v>
+        <v>417</v>
       </c>
       <c r="BU44" t="n">
-        <v>1</v>
+        <v>593</v>
       </c>
       <c r="BV44" t="n">
-        <v>566</v>
+        <v>526</v>
+      </c>
+      <c r="BX44" t="n">
+        <v>19383</v>
       </c>
     </row>
     <row r="45">
@@ -13209,100 +13201,100 @@
         </is>
       </c>
       <c r="AQ45" t="n">
-        <v>1982</v>
+        <v>1933</v>
       </c>
       <c r="AR45" t="n">
-        <v>2376</v>
+        <v>2304</v>
       </c>
       <c r="AS45" t="n">
-        <v>2110</v>
+        <v>2044</v>
       </c>
       <c r="AT45" t="n">
-        <v>1248</v>
+        <v>1223</v>
       </c>
       <c r="AU45" t="n">
-        <v>1504</v>
+        <v>1438</v>
       </c>
       <c r="AV45" t="n">
-        <v>1960</v>
+        <v>1884</v>
       </c>
       <c r="AW45" t="n">
-        <v>1952</v>
+        <v>1853</v>
       </c>
       <c r="AX45" t="n">
-        <v>2787</v>
+        <v>2722</v>
       </c>
       <c r="AY45" t="n">
-        <v>2750</v>
+        <v>2663</v>
       </c>
       <c r="AZ45" t="n">
-        <v>1756</v>
+        <v>1675</v>
       </c>
       <c r="BA45" t="n">
-        <v>2933</v>
+        <v>2804</v>
       </c>
       <c r="BB45" t="n">
-        <v>2064</v>
+        <v>2028</v>
       </c>
       <c r="BC45" t="n">
-        <v>1675</v>
+        <v>1586</v>
       </c>
       <c r="BD45" t="n">
-        <v>1149</v>
+        <v>1007</v>
       </c>
       <c r="BE45" t="n">
-        <v>1291</v>
+        <v>1216</v>
       </c>
       <c r="BF45" t="n">
-        <v>2517</v>
+        <v>2361</v>
       </c>
       <c r="BG45" t="n">
-        <v>1422</v>
+        <v>1376</v>
       </c>
       <c r="BH45" t="n">
-        <v>2588</v>
+        <v>2560</v>
       </c>
       <c r="BI45" t="n">
-        <v>1600</v>
+        <v>1515</v>
       </c>
       <c r="BJ45" t="n">
-        <v>2831</v>
+        <v>2609</v>
       </c>
       <c r="BK45" t="n">
+        <v>1398</v>
+      </c>
+      <c r="BL45" t="n">
         <v>1483</v>
       </c>
-      <c r="BL45" t="n">
-        <v>1594</v>
-      </c>
       <c r="BM45" t="n">
-        <v>2256</v>
+        <v>2181</v>
       </c>
       <c r="BN45" t="n">
-        <v>1224</v>
+        <v>1201</v>
       </c>
       <c r="BO45" t="n">
-        <v>1726</v>
+        <v>1639</v>
       </c>
       <c r="BP45" t="n">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="BQ45" t="n">
-        <v>1990</v>
+        <v>1925</v>
       </c>
       <c r="BR45" t="n">
-        <v>2512</v>
-      </c>
-      <c r="BS45" t="n">
+        <v>2455</v>
+      </c>
+      <c r="BT45" t="n">
+        <v>2383</v>
+      </c>
+      <c r="BU45" t="n">
+        <v>1557</v>
+      </c>
+      <c r="BV45" t="n">
+        <v>1547</v>
+      </c>
+      <c r="BY45" t="n">
         <v>3299</v>
-      </c>
-      <c r="BT45" t="n">
-        <v>2477</v>
-      </c>
-      <c r="BU45" t="n">
-        <v>1597</v>
-      </c>
-      <c r="BV45" t="n">
-        <v>1569</v>
       </c>
     </row>
     <row r="46">
@@ -13496,25 +13488,25 @@
         </is>
       </c>
       <c r="AQ46" t="n">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="AR46" t="n">
+        <v>118</v>
+      </c>
+      <c r="AS46" t="n">
         <v>119</v>
       </c>
-      <c r="AS46" t="n">
-        <v>124</v>
-      </c>
       <c r="AT46" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AU46" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="AV46" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="AW46" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AX46" t="n">
         <v>53</v>
@@ -13526,70 +13518,70 @@
         <v>47</v>
       </c>
       <c r="BA46" t="n">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="BB46" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="BC46" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BD46" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="BE46" t="n">
         <v>64</v>
       </c>
       <c r="BF46" t="n">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="BG46" t="n">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="BH46" t="n">
         <v>263</v>
       </c>
       <c r="BI46" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BJ46" t="n">
         <v>211</v>
       </c>
       <c r="BK46" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="BL46" t="n">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="BM46" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BN46" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="BO46" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BP46" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="BQ46" t="n">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="BR46" t="n">
         <v>117</v>
       </c>
-      <c r="BS46" t="n">
-        <v>34</v>
-      </c>
       <c r="BT46" t="n">
         <v>123</v>
       </c>
       <c r="BU46" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="BV46" t="n">
         <v>42</v>
+      </c>
+      <c r="BY46" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="47">
@@ -13795,25 +13787,25 @@
         <v>46</v>
       </c>
       <c r="AU47" t="n">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="AV47" t="n">
         <v>124</v>
       </c>
       <c r="AW47" t="n">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AX47" t="n">
         <v>167</v>
       </c>
       <c r="AY47" t="n">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AZ47" t="n">
         <v>8</v>
       </c>
       <c r="BA47" t="n">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="BB47" t="n">
         <v>120</v>
@@ -13831,19 +13823,19 @@
         <v>240</v>
       </c>
       <c r="BG47" t="n">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="BH47" t="n">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="BI47" t="n">
         <v>150</v>
       </c>
       <c r="BJ47" t="n">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BK47" t="n">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="BL47" t="n">
         <v>99</v>
@@ -13855,28 +13847,28 @@
         <v>141</v>
       </c>
       <c r="BO47" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BP47" t="n">
         <v>183</v>
       </c>
       <c r="BQ47" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BR47" t="n">
         <v>187</v>
       </c>
-      <c r="BS47" t="n">
-        <v>50</v>
-      </c>
       <c r="BT47" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BU47" t="n">
         <v>104</v>
       </c>
       <c r="BV47" t="n">
-        <v>166</v>
+        <v>162</v>
+      </c>
+      <c r="BY47" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="48">
@@ -14070,100 +14062,100 @@
         </is>
       </c>
       <c r="AQ48" t="n">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AR48" t="n">
-        <v>660</v>
+        <v>630</v>
       </c>
       <c r="AS48" t="n">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="AT48" t="n">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="AU48" t="n">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="AV48" t="n">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="AW48" t="n">
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="AX48" t="n">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="AY48" t="n">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="AZ48" t="n">
-        <v>836</v>
+        <v>821</v>
       </c>
       <c r="BA48" t="n">
-        <v>605</v>
+        <v>584</v>
       </c>
       <c r="BB48" t="n">
-        <v>388</v>
+        <v>375</v>
       </c>
       <c r="BC48" t="n">
-        <v>374</v>
+        <v>361</v>
       </c>
       <c r="BD48" t="n">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="BE48" t="n">
-        <v>462</v>
+        <v>434</v>
       </c>
       <c r="BF48" t="n">
+        <v>230</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>729</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>289</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>346</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>290</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>324</v>
+      </c>
+      <c r="BL48" t="n">
         <v>236</v>
       </c>
-      <c r="BG48" t="n">
-        <v>743</v>
-      </c>
-      <c r="BH48" t="n">
-        <v>299</v>
-      </c>
-      <c r="BI48" t="n">
-        <v>350</v>
-      </c>
-      <c r="BJ48" t="n">
-        <v>297</v>
-      </c>
-      <c r="BK48" t="n">
-        <v>336</v>
-      </c>
-      <c r="BL48" t="n">
-        <v>259</v>
-      </c>
       <c r="BM48" t="n">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="BN48" t="n">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="BO48" t="n">
-        <v>541</v>
+        <v>502</v>
       </c>
       <c r="BP48" t="n">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="BQ48" t="n">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="BR48" t="n">
-        <v>521</v>
-      </c>
-      <c r="BS48" t="n">
+        <v>510</v>
+      </c>
+      <c r="BT48" t="n">
+        <v>402</v>
+      </c>
+      <c r="BU48" t="n">
+        <v>216</v>
+      </c>
+      <c r="BV48" t="n">
+        <v>326</v>
+      </c>
+      <c r="BY48" t="n">
         <v>15</v>
-      </c>
-      <c r="BT48" t="n">
-        <v>412</v>
-      </c>
-      <c r="BU48" t="n">
-        <v>231</v>
-      </c>
-      <c r="BV48" t="n">
-        <v>337</v>
       </c>
     </row>
     <row r="49">
@@ -14357,100 +14349,100 @@
         </is>
       </c>
       <c r="AQ49" t="n">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="AR49" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="AS49" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AT49" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="AU49" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AV49" t="n">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="AW49" t="n">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="AX49" t="n">
         <v>59</v>
       </c>
       <c r="AY49" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="AZ49" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="BA49" t="n">
-        <v>38</v>
+        <v>153</v>
       </c>
       <c r="BB49" t="n">
+        <v>156</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>76</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>117</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>138</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>47</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>2390</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>102</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>94</v>
+      </c>
+      <c r="BJ49" t="n">
         <v>163</v>
       </c>
-      <c r="BC49" t="n">
-        <v>82</v>
-      </c>
-      <c r="BD49" t="n">
-        <v>119</v>
-      </c>
-      <c r="BE49" t="n">
-        <v>140</v>
-      </c>
-      <c r="BF49" t="n">
-        <v>53</v>
-      </c>
-      <c r="BG49" t="n">
-        <v>3111</v>
-      </c>
-      <c r="BH49" t="n">
-        <v>36</v>
-      </c>
-      <c r="BI49" t="n">
-        <v>98</v>
-      </c>
-      <c r="BJ49" t="n">
-        <v>165</v>
-      </c>
       <c r="BK49" t="n">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="BL49" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="BM49" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="BN49" t="n">
         <v>58</v>
       </c>
       <c r="BO49" t="n">
+        <v>150</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>204</v>
+      </c>
+      <c r="BQ49" t="n">
+        <v>243</v>
+      </c>
+      <c r="BR49" t="n">
         <v>153</v>
       </c>
-      <c r="BP49" t="n">
-        <v>209</v>
-      </c>
-      <c r="BQ49" t="n">
-        <v>129</v>
-      </c>
-      <c r="BR49" t="n">
-        <v>36</v>
-      </c>
-      <c r="BS49" t="n">
+      <c r="BT49" t="n">
+        <v>136</v>
+      </c>
+      <c r="BU49" t="n">
+        <v>144</v>
+      </c>
+      <c r="BV49" t="n">
+        <v>101</v>
+      </c>
+      <c r="BX49" t="n">
         <v>274</v>
-      </c>
-      <c r="BT49" t="n">
-        <v>138</v>
-      </c>
-      <c r="BU49" t="n">
-        <v>29</v>
-      </c>
-      <c r="BV49" t="n">
-        <v>104</v>
       </c>
     </row>
     <row r="50">
@@ -14644,100 +14636,100 @@
         </is>
       </c>
       <c r="AQ50" t="n">
-        <v>1224</v>
+        <v>1200</v>
       </c>
       <c r="AR50" t="n">
-        <v>1336</v>
+        <v>1198</v>
       </c>
       <c r="AS50" t="n">
-        <v>1586</v>
+        <v>827</v>
       </c>
       <c r="AT50" t="n">
-        <v>273</v>
+        <v>197</v>
       </c>
       <c r="AU50" t="n">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="AV50" t="n">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="AW50" t="n">
-        <v>798</v>
+        <v>774</v>
       </c>
       <c r="AX50" t="n">
-        <v>317</v>
+        <v>257</v>
       </c>
       <c r="AY50" t="n">
-        <v>1754</v>
+        <v>1223</v>
       </c>
       <c r="AZ50" t="n">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="BA50" t="n">
-        <v>1154</v>
+        <v>485</v>
       </c>
       <c r="BB50" t="n">
-        <v>1307</v>
+        <v>1237</v>
       </c>
       <c r="BC50" t="n">
-        <v>852</v>
+        <v>1117</v>
       </c>
       <c r="BD50" t="n">
-        <v>874</v>
+        <v>787</v>
       </c>
       <c r="BE50" t="n">
-        <v>461</v>
+        <v>404</v>
       </c>
       <c r="BF50" t="n">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="BG50" t="n">
-        <v>917</v>
+        <v>777</v>
       </c>
       <c r="BH50" t="n">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="BI50" t="n">
-        <v>463</v>
+        <v>432</v>
       </c>
       <c r="BJ50" t="n">
-        <v>535</v>
+        <v>508</v>
       </c>
       <c r="BK50" t="n">
-        <v>1002</v>
+        <v>904</v>
       </c>
       <c r="BL50" t="n">
-        <v>620</v>
+        <v>557</v>
       </c>
       <c r="BM50" t="n">
-        <v>471</v>
+        <v>337</v>
       </c>
       <c r="BN50" t="n">
-        <v>1256</v>
+        <v>1157</v>
       </c>
       <c r="BO50" t="n">
-        <v>832</v>
+        <v>735</v>
       </c>
       <c r="BP50" t="n">
-        <v>314</v>
+        <v>269</v>
       </c>
       <c r="BQ50" t="n">
-        <v>899</v>
+        <v>813</v>
       </c>
       <c r="BR50" t="n">
-        <v>329</v>
-      </c>
-      <c r="BS50" t="n">
-        <v>400</v>
+        <v>322</v>
       </c>
       <c r="BT50" t="n">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="BU50" t="n">
-        <v>1236</v>
+        <v>1197</v>
       </c>
       <c r="BV50" t="n">
-        <v>874</v>
+        <v>821</v>
+      </c>
+      <c r="BY50" t="n">
+        <v>6800</v>
       </c>
     </row>
     <row r="51">
@@ -14926,7 +14918,7 @@
         <v>12</v>
       </c>
       <c r="BF51" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BG51" t="n">
         <v>104</v>
@@ -14938,7 +14930,7 @@
         <v>30</v>
       </c>
       <c r="BJ51" t="n">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="BK51" t="n">
         <v>11</v>
@@ -14958,9 +14950,6 @@
       <c r="BQ51" t="n">
         <v>1</v>
       </c>
-      <c r="BS51" t="n">
-        <v>797</v>
-      </c>
       <c r="BT51" t="n">
         <v>121</v>
       </c>
@@ -14969,6 +14958,9 @@
       </c>
       <c r="BV51" t="n">
         <v>11</v>
+      </c>
+      <c r="BY51" t="n">
+        <v>797</v>
       </c>
     </row>
     <row r="52">
@@ -15174,10 +15166,10 @@
         <v>94</v>
       </c>
       <c r="AU52" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AV52" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AW52" t="n">
         <v>35</v>
@@ -15201,16 +15193,16 @@
         <v>73</v>
       </c>
       <c r="BD52" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BE52" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BF52" t="n">
         <v>42</v>
       </c>
       <c r="BG52" t="n">
-        <v>4608</v>
+        <v>4552</v>
       </c>
       <c r="BH52" t="n">
         <v>175</v>
@@ -15240,14 +15232,11 @@
         <v>91</v>
       </c>
       <c r="BQ52" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BR52" t="n">
         <v>38</v>
       </c>
-      <c r="BS52" t="n">
-        <v>30</v>
-      </c>
       <c r="BT52" t="n">
         <v>79</v>
       </c>
@@ -15256,6 +15245,9 @@
       </c>
       <c r="BV52" t="n">
         <v>76</v>
+      </c>
+      <c r="BY52" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="53">
@@ -15449,100 +15441,100 @@
         </is>
       </c>
       <c r="AQ53" t="n">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="AR53" t="n">
-        <v>263</v>
+        <v>253</v>
       </c>
       <c r="AS53" t="n">
-        <v>442</v>
+        <v>431</v>
       </c>
       <c r="AT53" t="n">
-        <v>741</v>
+        <v>711</v>
       </c>
       <c r="AU53" t="n">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="AV53" t="n">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="AW53" t="n">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="AX53" t="n">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AY53" t="n">
-        <v>408</v>
+        <v>397</v>
       </c>
       <c r="AZ53" t="n">
-        <v>259</v>
+        <v>245</v>
       </c>
       <c r="BA53" t="n">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="BB53" t="n">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="BC53" t="n">
-        <v>337</v>
+        <v>320</v>
       </c>
       <c r="BD53" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BE53" t="n">
-        <v>778</v>
+        <v>767</v>
       </c>
       <c r="BF53" t="n">
-        <v>767</v>
+        <v>742</v>
       </c>
       <c r="BG53" t="n">
-        <v>1107</v>
+        <v>953</v>
       </c>
       <c r="BH53" t="n">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="BI53" t="n">
-        <v>404</v>
+        <v>384</v>
       </c>
       <c r="BJ53" t="n">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="BK53" t="n">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="BL53" t="n">
-        <v>423</v>
+        <v>387</v>
       </c>
       <c r="BM53" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="BN53" t="n">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="BO53" t="n">
-        <v>661</v>
+        <v>642</v>
       </c>
       <c r="BP53" t="n">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="BQ53" t="n">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="BR53" t="n">
-        <v>277</v>
-      </c>
-      <c r="BS53" t="n">
+        <v>269</v>
+      </c>
+      <c r="BT53" t="n">
+        <v>362</v>
+      </c>
+      <c r="BU53" t="n">
+        <v>717</v>
+      </c>
+      <c r="BV53" t="n">
+        <v>132</v>
+      </c>
+      <c r="BY53" t="n">
         <v>2417</v>
-      </c>
-      <c r="BT53" t="n">
-        <v>366</v>
-      </c>
-      <c r="BU53" t="n">
-        <v>719</v>
-      </c>
-      <c r="BV53" t="n">
-        <v>145</v>
       </c>
     </row>
     <row r="54">
@@ -15626,22 +15618,22 @@
         </is>
       </c>
       <c r="AS54" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AV54" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AW54" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AX54" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY54" t="n">
         <v>1</v>
       </c>
       <c r="BA54" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BD54" t="n">
         <v>34</v>
@@ -15650,10 +15642,10 @@
         <v>27</v>
       </c>
       <c r="BM54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BO54" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -15856,7 +15848,7 @@
         <v>28</v>
       </c>
       <c r="AT55" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AU55" t="n">
         <v>33</v>
@@ -15865,13 +15857,13 @@
         <v>11</v>
       </c>
       <c r="AW55" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX55" t="n">
         <v>8</v>
       </c>
       <c r="AY55" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ55" t="n">
         <v>45</v>
@@ -15883,16 +15875,16 @@
         <v>65</v>
       </c>
       <c r="BC55" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="BD55" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BE55" t="n">
         <v>78</v>
       </c>
       <c r="BF55" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BG55" t="n">
         <v>1906</v>
@@ -15907,7 +15899,7 @@
         <v>102</v>
       </c>
       <c r="BK55" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BL55" t="n">
         <v>50</v>
@@ -15916,7 +15908,7 @@
         <v>13</v>
       </c>
       <c r="BN55" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BO55" t="n">
         <v>14</v>
@@ -15925,14 +15917,11 @@
         <v>13</v>
       </c>
       <c r="BQ55" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="BR55" t="n">
         <v>10</v>
       </c>
-      <c r="BS55" t="n">
-        <v>39</v>
-      </c>
       <c r="BT55" t="n">
         <v>61</v>
       </c>
@@ -15941,6 +15930,9 @@
       </c>
       <c r="BV55" t="n">
         <v>51</v>
+      </c>
+      <c r="BX55" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="56">
@@ -16134,100 +16126,100 @@
         </is>
       </c>
       <c r="AQ56" t="n">
-        <v>2747</v>
+        <v>2708</v>
       </c>
       <c r="AR56" t="n">
-        <v>2669</v>
+        <v>2430</v>
       </c>
       <c r="AS56" t="n">
-        <v>2267</v>
+        <v>2192</v>
       </c>
       <c r="AT56" t="n">
-        <v>1615</v>
+        <v>1470</v>
       </c>
       <c r="AU56" t="n">
-        <v>2829</v>
+        <v>2749</v>
       </c>
       <c r="AV56" t="n">
-        <v>4341</v>
+        <v>4304</v>
       </c>
       <c r="AW56" t="n">
-        <v>857</v>
+        <v>820</v>
       </c>
       <c r="AX56" t="n">
-        <v>1810</v>
+        <v>1779</v>
       </c>
       <c r="AY56" t="n">
-        <v>2919</v>
+        <v>2871</v>
       </c>
       <c r="AZ56" t="n">
         <v>1331</v>
       </c>
       <c r="BA56" t="n">
-        <v>2131</v>
+        <v>2083</v>
       </c>
       <c r="BB56" t="n">
-        <v>2173</v>
+        <v>2150</v>
       </c>
       <c r="BC56" t="n">
-        <v>2170</v>
+        <v>2077</v>
       </c>
       <c r="BD56" t="n">
-        <v>2613</v>
+        <v>2595</v>
       </c>
       <c r="BE56" t="n">
-        <v>2613</v>
+        <v>2447</v>
       </c>
       <c r="BF56" t="n">
-        <v>1545</v>
+        <v>1527</v>
       </c>
       <c r="BG56" t="n">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="BH56" t="n">
-        <v>416</v>
+        <v>343</v>
       </c>
       <c r="BI56" t="n">
-        <v>3844</v>
+        <v>3765</v>
       </c>
       <c r="BJ56" t="n">
-        <v>2493</v>
+        <v>2346</v>
       </c>
       <c r="BK56" t="n">
-        <v>2154</v>
+        <v>2073</v>
       </c>
       <c r="BL56" t="n">
-        <v>1212</v>
+        <v>1035</v>
       </c>
       <c r="BM56" t="n">
-        <v>831</v>
+        <v>712</v>
       </c>
       <c r="BN56" t="n">
-        <v>1754</v>
+        <v>1745</v>
       </c>
       <c r="BO56" t="n">
-        <v>3660</v>
+        <v>3630</v>
       </c>
       <c r="BP56" t="n">
-        <v>2933</v>
+        <v>2902</v>
       </c>
       <c r="BQ56" t="n">
-        <v>1407</v>
+        <v>1376</v>
       </c>
       <c r="BR56" t="n">
-        <v>1588</v>
-      </c>
-      <c r="BS56" t="n">
+        <v>1558</v>
+      </c>
+      <c r="BT56" t="n">
+        <v>3333</v>
+      </c>
+      <c r="BU56" t="n">
+        <v>1745</v>
+      </c>
+      <c r="BV56" t="n">
+        <v>3972</v>
+      </c>
+      <c r="BY56" t="n">
         <v>68</v>
-      </c>
-      <c r="BT56" t="n">
-        <v>3434</v>
-      </c>
-      <c r="BU56" t="n">
-        <v>1764</v>
-      </c>
-      <c r="BV56" t="n">
-        <v>4081</v>
       </c>
     </row>
     <row r="57">
@@ -16416,97 +16408,97 @@
         </is>
       </c>
       <c r="AQ57" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AR57" t="n">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="AS57" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AT57" t="n">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="AU57" t="n">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AV57" t="n">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="AW57" t="n">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="AX57" t="n">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AY57" t="n">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="AZ57" t="n">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="BA57" t="n">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="BB57" t="n">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="BC57" t="n">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="BD57" t="n">
         <v>316</v>
       </c>
       <c r="BE57" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="BF57" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BG57" t="n">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="BH57" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BI57" t="n">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="BJ57" t="n">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="BK57" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="BL57" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="BM57" t="n">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="BN57" t="n">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="BO57" t="n">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="BP57" t="n">
         <v>276</v>
       </c>
       <c r="BQ57" t="n">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="BR57" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="BT57" t="n">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="BU57" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="BV57" t="n">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58">
@@ -16695,97 +16687,97 @@
         </is>
       </c>
       <c r="AQ58" t="n">
-        <v>1517</v>
+        <v>1441</v>
       </c>
       <c r="AR58" t="n">
-        <v>2068</v>
+        <v>2046</v>
       </c>
       <c r="AS58" t="n">
-        <v>1654</v>
+        <v>1599</v>
       </c>
       <c r="AT58" t="n">
-        <v>2185</v>
+        <v>2075</v>
       </c>
       <c r="AU58" t="n">
-        <v>755</v>
+        <v>744</v>
       </c>
       <c r="AV58" t="n">
-        <v>1812</v>
+        <v>1790</v>
       </c>
       <c r="AW58" t="n">
-        <v>2622</v>
+        <v>2584</v>
       </c>
       <c r="AX58" t="n">
-        <v>1294</v>
+        <v>1288</v>
       </c>
       <c r="AY58" t="n">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="AZ58" t="n">
-        <v>1166</v>
+        <v>1106</v>
       </c>
       <c r="BA58" t="n">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="BB58" t="n">
-        <v>718</v>
+        <v>635</v>
       </c>
       <c r="BC58" t="n">
-        <v>2138</v>
+        <v>2120</v>
       </c>
       <c r="BD58" t="n">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="BE58" t="n">
-        <v>1189</v>
+        <v>1131</v>
       </c>
       <c r="BF58" t="n">
-        <v>1443</v>
+        <v>1395</v>
       </c>
       <c r="BG58" t="n">
         <v>650</v>
       </c>
       <c r="BH58" t="n">
-        <v>901</v>
+        <v>889</v>
       </c>
       <c r="BI58" t="n">
-        <v>929</v>
+        <v>859</v>
       </c>
       <c r="BJ58" t="n">
-        <v>1688</v>
+        <v>1677</v>
       </c>
       <c r="BK58" t="n">
-        <v>1270</v>
+        <v>1229</v>
       </c>
       <c r="BL58" t="n">
-        <v>2067</v>
+        <v>2014</v>
       </c>
       <c r="BM58" t="n">
-        <v>1345</v>
+        <v>1286</v>
       </c>
       <c r="BN58" t="n">
-        <v>2440</v>
+        <v>2434</v>
       </c>
       <c r="BO58" t="n">
-        <v>1831</v>
+        <v>1686</v>
       </c>
       <c r="BP58" t="n">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="BQ58" t="n">
-        <v>1536</v>
+        <v>1460</v>
       </c>
       <c r="BR58" t="n">
-        <v>2123</v>
+        <v>2118</v>
       </c>
       <c r="BT58" t="n">
-        <v>1277</v>
+        <v>1213</v>
       </c>
       <c r="BU58" t="n">
-        <v>1610</v>
+        <v>1000</v>
       </c>
       <c r="BV58" t="n">
-        <v>1823</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="59">
@@ -16974,16 +16966,16 @@
         </is>
       </c>
       <c r="AQ59" t="n">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AR59" t="n">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="AS59" t="n">
         <v>220</v>
       </c>
       <c r="AT59" t="n">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="AU59" t="n">
         <v>153</v>
@@ -16992,31 +16984,31 @@
         <v>343</v>
       </c>
       <c r="AW59" t="n">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="AX59" t="n">
         <v>416</v>
       </c>
       <c r="AY59" t="n">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="AZ59" t="n">
         <v>141</v>
       </c>
       <c r="BA59" t="n">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="BB59" t="n">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="BC59" t="n">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="BD59" t="n">
         <v>146</v>
       </c>
       <c r="BE59" t="n">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="BF59" t="n">
         <v>369</v>
@@ -17028,40 +17020,40 @@
         <v>535</v>
       </c>
       <c r="BI59" t="n">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="BJ59" t="n">
         <v>299</v>
       </c>
       <c r="BK59" t="n">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="BL59" t="n">
         <v>102</v>
       </c>
       <c r="BM59" t="n">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="BN59" t="n">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BO59" t="n">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="BP59" t="n">
         <v>399</v>
       </c>
       <c r="BQ59" t="n">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="BR59" t="n">
         <v>355</v>
       </c>
       <c r="BT59" t="n">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="BU59" t="n">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="BV59" t="n">
         <v>433</v>
@@ -17258,7 +17250,7 @@
         </is>
       </c>
       <c r="AQ60" t="n">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AR60" t="n">
         <v>219</v>
@@ -17267,91 +17259,91 @@
         <v>96</v>
       </c>
       <c r="AT60" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AU60" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AV60" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AW60" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AX60" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AY60" t="n">
         <v>113</v>
       </c>
       <c r="AZ60" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="BA60" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="BB60" t="n">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="BC60" t="n">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="BD60" t="n">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="BE60" t="n">
         <v>34</v>
       </c>
       <c r="BF60" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="BG60" t="n">
         <v>233</v>
       </c>
       <c r="BH60" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BI60" t="n">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="BJ60" t="n">
         <v>193</v>
       </c>
       <c r="BK60" t="n">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="BL60" t="n">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="BM60" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BN60" t="n">
         <v>69</v>
       </c>
       <c r="BO60" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BP60" t="n">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="BQ60" t="n">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="BR60" t="n">
         <v>90</v>
       </c>
-      <c r="BS60" t="n">
-        <v>28</v>
-      </c>
       <c r="BT60" t="n">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="BU60" t="n">
         <v>72</v>
       </c>
       <c r="BV60" t="n">
-        <v>116</v>
+        <v>109</v>
+      </c>
+      <c r="BW60" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="61">
@@ -17414,7 +17406,7 @@
         <v>21</v>
       </c>
       <c r="BQ61" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62">
@@ -17603,97 +17595,97 @@
         </is>
       </c>
       <c r="AQ62" t="n">
-        <v>1673</v>
+        <v>1609</v>
       </c>
       <c r="AR62" t="n">
-        <v>853</v>
+        <v>809</v>
       </c>
       <c r="AS62" t="n">
+        <v>1036</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>928</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>1477</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>944</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>1041</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>2385</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>758</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>668</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>618</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>688</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>1182</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>1109</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>1173</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>300</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>679</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>1366</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>926</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>642</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>1210</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>599</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>1503</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>1470</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>1499</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>1108</v>
+      </c>
+      <c r="BQ62" t="n">
+        <v>3246</v>
+      </c>
+      <c r="BR62" t="n">
+        <v>2133</v>
+      </c>
+      <c r="BT62" t="n">
+        <v>1510</v>
+      </c>
+      <c r="BU62" t="n">
+        <v>626</v>
+      </c>
+      <c r="BV62" t="n">
         <v>1082</v>
-      </c>
-      <c r="AT62" t="n">
-        <v>973</v>
-      </c>
-      <c r="AU62" t="n">
-        <v>1527</v>
-      </c>
-      <c r="AV62" t="n">
-        <v>962</v>
-      </c>
-      <c r="AW62" t="n">
-        <v>1416</v>
-      </c>
-      <c r="AX62" t="n">
-        <v>2393</v>
-      </c>
-      <c r="AY62" t="n">
-        <v>792</v>
-      </c>
-      <c r="AZ62" t="n">
-        <v>692</v>
-      </c>
-      <c r="BA62" t="n">
-        <v>641</v>
-      </c>
-      <c r="BB62" t="n">
-        <v>726</v>
-      </c>
-      <c r="BC62" t="n">
-        <v>1194</v>
-      </c>
-      <c r="BD62" t="n">
-        <v>1125</v>
-      </c>
-      <c r="BE62" t="n">
-        <v>1232</v>
-      </c>
-      <c r="BF62" t="n">
-        <v>367</v>
-      </c>
-      <c r="BG62" t="n">
-        <v>687</v>
-      </c>
-      <c r="BH62" t="n">
-        <v>1378</v>
-      </c>
-      <c r="BI62" t="n">
-        <v>991</v>
-      </c>
-      <c r="BJ62" t="n">
-        <v>650</v>
-      </c>
-      <c r="BK62" t="n">
-        <v>1273</v>
-      </c>
-      <c r="BL62" t="n">
-        <v>697</v>
-      </c>
-      <c r="BM62" t="n">
-        <v>1517</v>
-      </c>
-      <c r="BN62" t="n">
-        <v>1476</v>
-      </c>
-      <c r="BO62" t="n">
-        <v>1591</v>
-      </c>
-      <c r="BP62" t="n">
-        <v>1189</v>
-      </c>
-      <c r="BQ62" t="n">
-        <v>3285</v>
-      </c>
-      <c r="BR62" t="n">
-        <v>2151</v>
-      </c>
-      <c r="BT62" t="n">
-        <v>1533</v>
-      </c>
-      <c r="BU62" t="n">
-        <v>572</v>
-      </c>
-      <c r="BV62" t="n">
-        <v>1118</v>
       </c>
     </row>
     <row r="63">
@@ -17882,13 +17874,13 @@
         </is>
       </c>
       <c r="AQ63" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AR63" t="n">
         <v>128</v>
       </c>
       <c r="AS63" t="n">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="AT63" t="n">
         <v>28</v>
@@ -17900,7 +17892,7 @@
         <v>93</v>
       </c>
       <c r="AW63" t="n">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AX63" t="n">
         <v>174</v>
@@ -17909,7 +17901,7 @@
         <v>87</v>
       </c>
       <c r="AZ63" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="BA63" t="n">
         <v>72</v>
@@ -17927,16 +17919,16 @@
         <v>127</v>
       </c>
       <c r="BF63" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="BG63" t="n">
-        <v>210</v>
+        <v>159</v>
       </c>
       <c r="BH63" t="n">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="BI63" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="BJ63" t="n">
         <v>35</v>
@@ -17945,7 +17937,7 @@
         <v>263</v>
       </c>
       <c r="BL63" t="n">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="BM63" t="n">
         <v>158</v>
@@ -17960,7 +17952,7 @@
         <v>212</v>
       </c>
       <c r="BQ63" t="n">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="BR63" t="n">
         <v>132</v>
@@ -18166,100 +18158,100 @@
         </is>
       </c>
       <c r="AQ64" t="n">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AR64" t="n">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="AS64" t="n">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="AT64" t="n">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="AU64" t="n">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="AV64" t="n">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="AW64" t="n">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="AX64" t="n">
-        <v>1141</v>
+        <v>1131</v>
       </c>
       <c r="AY64" t="n">
-        <v>577</v>
+        <v>568</v>
       </c>
       <c r="AZ64" t="n">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="BA64" t="n">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="BB64" t="n">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="BC64" t="n">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="BD64" t="n">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="BE64" t="n">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="BF64" t="n">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="BG64" t="n">
-        <v>4911</v>
+        <v>4519</v>
       </c>
       <c r="BH64" t="n">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="BI64" t="n">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="BJ64" t="n">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="BK64" t="n">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="BL64" t="n">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="BM64" t="n">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="BN64" t="n">
         <v>400</v>
       </c>
       <c r="BO64" t="n">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="BP64" t="n">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="BQ64" t="n">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="BR64" t="n">
-        <v>470</v>
-      </c>
-      <c r="BS64" t="n">
+        <v>466</v>
+      </c>
+      <c r="BT64" t="n">
+        <v>477</v>
+      </c>
+      <c r="BU64" t="n">
+        <v>509</v>
+      </c>
+      <c r="BV64" t="n">
+        <v>517</v>
+      </c>
+      <c r="BY64" t="n">
         <v>9</v>
-      </c>
-      <c r="BT64" t="n">
-        <v>484</v>
-      </c>
-      <c r="BU64" t="n">
-        <v>516</v>
-      </c>
-      <c r="BV64" t="n">
-        <v>520</v>
       </c>
     </row>
     <row r="65">
@@ -18446,7 +18438,7 @@
         <v>363</v>
       </c>
       <c r="AR65" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AS65" t="n">
         <v>129</v>
@@ -18458,16 +18450,16 @@
         <v>102</v>
       </c>
       <c r="AV65" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AW65" t="n">
         <v>40</v>
       </c>
       <c r="AX65" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AY65" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AZ65" t="n">
         <v>126</v>
@@ -18497,16 +18489,16 @@
         <v>178</v>
       </c>
       <c r="BI65" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BJ65" t="n">
         <v>447</v>
       </c>
       <c r="BK65" t="n">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="BM65" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="BN65" t="n">
         <v>31</v>
@@ -18524,7 +18516,7 @@
         <v>204</v>
       </c>
       <c r="BT65" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="BU65" t="n">
         <v>56</v>
@@ -18717,37 +18709,37 @@
         <v>215</v>
       </c>
       <c r="AR66" t="n">
+        <v>95</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>141</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>210</v>
+      </c>
+      <c r="AU66" t="n">
         <v>102</v>
       </c>
-      <c r="AS66" t="n">
-        <v>142</v>
-      </c>
-      <c r="AT66" t="n">
-        <v>211</v>
-      </c>
-      <c r="AU66" t="n">
-        <v>104</v>
-      </c>
       <c r="AV66" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AW66" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AX66" t="n">
         <v>122</v>
       </c>
       <c r="AY66" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="AZ66" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="BA66" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BB66" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BC66" t="n">
         <v>186</v>
@@ -18756,31 +18748,31 @@
         <v>132</v>
       </c>
       <c r="BF66" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="BG66" t="n">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="BH66" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="BI66" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BJ66" t="n">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="BK66" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="BL66" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="BM66" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BN66" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BO66" t="n">
         <v>69</v>
@@ -18795,13 +18787,13 @@
         <v>229</v>
       </c>
       <c r="BT66" t="n">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="BU66" t="n">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="BV66" t="n">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67">
@@ -18993,94 +18985,94 @@
         <v>382</v>
       </c>
       <c r="AR67" t="n">
-        <v>877</v>
+        <v>860</v>
       </c>
       <c r="AS67" t="n">
-        <v>1066</v>
+        <v>1054</v>
       </c>
       <c r="AT67" t="n">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AU67" t="n">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="AV67" t="n">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="AW67" t="n">
-        <v>1329</v>
+        <v>1326</v>
       </c>
       <c r="AX67" t="n">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="AY67" t="n">
-        <v>684</v>
+        <v>671</v>
       </c>
       <c r="AZ67" t="n">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="BA67" t="n">
-        <v>1041</v>
+        <v>1026</v>
       </c>
       <c r="BB67" t="n">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="BC67" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="BD67" t="n">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="BE67" t="n">
-        <v>665</v>
+        <v>643</v>
       </c>
       <c r="BF67" t="n">
-        <v>1043</v>
+        <v>1029</v>
       </c>
       <c r="BG67" t="n">
-        <v>3976</v>
+        <v>3386</v>
       </c>
       <c r="BH67" t="n">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="BI67" t="n">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="BJ67" t="n">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="BK67" t="n">
-        <v>1306</v>
+        <v>1291</v>
       </c>
       <c r="BL67" t="n">
-        <v>812</v>
+        <v>789</v>
       </c>
       <c r="BM67" t="n">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="BN67" t="n">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="BO67" t="n">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="BP67" t="n">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="BQ67" t="n">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="BR67" t="n">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="BT67" t="n">
-        <v>949</v>
+        <v>935</v>
       </c>
       <c r="BU67" t="n">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="BV67" t="n">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="68">
@@ -19269,61 +19261,61 @@
         </is>
       </c>
       <c r="AQ68" t="n">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AR68" t="n">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="AS68" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="AT68" t="n">
         <v>338</v>
       </c>
       <c r="AU68" t="n">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AV68" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AW68" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AX68" t="n">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AY68" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AZ68" t="n">
         <v>335</v>
       </c>
       <c r="BA68" t="n">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="BB68" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BC68" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="BD68" t="n">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="BE68" t="n">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="BF68" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="BG68" t="n">
         <v>413</v>
       </c>
       <c r="BH68" t="n">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="BI68" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="BJ68" t="n">
         <v>312</v>
@@ -19335,31 +19327,31 @@
         <v>314</v>
       </c>
       <c r="BM68" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="BN68" t="n">
         <v>138</v>
       </c>
       <c r="BO68" t="n">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="BP68" t="n">
+        <v>204</v>
+      </c>
+      <c r="BQ68" t="n">
+        <v>305</v>
+      </c>
+      <c r="BR68" t="n">
+        <v>426</v>
+      </c>
+      <c r="BT68" t="n">
         <v>205</v>
       </c>
-      <c r="BQ68" t="n">
-        <v>307</v>
-      </c>
-      <c r="BR68" t="n">
-        <v>430</v>
-      </c>
-      <c r="BT68" t="n">
-        <v>206</v>
-      </c>
       <c r="BU68" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="BV68" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69">
@@ -19548,97 +19540,97 @@
         </is>
       </c>
       <c r="AQ69" t="n">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="AR69" t="n">
-        <v>633</v>
+        <v>601</v>
       </c>
       <c r="AS69" t="n">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="AT69" t="n">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="AU69" t="n">
-        <v>901</v>
+        <v>874</v>
       </c>
       <c r="AV69" t="n">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="AW69" t="n">
-        <v>741</v>
+        <v>653</v>
       </c>
       <c r="AX69" t="n">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="AY69" t="n">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="AZ69" t="n">
+        <v>404</v>
+      </c>
+      <c r="BA69" t="n">
         <v>424</v>
       </c>
-      <c r="BA69" t="n">
-        <v>443</v>
-      </c>
       <c r="BB69" t="n">
-        <v>675</v>
+        <v>650</v>
       </c>
       <c r="BC69" t="n">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="BD69" t="n">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="BE69" t="n">
-        <v>596</v>
+        <v>581</v>
       </c>
       <c r="BF69" t="n">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="BG69" t="n">
-        <v>948</v>
+        <v>857</v>
       </c>
       <c r="BH69" t="n">
         <v>418</v>
       </c>
       <c r="BI69" t="n">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="BJ69" t="n">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="BK69" t="n">
-        <v>692</v>
+        <v>644</v>
       </c>
       <c r="BL69" t="n">
-        <v>680</v>
+        <v>662</v>
       </c>
       <c r="BM69" t="n">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="BN69" t="n">
         <v>196</v>
       </c>
       <c r="BO69" t="n">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="BP69" t="n">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="BQ69" t="n">
-        <v>725</v>
+        <v>713</v>
       </c>
       <c r="BR69" t="n">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="BT69" t="n">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="BU69" t="n">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="BV69" t="n">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="70">
@@ -19830,28 +19822,28 @@
         <v>177</v>
       </c>
       <c r="AR70" t="n">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="AS70" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="AT70" t="n">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="AU70" t="n">
         <v>189</v>
       </c>
       <c r="AV70" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="AW70" t="n">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="AX70" t="n">
         <v>58</v>
       </c>
       <c r="AY70" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AZ70" t="n">
         <v>628</v>
@@ -19860,7 +19852,7 @@
         <v>212</v>
       </c>
       <c r="BB70" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BC70" t="n">
         <v>7</v>
@@ -19869,10 +19861,10 @@
         <v>140</v>
       </c>
       <c r="BE70" t="n">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="BF70" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="BG70" t="n">
         <v>17</v>
@@ -19881,43 +19873,43 @@
         <v>215</v>
       </c>
       <c r="BI70" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BJ70" t="n">
         <v>55</v>
       </c>
       <c r="BL70" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BM70" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="BN70" t="n">
         <v>148</v>
       </c>
       <c r="BO70" t="n">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="BP70" t="n">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="BQ70" t="n">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="BR70" t="n">
         <v>110</v>
       </c>
-      <c r="BS70" t="n">
-        <v>14006</v>
-      </c>
       <c r="BT70" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="BU70" t="n">
         <v>50</v>
       </c>
       <c r="BV70" t="n">
-        <v>186</v>
+        <v>185</v>
+      </c>
+      <c r="BY70" t="n">
+        <v>14006</v>
       </c>
     </row>
     <row r="71">
@@ -20111,100 +20103,100 @@
         </is>
       </c>
       <c r="AQ71" t="n">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="AR71" t="n">
-        <v>864</v>
+        <v>852</v>
       </c>
       <c r="AS71" t="n">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="AT71" t="n">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AU71" t="n">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AV71" t="n">
-        <v>912</v>
+        <v>902</v>
       </c>
       <c r="AW71" t="n">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="AX71" t="n">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="AY71" t="n">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="AZ71" t="n">
-        <v>840</v>
+        <v>825</v>
       </c>
       <c r="BA71" t="n">
-        <v>1056</v>
+        <v>1041</v>
       </c>
       <c r="BB71" t="n">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="BC71" t="n">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="BD71" t="n">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="BE71" t="n">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="BF71" t="n">
-        <v>692</v>
+        <v>676</v>
       </c>
       <c r="BG71" t="n">
-        <v>3383</v>
+        <v>3210</v>
       </c>
       <c r="BH71" t="n">
-        <v>934</v>
+        <v>915</v>
       </c>
       <c r="BI71" t="n">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="BJ71" t="n">
-        <v>2091</v>
+        <v>2078</v>
       </c>
       <c r="BK71" t="n">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="BL71" t="n">
-        <v>1097</v>
+        <v>1069</v>
       </c>
       <c r="BM71" t="n">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="BN71" t="n">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="BO71" t="n">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="BP71" t="n">
-        <v>1087</v>
+        <v>1071</v>
       </c>
       <c r="BQ71" t="n">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="BR71" t="n">
-        <v>577</v>
-      </c>
-      <c r="BS71" t="n">
-        <v>7</v>
+        <v>559</v>
       </c>
       <c r="BT71" t="n">
         <v>732</v>
       </c>
       <c r="BU71" t="n">
-        <v>529</v>
+        <v>646</v>
       </c>
       <c r="BV71" t="n">
-        <v>941</v>
+        <v>931</v>
+      </c>
+      <c r="BY71" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="72">
@@ -20398,7 +20390,7 @@
         </is>
       </c>
       <c r="AQ72" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AR72" t="n">
         <v>16</v>
@@ -20413,10 +20405,10 @@
         <v>51</v>
       </c>
       <c r="AV72" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="AW72" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AX72" t="n">
         <v>17</v>
@@ -20425,13 +20417,13 @@
         <v>30</v>
       </c>
       <c r="AZ72" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="BA72" t="n">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="BB72" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BC72" t="n">
         <v>21</v>
@@ -20440,10 +20432,10 @@
         <v>23</v>
       </c>
       <c r="BE72" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="BF72" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BG72" t="n">
         <v>458</v>
@@ -20452,7 +20444,7 @@
         <v>30</v>
       </c>
       <c r="BI72" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BJ72" t="n">
         <v>53</v>
@@ -20461,37 +20453,37 @@
         <v>17</v>
       </c>
       <c r="BL72" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BM72" t="n">
         <v>49</v>
       </c>
       <c r="BN72" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="BO72" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="BP72" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BQ72" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="BR72" t="n">
         <v>23</v>
       </c>
-      <c r="BS72" t="n">
-        <v>1081</v>
-      </c>
       <c r="BT72" t="n">
         <v>59</v>
       </c>
       <c r="BU72" t="n">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="BV72" t="n">
         <v>36</v>
+      </c>
+      <c r="BX72" t="n">
+        <v>1081</v>
       </c>
     </row>
     <row r="73">
@@ -20669,19 +20661,19 @@
         <v>38</v>
       </c>
       <c r="AT73" t="n">
-        <v>2307</v>
+        <v>1946</v>
       </c>
       <c r="AU73" t="n">
-        <v>848</v>
+        <v>414</v>
       </c>
       <c r="AV73" t="n">
-        <v>3538</v>
+        <v>3173</v>
       </c>
       <c r="AW73" t="n">
         <v>66</v>
       </c>
       <c r="AX73" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY73" t="n">
         <v>16</v>
@@ -20690,13 +20682,13 @@
         <v>2</v>
       </c>
       <c r="BB73" t="n">
-        <v>1800</v>
+        <v>1616</v>
       </c>
       <c r="BC73" t="n">
-        <v>1420</v>
+        <v>1251</v>
       </c>
       <c r="BD73" t="n">
-        <v>332</v>
+        <v>230</v>
       </c>
       <c r="BF73" t="n">
         <v>42</v>
@@ -20708,7 +20700,7 @@
         <v>24</v>
       </c>
       <c r="BI73" t="n">
-        <v>928</v>
+        <v>423</v>
       </c>
       <c r="BJ73" t="n">
         <v>50</v>
@@ -20720,25 +20712,25 @@
         <v>50</v>
       </c>
       <c r="BN73" t="n">
-        <v>1359</v>
+        <v>1317</v>
       </c>
       <c r="BO73" t="n">
-        <v>932</v>
+        <v>530</v>
       </c>
       <c r="BP73" t="n">
-        <v>2965</v>
+        <v>2604</v>
       </c>
       <c r="BR73" t="n">
-        <v>2026</v>
-      </c>
-      <c r="BS73" t="n">
-        <v>2903</v>
+        <v>1878</v>
       </c>
       <c r="BU73" t="n">
-        <v>1416</v>
+        <v>1148</v>
       </c>
       <c r="BV73" t="n">
         <v>15</v>
+      </c>
+      <c r="BY73" t="n">
+        <v>10583</v>
       </c>
     </row>
     <row r="74">
@@ -20888,6 +20880,11 @@
           <t>More Than 120 Days</t>
         </is>
       </c>
+      <c r="AM74" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
       <c r="AN74" t="n">
         <v>31</v>
       </c>
@@ -20902,58 +20899,58 @@
         </is>
       </c>
       <c r="AQ74" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="AR74" t="n">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="AS74" t="n">
-        <v>133</v>
+        <v>114</v>
       </c>
       <c r="AT74" t="n">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AU74" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AV74" t="n">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="AX74" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AY74" t="n">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="AZ74" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA74" t="n">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="BB74" t="n">
+        <v>64</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>112</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>142</v>
+      </c>
+      <c r="BE74" t="n">
         <v>68</v>
-      </c>
-      <c r="BC74" t="n">
-        <v>131</v>
-      </c>
-      <c r="BD74" t="n">
-        <v>144</v>
-      </c>
-      <c r="BE74" t="n">
-        <v>83</v>
       </c>
       <c r="BG74" t="n">
         <v>63</v>
       </c>
       <c r="BH74" t="n">
+        <v>199</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ74" t="n">
         <v>200</v>
-      </c>
-      <c r="BI74" t="n">
-        <v>25</v>
-      </c>
-      <c r="BJ74" t="n">
-        <v>205</v>
       </c>
       <c r="BM74" t="n">
         <v>19</v>
@@ -20962,22 +20959,25 @@
         <v>107</v>
       </c>
       <c r="BO74" t="n">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="BP74" t="n">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="BR74" t="n">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="BT74" t="n">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="BU74" t="n">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="BV74" t="n">
-        <v>204</v>
+        <v>203</v>
+      </c>
+      <c r="BY74" t="n">
+        <v>2160</v>
       </c>
     </row>
     <row r="75">
@@ -21171,100 +21171,100 @@
         </is>
       </c>
       <c r="AQ75" t="n">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="AR75" t="n">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="AS75" t="n">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="AT75" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="AU75" t="n">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="AV75" t="n">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="AW75" t="n">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="AX75" t="n">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AY75" t="n">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="AZ75" t="n">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="BA75" t="n">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="BB75" t="n">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="BC75" t="n">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="BD75" t="n">
         <v>491</v>
       </c>
       <c r="BE75" t="n">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="BF75" t="n">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="BG75" t="n">
-        <v>1688</v>
+        <v>1683</v>
       </c>
       <c r="BH75" t="n">
         <v>562</v>
       </c>
       <c r="BI75" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BJ75" t="n">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="BK75" t="n">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="BL75" t="n">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="BM75" t="n">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="BN75" t="n">
         <v>391</v>
       </c>
       <c r="BO75" t="n">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="BP75" t="n">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="BQ75" t="n">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="BR75" t="n">
-        <v>638</v>
-      </c>
-      <c r="BS75" t="n">
-        <v>12620</v>
+        <v>631</v>
       </c>
       <c r="BT75" t="n">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="BU75" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="BV75" t="n">
         <v>516</v>
+      </c>
+      <c r="BY75" t="n">
+        <v>12620</v>
       </c>
     </row>
     <row r="76">
@@ -21418,7 +21418,7 @@
         </is>
       </c>
       <c r="AQ76" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AS76" t="n">
         <v>9</v>
@@ -21427,10 +21427,10 @@
         <v>93</v>
       </c>
       <c r="AV76" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="AX76" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AY76" t="n">
         <v>112</v>
@@ -21445,7 +21445,7 @@
         <v>133</v>
       </c>
       <c r="BE76" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="BF76" t="n">
         <v>21</v>
@@ -21463,7 +21463,7 @@
         <v>32</v>
       </c>
       <c r="BM76" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BN76" t="n">
         <v>136</v>
@@ -21475,7 +21475,7 @@
         <v>75</v>
       </c>
       <c r="BQ76" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="BR76" t="n">
         <v>164</v>
@@ -21681,16 +21681,16 @@
         </is>
       </c>
       <c r="AQ77" t="n">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="AR77" t="n">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="AS77" t="n">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="AT77" t="n">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="AU77" t="n">
         <v>217</v>
@@ -21699,16 +21699,16 @@
         <v>289</v>
       </c>
       <c r="AW77" t="n">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AX77" t="n">
         <v>190</v>
       </c>
       <c r="AY77" t="n">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="AZ77" t="n">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="BA77" t="n">
         <v>249</v>
@@ -21717,31 +21717,31 @@
         <v>105</v>
       </c>
       <c r="BC77" t="n">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="BD77" t="n">
         <v>93</v>
       </c>
       <c r="BE77" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="BF77" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BG77" t="n">
-        <v>1021</v>
+        <v>961</v>
       </c>
       <c r="BH77" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="BI77" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="BJ77" t="n">
         <v>276</v>
       </c>
       <c r="BK77" t="n">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="BL77" t="n">
         <v>243</v>
@@ -21753,28 +21753,28 @@
         <v>82</v>
       </c>
       <c r="BO77" t="n">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="BP77" t="n">
         <v>342</v>
       </c>
       <c r="BQ77" t="n">
-        <v>1536</v>
+        <v>1499</v>
       </c>
       <c r="BR77" t="n">
-        <v>565</v>
-      </c>
-      <c r="BS77" t="n">
+        <v>560</v>
+      </c>
+      <c r="BT77" t="n">
+        <v>90</v>
+      </c>
+      <c r="BU77" t="n">
+        <v>192</v>
+      </c>
+      <c r="BV77" t="n">
+        <v>243</v>
+      </c>
+      <c r="BY77" t="n">
         <v>19</v>
-      </c>
-      <c r="BT77" t="n">
-        <v>100</v>
-      </c>
-      <c r="BU77" t="n">
-        <v>206</v>
-      </c>
-      <c r="BV77" t="n">
-        <v>257</v>
       </c>
     </row>
     <row r="78">
@@ -21968,100 +21968,100 @@
         </is>
       </c>
       <c r="AQ78" t="n">
-        <v>1704</v>
+        <v>1677</v>
       </c>
       <c r="AR78" t="n">
-        <v>624</v>
+        <v>595</v>
       </c>
       <c r="AS78" t="n">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="AT78" t="n">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="AU78" t="n">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="AV78" t="n">
-        <v>1726</v>
+        <v>1710</v>
       </c>
       <c r="AW78" t="n">
-        <v>1096</v>
+        <v>1068</v>
       </c>
       <c r="AX78" t="n">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="AY78" t="n">
-        <v>1049</v>
+        <v>1033</v>
       </c>
       <c r="AZ78" t="n">
-        <v>1121</v>
+        <v>1097</v>
       </c>
       <c r="BA78" t="n">
-        <v>975</v>
+        <v>944</v>
       </c>
       <c r="BB78" t="n">
-        <v>931</v>
+        <v>891</v>
       </c>
       <c r="BC78" t="n">
-        <v>800</v>
+        <v>752</v>
       </c>
       <c r="BD78" t="n">
-        <v>860</v>
+        <v>818</v>
       </c>
       <c r="BE78" t="n">
-        <v>685</v>
+        <v>640</v>
       </c>
       <c r="BF78" t="n">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="BG78" t="n">
-        <v>617</v>
+        <v>567</v>
       </c>
       <c r="BH78" t="n">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="BI78" t="n">
-        <v>2569</v>
+        <v>2552</v>
       </c>
       <c r="BJ78" t="n">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="BK78" t="n">
-        <v>1861</v>
+        <v>1771</v>
       </c>
       <c r="BL78" t="n">
-        <v>1798</v>
+        <v>1760</v>
       </c>
       <c r="BM78" t="n">
-        <v>1321</v>
+        <v>1309</v>
       </c>
       <c r="BN78" t="n">
         <v>1058</v>
       </c>
       <c r="BO78" t="n">
-        <v>1117</v>
+        <v>1021</v>
       </c>
       <c r="BP78" t="n">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="BQ78" t="n">
-        <v>1891</v>
+        <v>1833</v>
       </c>
       <c r="BR78" t="n">
-        <v>1057</v>
-      </c>
-      <c r="BS78" t="n">
+        <v>1046</v>
+      </c>
+      <c r="BT78" t="n">
+        <v>1277</v>
+      </c>
+      <c r="BU78" t="n">
+        <v>1801</v>
+      </c>
+      <c r="BV78" t="n">
+        <v>1005</v>
+      </c>
+      <c r="BX78" t="n">
         <v>81</v>
-      </c>
-      <c r="BT78" t="n">
-        <v>1318</v>
-      </c>
-      <c r="BU78" t="n">
-        <v>1835</v>
-      </c>
-      <c r="BV78" t="n">
-        <v>1051</v>
       </c>
     </row>
     <row r="79">
@@ -22255,100 +22255,100 @@
         </is>
       </c>
       <c r="AQ79" t="n">
+        <v>1121</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>2009</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>764</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>1459</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>1230</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>1155</v>
+      </c>
+      <c r="AW79" t="n">
         <v>1124</v>
       </c>
-      <c r="AR79" t="n">
-        <v>2032</v>
-      </c>
-      <c r="AS79" t="n">
-        <v>785</v>
-      </c>
-      <c r="AT79" t="n">
-        <v>1728</v>
-      </c>
-      <c r="AU79" t="n">
-        <v>1246</v>
-      </c>
-      <c r="AV79" t="n">
-        <v>1174</v>
-      </c>
-      <c r="AW79" t="n">
-        <v>1135</v>
-      </c>
       <c r="AX79" t="n">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="AY79" t="n">
-        <v>814</v>
+        <v>798</v>
       </c>
       <c r="AZ79" t="n">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="BA79" t="n">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="BB79" t="n">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="BC79" t="n">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="BD79" t="n">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="BE79" t="n">
-        <v>1730</v>
+        <v>1715</v>
       </c>
       <c r="BF79" t="n">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="BG79" t="n">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="BH79" t="n">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="BI79" t="n">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="BJ79" t="n">
         <v>1511</v>
       </c>
       <c r="BK79" t="n">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="BL79" t="n">
-        <v>1575</v>
+        <v>1534</v>
       </c>
       <c r="BM79" t="n">
-        <v>1070</v>
+        <v>1058</v>
       </c>
       <c r="BN79" t="n">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="BO79" t="n">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="BP79" t="n">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="BQ79" t="n">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="BR79" t="n">
-        <v>1120</v>
-      </c>
-      <c r="BS79" t="n">
+        <v>1116</v>
+      </c>
+      <c r="BT79" t="n">
+        <v>1158</v>
+      </c>
+      <c r="BU79" t="n">
+        <v>1424</v>
+      </c>
+      <c r="BV79" t="n">
+        <v>1402</v>
+      </c>
+      <c r="BY79" t="n">
         <v>33</v>
-      </c>
-      <c r="BT79" t="n">
-        <v>1164</v>
-      </c>
-      <c r="BU79" t="n">
-        <v>1431</v>
-      </c>
-      <c r="BV79" t="n">
-        <v>1410</v>
       </c>
     </row>
     <row r="80">
@@ -22523,6 +22523,11 @@
           <t>More Than 120 Days</t>
         </is>
       </c>
+      <c r="AL80" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
       <c r="AN80" t="n">
         <v>35</v>
       </c>
@@ -22537,97 +22542,100 @@
         </is>
       </c>
       <c r="AQ80" t="n">
-        <v>1785</v>
+        <v>1738</v>
       </c>
       <c r="AR80" t="n">
-        <v>3209</v>
+        <v>3042</v>
       </c>
       <c r="AS80" t="n">
-        <v>874</v>
+        <v>1561</v>
       </c>
       <c r="AT80" t="n">
-        <v>1530</v>
+        <v>1395</v>
       </c>
       <c r="AU80" t="n">
-        <v>584</v>
+        <v>522</v>
       </c>
       <c r="AV80" t="n">
-        <v>915</v>
+        <v>800</v>
       </c>
       <c r="AW80" t="n">
-        <v>2180</v>
+        <v>2062</v>
       </c>
       <c r="AX80" t="n">
-        <v>2406</v>
+        <v>2389</v>
       </c>
       <c r="AY80" t="n">
-        <v>2837</v>
+        <v>2787</v>
       </c>
       <c r="AZ80" t="n">
-        <v>1352</v>
+        <v>1320</v>
       </c>
       <c r="BA80" t="n">
-        <v>1403</v>
+        <v>1637</v>
       </c>
       <c r="BB80" t="n">
-        <v>1787</v>
+        <v>1728</v>
       </c>
       <c r="BC80" t="n">
-        <v>1377</v>
+        <v>1333</v>
       </c>
       <c r="BD80" t="n">
-        <v>1654</v>
+        <v>1583</v>
       </c>
       <c r="BE80" t="n">
-        <v>874</v>
+        <v>825</v>
       </c>
       <c r="BF80" t="n">
-        <v>1749</v>
+        <v>1693</v>
       </c>
       <c r="BG80" t="n">
-        <v>2695</v>
+        <v>3513</v>
       </c>
       <c r="BH80" t="n">
-        <v>2852</v>
+        <v>2836</v>
       </c>
       <c r="BI80" t="n">
-        <v>1176</v>
+        <v>1100</v>
       </c>
       <c r="BJ80" t="n">
-        <v>1834</v>
+        <v>1797</v>
       </c>
       <c r="BK80" t="n">
-        <v>1464</v>
+        <v>1396</v>
       </c>
       <c r="BL80" t="n">
-        <v>1961</v>
+        <v>1843</v>
       </c>
       <c r="BM80" t="n">
-        <v>2340</v>
+        <v>2118</v>
       </c>
       <c r="BN80" t="n">
-        <v>2517</v>
+        <v>2502</v>
       </c>
       <c r="BO80" t="n">
-        <v>1237</v>
+        <v>1121</v>
       </c>
       <c r="BP80" t="n">
-        <v>2788</v>
+        <v>2779</v>
       </c>
       <c r="BQ80" t="n">
-        <v>2391</v>
+        <v>2372</v>
       </c>
       <c r="BR80" t="n">
-        <v>936</v>
+        <v>919</v>
       </c>
       <c r="BT80" t="n">
-        <v>3001</v>
+        <v>2930</v>
       </c>
       <c r="BU80" t="n">
-        <v>1732</v>
+        <v>1919</v>
       </c>
       <c r="BV80" t="n">
-        <v>1129</v>
+        <v>1017</v>
+      </c>
+      <c r="BX80" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="81">
@@ -22821,100 +22829,100 @@
         </is>
       </c>
       <c r="AQ81" t="n">
-        <v>4463</v>
+        <v>4384</v>
       </c>
       <c r="AR81" t="n">
-        <v>8194</v>
+        <v>8124</v>
       </c>
       <c r="AS81" t="n">
-        <v>4277</v>
+        <v>4239</v>
       </c>
       <c r="AT81" t="n">
-        <v>8972</v>
+        <v>8918</v>
       </c>
       <c r="AU81" t="n">
-        <v>10332</v>
+        <v>10252</v>
       </c>
       <c r="AV81" t="n">
-        <v>9831</v>
+        <v>9696</v>
       </c>
       <c r="AW81" t="n">
-        <v>5405</v>
+        <v>5357</v>
       </c>
       <c r="AX81" t="n">
-        <v>4032</v>
+        <v>3987</v>
       </c>
       <c r="AY81" t="n">
-        <v>5103</v>
+        <v>5012</v>
       </c>
       <c r="AZ81" t="n">
-        <v>3760</v>
+        <v>3686</v>
       </c>
       <c r="BA81" t="n">
-        <v>3712</v>
+        <v>3634</v>
       </c>
       <c r="BB81" t="n">
-        <v>4426</v>
+        <v>4328</v>
       </c>
       <c r="BC81" t="n">
-        <v>2951</v>
+        <v>2895</v>
       </c>
       <c r="BD81" t="n">
-        <v>1542</v>
+        <v>1517</v>
       </c>
       <c r="BE81" t="n">
-        <v>3383</v>
+        <v>3316</v>
       </c>
       <c r="BF81" t="n">
-        <v>5236</v>
+        <v>5131</v>
       </c>
       <c r="BG81" t="n">
-        <v>2356</v>
+        <v>2306</v>
       </c>
       <c r="BH81" t="n">
-        <v>4065</v>
+        <v>4051</v>
       </c>
       <c r="BI81" t="n">
-        <v>4698</v>
+        <v>4597</v>
       </c>
       <c r="BJ81" t="n">
-        <v>3696</v>
+        <v>3639</v>
       </c>
       <c r="BK81" t="n">
-        <v>3651</v>
+        <v>3574</v>
       </c>
       <c r="BL81" t="n">
-        <v>3267</v>
+        <v>3147</v>
       </c>
       <c r="BM81" t="n">
-        <v>4873</v>
+        <v>4828</v>
       </c>
       <c r="BN81" t="n">
-        <v>2930</v>
+        <v>2923</v>
       </c>
       <c r="BO81" t="n">
-        <v>2762</v>
+        <v>2671</v>
       </c>
       <c r="BP81" t="n">
-        <v>3358</v>
+        <v>3301</v>
       </c>
       <c r="BQ81" t="n">
-        <v>4618</v>
+        <v>4574</v>
       </c>
       <c r="BR81" t="n">
-        <v>3672</v>
-      </c>
-      <c r="BS81" t="n">
+        <v>3629</v>
+      </c>
+      <c r="BT81" t="n">
+        <v>4965</v>
+      </c>
+      <c r="BU81" t="n">
+        <v>2218</v>
+      </c>
+      <c r="BV81" t="n">
+        <v>2788</v>
+      </c>
+      <c r="BY81" t="n">
         <v>1024</v>
-      </c>
-      <c r="BT81" t="n">
-        <v>5009</v>
-      </c>
-      <c r="BU81" t="n">
-        <v>2266</v>
-      </c>
-      <c r="BV81" t="n">
-        <v>2904</v>
       </c>
     </row>
     <row r="82">
@@ -23108,79 +23116,79 @@
         </is>
       </c>
       <c r="AQ82" t="n">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="AR82" t="n">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="AS82" t="n">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="AT82" t="n">
-        <v>515</v>
+        <v>487</v>
       </c>
       <c r="AU82" t="n">
-        <v>886</v>
+        <v>869</v>
       </c>
       <c r="AV82" t="n">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="AW82" t="n">
         <v>394</v>
       </c>
       <c r="AX82" t="n">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="AY82" t="n">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="AZ82" t="n">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="BA82" t="n">
-        <v>880</v>
+        <v>866</v>
       </c>
       <c r="BB82" t="n">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="BC82" t="n">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="BD82" t="n">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="BE82" t="n">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="BF82" t="n">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="BG82" t="n">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="BH82" t="n">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="BI82" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="BJ82" t="n">
-        <v>968</v>
+        <v>954</v>
       </c>
       <c r="BK82" t="n">
-        <v>1339</v>
+        <v>1336</v>
       </c>
       <c r="BL82" t="n">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="BM82" t="n">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="BN82" t="n">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="BO82" t="n">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="BP82" t="n">
         <v>415</v>
@@ -23191,17 +23199,17 @@
       <c r="BR82" t="n">
         <v>229</v>
       </c>
-      <c r="BS82" t="n">
-        <v>22</v>
-      </c>
       <c r="BT82" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="BU82" t="n">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="BV82" t="n">
         <v>439</v>
+      </c>
+      <c r="BX82" t="n">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Data/branch_wise_aging_stock.xlsx
+++ b/Data/branch_wise_aging_stock.xlsx
@@ -1016,7 +1016,7 @@
         <v>158</v>
       </c>
       <c r="AT2" t="n">
-        <v>611</v>
+        <v>658</v>
       </c>
       <c r="AU2" t="n">
         <v>173</v>
@@ -1031,13 +1031,13 @@
         <v>91</v>
       </c>
       <c r="AY2" t="n">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="AZ2" t="n">
         <v>59</v>
       </c>
       <c r="BA2" t="n">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="BB2" t="n">
         <v>64</v>
@@ -1055,7 +1055,7 @@
         <v>114</v>
       </c>
       <c r="BG2" t="n">
-        <v>1097</v>
+        <v>617</v>
       </c>
       <c r="BH2" t="n">
         <v>255</v>
@@ -1064,7 +1064,7 @@
         <v>60</v>
       </c>
       <c r="BJ2" t="n">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="BK2" t="n">
         <v>68</v>
@@ -1097,7 +1097,7 @@
         <v>133</v>
       </c>
       <c r="BV2" t="n">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3">
@@ -1292,16 +1292,16 @@
         <v>802</v>
       </c>
       <c r="AS3" t="n">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AT3" t="n">
-        <v>1146</v>
+        <v>1131</v>
       </c>
       <c r="AU3" t="n">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="AV3" t="n">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="AW3" t="n">
         <v>500</v>
@@ -1310,16 +1310,16 @@
         <v>441</v>
       </c>
       <c r="AY3" t="n">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="AZ3" t="n">
         <v>301</v>
       </c>
       <c r="BA3" t="n">
-        <v>1086</v>
+        <v>1066</v>
       </c>
       <c r="BB3" t="n">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BC3" t="n">
         <v>212</v>
@@ -1328,13 +1328,13 @@
         <v>476</v>
       </c>
       <c r="BE3" t="n">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="BF3" t="n">
         <v>272</v>
       </c>
       <c r="BG3" t="n">
-        <v>5263</v>
+        <v>5260</v>
       </c>
       <c r="BH3" t="n">
         <v>648</v>
@@ -1349,16 +1349,16 @@
         <v>194</v>
       </c>
       <c r="BL3" t="n">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="BM3" t="n">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="BN3" t="n">
         <v>218</v>
       </c>
       <c r="BO3" t="n">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="BP3" t="n">
         <v>478</v>
@@ -1367,16 +1367,16 @@
         <v>503</v>
       </c>
       <c r="BR3" t="n">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="BT3" t="n">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="BU3" t="n">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="BV3" t="n">
-        <v>338</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4">
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="AQ4" t="n">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AR4" t="n">
         <v>206</v>
       </c>
       <c r="AS4" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AT4" t="n">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="AU4" t="n">
         <v>202</v>
       </c>
       <c r="AV4" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AW4" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AX4" t="n">
         <v>169</v>
       </c>
       <c r="AY4" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AZ4" t="n">
         <v>39</v>
@@ -1603,13 +1603,13 @@
         <v>110</v>
       </c>
       <c r="BB4" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="BC4" t="n">
         <v>154</v>
       </c>
       <c r="BD4" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BE4" t="n">
         <v>165</v>
@@ -1624,7 +1624,7 @@
         <v>462</v>
       </c>
       <c r="BI4" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="BJ4" t="n">
         <v>158</v>
@@ -1633,7 +1633,7 @@
         <v>103</v>
       </c>
       <c r="BL4" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BM4" t="n">
         <v>66</v>
@@ -1651,19 +1651,19 @@
         <v>297</v>
       </c>
       <c r="BR4" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BT4" t="n">
         <v>72</v>
       </c>
       <c r="BU4" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BV4" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BW4" t="n">
-        <v>2400</v>
+        <v>3913</v>
       </c>
     </row>
     <row r="5">
@@ -1863,16 +1863,16 @@
         <v>218</v>
       </c>
       <c r="AS5" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="AT5" t="n">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="AU5" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AV5" t="n">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="AW5" t="n">
         <v>178</v>
@@ -1890,7 +1890,7 @@
         <v>262</v>
       </c>
       <c r="BB5" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BC5" t="n">
         <v>162</v>
@@ -1902,10 +1902,10 @@
         <v>157</v>
       </c>
       <c r="BF5" t="n">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="BG5" t="n">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="BH5" t="n">
         <v>429</v>
@@ -1917,16 +1917,16 @@
         <v>384</v>
       </c>
       <c r="BK5" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BL5" t="n">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="BM5" t="n">
         <v>202</v>
       </c>
       <c r="BN5" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BO5" t="n">
         <v>219</v>
@@ -1935,19 +1935,19 @@
         <v>211</v>
       </c>
       <c r="BQ5" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="BR5" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="BT5" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="BU5" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="BV5" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BW5" t="n">
         <v>4</v>
@@ -2144,49 +2144,49 @@
         </is>
       </c>
       <c r="AQ6" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AR6" t="n">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="AS6" t="n">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="AT6" t="n">
-        <v>1149</v>
+        <v>1110</v>
       </c>
       <c r="AU6" t="n">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AV6" t="n">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="AW6" t="n">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="AX6" t="n">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="AY6" t="n">
-        <v>530</v>
+        <v>519</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2126</v>
+        <v>2122</v>
       </c>
       <c r="BA6" t="n">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="BB6" t="n">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="BC6" t="n">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="BD6" t="n">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="BE6" t="n">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="BF6" t="n">
         <v>799</v>
@@ -2195,28 +2195,28 @@
         <v>5149</v>
       </c>
       <c r="BH6" t="n">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="BI6" t="n">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="BJ6" t="n">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="BK6" t="n">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="BL6" t="n">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="BM6" t="n">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="BN6" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="BO6" t="n">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="BP6" t="n">
         <v>367</v>
@@ -2225,16 +2225,16 @@
         <v>798</v>
       </c>
       <c r="BR6" t="n">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="BT6" t="n">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="BU6" t="n">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="BV6" t="n">
-        <v>510</v>
+        <v>775</v>
       </c>
       <c r="BW6" t="n">
         <v>628</v>
@@ -2342,6 +2342,11 @@
           <t>More Than 120 Days</t>
         </is>
       </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>More Than 120 Days</t>
+        </is>
+      </c>
       <c r="W7" t="inlineStr">
         <is>
           <t>More Than 120 Days</t>
@@ -2421,94 +2426,97 @@
         </is>
       </c>
       <c r="AQ7" t="n">
-        <v>571</v>
+        <v>549</v>
       </c>
       <c r="AR7" t="n">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="AS7" t="n">
-        <v>701</v>
+        <v>654</v>
       </c>
       <c r="AT7" t="n">
-        <v>509</v>
+        <v>480</v>
       </c>
       <c r="AU7" t="n">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="AV7" t="n">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="AW7" t="n">
-        <v>471</v>
+        <v>439</v>
       </c>
       <c r="AX7" t="n">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="AY7" t="n">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="AZ7" t="n">
-        <v>405</v>
+        <v>333</v>
       </c>
       <c r="BA7" t="n">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="BB7" t="n">
-        <v>702</v>
+        <v>655</v>
       </c>
       <c r="BC7" t="n">
-        <v>759</v>
+        <v>729</v>
       </c>
       <c r="BD7" t="n">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="BE7" t="n">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="BF7" t="n">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="BG7" t="n">
-        <v>296</v>
+        <v>178</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>1</v>
       </c>
       <c r="BI7" t="n">
-        <v>519</v>
+        <v>501</v>
       </c>
       <c r="BJ7" t="n">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="BK7" t="n">
-        <v>500</v>
+        <v>475</v>
       </c>
       <c r="BL7" t="n">
-        <v>338</v>
+        <v>272</v>
       </c>
       <c r="BM7" t="n">
-        <v>515</v>
+        <v>481</v>
       </c>
       <c r="BN7" t="n">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="BO7" t="n">
-        <v>491</v>
+        <v>470</v>
       </c>
       <c r="BP7" t="n">
-        <v>331</v>
+        <v>299</v>
       </c>
       <c r="BQ7" t="n">
-        <v>685</v>
+        <v>640</v>
       </c>
       <c r="BR7" t="n">
-        <v>1027</v>
+        <v>986</v>
       </c>
       <c r="BT7" t="n">
-        <v>530</v>
+        <v>502</v>
       </c>
       <c r="BU7" t="n">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="BV7" t="n">
-        <v>342</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8">
@@ -2759,7 +2767,7 @@
         <v>56</v>
       </c>
       <c r="BJ8" t="n">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="BK8" t="n">
         <v>47</v>
@@ -2783,7 +2791,7 @@
         <v>43</v>
       </c>
       <c r="BR8" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="BT8" t="n">
         <v>41</v>
@@ -2989,97 +2997,97 @@
         </is>
       </c>
       <c r="AQ9" t="n">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="AR9" t="n">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="AS9" t="n">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AT9" t="n">
-        <v>138</v>
+        <v>256</v>
       </c>
       <c r="AU9" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AV9" t="n">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="AW9" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="AX9" t="n">
-        <v>97</v>
+        <v>159</v>
       </c>
       <c r="AY9" t="n">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AZ9" t="n">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="BA9" t="n">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="BB9" t="n">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="BC9" t="n">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="BD9" t="n">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="BE9" t="n">
         <v>163</v>
       </c>
       <c r="BF9" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BG9" t="n">
-        <v>669</v>
+        <v>537</v>
       </c>
       <c r="BH9" t="n">
         <v>221</v>
       </c>
       <c r="BI9" t="n">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="BJ9" t="n">
         <v>320</v>
       </c>
       <c r="BK9" t="n">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="BL9" t="n">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="BM9" t="n">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="BN9" t="n">
         <v>386</v>
       </c>
       <c r="BO9" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BP9" t="n">
         <v>350</v>
       </c>
       <c r="BQ9" t="n">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="BR9" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="BT9" t="n">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="BU9" t="n">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="BV9" t="n">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="BY9" t="n">
         <v>138</v>
@@ -3285,7 +3293,7 @@
         <v>112</v>
       </c>
       <c r="AT10" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AU10" t="n">
         <v>99</v>
@@ -3309,7 +3317,7 @@
         <v>94</v>
       </c>
       <c r="BB10" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BC10" t="n">
         <v>37</v>
@@ -3333,7 +3341,7 @@
         <v>29</v>
       </c>
       <c r="BJ10" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="BK10" t="n">
         <v>101</v>
@@ -3342,7 +3350,7 @@
         <v>124</v>
       </c>
       <c r="BM10" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="BN10" t="n">
         <v>21</v>
@@ -3360,7 +3368,7 @@
         <v>104</v>
       </c>
       <c r="BT10" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="BU10" t="n">
         <v>40</v>
@@ -3563,52 +3571,52 @@
         </is>
       </c>
       <c r="AQ11" t="n">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="AR11" t="n">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="AS11" t="n">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="AT11" t="n">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="AU11" t="n">
-        <v>551</v>
+        <v>533</v>
       </c>
       <c r="AV11" t="n">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="AW11" t="n">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="AX11" t="n">
-        <v>390</v>
+        <v>541</v>
       </c>
       <c r="AY11" t="n">
-        <v>1246</v>
+        <v>1216</v>
       </c>
       <c r="AZ11" t="n">
-        <v>511</v>
+        <v>486</v>
       </c>
       <c r="BA11" t="n">
         <v>784</v>
       </c>
       <c r="BB11" t="n">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="BC11" t="n">
         <v>588</v>
       </c>
       <c r="BD11" t="n">
-        <v>451</v>
+        <v>611</v>
       </c>
       <c r="BE11" t="n">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="BF11" t="n">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="BG11" t="n">
         <v>1261</v>
@@ -3617,43 +3625,43 @@
         <v>778</v>
       </c>
       <c r="BI11" t="n">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="BJ11" t="n">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="BK11" t="n">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="BL11" t="n">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="BM11" t="n">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="BN11" t="n">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="BO11" t="n">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="BP11" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="BQ11" t="n">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="BR11" t="n">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="BT11" t="n">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="BU11" t="n">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="BV11" t="n">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="BY11" t="n">
         <v>3291</v>
@@ -3848,40 +3856,40 @@
         <v>88</v>
       </c>
       <c r="AR12" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AS12" t="n">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AT12" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AU12" t="n">
         <v>140</v>
       </c>
       <c r="AV12" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW12" t="n">
         <v>105</v>
       </c>
       <c r="AX12" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AY12" t="n">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="AZ12" t="n">
         <v>97</v>
       </c>
       <c r="BA12" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BB12" t="n">
         <v>132</v>
       </c>
       <c r="BC12" t="n">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="BD12" t="n">
         <v>44</v>
@@ -3893,7 +3901,7 @@
         <v>94</v>
       </c>
       <c r="BG12" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="BH12" t="n">
         <v>122</v>
@@ -3902,31 +3910,31 @@
         <v>94</v>
       </c>
       <c r="BJ12" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="BK12" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="BL12" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="BM12" t="n">
         <v>110</v>
       </c>
       <c r="BN12" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="BO12" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BP12" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="BQ12" t="n">
         <v>113</v>
       </c>
       <c r="BR12" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BT12" t="n">
         <v>133</v>
@@ -3935,7 +3943,7 @@
         <v>47</v>
       </c>
       <c r="BV12" t="n">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
@@ -4129,52 +4137,52 @@
         </is>
       </c>
       <c r="AQ13" t="n">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="AR13" t="n">
         <v>1203</v>
       </c>
       <c r="AS13" t="n">
-        <v>830</v>
+        <v>801</v>
       </c>
       <c r="AT13" t="n">
-        <v>1597</v>
+        <v>1588</v>
       </c>
       <c r="AU13" t="n">
-        <v>1552</v>
+        <v>1521</v>
       </c>
       <c r="AV13" t="n">
-        <v>1867</v>
+        <v>1864</v>
       </c>
       <c r="AW13" t="n">
-        <v>1501</v>
+        <v>1483</v>
       </c>
       <c r="AX13" t="n">
-        <v>1018</v>
+        <v>977</v>
       </c>
       <c r="AY13" t="n">
-        <v>1441</v>
+        <v>1411</v>
       </c>
       <c r="AZ13" t="n">
-        <v>662</v>
+        <v>617</v>
       </c>
       <c r="BA13" t="n">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="BB13" t="n">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="BC13" t="n">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="BD13" t="n">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="BE13" t="n">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="BF13" t="n">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="BG13" t="n">
         <v>503</v>
@@ -4183,43 +4191,43 @@
         <v>1360</v>
       </c>
       <c r="BI13" t="n">
-        <v>1392</v>
+        <v>1379</v>
       </c>
       <c r="BJ13" t="n">
         <v>1982</v>
       </c>
       <c r="BK13" t="n">
-        <v>1067</v>
+        <v>1013</v>
       </c>
       <c r="BL13" t="n">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="BM13" t="n">
-        <v>931</v>
+        <v>907</v>
       </c>
       <c r="BN13" t="n">
         <v>1301</v>
       </c>
       <c r="BO13" t="n">
-        <v>1572</v>
+        <v>1552</v>
       </c>
       <c r="BP13" t="n">
         <v>1913</v>
       </c>
       <c r="BQ13" t="n">
-        <v>1951</v>
+        <v>1925</v>
       </c>
       <c r="BR13" t="n">
-        <v>1023</v>
+        <v>1005</v>
       </c>
       <c r="BT13" t="n">
-        <v>1115</v>
+        <v>1100</v>
       </c>
       <c r="BU13" t="n">
-        <v>1265</v>
+        <v>1244</v>
       </c>
       <c r="BV13" t="n">
-        <v>977</v>
+        <v>912</v>
       </c>
       <c r="BY13" t="n">
         <v>451</v>
@@ -4416,40 +4424,40 @@
         </is>
       </c>
       <c r="AQ14" t="n">
-        <v>2983</v>
+        <v>2977</v>
       </c>
       <c r="AR14" t="n">
         <v>1302</v>
       </c>
       <c r="AS14" t="n">
-        <v>2387</v>
+        <v>2351</v>
       </c>
       <c r="AT14" t="n">
-        <v>2451</v>
+        <v>2409</v>
       </c>
       <c r="AU14" t="n">
-        <v>2226</v>
+        <v>2200</v>
       </c>
       <c r="AV14" t="n">
-        <v>2605</v>
+        <v>2599</v>
       </c>
       <c r="AW14" t="n">
-        <v>2020</v>
+        <v>1987</v>
       </c>
       <c r="AX14" t="n">
-        <v>2978</v>
+        <v>2950</v>
       </c>
       <c r="AY14" t="n">
-        <v>1634</v>
+        <v>1622</v>
       </c>
       <c r="AZ14" t="n">
-        <v>2593</v>
+        <v>2578</v>
       </c>
       <c r="BA14" t="n">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="BB14" t="n">
-        <v>2340</v>
+        <v>2301</v>
       </c>
       <c r="BC14" t="n">
         <v>1104</v>
@@ -4458,10 +4466,10 @@
         <v>2528</v>
       </c>
       <c r="BE14" t="n">
-        <v>2163</v>
+        <v>2148</v>
       </c>
       <c r="BF14" t="n">
-        <v>1539</v>
+        <v>1557</v>
       </c>
       <c r="BG14" t="n">
         <v>2285</v>
@@ -4470,16 +4478,16 @@
         <v>3409</v>
       </c>
       <c r="BI14" t="n">
-        <v>2544</v>
+        <v>2534</v>
       </c>
       <c r="BJ14" t="n">
         <v>1633</v>
       </c>
       <c r="BK14" t="n">
-        <v>1213</v>
+        <v>1067</v>
       </c>
       <c r="BL14" t="n">
-        <v>1851</v>
+        <v>1830</v>
       </c>
       <c r="BM14" t="n">
         <v>2475</v>
@@ -4488,25 +4496,25 @@
         <v>2291</v>
       </c>
       <c r="BO14" t="n">
-        <v>1901</v>
+        <v>1891</v>
       </c>
       <c r="BP14" t="n">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="BQ14" t="n">
-        <v>5013</v>
+        <v>4997</v>
       </c>
       <c r="BR14" t="n">
         <v>2434</v>
       </c>
       <c r="BT14" t="n">
-        <v>1450</v>
+        <v>1442</v>
       </c>
       <c r="BU14" t="n">
-        <v>2735</v>
+        <v>2722</v>
       </c>
       <c r="BV14" t="n">
-        <v>2229</v>
+        <v>2214</v>
       </c>
       <c r="BY14" t="n">
         <v>5450</v>
@@ -4703,97 +4711,97 @@
         </is>
       </c>
       <c r="AQ15" t="n">
-        <v>3181</v>
+        <v>3150</v>
       </c>
       <c r="AR15" t="n">
-        <v>6159</v>
+        <v>6146</v>
       </c>
       <c r="AS15" t="n">
-        <v>5925</v>
+        <v>5887</v>
       </c>
       <c r="AT15" t="n">
-        <v>1839</v>
+        <v>1781</v>
       </c>
       <c r="AU15" t="n">
-        <v>2756</v>
+        <v>2717</v>
       </c>
       <c r="AV15" t="n">
-        <v>5188</v>
+        <v>5150</v>
       </c>
       <c r="AW15" t="n">
-        <v>4015</v>
+        <v>3994</v>
       </c>
       <c r="AX15" t="n">
-        <v>6905</v>
+        <v>6886</v>
       </c>
       <c r="AY15" t="n">
-        <v>5817</v>
+        <v>5750</v>
       </c>
       <c r="AZ15" t="n">
-        <v>2396</v>
+        <v>2320</v>
       </c>
       <c r="BA15" t="n">
-        <v>7059</v>
+        <v>7034</v>
       </c>
       <c r="BB15" t="n">
-        <v>4673</v>
+        <v>4628</v>
       </c>
       <c r="BC15" t="n">
-        <v>4339</v>
+        <v>4308</v>
       </c>
       <c r="BD15" t="n">
-        <v>4158</v>
+        <v>4142</v>
       </c>
       <c r="BE15" t="n">
-        <v>1778</v>
+        <v>1767</v>
       </c>
       <c r="BF15" t="n">
-        <v>3847</v>
+        <v>3827</v>
       </c>
       <c r="BG15" t="n">
         <v>4775</v>
       </c>
       <c r="BH15" t="n">
-        <v>4379</v>
+        <v>4378</v>
       </c>
       <c r="BI15" t="n">
-        <v>3768</v>
+        <v>3738</v>
       </c>
       <c r="BJ15" t="n">
-        <v>3723</v>
+        <v>3722</v>
       </c>
       <c r="BK15" t="n">
-        <v>3288</v>
+        <v>3272</v>
       </c>
       <c r="BL15" t="n">
-        <v>2439</v>
+        <v>2395</v>
       </c>
       <c r="BM15" t="n">
-        <v>3526</v>
+        <v>3499</v>
       </c>
       <c r="BN15" t="n">
-        <v>5412</v>
+        <v>5407</v>
       </c>
       <c r="BO15" t="n">
-        <v>2065</v>
+        <v>2016</v>
       </c>
       <c r="BP15" t="n">
-        <v>3501</v>
+        <v>3481</v>
       </c>
       <c r="BQ15" t="n">
-        <v>3988</v>
+        <v>3973</v>
       </c>
       <c r="BR15" t="n">
-        <v>3266</v>
+        <v>3207</v>
       </c>
       <c r="BT15" t="n">
-        <v>1957</v>
+        <v>1919</v>
       </c>
       <c r="BU15" t="n">
-        <v>2556</v>
+        <v>2542</v>
       </c>
       <c r="BV15" t="n">
-        <v>1689</v>
+        <v>1662</v>
       </c>
       <c r="BY15" t="n">
         <v>199</v>
@@ -4990,97 +4998,97 @@
         </is>
       </c>
       <c r="AQ16" t="n">
-        <v>1264</v>
+        <v>1238</v>
       </c>
       <c r="AR16" t="n">
-        <v>2238</v>
+        <v>2236</v>
       </c>
       <c r="AS16" t="n">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="AT16" t="n">
-        <v>1342</v>
+        <v>1331</v>
       </c>
       <c r="AU16" t="n">
-        <v>1427</v>
+        <v>1413</v>
       </c>
       <c r="AV16" t="n">
-        <v>1438</v>
+        <v>1430</v>
       </c>
       <c r="AW16" t="n">
-        <v>1164</v>
+        <v>1144</v>
       </c>
       <c r="AX16" t="n">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="AY16" t="n">
-        <v>1721</v>
+        <v>1695</v>
       </c>
       <c r="AZ16" t="n">
-        <v>777</v>
+        <v>756</v>
       </c>
       <c r="BA16" t="n">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="BB16" t="n">
-        <v>935</v>
+        <v>1761</v>
       </c>
       <c r="BC16" t="n">
-        <v>729</v>
+        <v>721</v>
       </c>
       <c r="BD16" t="n">
-        <v>1178</v>
+        <v>1175</v>
       </c>
       <c r="BE16" t="n">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="BF16" t="n">
-        <v>1445</v>
+        <v>1435</v>
       </c>
       <c r="BG16" t="n">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="BH16" t="n">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="BI16" t="n">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="BJ16" t="n">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="BK16" t="n">
-        <v>2110</v>
+        <v>2093</v>
       </c>
       <c r="BL16" t="n">
-        <v>1514</v>
+        <v>1496</v>
       </c>
       <c r="BM16" t="n">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="BN16" t="n">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="BO16" t="n">
-        <v>1295</v>
+        <v>1271</v>
       </c>
       <c r="BP16" t="n">
-        <v>1462</v>
+        <v>1447</v>
       </c>
       <c r="BQ16" t="n">
-        <v>1175</v>
+        <v>1154</v>
       </c>
       <c r="BR16" t="n">
-        <v>2767</v>
+        <v>2755</v>
       </c>
       <c r="BT16" t="n">
-        <v>1096</v>
+        <v>1086</v>
       </c>
       <c r="BU16" t="n">
-        <v>1262</v>
+        <v>1247</v>
       </c>
       <c r="BV16" t="n">
-        <v>740</v>
+        <v>711</v>
       </c>
       <c r="BY16" t="n">
         <v>3607</v>
@@ -5277,97 +5285,97 @@
         </is>
       </c>
       <c r="AQ17" t="n">
-        <v>2589</v>
+        <v>2536</v>
       </c>
       <c r="AR17" t="n">
-        <v>6572</v>
+        <v>6559</v>
       </c>
       <c r="AS17" t="n">
-        <v>3934</v>
+        <v>3894</v>
       </c>
       <c r="AT17" t="n">
-        <v>2558</v>
+        <v>2542</v>
       </c>
       <c r="AU17" t="n">
-        <v>3111</v>
+        <v>3085</v>
       </c>
       <c r="AV17" t="n">
-        <v>2063</v>
+        <v>2033</v>
       </c>
       <c r="AW17" t="n">
-        <v>2885</v>
+        <v>2858</v>
       </c>
       <c r="AX17" t="n">
-        <v>3394</v>
+        <v>4019</v>
       </c>
       <c r="AY17" t="n">
-        <v>5448</v>
+        <v>5373</v>
       </c>
       <c r="AZ17" t="n">
-        <v>4025</v>
+        <v>3963</v>
       </c>
       <c r="BA17" t="n">
-        <v>4180</v>
+        <v>4135</v>
       </c>
       <c r="BB17" t="n">
-        <v>2461</v>
+        <v>2395</v>
       </c>
       <c r="BC17" t="n">
-        <v>1085</v>
+        <v>1068</v>
       </c>
       <c r="BD17" t="n">
-        <v>4466</v>
+        <v>5801</v>
       </c>
       <c r="BE17" t="n">
-        <v>2510</v>
+        <v>2496</v>
       </c>
       <c r="BF17" t="n">
-        <v>1902</v>
+        <v>1880</v>
       </c>
       <c r="BG17" t="n">
-        <v>7822</v>
+        <v>7160</v>
       </c>
       <c r="BH17" t="n">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="BI17" t="n">
-        <v>3083</v>
+        <v>3068</v>
       </c>
       <c r="BJ17" t="n">
-        <v>2900</v>
+        <v>2894</v>
       </c>
       <c r="BK17" t="n">
-        <v>5869</v>
+        <v>5839</v>
       </c>
       <c r="BL17" t="n">
-        <v>2440</v>
+        <v>2395</v>
       </c>
       <c r="BM17" t="n">
-        <v>2789</v>
+        <v>4080</v>
       </c>
       <c r="BN17" t="n">
-        <v>4494</v>
+        <v>4488</v>
       </c>
       <c r="BO17" t="n">
-        <v>1965</v>
+        <v>1923</v>
       </c>
       <c r="BP17" t="n">
-        <v>2068</v>
+        <v>2049</v>
       </c>
       <c r="BQ17" t="n">
-        <v>3368</v>
+        <v>3335</v>
       </c>
       <c r="BR17" t="n">
-        <v>4173</v>
+        <v>4140</v>
       </c>
       <c r="BT17" t="n">
-        <v>1213</v>
+        <v>1183</v>
       </c>
       <c r="BU17" t="n">
-        <v>3001</v>
+        <v>2985</v>
       </c>
       <c r="BV17" t="n">
-        <v>3716</v>
+        <v>3662</v>
       </c>
       <c r="BY17" t="n">
         <v>19286</v>
@@ -5564,13 +5572,13 @@
         </is>
       </c>
       <c r="AQ18" t="n">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AR18" t="n">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AS18" t="n">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="AT18" t="n">
         <v>261</v>
@@ -5579,28 +5587,28 @@
         <v>217</v>
       </c>
       <c r="AV18" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AW18" t="n">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AX18" t="n">
         <v>320</v>
       </c>
       <c r="AY18" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AZ18" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="BA18" t="n">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="BB18" t="n">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="BC18" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="BD18" t="n">
         <v>370</v>
@@ -5618,43 +5626,43 @@
         <v>355</v>
       </c>
       <c r="BI18" t="n">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="BJ18" t="n">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BK18" t="n">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="BL18" t="n">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="BM18" t="n">
         <v>103</v>
       </c>
       <c r="BN18" t="n">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="BO18" t="n">
         <v>544</v>
       </c>
       <c r="BP18" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="BQ18" t="n">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="BR18" t="n">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="BT18" t="n">
         <v>318</v>
       </c>
       <c r="BU18" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BV18" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BY18" t="n">
         <v>3433</v>
@@ -5851,7 +5859,7 @@
         </is>
       </c>
       <c r="AQ19" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AR19" t="n">
         <v>182</v>
@@ -5866,16 +5874,16 @@
         <v>91</v>
       </c>
       <c r="AV19" t="n">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AW19" t="n">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AX19" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AY19" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AZ19" t="n">
         <v>189</v>
@@ -5911,10 +5919,10 @@
         <v>674</v>
       </c>
       <c r="BK19" t="n">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BL19" t="n">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="BM19" t="n">
         <v>174</v>
@@ -5929,7 +5937,7 @@
         <v>362</v>
       </c>
       <c r="BQ19" t="n">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="BR19" t="n">
         <v>340</v>
@@ -6138,100 +6146,100 @@
         </is>
       </c>
       <c r="AQ20" t="n">
-        <v>6749</v>
+        <v>6716</v>
       </c>
       <c r="AR20" t="n">
-        <v>8914</v>
+        <v>8910</v>
       </c>
       <c r="AS20" t="n">
-        <v>10966</v>
+        <v>10849</v>
       </c>
       <c r="AT20" t="n">
-        <v>7129</v>
+        <v>7036</v>
       </c>
       <c r="AU20" t="n">
-        <v>11693</v>
+        <v>11580</v>
       </c>
       <c r="AV20" t="n">
-        <v>9263</v>
+        <v>9204</v>
       </c>
       <c r="AW20" t="n">
-        <v>6782</v>
+        <v>6744</v>
       </c>
       <c r="AX20" t="n">
-        <v>7809</v>
+        <v>8916</v>
       </c>
       <c r="AY20" t="n">
-        <v>7276</v>
+        <v>7166</v>
       </c>
       <c r="AZ20" t="n">
-        <v>6242</v>
+        <v>6170</v>
       </c>
       <c r="BA20" t="n">
-        <v>10469</v>
+        <v>10361</v>
       </c>
       <c r="BB20" t="n">
-        <v>4801</v>
+        <v>4746</v>
       </c>
       <c r="BC20" t="n">
-        <v>4725</v>
+        <v>4720</v>
       </c>
       <c r="BD20" t="n">
-        <v>4223</v>
+        <v>4198</v>
       </c>
       <c r="BE20" t="n">
-        <v>4449</v>
+        <v>4388</v>
       </c>
       <c r="BF20" t="n">
-        <v>6812</v>
+        <v>6786</v>
       </c>
       <c r="BG20" t="n">
-        <v>3425</v>
+        <v>3137</v>
       </c>
       <c r="BH20" t="n">
         <v>3165</v>
       </c>
       <c r="BI20" t="n">
-        <v>5181</v>
+        <v>5120</v>
       </c>
       <c r="BJ20" t="n">
-        <v>4054</v>
+        <v>4053</v>
       </c>
       <c r="BK20" t="n">
-        <v>7302</v>
+        <v>7241</v>
       </c>
       <c r="BL20" t="n">
-        <v>7979</v>
+        <v>7887</v>
       </c>
       <c r="BM20" t="n">
-        <v>3896</v>
+        <v>3828</v>
       </c>
       <c r="BN20" t="n">
-        <v>5358</v>
+        <v>5342</v>
       </c>
       <c r="BO20" t="n">
-        <v>6866</v>
+        <v>6807</v>
       </c>
       <c r="BP20" t="n">
-        <v>5568</v>
+        <v>5546</v>
       </c>
       <c r="BQ20" t="n">
-        <v>8675</v>
+        <v>8528</v>
       </c>
       <c r="BR20" t="n">
-        <v>7188</v>
+        <v>7117</v>
       </c>
       <c r="BT20" t="n">
-        <v>6412</v>
+        <v>6388</v>
       </c>
       <c r="BU20" t="n">
-        <v>5144</v>
+        <v>5117</v>
       </c>
       <c r="BV20" t="n">
-        <v>3737</v>
+        <v>3679</v>
       </c>
       <c r="BW20" t="n">
-        <v>37308</v>
+        <v>32406</v>
       </c>
     </row>
     <row r="21">
@@ -6401,11 +6409,6 @@
           <t>More Than 120 Days</t>
         </is>
       </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Expired</t>
-        </is>
-      </c>
       <c r="AN21" t="n">
         <v>10</v>
       </c>
@@ -6423,52 +6426,52 @@
         <v>388</v>
       </c>
       <c r="AR21" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AS21" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AT21" t="n">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="AU21" t="n">
-        <v>674</v>
+        <v>662</v>
       </c>
       <c r="AV21" t="n">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="AW21" t="n">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="AX21" t="n">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AY21" t="n">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="AZ21" t="n">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="BA21" t="n">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="BB21" t="n">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="BC21" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BD21" t="n">
         <v>109</v>
       </c>
       <c r="BE21" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="BF21" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BG21" t="n">
-        <v>211</v>
+        <v>5161</v>
       </c>
       <c r="BH21" t="n">
         <v>198</v>
@@ -6477,40 +6480,37 @@
         <v>426</v>
       </c>
       <c r="BK21" t="n">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="BL21" t="n">
         <v>84</v>
       </c>
       <c r="BM21" t="n">
-        <v>94</v>
+        <v>192</v>
       </c>
       <c r="BN21" t="n">
         <v>865</v>
       </c>
       <c r="BO21" t="n">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="BP21" t="n">
         <v>490</v>
       </c>
       <c r="BQ21" t="n">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="BR21" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BT21" t="n">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="BU21" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="BV21" t="n">
-        <v>887</v>
-      </c>
-      <c r="BW21" t="n">
-        <v>3375</v>
+        <v>882</v>
       </c>
     </row>
     <row r="22">
@@ -6704,52 +6704,52 @@
         </is>
       </c>
       <c r="AQ22" t="n">
-        <v>6998</v>
+        <v>6937</v>
       </c>
       <c r="AR22" t="n">
-        <v>11128</v>
+        <v>11114</v>
       </c>
       <c r="AS22" t="n">
-        <v>7294</v>
+        <v>7261</v>
       </c>
       <c r="AT22" t="n">
-        <v>5520</v>
+        <v>5491</v>
       </c>
       <c r="AU22" t="n">
-        <v>5442</v>
+        <v>5422</v>
       </c>
       <c r="AV22" t="n">
-        <v>6421</v>
+        <v>6315</v>
       </c>
       <c r="AW22" t="n">
-        <v>6932</v>
+        <v>6914</v>
       </c>
       <c r="AX22" t="n">
-        <v>5469</v>
+        <v>6529</v>
       </c>
       <c r="AY22" t="n">
-        <v>9069</v>
+        <v>8997</v>
       </c>
       <c r="AZ22" t="n">
-        <v>2905</v>
+        <v>2864</v>
       </c>
       <c r="BA22" t="n">
-        <v>8804</v>
+        <v>8767</v>
       </c>
       <c r="BB22" t="n">
-        <v>3102</v>
+        <v>3038</v>
       </c>
       <c r="BC22" t="n">
-        <v>5818</v>
+        <v>5798</v>
       </c>
       <c r="BD22" t="n">
-        <v>4931</v>
+        <v>4906</v>
       </c>
       <c r="BE22" t="n">
-        <v>3626</v>
+        <v>3581</v>
       </c>
       <c r="BF22" t="n">
-        <v>5387</v>
+        <v>5361</v>
       </c>
       <c r="BG22" t="n">
         <v>2496</v>
@@ -6758,46 +6758,46 @@
         <v>3102</v>
       </c>
       <c r="BI22" t="n">
-        <v>4822</v>
+        <v>4790</v>
       </c>
       <c r="BJ22" t="n">
-        <v>2386</v>
+        <v>2383</v>
       </c>
       <c r="BK22" t="n">
-        <v>4082</v>
+        <v>3965</v>
       </c>
       <c r="BL22" t="n">
-        <v>7176</v>
+        <v>7091</v>
       </c>
       <c r="BM22" t="n">
-        <v>4002</v>
+        <v>3983</v>
       </c>
       <c r="BN22" t="n">
-        <v>7348</v>
+        <v>7322</v>
       </c>
       <c r="BO22" t="n">
-        <v>6448</v>
+        <v>6416</v>
       </c>
       <c r="BP22" t="n">
-        <v>5073</v>
+        <v>5059</v>
       </c>
       <c r="BQ22" t="n">
-        <v>8510</v>
+        <v>8436</v>
       </c>
       <c r="BR22" t="n">
-        <v>4714</v>
+        <v>4655</v>
       </c>
       <c r="BT22" t="n">
-        <v>4216</v>
+        <v>4196</v>
       </c>
       <c r="BU22" t="n">
-        <v>2422</v>
+        <v>2407</v>
       </c>
       <c r="BV22" t="n">
-        <v>939</v>
+        <v>1608</v>
       </c>
       <c r="BW22" t="n">
-        <v>11244</v>
+        <v>17112</v>
       </c>
     </row>
     <row r="23">
@@ -7000,13 +7000,13 @@
         <v>1346</v>
       </c>
       <c r="AT23" t="n">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="AU23" t="n">
         <v>957</v>
       </c>
       <c r="AV23" t="n">
-        <v>629</v>
+        <v>589</v>
       </c>
       <c r="AW23" t="n">
         <v>1371</v>
@@ -7018,7 +7018,7 @@
         <v>708</v>
       </c>
       <c r="AZ23" t="n">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="BA23" t="n">
         <v>560</v>
@@ -7039,7 +7039,7 @@
         <v>834</v>
       </c>
       <c r="BG23" t="n">
-        <v>2750</v>
+        <v>2594</v>
       </c>
       <c r="BH23" t="n">
         <v>1653</v>
@@ -7069,7 +7069,7 @@
         <v>241</v>
       </c>
       <c r="BQ23" t="n">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="BR23" t="n">
         <v>656</v>
@@ -7081,7 +7081,7 @@
         <v>597</v>
       </c>
       <c r="BV23" t="n">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="BW23" t="n">
         <v>24307</v>
@@ -7278,94 +7278,94 @@
         </is>
       </c>
       <c r="AQ24" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="AR24" t="n">
         <v>489</v>
       </c>
       <c r="AS24" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AT24" t="n">
         <v>249</v>
       </c>
       <c r="AU24" t="n">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AV24" t="n">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AW24" t="n">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="AX24" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AY24" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AZ24" t="n">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="BA24" t="n">
         <v>249</v>
       </c>
       <c r="BB24" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>194</v>
+      </c>
+      <c r="BD24" t="n">
         <v>156</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>198</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>157</v>
       </c>
       <c r="BE24" t="n">
         <v>162</v>
       </c>
       <c r="BF24" t="n">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="BG24" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="BH24" t="n">
         <v>182</v>
       </c>
       <c r="BI24" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="BJ24" t="n">
         <v>343</v>
       </c>
       <c r="BK24" t="n">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="BL24" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="BM24" t="n">
         <v>448</v>
       </c>
       <c r="BN24" t="n">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BO24" t="n">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="BP24" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BQ24" t="n">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="BR24" t="n">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="BT24" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="BU24" t="n">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="BV24" t="n">
         <v>260</v>
@@ -7565,7 +7565,7 @@
         </is>
       </c>
       <c r="AQ25" t="n">
-        <v>5007</v>
+        <v>4997</v>
       </c>
       <c r="AR25" t="n">
         <v>4850</v>
@@ -7574,43 +7574,43 @@
         <v>3224</v>
       </c>
       <c r="AT25" t="n">
-        <v>2682</v>
+        <v>2672</v>
       </c>
       <c r="AU25" t="n">
-        <v>2469</v>
+        <v>2459</v>
       </c>
       <c r="AV25" t="n">
-        <v>2798</v>
+        <v>2783</v>
       </c>
       <c r="AW25" t="n">
-        <v>2761</v>
+        <v>2756</v>
       </c>
       <c r="AX25" t="n">
         <v>3950</v>
       </c>
       <c r="AY25" t="n">
-        <v>3770</v>
+        <v>3655</v>
       </c>
       <c r="AZ25" t="n">
-        <v>852</v>
+        <v>792</v>
       </c>
       <c r="BA25" t="n">
         <v>3040</v>
       </c>
       <c r="BB25" t="n">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="BC25" t="n">
-        <v>5281</v>
+        <v>5220</v>
       </c>
       <c r="BD25" t="n">
         <v>2392</v>
       </c>
       <c r="BE25" t="n">
-        <v>1455</v>
+        <v>1444</v>
       </c>
       <c r="BF25" t="n">
-        <v>1756</v>
+        <v>1731</v>
       </c>
       <c r="BG25" t="n">
         <v>1492</v>
@@ -7634,19 +7634,19 @@
         <v>2531</v>
       </c>
       <c r="BN25" t="n">
-        <v>4924</v>
+        <v>4814</v>
       </c>
       <c r="BO25" t="n">
-        <v>3322</v>
+        <v>3287</v>
       </c>
       <c r="BP25" t="n">
-        <v>3177</v>
+        <v>3172</v>
       </c>
       <c r="BQ25" t="n">
         <v>3773</v>
       </c>
       <c r="BR25" t="n">
-        <v>959</v>
+        <v>854</v>
       </c>
       <c r="BT25" t="n">
         <v>2924</v>
@@ -7852,22 +7852,22 @@
         </is>
       </c>
       <c r="AQ26" t="n">
-        <v>2117</v>
+        <v>2092</v>
       </c>
       <c r="AR26" t="n">
         <v>8408</v>
       </c>
       <c r="AS26" t="n">
-        <v>1028</v>
+        <v>1038</v>
       </c>
       <c r="AT26" t="n">
-        <v>5085</v>
+        <v>5075</v>
       </c>
       <c r="AU26" t="n">
         <v>2128</v>
       </c>
       <c r="AV26" t="n">
-        <v>1880</v>
+        <v>1885</v>
       </c>
       <c r="AW26" t="n">
         <v>1511</v>
@@ -7876,10 +7876,10 @@
         <v>1499</v>
       </c>
       <c r="AY26" t="n">
-        <v>9004</v>
+        <v>8894</v>
       </c>
       <c r="AZ26" t="n">
-        <v>3063</v>
+        <v>3058</v>
       </c>
       <c r="BA26" t="n">
         <v>3643</v>
@@ -7888,7 +7888,7 @@
         <v>4624</v>
       </c>
       <c r="BC26" t="n">
-        <v>3779</v>
+        <v>3759</v>
       </c>
       <c r="BD26" t="n">
         <v>1528</v>
@@ -7897,7 +7897,7 @@
         <v>1609</v>
       </c>
       <c r="BF26" t="n">
-        <v>7704</v>
+        <v>7694</v>
       </c>
       <c r="BG26" t="n">
         <v>2029</v>
@@ -7915,19 +7915,19 @@
         <v>2638</v>
       </c>
       <c r="BL26" t="n">
-        <v>1767</v>
+        <v>1761</v>
       </c>
       <c r="BM26" t="n">
-        <v>1506</v>
+        <v>1501</v>
       </c>
       <c r="BN26" t="n">
         <v>10062</v>
       </c>
       <c r="BO26" t="n">
-        <v>4155</v>
+        <v>4150</v>
       </c>
       <c r="BP26" t="n">
-        <v>3558</v>
+        <v>3553</v>
       </c>
       <c r="BQ26" t="n">
         <v>3423</v>
@@ -7936,13 +7936,13 @@
         <v>1603</v>
       </c>
       <c r="BT26" t="n">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="BU26" t="n">
         <v>1598</v>
       </c>
       <c r="BV26" t="n">
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="BY26" t="n">
         <v>3848</v>
@@ -8139,7 +8139,7 @@
         </is>
       </c>
       <c r="AQ27" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AR27" t="n">
         <v>202</v>
@@ -8154,10 +8154,10 @@
         <v>140</v>
       </c>
       <c r="AV27" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AW27" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AX27" t="n">
         <v>159</v>
@@ -8166,13 +8166,13 @@
         <v>105</v>
       </c>
       <c r="AZ27" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="BA27" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="BB27" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BC27" t="n">
         <v>91</v>
@@ -8184,7 +8184,7 @@
         <v>108</v>
       </c>
       <c r="BF27" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BG27" t="n">
         <v>1635</v>
@@ -8199,16 +8199,16 @@
         <v>195</v>
       </c>
       <c r="BK27" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="BL27" t="n">
         <v>120</v>
       </c>
       <c r="BM27" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BN27" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BO27" t="n">
         <v>117</v>
@@ -8217,7 +8217,7 @@
         <v>146</v>
       </c>
       <c r="BQ27" t="n">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="BR27" t="n">
         <v>89</v>
@@ -8226,13 +8226,13 @@
         <v>129</v>
       </c>
       <c r="BU27" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BV27" t="n">
         <v>93</v>
       </c>
       <c r="BX27" t="n">
-        <v>942</v>
+        <v>342</v>
       </c>
     </row>
     <row r="28">
@@ -8430,7 +8430,7 @@
         <v>36</v>
       </c>
       <c r="AT28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU28" t="n">
         <v>30</v>
@@ -8718,7 +8718,7 @@
         <v>64</v>
       </c>
       <c r="AW29" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AX29" t="n">
         <v>54</v>
@@ -8736,7 +8736,7 @@
         <v>52</v>
       </c>
       <c r="BC29" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="BD29" t="n">
         <v>43</v>
@@ -8754,7 +8754,7 @@
         <v>78</v>
       </c>
       <c r="BI29" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BJ29" t="n">
         <v>92</v>
@@ -8763,7 +8763,7 @@
         <v>44</v>
       </c>
       <c r="BL29" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BM29" t="n">
         <v>18</v>
@@ -8772,7 +8772,7 @@
         <v>33</v>
       </c>
       <c r="BO29" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="BP29" t="n">
         <v>48</v>
@@ -8987,7 +8987,7 @@
         <v>24</v>
       </c>
       <c r="AR30" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AS30" t="n">
         <v>42</v>
@@ -9005,7 +9005,7 @@
         <v>82</v>
       </c>
       <c r="AX30" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AY30" t="n">
         <v>76</v>
@@ -9014,7 +9014,7 @@
         <v>54</v>
       </c>
       <c r="BA30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB30" t="n">
         <v>22</v>
@@ -9032,13 +9032,13 @@
         <v>22</v>
       </c>
       <c r="BG30" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BH30" t="n">
         <v>123</v>
       </c>
       <c r="BI30" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BJ30" t="n">
         <v>79</v>
@@ -9047,7 +9047,7 @@
         <v>26</v>
       </c>
       <c r="BL30" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BM30" t="n">
         <v>27</v>
@@ -9056,25 +9056,25 @@
         <v>45</v>
       </c>
       <c r="BO30" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BP30" t="n">
         <v>63</v>
       </c>
       <c r="BQ30" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="BR30" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BT30" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BU30" t="n">
         <v>26</v>
       </c>
       <c r="BV30" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BX30" t="n">
         <v>17</v>
@@ -9295,19 +9295,19 @@
         <v>68</v>
       </c>
       <c r="AY31" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AZ31" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BA31" t="n">
         <v>147</v>
       </c>
       <c r="BB31" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BC31" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="BD31" t="n">
         <v>113</v>
@@ -9316,7 +9316,7 @@
         <v>117</v>
       </c>
       <c r="BF31" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BG31" t="n">
         <v>354</v>
@@ -9325,43 +9325,43 @@
         <v>99</v>
       </c>
       <c r="BI31" t="n">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="BJ31" t="n">
         <v>66</v>
       </c>
       <c r="BK31" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="BL31" t="n">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BM31" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BN31" t="n">
         <v>57</v>
       </c>
       <c r="BO31" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="BP31" t="n">
         <v>95</v>
       </c>
       <c r="BQ31" t="n">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="BR31" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="BT31" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BU31" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BV31" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="BY31" t="n">
         <v>28</v>
@@ -9553,10 +9553,10 @@
         </is>
       </c>
       <c r="AQ32" t="n">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="AR32" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="AS32" t="n">
         <v>176</v>
@@ -9565,10 +9565,10 @@
         <v>74</v>
       </c>
       <c r="AU32" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AV32" t="n">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="AW32" t="n">
         <v>81</v>
@@ -9580,13 +9580,13 @@
         <v>58</v>
       </c>
       <c r="AZ32" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="BA32" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="BB32" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="BC32" t="n">
         <v>103</v>
@@ -9595,7 +9595,7 @@
         <v>79</v>
       </c>
       <c r="BE32" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BG32" t="n">
         <v>252</v>
@@ -9604,16 +9604,16 @@
         <v>121</v>
       </c>
       <c r="BI32" t="n">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="BJ32" t="n">
         <v>228</v>
       </c>
       <c r="BK32" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="BL32" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="BM32" t="n">
         <v>84</v>
@@ -9634,13 +9634,13 @@
         <v>62</v>
       </c>
       <c r="BT32" t="n">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="BU32" t="n">
         <v>42</v>
       </c>
       <c r="BV32" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="BX32" t="n">
         <v>58</v>
@@ -9832,7 +9832,7 @@
         </is>
       </c>
       <c r="AQ33" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AR33" t="n">
         <v>105</v>
@@ -9841,16 +9841,16 @@
         <v>49</v>
       </c>
       <c r="AT33" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AV33" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW33" t="n">
         <v>25</v>
       </c>
       <c r="AX33" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AY33" t="n">
         <v>26</v>
@@ -9892,7 +9892,7 @@
         <v>20</v>
       </c>
       <c r="BL33" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BM33" t="n">
         <v>44</v>
@@ -9907,13 +9907,13 @@
         <v>50</v>
       </c>
       <c r="BQ33" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="BR33" t="n">
         <v>37</v>
       </c>
       <c r="BT33" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BU33" t="n">
         <v>39</v>
@@ -10037,6 +10037,11 @@
           <t>More Than 120 Days</t>
         </is>
       </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>More Than 120 Days</t>
+        </is>
+      </c>
       <c r="Y34" t="inlineStr">
         <is>
           <t>More Than 120 Days</t>
@@ -10111,97 +10116,100 @@
         </is>
       </c>
       <c r="AQ34" t="n">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="AR34" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="AS34" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="AU34" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AV34" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AW34" t="n">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="AX34" t="n">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="AY34" t="n">
+        <v>144</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>413</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>165</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>295</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>223</v>
+      </c>
+      <c r="BD34" t="n">
         <v>161</v>
       </c>
-      <c r="AZ34" t="n">
-        <v>130</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>179</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>304</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>230</v>
-      </c>
-      <c r="BD34" t="n">
-        <v>167</v>
-      </c>
       <c r="BE34" t="n">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="BF34" t="n">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="BG34" t="n">
-        <v>68</v>
+        <v>4747</v>
       </c>
       <c r="BH34" t="n">
         <v>117</v>
       </c>
       <c r="BI34" t="n">
-        <v>88</v>
+        <v>71</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>34</v>
       </c>
       <c r="BK34" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="BL34" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="BM34" t="n">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="BN34" t="n">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="BO34" t="n">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="BP34" t="n">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="BQ34" t="n">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="BR34" t="n">
+        <v>23</v>
+      </c>
+      <c r="BT34" t="n">
         <v>51</v>
       </c>
-      <c r="BT34" t="n">
-        <v>71</v>
-      </c>
       <c r="BU34" t="n">
-        <v>179</v>
+        <v>474</v>
       </c>
       <c r="BV34" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="BY34" t="n">
-        <v>16686</v>
+        <v>8158</v>
       </c>
     </row>
     <row r="35">
@@ -10390,73 +10398,73 @@
         </is>
       </c>
       <c r="AQ35" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="AR35" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AS35" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AT35" t="n">
         <v>352</v>
       </c>
       <c r="AU35" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AV35" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="AW35" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AX35" t="n">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="AY35" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ35" t="n">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="BA35" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="BB35" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="BC35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD35" t="n">
         <v>186</v>
       </c>
       <c r="BE35" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="BF35" t="n">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="BG35" t="n">
         <v>119</v>
       </c>
       <c r="BH35" t="n">
-        <v>394</v>
+        <v>286</v>
       </c>
       <c r="BI35" t="n">
         <v>617</v>
       </c>
       <c r="BJ35" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BK35" t="n">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="BL35" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BM35" t="n">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="BN35" t="n">
         <v>183</v>
@@ -10465,22 +10473,22 @@
         <v>51</v>
       </c>
       <c r="BP35" t="n">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="BQ35" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="BR35" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="BT35" t="n">
         <v>136</v>
       </c>
       <c r="BU35" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BV35" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36">
@@ -10669,7 +10677,7 @@
         </is>
       </c>
       <c r="AQ36" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AR36" t="n">
         <v>137</v>
@@ -10678,19 +10686,19 @@
         <v>174</v>
       </c>
       <c r="AT36" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="AU36" t="n">
         <v>161</v>
       </c>
       <c r="AV36" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AW36" t="n">
         <v>185</v>
       </c>
       <c r="AX36" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="AY36" t="n">
         <v>46</v>
@@ -10702,10 +10710,10 @@
         <v>117</v>
       </c>
       <c r="BB36" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="BC36" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="BD36" t="n">
         <v>105</v>
@@ -10717,13 +10725,13 @@
         <v>68</v>
       </c>
       <c r="BG36" t="n">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="BH36" t="n">
         <v>87</v>
       </c>
       <c r="BI36" t="n">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="BJ36" t="n">
         <v>183</v>
@@ -10735,7 +10743,7 @@
         <v>101</v>
       </c>
       <c r="BM36" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BN36" t="n">
         <v>208</v>
@@ -10750,7 +10758,7 @@
         <v>118</v>
       </c>
       <c r="BR36" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="BT36" t="n">
         <v>116</v>
@@ -10759,7 +10767,7 @@
         <v>85</v>
       </c>
       <c r="BV36" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37">
@@ -10953,97 +10961,97 @@
         </is>
       </c>
       <c r="AQ37" t="n">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="AR37" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="AS37" t="n">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="AT37" t="n">
+        <v>269</v>
+      </c>
+      <c r="AU37" t="n">
         <v>270</v>
       </c>
-      <c r="AU37" t="n">
-        <v>273</v>
-      </c>
       <c r="AV37" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AW37" t="n">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AX37" t="n">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="AY37" t="n">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="AZ37" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="BA37" t="n">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="BB37" t="n">
+        <v>55</v>
+      </c>
+      <c r="BC37" t="n">
         <v>73</v>
       </c>
-      <c r="BC37" t="n">
-        <v>76</v>
-      </c>
       <c r="BD37" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="BE37" t="n">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="BF37" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="BG37" t="n">
         <v>235</v>
       </c>
       <c r="BH37" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BI37" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BJ37" t="n">
         <v>96</v>
       </c>
       <c r="BK37" t="n">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="BL37" t="n">
-        <v>673</v>
+        <v>664</v>
       </c>
       <c r="BM37" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="BN37" t="n">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="BO37" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BP37" t="n">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="BQ37" t="n">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="BR37" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BT37" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BU37" t="n">
         <v>121</v>
       </c>
       <c r="BV37" t="n">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="BX37" t="n">
         <v>458</v>
@@ -11240,100 +11248,100 @@
         </is>
       </c>
       <c r="AQ38" t="n">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="AR38" t="n">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="AS38" t="n">
-        <v>671</v>
+        <v>655</v>
       </c>
       <c r="AT38" t="n">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="AU38" t="n">
-        <v>674</v>
+        <v>665</v>
       </c>
       <c r="AV38" t="n">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="AW38" t="n">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="AX38" t="n">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="AY38" t="n">
-        <v>1555</v>
+        <v>1538</v>
       </c>
       <c r="AZ38" t="n">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="BA38" t="n">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="BB38" t="n">
-        <v>805</v>
+        <v>778</v>
       </c>
       <c r="BC38" t="n">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="BD38" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BE38" t="n">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="BF38" t="n">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="BG38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BH38" t="n">
         <v>1</v>
       </c>
       <c r="BI38" t="n">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="BJ38" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BK38" t="n">
-        <v>707</v>
+        <v>695</v>
       </c>
       <c r="BL38" t="n">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="BM38" t="n">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="BN38" t="n">
         <v>523</v>
       </c>
       <c r="BO38" t="n">
-        <v>1368</v>
+        <v>1363</v>
       </c>
       <c r="BP38" t="n">
-        <v>1229</v>
+        <v>1217</v>
       </c>
       <c r="BQ38" t="n">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="BR38" t="n">
-        <v>974</v>
+        <v>962</v>
       </c>
       <c r="BT38" t="n">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="BU38" t="n">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="BV38" t="n">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="BX38" t="n">
-        <v>1738</v>
+        <v>238</v>
       </c>
     </row>
     <row r="39">
@@ -11527,13 +11535,13 @@
         </is>
       </c>
       <c r="AQ39" t="n">
-        <v>532</v>
+        <v>511</v>
       </c>
       <c r="AR39" t="n">
         <v>621</v>
       </c>
       <c r="AS39" t="n">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AT39" t="n">
         <v>539</v>
@@ -11542,28 +11550,28 @@
         <v>351</v>
       </c>
       <c r="AV39" t="n">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="AW39" t="n">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="AX39" t="n">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="AY39" t="n">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="AZ39" t="n">
-        <v>730</v>
+        <v>714</v>
       </c>
       <c r="BA39" t="n">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="BB39" t="n">
-        <v>504</v>
+        <v>477</v>
       </c>
       <c r="BC39" t="n">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="BD39" t="n">
         <v>616</v>
@@ -11581,7 +11589,7 @@
         <v>701</v>
       </c>
       <c r="BI39" t="n">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="BJ39" t="n">
         <v>729</v>
@@ -11590,34 +11598,34 @@
         <v>606</v>
       </c>
       <c r="BL39" t="n">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="BM39" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="BN39" t="n">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="BO39" t="n">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="BP39" t="n">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="BQ39" t="n">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="BR39" t="n">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="BT39" t="n">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BU39" t="n">
         <v>1072</v>
       </c>
       <c r="BV39" t="n">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="BY39" t="n">
         <v>3188</v>
@@ -11814,97 +11822,97 @@
         </is>
       </c>
       <c r="AQ40" t="n">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="AR40" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AS40" t="n">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="AT40" t="n">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AU40" t="n">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="AV40" t="n">
         <v>151</v>
       </c>
       <c r="AW40" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AX40" t="n">
-        <v>265</v>
+        <v>382</v>
       </c>
       <c r="AY40" t="n">
-        <v>906</v>
+        <v>888</v>
       </c>
       <c r="AZ40" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="BA40" t="n">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="BB40" t="n">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="BC40" t="n">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="BD40" t="n">
-        <v>489</v>
+        <v>605</v>
       </c>
       <c r="BE40" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="BF40" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BG40" t="n">
-        <v>9585</v>
+        <v>8864</v>
       </c>
       <c r="BH40" t="n">
         <v>739</v>
       </c>
       <c r="BI40" t="n">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="BJ40" t="n">
         <v>794</v>
       </c>
       <c r="BK40" t="n">
-        <v>732</v>
+        <v>846</v>
       </c>
       <c r="BL40" t="n">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="BM40" t="n">
-        <v>425</v>
+        <v>903</v>
       </c>
       <c r="BN40" t="n">
         <v>757</v>
       </c>
       <c r="BO40" t="n">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="BP40" t="n">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="BQ40" t="n">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="BR40" t="n">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="BT40" t="n">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="BU40" t="n">
         <v>987</v>
       </c>
       <c r="BV40" t="n">
-        <v>156</v>
+        <v>753</v>
       </c>
       <c r="BY40" t="n">
         <v>11</v>
@@ -12101,97 +12109,97 @@
         </is>
       </c>
       <c r="AQ41" t="n">
-        <v>1510</v>
+        <v>1504</v>
       </c>
       <c r="AR41" t="n">
         <v>1797</v>
       </c>
       <c r="AS41" t="n">
-        <v>1666</v>
+        <v>1658</v>
       </c>
       <c r="AT41" t="n">
-        <v>1115</v>
+        <v>1106</v>
       </c>
       <c r="AU41" t="n">
-        <v>995</v>
+        <v>978</v>
       </c>
       <c r="AV41" t="n">
-        <v>1235</v>
+        <v>1226</v>
       </c>
       <c r="AW41" t="n">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="AX41" t="n">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="AY41" t="n">
-        <v>1093</v>
+        <v>1068</v>
       </c>
       <c r="AZ41" t="n">
-        <v>1146</v>
+        <v>1132</v>
       </c>
       <c r="BA41" t="n">
         <v>1732</v>
       </c>
       <c r="BB41" t="n">
-        <v>1135</v>
+        <v>1117</v>
       </c>
       <c r="BC41" t="n">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="BD41" t="n">
-        <v>946</v>
+        <v>1265</v>
       </c>
       <c r="BE41" t="n">
-        <v>1550</v>
+        <v>1545</v>
       </c>
       <c r="BF41" t="n">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="BG41" t="n">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="BH41" t="n">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="BI41" t="n">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="BJ41" t="n">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="BK41" t="n">
-        <v>2096</v>
+        <v>2081</v>
       </c>
       <c r="BL41" t="n">
-        <v>1598</v>
+        <v>1559</v>
       </c>
       <c r="BM41" t="n">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="BN41" t="n">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="BO41" t="n">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="BP41" t="n">
-        <v>1514</v>
+        <v>1509</v>
       </c>
       <c r="BQ41" t="n">
-        <v>1326</v>
+        <v>1315</v>
       </c>
       <c r="BR41" t="n">
-        <v>1567</v>
+        <v>1548</v>
       </c>
       <c r="BT41" t="n">
-        <v>1506</v>
+        <v>1503</v>
       </c>
       <c r="BU41" t="n">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="BV41" t="n">
-        <v>1188</v>
+        <v>1498</v>
       </c>
       <c r="BY41" t="n">
         <v>14865</v>
@@ -12394,7 +12402,7 @@
         <v>41</v>
       </c>
       <c r="AS42" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AT42" t="n">
         <v>166</v>
@@ -12415,7 +12423,7 @@
         <v>107</v>
       </c>
       <c r="AZ42" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BA42" t="n">
         <v>148</v>
@@ -12430,7 +12438,7 @@
         <v>52</v>
       </c>
       <c r="BE42" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BF42" t="n">
         <v>55</v>
@@ -12448,7 +12456,7 @@
         <v>177</v>
       </c>
       <c r="BK42" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BL42" t="n">
         <v>84</v>
@@ -12466,16 +12474,16 @@
         <v>99</v>
       </c>
       <c r="BQ42" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BR42" t="n">
         <v>119</v>
       </c>
       <c r="BT42" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BU42" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="BV42" t="n">
         <v>42</v>
@@ -12626,6 +12634,11 @@
           <t>More Than 120 Days</t>
         </is>
       </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>More Than 120 Days</t>
+        </is>
+      </c>
       <c r="AM43" t="inlineStr">
         <is>
           <t>Expired</t>
@@ -12645,43 +12658,43 @@
         </is>
       </c>
       <c r="AQ43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR43" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AS43" t="n">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="AT43" t="n">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="AU43" t="n">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="AV43" t="n">
         <v>968</v>
       </c>
       <c r="AW43" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AX43" t="n">
         <v>348</v>
       </c>
       <c r="AY43" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="BB43" t="n">
-        <v>862</v>
+        <v>850</v>
       </c>
       <c r="BC43" t="n">
         <v>272</v>
       </c>
       <c r="BD43" t="n">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="BE43" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BF43" t="n">
         <v>257</v>
@@ -12699,7 +12712,7 @@
         <v>141</v>
       </c>
       <c r="BL43" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="BM43" t="n">
         <v>94</v>
@@ -12711,13 +12724,16 @@
         <v>2</v>
       </c>
       <c r="BP43" t="n">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="BR43" t="n">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="BU43" t="n">
-        <v>193</v>
+        <v>188</v>
+      </c>
+      <c r="BV43" t="n">
+        <v>96</v>
       </c>
       <c r="BY43" t="n">
         <v>5192</v>
@@ -12914,100 +12930,100 @@
         </is>
       </c>
       <c r="AQ44" t="n">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="AR44" t="n">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="AS44" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="AT44" t="n">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="AU44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV44" t="n">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="AW44" t="n">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="AX44" t="n">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="AY44" t="n">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="AZ44" t="n">
-        <v>239</v>
+        <v>209</v>
       </c>
       <c r="BA44" t="n">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="BB44" t="n">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="BC44" t="n">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="BD44" t="n">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="BE44" t="n">
-        <v>578</v>
+        <v>559</v>
       </c>
       <c r="BF44" t="n">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="BG44" t="n">
-        <v>478</v>
+        <v>17816</v>
       </c>
       <c r="BH44" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="BI44" t="n">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="BJ44" t="n">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="BK44" t="n">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="BL44" t="n">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="BM44" t="n">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="BN44" t="n">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="BO44" t="n">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="BP44" t="n">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="BQ44" t="n">
-        <v>642</v>
+        <v>624</v>
       </c>
       <c r="BR44" t="n">
-        <v>164</v>
+        <v>132</v>
       </c>
       <c r="BT44" t="n">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="BU44" t="n">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="BV44" t="n">
-        <v>526</v>
+        <v>495</v>
       </c>
       <c r="BX44" t="n">
-        <v>19383</v>
+        <v>453</v>
       </c>
     </row>
     <row r="45">
@@ -13201,52 +13217,52 @@
         </is>
       </c>
       <c r="AQ45" t="n">
-        <v>1933</v>
+        <v>1891</v>
       </c>
       <c r="AR45" t="n">
-        <v>2304</v>
+        <v>2293</v>
       </c>
       <c r="AS45" t="n">
-        <v>2044</v>
+        <v>2009</v>
       </c>
       <c r="AT45" t="n">
-        <v>1223</v>
+        <v>1211</v>
       </c>
       <c r="AU45" t="n">
-        <v>1438</v>
+        <v>1416</v>
       </c>
       <c r="AV45" t="n">
-        <v>1884</v>
+        <v>1872</v>
       </c>
       <c r="AW45" t="n">
-        <v>1853</v>
+        <v>1843</v>
       </c>
       <c r="AX45" t="n">
-        <v>2722</v>
+        <v>2699</v>
       </c>
       <c r="AY45" t="n">
-        <v>2663</v>
+        <v>2603</v>
       </c>
       <c r="AZ45" t="n">
-        <v>1675</v>
+        <v>1644</v>
       </c>
       <c r="BA45" t="n">
-        <v>2804</v>
+        <v>2773</v>
       </c>
       <c r="BB45" t="n">
-        <v>2028</v>
+        <v>2006</v>
       </c>
       <c r="BC45" t="n">
-        <v>1586</v>
+        <v>1581</v>
       </c>
       <c r="BD45" t="n">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="BE45" t="n">
-        <v>1216</v>
+        <v>1191</v>
       </c>
       <c r="BF45" t="n">
-        <v>2361</v>
+        <v>2282</v>
       </c>
       <c r="BG45" t="n">
         <v>1376</v>
@@ -13255,43 +13271,43 @@
         <v>2560</v>
       </c>
       <c r="BI45" t="n">
-        <v>1515</v>
+        <v>1458</v>
       </c>
       <c r="BJ45" t="n">
-        <v>2609</v>
+        <v>2605</v>
       </c>
       <c r="BK45" t="n">
-        <v>1398</v>
+        <v>1381</v>
       </c>
       <c r="BL45" t="n">
-        <v>1483</v>
+        <v>1446</v>
       </c>
       <c r="BM45" t="n">
-        <v>2181</v>
+        <v>2145</v>
       </c>
       <c r="BN45" t="n">
         <v>1201</v>
       </c>
       <c r="BO45" t="n">
-        <v>1639</v>
+        <v>1624</v>
       </c>
       <c r="BP45" t="n">
-        <v>2013</v>
+        <v>2005</v>
       </c>
       <c r="BQ45" t="n">
-        <v>1925</v>
+        <v>1873</v>
       </c>
       <c r="BR45" t="n">
-        <v>2455</v>
+        <v>2410</v>
       </c>
       <c r="BT45" t="n">
-        <v>2383</v>
+        <v>2365</v>
       </c>
       <c r="BU45" t="n">
-        <v>1557</v>
+        <v>1548</v>
       </c>
       <c r="BV45" t="n">
-        <v>1547</v>
+        <v>1510</v>
       </c>
       <c r="BY45" t="n">
         <v>3299</v>
@@ -13488,7 +13504,7 @@
         </is>
       </c>
       <c r="AQ46" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AR46" t="n">
         <v>118</v>
@@ -13503,7 +13519,7 @@
         <v>107</v>
       </c>
       <c r="AV46" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AW46" t="n">
         <v>96</v>
@@ -13515,13 +13531,13 @@
         <v>41</v>
       </c>
       <c r="AZ46" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BA46" t="n">
         <v>109</v>
       </c>
       <c r="BB46" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC46" t="n">
         <v>56</v>
@@ -13542,7 +13558,7 @@
         <v>263</v>
       </c>
       <c r="BI46" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BJ46" t="n">
         <v>211</v>
@@ -13551,7 +13567,7 @@
         <v>37</v>
       </c>
       <c r="BL46" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BM46" t="n">
         <v>62</v>
@@ -13563,10 +13579,10 @@
         <v>106</v>
       </c>
       <c r="BP46" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="BQ46" t="n">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BR46" t="n">
         <v>117</v>
@@ -13575,7 +13591,7 @@
         <v>123</v>
       </c>
       <c r="BU46" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="BV46" t="n">
         <v>42</v>
@@ -13790,19 +13806,19 @@
         <v>122</v>
       </c>
       <c r="AV47" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AW47" t="n">
         <v>90</v>
       </c>
       <c r="AX47" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AY47" t="n">
         <v>235</v>
       </c>
       <c r="AZ47" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BA47" t="n">
         <v>174</v>
@@ -13838,10 +13854,10 @@
         <v>273</v>
       </c>
       <c r="BL47" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BM47" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BN47" t="n">
         <v>141</v>
@@ -13856,16 +13872,16 @@
         <v>125</v>
       </c>
       <c r="BR47" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="BT47" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BU47" t="n">
         <v>104</v>
       </c>
       <c r="BV47" t="n">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="BY47" t="n">
         <v>50</v>
@@ -14062,52 +14078,52 @@
         </is>
       </c>
       <c r="AQ48" t="n">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AR48" t="n">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="AS48" t="n">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AT48" t="n">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="AU48" t="n">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="AV48" t="n">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="AW48" t="n">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="AX48" t="n">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="AY48" t="n">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AZ48" t="n">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="BA48" t="n">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="BB48" t="n">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="BC48" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="BD48" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="BE48" t="n">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="BF48" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BG48" t="n">
         <v>729</v>
@@ -14116,43 +14132,43 @@
         <v>289</v>
       </c>
       <c r="BI48" t="n">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="BJ48" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="BK48" t="n">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="BL48" t="n">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="BM48" t="n">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="BN48" t="n">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="BO48" t="n">
-        <v>502</v>
+        <v>489</v>
       </c>
       <c r="BP48" t="n">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="BQ48" t="n">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="BR48" t="n">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="BT48" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="BU48" t="n">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="BV48" t="n">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="BY48" t="n">
         <v>15</v>
@@ -14349,31 +14365,31 @@
         </is>
       </c>
       <c r="AQ49" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AR49" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AS49" t="n">
         <v>129</v>
       </c>
       <c r="AT49" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AU49" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AV49" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AW49" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AX49" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AY49" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AZ49" t="n">
         <v>103</v>
@@ -14382,37 +14398,37 @@
         <v>153</v>
       </c>
       <c r="BB49" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="BC49" t="n">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="BD49" t="n">
         <v>117</v>
       </c>
       <c r="BE49" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BF49" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BG49" t="n">
-        <v>2390</v>
+        <v>2270</v>
       </c>
       <c r="BH49" t="n">
         <v>102</v>
       </c>
       <c r="BI49" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BJ49" t="n">
         <v>163</v>
       </c>
       <c r="BK49" t="n">
-        <v>57</v>
+        <v>176</v>
       </c>
       <c r="BL49" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="BM49" t="n">
         <v>175</v>
@@ -14424,19 +14440,19 @@
         <v>150</v>
       </c>
       <c r="BP49" t="n">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="BQ49" t="n">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="BR49" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BT49" t="n">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="BU49" t="n">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="BV49" t="n">
         <v>101</v>
@@ -14636,100 +14652,100 @@
         </is>
       </c>
       <c r="AQ50" t="n">
+        <v>1199</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>1180</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>810</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>186</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>483</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>246</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>752</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>114</v>
+      </c>
+      <c r="AY50" t="n">
         <v>1200</v>
       </c>
-      <c r="AR50" t="n">
-        <v>1198</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>827</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>197</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>486</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>242</v>
-      </c>
-      <c r="AW50" t="n">
-        <v>774</v>
-      </c>
-      <c r="AX50" t="n">
-        <v>257</v>
-      </c>
-      <c r="AY50" t="n">
-        <v>1223</v>
-      </c>
       <c r="AZ50" t="n">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="BA50" t="n">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="BB50" t="n">
-        <v>1237</v>
+        <v>1208</v>
       </c>
       <c r="BC50" t="n">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="BD50" t="n">
         <v>787</v>
       </c>
       <c r="BE50" t="n">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="BF50" t="n">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="BG50" t="n">
-        <v>777</v>
+        <v>757</v>
       </c>
       <c r="BH50" t="n">
         <v>757</v>
       </c>
       <c r="BI50" t="n">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="BJ50" t="n">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="BK50" t="n">
-        <v>904</v>
+        <v>844</v>
       </c>
       <c r="BL50" t="n">
-        <v>557</v>
+        <v>522</v>
       </c>
       <c r="BM50" t="n">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="BN50" t="n">
-        <v>1157</v>
+        <v>1147</v>
       </c>
       <c r="BO50" t="n">
-        <v>735</v>
+        <v>711</v>
       </c>
       <c r="BP50" t="n">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="BQ50" t="n">
-        <v>813</v>
+        <v>781</v>
       </c>
       <c r="BR50" t="n">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="BT50" t="n">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="BU50" t="n">
-        <v>1197</v>
+        <v>708</v>
       </c>
       <c r="BV50" t="n">
-        <v>821</v>
+        <v>798</v>
       </c>
       <c r="BY50" t="n">
-        <v>6800</v>
+        <v>6836</v>
       </c>
     </row>
     <row r="51">
@@ -14918,7 +14934,7 @@
         <v>12</v>
       </c>
       <c r="BF51" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BG51" t="n">
         <v>104</v>
@@ -15163,7 +15179,7 @@
         <v>8</v>
       </c>
       <c r="AT52" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AU52" t="n">
         <v>117</v>
@@ -15178,7 +15194,7 @@
         <v>74</v>
       </c>
       <c r="AY52" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AZ52" t="n">
         <v>31</v>
@@ -15196,7 +15212,7 @@
         <v>51</v>
       </c>
       <c r="BE52" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BF52" t="n">
         <v>42</v>
@@ -15244,7 +15260,7 @@
         <v>53</v>
       </c>
       <c r="BV52" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BY52" t="n">
         <v>30</v>
@@ -15447,43 +15463,43 @@
         <v>253</v>
       </c>
       <c r="AS53" t="n">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="AT53" t="n">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="AU53" t="n">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AV53" t="n">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="AW53" t="n">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AX53" t="n">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AY53" t="n">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="AZ53" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="BA53" t="n">
         <v>419</v>
       </c>
       <c r="BB53" t="n">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="BC53" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BD53" t="n">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="BE53" t="n">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="BF53" t="n">
         <v>742</v>
@@ -15501,37 +15517,37 @@
         <v>521</v>
       </c>
       <c r="BK53" t="n">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="BL53" t="n">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="BM53" t="n">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="BN53" t="n">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="BO53" t="n">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="BP53" t="n">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="BQ53" t="n">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="BR53" t="n">
         <v>269</v>
       </c>
       <c r="BT53" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="BU53" t="n">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="BV53" t="n">
-        <v>132</v>
+        <v>268</v>
       </c>
       <c r="BY53" t="n">
         <v>2417</v>
@@ -15618,16 +15634,16 @@
         </is>
       </c>
       <c r="AS54" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AV54" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AW54" t="n">
         <v>7</v>
       </c>
       <c r="AX54" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY54" t="n">
         <v>1</v>
@@ -15636,16 +15652,16 @@
         <v>37</v>
       </c>
       <c r="BD54" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BG54" t="n">
         <v>27</v>
       </c>
       <c r="BM54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BO54" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55">
@@ -16126,49 +16142,49 @@
         </is>
       </c>
       <c r="AQ56" t="n">
-        <v>2708</v>
+        <v>2688</v>
       </c>
       <c r="AR56" t="n">
         <v>2430</v>
       </c>
       <c r="AS56" t="n">
-        <v>2192</v>
+        <v>2165</v>
       </c>
       <c r="AT56" t="n">
-        <v>1470</v>
+        <v>1425</v>
       </c>
       <c r="AU56" t="n">
-        <v>2749</v>
+        <v>2731</v>
       </c>
       <c r="AV56" t="n">
-        <v>4304</v>
+        <v>4293</v>
       </c>
       <c r="AW56" t="n">
         <v>820</v>
       </c>
       <c r="AX56" t="n">
-        <v>1779</v>
+        <v>1752</v>
       </c>
       <c r="AY56" t="n">
-        <v>2871</v>
+        <v>2841</v>
       </c>
       <c r="AZ56" t="n">
-        <v>1331</v>
+        <v>1320</v>
       </c>
       <c r="BA56" t="n">
-        <v>2083</v>
+        <v>2074</v>
       </c>
       <c r="BB56" t="n">
         <v>2150</v>
       </c>
       <c r="BC56" t="n">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="BD56" t="n">
-        <v>2595</v>
+        <v>2592</v>
       </c>
       <c r="BE56" t="n">
-        <v>2447</v>
+        <v>2429</v>
       </c>
       <c r="BF56" t="n">
         <v>1527</v>
@@ -16180,43 +16196,43 @@
         <v>343</v>
       </c>
       <c r="BI56" t="n">
-        <v>3765</v>
+        <v>3754</v>
       </c>
       <c r="BJ56" t="n">
-        <v>2346</v>
+        <v>2344</v>
       </c>
       <c r="BK56" t="n">
-        <v>2073</v>
+        <v>1992</v>
       </c>
       <c r="BL56" t="n">
-        <v>1035</v>
+        <v>989</v>
       </c>
       <c r="BM56" t="n">
-        <v>712</v>
+        <v>692</v>
       </c>
       <c r="BN56" t="n">
         <v>1745</v>
       </c>
       <c r="BO56" t="n">
-        <v>3630</v>
+        <v>3611</v>
       </c>
       <c r="BP56" t="n">
         <v>2902</v>
       </c>
       <c r="BQ56" t="n">
-        <v>1376</v>
+        <v>1366</v>
       </c>
       <c r="BR56" t="n">
-        <v>1558</v>
+        <v>1549</v>
       </c>
       <c r="BT56" t="n">
-        <v>3333</v>
+        <v>3268</v>
       </c>
       <c r="BU56" t="n">
-        <v>1745</v>
+        <v>1736</v>
       </c>
       <c r="BV56" t="n">
-        <v>3972</v>
+        <v>3900</v>
       </c>
       <c r="BY56" t="n">
         <v>68</v>
@@ -16411,7 +16427,7 @@
         <v>136</v>
       </c>
       <c r="AR57" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AS57" t="n">
         <v>110</v>
@@ -16423,64 +16439,64 @@
         <v>183</v>
       </c>
       <c r="AV57" t="n">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="AW57" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="AX57" t="n">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="AY57" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AZ57" t="n">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="BA57" t="n">
         <v>107</v>
       </c>
       <c r="BB57" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="BC57" t="n">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="BD57" t="n">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="BE57" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="BF57" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="BG57" t="n">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="BH57" t="n">
         <v>237</v>
       </c>
       <c r="BI57" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BJ57" t="n">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="BK57" t="n">
         <v>140</v>
       </c>
       <c r="BL57" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BM57" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="BN57" t="n">
         <v>392</v>
       </c>
       <c r="BO57" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="BP57" t="n">
         <v>276</v>
@@ -16492,13 +16508,13 @@
         <v>207</v>
       </c>
       <c r="BT57" t="n">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BU57" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="BV57" t="n">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58">
@@ -16687,52 +16703,52 @@
         </is>
       </c>
       <c r="AQ58" t="n">
-        <v>1441</v>
+        <v>1430</v>
       </c>
       <c r="AR58" t="n">
-        <v>2046</v>
+        <v>2049</v>
       </c>
       <c r="AS58" t="n">
-        <v>1599</v>
+        <v>1585</v>
       </c>
       <c r="AT58" t="n">
         <v>2075</v>
       </c>
       <c r="AU58" t="n">
-        <v>744</v>
+        <v>733</v>
       </c>
       <c r="AV58" t="n">
-        <v>1790</v>
+        <v>1785</v>
       </c>
       <c r="AW58" t="n">
-        <v>2584</v>
+        <v>2571</v>
       </c>
       <c r="AX58" t="n">
-        <v>1288</v>
+        <v>1285</v>
       </c>
       <c r="AY58" t="n">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="AZ58" t="n">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="BA58" t="n">
         <v>545</v>
       </c>
       <c r="BB58" t="n">
-        <v>635</v>
+        <v>609</v>
       </c>
       <c r="BC58" t="n">
-        <v>2120</v>
+        <v>2114</v>
       </c>
       <c r="BD58" t="n">
         <v>792</v>
       </c>
       <c r="BE58" t="n">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="BF58" t="n">
-        <v>1395</v>
+        <v>1387</v>
       </c>
       <c r="BG58" t="n">
         <v>650</v>
@@ -16747,37 +16763,37 @@
         <v>1677</v>
       </c>
       <c r="BK58" t="n">
-        <v>1229</v>
+        <v>1217</v>
       </c>
       <c r="BL58" t="n">
-        <v>2014</v>
+        <v>2006</v>
       </c>
       <c r="BM58" t="n">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="BN58" t="n">
         <v>2434</v>
       </c>
       <c r="BO58" t="n">
-        <v>1686</v>
+        <v>1667</v>
       </c>
       <c r="BP58" t="n">
-        <v>1472</v>
+        <v>1462</v>
       </c>
       <c r="BQ58" t="n">
-        <v>1460</v>
+        <v>1447</v>
       </c>
       <c r="BR58" t="n">
-        <v>2118</v>
+        <v>2114</v>
       </c>
       <c r="BT58" t="n">
         <v>1213</v>
       </c>
       <c r="BU58" t="n">
-        <v>1000</v>
+        <v>984</v>
       </c>
       <c r="BV58" t="n">
-        <v>1725</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="59">
@@ -16975,13 +16991,13 @@
         <v>220</v>
       </c>
       <c r="AT59" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AU59" t="n">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="AV59" t="n">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="AW59" t="n">
         <v>111</v>
@@ -16996,22 +17012,22 @@
         <v>141</v>
       </c>
       <c r="BA59" t="n">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="BB59" t="n">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="BC59" t="n">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="BD59" t="n">
         <v>146</v>
       </c>
       <c r="BE59" t="n">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="BF59" t="n">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="BG59" t="n">
         <v>256</v>
@@ -17050,7 +17066,7 @@
         <v>355</v>
       </c>
       <c r="BT59" t="n">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="BU59" t="n">
         <v>212</v>
@@ -17250,7 +17266,7 @@
         </is>
       </c>
       <c r="AQ60" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AR60" t="n">
         <v>219</v>
@@ -17265,7 +17281,7 @@
         <v>74</v>
       </c>
       <c r="AV60" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AW60" t="n">
         <v>107</v>
@@ -17277,13 +17293,13 @@
         <v>113</v>
       </c>
       <c r="AZ60" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BA60" t="n">
         <v>97</v>
       </c>
       <c r="BB60" t="n">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="BC60" t="n">
         <v>119</v>
@@ -17292,19 +17308,19 @@
         <v>269</v>
       </c>
       <c r="BE60" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BF60" t="n">
         <v>106</v>
       </c>
       <c r="BG60" t="n">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="BH60" t="n">
         <v>124</v>
       </c>
       <c r="BI60" t="n">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="BJ60" t="n">
         <v>193</v>
@@ -17328,19 +17344,19 @@
         <v>299</v>
       </c>
       <c r="BQ60" t="n">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BR60" t="n">
         <v>90</v>
       </c>
       <c r="BT60" t="n">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="BU60" t="n">
         <v>72</v>
       </c>
       <c r="BV60" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BW60" t="n">
         <v>28</v>
@@ -17581,6 +17597,11 @@
           <t>More Than 120 Days</t>
         </is>
       </c>
+      <c r="AK62" t="inlineStr">
+        <is>
+          <t>Expired</t>
+        </is>
+      </c>
       <c r="AN62" t="n">
         <v>24</v>
       </c>
@@ -17595,52 +17616,52 @@
         </is>
       </c>
       <c r="AQ62" t="n">
-        <v>1609</v>
+        <v>1579</v>
       </c>
       <c r="AR62" t="n">
         <v>809</v>
       </c>
       <c r="AS62" t="n">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="AT62" t="n">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="AU62" t="n">
-        <v>1477</v>
+        <v>1465</v>
       </c>
       <c r="AV62" t="n">
-        <v>944</v>
+        <v>923</v>
       </c>
       <c r="AW62" t="n">
-        <v>1041</v>
+        <v>1014</v>
       </c>
       <c r="AX62" t="n">
-        <v>2385</v>
+        <v>2377</v>
       </c>
       <c r="AY62" t="n">
-        <v>758</v>
+        <v>728</v>
       </c>
       <c r="AZ62" t="n">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="BA62" t="n">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="BB62" t="n">
-        <v>688</v>
+        <v>670</v>
       </c>
       <c r="BC62" t="n">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="BD62" t="n">
-        <v>1109</v>
+        <v>1095</v>
       </c>
       <c r="BE62" t="n">
-        <v>1173</v>
+        <v>1159</v>
       </c>
       <c r="BF62" t="n">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="BG62" t="n">
         <v>679</v>
@@ -17649,43 +17670,46 @@
         <v>1366</v>
       </c>
       <c r="BI62" t="n">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="BJ62" t="n">
         <v>642</v>
       </c>
       <c r="BK62" t="n">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="BL62" t="n">
-        <v>599</v>
+        <v>570</v>
       </c>
       <c r="BM62" t="n">
-        <v>1503</v>
+        <v>1496</v>
       </c>
       <c r="BN62" t="n">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="BO62" t="n">
-        <v>1499</v>
+        <v>1468</v>
       </c>
       <c r="BP62" t="n">
-        <v>1108</v>
+        <v>1062</v>
       </c>
       <c r="BQ62" t="n">
-        <v>3246</v>
+        <v>3232</v>
       </c>
       <c r="BR62" t="n">
-        <v>2133</v>
+        <v>2128</v>
       </c>
       <c r="BT62" t="n">
-        <v>1510</v>
+        <v>1479</v>
       </c>
       <c r="BU62" t="n">
-        <v>626</v>
+        <v>611</v>
       </c>
       <c r="BV62" t="n">
-        <v>1082</v>
+        <v>1066</v>
+      </c>
+      <c r="BW62" t="n">
+        <v>1200</v>
       </c>
     </row>
     <row r="63">
@@ -17874,7 +17898,7 @@
         </is>
       </c>
       <c r="AQ63" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AR63" t="n">
         <v>128</v>
@@ -17886,13 +17910,13 @@
         <v>28</v>
       </c>
       <c r="AU63" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AV63" t="n">
         <v>93</v>
       </c>
       <c r="AW63" t="n">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="AX63" t="n">
         <v>174</v>
@@ -17901,7 +17925,7 @@
         <v>87</v>
       </c>
       <c r="AZ63" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BA63" t="n">
         <v>72</v>
@@ -17910,7 +17934,7 @@
         <v>137</v>
       </c>
       <c r="BC63" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BD63" t="n">
         <v>330</v>
@@ -17922,13 +17946,13 @@
         <v>61</v>
       </c>
       <c r="BG63" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="BH63" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="BI63" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BJ63" t="n">
         <v>35</v>
@@ -17940,7 +17964,7 @@
         <v>109</v>
       </c>
       <c r="BM63" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BN63" t="n">
         <v>16</v>
@@ -17952,7 +17976,7 @@
         <v>212</v>
       </c>
       <c r="BQ63" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BR63" t="n">
         <v>132</v>
@@ -17964,7 +17988,7 @@
         <v>137</v>
       </c>
       <c r="BV63" t="n">
-        <v>201</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64">
@@ -18161,40 +18185,40 @@
         <v>498</v>
       </c>
       <c r="AR64" t="n">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="AS64" t="n">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="AT64" t="n">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AU64" t="n">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="AV64" t="n">
-        <v>1131</v>
+        <v>1124</v>
       </c>
       <c r="AW64" t="n">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AX64" t="n">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="AY64" t="n">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="AZ64" t="n">
         <v>399</v>
       </c>
       <c r="BA64" t="n">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="BB64" t="n">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="BC64" t="n">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="BD64" t="n">
         <v>535</v>
@@ -18203,10 +18227,10 @@
         <v>745</v>
       </c>
       <c r="BF64" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="BG64" t="n">
-        <v>4519</v>
+        <v>4518</v>
       </c>
       <c r="BH64" t="n">
         <v>721</v>
@@ -18218,13 +18242,13 @@
         <v>988</v>
       </c>
       <c r="BK64" t="n">
-        <v>274</v>
+        <v>399</v>
       </c>
       <c r="BL64" t="n">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="BM64" t="n">
-        <v>683</v>
+        <v>804</v>
       </c>
       <c r="BN64" t="n">
         <v>400</v>
@@ -18233,22 +18257,22 @@
         <v>425</v>
       </c>
       <c r="BP64" t="n">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="BQ64" t="n">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="BR64" t="n">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="BT64" t="n">
         <v>477</v>
       </c>
       <c r="BU64" t="n">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="BV64" t="n">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="BY64" t="n">
         <v>9</v>
@@ -18441,7 +18465,7 @@
         <v>89</v>
       </c>
       <c r="AS65" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AT65" t="n">
         <v>12</v>
@@ -18456,16 +18480,16 @@
         <v>40</v>
       </c>
       <c r="AX65" t="n">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="AY65" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="AZ65" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BA65" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB65" t="n">
         <v>48</v>
@@ -18510,7 +18534,7 @@
         <v>56</v>
       </c>
       <c r="BQ65" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BR65" t="n">
         <v>204</v>
@@ -18522,7 +18546,7 @@
         <v>56</v>
       </c>
       <c r="BV65" t="n">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="66">
@@ -18718,25 +18742,25 @@
         <v>210</v>
       </c>
       <c r="AU66" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AV66" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AW66" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AX66" t="n">
         <v>122</v>
       </c>
       <c r="AY66" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AZ66" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="BA66" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="BB66" t="n">
         <v>109</v>
@@ -18751,22 +18775,22 @@
         <v>41</v>
       </c>
       <c r="BG66" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="BH66" t="n">
         <v>146</v>
       </c>
       <c r="BI66" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="BJ66" t="n">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="BK66" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="BL66" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BM66" t="n">
         <v>49</v>
@@ -18775,25 +18799,25 @@
         <v>201</v>
       </c>
       <c r="BO66" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BP66" t="n">
         <v>64</v>
       </c>
       <c r="BQ66" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BR66" t="n">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="BT66" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BU66" t="n">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="BV66" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67">
@@ -18982,40 +19006,40 @@
         </is>
       </c>
       <c r="AQ67" t="n">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="AR67" t="n">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="AS67" t="n">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="AT67" t="n">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AU67" t="n">
         <v>883</v>
       </c>
       <c r="AV67" t="n">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AW67" t="n">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="AX67" t="n">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="AY67" t="n">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="AZ67" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="BA67" t="n">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="BB67" t="n">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="BC67" t="n">
         <v>284</v>
@@ -19024,55 +19048,55 @@
         <v>409</v>
       </c>
       <c r="BE67" t="n">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="BF67" t="n">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="BG67" t="n">
-        <v>3386</v>
+        <v>3387</v>
       </c>
       <c r="BH67" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="BI67" t="n">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="BJ67" t="n">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="BK67" t="n">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="BL67" t="n">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="BM67" t="n">
-        <v>279</v>
+        <v>567</v>
       </c>
       <c r="BN67" t="n">
         <v>488</v>
       </c>
       <c r="BO67" t="n">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="BP67" t="n">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="BQ67" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="BR67" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="BT67" t="n">
-        <v>935</v>
+        <v>913</v>
       </c>
       <c r="BU67" t="n">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="BV67" t="n">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="68">
@@ -19261,16 +19285,16 @@
         </is>
       </c>
       <c r="AQ68" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AR68" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AS68" t="n">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AT68" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AU68" t="n">
         <v>228</v>
@@ -19279,25 +19303,25 @@
         <v>379</v>
       </c>
       <c r="AW68" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AX68" t="n">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AY68" t="n">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="AZ68" t="n">
         <v>335</v>
       </c>
       <c r="BA68" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BB68" t="n">
         <v>70</v>
       </c>
       <c r="BC68" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BD68" t="n">
         <v>77</v>
@@ -19306,7 +19330,7 @@
         <v>194</v>
       </c>
       <c r="BF68" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BG68" t="n">
         <v>413</v>
@@ -19315,7 +19339,7 @@
         <v>188</v>
       </c>
       <c r="BI68" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BJ68" t="n">
         <v>312</v>
@@ -19327,13 +19351,13 @@
         <v>314</v>
       </c>
       <c r="BM68" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="BN68" t="n">
         <v>138</v>
       </c>
       <c r="BO68" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="BP68" t="n">
         <v>204</v>
@@ -19342,16 +19366,16 @@
         <v>305</v>
       </c>
       <c r="BR68" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="BT68" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BU68" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BV68" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="69">
@@ -19540,49 +19564,49 @@
         </is>
       </c>
       <c r="AQ69" t="n">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="AR69" t="n">
         <v>601</v>
       </c>
       <c r="AS69" t="n">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AT69" t="n">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="AU69" t="n">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="AV69" t="n">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="AW69" t="n">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="AX69" t="n">
         <v>616</v>
       </c>
       <c r="AY69" t="n">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="AZ69" t="n">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="BA69" t="n">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="BB69" t="n">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="BC69" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="BD69" t="n">
         <v>402</v>
       </c>
       <c r="BE69" t="n">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="BF69" t="n">
         <v>346</v>
@@ -19594,43 +19618,43 @@
         <v>418</v>
       </c>
       <c r="BI69" t="n">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="BJ69" t="n">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="BK69" t="n">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="BL69" t="n">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="BM69" t="n">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="BN69" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="BO69" t="n">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="BP69" t="n">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="BQ69" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="BR69" t="n">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="BT69" t="n">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="BU69" t="n">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="BV69" t="n">
-        <v>225</v>
+        <v>313</v>
       </c>
     </row>
     <row r="70">
@@ -19828,22 +19852,22 @@
         <v>44</v>
       </c>
       <c r="AT70" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AU70" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AV70" t="n">
         <v>60</v>
       </c>
       <c r="AW70" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="AX70" t="n">
         <v>58</v>
       </c>
       <c r="AY70" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="AZ70" t="n">
         <v>628</v>
@@ -19852,7 +19876,7 @@
         <v>212</v>
       </c>
       <c r="BB70" t="n">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="BC70" t="n">
         <v>7</v>
@@ -19864,10 +19888,10 @@
         <v>94</v>
       </c>
       <c r="BF70" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="BG70" t="n">
-        <v>17</v>
+        <v>4905</v>
       </c>
       <c r="BH70" t="n">
         <v>215</v>
@@ -19891,25 +19915,25 @@
         <v>169</v>
       </c>
       <c r="BP70" t="n">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="BQ70" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BR70" t="n">
         <v>110</v>
       </c>
       <c r="BT70" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="BU70" t="n">
-        <v>50</v>
+        <v>310</v>
       </c>
       <c r="BV70" t="n">
         <v>185</v>
       </c>
       <c r="BY70" t="n">
-        <v>14006</v>
+        <v>6908</v>
       </c>
     </row>
     <row r="71">
@@ -20103,97 +20127,97 @@
         </is>
       </c>
       <c r="AQ71" t="n">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="AR71" t="n">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="AS71" t="n">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="AT71" t="n">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AU71" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AV71" t="n">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AW71" t="n">
-        <v>1018</v>
+        <v>1002</v>
       </c>
       <c r="AX71" t="n">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="AY71" t="n">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="AZ71" t="n">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="BA71" t="n">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="BB71" t="n">
-        <v>954</v>
+        <v>941</v>
       </c>
       <c r="BC71" t="n">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="BD71" t="n">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="BE71" t="n">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="BF71" t="n">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="BG71" t="n">
-        <v>3210</v>
+        <v>3203</v>
       </c>
       <c r="BH71" t="n">
         <v>915</v>
       </c>
       <c r="BI71" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="BJ71" t="n">
-        <v>2078</v>
+        <v>2070</v>
       </c>
       <c r="BK71" t="n">
         <v>1180</v>
       </c>
       <c r="BL71" t="n">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="BM71" t="n">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="BN71" t="n">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="BO71" t="n">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="BP71" t="n">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="BQ71" t="n">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="BR71" t="n">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="BT71" t="n">
         <v>732</v>
       </c>
       <c r="BU71" t="n">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="BV71" t="n">
-        <v>931</v>
+        <v>1016</v>
       </c>
       <c r="BY71" t="n">
         <v>7</v>
@@ -20411,7 +20435,7 @@
         <v>49</v>
       </c>
       <c r="AX72" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AY72" t="n">
         <v>30</v>
@@ -20426,7 +20450,7 @@
         <v>28</v>
       </c>
       <c r="BC72" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BD72" t="n">
         <v>23</v>
@@ -20471,19 +20495,19 @@
         <v>14</v>
       </c>
       <c r="BR72" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BT72" t="n">
         <v>59</v>
       </c>
       <c r="BU72" t="n">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="BV72" t="n">
         <v>36</v>
       </c>
       <c r="BX72" t="n">
-        <v>1081</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73">
@@ -20661,13 +20685,13 @@
         <v>38</v>
       </c>
       <c r="AT73" t="n">
-        <v>1946</v>
+        <v>1913</v>
       </c>
       <c r="AU73" t="n">
-        <v>414</v>
+        <v>293</v>
       </c>
       <c r="AV73" t="n">
-        <v>3173</v>
+        <v>3131</v>
       </c>
       <c r="AW73" t="n">
         <v>66</v>
@@ -20682,13 +20706,13 @@
         <v>2</v>
       </c>
       <c r="BB73" t="n">
-        <v>1616</v>
+        <v>1563</v>
       </c>
       <c r="BC73" t="n">
-        <v>1251</v>
+        <v>1216</v>
       </c>
       <c r="BD73" t="n">
-        <v>230</v>
+        <v>195</v>
       </c>
       <c r="BF73" t="n">
         <v>42</v>
@@ -20700,7 +20724,7 @@
         <v>24</v>
       </c>
       <c r="BI73" t="n">
-        <v>423</v>
+        <v>312</v>
       </c>
       <c r="BJ73" t="n">
         <v>50</v>
@@ -20712,19 +20736,19 @@
         <v>50</v>
       </c>
       <c r="BN73" t="n">
-        <v>1317</v>
+        <v>1311</v>
       </c>
       <c r="BO73" t="n">
-        <v>530</v>
+        <v>477</v>
       </c>
       <c r="BP73" t="n">
-        <v>2604</v>
+        <v>2576</v>
       </c>
       <c r="BR73" t="n">
-        <v>1878</v>
+        <v>1801</v>
       </c>
       <c r="BU73" t="n">
-        <v>1148</v>
+        <v>1112</v>
       </c>
       <c r="BV73" t="n">
         <v>15</v>
@@ -20899,28 +20923,28 @@
         </is>
       </c>
       <c r="AQ74" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AR74" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AS74" t="n">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="AT74" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AU74" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AV74" t="n">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="AX74" t="n">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="AY74" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AZ74" t="n">
         <v>5</v>
@@ -20929,16 +20953,16 @@
         <v>183</v>
       </c>
       <c r="BB74" t="n">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="BC74" t="n">
         <v>112</v>
       </c>
       <c r="BD74" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="BE74" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="BG74" t="n">
         <v>63</v>
@@ -20950,31 +20974,31 @@
         <v>8</v>
       </c>
       <c r="BJ74" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BM74" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BN74" t="n">
         <v>107</v>
       </c>
       <c r="BO74" t="n">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="BP74" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="BR74" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BT74" t="n">
+        <v>199</v>
+      </c>
+      <c r="BU74" t="n">
+        <v>69</v>
+      </c>
+      <c r="BV74" t="n">
         <v>201</v>
-      </c>
-      <c r="BU74" t="n">
-        <v>71</v>
-      </c>
-      <c r="BV74" t="n">
-        <v>203</v>
       </c>
       <c r="BY74" t="n">
         <v>2160</v>
@@ -21171,31 +21195,31 @@
         </is>
       </c>
       <c r="AQ75" t="n">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="AR75" t="n">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AS75" t="n">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="AT75" t="n">
         <v>475</v>
       </c>
       <c r="AU75" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="AV75" t="n">
         <v>678</v>
       </c>
       <c r="AW75" t="n">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="AX75" t="n">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="AY75" t="n">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="AZ75" t="n">
         <v>434</v>
@@ -21204,64 +21228,64 @@
         <v>563</v>
       </c>
       <c r="BB75" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="BC75" t="n">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="BD75" t="n">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="BE75" t="n">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="BF75" t="n">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="BG75" t="n">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="BH75" t="n">
         <v>562</v>
       </c>
       <c r="BI75" t="n">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="BJ75" t="n">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="BK75" t="n">
         <v>175</v>
       </c>
       <c r="BL75" t="n">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="BM75" t="n">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="BN75" t="n">
         <v>391</v>
       </c>
       <c r="BO75" t="n">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="BP75" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="BQ75" t="n">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="BR75" t="n">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="BT75" t="n">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="BU75" t="n">
         <v>357</v>
       </c>
       <c r="BV75" t="n">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="BY75" t="n">
         <v>12620</v>
@@ -21681,7 +21705,7 @@
         </is>
       </c>
       <c r="AQ77" t="n">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="AR77" t="n">
         <v>195</v>
@@ -21690,13 +21714,13 @@
         <v>135</v>
       </c>
       <c r="AT77" t="n">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="AU77" t="n">
         <v>217</v>
       </c>
       <c r="AV77" t="n">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="AW77" t="n">
         <v>253</v>
@@ -21708,7 +21732,7 @@
         <v>141</v>
       </c>
       <c r="AZ77" t="n">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="BA77" t="n">
         <v>249</v>
@@ -21753,16 +21777,16 @@
         <v>82</v>
       </c>
       <c r="BO77" t="n">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BP77" t="n">
         <v>342</v>
       </c>
       <c r="BQ77" t="n">
-        <v>1499</v>
+        <v>1287</v>
       </c>
       <c r="BR77" t="n">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="BT77" t="n">
         <v>90</v>
@@ -21968,7 +21992,7 @@
         </is>
       </c>
       <c r="AQ78" t="n">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="AR78" t="n">
         <v>595</v>
@@ -21977,40 +22001,40 @@
         <v>1318</v>
       </c>
       <c r="AT78" t="n">
-        <v>1316</v>
+        <v>1304</v>
       </c>
       <c r="AU78" t="n">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AV78" t="n">
-        <v>1710</v>
+        <v>1699</v>
       </c>
       <c r="AW78" t="n">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="AX78" t="n">
-        <v>1312</v>
+        <v>1301</v>
       </c>
       <c r="AY78" t="n">
-        <v>1033</v>
+        <v>915</v>
       </c>
       <c r="AZ78" t="n">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="BA78" t="n">
         <v>944</v>
       </c>
       <c r="BB78" t="n">
-        <v>891</v>
+        <v>871</v>
       </c>
       <c r="BC78" t="n">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="BD78" t="n">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="BE78" t="n">
-        <v>640</v>
+        <v>596</v>
       </c>
       <c r="BF78" t="n">
         <v>849</v>
@@ -22022,16 +22046,16 @@
         <v>334</v>
       </c>
       <c r="BI78" t="n">
-        <v>2552</v>
+        <v>2549</v>
       </c>
       <c r="BJ78" t="n">
         <v>899</v>
       </c>
       <c r="BK78" t="n">
-        <v>1771</v>
+        <v>1761</v>
       </c>
       <c r="BL78" t="n">
-        <v>1760</v>
+        <v>1717</v>
       </c>
       <c r="BM78" t="n">
         <v>1309</v>
@@ -22040,28 +22064,28 @@
         <v>1058</v>
       </c>
       <c r="BO78" t="n">
-        <v>1021</v>
+        <v>1009</v>
       </c>
       <c r="BP78" t="n">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="BQ78" t="n">
         <v>1833</v>
       </c>
       <c r="BR78" t="n">
-        <v>1046</v>
+        <v>1036</v>
       </c>
       <c r="BT78" t="n">
-        <v>1277</v>
+        <v>1286</v>
       </c>
       <c r="BU78" t="n">
-        <v>1801</v>
+        <v>1754</v>
       </c>
       <c r="BV78" t="n">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="BX78" t="n">
-        <v>81</v>
+        <v>9081</v>
       </c>
     </row>
     <row r="79">
@@ -22255,43 +22279,43 @@
         </is>
       </c>
       <c r="AQ79" t="n">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="AR79" t="n">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="AS79" t="n">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="AT79" t="n">
-        <v>1459</v>
+        <v>1456</v>
       </c>
       <c r="AU79" t="n">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="AV79" t="n">
-        <v>1155</v>
+        <v>1138</v>
       </c>
       <c r="AW79" t="n">
         <v>1124</v>
       </c>
       <c r="AX79" t="n">
-        <v>1011</v>
+        <v>998</v>
       </c>
       <c r="AY79" t="n">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="AZ79" t="n">
         <v>1116</v>
       </c>
       <c r="BA79" t="n">
-        <v>812</v>
+        <v>794</v>
       </c>
       <c r="BB79" t="n">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="BC79" t="n">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="BD79" t="n">
         <v>719</v>
@@ -22309,16 +22333,16 @@
         <v>1193</v>
       </c>
       <c r="BI79" t="n">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="BJ79" t="n">
         <v>1511</v>
       </c>
       <c r="BK79" t="n">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="BL79" t="n">
-        <v>1534</v>
+        <v>1532</v>
       </c>
       <c r="BM79" t="n">
         <v>1058</v>
@@ -22333,10 +22357,10 @@
         <v>628</v>
       </c>
       <c r="BQ79" t="n">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="BR79" t="n">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="BT79" t="n">
         <v>1158</v>
@@ -22345,7 +22369,7 @@
         <v>1424</v>
       </c>
       <c r="BV79" t="n">
-        <v>1402</v>
+        <v>1396</v>
       </c>
       <c r="BY79" t="n">
         <v>33</v>
@@ -22542,97 +22566,97 @@
         </is>
       </c>
       <c r="AQ80" t="n">
-        <v>1738</v>
+        <v>1727</v>
       </c>
       <c r="AR80" t="n">
         <v>3042</v>
       </c>
       <c r="AS80" t="n">
-        <v>1561</v>
+        <v>1539</v>
       </c>
       <c r="AT80" t="n">
-        <v>1395</v>
+        <v>1377</v>
       </c>
       <c r="AU80" t="n">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="AV80" t="n">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="AW80" t="n">
-        <v>2062</v>
+        <v>2034</v>
       </c>
       <c r="AX80" t="n">
-        <v>2389</v>
+        <v>2716</v>
       </c>
       <c r="AY80" t="n">
-        <v>2787</v>
+        <v>2738</v>
       </c>
       <c r="AZ80" t="n">
-        <v>1320</v>
+        <v>1306</v>
       </c>
       <c r="BA80" t="n">
-        <v>1637</v>
+        <v>1618</v>
       </c>
       <c r="BB80" t="n">
-        <v>1728</v>
+        <v>1706</v>
       </c>
       <c r="BC80" t="n">
         <v>1333</v>
       </c>
       <c r="BD80" t="n">
-        <v>1583</v>
+        <v>1923</v>
       </c>
       <c r="BE80" t="n">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="BF80" t="n">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="BG80" t="n">
-        <v>3513</v>
+        <v>2433</v>
       </c>
       <c r="BH80" t="n">
         <v>2836</v>
       </c>
       <c r="BI80" t="n">
-        <v>1100</v>
+        <v>1091</v>
       </c>
       <c r="BJ80" t="n">
         <v>1797</v>
       </c>
       <c r="BK80" t="n">
-        <v>1396</v>
+        <v>2105</v>
       </c>
       <c r="BL80" t="n">
-        <v>1843</v>
+        <v>1774</v>
       </c>
       <c r="BM80" t="n">
-        <v>2118</v>
+        <v>2792</v>
       </c>
       <c r="BN80" t="n">
-        <v>2502</v>
+        <v>2498</v>
       </c>
       <c r="BO80" t="n">
-        <v>1121</v>
+        <v>1100</v>
       </c>
       <c r="BP80" t="n">
-        <v>2779</v>
+        <v>2766</v>
       </c>
       <c r="BQ80" t="n">
-        <v>2372</v>
+        <v>2365</v>
       </c>
       <c r="BR80" t="n">
-        <v>919</v>
+        <v>897</v>
       </c>
       <c r="BT80" t="n">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="BU80" t="n">
-        <v>1919</v>
+        <v>1916</v>
       </c>
       <c r="BV80" t="n">
-        <v>1017</v>
+        <v>2073</v>
       </c>
       <c r="BX80" t="n">
         <v>40</v>
@@ -22829,52 +22853,52 @@
         </is>
       </c>
       <c r="AQ81" t="n">
-        <v>4384</v>
+        <v>4355</v>
       </c>
       <c r="AR81" t="n">
-        <v>8124</v>
+        <v>8112</v>
       </c>
       <c r="AS81" t="n">
-        <v>4239</v>
+        <v>4225</v>
       </c>
       <c r="AT81" t="n">
-        <v>8918</v>
+        <v>8810</v>
       </c>
       <c r="AU81" t="n">
-        <v>10252</v>
+        <v>10233</v>
       </c>
       <c r="AV81" t="n">
-        <v>9696</v>
+        <v>9658</v>
       </c>
       <c r="AW81" t="n">
-        <v>5357</v>
+        <v>5349</v>
       </c>
       <c r="AX81" t="n">
-        <v>3987</v>
+        <v>3965</v>
       </c>
       <c r="AY81" t="n">
-        <v>5012</v>
+        <v>4974</v>
       </c>
       <c r="AZ81" t="n">
-        <v>3686</v>
+        <v>3635</v>
       </c>
       <c r="BA81" t="n">
-        <v>3634</v>
+        <v>3597</v>
       </c>
       <c r="BB81" t="n">
-        <v>4328</v>
+        <v>4306</v>
       </c>
       <c r="BC81" t="n">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="BD81" t="n">
-        <v>1517</v>
+        <v>1513</v>
       </c>
       <c r="BE81" t="n">
-        <v>3316</v>
+        <v>3299</v>
       </c>
       <c r="BF81" t="n">
-        <v>5131</v>
+        <v>5127</v>
       </c>
       <c r="BG81" t="n">
         <v>2306</v>
@@ -22883,43 +22907,43 @@
         <v>4051</v>
       </c>
       <c r="BI81" t="n">
-        <v>4597</v>
+        <v>4569</v>
       </c>
       <c r="BJ81" t="n">
-        <v>3639</v>
+        <v>3626</v>
       </c>
       <c r="BK81" t="n">
-        <v>3574</v>
+        <v>3548</v>
       </c>
       <c r="BL81" t="n">
-        <v>3147</v>
+        <v>3085</v>
       </c>
       <c r="BM81" t="n">
-        <v>4828</v>
+        <v>4808</v>
       </c>
       <c r="BN81" t="n">
-        <v>2923</v>
+        <v>2913</v>
       </c>
       <c r="BO81" t="n">
-        <v>2671</v>
+        <v>2654</v>
       </c>
       <c r="BP81" t="n">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="BQ81" t="n">
-        <v>4574</v>
+        <v>4554</v>
       </c>
       <c r="BR81" t="n">
-        <v>3629</v>
+        <v>3602</v>
       </c>
       <c r="BT81" t="n">
-        <v>4965</v>
+        <v>4919</v>
       </c>
       <c r="BU81" t="n">
-        <v>2218</v>
+        <v>2186</v>
       </c>
       <c r="BV81" t="n">
-        <v>2788</v>
+        <v>2779</v>
       </c>
       <c r="BY81" t="n">
         <v>1024</v>
@@ -23116,13 +23140,13 @@
         </is>
       </c>
       <c r="AQ82" t="n">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AR82" t="n">
         <v>1365</v>
       </c>
       <c r="AS82" t="n">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="AT82" t="n">
         <v>487</v>
@@ -23140,16 +23164,16 @@
         <v>938</v>
       </c>
       <c r="AY82" t="n">
-        <v>1230</v>
+        <v>1226</v>
       </c>
       <c r="AZ82" t="n">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="BA82" t="n">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="BB82" t="n">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BC82" t="n">
         <v>689</v>
@@ -23158,7 +23182,7 @@
         <v>518</v>
       </c>
       <c r="BE82" t="n">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="BF82" t="n">
         <v>677</v>
@@ -23170,16 +23194,16 @@
         <v>544</v>
       </c>
       <c r="BI82" t="n">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="BJ82" t="n">
-        <v>954</v>
+        <v>944</v>
       </c>
       <c r="BK82" t="n">
         <v>1336</v>
       </c>
       <c r="BL82" t="n">
-        <v>649</v>
+        <v>620</v>
       </c>
       <c r="BM82" t="n">
         <v>628</v>
@@ -23194,19 +23218,19 @@
         <v>415</v>
       </c>
       <c r="BQ82" t="n">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="BR82" t="n">
         <v>229</v>
       </c>
       <c r="BT82" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="BU82" t="n">
         <v>686</v>
       </c>
       <c r="BV82" t="n">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="BX82" t="n">
         <v>22</v>

--- a/Data/branch_wise_aging_stock.xlsx
+++ b/Data/branch_wise_aging_stock.xlsx
@@ -1031,7 +1031,7 @@
         <v>91</v>
       </c>
       <c r="AY2" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AZ2" t="n">
         <v>59</v>
@@ -1055,7 +1055,7 @@
         <v>114</v>
       </c>
       <c r="BG2" t="n">
-        <v>617</v>
+        <v>472</v>
       </c>
       <c r="BH2" t="n">
         <v>255</v>
@@ -1064,7 +1064,7 @@
         <v>60</v>
       </c>
       <c r="BJ2" t="n">
-        <v>227</v>
+        <v>177</v>
       </c>
       <c r="BK2" t="n">
         <v>68</v>
@@ -1076,7 +1076,7 @@
         <v>194</v>
       </c>
       <c r="BN2" t="n">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="BO2" t="n">
         <v>43</v>
@@ -1289,25 +1289,25 @@
         <v>366</v>
       </c>
       <c r="AR3" t="n">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AS3" t="n">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="AT3" t="n">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="AU3" t="n">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="AV3" t="n">
         <v>1083</v>
       </c>
       <c r="AW3" t="n">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="AX3" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AY3" t="n">
         <v>539</v>
@@ -1334,25 +1334,25 @@
         <v>272</v>
       </c>
       <c r="BG3" t="n">
-        <v>5260</v>
+        <v>5257</v>
       </c>
       <c r="BH3" t="n">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="BI3" t="n">
         <v>434</v>
       </c>
       <c r="BJ3" t="n">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="BK3" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="BL3" t="n">
         <v>773</v>
       </c>
       <c r="BM3" t="n">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="BN3" t="n">
         <v>218</v>
@@ -1370,10 +1370,10 @@
         <v>548</v>
       </c>
       <c r="BT3" t="n">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="BU3" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="BV3" t="n">
         <v>458</v>
@@ -1553,7 +1553,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN4" t="n">
@@ -1585,10 +1585,10 @@
         <v>202</v>
       </c>
       <c r="AV4" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AW4" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="AX4" t="n">
         <v>169</v>
@@ -1615,31 +1615,31 @@
         <v>165</v>
       </c>
       <c r="BF4" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BG4" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="BH4" t="n">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="BI4" t="n">
         <v>101</v>
       </c>
       <c r="BJ4" t="n">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="BK4" t="n">
         <v>103</v>
       </c>
       <c r="BL4" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BM4" t="n">
         <v>66</v>
       </c>
       <c r="BN4" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="BO4" t="n">
         <v>204</v>
@@ -1654,7 +1654,7 @@
         <v>57</v>
       </c>
       <c r="BT4" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BU4" t="n">
         <v>187</v>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN5" t="n">
@@ -1863,16 +1863,16 @@
         <v>218</v>
       </c>
       <c r="AS5" t="n">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AT5" t="n">
         <v>656</v>
       </c>
       <c r="AU5" t="n">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AV5" t="n">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="AW5" t="n">
         <v>178</v>
@@ -1890,13 +1890,13 @@
         <v>262</v>
       </c>
       <c r="BB5" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="BC5" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BD5" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BE5" t="n">
         <v>157</v>
@@ -1905,16 +1905,16 @@
         <v>306</v>
       </c>
       <c r="BG5" t="n">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="BH5" t="n">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="BI5" t="n">
         <v>151</v>
       </c>
       <c r="BJ5" t="n">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="BK5" t="n">
         <v>124</v>
@@ -1923,10 +1923,10 @@
         <v>274</v>
       </c>
       <c r="BM5" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BN5" t="n">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BO5" t="n">
         <v>219</v>
@@ -1941,10 +1941,10 @@
         <v>253</v>
       </c>
       <c r="BT5" t="n">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="BU5" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BV5" t="n">
         <v>202</v>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN6" t="n">
@@ -2144,76 +2144,76 @@
         </is>
       </c>
       <c r="AQ6" t="n">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AR6" t="n">
-        <v>1294</v>
+        <v>1290</v>
       </c>
       <c r="AS6" t="n">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="AT6" t="n">
         <v>1110</v>
       </c>
       <c r="AU6" t="n">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="AV6" t="n">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="AW6" t="n">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="AX6" t="n">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AY6" t="n">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AZ6" t="n">
         <v>2122</v>
       </c>
       <c r="BA6" t="n">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="BB6" t="n">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="BC6" t="n">
         <v>501</v>
       </c>
       <c r="BD6" t="n">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="BE6" t="n">
         <v>588</v>
       </c>
       <c r="BF6" t="n">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="BG6" t="n">
-        <v>5149</v>
+        <v>4861</v>
       </c>
       <c r="BH6" t="n">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="BI6" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BJ6" t="n">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="BK6" t="n">
         <v>540</v>
       </c>
       <c r="BL6" t="n">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="BM6" t="n">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="BN6" t="n">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="BO6" t="n">
         <v>727</v>
@@ -2225,10 +2225,10 @@
         <v>798</v>
       </c>
       <c r="BR6" t="n">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="BT6" t="n">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="BU6" t="n">
         <v>599</v>
@@ -2342,11 +2342,6 @@
           <t>More Than 120 Days</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>More Than 120 Days</t>
-        </is>
-      </c>
       <c r="W7" t="inlineStr">
         <is>
           <t>More Than 120 Days</t>
@@ -2426,94 +2421,91 @@
         </is>
       </c>
       <c r="AQ7" t="n">
-        <v>549</v>
+        <v>385</v>
       </c>
       <c r="AR7" t="n">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="AS7" t="n">
-        <v>654</v>
+        <v>281</v>
       </c>
       <c r="AT7" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AU7" t="n">
-        <v>525</v>
+        <v>340</v>
       </c>
       <c r="AV7" t="n">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="AW7" t="n">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="AX7" t="n">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="AY7" t="n">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="AZ7" t="n">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="BA7" t="n">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="BB7" t="n">
-        <v>655</v>
+        <v>635</v>
       </c>
       <c r="BC7" t="n">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="BD7" t="n">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="BE7" t="n">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BF7" t="n">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="BG7" t="n">
-        <v>178</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="BI7" t="n">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="BJ7" t="n">
-        <v>346</v>
+        <v>244</v>
       </c>
       <c r="BK7" t="n">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="BL7" t="n">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="BM7" t="n">
-        <v>481</v>
+        <v>463</v>
       </c>
       <c r="BN7" t="n">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="BO7" t="n">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="BP7" t="n">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="BQ7" t="n">
-        <v>640</v>
+        <v>441</v>
       </c>
       <c r="BR7" t="n">
-        <v>986</v>
+        <v>329</v>
       </c>
       <c r="BT7" t="n">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="BU7" t="n">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="BV7" t="n">
         <v>285</v>
@@ -2693,7 +2685,7 @@
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN8" t="n">
@@ -2761,7 +2753,7 @@
         <v>2875</v>
       </c>
       <c r="BH8" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="BI8" t="n">
         <v>56</v>
@@ -2980,7 +2972,7 @@
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN9" t="n">
@@ -3000,25 +2992,25 @@
         <v>488</v>
       </c>
       <c r="AR9" t="n">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="AS9" t="n">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AT9" t="n">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="AU9" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="AV9" t="n">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AW9" t="n">
         <v>115</v>
       </c>
       <c r="AX9" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="AY9" t="n">
         <v>675</v>
@@ -3027,40 +3019,40 @@
         <v>475</v>
       </c>
       <c r="BA9" t="n">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BB9" t="n">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="BC9" t="n">
         <v>322</v>
       </c>
       <c r="BD9" t="n">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="BE9" t="n">
         <v>163</v>
       </c>
       <c r="BF9" t="n">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="BG9" t="n">
-        <v>537</v>
+        <v>469</v>
       </c>
       <c r="BH9" t="n">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="BI9" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BJ9" t="n">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="BK9" t="n">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="BL9" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="BM9" t="n">
         <v>484</v>
@@ -3069,7 +3061,7 @@
         <v>386</v>
       </c>
       <c r="BO9" t="n">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="BP9" t="n">
         <v>350</v>
@@ -3267,7 +3259,7 @@
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN10" t="n">
@@ -3290,19 +3282,19 @@
         <v>170</v>
       </c>
       <c r="AS10" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AT10" t="n">
         <v>95</v>
       </c>
       <c r="AU10" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AV10" t="n">
         <v>69</v>
       </c>
       <c r="AW10" t="n">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="AX10" t="n">
         <v>169</v>
@@ -3353,10 +3345,10 @@
         <v>69</v>
       </c>
       <c r="BN10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BO10" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BP10" t="n">
         <v>96</v>
@@ -3554,7 +3546,7 @@
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN11" t="n">
@@ -3571,94 +3563,94 @@
         </is>
       </c>
       <c r="AQ11" t="n">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="AR11" t="n">
-        <v>590</v>
+        <v>575</v>
       </c>
       <c r="AS11" t="n">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="AT11" t="n">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="AU11" t="n">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="AV11" t="n">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="AW11" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="AX11" t="n">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="AY11" t="n">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="AZ11" t="n">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="BA11" t="n">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="BB11" t="n">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="BC11" t="n">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="BD11" t="n">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="BE11" t="n">
         <v>580</v>
       </c>
       <c r="BF11" t="n">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="BG11" t="n">
-        <v>1261</v>
+        <v>1065</v>
       </c>
       <c r="BH11" t="n">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="BI11" t="n">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="BJ11" t="n">
-        <v>614</v>
+        <v>587</v>
       </c>
       <c r="BK11" t="n">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="BL11" t="n">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="BM11" t="n">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="BN11" t="n">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="BO11" t="n">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="BP11" t="n">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="BQ11" t="n">
         <v>424</v>
       </c>
       <c r="BR11" t="n">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="BT11" t="n">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="BU11" t="n">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="BV11" t="n">
         <v>536</v>
@@ -3856,7 +3848,7 @@
         <v>88</v>
       </c>
       <c r="AR12" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AS12" t="n">
         <v>91</v>
@@ -3871,10 +3863,10 @@
         <v>110</v>
       </c>
       <c r="AW12" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AX12" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AY12" t="n">
         <v>215</v>
@@ -3883,34 +3875,34 @@
         <v>97</v>
       </c>
       <c r="BA12" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BB12" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="BC12" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BD12" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="BE12" t="n">
         <v>89</v>
       </c>
       <c r="BF12" t="n">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="BG12" t="n">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="BH12" t="n">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="BI12" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="BJ12" t="n">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="BK12" t="n">
         <v>65</v>
@@ -3922,7 +3914,7 @@
         <v>110</v>
       </c>
       <c r="BN12" t="n">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="BO12" t="n">
         <v>176</v>
@@ -3937,7 +3929,7 @@
         <v>81</v>
       </c>
       <c r="BT12" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="BU12" t="n">
         <v>47</v>
@@ -4120,7 +4112,7 @@
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN13" t="n">
@@ -4137,82 +4129,82 @@
         </is>
       </c>
       <c r="AQ13" t="n">
-        <v>1385</v>
+        <v>1375</v>
       </c>
       <c r="AR13" t="n">
-        <v>1203</v>
+        <v>1191</v>
       </c>
       <c r="AS13" t="n">
-        <v>801</v>
+        <v>770</v>
       </c>
       <c r="AT13" t="n">
-        <v>1588</v>
+        <v>1578</v>
       </c>
       <c r="AU13" t="n">
-        <v>1521</v>
+        <v>1498</v>
       </c>
       <c r="AV13" t="n">
-        <v>1864</v>
+        <v>1861</v>
       </c>
       <c r="AW13" t="n">
-        <v>1483</v>
+        <v>1473</v>
       </c>
       <c r="AX13" t="n">
-        <v>977</v>
+        <v>950</v>
       </c>
       <c r="AY13" t="n">
-        <v>1411</v>
+        <v>1405</v>
       </c>
       <c r="AZ13" t="n">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="BA13" t="n">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="BB13" t="n">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="BC13" t="n">
         <v>750</v>
       </c>
       <c r="BD13" t="n">
-        <v>1046</v>
+        <v>996</v>
       </c>
       <c r="BE13" t="n">
         <v>671</v>
       </c>
       <c r="BF13" t="n">
-        <v>700</v>
+        <v>668</v>
       </c>
       <c r="BG13" t="n">
-        <v>503</v>
+        <v>467</v>
       </c>
       <c r="BH13" t="n">
-        <v>1360</v>
+        <v>1344</v>
       </c>
       <c r="BI13" t="n">
-        <v>1379</v>
+        <v>1349</v>
       </c>
       <c r="BJ13" t="n">
-        <v>1982</v>
+        <v>1936</v>
       </c>
       <c r="BK13" t="n">
-        <v>1013</v>
+        <v>987</v>
       </c>
       <c r="BL13" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="BM13" t="n">
-        <v>907</v>
+        <v>889</v>
       </c>
       <c r="BN13" t="n">
-        <v>1301</v>
+        <v>1268</v>
       </c>
       <c r="BO13" t="n">
-        <v>1552</v>
+        <v>1558</v>
       </c>
       <c r="BP13" t="n">
-        <v>1913</v>
+        <v>1905</v>
       </c>
       <c r="BQ13" t="n">
         <v>1925</v>
@@ -4221,10 +4213,10 @@
         <v>1005</v>
       </c>
       <c r="BT13" t="n">
-        <v>1100</v>
+        <v>1083</v>
       </c>
       <c r="BU13" t="n">
-        <v>1244</v>
+        <v>1231</v>
       </c>
       <c r="BV13" t="n">
         <v>912</v>
@@ -4407,7 +4399,7 @@
       </c>
       <c r="AM14" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN14" t="n">
@@ -4424,73 +4416,73 @@
         </is>
       </c>
       <c r="AQ14" t="n">
-        <v>2977</v>
+        <v>2954</v>
       </c>
       <c r="AR14" t="n">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="AS14" t="n">
-        <v>2351</v>
+        <v>2328</v>
       </c>
       <c r="AT14" t="n">
         <v>2409</v>
       </c>
       <c r="AU14" t="n">
-        <v>2200</v>
+        <v>2188</v>
       </c>
       <c r="AV14" t="n">
-        <v>2599</v>
+        <v>2593</v>
       </c>
       <c r="AW14" t="n">
-        <v>1987</v>
+        <v>1972</v>
       </c>
       <c r="AX14" t="n">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="AY14" t="n">
         <v>1622</v>
       </c>
       <c r="AZ14" t="n">
-        <v>2578</v>
+        <v>2568</v>
       </c>
       <c r="BA14" t="n">
         <v>1765</v>
       </c>
       <c r="BB14" t="n">
-        <v>2301</v>
+        <v>2244</v>
       </c>
       <c r="BC14" t="n">
         <v>1104</v>
       </c>
       <c r="BD14" t="n">
-        <v>2528</v>
+        <v>2504</v>
       </c>
       <c r="BE14" t="n">
         <v>2148</v>
       </c>
       <c r="BF14" t="n">
-        <v>1557</v>
+        <v>1495</v>
       </c>
       <c r="BG14" t="n">
-        <v>2285</v>
+        <v>2276</v>
       </c>
       <c r="BH14" t="n">
-        <v>3409</v>
+        <v>3407</v>
       </c>
       <c r="BI14" t="n">
-        <v>2534</v>
+        <v>2528</v>
       </c>
       <c r="BJ14" t="n">
-        <v>1633</v>
+        <v>1627</v>
       </c>
       <c r="BK14" t="n">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="BL14" t="n">
-        <v>1830</v>
+        <v>1760</v>
       </c>
       <c r="BM14" t="n">
-        <v>2475</v>
+        <v>2473</v>
       </c>
       <c r="BN14" t="n">
         <v>2291</v>
@@ -4508,10 +4500,10 @@
         <v>2434</v>
       </c>
       <c r="BT14" t="n">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="BU14" t="n">
-        <v>2722</v>
+        <v>2716</v>
       </c>
       <c r="BV14" t="n">
         <v>2214</v>
@@ -4694,7 +4686,7 @@
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN15" t="n">
@@ -4711,94 +4703,94 @@
         </is>
       </c>
       <c r="AQ15" t="n">
-        <v>3150</v>
+        <v>3137</v>
       </c>
       <c r="AR15" t="n">
-        <v>6146</v>
+        <v>6094</v>
       </c>
       <c r="AS15" t="n">
-        <v>5887</v>
+        <v>5854</v>
       </c>
       <c r="AT15" t="n">
-        <v>1781</v>
+        <v>1772</v>
       </c>
       <c r="AU15" t="n">
-        <v>2717</v>
+        <v>2671</v>
       </c>
       <c r="AV15" t="n">
-        <v>5150</v>
+        <v>5136</v>
       </c>
       <c r="AW15" t="n">
-        <v>3994</v>
+        <v>3983</v>
       </c>
       <c r="AX15" t="n">
-        <v>6886</v>
+        <v>6844</v>
       </c>
       <c r="AY15" t="n">
-        <v>5750</v>
+        <v>5725</v>
       </c>
       <c r="AZ15" t="n">
-        <v>2320</v>
+        <v>2306</v>
       </c>
       <c r="BA15" t="n">
-        <v>7034</v>
+        <v>7030</v>
       </c>
       <c r="BB15" t="n">
-        <v>4628</v>
+        <v>4605</v>
       </c>
       <c r="BC15" t="n">
-        <v>4308</v>
+        <v>4301</v>
       </c>
       <c r="BD15" t="n">
-        <v>4142</v>
+        <v>4129</v>
       </c>
       <c r="BE15" t="n">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="BF15" t="n">
-        <v>3827</v>
+        <v>3786</v>
       </c>
       <c r="BG15" t="n">
-        <v>4775</v>
+        <v>3013</v>
       </c>
       <c r="BH15" t="n">
-        <v>4378</v>
+        <v>4331</v>
       </c>
       <c r="BI15" t="n">
-        <v>3738</v>
+        <v>3717</v>
       </c>
       <c r="BJ15" t="n">
-        <v>3722</v>
+        <v>3668</v>
       </c>
       <c r="BK15" t="n">
-        <v>3272</v>
+        <v>3256</v>
       </c>
       <c r="BL15" t="n">
-        <v>2395</v>
+        <v>2383</v>
       </c>
       <c r="BM15" t="n">
-        <v>3499</v>
+        <v>3456</v>
       </c>
       <c r="BN15" t="n">
-        <v>5407</v>
+        <v>5326</v>
       </c>
       <c r="BO15" t="n">
-        <v>2016</v>
+        <v>2008</v>
       </c>
       <c r="BP15" t="n">
-        <v>3481</v>
+        <v>3470</v>
       </c>
       <c r="BQ15" t="n">
         <v>3973</v>
       </c>
       <c r="BR15" t="n">
-        <v>3207</v>
+        <v>3197</v>
       </c>
       <c r="BT15" t="n">
-        <v>1919</v>
+        <v>1874</v>
       </c>
       <c r="BU15" t="n">
-        <v>2542</v>
+        <v>2505</v>
       </c>
       <c r="BV15" t="n">
         <v>1662</v>
@@ -4981,7 +4973,7 @@
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN16" t="n">
@@ -4998,94 +4990,94 @@
         </is>
       </c>
       <c r="AQ16" t="n">
-        <v>1238</v>
+        <v>1223</v>
       </c>
       <c r="AR16" t="n">
-        <v>2236</v>
+        <v>2221</v>
       </c>
       <c r="AS16" t="n">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="AT16" t="n">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="AU16" t="n">
-        <v>1413</v>
+        <v>1394</v>
       </c>
       <c r="AV16" t="n">
-        <v>1430</v>
+        <v>1428</v>
       </c>
       <c r="AW16" t="n">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="AX16" t="n">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="AY16" t="n">
-        <v>1695</v>
+        <v>1690</v>
       </c>
       <c r="AZ16" t="n">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="BA16" t="n">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="BB16" t="n">
-        <v>1761</v>
+        <v>1743</v>
       </c>
       <c r="BC16" t="n">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="BD16" t="n">
-        <v>1175</v>
+        <v>1169</v>
       </c>
       <c r="BE16" t="n">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="BF16" t="n">
-        <v>1435</v>
+        <v>1411</v>
       </c>
       <c r="BG16" t="n">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="BH16" t="n">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="BI16" t="n">
-        <v>1157</v>
+        <v>1147</v>
       </c>
       <c r="BJ16" t="n">
-        <v>1160</v>
+        <v>1140</v>
       </c>
       <c r="BK16" t="n">
-        <v>2093</v>
+        <v>2090</v>
       </c>
       <c r="BL16" t="n">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="BM16" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="BN16" t="n">
-        <v>1270</v>
+        <v>1255</v>
       </c>
       <c r="BO16" t="n">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="BP16" t="n">
-        <v>1447</v>
+        <v>1439</v>
       </c>
       <c r="BQ16" t="n">
-        <v>1154</v>
+        <v>1156</v>
       </c>
       <c r="BR16" t="n">
-        <v>2755</v>
+        <v>2753</v>
       </c>
       <c r="BT16" t="n">
-        <v>1086</v>
+        <v>1071</v>
       </c>
       <c r="BU16" t="n">
-        <v>1247</v>
+        <v>1230</v>
       </c>
       <c r="BV16" t="n">
         <v>711</v>
@@ -5268,7 +5260,7 @@
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN17" t="n">
@@ -5285,94 +5277,94 @@
         </is>
       </c>
       <c r="AQ17" t="n">
-        <v>2536</v>
+        <v>3835</v>
       </c>
       <c r="AR17" t="n">
-        <v>6559</v>
+        <v>6537</v>
       </c>
       <c r="AS17" t="n">
-        <v>3894</v>
+        <v>3859</v>
       </c>
       <c r="AT17" t="n">
-        <v>2542</v>
+        <v>2529</v>
       </c>
       <c r="AU17" t="n">
-        <v>3085</v>
+        <v>3045</v>
       </c>
       <c r="AV17" t="n">
-        <v>2033</v>
+        <v>2017</v>
       </c>
       <c r="AW17" t="n">
-        <v>2858</v>
+        <v>2849</v>
       </c>
       <c r="AX17" t="n">
-        <v>4019</v>
+        <v>3990</v>
       </c>
       <c r="AY17" t="n">
-        <v>5373</v>
+        <v>6683</v>
       </c>
       <c r="AZ17" t="n">
-        <v>3963</v>
+        <v>3953</v>
       </c>
       <c r="BA17" t="n">
-        <v>4135</v>
+        <v>4127</v>
       </c>
       <c r="BB17" t="n">
-        <v>2395</v>
+        <v>2372</v>
       </c>
       <c r="BC17" t="n">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="BD17" t="n">
-        <v>5801</v>
+        <v>5782</v>
       </c>
       <c r="BE17" t="n">
-        <v>2496</v>
+        <v>2493</v>
       </c>
       <c r="BF17" t="n">
-        <v>1880</v>
+        <v>1833</v>
       </c>
       <c r="BG17" t="n">
-        <v>7160</v>
+        <v>19654</v>
       </c>
       <c r="BH17" t="n">
-        <v>1970</v>
+        <v>1936</v>
       </c>
       <c r="BI17" t="n">
-        <v>3068</v>
+        <v>3052</v>
       </c>
       <c r="BJ17" t="n">
-        <v>2894</v>
+        <v>2849</v>
       </c>
       <c r="BK17" t="n">
-        <v>5839</v>
+        <v>5836</v>
       </c>
       <c r="BL17" t="n">
-        <v>2395</v>
+        <v>2390</v>
       </c>
       <c r="BM17" t="n">
-        <v>4080</v>
+        <v>5335</v>
       </c>
       <c r="BN17" t="n">
-        <v>4488</v>
+        <v>4455</v>
       </c>
       <c r="BO17" t="n">
-        <v>1923</v>
+        <v>2569</v>
       </c>
       <c r="BP17" t="n">
-        <v>2049</v>
+        <v>2028</v>
       </c>
       <c r="BQ17" t="n">
         <v>3335</v>
       </c>
       <c r="BR17" t="n">
-        <v>4140</v>
+        <v>4130</v>
       </c>
       <c r="BT17" t="n">
-        <v>1183</v>
+        <v>1152</v>
       </c>
       <c r="BU17" t="n">
-        <v>2985</v>
+        <v>2957</v>
       </c>
       <c r="BV17" t="n">
         <v>3662</v>
@@ -5555,7 +5547,7 @@
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN18" t="n">
@@ -5575,7 +5567,7 @@
         <v>400</v>
       </c>
       <c r="AR18" t="n">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="AS18" t="n">
         <v>323</v>
@@ -5584,13 +5576,13 @@
         <v>261</v>
       </c>
       <c r="AU18" t="n">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AV18" t="n">
         <v>266</v>
       </c>
       <c r="AW18" t="n">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="AX18" t="n">
         <v>320</v>
@@ -5614,28 +5606,28 @@
         <v>370</v>
       </c>
       <c r="BE18" t="n">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BF18" t="n">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="BG18" t="n">
         <v>3685</v>
       </c>
       <c r="BH18" t="n">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="BI18" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="BJ18" t="n">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="BK18" t="n">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="BL18" t="n">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="BM18" t="n">
         <v>103</v>
@@ -5644,7 +5636,7 @@
         <v>144</v>
       </c>
       <c r="BO18" t="n">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="BP18" t="n">
         <v>227</v>
@@ -5656,10 +5648,10 @@
         <v>433</v>
       </c>
       <c r="BT18" t="n">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="BU18" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="BV18" t="n">
         <v>298</v>
@@ -5842,7 +5834,7 @@
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN19" t="n">
@@ -5862,10 +5854,10 @@
         <v>311</v>
       </c>
       <c r="AR19" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AS19" t="n">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="AT19" t="n">
         <v>122</v>
@@ -5880,7 +5872,7 @@
         <v>375</v>
       </c>
       <c r="AX19" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AY19" t="n">
         <v>234</v>
@@ -5892,7 +5884,7 @@
         <v>127</v>
       </c>
       <c r="BB19" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BC19" t="n">
         <v>222</v>
@@ -5907,7 +5899,7 @@
         <v>165</v>
       </c>
       <c r="BG19" t="n">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="BH19" t="n">
         <v>359</v>
@@ -5916,10 +5908,10 @@
         <v>279</v>
       </c>
       <c r="BJ19" t="n">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="BK19" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BL19" t="n">
         <v>507</v>
@@ -5943,10 +5935,10 @@
         <v>340</v>
       </c>
       <c r="BT19" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="BU19" t="n">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="BV19" t="n">
         <v>179</v>
@@ -6129,7 +6121,7 @@
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN20" t="n">
@@ -6146,94 +6138,94 @@
         </is>
       </c>
       <c r="AQ20" t="n">
-        <v>6716</v>
+        <v>6682</v>
       </c>
       <c r="AR20" t="n">
-        <v>8910</v>
+        <v>8888</v>
       </c>
       <c r="AS20" t="n">
-        <v>10849</v>
+        <v>10791</v>
       </c>
       <c r="AT20" t="n">
-        <v>7036</v>
+        <v>6965</v>
       </c>
       <c r="AU20" t="n">
-        <v>11580</v>
+        <v>11480</v>
       </c>
       <c r="AV20" t="n">
-        <v>9204</v>
+        <v>9167</v>
       </c>
       <c r="AW20" t="n">
-        <v>6744</v>
+        <v>6705</v>
       </c>
       <c r="AX20" t="n">
-        <v>8916</v>
+        <v>8863</v>
       </c>
       <c r="AY20" t="n">
-        <v>7166</v>
+        <v>7150</v>
       </c>
       <c r="AZ20" t="n">
-        <v>6170</v>
+        <v>6142</v>
       </c>
       <c r="BA20" t="n">
-        <v>10361</v>
+        <v>10349</v>
       </c>
       <c r="BB20" t="n">
-        <v>4746</v>
+        <v>4709</v>
       </c>
       <c r="BC20" t="n">
-        <v>4720</v>
+        <v>4698</v>
       </c>
       <c r="BD20" t="n">
-        <v>4198</v>
+        <v>4182</v>
       </c>
       <c r="BE20" t="n">
-        <v>4388</v>
+        <v>4376</v>
       </c>
       <c r="BF20" t="n">
-        <v>6786</v>
+        <v>6680</v>
       </c>
       <c r="BG20" t="n">
-        <v>3137</v>
+        <v>9511</v>
       </c>
       <c r="BH20" t="n">
-        <v>3165</v>
+        <v>3147</v>
       </c>
       <c r="BI20" t="n">
-        <v>5120</v>
+        <v>5010</v>
       </c>
       <c r="BJ20" t="n">
-        <v>4053</v>
+        <v>4016</v>
       </c>
       <c r="BK20" t="n">
-        <v>7241</v>
+        <v>7233</v>
       </c>
       <c r="BL20" t="n">
-        <v>7887</v>
+        <v>7826</v>
       </c>
       <c r="BM20" t="n">
-        <v>3828</v>
+        <v>3650</v>
       </c>
       <c r="BN20" t="n">
-        <v>5342</v>
+        <v>5240</v>
       </c>
       <c r="BO20" t="n">
-        <v>6807</v>
+        <v>6806</v>
       </c>
       <c r="BP20" t="n">
-        <v>5546</v>
+        <v>5515</v>
       </c>
       <c r="BQ20" t="n">
         <v>8528</v>
       </c>
       <c r="BR20" t="n">
-        <v>7117</v>
+        <v>7094</v>
       </c>
       <c r="BT20" t="n">
-        <v>6388</v>
+        <v>6357</v>
       </c>
       <c r="BU20" t="n">
-        <v>5117</v>
+        <v>5056</v>
       </c>
       <c r="BV20" t="n">
         <v>3679</v>
@@ -6423,34 +6415,34 @@
         </is>
       </c>
       <c r="AQ21" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AR21" t="n">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="AS21" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AT21" t="n">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AU21" t="n">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AV21" t="n">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AW21" t="n">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="AX21" t="n">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="AY21" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AZ21" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BA21" t="n">
         <v>423</v>
@@ -6459,43 +6451,43 @@
         <v>106</v>
       </c>
       <c r="BC21" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BD21" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="BE21" t="n">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="BF21" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="BG21" t="n">
-        <v>5161</v>
+        <v>5135</v>
       </c>
       <c r="BH21" t="n">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="BJ21" t="n">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="BK21" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BL21" t="n">
         <v>84</v>
       </c>
       <c r="BM21" t="n">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="BN21" t="n">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="BO21" t="n">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="BP21" t="n">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="BQ21" t="n">
         <v>194</v>
@@ -6504,10 +6496,10 @@
         <v>289</v>
       </c>
       <c r="BT21" t="n">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="BU21" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BV21" t="n">
         <v>882</v>
@@ -6687,7 +6679,7 @@
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN22" t="n">
@@ -6704,94 +6696,94 @@
         </is>
       </c>
       <c r="AQ22" t="n">
-        <v>6937</v>
+        <v>6917</v>
       </c>
       <c r="AR22" t="n">
-        <v>11114</v>
+        <v>11040</v>
       </c>
       <c r="AS22" t="n">
-        <v>7261</v>
+        <v>7240</v>
       </c>
       <c r="AT22" t="n">
-        <v>5491</v>
+        <v>5482</v>
       </c>
       <c r="AU22" t="n">
-        <v>5422</v>
+        <v>5387</v>
       </c>
       <c r="AV22" t="n">
-        <v>6315</v>
+        <v>6301</v>
       </c>
       <c r="AW22" t="n">
-        <v>6914</v>
+        <v>6908</v>
       </c>
       <c r="AX22" t="n">
-        <v>6529</v>
+        <v>6477</v>
       </c>
       <c r="AY22" t="n">
-        <v>8997</v>
+        <v>8985</v>
       </c>
       <c r="AZ22" t="n">
-        <v>2864</v>
+        <v>2861</v>
       </c>
       <c r="BA22" t="n">
-        <v>8767</v>
+        <v>8754</v>
       </c>
       <c r="BB22" t="n">
-        <v>3038</v>
+        <v>3015</v>
       </c>
       <c r="BC22" t="n">
-        <v>5798</v>
+        <v>5785</v>
       </c>
       <c r="BD22" t="n">
-        <v>4906</v>
+        <v>4883</v>
       </c>
       <c r="BE22" t="n">
-        <v>3581</v>
+        <v>3579</v>
       </c>
       <c r="BF22" t="n">
-        <v>5361</v>
+        <v>5293</v>
       </c>
       <c r="BG22" t="n">
-        <v>2496</v>
+        <v>1638</v>
       </c>
       <c r="BH22" t="n">
-        <v>3102</v>
+        <v>3088</v>
       </c>
       <c r="BI22" t="n">
-        <v>4790</v>
+        <v>4764</v>
       </c>
       <c r="BJ22" t="n">
-        <v>2383</v>
+        <v>2325</v>
       </c>
       <c r="BK22" t="n">
-        <v>3965</v>
+        <v>3944</v>
       </c>
       <c r="BL22" t="n">
-        <v>7091</v>
+        <v>7085</v>
       </c>
       <c r="BM22" t="n">
-        <v>3983</v>
+        <v>3921</v>
       </c>
       <c r="BN22" t="n">
-        <v>7322</v>
+        <v>7271</v>
       </c>
       <c r="BO22" t="n">
-        <v>6416</v>
+        <v>6403</v>
       </c>
       <c r="BP22" t="n">
-        <v>5059</v>
+        <v>5056</v>
       </c>
       <c r="BQ22" t="n">
         <v>8436</v>
       </c>
       <c r="BR22" t="n">
-        <v>4655</v>
+        <v>4641</v>
       </c>
       <c r="BT22" t="n">
-        <v>4196</v>
+        <v>4166</v>
       </c>
       <c r="BU22" t="n">
-        <v>2407</v>
+        <v>2382</v>
       </c>
       <c r="BV22" t="n">
         <v>1608</v>
@@ -6974,7 +6966,7 @@
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN23" t="n">
@@ -7024,7 +7016,7 @@
         <v>560</v>
       </c>
       <c r="BB23" t="n">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="BC23" t="n">
         <v>887</v>
@@ -7039,7 +7031,7 @@
         <v>834</v>
       </c>
       <c r="BG23" t="n">
-        <v>2594</v>
+        <v>2438</v>
       </c>
       <c r="BH23" t="n">
         <v>1653</v>
@@ -7048,7 +7040,7 @@
         <v>730</v>
       </c>
       <c r="BJ23" t="n">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="BK23" t="n">
         <v>322</v>
@@ -7072,7 +7064,7 @@
         <v>844</v>
       </c>
       <c r="BR23" t="n">
-        <v>656</v>
+        <v>606</v>
       </c>
       <c r="BT23" t="n">
         <v>311</v>
@@ -7261,7 +7253,7 @@
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN24" t="n">
@@ -7278,13 +7270,13 @@
         </is>
       </c>
       <c r="AQ24" t="n">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AR24" t="n">
         <v>489</v>
       </c>
       <c r="AS24" t="n">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AT24" t="n">
         <v>249</v>
@@ -7293,10 +7285,10 @@
         <v>209</v>
       </c>
       <c r="AV24" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AW24" t="n">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="AX24" t="n">
         <v>393</v>
@@ -7311,49 +7303,49 @@
         <v>249</v>
       </c>
       <c r="BB24" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="BC24" t="n">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="BD24" t="n">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="BE24" t="n">
         <v>162</v>
       </c>
       <c r="BF24" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="BG24" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="BH24" t="n">
         <v>182</v>
       </c>
       <c r="BI24" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BJ24" t="n">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="BK24" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="BL24" t="n">
         <v>104</v>
       </c>
       <c r="BM24" t="n">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="BN24" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BO24" t="n">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BP24" t="n">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BQ24" t="n">
         <v>497</v>
@@ -7362,10 +7354,10 @@
         <v>332</v>
       </c>
       <c r="BT24" t="n">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="BU24" t="n">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="BV24" t="n">
         <v>260</v>
@@ -7548,7 +7540,7 @@
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN25" t="n">
@@ -7565,13 +7557,13 @@
         </is>
       </c>
       <c r="AQ25" t="n">
-        <v>4997</v>
+        <v>4962</v>
       </c>
       <c r="AR25" t="n">
-        <v>4850</v>
+        <v>4839</v>
       </c>
       <c r="AS25" t="n">
-        <v>3224</v>
+        <v>3218</v>
       </c>
       <c r="AT25" t="n">
         <v>2672</v>
@@ -7583,10 +7575,10 @@
         <v>2783</v>
       </c>
       <c r="AW25" t="n">
-        <v>2756</v>
+        <v>2750</v>
       </c>
       <c r="AX25" t="n">
-        <v>3950</v>
+        <v>3930</v>
       </c>
       <c r="AY25" t="n">
         <v>3655</v>
@@ -7595,10 +7587,10 @@
         <v>792</v>
       </c>
       <c r="BA25" t="n">
-        <v>3040</v>
+        <v>3035</v>
       </c>
       <c r="BB25" t="n">
-        <v>646</v>
+        <v>610</v>
       </c>
       <c r="BC25" t="n">
         <v>5220</v>
@@ -7610,10 +7602,10 @@
         <v>1444</v>
       </c>
       <c r="BF25" t="n">
-        <v>1731</v>
+        <v>1641</v>
       </c>
       <c r="BG25" t="n">
-        <v>1492</v>
+        <v>1272</v>
       </c>
       <c r="BH25" t="n">
         <v>2896</v>
@@ -7622,22 +7614,22 @@
         <v>3346</v>
       </c>
       <c r="BJ25" t="n">
-        <v>2348</v>
+        <v>2338</v>
       </c>
       <c r="BK25" t="n">
         <v>2562</v>
       </c>
       <c r="BL25" t="n">
-        <v>2409</v>
+        <v>2399</v>
       </c>
       <c r="BM25" t="n">
-        <v>2531</v>
+        <v>2481</v>
       </c>
       <c r="BN25" t="n">
-        <v>4814</v>
+        <v>4769</v>
       </c>
       <c r="BO25" t="n">
-        <v>3287</v>
+        <v>3262</v>
       </c>
       <c r="BP25" t="n">
         <v>3172</v>
@@ -7649,7 +7641,7 @@
         <v>854</v>
       </c>
       <c r="BT25" t="n">
-        <v>2924</v>
+        <v>2914</v>
       </c>
       <c r="BU25" t="n">
         <v>2691</v>
@@ -7835,7 +7827,7 @@
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN26" t="n">
@@ -7855,13 +7847,13 @@
         <v>2092</v>
       </c>
       <c r="AR26" t="n">
-        <v>8408</v>
+        <v>8390</v>
       </c>
       <c r="AS26" t="n">
-        <v>1038</v>
+        <v>947</v>
       </c>
       <c r="AT26" t="n">
-        <v>5075</v>
+        <v>5070</v>
       </c>
       <c r="AU26" t="n">
         <v>2128</v>
@@ -7873,7 +7865,7 @@
         <v>1511</v>
       </c>
       <c r="AX26" t="n">
-        <v>1499</v>
+        <v>1469</v>
       </c>
       <c r="AY26" t="n">
         <v>8894</v>
@@ -7882,10 +7874,10 @@
         <v>3058</v>
       </c>
       <c r="BA26" t="n">
-        <v>3643</v>
+        <v>3638</v>
       </c>
       <c r="BB26" t="n">
-        <v>4624</v>
+        <v>4584</v>
       </c>
       <c r="BC26" t="n">
         <v>3759</v>
@@ -7897,7 +7889,7 @@
         <v>1609</v>
       </c>
       <c r="BF26" t="n">
-        <v>7694</v>
+        <v>7664</v>
       </c>
       <c r="BG26" t="n">
         <v>2029</v>
@@ -7915,16 +7907,16 @@
         <v>2638</v>
       </c>
       <c r="BL26" t="n">
-        <v>1761</v>
+        <v>1751</v>
       </c>
       <c r="BM26" t="n">
-        <v>1501</v>
+        <v>1485</v>
       </c>
       <c r="BN26" t="n">
-        <v>10062</v>
+        <v>9910</v>
       </c>
       <c r="BO26" t="n">
-        <v>4150</v>
+        <v>4140</v>
       </c>
       <c r="BP26" t="n">
         <v>3553</v>
@@ -7936,7 +7928,7 @@
         <v>1603</v>
       </c>
       <c r="BT26" t="n">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="BU26" t="n">
         <v>1598</v>
@@ -8122,7 +8114,7 @@
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN27" t="n">
@@ -8157,13 +8149,13 @@
         <v>97</v>
       </c>
       <c r="AW27" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AX27" t="n">
         <v>159</v>
       </c>
       <c r="AY27" t="n">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="AZ27" t="n">
         <v>109</v>
@@ -8175,7 +8167,7 @@
         <v>88</v>
       </c>
       <c r="BC27" t="n">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="BD27" t="n">
         <v>94</v>
@@ -8184,10 +8176,10 @@
         <v>108</v>
       </c>
       <c r="BF27" t="n">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="BG27" t="n">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="BH27" t="n">
         <v>131</v>
@@ -8196,19 +8188,19 @@
         <v>132</v>
       </c>
       <c r="BJ27" t="n">
-        <v>195</v>
+        <v>167</v>
       </c>
       <c r="BK27" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BL27" t="n">
         <v>120</v>
       </c>
       <c r="BM27" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="BN27" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="BO27" t="n">
         <v>117</v>
@@ -8226,7 +8218,7 @@
         <v>129</v>
       </c>
       <c r="BU27" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BV27" t="n">
         <v>93</v>
@@ -8466,7 +8458,7 @@
         <v>7</v>
       </c>
       <c r="BF28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG28" t="n">
         <v>309</v>
@@ -8718,7 +8710,7 @@
         <v>64</v>
       </c>
       <c r="AW29" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="AX29" t="n">
         <v>54</v>
@@ -8967,7 +8959,7 @@
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN30" t="n">
@@ -9005,7 +8997,7 @@
         <v>82</v>
       </c>
       <c r="AX30" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AY30" t="n">
         <v>76</v>
@@ -9032,16 +9024,16 @@
         <v>22</v>
       </c>
       <c r="BG30" t="n">
+        <v>109</v>
+      </c>
+      <c r="BH30" t="n">
         <v>120</v>
-      </c>
-      <c r="BH30" t="n">
-        <v>123</v>
       </c>
       <c r="BI30" t="n">
         <v>59</v>
       </c>
       <c r="BJ30" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BK30" t="n">
         <v>26</v>
@@ -9068,7 +9060,7 @@
         <v>10</v>
       </c>
       <c r="BT30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BU30" t="n">
         <v>26</v>
@@ -9254,7 +9246,7 @@
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN31" t="n">
@@ -9289,10 +9281,10 @@
         <v>135</v>
       </c>
       <c r="AW31" t="n">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="AX31" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AY31" t="n">
         <v>119</v>
@@ -9304,7 +9296,7 @@
         <v>147</v>
       </c>
       <c r="BB31" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BC31" t="n">
         <v>122</v>
@@ -9316,10 +9308,10 @@
         <v>117</v>
       </c>
       <c r="BF31" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="BG31" t="n">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="BH31" t="n">
         <v>99</v>
@@ -9328,7 +9320,7 @@
         <v>101</v>
       </c>
       <c r="BJ31" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BK31" t="n">
         <v>68</v>
@@ -9337,7 +9329,7 @@
         <v>296</v>
       </c>
       <c r="BM31" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="BN31" t="n">
         <v>57</v>
@@ -9536,7 +9528,7 @@
       </c>
       <c r="AL32" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN32" t="n">
@@ -9562,7 +9554,7 @@
         <v>176</v>
       </c>
       <c r="AT32" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AU32" t="n">
         <v>83</v>
@@ -9589,7 +9581,7 @@
         <v>31</v>
       </c>
       <c r="BC32" t="n">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BD32" t="n">
         <v>79</v>
@@ -9598,16 +9590,16 @@
         <v>70</v>
       </c>
       <c r="BG32" t="n">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="BH32" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BI32" t="n">
         <v>146</v>
       </c>
       <c r="BJ32" t="n">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="BK32" t="n">
         <v>25</v>
@@ -9634,7 +9626,7 @@
         <v>62</v>
       </c>
       <c r="BT32" t="n">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="BU32" t="n">
         <v>42</v>
@@ -9815,7 +9807,7 @@
       </c>
       <c r="AL33" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN33" t="n">
@@ -9877,7 +9869,7 @@
         <v>9</v>
       </c>
       <c r="BG33" t="n">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="BH33" t="n">
         <v>66</v>
@@ -10099,7 +10091,7 @@
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN34" t="n">
@@ -10116,94 +10108,94 @@
         </is>
       </c>
       <c r="AQ34" t="n">
-        <v>285</v>
+        <v>488</v>
       </c>
       <c r="AR34" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AS34" t="n">
-        <v>1</v>
+        <v>517</v>
       </c>
       <c r="AT34" t="n">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AU34" t="n">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="AV34" t="n">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="AW34" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AX34" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="AY34" t="n">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="AZ34" t="n">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="BA34" t="n">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="BB34" t="n">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BC34" t="n">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="BD34" t="n">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="BE34" t="n">
         <v>49</v>
       </c>
       <c r="BF34" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="BG34" t="n">
-        <v>4747</v>
+        <v>1029</v>
       </c>
       <c r="BH34" t="n">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="BI34" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="BJ34" t="n">
-        <v>34</v>
+        <v>521</v>
       </c>
       <c r="BK34" t="n">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="BL34" t="n">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="BM34" t="n">
-        <v>34</v>
+        <v>333</v>
       </c>
       <c r="BN34" t="n">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="BO34" t="n">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="BP34" t="n">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="BQ34" t="n">
         <v>318</v>
       </c>
       <c r="BR34" t="n">
-        <v>23</v>
+        <v>333</v>
       </c>
       <c r="BT34" t="n">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="BU34" t="n">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="BV34" t="n">
         <v>28</v>
@@ -10401,16 +10393,16 @@
         <v>76</v>
       </c>
       <c r="AR35" t="n">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="AS35" t="n">
         <v>25</v>
       </c>
       <c r="AT35" t="n">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AU35" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AV35" t="n">
         <v>568</v>
@@ -10419,7 +10411,7 @@
         <v>120</v>
       </c>
       <c r="AX35" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AY35" t="n">
         <v>68</v>
@@ -10428,10 +10420,10 @@
         <v>469</v>
       </c>
       <c r="BA35" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BB35" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC35" t="n">
         <v>2</v>
@@ -10446,25 +10438,25 @@
         <v>132</v>
       </c>
       <c r="BG35" t="n">
-        <v>119</v>
+        <v>226</v>
       </c>
       <c r="BH35" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="BI35" t="n">
-        <v>617</v>
+        <v>304</v>
       </c>
       <c r="BJ35" t="n">
-        <v>195</v>
+        <v>140</v>
       </c>
       <c r="BK35" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="BL35" t="n">
         <v>154</v>
       </c>
       <c r="BM35" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="BN35" t="n">
         <v>183</v>
@@ -10479,7 +10471,7 @@
         <v>92</v>
       </c>
       <c r="BR35" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BT35" t="n">
         <v>136</v>
@@ -10677,7 +10669,7 @@
         </is>
       </c>
       <c r="AQ36" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AR36" t="n">
         <v>137</v>
@@ -10725,7 +10717,7 @@
         <v>68</v>
       </c>
       <c r="BG36" t="n">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="BH36" t="n">
         <v>87</v>
@@ -10734,7 +10726,7 @@
         <v>352</v>
       </c>
       <c r="BJ36" t="n">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="BK36" t="n">
         <v>88</v>
@@ -10749,7 +10741,7 @@
         <v>208</v>
       </c>
       <c r="BO36" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="BP36" t="n">
         <v>89</v>
@@ -10944,7 +10936,7 @@
       </c>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN37" t="n">
@@ -10961,25 +10953,25 @@
         </is>
       </c>
       <c r="AQ37" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AR37" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AS37" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AT37" t="n">
         <v>269</v>
       </c>
       <c r="AU37" t="n">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="AV37" t="n">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="AW37" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AX37" t="n">
         <v>270</v>
@@ -10991,49 +10983,49 @@
         <v>47</v>
       </c>
       <c r="BA37" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BB37" t="n">
         <v>55</v>
       </c>
       <c r="BC37" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BD37" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="BE37" t="n">
         <v>205</v>
       </c>
       <c r="BF37" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="BG37" t="n">
+        <v>135</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>152</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>136</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>87</v>
+      </c>
+      <c r="BK37" t="n">
         <v>235</v>
       </c>
-      <c r="BH37" t="n">
-        <v>154</v>
-      </c>
-      <c r="BI37" t="n">
-        <v>141</v>
-      </c>
-      <c r="BJ37" t="n">
-        <v>96</v>
-      </c>
-      <c r="BK37" t="n">
-        <v>237</v>
-      </c>
       <c r="BL37" t="n">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="BM37" t="n">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="BN37" t="n">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="BO37" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BP37" t="n">
         <v>349</v>
@@ -11042,13 +11034,13 @@
         <v>189</v>
       </c>
       <c r="BR37" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BT37" t="n">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="BU37" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BV37" t="n">
         <v>490</v>
@@ -11154,16 +11146,6 @@
           <t>More Than 120 Days</t>
         </is>
       </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>More Than 120 Days</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>More Than 120 Days</t>
-        </is>
-      </c>
       <c r="W38" t="inlineStr">
         <is>
           <t>More Than 120 Days</t>
@@ -11231,7 +11213,7 @@
       </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN38" t="n">
@@ -11248,94 +11230,88 @@
         </is>
       </c>
       <c r="AQ38" t="n">
-        <v>1028</v>
+        <v>1020</v>
       </c>
       <c r="AR38" t="n">
-        <v>758</v>
+        <v>751</v>
       </c>
       <c r="AS38" t="n">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="AT38" t="n">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AU38" t="n">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="AV38" t="n">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="AW38" t="n">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="AX38" t="n">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="AY38" t="n">
-        <v>1538</v>
+        <v>1535</v>
       </c>
       <c r="AZ38" t="n">
         <v>915</v>
       </c>
       <c r="BA38" t="n">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="BB38" t="n">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="BC38" t="n">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="BD38" t="n">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="BE38" t="n">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="BF38" t="n">
-        <v>546</v>
-      </c>
-      <c r="BG38" t="n">
-        <v>2</v>
-      </c>
-      <c r="BH38" t="n">
-        <v>1</v>
+        <v>539</v>
       </c>
       <c r="BI38" t="n">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="BJ38" t="n">
-        <v>333</v>
+        <v>317</v>
       </c>
       <c r="BK38" t="n">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="BL38" t="n">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="BM38" t="n">
-        <v>548</v>
+        <v>536</v>
       </c>
       <c r="BN38" t="n">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="BO38" t="n">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="BP38" t="n">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="BQ38" t="n">
         <v>1151</v>
       </c>
       <c r="BR38" t="n">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="BT38" t="n">
-        <v>658</v>
+        <v>637</v>
       </c>
       <c r="BU38" t="n">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="BV38" t="n">
         <v>787</v>
@@ -11518,7 +11494,7 @@
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN39" t="n">
@@ -11535,10 +11511,10 @@
         </is>
       </c>
       <c r="AQ39" t="n">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="AR39" t="n">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="AS39" t="n">
         <v>390</v>
@@ -11547,16 +11523,16 @@
         <v>539</v>
       </c>
       <c r="AU39" t="n">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AV39" t="n">
         <v>375</v>
       </c>
       <c r="AW39" t="n">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AX39" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AY39" t="n">
         <v>448</v>
@@ -11568,7 +11544,7 @@
         <v>436</v>
       </c>
       <c r="BB39" t="n">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="BC39" t="n">
         <v>386</v>
@@ -11580,16 +11556,16 @@
         <v>480</v>
       </c>
       <c r="BF39" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="BG39" t="n">
-        <v>437</v>
+        <v>340</v>
       </c>
       <c r="BH39" t="n">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="BI39" t="n">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="BJ39" t="n">
         <v>729</v>
@@ -11610,7 +11586,7 @@
         <v>615</v>
       </c>
       <c r="BP39" t="n">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="BQ39" t="n">
         <v>354</v>
@@ -11619,10 +11595,10 @@
         <v>409</v>
       </c>
       <c r="BT39" t="n">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="BU39" t="n">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="BV39" t="n">
         <v>858</v>
@@ -11805,7 +11781,7 @@
       </c>
       <c r="AM40" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN40" t="n">
@@ -11822,40 +11798,40 @@
         </is>
       </c>
       <c r="AQ40" t="n">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AR40" t="n">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="AS40" t="n">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="AT40" t="n">
         <v>337</v>
       </c>
       <c r="AU40" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AV40" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AW40" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AX40" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AY40" t="n">
-        <v>888</v>
+        <v>1487</v>
       </c>
       <c r="AZ40" t="n">
         <v>356</v>
       </c>
       <c r="BA40" t="n">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="BB40" t="n">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="BC40" t="n">
         <v>510</v>
@@ -11867,49 +11843,49 @@
         <v>207</v>
       </c>
       <c r="BF40" t="n">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="BG40" t="n">
-        <v>8864</v>
+        <v>7603</v>
       </c>
       <c r="BH40" t="n">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="BI40" t="n">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="BJ40" t="n">
-        <v>794</v>
+        <v>787</v>
       </c>
       <c r="BK40" t="n">
         <v>846</v>
       </c>
       <c r="BL40" t="n">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="BM40" t="n">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="BN40" t="n">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="BO40" t="n">
-        <v>441</v>
+        <v>800</v>
       </c>
       <c r="BP40" t="n">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="BQ40" t="n">
         <v>482</v>
       </c>
       <c r="BR40" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="BT40" t="n">
-        <v>386</v>
+        <v>373</v>
       </c>
       <c r="BU40" t="n">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="BV40" t="n">
         <v>753</v>
@@ -12092,7 +12068,7 @@
       </c>
       <c r="AM41" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN41" t="n">
@@ -12109,94 +12085,94 @@
         </is>
       </c>
       <c r="AQ41" t="n">
-        <v>1504</v>
+        <v>1498</v>
       </c>
       <c r="AR41" t="n">
-        <v>1797</v>
+        <v>1786</v>
       </c>
       <c r="AS41" t="n">
-        <v>1658</v>
+        <v>1649</v>
       </c>
       <c r="AT41" t="n">
         <v>1106</v>
       </c>
       <c r="AU41" t="n">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="AV41" t="n">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="AW41" t="n">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="AX41" t="n">
-        <v>1503</v>
+        <v>1501</v>
       </c>
       <c r="AY41" t="n">
-        <v>1068</v>
+        <v>1387</v>
       </c>
       <c r="AZ41" t="n">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="BA41" t="n">
         <v>1732</v>
       </c>
       <c r="BB41" t="n">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="BC41" t="n">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="BD41" t="n">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="BE41" t="n">
-        <v>1545</v>
+        <v>1542</v>
       </c>
       <c r="BF41" t="n">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="BG41" t="n">
-        <v>2137</v>
+        <v>1639</v>
       </c>
       <c r="BH41" t="n">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="BI41" t="n">
-        <v>1161</v>
+        <v>1155</v>
       </c>
       <c r="BJ41" t="n">
-        <v>857</v>
+        <v>846</v>
       </c>
       <c r="BK41" t="n">
-        <v>2081</v>
+        <v>2073</v>
       </c>
       <c r="BL41" t="n">
-        <v>1559</v>
+        <v>1556</v>
       </c>
       <c r="BM41" t="n">
-        <v>997</v>
+        <v>975</v>
       </c>
       <c r="BN41" t="n">
-        <v>958</v>
+        <v>941</v>
       </c>
       <c r="BO41" t="n">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="BP41" t="n">
-        <v>1509</v>
+        <v>1504</v>
       </c>
       <c r="BQ41" t="n">
         <v>1315</v>
       </c>
       <c r="BR41" t="n">
-        <v>1548</v>
+        <v>1541</v>
       </c>
       <c r="BT41" t="n">
-        <v>1503</v>
+        <v>1486</v>
       </c>
       <c r="BU41" t="n">
-        <v>1120</v>
+        <v>1110</v>
       </c>
       <c r="BV41" t="n">
         <v>1498</v>
@@ -12379,7 +12355,7 @@
       </c>
       <c r="AM42" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN42" t="n">
@@ -12405,13 +12381,13 @@
         <v>99</v>
       </c>
       <c r="AT42" t="n">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="AU42" t="n">
         <v>64</v>
       </c>
       <c r="AV42" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AW42" t="n">
         <v>97</v>
@@ -12423,7 +12399,7 @@
         <v>107</v>
       </c>
       <c r="AZ42" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BA42" t="n">
         <v>148</v>
@@ -12450,10 +12426,10 @@
         <v>128</v>
       </c>
       <c r="BI42" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BJ42" t="n">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="BK42" t="n">
         <v>176</v>
@@ -12462,10 +12438,10 @@
         <v>84</v>
       </c>
       <c r="BM42" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BN42" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="BO42" t="n">
         <v>94</v>
@@ -12480,10 +12456,10 @@
         <v>119</v>
       </c>
       <c r="BT42" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="BU42" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BV42" t="n">
         <v>42</v>
@@ -12509,11 +12485,6 @@
           <t>Ontin 60ml Syrup</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>More Than 120 Days</t>
-        </is>
-      </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>More Than 120 Days</t>
@@ -12641,7 +12612,7 @@
       </c>
       <c r="AM43" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN43" t="n">
@@ -12657,17 +12628,14 @@
           <t>Ontin 60ml Syrup</t>
         </is>
       </c>
-      <c r="AQ43" t="n">
-        <v>3</v>
-      </c>
       <c r="AR43" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AS43" t="n">
         <v>52</v>
       </c>
       <c r="AT43" t="n">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="AU43" t="n">
         <v>744</v>
@@ -12679,7 +12647,7 @@
         <v>57</v>
       </c>
       <c r="AX43" t="n">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="AY43" t="n">
         <v>28</v>
@@ -12691,7 +12659,7 @@
         <v>272</v>
       </c>
       <c r="BD43" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="BE43" t="n">
         <v>86</v>
@@ -12700,13 +12668,13 @@
         <v>257</v>
       </c>
       <c r="BG43" t="n">
-        <v>173</v>
+        <v>77</v>
       </c>
       <c r="BH43" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BJ43" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="BK43" t="n">
         <v>141</v>
@@ -12715,28 +12683,28 @@
         <v>25</v>
       </c>
       <c r="BM43" t="n">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="BN43" t="n">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="BO43" t="n">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="BP43" t="n">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="BR43" t="n">
         <v>80</v>
       </c>
       <c r="BU43" t="n">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="BV43" t="n">
         <v>96</v>
       </c>
       <c r="BY43" t="n">
-        <v>5192</v>
+        <v>29845</v>
       </c>
     </row>
     <row r="44">
@@ -12913,7 +12881,7 @@
       </c>
       <c r="AL44" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN44" t="n">
@@ -12930,94 +12898,94 @@
         </is>
       </c>
       <c r="AQ44" t="n">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="AR44" t="n">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="AS44" t="n">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="AT44" t="n">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="AU44" t="n">
         <v>2</v>
       </c>
       <c r="AV44" t="n">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="AW44" t="n">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="AX44" t="n">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="AY44" t="n">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AZ44" t="n">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="BA44" t="n">
         <v>207</v>
       </c>
       <c r="BB44" t="n">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="BC44" t="n">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="BD44" t="n">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="BE44" t="n">
         <v>559</v>
       </c>
       <c r="BF44" t="n">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="BG44" t="n">
-        <v>17816</v>
+        <v>6178</v>
       </c>
       <c r="BH44" t="n">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="BI44" t="n">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="BJ44" t="n">
-        <v>576</v>
+        <v>533</v>
       </c>
       <c r="BK44" t="n">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="BL44" t="n">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="BM44" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="BN44" t="n">
-        <v>777</v>
+        <v>758</v>
       </c>
       <c r="BO44" t="n">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="BP44" t="n">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="BQ44" t="n">
         <v>624</v>
       </c>
       <c r="BR44" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="BT44" t="n">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="BU44" t="n">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="BV44" t="n">
         <v>495</v>
@@ -13200,7 +13168,7 @@
       </c>
       <c r="AM45" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN45" t="n">
@@ -13217,28 +13185,28 @@
         </is>
       </c>
       <c r="AQ45" t="n">
-        <v>1891</v>
+        <v>1855</v>
       </c>
       <c r="AR45" t="n">
         <v>2293</v>
       </c>
       <c r="AS45" t="n">
-        <v>2009</v>
+        <v>1993</v>
       </c>
       <c r="AT45" t="n">
         <v>1211</v>
       </c>
       <c r="AU45" t="n">
-        <v>1416</v>
+        <v>1407</v>
       </c>
       <c r="AV45" t="n">
-        <v>1872</v>
+        <v>1855</v>
       </c>
       <c r="AW45" t="n">
-        <v>1843</v>
+        <v>1821</v>
       </c>
       <c r="AX45" t="n">
-        <v>2699</v>
+        <v>2694</v>
       </c>
       <c r="AY45" t="n">
         <v>2603</v>
@@ -13250,61 +13218,61 @@
         <v>2773</v>
       </c>
       <c r="BB45" t="n">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="BC45" t="n">
         <v>1581</v>
       </c>
       <c r="BD45" t="n">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="BE45" t="n">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="BF45" t="n">
-        <v>2282</v>
+        <v>2219</v>
       </c>
       <c r="BG45" t="n">
-        <v>1376</v>
+        <v>1335</v>
       </c>
       <c r="BH45" t="n">
-        <v>2560</v>
+        <v>2545</v>
       </c>
       <c r="BI45" t="n">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="BJ45" t="n">
-        <v>2605</v>
+        <v>2534</v>
       </c>
       <c r="BK45" t="n">
-        <v>1381</v>
+        <v>1352</v>
       </c>
       <c r="BL45" t="n">
-        <v>1446</v>
+        <v>1430</v>
       </c>
       <c r="BM45" t="n">
-        <v>2145</v>
+        <v>2117</v>
       </c>
       <c r="BN45" t="n">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="BO45" t="n">
-        <v>1624</v>
+        <v>1614</v>
       </c>
       <c r="BP45" t="n">
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="BQ45" t="n">
         <v>1873</v>
       </c>
       <c r="BR45" t="n">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="BT45" t="n">
-        <v>2365</v>
+        <v>2338</v>
       </c>
       <c r="BU45" t="n">
-        <v>1548</v>
+        <v>1543</v>
       </c>
       <c r="BV45" t="n">
         <v>1510</v>
@@ -13487,7 +13455,7 @@
       </c>
       <c r="AM46" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN46" t="n">
@@ -13516,13 +13484,13 @@
         <v>36</v>
       </c>
       <c r="AU46" t="n">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AV46" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AW46" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AX46" t="n">
         <v>53</v>
@@ -13552,7 +13520,7 @@
         <v>92</v>
       </c>
       <c r="BG46" t="n">
-        <v>2295</v>
+        <v>2149</v>
       </c>
       <c r="BH46" t="n">
         <v>263</v>
@@ -13561,16 +13529,16 @@
         <v>104</v>
       </c>
       <c r="BJ46" t="n">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="BK46" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="BL46" t="n">
         <v>39</v>
       </c>
       <c r="BM46" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="BN46" t="n">
         <v>107</v>
@@ -13774,7 +13742,7 @@
       </c>
       <c r="AM47" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN47" t="n">
@@ -13794,7 +13762,7 @@
         <v>198</v>
       </c>
       <c r="AR47" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AS47" t="n">
         <v>286</v>
@@ -13812,7 +13780,7 @@
         <v>90</v>
       </c>
       <c r="AX47" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AY47" t="n">
         <v>235</v>
@@ -13839,16 +13807,16 @@
         <v>240</v>
       </c>
       <c r="BG47" t="n">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="BH47" t="n">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BI47" t="n">
         <v>150</v>
       </c>
       <c r="BJ47" t="n">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="BK47" t="n">
         <v>273</v>
@@ -13860,7 +13828,7 @@
         <v>116</v>
       </c>
       <c r="BN47" t="n">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="BO47" t="n">
         <v>116</v>
@@ -14061,7 +14029,7 @@
       </c>
       <c r="AM48" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN48" t="n">
@@ -14078,16 +14046,16 @@
         </is>
       </c>
       <c r="AQ48" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AR48" t="n">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AS48" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="AT48" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AU48" t="n">
         <v>439</v>
@@ -14096,25 +14064,25 @@
         <v>258</v>
       </c>
       <c r="AW48" t="n">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AX48" t="n">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="AY48" t="n">
         <v>246</v>
       </c>
       <c r="AZ48" t="n">
-        <v>813</v>
+        <v>808</v>
       </c>
       <c r="BA48" t="n">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="BB48" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="BC48" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="BD48" t="n">
         <v>465</v>
@@ -14123,49 +14091,49 @@
         <v>433</v>
       </c>
       <c r="BF48" t="n">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="BG48" t="n">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="BH48" t="n">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="BI48" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="BJ48" t="n">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="BK48" t="n">
         <v>316</v>
       </c>
       <c r="BL48" t="n">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="BM48" t="n">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="BN48" t="n">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="BO48" t="n">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="BP48" t="n">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="BQ48" t="n">
         <v>632</v>
       </c>
       <c r="BR48" t="n">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="BT48" t="n">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="BU48" t="n">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="BV48" t="n">
         <v>318</v>
@@ -14348,7 +14316,7 @@
       </c>
       <c r="AL49" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN49" t="n">
@@ -14365,13 +14333,13 @@
         </is>
       </c>
       <c r="AQ49" t="n">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AR49" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AS49" t="n">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AT49" t="n">
         <v>61</v>
@@ -14383,37 +14351,37 @@
         <v>169</v>
       </c>
       <c r="AW49" t="n">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AX49" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AY49" t="n">
-        <v>61</v>
+        <v>241</v>
       </c>
       <c r="AZ49" t="n">
         <v>103</v>
       </c>
       <c r="BA49" t="n">
+        <v>152</v>
+      </c>
+      <c r="BB49" t="n">
         <v>153</v>
       </c>
-      <c r="BB49" t="n">
-        <v>154</v>
-      </c>
       <c r="BC49" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BD49" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="BE49" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BF49" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BG49" t="n">
-        <v>2270</v>
+        <v>2027</v>
       </c>
       <c r="BH49" t="n">
         <v>102</v>
@@ -14422,7 +14390,7 @@
         <v>92</v>
       </c>
       <c r="BJ49" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BK49" t="n">
         <v>176</v>
@@ -14434,25 +14402,25 @@
         <v>175</v>
       </c>
       <c r="BN49" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="BO49" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BP49" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="BQ49" t="n">
         <v>238</v>
       </c>
       <c r="BR49" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="BT49" t="n">
         <v>138</v>
       </c>
       <c r="BU49" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="BV49" t="n">
         <v>101</v>
@@ -14635,7 +14603,7 @@
       </c>
       <c r="AM50" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN50" t="n">
@@ -14652,13 +14620,13 @@
         </is>
       </c>
       <c r="AQ50" t="n">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="AR50" t="n">
-        <v>1180</v>
+        <v>1129</v>
       </c>
       <c r="AS50" t="n">
-        <v>810</v>
+        <v>753</v>
       </c>
       <c r="AT50" t="n">
         <v>186</v>
@@ -14667,52 +14635,52 @@
         <v>483</v>
       </c>
       <c r="AV50" t="n">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="AW50" t="n">
         <v>752</v>
       </c>
       <c r="AX50" t="n">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="AY50" t="n">
         <v>1200</v>
       </c>
       <c r="AZ50" t="n">
-        <v>506</v>
+        <v>486</v>
       </c>
       <c r="BA50" t="n">
+        <v>480</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>1205</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>1103</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>774</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>390</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>957</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>8588</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>748</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>420</v>
+      </c>
+      <c r="BJ50" t="n">
         <v>488</v>
       </c>
-      <c r="BB50" t="n">
-        <v>1208</v>
-      </c>
-      <c r="BC50" t="n">
-        <v>1105</v>
-      </c>
-      <c r="BD50" t="n">
-        <v>787</v>
-      </c>
-      <c r="BE50" t="n">
-        <v>394</v>
-      </c>
-      <c r="BF50" t="n">
-        <v>1006</v>
-      </c>
-      <c r="BG50" t="n">
-        <v>757</v>
-      </c>
-      <c r="BH50" t="n">
-        <v>757</v>
-      </c>
-      <c r="BI50" t="n">
-        <v>428</v>
-      </c>
-      <c r="BJ50" t="n">
-        <v>493</v>
-      </c>
       <c r="BK50" t="n">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="BL50" t="n">
         <v>522</v>
@@ -14721,25 +14689,25 @@
         <v>325</v>
       </c>
       <c r="BN50" t="n">
-        <v>1147</v>
+        <v>1112</v>
       </c>
       <c r="BO50" t="n">
-        <v>711</v>
+        <v>699</v>
       </c>
       <c r="BP50" t="n">
-        <v>258</v>
+        <v>156</v>
       </c>
       <c r="BQ50" t="n">
         <v>781</v>
       </c>
       <c r="BR50" t="n">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="BT50" t="n">
         <v>419</v>
       </c>
       <c r="BU50" t="n">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="BV50" t="n">
         <v>798</v>
@@ -14887,7 +14855,7 @@
       </c>
       <c r="AM51" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN51" t="n">
@@ -15153,7 +15121,7 @@
       </c>
       <c r="AM52" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN52" t="n">
@@ -15200,7 +15168,7 @@
         <v>31</v>
       </c>
       <c r="BA52" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BB52" t="n">
         <v>81</v>
@@ -15224,7 +15192,7 @@
         <v>175</v>
       </c>
       <c r="BI52" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="BJ52" t="n">
         <v>156</v>
@@ -15236,7 +15204,7 @@
         <v>68</v>
       </c>
       <c r="BM52" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="BN52" t="n">
         <v>61</v>
@@ -15257,7 +15225,7 @@
         <v>79</v>
       </c>
       <c r="BU52" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BV52" t="n">
         <v>75</v>
@@ -15440,7 +15408,7 @@
       </c>
       <c r="AM53" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN53" t="n">
@@ -15457,7 +15425,7 @@
         </is>
       </c>
       <c r="AQ53" t="n">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AR53" t="n">
         <v>253</v>
@@ -15478,7 +15446,7 @@
         <v>460</v>
       </c>
       <c r="AX53" t="n">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="AY53" t="n">
         <v>378</v>
@@ -15490,10 +15458,10 @@
         <v>419</v>
       </c>
       <c r="BB53" t="n">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="BC53" t="n">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="BD53" t="n">
         <v>240</v>
@@ -15502,46 +15470,46 @@
         <v>760</v>
       </c>
       <c r="BF53" t="n">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="BG53" t="n">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="BH53" t="n">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="BI53" t="n">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="BJ53" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="BK53" t="n">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="BL53" t="n">
         <v>384</v>
       </c>
       <c r="BM53" t="n">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="BN53" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BO53" t="n">
         <v>639</v>
       </c>
       <c r="BP53" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="BQ53" t="n">
         <v>359</v>
       </c>
       <c r="BR53" t="n">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="BT53" t="n">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="BU53" t="n">
         <v>716</v>
@@ -15637,13 +15605,13 @@
         <v>53</v>
       </c>
       <c r="AV54" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW54" t="n">
         <v>7</v>
       </c>
       <c r="AX54" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AY54" t="n">
         <v>1</v>
@@ -15658,7 +15626,7 @@
         <v>27</v>
       </c>
       <c r="BM54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BO54" t="n">
         <v>5</v>
@@ -15838,7 +15806,7 @@
       </c>
       <c r="AL55" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN55" t="n">
@@ -15876,7 +15844,7 @@
         <v>20</v>
       </c>
       <c r="AX55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY55" t="n">
         <v>8</v>
@@ -16125,7 +16093,7 @@
       </c>
       <c r="AM56" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN56" t="n">
@@ -16148,28 +16116,28 @@
         <v>2430</v>
       </c>
       <c r="AS56" t="n">
-        <v>2165</v>
+        <v>2147</v>
       </c>
       <c r="AT56" t="n">
-        <v>1425</v>
+        <v>1407</v>
       </c>
       <c r="AU56" t="n">
-        <v>2731</v>
+        <v>2701</v>
       </c>
       <c r="AV56" t="n">
-        <v>4293</v>
+        <v>4273</v>
       </c>
       <c r="AW56" t="n">
         <v>820</v>
       </c>
       <c r="AX56" t="n">
-        <v>1752</v>
+        <v>1743</v>
       </c>
       <c r="AY56" t="n">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="AZ56" t="n">
-        <v>1320</v>
+        <v>1311</v>
       </c>
       <c r="BA56" t="n">
         <v>2074</v>
@@ -16178,40 +16146,40 @@
         <v>2150</v>
       </c>
       <c r="BC56" t="n">
-        <v>2074</v>
+        <v>2054</v>
       </c>
       <c r="BD56" t="n">
-        <v>2592</v>
+        <v>2582</v>
       </c>
       <c r="BE56" t="n">
-        <v>2429</v>
+        <v>2420</v>
       </c>
       <c r="BF56" t="n">
         <v>1527</v>
       </c>
       <c r="BG56" t="n">
-        <v>931</v>
+        <v>908</v>
       </c>
       <c r="BH56" t="n">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="BI56" t="n">
-        <v>3754</v>
+        <v>3727</v>
       </c>
       <c r="BJ56" t="n">
-        <v>2344</v>
+        <v>2319</v>
       </c>
       <c r="BK56" t="n">
-        <v>1992</v>
+        <v>1983</v>
       </c>
       <c r="BL56" t="n">
-        <v>989</v>
+        <v>961</v>
       </c>
       <c r="BM56" t="n">
-        <v>692</v>
+        <v>570</v>
       </c>
       <c r="BN56" t="n">
-        <v>1745</v>
+        <v>1724</v>
       </c>
       <c r="BO56" t="n">
         <v>3611</v>
@@ -16226,10 +16194,10 @@
         <v>1549</v>
       </c>
       <c r="BT56" t="n">
-        <v>3268</v>
+        <v>3204</v>
       </c>
       <c r="BU56" t="n">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="BV56" t="n">
         <v>3900</v>
@@ -16436,7 +16404,7 @@
         <v>175</v>
       </c>
       <c r="AU57" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AV57" t="n">
         <v>166</v>
@@ -16445,7 +16413,7 @@
         <v>293</v>
       </c>
       <c r="AX57" t="n">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AY57" t="n">
         <v>151</v>
@@ -16457,7 +16425,7 @@
         <v>107</v>
       </c>
       <c r="BB57" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="BC57" t="n">
         <v>359</v>
@@ -16472,10 +16440,10 @@
         <v>119</v>
       </c>
       <c r="BG57" t="n">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="BH57" t="n">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="BI57" t="n">
         <v>188</v>
@@ -16487,10 +16455,10 @@
         <v>140</v>
       </c>
       <c r="BL57" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BM57" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BN57" t="n">
         <v>392</v>
@@ -16505,13 +16473,13 @@
         <v>134</v>
       </c>
       <c r="BR57" t="n">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="BT57" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="BU57" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BV57" t="n">
         <v>167</v>
@@ -16703,13 +16671,13 @@
         </is>
       </c>
       <c r="AQ58" t="n">
-        <v>1430</v>
+        <v>1419</v>
       </c>
       <c r="AR58" t="n">
         <v>2049</v>
       </c>
       <c r="AS58" t="n">
-        <v>1585</v>
+        <v>1564</v>
       </c>
       <c r="AT58" t="n">
         <v>2075</v>
@@ -16718,19 +16686,19 @@
         <v>733</v>
       </c>
       <c r="AV58" t="n">
-        <v>1785</v>
+        <v>1775</v>
       </c>
       <c r="AW58" t="n">
-        <v>2571</v>
+        <v>2559</v>
       </c>
       <c r="AX58" t="n">
-        <v>1285</v>
+        <v>1272</v>
       </c>
       <c r="AY58" t="n">
         <v>713</v>
       </c>
       <c r="AZ58" t="n">
-        <v>1103</v>
+        <v>1079</v>
       </c>
       <c r="BA58" t="n">
         <v>545</v>
@@ -16739,58 +16707,58 @@
         <v>609</v>
       </c>
       <c r="BC58" t="n">
-        <v>2114</v>
+        <v>2098</v>
       </c>
       <c r="BD58" t="n">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="BE58" t="n">
         <v>1122</v>
       </c>
       <c r="BF58" t="n">
-        <v>1387</v>
+        <v>1367</v>
       </c>
       <c r="BG58" t="n">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="BH58" t="n">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="BI58" t="n">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="BJ58" t="n">
-        <v>1677</v>
+        <v>1670</v>
       </c>
       <c r="BK58" t="n">
-        <v>1217</v>
+        <v>1205</v>
       </c>
       <c r="BL58" t="n">
-        <v>2006</v>
+        <v>1900</v>
       </c>
       <c r="BM58" t="n">
-        <v>1285</v>
+        <v>1244</v>
       </c>
       <c r="BN58" t="n">
-        <v>2434</v>
+        <v>2422</v>
       </c>
       <c r="BO58" t="n">
-        <v>1667</v>
+        <v>1662</v>
       </c>
       <c r="BP58" t="n">
-        <v>1462</v>
+        <v>1444</v>
       </c>
       <c r="BQ58" t="n">
         <v>1447</v>
       </c>
       <c r="BR58" t="n">
-        <v>2114</v>
+        <v>2107</v>
       </c>
       <c r="BT58" t="n">
-        <v>1213</v>
+        <v>1184</v>
       </c>
       <c r="BU58" t="n">
-        <v>984</v>
+        <v>952</v>
       </c>
       <c r="BV58" t="n">
         <v>1729</v>
@@ -16982,13 +16950,13 @@
         </is>
       </c>
       <c r="AQ59" t="n">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="AR59" t="n">
         <v>510</v>
       </c>
       <c r="AS59" t="n">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="AT59" t="n">
         <v>91</v>
@@ -17000,10 +16968,10 @@
         <v>342</v>
       </c>
       <c r="AW59" t="n">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AX59" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="AY59" t="n">
         <v>754</v>
@@ -17036,13 +17004,13 @@
         <v>535</v>
       </c>
       <c r="BI59" t="n">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="BJ59" t="n">
         <v>299</v>
       </c>
       <c r="BK59" t="n">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="BL59" t="n">
         <v>102</v>
@@ -17054,7 +17022,7 @@
         <v>69</v>
       </c>
       <c r="BO59" t="n">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="BP59" t="n">
         <v>399</v>
@@ -17249,7 +17217,7 @@
       </c>
       <c r="AK60" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN60" t="n">
@@ -17266,13 +17234,13 @@
         </is>
       </c>
       <c r="AQ60" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AR60" t="n">
         <v>219</v>
       </c>
       <c r="AS60" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AT60" t="n">
         <v>12</v>
@@ -17281,7 +17249,7 @@
         <v>74</v>
       </c>
       <c r="AV60" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AW60" t="n">
         <v>107</v>
@@ -17293,25 +17261,25 @@
         <v>113</v>
       </c>
       <c r="AZ60" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BA60" t="n">
         <v>97</v>
       </c>
       <c r="BB60" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BC60" t="n">
         <v>119</v>
       </c>
       <c r="BD60" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="BE60" t="n">
         <v>33</v>
       </c>
       <c r="BF60" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="BG60" t="n">
         <v>200</v>
@@ -17320,19 +17288,19 @@
         <v>124</v>
       </c>
       <c r="BI60" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="BJ60" t="n">
         <v>193</v>
       </c>
       <c r="BK60" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BL60" t="n">
         <v>74</v>
       </c>
       <c r="BM60" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="BN60" t="n">
         <v>69</v>
@@ -17350,10 +17318,10 @@
         <v>90</v>
       </c>
       <c r="BT60" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BU60" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BV60" t="n">
         <v>108</v>
@@ -17599,7 +17567,7 @@
       </c>
       <c r="AK62" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN62" t="n">
@@ -17616,94 +17584,94 @@
         </is>
       </c>
       <c r="AQ62" t="n">
-        <v>1579</v>
+        <v>1571</v>
       </c>
       <c r="AR62" t="n">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="AS62" t="n">
-        <v>1031</v>
+        <v>1008</v>
       </c>
       <c r="AT62" t="n">
         <v>922</v>
       </c>
       <c r="AU62" t="n">
-        <v>1465</v>
+        <v>1429</v>
       </c>
       <c r="AV62" t="n">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="AW62" t="n">
-        <v>1014</v>
+        <v>999</v>
       </c>
       <c r="AX62" t="n">
-        <v>2377</v>
+        <v>2371</v>
       </c>
       <c r="AY62" t="n">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="AZ62" t="n">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="BA62" t="n">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="BB62" t="n">
+        <v>667</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>1166</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>1089</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>1157</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>272</v>
+      </c>
+      <c r="BG62" t="n">
         <v>670</v>
       </c>
-      <c r="BC62" t="n">
-        <v>1180</v>
-      </c>
-      <c r="BD62" t="n">
-        <v>1095</v>
-      </c>
-      <c r="BE62" t="n">
-        <v>1159</v>
-      </c>
-      <c r="BF62" t="n">
-        <v>294</v>
-      </c>
-      <c r="BG62" t="n">
-        <v>679</v>
-      </c>
       <c r="BH62" t="n">
-        <v>1366</v>
+        <v>1361</v>
       </c>
       <c r="BI62" t="n">
-        <v>920</v>
+        <v>894</v>
       </c>
       <c r="BJ62" t="n">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="BK62" t="n">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="BL62" t="n">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="BM62" t="n">
-        <v>1496</v>
+        <v>1482</v>
       </c>
       <c r="BN62" t="n">
+        <v>1456</v>
+      </c>
+      <c r="BO62" t="n">
         <v>1464</v>
       </c>
-      <c r="BO62" t="n">
-        <v>1468</v>
-      </c>
       <c r="BP62" t="n">
-        <v>1062</v>
+        <v>1052</v>
       </c>
       <c r="BQ62" t="n">
         <v>3232</v>
       </c>
       <c r="BR62" t="n">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="BT62" t="n">
-        <v>1479</v>
+        <v>1461</v>
       </c>
       <c r="BU62" t="n">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="BV62" t="n">
         <v>1066</v>
@@ -17940,7 +17908,7 @@
         <v>330</v>
       </c>
       <c r="BE63" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BF63" t="n">
         <v>61</v>
@@ -17949,7 +17917,7 @@
         <v>157</v>
       </c>
       <c r="BH63" t="n">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="BI63" t="n">
         <v>30</v>
@@ -18165,7 +18133,7 @@
       </c>
       <c r="AM64" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN64" t="n">
@@ -18185,25 +18153,25 @@
         <v>498</v>
       </c>
       <c r="AR64" t="n">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="AS64" t="n">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AT64" t="n">
         <v>500</v>
       </c>
       <c r="AU64" t="n">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="AV64" t="n">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="AW64" t="n">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="AX64" t="n">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="AY64" t="n">
         <v>566</v>
@@ -18212,46 +18180,46 @@
         <v>399</v>
       </c>
       <c r="BA64" t="n">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="BB64" t="n">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="BC64" t="n">
         <v>569</v>
       </c>
       <c r="BD64" t="n">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="BE64" t="n">
         <v>745</v>
       </c>
       <c r="BF64" t="n">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="BG64" t="n">
-        <v>4518</v>
+        <v>4383</v>
       </c>
       <c r="BH64" t="n">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="BI64" t="n">
         <v>788</v>
       </c>
       <c r="BJ64" t="n">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="BK64" t="n">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="BL64" t="n">
         <v>1013</v>
       </c>
       <c r="BM64" t="n">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="BN64" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="BO64" t="n">
         <v>425</v>
@@ -18266,7 +18234,7 @@
         <v>464</v>
       </c>
       <c r="BT64" t="n">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="BU64" t="n">
         <v>507</v>
@@ -18480,7 +18448,7 @@
         <v>40</v>
       </c>
       <c r="AX65" t="n">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AY65" t="n">
         <v>60</v>
@@ -18510,7 +18478,7 @@
         <v>81</v>
       </c>
       <c r="BH65" t="n">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="BI65" t="n">
         <v>91</v>
@@ -18525,7 +18493,7 @@
         <v>34</v>
       </c>
       <c r="BN65" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="BO65" t="n">
         <v>29</v>
@@ -18739,7 +18707,7 @@
         <v>141</v>
       </c>
       <c r="AT66" t="n">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AU66" t="n">
         <v>101</v>
@@ -18748,7 +18716,7 @@
         <v>183</v>
       </c>
       <c r="AW66" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AX66" t="n">
         <v>122</v>
@@ -18763,40 +18731,40 @@
         <v>85</v>
       </c>
       <c r="BB66" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BC66" t="n">
         <v>186</v>
       </c>
       <c r="BD66" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="BF66" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BG66" t="n">
         <v>76</v>
       </c>
       <c r="BH66" t="n">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="BI66" t="n">
         <v>35</v>
       </c>
       <c r="BJ66" t="n">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="BK66" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BL66" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BM66" t="n">
         <v>49</v>
       </c>
       <c r="BN66" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="BO66" t="n">
         <v>68</v>
@@ -18811,7 +18779,7 @@
         <v>226</v>
       </c>
       <c r="BT66" t="n">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="BU66" t="n">
         <v>87</v>
@@ -19009,79 +18977,79 @@
         <v>380</v>
       </c>
       <c r="AR67" t="n">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="AS67" t="n">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="AT67" t="n">
         <v>361</v>
       </c>
       <c r="AU67" t="n">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="AV67" t="n">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="AW67" t="n">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="AX67" t="n">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="AY67" t="n">
-        <v>668</v>
+        <v>812</v>
       </c>
       <c r="AZ67" t="n">
         <v>384</v>
       </c>
       <c r="BA67" t="n">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="BB67" t="n">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="BC67" t="n">
         <v>284</v>
       </c>
       <c r="BD67" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="BE67" t="n">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="BF67" t="n">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="BG67" t="n">
-        <v>3387</v>
+        <v>3386</v>
       </c>
       <c r="BH67" t="n">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="BI67" t="n">
         <v>315</v>
       </c>
       <c r="BJ67" t="n">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="BK67" t="n">
-        <v>1283</v>
+        <v>1270</v>
       </c>
       <c r="BL67" t="n">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="BM67" t="n">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="BN67" t="n">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="BO67" t="n">
         <v>327</v>
       </c>
       <c r="BP67" t="n">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="BQ67" t="n">
         <v>415</v>
@@ -19090,7 +19058,7 @@
         <v>359</v>
       </c>
       <c r="BT67" t="n">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="BU67" t="n">
         <v>588</v>
@@ -19285,28 +19253,28 @@
         </is>
       </c>
       <c r="AQ68" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AR68" t="n">
         <v>148</v>
       </c>
       <c r="AS68" t="n">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AT68" t="n">
         <v>337</v>
       </c>
       <c r="AU68" t="n">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AV68" t="n">
         <v>379</v>
       </c>
       <c r="AW68" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AX68" t="n">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AY68" t="n">
         <v>304</v>
@@ -19318,19 +19286,19 @@
         <v>98</v>
       </c>
       <c r="BB68" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="BC68" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BD68" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BE68" t="n">
         <v>194</v>
       </c>
       <c r="BF68" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BG68" t="n">
         <v>413</v>
@@ -19351,10 +19319,10 @@
         <v>314</v>
       </c>
       <c r="BM68" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="BN68" t="n">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="BO68" t="n">
         <v>116</v>
@@ -19369,7 +19337,7 @@
         <v>425</v>
       </c>
       <c r="BT68" t="n">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="BU68" t="n">
         <v>281</v>
@@ -19564,7 +19532,7 @@
         </is>
       </c>
       <c r="AQ69" t="n">
-        <v>853</v>
+        <v>847</v>
       </c>
       <c r="AR69" t="n">
         <v>601</v>
@@ -19573,19 +19541,19 @@
         <v>512</v>
       </c>
       <c r="AT69" t="n">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="AU69" t="n">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="AV69" t="n">
         <v>573</v>
       </c>
       <c r="AW69" t="n">
-        <v>649</v>
+        <v>640</v>
       </c>
       <c r="AX69" t="n">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="AY69" t="n">
         <v>322</v>
@@ -19594,52 +19562,52 @@
         <v>402</v>
       </c>
       <c r="BA69" t="n">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="BB69" t="n">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="BC69" t="n">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="BD69" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="BE69" t="n">
         <v>577</v>
       </c>
       <c r="BF69" t="n">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="BG69" t="n">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="BH69" t="n">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="BI69" t="n">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="BJ69" t="n">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="BK69" t="n">
         <v>635</v>
       </c>
       <c r="BL69" t="n">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="BM69" t="n">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="BN69" t="n">
         <v>195</v>
       </c>
       <c r="BO69" t="n">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="BP69" t="n">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="BQ69" t="n">
         <v>712</v>
@@ -19648,10 +19616,10 @@
         <v>352</v>
       </c>
       <c r="BT69" t="n">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="BU69" t="n">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="BV69" t="n">
         <v>313</v>
@@ -19826,7 +19794,7 @@
       </c>
       <c r="AM70" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN70" t="n">
@@ -19843,31 +19811,31 @@
         </is>
       </c>
       <c r="AQ70" t="n">
-        <v>177</v>
+        <v>307</v>
       </c>
       <c r="AR70" t="n">
         <v>77</v>
       </c>
       <c r="AS70" t="n">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="AT70" t="n">
         <v>12</v>
       </c>
       <c r="AU70" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AV70" t="n">
         <v>60</v>
       </c>
       <c r="AW70" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="AX70" t="n">
         <v>58</v>
       </c>
       <c r="AY70" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AZ70" t="n">
         <v>628</v>
@@ -19891,7 +19859,7 @@
         <v>49</v>
       </c>
       <c r="BG70" t="n">
-        <v>4905</v>
+        <v>2903</v>
       </c>
       <c r="BH70" t="n">
         <v>215</v>
@@ -19900,34 +19868,34 @@
         <v>112</v>
       </c>
       <c r="BJ70" t="n">
-        <v>55</v>
+        <v>315</v>
       </c>
       <c r="BL70" t="n">
         <v>159</v>
       </c>
       <c r="BM70" t="n">
-        <v>24</v>
+        <v>282</v>
       </c>
       <c r="BN70" t="n">
         <v>148</v>
       </c>
       <c r="BO70" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BP70" t="n">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="BQ70" t="n">
         <v>64</v>
       </c>
       <c r="BR70" t="n">
-        <v>110</v>
+        <v>370</v>
       </c>
       <c r="BT70" t="n">
         <v>51</v>
       </c>
       <c r="BU70" t="n">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="BV70" t="n">
         <v>185</v>
@@ -20110,7 +20078,7 @@
       </c>
       <c r="AM71" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN71" t="n">
@@ -20130,10 +20098,10 @@
         <v>1055</v>
       </c>
       <c r="AR71" t="n">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="AS71" t="n">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AT71" t="n">
         <v>325</v>
@@ -20142,10 +20110,10 @@
         <v>549</v>
       </c>
       <c r="AV71" t="n">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="AW71" t="n">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="AX71" t="n">
         <v>587</v>
@@ -20154,55 +20122,55 @@
         <v>660</v>
       </c>
       <c r="AZ71" t="n">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="BA71" t="n">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="BB71" t="n">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="BC71" t="n">
         <v>577</v>
       </c>
       <c r="BD71" t="n">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="BE71" t="n">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="BF71" t="n">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="BG71" t="n">
-        <v>3203</v>
+        <v>3170</v>
       </c>
       <c r="BH71" t="n">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="BI71" t="n">
         <v>483</v>
       </c>
       <c r="BJ71" t="n">
-        <v>2070</v>
+        <v>2058</v>
       </c>
       <c r="BK71" t="n">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="BL71" t="n">
         <v>1062</v>
       </c>
       <c r="BM71" t="n">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="BN71" t="n">
-        <v>591</v>
+        <v>572</v>
       </c>
       <c r="BO71" t="n">
         <v>1029</v>
       </c>
       <c r="BP71" t="n">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="BQ71" t="n">
         <v>932</v>
@@ -20211,10 +20179,10 @@
         <v>554</v>
       </c>
       <c r="BT71" t="n">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="BU71" t="n">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="BV71" t="n">
         <v>1016</v>
@@ -20397,7 +20365,7 @@
       </c>
       <c r="AL72" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN72" t="n">
@@ -20459,7 +20427,7 @@
         <v>4</v>
       </c>
       <c r="BF72" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BG72" t="n">
         <v>458</v>
@@ -20471,7 +20439,7 @@
         <v>122</v>
       </c>
       <c r="BJ72" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BK72" t="n">
         <v>17</v>
@@ -20501,7 +20469,7 @@
         <v>59</v>
       </c>
       <c r="BU72" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BV72" t="n">
         <v>36</v>
@@ -20659,7 +20627,7 @@
       </c>
       <c r="AM73" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN73" t="n">
@@ -20685,13 +20653,13 @@
         <v>38</v>
       </c>
       <c r="AT73" t="n">
-        <v>1913</v>
+        <v>1847</v>
       </c>
       <c r="AU73" t="n">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="AV73" t="n">
-        <v>3131</v>
+        <v>3098</v>
       </c>
       <c r="AW73" t="n">
         <v>66</v>
@@ -20706,13 +20674,13 @@
         <v>2</v>
       </c>
       <c r="BB73" t="n">
-        <v>1563</v>
+        <v>1541</v>
       </c>
       <c r="BC73" t="n">
-        <v>1216</v>
+        <v>1192</v>
       </c>
       <c r="BD73" t="n">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="BF73" t="n">
         <v>42</v>
@@ -20724,7 +20692,7 @@
         <v>24</v>
       </c>
       <c r="BI73" t="n">
-        <v>312</v>
+        <v>218</v>
       </c>
       <c r="BJ73" t="n">
         <v>50</v>
@@ -20736,25 +20704,25 @@
         <v>50</v>
       </c>
       <c r="BN73" t="n">
-        <v>1311</v>
+        <v>1243</v>
       </c>
       <c r="BO73" t="n">
-        <v>477</v>
+        <v>400</v>
       </c>
       <c r="BP73" t="n">
-        <v>2576</v>
+        <v>2535</v>
       </c>
       <c r="BR73" t="n">
         <v>1801</v>
       </c>
       <c r="BU73" t="n">
-        <v>1112</v>
+        <v>996</v>
       </c>
       <c r="BV73" t="n">
         <v>15</v>
       </c>
       <c r="BY73" t="n">
-        <v>10583</v>
+        <v>51848</v>
       </c>
     </row>
     <row r="74">
@@ -20906,7 +20874,7 @@
       </c>
       <c r="AM74" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN74" t="n">
@@ -20923,25 +20891,25 @@
         </is>
       </c>
       <c r="AQ74" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AR74" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AS74" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AT74" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AU74" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AV74" t="n">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AX74" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AY74" t="n">
         <v>8</v>
@@ -20956,52 +20924,52 @@
         <v>61</v>
       </c>
       <c r="BC74" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BD74" t="n">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="BE74" t="n">
         <v>66</v>
       </c>
       <c r="BG74" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="BH74" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="BI74" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BJ74" t="n">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="BM74" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BN74" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BO74" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="BP74" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="BR74" t="n">
         <v>44</v>
       </c>
       <c r="BT74" t="n">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="BU74" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="BV74" t="n">
         <v>201</v>
       </c>
       <c r="BY74" t="n">
-        <v>2160</v>
+        <v>5820</v>
       </c>
     </row>
     <row r="75">
@@ -21178,7 +21146,7 @@
       </c>
       <c r="AM75" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN75" t="n">
@@ -21195,10 +21163,10 @@
         </is>
       </c>
       <c r="AQ75" t="n">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="AR75" t="n">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AS75" t="n">
         <v>740</v>
@@ -21216,7 +21184,7 @@
         <v>572</v>
       </c>
       <c r="AX75" t="n">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AY75" t="n">
         <v>507</v>
@@ -21231,28 +21199,28 @@
         <v>383</v>
       </c>
       <c r="BC75" t="n">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="BD75" t="n">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="BE75" t="n">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="BF75" t="n">
         <v>456</v>
       </c>
       <c r="BG75" t="n">
-        <v>1684</v>
+        <v>1550</v>
       </c>
       <c r="BH75" t="n">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="BI75" t="n">
         <v>465</v>
       </c>
       <c r="BJ75" t="n">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="BK75" t="n">
         <v>175</v>
@@ -21261,16 +21229,16 @@
         <v>393</v>
       </c>
       <c r="BM75" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="BN75" t="n">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="BO75" t="n">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="BP75" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="BQ75" t="n">
         <v>307</v>
@@ -21279,7 +21247,7 @@
         <v>627</v>
       </c>
       <c r="BT75" t="n">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="BU75" t="n">
         <v>357</v>
@@ -21472,7 +21440,7 @@
         <v>26</v>
       </c>
       <c r="BF76" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BG76" t="n">
         <v>42</v>
@@ -21688,7 +21656,7 @@
       </c>
       <c r="AM77" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN77" t="n">
@@ -21717,7 +21685,7 @@
         <v>136</v>
       </c>
       <c r="AU77" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AV77" t="n">
         <v>285</v>
@@ -21729,7 +21697,7 @@
         <v>190</v>
       </c>
       <c r="AY77" t="n">
-        <v>141</v>
+        <v>199</v>
       </c>
       <c r="AZ77" t="n">
         <v>900</v>
@@ -21738,7 +21706,7 @@
         <v>249</v>
       </c>
       <c r="BB77" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BC77" t="n">
         <v>172</v>
@@ -21747,22 +21715,22 @@
         <v>93</v>
       </c>
       <c r="BE77" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="BF77" t="n">
         <v>154</v>
       </c>
       <c r="BG77" t="n">
-        <v>961</v>
+        <v>901</v>
       </c>
       <c r="BH77" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="BI77" t="n">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="BJ77" t="n">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="BK77" t="n">
         <v>398</v>
@@ -21774,7 +21742,7 @@
         <v>117</v>
       </c>
       <c r="BN77" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BO77" t="n">
         <v>239</v>
@@ -21975,7 +21943,7 @@
       </c>
       <c r="AL78" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN78" t="n">
@@ -21992,7 +21960,7 @@
         </is>
       </c>
       <c r="AQ78" t="n">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="AR78" t="n">
         <v>595</v>
@@ -22004,64 +21972,64 @@
         <v>1304</v>
       </c>
       <c r="AU78" t="n">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="AV78" t="n">
-        <v>1699</v>
+        <v>1693</v>
       </c>
       <c r="AW78" t="n">
-        <v>1067</v>
+        <v>1057</v>
       </c>
       <c r="AX78" t="n">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="AY78" t="n">
         <v>915</v>
       </c>
       <c r="AZ78" t="n">
-        <v>1096</v>
+        <v>1082</v>
       </c>
       <c r="BA78" t="n">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="BB78" t="n">
-        <v>871</v>
+        <v>846</v>
       </c>
       <c r="BC78" t="n">
         <v>746</v>
       </c>
       <c r="BD78" t="n">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="BE78" t="n">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="BF78" t="n">
         <v>849</v>
       </c>
       <c r="BG78" t="n">
-        <v>567</v>
+        <v>6457</v>
       </c>
       <c r="BH78" t="n">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="BI78" t="n">
-        <v>2549</v>
+        <v>2535</v>
       </c>
       <c r="BJ78" t="n">
-        <v>899</v>
+        <v>864</v>
       </c>
       <c r="BK78" t="n">
         <v>1761</v>
       </c>
       <c r="BL78" t="n">
-        <v>1717</v>
+        <v>1705</v>
       </c>
       <c r="BM78" t="n">
-        <v>1309</v>
+        <v>1285</v>
       </c>
       <c r="BN78" t="n">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="BO78" t="n">
         <v>1009</v>
@@ -22076,7 +22044,7 @@
         <v>1036</v>
       </c>
       <c r="BT78" t="n">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="BU78" t="n">
         <v>1754</v>
@@ -22085,7 +22053,7 @@
         <v>1002</v>
       </c>
       <c r="BX78" t="n">
-        <v>9081</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79">
@@ -22262,7 +22230,7 @@
       </c>
       <c r="AM79" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN79" t="n">
@@ -22282,25 +22250,25 @@
         <v>1120</v>
       </c>
       <c r="AR79" t="n">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="AS79" t="n">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="AT79" t="n">
-        <v>1456</v>
+        <v>1453</v>
       </c>
       <c r="AU79" t="n">
         <v>1227</v>
       </c>
       <c r="AV79" t="n">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="AW79" t="n">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="AX79" t="n">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="AY79" t="n">
         <v>795</v>
@@ -22312,7 +22280,7 @@
         <v>794</v>
       </c>
       <c r="BB79" t="n">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="BC79" t="n">
         <v>739</v>
@@ -22324,19 +22292,19 @@
         <v>1715</v>
       </c>
       <c r="BF79" t="n">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="BG79" t="n">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="BH79" t="n">
         <v>1193</v>
       </c>
       <c r="BI79" t="n">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="BJ79" t="n">
-        <v>1511</v>
+        <v>1507</v>
       </c>
       <c r="BK79" t="n">
         <v>697</v>
@@ -22345,10 +22313,10 @@
         <v>1532</v>
       </c>
       <c r="BM79" t="n">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="BN79" t="n">
-        <v>1683</v>
+        <v>1678</v>
       </c>
       <c r="BO79" t="n">
         <v>754</v>
@@ -22363,7 +22331,7 @@
         <v>1114</v>
       </c>
       <c r="BT79" t="n">
-        <v>1158</v>
+        <v>1152</v>
       </c>
       <c r="BU79" t="n">
         <v>1424</v>
@@ -22549,7 +22517,7 @@
       </c>
       <c r="AL80" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN80" t="n">
@@ -22572,58 +22540,58 @@
         <v>3042</v>
       </c>
       <c r="AS80" t="n">
-        <v>1539</v>
+        <v>1472</v>
       </c>
       <c r="AT80" t="n">
-        <v>1377</v>
+        <v>1366</v>
       </c>
       <c r="AU80" t="n">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="AV80" t="n">
-        <v>802</v>
+        <v>789</v>
       </c>
       <c r="AW80" t="n">
         <v>2034</v>
       </c>
       <c r="AX80" t="n">
-        <v>2716</v>
+        <v>2665</v>
       </c>
       <c r="AY80" t="n">
-        <v>2738</v>
+        <v>3458</v>
       </c>
       <c r="AZ80" t="n">
-        <v>1306</v>
+        <v>1292</v>
       </c>
       <c r="BA80" t="n">
-        <v>1618</v>
+        <v>1607</v>
       </c>
       <c r="BB80" t="n">
-        <v>1706</v>
+        <v>1700</v>
       </c>
       <c r="BC80" t="n">
-        <v>1333</v>
+        <v>1318</v>
       </c>
       <c r="BD80" t="n">
-        <v>1923</v>
+        <v>1919</v>
       </c>
       <c r="BE80" t="n">
         <v>823</v>
       </c>
       <c r="BF80" t="n">
-        <v>1691</v>
+        <v>1655</v>
       </c>
       <c r="BG80" t="n">
-        <v>2433</v>
+        <v>1987</v>
       </c>
       <c r="BH80" t="n">
-        <v>2836</v>
+        <v>2831</v>
       </c>
       <c r="BI80" t="n">
-        <v>1091</v>
+        <v>1012</v>
       </c>
       <c r="BJ80" t="n">
-        <v>1797</v>
+        <v>1746</v>
       </c>
       <c r="BK80" t="n">
         <v>2105</v>
@@ -22632,28 +22600,28 @@
         <v>1774</v>
       </c>
       <c r="BM80" t="n">
-        <v>2792</v>
+        <v>2702</v>
       </c>
       <c r="BN80" t="n">
-        <v>2498</v>
+        <v>2487</v>
       </c>
       <c r="BO80" t="n">
-        <v>1100</v>
+        <v>2177</v>
       </c>
       <c r="BP80" t="n">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="BQ80" t="n">
         <v>2365</v>
       </c>
       <c r="BR80" t="n">
-        <v>897</v>
+        <v>887</v>
       </c>
       <c r="BT80" t="n">
-        <v>2927</v>
+        <v>2905</v>
       </c>
       <c r="BU80" t="n">
-        <v>1916</v>
+        <v>1902</v>
       </c>
       <c r="BV80" t="n">
         <v>2073</v>
@@ -22836,7 +22804,7 @@
       </c>
       <c r="AM81" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN81" t="n">
@@ -22853,94 +22821,94 @@
         </is>
       </c>
       <c r="AQ81" t="n">
-        <v>4355</v>
+        <v>4354</v>
       </c>
       <c r="AR81" t="n">
-        <v>8112</v>
+        <v>8102</v>
       </c>
       <c r="AS81" t="n">
-        <v>4225</v>
+        <v>4189</v>
       </c>
       <c r="AT81" t="n">
         <v>8810</v>
       </c>
       <c r="AU81" t="n">
-        <v>10233</v>
+        <v>10164</v>
       </c>
       <c r="AV81" t="n">
-        <v>9658</v>
+        <v>9614</v>
       </c>
       <c r="AW81" t="n">
-        <v>5349</v>
+        <v>5322</v>
       </c>
       <c r="AX81" t="n">
-        <v>3965</v>
+        <v>3919</v>
       </c>
       <c r="AY81" t="n">
-        <v>4974</v>
+        <v>4973</v>
       </c>
       <c r="AZ81" t="n">
-        <v>3635</v>
+        <v>3634</v>
       </c>
       <c r="BA81" t="n">
         <v>3597</v>
       </c>
       <c r="BB81" t="n">
-        <v>4306</v>
+        <v>4292</v>
       </c>
       <c r="BC81" t="n">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="BD81" t="n">
-        <v>1513</v>
+        <v>1508</v>
       </c>
       <c r="BE81" t="n">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="BF81" t="n">
-        <v>5127</v>
+        <v>5124</v>
       </c>
       <c r="BG81" t="n">
-        <v>2306</v>
+        <v>2270</v>
       </c>
       <c r="BH81" t="n">
-        <v>4051</v>
+        <v>4029</v>
       </c>
       <c r="BI81" t="n">
-        <v>4569</v>
+        <v>4536</v>
       </c>
       <c r="BJ81" t="n">
-        <v>3626</v>
+        <v>3572</v>
       </c>
       <c r="BK81" t="n">
-        <v>3548</v>
+        <v>3513</v>
       </c>
       <c r="BL81" t="n">
         <v>3085</v>
       </c>
       <c r="BM81" t="n">
-        <v>4808</v>
+        <v>4786</v>
       </c>
       <c r="BN81" t="n">
-        <v>2913</v>
+        <v>2872</v>
       </c>
       <c r="BO81" t="n">
-        <v>2654</v>
+        <v>2653</v>
       </c>
       <c r="BP81" t="n">
-        <v>3300</v>
+        <v>3292</v>
       </c>
       <c r="BQ81" t="n">
         <v>4554</v>
       </c>
       <c r="BR81" t="n">
-        <v>3602</v>
+        <v>3588</v>
       </c>
       <c r="BT81" t="n">
-        <v>4919</v>
+        <v>4892</v>
       </c>
       <c r="BU81" t="n">
-        <v>2186</v>
+        <v>2160</v>
       </c>
       <c r="BV81" t="n">
         <v>2779</v>
@@ -23123,7 +23091,7 @@
       </c>
       <c r="AL82" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="AN82" t="n">
@@ -23143,7 +23111,7 @@
         <v>359</v>
       </c>
       <c r="AR82" t="n">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="AS82" t="n">
         <v>987</v>
@@ -23170,16 +23138,16 @@
         <v>341</v>
       </c>
       <c r="BA82" t="n">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="BB82" t="n">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="BC82" t="n">
         <v>689</v>
       </c>
       <c r="BD82" t="n">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="BE82" t="n">
         <v>843</v>
@@ -23188,7 +23156,7 @@
         <v>677</v>
       </c>
       <c r="BG82" t="n">
-        <v>1233</v>
+        <v>1227</v>
       </c>
       <c r="BH82" t="n">
         <v>544</v>
@@ -23197,7 +23165,7 @@
         <v>390</v>
       </c>
       <c r="BJ82" t="n">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="BK82" t="n">
         <v>1336</v>
@@ -23206,16 +23174,16 @@
         <v>620</v>
       </c>
       <c r="BM82" t="n">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="BN82" t="n">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="BO82" t="n">
         <v>610</v>
       </c>
       <c r="BP82" t="n">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="BQ82" t="n">
         <v>418</v>
@@ -23224,10 +23192,10 @@
         <v>229</v>
       </c>
       <c r="BT82" t="n">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="BU82" t="n">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="BV82" t="n">
         <v>436</v>

--- a/Data/branch_wise_aging_stock.xlsx
+++ b/Data/branch_wise_aging_stock.xlsx
@@ -918,22 +918,12 @@
           <t>Within 15 Days</t>
         </is>
       </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>More Than 120 Days</t>
-        </is>
-      </c>
       <c r="V2" t="inlineStr">
         <is>
           <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
-        <is>
-          <t>More Than 120 Days</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
         <is>
           <t>More Than 120 Days</t>
         </is>
@@ -1010,34 +1000,34 @@
         <v>63</v>
       </c>
       <c r="AR2" t="n">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="AS2" t="n">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="AT2" t="n">
-        <v>2042</v>
+        <v>1872</v>
       </c>
       <c r="AU2" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AV2" t="n">
         <v>80</v>
       </c>
       <c r="AW2" t="n">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="AX2" t="n">
         <v>91</v>
       </c>
       <c r="AY2" t="n">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AZ2" t="n">
         <v>59</v>
       </c>
       <c r="BA2" t="n">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="BB2" t="n">
         <v>64</v>
@@ -1054,17 +1044,11 @@
       <c r="BF2" t="n">
         <v>114</v>
       </c>
-      <c r="BG2" t="n">
-        <v>376</v>
-      </c>
       <c r="BH2" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="BI2" t="n">
         <v>60</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>153</v>
       </c>
       <c r="BK2" t="n">
         <v>68</v>
@@ -1286,37 +1270,37 @@
         </is>
       </c>
       <c r="AQ3" t="n">
-        <v>366</v>
+        <v>486</v>
       </c>
       <c r="AR3" t="n">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="AS3" t="n">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="AT3" t="n">
-        <v>914</v>
+        <v>1022</v>
       </c>
       <c r="AU3" t="n">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="AV3" t="n">
-        <v>940</v>
+        <v>924</v>
       </c>
       <c r="AW3" t="n">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="AX3" t="n">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AY3" t="n">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AZ3" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="BA3" t="n">
-        <v>1021</v>
+        <v>986</v>
       </c>
       <c r="BB3" t="n">
         <v>157</v>
@@ -1325,58 +1309,58 @@
         <v>205</v>
       </c>
       <c r="BD3" t="n">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="BE3" t="n">
         <v>315</v>
       </c>
       <c r="BF3" t="n">
-        <v>380</v>
+        <v>339</v>
       </c>
       <c r="BG3" t="n">
-        <v>4886</v>
+        <v>4514</v>
       </c>
       <c r="BH3" t="n">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="BI3" t="n">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="BJ3" t="n">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="BK3" t="n">
         <v>198</v>
       </c>
       <c r="BL3" t="n">
-        <v>642</v>
+        <v>722</v>
       </c>
       <c r="BM3" t="n">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="BN3" t="n">
         <v>202</v>
       </c>
       <c r="BO3" t="n">
-        <v>381</v>
+        <v>494</v>
       </c>
       <c r="BP3" t="n">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="BQ3" t="n">
-        <v>492</v>
+        <v>479</v>
       </c>
       <c r="BR3" t="n">
         <v>539</v>
       </c>
       <c r="BT3" t="n">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="BU3" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="BV3" t="n">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4">
@@ -1573,34 +1557,34 @@
         <v>235</v>
       </c>
       <c r="AR4" t="n">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AS4" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="AT4" t="n">
         <v>407</v>
       </c>
       <c r="AU4" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AV4" t="n">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="AW4" t="n">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="AX4" t="n">
         <v>169</v>
       </c>
       <c r="AY4" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AZ4" t="n">
         <v>35</v>
       </c>
       <c r="BA4" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BB4" t="n">
         <v>197</v>
@@ -1618,22 +1602,22 @@
         <v>157</v>
       </c>
       <c r="BG4" t="n">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="BH4" t="n">
         <v>428</v>
       </c>
       <c r="BI4" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="BJ4" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="BK4" t="n">
         <v>102</v>
       </c>
       <c r="BL4" t="n">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="BM4" t="n">
         <v>59</v>
@@ -1648,7 +1632,7 @@
         <v>79</v>
       </c>
       <c r="BQ4" t="n">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="BR4" t="n">
         <v>56</v>
@@ -1657,10 +1641,10 @@
         <v>65</v>
       </c>
       <c r="BU4" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="BV4" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="BW4" t="n">
         <v>3913</v>
@@ -1857,28 +1841,28 @@
         </is>
       </c>
       <c r="AQ5" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AR5" t="n">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AS5" t="n">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AT5" t="n">
         <v>619</v>
       </c>
       <c r="AU5" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="AV5" t="n">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="AW5" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AX5" t="n">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AY5" t="n">
         <v>152</v>
@@ -1890,64 +1874,64 @@
         <v>251</v>
       </c>
       <c r="BB5" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BC5" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BD5" t="n">
         <v>76</v>
       </c>
       <c r="BE5" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="BF5" t="n">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="BG5" t="n">
-        <v>838</v>
+        <v>667</v>
       </c>
       <c r="BH5" t="n">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="BI5" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="BJ5" t="n">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="BK5" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BL5" t="n">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="BM5" t="n">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="BN5" t="n">
         <v>152</v>
       </c>
       <c r="BO5" t="n">
-        <v>213</v>
+        <v>374</v>
       </c>
       <c r="BP5" t="n">
         <v>206</v>
       </c>
       <c r="BQ5" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BR5" t="n">
         <v>249</v>
       </c>
       <c r="BT5" t="n">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="BU5" t="n">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="BV5" t="n">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="BW5" t="n">
         <v>4</v>
@@ -2144,97 +2128,97 @@
         </is>
       </c>
       <c r="AQ6" t="n">
-        <v>321</v>
+        <v>589</v>
       </c>
       <c r="AR6" t="n">
-        <v>1222</v>
+        <v>1199</v>
       </c>
       <c r="AS6" t="n">
-        <v>802</v>
+        <v>781</v>
       </c>
       <c r="AT6" t="n">
-        <v>989</v>
+        <v>1149</v>
       </c>
       <c r="AU6" t="n">
-        <v>935</v>
+        <v>907</v>
       </c>
       <c r="AV6" t="n">
-        <v>635</v>
+        <v>588</v>
       </c>
       <c r="AW6" t="n">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="AX6" t="n">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="AY6" t="n">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="AZ6" t="n">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="BA6" t="n">
-        <v>876</v>
+        <v>862</v>
       </c>
       <c r="BB6" t="n">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="BC6" t="n">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="BD6" t="n">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="BE6" t="n">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="BF6" t="n">
-        <v>768</v>
+        <v>755</v>
       </c>
       <c r="BG6" t="n">
-        <v>3554</v>
+        <v>2932</v>
       </c>
       <c r="BH6" t="n">
-        <v>402</v>
+        <v>361</v>
       </c>
       <c r="BI6" t="n">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="BJ6" t="n">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="BK6" t="n">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="BL6" t="n">
-        <v>882</v>
+        <v>991</v>
       </c>
       <c r="BM6" t="n">
-        <v>728</v>
+        <v>706</v>
       </c>
       <c r="BN6" t="n">
         <v>484</v>
       </c>
       <c r="BO6" t="n">
-        <v>861</v>
+        <v>1013</v>
       </c>
       <c r="BP6" t="n">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="BQ6" t="n">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="BR6" t="n">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="BT6" t="n">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="BU6" t="n">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="BV6" t="n">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="BW6" t="n">
         <v>628</v>
@@ -2267,11 +2251,6 @@
           <t>More Than 120 Days</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>More Than 120 Days</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>More Than 120 Days</t>
@@ -2337,22 +2316,12 @@
           <t>More Than 120 Days</t>
         </is>
       </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t>More Than 120 Days</t>
-        </is>
-      </c>
       <c r="W7" t="inlineStr">
         <is>
           <t>More Than 120 Days</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
-        <is>
-          <t>More Than 120 Days</t>
-        </is>
-      </c>
-      <c r="Z7" t="inlineStr">
         <is>
           <t>More Than 120 Days</t>
         </is>
@@ -2416,91 +2385,82 @@
         </is>
       </c>
       <c r="AQ7" t="n">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="AR7" t="n">
-        <v>72</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AT7" t="n">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AU7" t="n">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="AW7" t="n">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="AX7" t="n">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="AY7" t="n">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="AZ7" t="n">
+        <v>141</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>62</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>438</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>46</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>393</v>
+      </c>
+      <c r="BE7" t="n">
         <v>163</v>
       </c>
-      <c r="BA7" t="n">
-        <v>92</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>477</v>
-      </c>
-      <c r="BC7" t="n">
+      <c r="BF7" t="n">
+        <v>235</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>238</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>277</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>137</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>159</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>322</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>307</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>257</v>
+      </c>
+      <c r="BR7" t="n">
         <v>150</v>
       </c>
-      <c r="BD7" t="n">
-        <v>425</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>189</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>247</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>107</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>316</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>293</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>192</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>6</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>339</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>346</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>301</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>177</v>
-      </c>
       <c r="BT7" t="n">
-        <v>228</v>
+        <v>174</v>
       </c>
       <c r="BU7" t="n">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="BV7" t="n">
-        <v>113</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
@@ -2575,6 +2535,11 @@
           <t>More Than 120 Days</t>
         </is>
       </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>More Than 120 Days</t>
+        </is>
+      </c>
       <c r="R8" t="inlineStr">
         <is>
           <t>More Than 120 Days</t>
@@ -2591,6 +2556,11 @@
         </is>
       </c>
       <c r="U8" t="inlineStr">
+        <is>
+          <t>More Than 120 Days</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
         <is>
           <t>More Than 120 Days</t>
         </is>
@@ -2679,88 +2649,94 @@
         </is>
       </c>
       <c r="AQ8" t="n">
-        <v>671</v>
+        <v>1160</v>
       </c>
       <c r="AR8" t="n">
-        <v>807</v>
+        <v>744</v>
       </c>
       <c r="AS8" t="n">
-        <v>1606</v>
+        <v>1517</v>
       </c>
       <c r="AT8" t="n">
-        <v>666</v>
+        <v>1506</v>
       </c>
       <c r="AU8" t="n">
-        <v>1164</v>
+        <v>1631</v>
       </c>
       <c r="AV8" t="n">
-        <v>1642</v>
+        <v>1486</v>
       </c>
       <c r="AW8" t="n">
-        <v>658</v>
+        <v>1134</v>
       </c>
       <c r="AX8" t="n">
-        <v>1155</v>
+        <v>1141</v>
       </c>
       <c r="AY8" t="n">
-        <v>816</v>
+        <v>792</v>
       </c>
       <c r="AZ8" t="n">
-        <v>776</v>
+        <v>732</v>
       </c>
       <c r="BA8" t="n">
-        <v>1138</v>
+        <v>1086</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>504</v>
       </c>
       <c r="BD8" t="n">
-        <v>621</v>
+        <v>595</v>
       </c>
       <c r="BE8" t="n">
-        <v>656</v>
+        <v>966</v>
       </c>
       <c r="BF8" t="n">
-        <v>495</v>
+        <v>474</v>
       </c>
       <c r="BG8" t="n">
-        <v>2856</v>
+        <v>1097</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>417</v>
       </c>
       <c r="BI8" t="n">
-        <v>658</v>
+        <v>633</v>
       </c>
       <c r="BJ8" t="n">
-        <v>548</v>
+        <v>614</v>
       </c>
       <c r="BK8" t="n">
-        <v>1489</v>
+        <v>1471</v>
       </c>
       <c r="BL8" t="n">
-        <v>587</v>
+        <v>799</v>
       </c>
       <c r="BM8" t="n">
-        <v>1147</v>
+        <v>1089</v>
       </c>
       <c r="BN8" t="n">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="BO8" t="n">
-        <v>1174</v>
+        <v>1165</v>
       </c>
       <c r="BP8" t="n">
-        <v>1162</v>
+        <v>1149</v>
       </c>
       <c r="BQ8" t="n">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="BR8" t="n">
-        <v>804</v>
+        <v>794</v>
       </c>
       <c r="BT8" t="n">
-        <v>325</v>
+        <v>412</v>
       </c>
       <c r="BU8" t="n">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="BV8" t="n">
-        <v>642</v>
+        <v>616</v>
       </c>
       <c r="BY8" t="n">
         <v>312</v>
@@ -2975,7 +2951,7 @@
         <v>52</v>
       </c>
       <c r="AW9" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AX9" t="n">
         <v>43</v>
@@ -3005,7 +2981,7 @@
         <v>50</v>
       </c>
       <c r="BG9" t="n">
-        <v>2865</v>
+        <v>2863</v>
       </c>
       <c r="BH9" t="n">
         <v>189</v>
@@ -3017,10 +2993,10 @@
         <v>283</v>
       </c>
       <c r="BK9" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BL9" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BM9" t="n">
         <v>44</v>
@@ -3044,7 +3020,7 @@
         <v>41</v>
       </c>
       <c r="BU9" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BV9" t="n">
         <v>63</v>
@@ -3244,97 +3220,97 @@
         </is>
       </c>
       <c r="AQ10" t="n">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="AR10" t="n">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="AS10" t="n">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="AT10" t="n">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="AU10" t="n">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="AV10" t="n">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="AW10" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AX10" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AY10" t="n">
-        <v>624</v>
+        <v>615</v>
       </c>
       <c r="AZ10" t="n">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="BA10" t="n">
+        <v>293</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>295</v>
+      </c>
+      <c r="BC10" t="n">
         <v>294</v>
       </c>
-      <c r="BB10" t="n">
-        <v>307</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>312</v>
-      </c>
       <c r="BD10" t="n">
-        <v>249</v>
+        <v>232</v>
       </c>
       <c r="BE10" t="n">
+        <v>152</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>151</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>434</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>184</v>
+      </c>
+      <c r="BI10" t="n">
         <v>153</v>
       </c>
-      <c r="BF10" t="n">
-        <v>158</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>452</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>194</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>163</v>
-      </c>
       <c r="BJ10" t="n">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="BK10" t="n">
-        <v>394</v>
+        <v>373</v>
       </c>
       <c r="BL10" t="n">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="BM10" t="n">
-        <v>439</v>
+        <v>391</v>
       </c>
       <c r="BN10" t="n">
         <v>361</v>
       </c>
       <c r="BO10" t="n">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="BP10" t="n">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="BQ10" t="n">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="BR10" t="n">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="BT10" t="n">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="BU10" t="n">
-        <v>453</v>
+        <v>437</v>
       </c>
       <c r="BV10" t="n">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="BY10" t="n">
         <v>138</v>
@@ -3531,7 +3507,7 @@
         </is>
       </c>
       <c r="AQ11" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AR11" t="n">
         <v>143</v>
@@ -3549,10 +3525,10 @@
         <v>68</v>
       </c>
       <c r="AW11" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="AX11" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AY11" t="n">
         <v>57</v>
@@ -3564,16 +3540,16 @@
         <v>93</v>
       </c>
       <c r="BB11" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BC11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD11" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BE11" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="BF11" t="n">
         <v>130</v>
@@ -3591,37 +3567,37 @@
         <v>137</v>
       </c>
       <c r="BK11" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BL11" t="n">
         <v>115</v>
       </c>
       <c r="BM11" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BN11" t="n">
         <v>19</v>
       </c>
       <c r="BO11" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BP11" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BQ11" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BR11" t="n">
         <v>101</v>
       </c>
       <c r="BT11" t="n">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="BU11" t="n">
         <v>29</v>
       </c>
       <c r="BV11" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BX11" t="n">
         <v>185</v>
@@ -3818,97 +3794,97 @@
         </is>
       </c>
       <c r="AQ12" t="n">
-        <v>469</v>
+        <v>844</v>
       </c>
       <c r="AR12" t="n">
-        <v>570</v>
+        <v>534</v>
       </c>
       <c r="AS12" t="n">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="AT12" t="n">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AU12" t="n">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="AV12" t="n">
-        <v>543</v>
+        <v>509</v>
       </c>
       <c r="AW12" t="n">
-        <v>543</v>
+        <v>522</v>
       </c>
       <c r="AX12" t="n">
-        <v>475</v>
+        <v>447</v>
       </c>
       <c r="AY12" t="n">
-        <v>1102</v>
+        <v>1069</v>
       </c>
       <c r="AZ12" t="n">
-        <v>421</v>
+        <v>555</v>
       </c>
       <c r="BA12" t="n">
-        <v>700</v>
+        <v>644</v>
       </c>
       <c r="BB12" t="n">
-        <v>438</v>
+        <v>420</v>
       </c>
       <c r="BC12" t="n">
-        <v>542</v>
+        <v>521</v>
       </c>
       <c r="BD12" t="n">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="BE12" t="n">
-        <v>535</v>
+        <v>675</v>
       </c>
       <c r="BF12" t="n">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="BG12" t="n">
-        <v>807</v>
+        <v>5036</v>
       </c>
       <c r="BH12" t="n">
-        <v>738</v>
+        <v>699</v>
       </c>
       <c r="BI12" t="n">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="BJ12" t="n">
-        <v>492</v>
+        <v>827</v>
       </c>
       <c r="BK12" t="n">
-        <v>512</v>
+        <v>629</v>
       </c>
       <c r="BL12" t="n">
-        <v>312</v>
+        <v>633</v>
       </c>
       <c r="BM12" t="n">
-        <v>732</v>
+        <v>694</v>
       </c>
       <c r="BN12" t="n">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="BO12" t="n">
-        <v>592</v>
+        <v>728</v>
       </c>
       <c r="BP12" t="n">
-        <v>430</v>
+        <v>417</v>
       </c>
       <c r="BQ12" t="n">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="BR12" t="n">
-        <v>392</v>
+        <v>367</v>
       </c>
       <c r="BT12" t="n">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="BU12" t="n">
-        <v>473</v>
+        <v>455</v>
       </c>
       <c r="BV12" t="n">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="BY12" t="n">
         <v>1816</v>
@@ -4100,73 +4076,73 @@
         </is>
       </c>
       <c r="AQ13" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AR13" t="n">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="AS13" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AT13" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AU13" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AV13" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AW13" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AX13" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AY13" t="n">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="AZ13" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BA13" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="BB13" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="BC13" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="BD13" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="BE13" t="n">
         <v>82</v>
       </c>
       <c r="BF13" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BG13" t="n">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="BH13" t="n">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="BI13" t="n">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="BJ13" t="n">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="BK13" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BL13" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="BM13" t="n">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="BN13" t="n">
         <v>129</v>
@@ -4175,16 +4151,16 @@
         <v>175</v>
       </c>
       <c r="BP13" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="BQ13" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="BR13" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BT13" t="n">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="BU13" t="n">
         <v>40</v>
@@ -4384,97 +4360,97 @@
         </is>
       </c>
       <c r="AQ14" t="n">
-        <v>1225</v>
+        <v>1558</v>
       </c>
       <c r="AR14" t="n">
-        <v>2174</v>
+        <v>2074</v>
       </c>
       <c r="AS14" t="n">
-        <v>1183</v>
+        <v>1044</v>
       </c>
       <c r="AT14" t="n">
-        <v>1344</v>
+        <v>1464</v>
       </c>
       <c r="AU14" t="n">
-        <v>1346</v>
+        <v>1276</v>
       </c>
       <c r="AV14" t="n">
-        <v>1750</v>
+        <v>1686</v>
       </c>
       <c r="AW14" t="n">
-        <v>1336</v>
+        <v>1269</v>
       </c>
       <c r="AX14" t="n">
-        <v>773</v>
+        <v>710</v>
       </c>
       <c r="AY14" t="n">
-        <v>2189</v>
+        <v>2097</v>
       </c>
       <c r="AZ14" t="n">
-        <v>1515</v>
+        <v>1394</v>
       </c>
       <c r="BA14" t="n">
-        <v>443</v>
+        <v>291</v>
       </c>
       <c r="BB14" t="n">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="BC14" t="n">
-        <v>647</v>
+        <v>600</v>
       </c>
       <c r="BD14" t="n">
-        <v>1108</v>
+        <v>894</v>
       </c>
       <c r="BE14" t="n">
-        <v>1013</v>
+        <v>905</v>
       </c>
       <c r="BF14" t="n">
-        <v>823</v>
+        <v>768</v>
       </c>
       <c r="BG14" t="n">
-        <v>2729</v>
+        <v>958</v>
       </c>
       <c r="BH14" t="n">
-        <v>1203</v>
+        <v>1141</v>
       </c>
       <c r="BI14" t="n">
-        <v>1645</v>
+        <v>1620</v>
       </c>
       <c r="BJ14" t="n">
-        <v>1777</v>
+        <v>1677</v>
       </c>
       <c r="BK14" t="n">
-        <v>974</v>
+        <v>1069</v>
       </c>
       <c r="BL14" t="n">
-        <v>267</v>
+        <v>818</v>
       </c>
       <c r="BM14" t="n">
-        <v>1560</v>
+        <v>1471</v>
       </c>
       <c r="BN14" t="n">
-        <v>1110</v>
+        <v>1090</v>
       </c>
       <c r="BO14" t="n">
-        <v>1376</v>
+        <v>1328</v>
       </c>
       <c r="BP14" t="n">
-        <v>1831</v>
+        <v>1792</v>
       </c>
       <c r="BQ14" t="n">
-        <v>1800</v>
+        <v>1744</v>
       </c>
       <c r="BR14" t="n">
-        <v>1245</v>
+        <v>1188</v>
       </c>
       <c r="BT14" t="n">
-        <v>985</v>
+        <v>926</v>
       </c>
       <c r="BU14" t="n">
-        <v>1208</v>
+        <v>1156</v>
       </c>
       <c r="BV14" t="n">
-        <v>734</v>
+        <v>663</v>
       </c>
       <c r="BY14" t="n">
         <v>24915</v>
@@ -4671,70 +4647,70 @@
         </is>
       </c>
       <c r="AQ15" t="n">
-        <v>2747</v>
+        <v>2659</v>
       </c>
       <c r="AR15" t="n">
-        <v>988</v>
+        <v>869</v>
       </c>
       <c r="AS15" t="n">
-        <v>1995</v>
+        <v>1967</v>
       </c>
       <c r="AT15" t="n">
-        <v>2362</v>
+        <v>2372</v>
       </c>
       <c r="AU15" t="n">
-        <v>2076</v>
+        <v>2047</v>
       </c>
       <c r="AV15" t="n">
-        <v>2468</v>
+        <v>2431</v>
       </c>
       <c r="AW15" t="n">
-        <v>1702</v>
+        <v>1556</v>
       </c>
       <c r="AX15" t="n">
-        <v>2857</v>
+        <v>2851</v>
       </c>
       <c r="AY15" t="n">
-        <v>1523</v>
+        <v>1478</v>
       </c>
       <c r="AZ15" t="n">
-        <v>2481</v>
+        <v>2449</v>
       </c>
       <c r="BA15" t="n">
-        <v>1715</v>
+        <v>1683</v>
       </c>
       <c r="BB15" t="n">
-        <v>1976</v>
+        <v>1913</v>
       </c>
       <c r="BC15" t="n">
-        <v>1041</v>
+        <v>1006</v>
       </c>
       <c r="BD15" t="n">
-        <v>2387</v>
+        <v>2347</v>
       </c>
       <c r="BE15" t="n">
-        <v>2078</v>
+        <v>2050</v>
       </c>
       <c r="BF15" t="n">
-        <v>2323</v>
+        <v>2221</v>
       </c>
       <c r="BG15" t="n">
-        <v>1068</v>
+        <v>1054</v>
       </c>
       <c r="BH15" t="n">
-        <v>3357</v>
+        <v>3351</v>
       </c>
       <c r="BI15" t="n">
-        <v>2415</v>
+        <v>2343</v>
       </c>
       <c r="BJ15" t="n">
-        <v>1544</v>
+        <v>1491</v>
       </c>
       <c r="BK15" t="n">
-        <v>821</v>
+        <v>730</v>
       </c>
       <c r="BL15" t="n">
-        <v>1480</v>
+        <v>1342</v>
       </c>
       <c r="BM15" t="n">
         <v>2405</v>
@@ -4743,25 +4719,25 @@
         <v>2265</v>
       </c>
       <c r="BO15" t="n">
-        <v>1714</v>
+        <v>1663</v>
       </c>
       <c r="BP15" t="n">
-        <v>2422</v>
+        <v>2372</v>
       </c>
       <c r="BQ15" t="n">
-        <v>4864</v>
+        <v>4788</v>
       </c>
       <c r="BR15" t="n">
         <v>2396</v>
       </c>
       <c r="BT15" t="n">
-        <v>1343</v>
+        <v>1292</v>
       </c>
       <c r="BU15" t="n">
-        <v>2581</v>
+        <v>2518</v>
       </c>
       <c r="BV15" t="n">
-        <v>2111</v>
+        <v>2099</v>
       </c>
       <c r="BY15" t="n">
         <v>5450</v>
@@ -4958,97 +4934,97 @@
         </is>
       </c>
       <c r="AQ16" t="n">
-        <v>2933</v>
+        <v>2865</v>
       </c>
       <c r="AR16" t="n">
-        <v>7059</v>
+        <v>6834</v>
       </c>
       <c r="AS16" t="n">
-        <v>5543</v>
+        <v>5444</v>
       </c>
       <c r="AT16" t="n">
-        <v>1466</v>
+        <v>1450</v>
       </c>
       <c r="AU16" t="n">
-        <v>2277</v>
+        <v>2119</v>
       </c>
       <c r="AV16" t="n">
-        <v>4637</v>
+        <v>4483</v>
       </c>
       <c r="AW16" t="n">
-        <v>3810</v>
+        <v>3694</v>
       </c>
       <c r="AX16" t="n">
-        <v>6590</v>
+        <v>6503</v>
       </c>
       <c r="AY16" t="n">
-        <v>6897</v>
+        <v>6728</v>
       </c>
       <c r="AZ16" t="n">
-        <v>2882</v>
+        <v>2770</v>
       </c>
       <c r="BA16" t="n">
-        <v>6670</v>
+        <v>6572</v>
       </c>
       <c r="BB16" t="n">
-        <v>4330</v>
+        <v>4234</v>
       </c>
       <c r="BC16" t="n">
-        <v>3977</v>
+        <v>3813</v>
       </c>
       <c r="BD16" t="n">
-        <v>3996</v>
+        <v>3973</v>
       </c>
       <c r="BE16" t="n">
-        <v>1660</v>
+        <v>1566</v>
       </c>
       <c r="BF16" t="n">
-        <v>5118</v>
+        <v>5010</v>
       </c>
       <c r="BG16" t="n">
-        <v>3110</v>
+        <v>2938</v>
       </c>
       <c r="BH16" t="n">
-        <v>4172</v>
+        <v>4055</v>
       </c>
       <c r="BI16" t="n">
-        <v>3425</v>
+        <v>3350</v>
       </c>
       <c r="BJ16" t="n">
-        <v>3454</v>
+        <v>3298</v>
       </c>
       <c r="BK16" t="n">
-        <v>3092</v>
+        <v>2998</v>
       </c>
       <c r="BL16" t="n">
-        <v>2991</v>
+        <v>2859</v>
       </c>
       <c r="BM16" t="n">
-        <v>4852</v>
+        <v>4700</v>
       </c>
       <c r="BN16" t="n">
-        <v>5513</v>
+        <v>5473</v>
       </c>
       <c r="BO16" t="n">
-        <v>3498</v>
+        <v>3404</v>
       </c>
       <c r="BP16" t="n">
-        <v>3219</v>
+        <v>3174</v>
       </c>
       <c r="BQ16" t="n">
-        <v>3820</v>
+        <v>3783</v>
       </c>
       <c r="BR16" t="n">
-        <v>2933</v>
+        <v>2875</v>
       </c>
       <c r="BT16" t="n">
-        <v>3091</v>
+        <v>2948</v>
       </c>
       <c r="BU16" t="n">
-        <v>2313</v>
+        <v>2265</v>
       </c>
       <c r="BV16" t="n">
-        <v>2301</v>
+        <v>2233</v>
       </c>
       <c r="BY16" t="n">
         <v>106</v>
@@ -5245,97 +5221,97 @@
         </is>
       </c>
       <c r="AQ17" t="n">
-        <v>1600</v>
+        <v>1543</v>
       </c>
       <c r="AR17" t="n">
-        <v>3279</v>
+        <v>3229</v>
       </c>
       <c r="AS17" t="n">
-        <v>1751</v>
+        <v>1713</v>
       </c>
       <c r="AT17" t="n">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="AU17" t="n">
-        <v>2470</v>
+        <v>2428</v>
       </c>
       <c r="AV17" t="n">
-        <v>1299</v>
+        <v>1248</v>
       </c>
       <c r="AW17" t="n">
-        <v>968</v>
+        <v>893</v>
       </c>
       <c r="AX17" t="n">
-        <v>1953</v>
+        <v>1929</v>
       </c>
       <c r="AY17" t="n">
-        <v>2660</v>
+        <v>2570</v>
       </c>
       <c r="AZ17" t="n">
-        <v>2582</v>
+        <v>2548</v>
       </c>
       <c r="BA17" t="n">
-        <v>2328</v>
+        <v>2277</v>
       </c>
       <c r="BB17" t="n">
-        <v>3040</v>
+        <v>2995</v>
       </c>
       <c r="BC17" t="n">
-        <v>2030</v>
+        <v>1937</v>
       </c>
       <c r="BD17" t="n">
-        <v>2306</v>
+        <v>2290</v>
       </c>
       <c r="BE17" t="n">
-        <v>1091</v>
+        <v>1041</v>
       </c>
       <c r="BF17" t="n">
-        <v>2433</v>
+        <v>2368</v>
       </c>
       <c r="BG17" t="n">
-        <v>2226</v>
+        <v>2176</v>
       </c>
       <c r="BH17" t="n">
-        <v>2270</v>
+        <v>2248</v>
       </c>
       <c r="BI17" t="n">
-        <v>1502</v>
+        <v>1439</v>
       </c>
       <c r="BJ17" t="n">
-        <v>3005</v>
+        <v>2953</v>
       </c>
       <c r="BK17" t="n">
-        <v>2583</v>
+        <v>2558</v>
       </c>
       <c r="BL17" t="n">
-        <v>2515</v>
+        <v>2460</v>
       </c>
       <c r="BM17" t="n">
-        <v>2794</v>
+        <v>2717</v>
       </c>
       <c r="BN17" t="n">
-        <v>2371</v>
+        <v>2363</v>
       </c>
       <c r="BO17" t="n">
-        <v>2360</v>
+        <v>2301</v>
       </c>
       <c r="BP17" t="n">
-        <v>1899</v>
+        <v>1871</v>
       </c>
       <c r="BQ17" t="n">
-        <v>1003</v>
+        <v>951</v>
       </c>
       <c r="BR17" t="n">
-        <v>2690</v>
+        <v>2674</v>
       </c>
       <c r="BT17" t="n">
-        <v>926</v>
+        <v>1487</v>
       </c>
       <c r="BU17" t="n">
-        <v>1104</v>
+        <v>1050</v>
       </c>
       <c r="BV17" t="n">
-        <v>1794</v>
+        <v>1768</v>
       </c>
       <c r="BY17" t="n">
         <v>3601</v>
@@ -5532,97 +5508,97 @@
         </is>
       </c>
       <c r="AQ18" t="n">
-        <v>4841</v>
+        <v>5410</v>
       </c>
       <c r="AR18" t="n">
-        <v>8803</v>
+        <v>8649</v>
       </c>
       <c r="AS18" t="n">
-        <v>4850</v>
+        <v>4754</v>
       </c>
       <c r="AT18" t="n">
-        <v>2333</v>
+        <v>2313</v>
       </c>
       <c r="AU18" t="n">
-        <v>4727</v>
+        <v>4585</v>
       </c>
       <c r="AV18" t="n">
-        <v>2995</v>
+        <v>2839</v>
       </c>
       <c r="AW18" t="n">
-        <v>2595</v>
+        <v>2472</v>
       </c>
       <c r="AX18" t="n">
-        <v>5124</v>
+        <v>5008</v>
       </c>
       <c r="AY18" t="n">
-        <v>7575</v>
+        <v>7421</v>
       </c>
       <c r="AZ18" t="n">
-        <v>5049</v>
+        <v>4983</v>
       </c>
       <c r="BA18" t="n">
-        <v>6292</v>
+        <v>6152</v>
       </c>
       <c r="BB18" t="n">
-        <v>4680</v>
+        <v>4593</v>
       </c>
       <c r="BC18" t="n">
-        <v>2804</v>
+        <v>2677</v>
       </c>
       <c r="BD18" t="n">
-        <v>5573</v>
+        <v>5529</v>
       </c>
       <c r="BE18" t="n">
-        <v>2356</v>
+        <v>2256</v>
       </c>
       <c r="BF18" t="n">
-        <v>4052</v>
+        <v>3852</v>
       </c>
       <c r="BG18" t="n">
-        <v>6517</v>
+        <v>2817</v>
       </c>
       <c r="BH18" t="n">
-        <v>1780</v>
+        <v>2336</v>
       </c>
       <c r="BI18" t="n">
-        <v>3489</v>
+        <v>3396</v>
       </c>
       <c r="BJ18" t="n">
-        <v>2607</v>
+        <v>2449</v>
       </c>
       <c r="BK18" t="n">
-        <v>5669</v>
+        <v>5613</v>
       </c>
       <c r="BL18" t="n">
-        <v>4625</v>
+        <v>4742</v>
       </c>
       <c r="BM18" t="n">
-        <v>6398</v>
+        <v>6245</v>
       </c>
       <c r="BN18" t="n">
-        <v>4884</v>
+        <v>4859</v>
       </c>
       <c r="BO18" t="n">
-        <v>3636</v>
+        <v>4183</v>
       </c>
       <c r="BP18" t="n">
-        <v>4331</v>
+        <v>4242</v>
       </c>
       <c r="BQ18" t="n">
-        <v>3056</v>
+        <v>3004</v>
       </c>
       <c r="BR18" t="n">
-        <v>4578</v>
+        <v>4530</v>
       </c>
       <c r="BT18" t="n">
-        <v>1548</v>
+        <v>2119</v>
       </c>
       <c r="BU18" t="n">
-        <v>2725</v>
+        <v>2610</v>
       </c>
       <c r="BV18" t="n">
-        <v>3443</v>
+        <v>3388</v>
       </c>
       <c r="BY18" t="n">
         <v>12422</v>
@@ -5819,31 +5795,31 @@
         </is>
       </c>
       <c r="AQ19" t="n">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="AR19" t="n">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="AS19" t="n">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="AT19" t="n">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AU19" t="n">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="AV19" t="n">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AW19" t="n">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AX19" t="n">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="AY19" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AZ19" t="n">
         <v>265</v>
@@ -5852,64 +5828,64 @@
         <v>281</v>
       </c>
       <c r="BB19" t="n">
-        <v>766</v>
+        <v>762</v>
       </c>
       <c r="BC19" t="n">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BD19" t="n">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="BE19" t="n">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="BF19" t="n">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="BG19" t="n">
-        <v>3556</v>
+        <v>3545</v>
       </c>
       <c r="BH19" t="n">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="BI19" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="BJ19" t="n">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="BK19" t="n">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="BL19" t="n">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="BM19" t="n">
         <v>101</v>
       </c>
       <c r="BN19" t="n">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="BO19" t="n">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="BP19" t="n">
         <v>226</v>
       </c>
       <c r="BQ19" t="n">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="BR19" t="n">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="BT19" t="n">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="BU19" t="n">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="BV19" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="BY19" t="n">
         <v>3433</v>
@@ -6106,97 +6082,97 @@
         </is>
       </c>
       <c r="AQ20" t="n">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AR20" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AS20" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AT20" t="n">
         <v>117</v>
       </c>
       <c r="AU20" t="n">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="AV20" t="n">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AW20" t="n">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="AX20" t="n">
         <v>231</v>
       </c>
       <c r="AY20" t="n">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AZ20" t="n">
         <v>158</v>
       </c>
       <c r="BA20" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BB20" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BC20" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BD20" t="n">
         <v>377</v>
       </c>
       <c r="BE20" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="BF20" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BG20" t="n">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="BH20" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="BI20" t="n">
         <v>276</v>
       </c>
       <c r="BJ20" t="n">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="BK20" t="n">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="BL20" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="BM20" t="n">
         <v>166</v>
       </c>
       <c r="BN20" t="n">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="BO20" t="n">
         <v>173</v>
       </c>
       <c r="BP20" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="BQ20" t="n">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="BR20" t="n">
         <v>336</v>
       </c>
       <c r="BT20" t="n">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="BU20" t="n">
         <v>329</v>
       </c>
       <c r="BV20" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BY20" t="n">
         <v>6005</v>
@@ -6393,97 +6369,97 @@
         </is>
       </c>
       <c r="AQ21" t="n">
-        <v>7624</v>
+        <v>7471</v>
       </c>
       <c r="AR21" t="n">
-        <v>7901</v>
+        <v>7718</v>
       </c>
       <c r="AS21" t="n">
-        <v>9985</v>
+        <v>9749</v>
       </c>
       <c r="AT21" t="n">
-        <v>8111</v>
+        <v>8006</v>
       </c>
       <c r="AU21" t="n">
-        <v>11864</v>
+        <v>11600</v>
       </c>
       <c r="AV21" t="n">
-        <v>10023</v>
+        <v>9628</v>
       </c>
       <c r="AW21" t="n">
-        <v>7445</v>
+        <v>7244</v>
       </c>
       <c r="AX21" t="n">
-        <v>9174</v>
+        <v>9013</v>
       </c>
       <c r="AY21" t="n">
-        <v>6467</v>
+        <v>6260</v>
       </c>
       <c r="AZ21" t="n">
-        <v>7028</v>
+        <v>6829</v>
       </c>
       <c r="BA21" t="n">
-        <v>9340</v>
+        <v>9084</v>
       </c>
       <c r="BB21" t="n">
-        <v>4357</v>
+        <v>4271</v>
       </c>
       <c r="BC21" t="n">
-        <v>4447</v>
+        <v>4232</v>
       </c>
       <c r="BD21" t="n">
-        <v>3845</v>
+        <v>3789</v>
       </c>
       <c r="BE21" t="n">
-        <v>3899</v>
+        <v>3549</v>
       </c>
       <c r="BF21" t="n">
-        <v>6406</v>
+        <v>6271</v>
       </c>
       <c r="BG21" t="n">
-        <v>2990</v>
+        <v>2874</v>
       </c>
       <c r="BH21" t="n">
-        <v>3003</v>
+        <v>2982</v>
       </c>
       <c r="BI21" t="n">
-        <v>7684</v>
+        <v>7451</v>
       </c>
       <c r="BJ21" t="n">
-        <v>3707</v>
+        <v>3608</v>
       </c>
       <c r="BK21" t="n">
-        <v>6571</v>
+        <v>6451</v>
       </c>
       <c r="BL21" t="n">
-        <v>6852</v>
+        <v>6438</v>
       </c>
       <c r="BM21" t="n">
-        <v>3029</v>
+        <v>2806</v>
       </c>
       <c r="BN21" t="n">
-        <v>4814</v>
+        <v>4762</v>
       </c>
       <c r="BO21" t="n">
-        <v>6486</v>
+        <v>6331</v>
       </c>
       <c r="BP21" t="n">
-        <v>7521</v>
+        <v>7407</v>
       </c>
       <c r="BQ21" t="n">
-        <v>7987</v>
+        <v>7905</v>
       </c>
       <c r="BR21" t="n">
-        <v>6425</v>
+        <v>6338</v>
       </c>
       <c r="BT21" t="n">
-        <v>7307</v>
+        <v>7108</v>
       </c>
       <c r="BU21" t="n">
-        <v>5531</v>
+        <v>5406</v>
       </c>
       <c r="BV21" t="n">
-        <v>3532</v>
+        <v>3279</v>
       </c>
       <c r="BW21" t="n">
         <v>24390</v>
@@ -6675,97 +6651,97 @@
         </is>
       </c>
       <c r="AQ22" t="n">
-        <v>868</v>
+        <v>858</v>
       </c>
       <c r="AR22" t="n">
-        <v>325</v>
+        <v>300</v>
       </c>
       <c r="AS22" t="n">
-        <v>712</v>
+        <v>691</v>
       </c>
       <c r="AT22" t="n">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="AU22" t="n">
-        <v>1019</v>
+        <v>1004</v>
       </c>
       <c r="AV22" t="n">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="AW22" t="n">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="AX22" t="n">
-        <v>815</v>
+        <v>802</v>
       </c>
       <c r="AY22" t="n">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="AZ22" t="n">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="BA22" t="n">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="BB22" t="n">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="BC22" t="n">
-        <v>679</v>
+        <v>663</v>
       </c>
       <c r="BD22" t="n">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="BE22" t="n">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="BF22" t="n">
-        <v>362</v>
+        <v>345</v>
       </c>
       <c r="BG22" t="n">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="BH22" t="n">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="BI22" t="n">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="BJ22" t="n">
+        <v>810</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>285</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>411</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>334</v>
+      </c>
+      <c r="BN22" t="n">
         <v>813</v>
       </c>
-      <c r="BK22" t="n">
-        <v>293</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>437</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>339</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>816</v>
-      </c>
       <c r="BO22" t="n">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="BP22" t="n">
         <v>875</v>
       </c>
       <c r="BQ22" t="n">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="BR22" t="n">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="BT22" t="n">
-        <v>590</v>
+        <v>572</v>
       </c>
       <c r="BU22" t="n">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="BV22" t="n">
-        <v>868</v>
+        <v>864</v>
       </c>
     </row>
     <row r="23">
@@ -6959,97 +6935,97 @@
         </is>
       </c>
       <c r="AQ23" t="n">
-        <v>7554</v>
+        <v>7464</v>
       </c>
       <c r="AR23" t="n">
-        <v>11151</v>
+        <v>10971</v>
       </c>
       <c r="AS23" t="n">
-        <v>8650</v>
+        <v>8580</v>
       </c>
       <c r="AT23" t="n">
-        <v>4798</v>
+        <v>6563</v>
       </c>
       <c r="AU23" t="n">
-        <v>7276</v>
+        <v>7164</v>
       </c>
       <c r="AV23" t="n">
-        <v>6486</v>
+        <v>6317</v>
       </c>
       <c r="AW23" t="n">
-        <v>8048</v>
+        <v>7958</v>
       </c>
       <c r="AX23" t="n">
-        <v>6277</v>
+        <v>6155</v>
       </c>
       <c r="AY23" t="n">
-        <v>12067</v>
+        <v>11816</v>
       </c>
       <c r="AZ23" t="n">
-        <v>4377</v>
+        <v>4282</v>
       </c>
       <c r="BA23" t="n">
-        <v>8209</v>
+        <v>8021</v>
       </c>
       <c r="BB23" t="n">
-        <v>2622</v>
+        <v>2487</v>
       </c>
       <c r="BC23" t="n">
-        <v>5468</v>
+        <v>5252</v>
       </c>
       <c r="BD23" t="n">
-        <v>5100</v>
+        <v>5055</v>
       </c>
       <c r="BE23" t="n">
-        <v>3415</v>
+        <v>3214</v>
       </c>
       <c r="BF23" t="n">
-        <v>4944</v>
+        <v>4755</v>
       </c>
       <c r="BG23" t="n">
-        <v>1530</v>
+        <v>1471</v>
       </c>
       <c r="BH23" t="n">
-        <v>2941</v>
+        <v>2860</v>
       </c>
       <c r="BI23" t="n">
-        <v>5178</v>
+        <v>5038</v>
       </c>
       <c r="BJ23" t="n">
-        <v>2058</v>
+        <v>1923</v>
       </c>
       <c r="BK23" t="n">
-        <v>3791</v>
+        <v>3639</v>
       </c>
       <c r="BL23" t="n">
-        <v>6357</v>
+        <v>6101</v>
       </c>
       <c r="BM23" t="n">
-        <v>4400</v>
+        <v>4247</v>
       </c>
       <c r="BN23" t="n">
-        <v>8004</v>
+        <v>7992</v>
       </c>
       <c r="BO23" t="n">
-        <v>6519</v>
+        <v>6416</v>
       </c>
       <c r="BP23" t="n">
-        <v>5555</v>
+        <v>5482</v>
       </c>
       <c r="BQ23" t="n">
-        <v>7867</v>
+        <v>7800</v>
       </c>
       <c r="BR23" t="n">
-        <v>5137</v>
+        <v>5099</v>
       </c>
       <c r="BT23" t="n">
-        <v>3699</v>
+        <v>5042</v>
       </c>
       <c r="BU23" t="n">
-        <v>2457</v>
+        <v>2403</v>
       </c>
       <c r="BV23" t="n">
-        <v>1219</v>
+        <v>1019</v>
       </c>
       <c r="BW23" t="n">
         <v>9748</v>
@@ -7246,64 +7222,64 @@
         </is>
       </c>
       <c r="AQ24" t="n">
-        <v>1526</v>
+        <v>1520</v>
       </c>
       <c r="AR24" t="n">
-        <v>843</v>
+        <v>812</v>
       </c>
       <c r="AS24" t="n">
         <v>1206</v>
       </c>
       <c r="AT24" t="n">
-        <v>921</v>
+        <v>871</v>
       </c>
       <c r="AU24" t="n">
         <v>935</v>
       </c>
       <c r="AV24" t="n">
-        <v>225</v>
+        <v>105</v>
       </c>
       <c r="AW24" t="n">
-        <v>1351</v>
+        <v>1251</v>
       </c>
       <c r="AX24" t="n">
         <v>958</v>
       </c>
       <c r="AY24" t="n">
-        <v>708</v>
+        <v>702</v>
       </c>
       <c r="AZ24" t="n">
         <v>827</v>
       </c>
       <c r="BA24" t="n">
-        <v>530</v>
+        <v>490</v>
       </c>
       <c r="BB24" t="n">
         <v>418</v>
       </c>
       <c r="BC24" t="n">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="BD24" t="n">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="BE24" t="n">
         <v>163</v>
       </c>
       <c r="BF24" t="n">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="BG24" t="n">
-        <v>1514</v>
+        <v>1414</v>
       </c>
       <c r="BH24" t="n">
-        <v>1337</v>
+        <v>1287</v>
       </c>
       <c r="BI24" t="n">
         <v>730</v>
       </c>
       <c r="BJ24" t="n">
-        <v>648</v>
+        <v>477</v>
       </c>
       <c r="BK24" t="n">
         <v>322</v>
@@ -7533,97 +7509,97 @@
         </is>
       </c>
       <c r="AQ25" t="n">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="AR25" t="n">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="AS25" t="n">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="AT25" t="n">
         <v>144</v>
       </c>
       <c r="AU25" t="n">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="AV25" t="n">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="AW25" t="n">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="AX25" t="n">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="AY25" t="n">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="AZ25" t="n">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="BA25" t="n">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="BB25" t="n">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="BC25" t="n">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="BD25" t="n">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="BE25" t="n">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="BF25" t="n">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="BG25" t="n">
+        <v>113</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>173</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>175</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>316</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>70</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>51</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>421</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>296</v>
+      </c>
+      <c r="BO25" t="n">
         <v>117</v>
       </c>
-      <c r="BH25" t="n">
-        <v>178</v>
-      </c>
-      <c r="BI25" t="n">
-        <v>185</v>
-      </c>
-      <c r="BJ25" t="n">
-        <v>329</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>91</v>
-      </c>
-      <c r="BL25" t="n">
-        <v>77</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>437</v>
-      </c>
-      <c r="BN25" t="n">
-        <v>299</v>
-      </c>
-      <c r="BO25" t="n">
-        <v>129</v>
-      </c>
       <c r="BP25" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="BQ25" t="n">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="BR25" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="BT25" t="n">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="BU25" t="n">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="BV25" t="n">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="BY25" t="n">
         <v>44</v>
@@ -7820,97 +7796,97 @@
         </is>
       </c>
       <c r="AQ26" t="n">
-        <v>4752</v>
+        <v>4672</v>
       </c>
       <c r="AR26" t="n">
-        <v>4515</v>
+        <v>4435</v>
       </c>
       <c r="AS26" t="n">
-        <v>3037</v>
+        <v>3012</v>
       </c>
       <c r="AT26" t="n">
         <v>2232</v>
       </c>
       <c r="AU26" t="n">
-        <v>2212</v>
+        <v>2192</v>
       </c>
       <c r="AV26" t="n">
-        <v>2722</v>
+        <v>2687</v>
       </c>
       <c r="AW26" t="n">
-        <v>2545</v>
+        <v>2515</v>
       </c>
       <c r="AX26" t="n">
-        <v>3870</v>
+        <v>3862</v>
       </c>
       <c r="AY26" t="n">
-        <v>3484</v>
+        <v>3287</v>
       </c>
       <c r="AZ26" t="n">
-        <v>942</v>
+        <v>902</v>
       </c>
       <c r="BA26" t="n">
-        <v>2810</v>
+        <v>2664</v>
       </c>
       <c r="BB26" t="n">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="BC26" t="n">
-        <v>4906</v>
+        <v>4743</v>
       </c>
       <c r="BD26" t="n">
-        <v>2392</v>
+        <v>2331</v>
       </c>
       <c r="BE26" t="n">
-        <v>1407</v>
+        <v>1341</v>
       </c>
       <c r="BF26" t="n">
-        <v>1234</v>
+        <v>1022</v>
       </c>
       <c r="BG26" t="n">
-        <v>1162</v>
+        <v>812</v>
       </c>
       <c r="BH26" t="n">
-        <v>2891</v>
+        <v>2841</v>
       </c>
       <c r="BI26" t="n">
-        <v>3281</v>
+        <v>3226</v>
       </c>
       <c r="BJ26" t="n">
-        <v>2263</v>
+        <v>2233</v>
       </c>
       <c r="BK26" t="n">
-        <v>2452</v>
+        <v>2387</v>
       </c>
       <c r="BL26" t="n">
-        <v>2167</v>
+        <v>2112</v>
       </c>
       <c r="BM26" t="n">
-        <v>2342</v>
+        <v>2197</v>
       </c>
       <c r="BN26" t="n">
-        <v>4448</v>
+        <v>4438</v>
       </c>
       <c r="BO26" t="n">
-        <v>2797</v>
+        <v>2667</v>
       </c>
       <c r="BP26" t="n">
-        <v>2849</v>
+        <v>2759</v>
       </c>
       <c r="BQ26" t="n">
-        <v>3597</v>
+        <v>3602</v>
       </c>
       <c r="BR26" t="n">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="BT26" t="n">
         <v>2645</v>
       </c>
       <c r="BU26" t="n">
-        <v>2635</v>
+        <v>2620</v>
       </c>
       <c r="BV26" t="n">
-        <v>4007</v>
+        <v>3952</v>
       </c>
       <c r="BY26" t="n">
         <v>3378</v>
@@ -8107,97 +8083,97 @@
         </is>
       </c>
       <c r="AQ27" t="n">
-        <v>2027</v>
+        <v>2002</v>
       </c>
       <c r="AR27" t="n">
-        <v>7408</v>
+        <v>7247</v>
       </c>
       <c r="AS27" t="n">
-        <v>855</v>
+        <v>814</v>
       </c>
       <c r="AT27" t="n">
         <v>4994</v>
       </c>
       <c r="AU27" t="n">
-        <v>2113</v>
+        <v>2103</v>
       </c>
       <c r="AV27" t="n">
-        <v>1865</v>
+        <v>1840</v>
       </c>
       <c r="AW27" t="n">
-        <v>1486</v>
+        <v>1466</v>
       </c>
       <c r="AX27" t="n">
-        <v>1418</v>
+        <v>1402</v>
       </c>
       <c r="AY27" t="n">
-        <v>8530</v>
+        <v>8497</v>
       </c>
       <c r="AZ27" t="n">
-        <v>2953</v>
+        <v>2948</v>
       </c>
       <c r="BA27" t="n">
-        <v>3483</v>
+        <v>3411</v>
       </c>
       <c r="BB27" t="n">
-        <v>4333</v>
+        <v>4238</v>
       </c>
       <c r="BC27" t="n">
-        <v>3600</v>
+        <v>3439</v>
       </c>
       <c r="BD27" t="n">
-        <v>1523</v>
+        <v>1506</v>
       </c>
       <c r="BE27" t="n">
-        <v>1603</v>
+        <v>1577</v>
       </c>
       <c r="BF27" t="n">
-        <v>7381</v>
+        <v>7341</v>
       </c>
       <c r="BG27" t="n">
         <v>2029</v>
       </c>
       <c r="BH27" t="n">
-        <v>1796</v>
+        <v>1776</v>
       </c>
       <c r="BI27" t="n">
-        <v>1709</v>
+        <v>1704</v>
       </c>
       <c r="BJ27" t="n">
         <v>2944</v>
       </c>
       <c r="BK27" t="n">
-        <v>2593</v>
+        <v>2588</v>
       </c>
       <c r="BL27" t="n">
-        <v>1683</v>
+        <v>1604</v>
       </c>
       <c r="BM27" t="n">
-        <v>1114</v>
+        <v>1063</v>
       </c>
       <c r="BN27" t="n">
-        <v>9435</v>
+        <v>9383</v>
       </c>
       <c r="BO27" t="n">
-        <v>3903</v>
+        <v>3863</v>
       </c>
       <c r="BP27" t="n">
-        <v>3451</v>
+        <v>3436</v>
       </c>
       <c r="BQ27" t="n">
-        <v>3393</v>
+        <v>3387</v>
       </c>
       <c r="BR27" t="n">
         <v>1593</v>
       </c>
       <c r="BT27" t="n">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="BU27" t="n">
         <v>1567</v>
       </c>
       <c r="BV27" t="n">
-        <v>2007</v>
+        <v>2002</v>
       </c>
       <c r="BY27" t="n">
         <v>3848</v>
@@ -8394,10 +8370,10 @@
         </is>
       </c>
       <c r="AQ28" t="n">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="AR28" t="n">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AS28" t="n">
         <v>177</v>
@@ -8409,82 +8385,82 @@
         <v>131</v>
       </c>
       <c r="AV28" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AW28" t="n">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AX28" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AY28" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="AZ28" t="n">
         <v>98</v>
       </c>
       <c r="BA28" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BB28" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="BC28" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="BD28" t="n">
         <v>93</v>
       </c>
       <c r="BE28" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="BF28" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="BG28" t="n">
-        <v>1590</v>
+        <v>1429</v>
       </c>
       <c r="BH28" t="n">
         <v>129</v>
       </c>
       <c r="BI28" t="n">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="BJ28" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BK28" t="n">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="BL28" t="n">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="BM28" t="n">
         <v>120</v>
       </c>
       <c r="BN28" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="BO28" t="n">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="BP28" t="n">
         <v>140</v>
       </c>
       <c r="BQ28" t="n">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="BR28" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BT28" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="BU28" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BV28" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BX28" t="n">
         <v>342</v>
@@ -8721,7 +8697,7 @@
         <v>7</v>
       </c>
       <c r="BF29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG29" t="n">
         <v>309</v>
@@ -8730,7 +8706,7 @@
         <v>64</v>
       </c>
       <c r="BI29" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BJ29" t="n">
         <v>109</v>
@@ -8961,7 +8937,7 @@
         <v>29</v>
       </c>
       <c r="AS30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT30" t="n">
         <v>58</v>
@@ -8973,7 +8949,7 @@
         <v>64</v>
       </c>
       <c r="AW30" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AX30" t="n">
         <v>54</v>
@@ -8991,7 +8967,7 @@
         <v>51</v>
       </c>
       <c r="BC30" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="BD30" t="n">
         <v>43</v>
@@ -9000,16 +8976,16 @@
         <v>70</v>
       </c>
       <c r="BF30" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BG30" t="n">
-        <v>1033</v>
+        <v>1009</v>
       </c>
       <c r="BH30" t="n">
         <v>78</v>
       </c>
       <c r="BI30" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BJ30" t="n">
         <v>92</v>
@@ -9018,7 +8994,7 @@
         <v>43</v>
       </c>
       <c r="BL30" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BM30" t="n">
         <v>18</v>
@@ -9140,11 +9116,6 @@
           <t>More Than 120 Days</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>More Than 120 Days</t>
-        </is>
-      </c>
       <c r="U31" t="inlineStr">
         <is>
           <t>More Than 120 Days</t>
@@ -9237,7 +9208,7 @@
         <v>10</v>
       </c>
       <c r="AR31" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AS31" t="n">
         <v>39</v>
@@ -9249,7 +9220,7 @@
         <v>92</v>
       </c>
       <c r="AV31" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AW31" t="n">
         <v>80</v>
@@ -9258,19 +9229,19 @@
         <v>65</v>
       </c>
       <c r="AY31" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AZ31" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BA31" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BB31" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="BD31" t="n">
         <v>70</v>
@@ -9278,26 +9249,23 @@
       <c r="BE31" t="n">
         <v>56</v>
       </c>
-      <c r="BF31" t="n">
-        <v>12</v>
-      </c>
       <c r="BG31" t="n">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="BH31" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="BI31" t="n">
         <v>54</v>
       </c>
       <c r="BJ31" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="BK31" t="n">
         <v>20</v>
       </c>
       <c r="BL31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BM31" t="n">
         <v>26</v>
@@ -9306,7 +9274,7 @@
         <v>43</v>
       </c>
       <c r="BO31" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BP31" t="n">
         <v>57</v>
@@ -9318,10 +9286,10 @@
         <v>2</v>
       </c>
       <c r="BU31" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BV31" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BX31" t="n">
         <v>17</v>
@@ -9518,70 +9486,70 @@
         </is>
       </c>
       <c r="AQ32" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AR32" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AS32" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AT32" t="n">
         <v>61</v>
       </c>
       <c r="AU32" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AV32" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AW32" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AX32" t="n">
         <v>66</v>
       </c>
       <c r="AY32" t="n">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AZ32" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BA32" t="n">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="BB32" t="n">
         <v>133</v>
       </c>
       <c r="BC32" t="n">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="BD32" t="n">
         <v>112</v>
       </c>
       <c r="BE32" t="n">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="BF32" t="n">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="BG32" t="n">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="BH32" t="n">
         <v>96</v>
       </c>
       <c r="BI32" t="n">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="BJ32" t="n">
         <v>59</v>
       </c>
       <c r="BK32" t="n">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="BL32" t="n">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="BM32" t="n">
         <v>54</v>
@@ -9590,22 +9558,22 @@
         <v>57</v>
       </c>
       <c r="BO32" t="n">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="BP32" t="n">
         <v>92</v>
       </c>
       <c r="BQ32" t="n">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="BR32" t="n">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BT32" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BU32" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="BV32" t="n">
         <v>123</v>
@@ -9800,10 +9768,10 @@
         </is>
       </c>
       <c r="AQ33" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AR33" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="AS33" t="n">
         <v>169</v>
@@ -9812,10 +9780,10 @@
         <v>69</v>
       </c>
       <c r="AU33" t="n">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="AV33" t="n">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="AW33" t="n">
         <v>74</v>
@@ -9824,19 +9792,19 @@
         <v>85</v>
       </c>
       <c r="AY33" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AZ33" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BA33" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="BB33" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC33" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BD33" t="n">
         <v>78</v>
@@ -9845,22 +9813,22 @@
         <v>69</v>
       </c>
       <c r="BG33" t="n">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="BH33" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BI33" t="n">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="BJ33" t="n">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="BK33" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="BL33" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="BM33" t="n">
         <v>83</v>
@@ -9875,19 +9843,19 @@
         <v>68</v>
       </c>
       <c r="BQ33" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="BR33" t="n">
         <v>59</v>
       </c>
       <c r="BT33" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="BU33" t="n">
         <v>30</v>
       </c>
       <c r="BV33" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="BX33" t="n">
         <v>58</v>
@@ -10000,11 +9968,6 @@
           <t>More Than 120 Days</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>More Than 120 Days</t>
-        </is>
-      </c>
       <c r="X34" t="inlineStr">
         <is>
           <t>More Than 120 Days</t>
@@ -10079,7 +10042,7 @@
         </is>
       </c>
       <c r="AQ34" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AR34" t="n">
         <v>104</v>
@@ -10091,19 +10054,19 @@
         <v>30</v>
       </c>
       <c r="AU34" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV34" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AW34" t="n">
         <v>24</v>
       </c>
       <c r="AX34" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AY34" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ34" t="n">
         <v>34</v>
@@ -10115,10 +10078,10 @@
         <v>65</v>
       </c>
       <c r="BC34" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BD34" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BE34" t="n">
         <v>28</v>
@@ -10132,9 +10095,6 @@
       <c r="BH34" t="n">
         <v>66</v>
       </c>
-      <c r="BI34" t="n">
-        <v>11</v>
-      </c>
       <c r="BJ34" t="n">
         <v>94</v>
       </c>
@@ -10142,10 +10102,10 @@
         <v>20</v>
       </c>
       <c r="BL34" t="n">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="BM34" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="BN34" t="n">
         <v>61</v>
@@ -10157,16 +10117,16 @@
         <v>47</v>
       </c>
       <c r="BQ34" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="BR34" t="n">
         <v>37</v>
       </c>
       <c r="BU34" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BV34" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BX34" t="n">
         <v>58</v>
@@ -10363,97 +10323,97 @@
         </is>
       </c>
       <c r="AQ35" t="n">
-        <v>798</v>
+        <v>1290</v>
       </c>
       <c r="AR35" t="n">
-        <v>596</v>
+        <v>523</v>
       </c>
       <c r="AS35" t="n">
-        <v>1043</v>
+        <v>980</v>
       </c>
       <c r="AT35" t="n">
-        <v>673</v>
+        <v>780</v>
       </c>
       <c r="AU35" t="n">
-        <v>833</v>
+        <v>806</v>
       </c>
       <c r="AV35" t="n">
-        <v>711</v>
+        <v>670</v>
       </c>
       <c r="AW35" t="n">
-        <v>279</v>
+        <v>639</v>
       </c>
       <c r="AX35" t="n">
-        <v>590</v>
+        <v>564</v>
       </c>
       <c r="AY35" t="n">
-        <v>930</v>
+        <v>885</v>
       </c>
       <c r="AZ35" t="n">
+        <v>1015</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>704</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>493</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>435</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>894</v>
+      </c>
+      <c r="BE35" t="n">
         <v>1042</v>
       </c>
-      <c r="BA35" t="n">
-        <v>751</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>517</v>
-      </c>
-      <c r="BC35" t="n">
-        <v>460</v>
-      </c>
-      <c r="BD35" t="n">
-        <v>921</v>
-      </c>
-      <c r="BE35" t="n">
-        <v>567</v>
-      </c>
       <c r="BF35" t="n">
-        <v>285</v>
+        <v>239</v>
       </c>
       <c r="BG35" t="n">
-        <v>3386</v>
+        <v>574</v>
       </c>
       <c r="BH35" t="n">
-        <v>542</v>
+        <v>496</v>
       </c>
       <c r="BI35" t="n">
-        <v>1004</v>
+        <v>959</v>
       </c>
       <c r="BJ35" t="n">
-        <v>759</v>
+        <v>637</v>
       </c>
       <c r="BK35" t="n">
-        <v>1004</v>
+        <v>948</v>
       </c>
       <c r="BL35" t="n">
-        <v>713</v>
+        <v>914</v>
       </c>
       <c r="BM35" t="n">
-        <v>850</v>
+        <v>792</v>
       </c>
       <c r="BN35" t="n">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="BO35" t="n">
-        <v>258</v>
+        <v>553</v>
       </c>
       <c r="BP35" t="n">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="BQ35" t="n">
-        <v>400</v>
+        <v>346</v>
       </c>
       <c r="BR35" t="n">
-        <v>784</v>
+        <v>760</v>
       </c>
       <c r="BT35" t="n">
-        <v>683</v>
+        <v>841</v>
       </c>
       <c r="BU35" t="n">
-        <v>1096</v>
+        <v>1067</v>
       </c>
       <c r="BV35" t="n">
-        <v>412</v>
+        <v>348</v>
       </c>
       <c r="BY35" t="n">
         <v>14955</v>
@@ -10648,10 +10608,10 @@
         <v>68</v>
       </c>
       <c r="AR36" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AS36" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="AT36" t="n">
         <v>344</v>
@@ -10660,82 +10620,82 @@
         <v>104</v>
       </c>
       <c r="AV36" t="n">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="AW36" t="n">
         <v>110</v>
       </c>
       <c r="AX36" t="n">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AY36" t="n">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="AZ36" t="n">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="BA36" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="BB36" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="BC36" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="BD36" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="BE36" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="BF36" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BG36" t="n">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="BH36" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="BI36" t="n">
         <v>300</v>
       </c>
       <c r="BJ36" t="n">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="BK36" t="n">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="BL36" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="BM36" t="n">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="BN36" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="BO36" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="BP36" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="BQ36" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="BR36" t="n">
         <v>49</v>
       </c>
       <c r="BT36" t="n">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="BU36" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="BV36" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37">
@@ -10924,61 +10884,61 @@
         </is>
       </c>
       <c r="AQ37" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AR37" t="n">
         <v>133</v>
       </c>
       <c r="AS37" t="n">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="AT37" t="n">
         <v>161</v>
       </c>
       <c r="AU37" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="AV37" t="n">
         <v>150</v>
       </c>
       <c r="AW37" t="n">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="AX37" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AY37" t="n">
         <v>46</v>
       </c>
       <c r="AZ37" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="BA37" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="BB37" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BC37" t="n">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="BD37" t="n">
         <v>105</v>
       </c>
       <c r="BE37" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="BF37" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="BG37" t="n">
-        <v>896</v>
+        <v>884</v>
       </c>
       <c r="BH37" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="BI37" t="n">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="BJ37" t="n">
         <v>163</v>
@@ -10987,34 +10947,34 @@
         <v>82</v>
       </c>
       <c r="BL37" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="BM37" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="BN37" t="n">
         <v>192</v>
       </c>
       <c r="BO37" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="BP37" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="BQ37" t="n">
         <v>107</v>
       </c>
       <c r="BR37" t="n">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="BT37" t="n">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="BU37" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BV37" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38">
@@ -11198,91 +11158,91 @@
         </is>
       </c>
       <c r="AQ38" t="n">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="AS38" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AT38" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="AU38" t="n">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="AV38" t="n">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AW38" t="n">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="AX38" t="n">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="AY38" t="n">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="AZ38" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BA38" t="n">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="BB38" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC38" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="BD38" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="BE38" t="n">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="BG38" t="n">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="BH38" t="n">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="BI38" t="n">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="BJ38" t="n">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="BK38" t="n">
         <v>209</v>
       </c>
       <c r="BL38" t="n">
-        <v>638</v>
+        <v>623</v>
       </c>
       <c r="BM38" t="n">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="BN38" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="BO38" t="n">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="BP38" t="n">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="BQ38" t="n">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="BR38" t="n">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="BT38" t="n">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="BU38" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="BV38" t="n">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="BX38" t="n">
         <v>14288</v>
@@ -11479,97 +11439,97 @@
         </is>
       </c>
       <c r="AQ39" t="n">
-        <v>927</v>
+        <v>1314</v>
       </c>
       <c r="AR39" t="n">
-        <v>669</v>
+        <v>646</v>
       </c>
       <c r="AS39" t="n">
-        <v>575</v>
+        <v>554</v>
       </c>
       <c r="AT39" t="n">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="AU39" t="n">
-        <v>613</v>
+        <v>581</v>
       </c>
       <c r="AV39" t="n">
-        <v>1125</v>
+        <v>1095</v>
       </c>
       <c r="AW39" t="n">
-        <v>759</v>
+        <v>739</v>
       </c>
       <c r="AX39" t="n">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="AY39" t="n">
-        <v>1391</v>
+        <v>1347</v>
       </c>
       <c r="AZ39" t="n">
-        <v>864</v>
+        <v>1198</v>
       </c>
       <c r="BA39" t="n">
-        <v>804</v>
+        <v>780</v>
       </c>
       <c r="BB39" t="n">
-        <v>664</v>
+        <v>648</v>
       </c>
       <c r="BC39" t="n">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="BD39" t="n">
-        <v>707</v>
+        <v>691</v>
       </c>
       <c r="BE39" t="n">
-        <v>515</v>
+        <v>894</v>
       </c>
       <c r="BF39" t="n">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="BG39" t="n">
-        <v>12733</v>
+        <v>8758</v>
       </c>
       <c r="BH39" t="n">
-        <v>390</v>
+        <v>797</v>
       </c>
       <c r="BI39" t="n">
-        <v>895</v>
+        <v>867</v>
       </c>
       <c r="BJ39" t="n">
-        <v>1425</v>
+        <v>2581</v>
       </c>
       <c r="BK39" t="n">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="BL39" t="n">
-        <v>604</v>
+        <v>962</v>
       </c>
       <c r="BM39" t="n">
-        <v>451</v>
+        <v>408</v>
       </c>
       <c r="BN39" t="n">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="BO39" t="n">
-        <v>1311</v>
+        <v>1512</v>
       </c>
       <c r="BP39" t="n">
-        <v>1309</v>
+        <v>1302</v>
       </c>
       <c r="BQ39" t="n">
-        <v>1085</v>
+        <v>1070</v>
       </c>
       <c r="BR39" t="n">
-        <v>891</v>
+        <v>872</v>
       </c>
       <c r="BT39" t="n">
-        <v>528</v>
+        <v>953</v>
       </c>
       <c r="BU39" t="n">
-        <v>1058</v>
+        <v>1031</v>
       </c>
       <c r="BV39" t="n">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="BX39" t="n">
         <v>424</v>
@@ -11766,97 +11726,97 @@
         </is>
       </c>
       <c r="AQ40" t="n">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="AR40" t="n">
-        <v>548</v>
+        <v>504</v>
       </c>
       <c r="AS40" t="n">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="AT40" t="n">
         <v>536</v>
       </c>
       <c r="AU40" t="n">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="AV40" t="n">
+        <v>352</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>378</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>279</v>
+      </c>
+      <c r="AY40" t="n">
         <v>360</v>
       </c>
-      <c r="AW40" t="n">
-        <v>389</v>
-      </c>
-      <c r="AX40" t="n">
-        <v>283</v>
-      </c>
-      <c r="AY40" t="n">
-        <v>371</v>
-      </c>
       <c r="AZ40" t="n">
-        <v>671</v>
+        <v>656</v>
       </c>
       <c r="BA40" t="n">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="BB40" t="n">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="BC40" t="n">
-        <v>369</v>
+        <v>345</v>
       </c>
       <c r="BD40" t="n">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="BE40" t="n">
         <v>469</v>
       </c>
       <c r="BF40" t="n">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="BG40" t="n">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="BH40" t="n">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="BI40" t="n">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="BJ40" t="n">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="BK40" t="n">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="BL40" t="n">
-        <v>743</v>
+        <v>720</v>
       </c>
       <c r="BM40" t="n">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="BN40" t="n">
         <v>368</v>
       </c>
       <c r="BO40" t="n">
-        <v>563</v>
+        <v>541</v>
       </c>
       <c r="BP40" t="n">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="BQ40" t="n">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="BR40" t="n">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="BT40" t="n">
-        <v>522</v>
+        <v>493</v>
       </c>
       <c r="BU40" t="n">
-        <v>1020</v>
+        <v>1002</v>
       </c>
       <c r="BV40" t="n">
-        <v>849</v>
+        <v>843</v>
       </c>
       <c r="BY40" t="n">
         <v>3188</v>
@@ -12053,97 +12013,97 @@
         </is>
       </c>
       <c r="AQ41" t="n">
-        <v>483</v>
+        <v>715</v>
       </c>
       <c r="AR41" t="n">
-        <v>1243</v>
+        <v>1226</v>
       </c>
       <c r="AS41" t="n">
-        <v>1274</v>
+        <v>1249</v>
       </c>
       <c r="AT41" t="n">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="AU41" t="n">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="AV41" t="n">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="AW41" t="n">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="AX41" t="n">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="AY41" t="n">
-        <v>1425</v>
+        <v>1414</v>
       </c>
       <c r="AZ41" t="n">
-        <v>580</v>
+        <v>693</v>
       </c>
       <c r="BA41" t="n">
-        <v>975</v>
+        <v>960</v>
       </c>
       <c r="BB41" t="n">
-        <v>1065</v>
+        <v>1052</v>
       </c>
       <c r="BC41" t="n">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="BD41" t="n">
-        <v>859</v>
+        <v>847</v>
       </c>
       <c r="BE41" t="n">
-        <v>387</v>
+        <v>597</v>
       </c>
       <c r="BF41" t="n">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="BG41" t="n">
-        <v>4682</v>
+        <v>3463</v>
       </c>
       <c r="BH41" t="n">
-        <v>709</v>
+        <v>686</v>
       </c>
       <c r="BI41" t="n">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="BJ41" t="n">
-        <v>767</v>
+        <v>747</v>
       </c>
       <c r="BK41" t="n">
-        <v>802</v>
+        <v>910</v>
       </c>
       <c r="BL41" t="n">
-        <v>1110</v>
+        <v>1095</v>
       </c>
       <c r="BM41" t="n">
-        <v>1103</v>
+        <v>1089</v>
       </c>
       <c r="BN41" t="n">
         <v>971</v>
       </c>
       <c r="BO41" t="n">
-        <v>1020</v>
+        <v>1237</v>
       </c>
       <c r="BP41" t="n">
-        <v>947</v>
+        <v>935</v>
       </c>
       <c r="BQ41" t="n">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="BR41" t="n">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="BT41" t="n">
-        <v>573</v>
+        <v>674</v>
       </c>
       <c r="BU41" t="n">
-        <v>1076</v>
+        <v>1060</v>
       </c>
       <c r="BV41" t="n">
-        <v>704</v>
+        <v>683</v>
       </c>
       <c r="BY41" t="n">
         <v>11</v>
@@ -12340,97 +12300,97 @@
         </is>
       </c>
       <c r="AQ42" t="n">
-        <v>1397</v>
+        <v>1375</v>
       </c>
       <c r="AR42" t="n">
-        <v>1992</v>
+        <v>1959</v>
       </c>
       <c r="AS42" t="n">
-        <v>1567</v>
+        <v>1544</v>
       </c>
       <c r="AT42" t="n">
-        <v>1022</v>
+        <v>1340</v>
       </c>
       <c r="AU42" t="n">
-        <v>1059</v>
+        <v>1031</v>
       </c>
       <c r="AV42" t="n">
-        <v>1471</v>
+        <v>1439</v>
       </c>
       <c r="AW42" t="n">
-        <v>891</v>
+        <v>859</v>
       </c>
       <c r="AX42" t="n">
-        <v>1467</v>
+        <v>1456</v>
       </c>
       <c r="AY42" t="n">
-        <v>1283</v>
+        <v>1241</v>
       </c>
       <c r="AZ42" t="n">
-        <v>1068</v>
+        <v>1039</v>
       </c>
       <c r="BA42" t="n">
-        <v>1637</v>
+        <v>1601</v>
       </c>
       <c r="BB42" t="n">
-        <v>969</v>
+        <v>940</v>
       </c>
       <c r="BC42" t="n">
-        <v>841</v>
+        <v>796</v>
       </c>
       <c r="BD42" t="n">
-        <v>1218</v>
+        <v>1207</v>
       </c>
       <c r="BE42" t="n">
-        <v>1464</v>
+        <v>1410</v>
       </c>
       <c r="BF42" t="n">
-        <v>737</v>
+        <v>711</v>
       </c>
       <c r="BG42" t="n">
-        <v>860</v>
+        <v>795</v>
       </c>
       <c r="BH42" t="n">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="BI42" t="n">
-        <v>1072</v>
+        <v>1023</v>
       </c>
       <c r="BJ42" t="n">
-        <v>765</v>
+        <v>703</v>
       </c>
       <c r="BK42" t="n">
-        <v>1957</v>
+        <v>1919</v>
       </c>
       <c r="BL42" t="n">
-        <v>1424</v>
+        <v>1352</v>
       </c>
       <c r="BM42" t="n">
-        <v>917</v>
+        <v>879</v>
       </c>
       <c r="BN42" t="n">
-        <v>1028</v>
+        <v>1019</v>
       </c>
       <c r="BO42" t="n">
-        <v>1374</v>
+        <v>1348</v>
       </c>
       <c r="BP42" t="n">
-        <v>1392</v>
+        <v>1369</v>
       </c>
       <c r="BQ42" t="n">
-        <v>1246</v>
+        <v>1231</v>
       </c>
       <c r="BR42" t="n">
-        <v>1436</v>
+        <v>1407</v>
       </c>
       <c r="BT42" t="n">
-        <v>1374</v>
+        <v>1333</v>
       </c>
       <c r="BU42" t="n">
-        <v>1358</v>
+        <v>1330</v>
       </c>
       <c r="BV42" t="n">
-        <v>1417</v>
+        <v>1379</v>
       </c>
       <c r="BY42" t="n">
         <v>18705</v>
@@ -12630,10 +12590,10 @@
         <v>107</v>
       </c>
       <c r="AR43" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AS43" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AT43" t="n">
         <v>155</v>
@@ -12642,13 +12602,13 @@
         <v>64</v>
       </c>
       <c r="AV43" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AW43" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="AX43" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AY43" t="n">
         <v>102</v>
@@ -12657,40 +12617,40 @@
         <v>80</v>
       </c>
       <c r="BA43" t="n">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="BB43" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="BC43" t="n">
         <v>121</v>
       </c>
       <c r="BD43" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="BE43" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="BF43" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="BG43" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BH43" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BI43" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="BJ43" t="n">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="BK43" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="BL43" t="n">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="BM43" t="n">
         <v>78</v>
@@ -12705,16 +12665,16 @@
         <v>97</v>
       </c>
       <c r="BQ43" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BR43" t="n">
         <v>114</v>
       </c>
       <c r="BT43" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="BU43" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="BV43" t="n">
         <v>41</v>
@@ -12869,70 +12829,70 @@
         </is>
       </c>
       <c r="AT44" t="n">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AU44" t="n">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="AV44" t="n">
-        <v>963</v>
+        <v>943</v>
       </c>
       <c r="AW44" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="AX44" t="n">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="AY44" t="n">
         <v>2</v>
       </c>
       <c r="AZ44" t="n">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="BB44" t="n">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="BC44" t="n">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="BD44" t="n">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="BE44" t="n">
         <v>68</v>
       </c>
       <c r="BF44" t="n">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="BG44" t="n">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="BH44" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="BJ44" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="BK44" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="BM44" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="BN44" t="n">
         <v>361</v>
       </c>
       <c r="BO44" t="n">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="BP44" t="n">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="BU44" t="n">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="BV44" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="BY44" t="n">
         <v>29845</v>
@@ -13129,97 +13089,97 @@
         </is>
       </c>
       <c r="AQ45" t="n">
-        <v>1138</v>
+        <v>1105</v>
       </c>
       <c r="AR45" t="n">
-        <v>998</v>
+        <v>969</v>
       </c>
       <c r="AS45" t="n">
-        <v>1802</v>
+        <v>1759</v>
       </c>
       <c r="AT45" t="n">
-        <v>1300</v>
+        <v>1292</v>
       </c>
       <c r="AU45" t="n">
-        <v>1619</v>
+        <v>1536</v>
       </c>
       <c r="AV45" t="n">
-        <v>1911</v>
+        <v>1762</v>
       </c>
       <c r="AW45" t="n">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="AX45" t="n">
-        <v>1145</v>
+        <v>1105</v>
       </c>
       <c r="AY45" t="n">
-        <v>802</v>
+        <v>776</v>
       </c>
       <c r="AZ45" t="n">
-        <v>751</v>
+        <v>705</v>
       </c>
       <c r="BA45" t="n">
-        <v>1635</v>
+        <v>1594</v>
       </c>
       <c r="BB45" t="n">
-        <v>1137</v>
+        <v>1104</v>
       </c>
       <c r="BC45" t="n">
-        <v>1507</v>
+        <v>1438</v>
       </c>
       <c r="BD45" t="n">
-        <v>1023</v>
+        <v>986</v>
       </c>
       <c r="BE45" t="n">
-        <v>1363</v>
+        <v>1279</v>
       </c>
       <c r="BF45" t="n">
-        <v>618</v>
+        <v>578</v>
       </c>
       <c r="BG45" t="n">
-        <v>1444</v>
+        <v>1312</v>
       </c>
       <c r="BH45" t="n">
-        <v>1530</v>
+        <v>1442</v>
       </c>
       <c r="BI45" t="n">
-        <v>1140</v>
+        <v>1115</v>
       </c>
       <c r="BJ45" t="n">
-        <v>2495</v>
+        <v>2354</v>
       </c>
       <c r="BK45" t="n">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="BL45" t="n">
-        <v>1196</v>
+        <v>1090</v>
       </c>
       <c r="BM45" t="n">
-        <v>1101</v>
+        <v>1009</v>
       </c>
       <c r="BN45" t="n">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="BO45" t="n">
-        <v>763</v>
+        <v>734</v>
       </c>
       <c r="BP45" t="n">
-        <v>1032</v>
+        <v>1020</v>
       </c>
       <c r="BQ45" t="n">
-        <v>531</v>
+        <v>515</v>
       </c>
       <c r="BR45" t="n">
-        <v>1209</v>
+        <v>1190</v>
       </c>
       <c r="BT45" t="n">
-        <v>984</v>
+        <v>910</v>
       </c>
       <c r="BU45" t="n">
-        <v>1295</v>
+        <v>1272</v>
       </c>
       <c r="BV45" t="n">
-        <v>1268</v>
+        <v>1235</v>
       </c>
       <c r="BX45" t="n">
         <v>343</v>
@@ -13416,97 +13376,97 @@
         </is>
       </c>
       <c r="AQ46" t="n">
-        <v>1704</v>
+        <v>1613</v>
       </c>
       <c r="AR46" t="n">
-        <v>2084</v>
+        <v>2037</v>
       </c>
       <c r="AS46" t="n">
-        <v>1744</v>
+        <v>1664</v>
       </c>
       <c r="AT46" t="n">
+        <v>1108</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>1106</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>1571</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>1666</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>2567</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>2406</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>1397</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>2441</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>1792</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>1403</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>901</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>868</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>1549</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>1172</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>2380</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>1189</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>2320</v>
+      </c>
+      <c r="BK46" t="n">
         <v>1116</v>
       </c>
-      <c r="AU46" t="n">
-        <v>1182</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>1653</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>1710</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>2620</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>2451</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>1444</v>
-      </c>
-      <c r="BA46" t="n">
-        <v>2536</v>
-      </c>
-      <c r="BB46" t="n">
-        <v>1855</v>
-      </c>
-      <c r="BC46" t="n">
-        <v>1494</v>
-      </c>
-      <c r="BD46" t="n">
-        <v>945</v>
-      </c>
-      <c r="BE46" t="n">
-        <v>965</v>
-      </c>
-      <c r="BF46" t="n">
-        <v>1839</v>
-      </c>
-      <c r="BG46" t="n">
-        <v>1229</v>
-      </c>
-      <c r="BH46" t="n">
-        <v>2443</v>
-      </c>
-      <c r="BI46" t="n">
-        <v>1243</v>
-      </c>
-      <c r="BJ46" t="n">
-        <v>2414</v>
-      </c>
-      <c r="BK46" t="n">
-        <v>1156</v>
-      </c>
       <c r="BL46" t="n">
-        <v>1073</v>
+        <v>850</v>
       </c>
       <c r="BM46" t="n">
-        <v>1752</v>
+        <v>1533</v>
       </c>
       <c r="BN46" t="n">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="BO46" t="n">
-        <v>1576</v>
+        <v>1548</v>
       </c>
       <c r="BP46" t="n">
-        <v>1951</v>
+        <v>1941</v>
       </c>
       <c r="BQ46" t="n">
-        <v>1704</v>
+        <v>1685</v>
       </c>
       <c r="BR46" t="n">
-        <v>2285</v>
+        <v>2255</v>
       </c>
       <c r="BT46" t="n">
-        <v>2099</v>
+        <v>1948</v>
       </c>
       <c r="BU46" t="n">
-        <v>1402</v>
+        <v>1372</v>
       </c>
       <c r="BV46" t="n">
-        <v>1428</v>
+        <v>1331</v>
       </c>
       <c r="BY46" t="n">
         <v>5891</v>
@@ -13698,34 +13658,34 @@
         </is>
       </c>
       <c r="AQ47" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AR47" t="n">
         <v>114</v>
       </c>
       <c r="AS47" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AT47" t="n">
         <v>36</v>
       </c>
       <c r="AU47" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AV47" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AW47" t="n">
         <v>163</v>
       </c>
       <c r="AX47" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AY47" t="n">
         <v>41</v>
       </c>
       <c r="AZ47" t="n">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="BA47" t="n">
         <v>104</v>
@@ -13734,19 +13694,19 @@
         <v>83</v>
       </c>
       <c r="BC47" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BD47" t="n">
         <v>31</v>
       </c>
       <c r="BE47" t="n">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="BF47" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="BG47" t="n">
-        <v>2038</v>
+        <v>1966</v>
       </c>
       <c r="BH47" t="n">
         <v>262</v>
@@ -13755,13 +13715,13 @@
         <v>104</v>
       </c>
       <c r="BJ47" t="n">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="BK47" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BL47" t="n">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="BM47" t="n">
         <v>79</v>
@@ -13773,10 +13733,10 @@
         <v>106</v>
       </c>
       <c r="BP47" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BQ47" t="n">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="BR47" t="n">
         <v>115</v>
@@ -13785,7 +13745,7 @@
         <v>122</v>
       </c>
       <c r="BU47" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="BV47" t="n">
         <v>42</v>
@@ -13853,11 +13813,6 @@
           <t>More Than 120 Days</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>More Than 120 Days</t>
-        </is>
-      </c>
       <c r="O48" t="inlineStr">
         <is>
           <t>More Than 120 Days</t>
@@ -13988,10 +13943,10 @@
         <v>183</v>
       </c>
       <c r="AS48" t="n">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="AT48" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AU48" t="n">
         <v>119</v>
@@ -14003,16 +13958,13 @@
         <v>90</v>
       </c>
       <c r="AX48" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AY48" t="n">
         <v>234</v>
       </c>
-      <c r="AZ48" t="n">
-        <v>1</v>
-      </c>
       <c r="BA48" t="n">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="BB48" t="n">
         <v>115</v>
@@ -14024,22 +13976,22 @@
         <v>133</v>
       </c>
       <c r="BE48" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="BF48" t="n">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="BG48" t="n">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="BH48" t="n">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="BI48" t="n">
         <v>146</v>
       </c>
       <c r="BJ48" t="n">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="BK48" t="n">
         <v>273</v>
@@ -14048,31 +14000,31 @@
         <v>91</v>
       </c>
       <c r="BM48" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BN48" t="n">
         <v>130</v>
       </c>
       <c r="BO48" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="BP48" t="n">
         <v>181</v>
       </c>
       <c r="BQ48" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BR48" t="n">
         <v>182</v>
       </c>
       <c r="BT48" t="n">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="BU48" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="BV48" t="n">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="BY48" t="n">
         <v>50</v>
@@ -14269,97 +14221,97 @@
         </is>
       </c>
       <c r="AQ49" t="n">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="AR49" t="n">
-        <v>563</v>
+        <v>542</v>
       </c>
       <c r="AS49" t="n">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="AT49" t="n">
         <v>171</v>
       </c>
       <c r="AU49" t="n">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="AV49" t="n">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AW49" t="n">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="AX49" t="n">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="AY49" t="n">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="AZ49" t="n">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="BA49" t="n">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="BB49" t="n">
-        <v>347</v>
+        <v>330</v>
       </c>
       <c r="BC49" t="n">
-        <v>332</v>
+        <v>311</v>
       </c>
       <c r="BD49" t="n">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="BE49" t="n">
-        <v>385</v>
+        <v>360</v>
       </c>
       <c r="BF49" t="n">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="BG49" t="n">
-        <v>669</v>
+        <v>634</v>
       </c>
       <c r="BH49" t="n">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="BI49" t="n">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="BJ49" t="n">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="BK49" t="n">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="BL49" t="n">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="BM49" t="n">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="BN49" t="n">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="BO49" t="n">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="BP49" t="n">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="BQ49" t="n">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="BR49" t="n">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="BT49" t="n">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="BU49" t="n">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="BV49" t="n">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="BY49" t="n">
         <v>15</v>
@@ -14556,94 +14508,94 @@
         </is>
       </c>
       <c r="AQ50" t="n">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="AR50" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AS50" t="n">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="AT50" t="n">
-        <v>158</v>
+        <v>218</v>
       </c>
       <c r="AU50" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AV50" t="n">
+        <v>161</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>163</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>108</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>318</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>214</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>127</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>135</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>172</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>109</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>129</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>266</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>882</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>91</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>197</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>153</v>
+      </c>
+      <c r="BK50" t="n">
         <v>162</v>
       </c>
-      <c r="AW50" t="n">
-        <v>174</v>
-      </c>
-      <c r="AX50" t="n">
-        <v>109</v>
-      </c>
-      <c r="AY50" t="n">
-        <v>330</v>
-      </c>
-      <c r="AZ50" t="n">
-        <v>96</v>
-      </c>
-      <c r="BA50" t="n">
-        <v>140</v>
-      </c>
-      <c r="BB50" t="n">
-        <v>138</v>
-      </c>
-      <c r="BC50" t="n">
-        <v>182</v>
-      </c>
-      <c r="BD50" t="n">
-        <v>110</v>
-      </c>
-      <c r="BE50" t="n">
-        <v>133</v>
-      </c>
-      <c r="BF50" t="n">
-        <v>269</v>
-      </c>
-      <c r="BG50" t="n">
-        <v>1125</v>
-      </c>
-      <c r="BH50" t="n">
-        <v>100</v>
-      </c>
-      <c r="BI50" t="n">
-        <v>202</v>
-      </c>
-      <c r="BJ50" t="n">
-        <v>157</v>
-      </c>
-      <c r="BK50" t="n">
-        <v>163</v>
-      </c>
       <c r="BL50" t="n">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="BM50" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BN50" t="n">
         <v>110</v>
       </c>
       <c r="BO50" t="n">
+        <v>134</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>299</v>
+      </c>
+      <c r="BQ50" t="n">
+        <v>208</v>
+      </c>
+      <c r="BR50" t="n">
         <v>137</v>
       </c>
-      <c r="BP50" t="n">
-        <v>300</v>
-      </c>
-      <c r="BQ50" t="n">
-        <v>211</v>
-      </c>
-      <c r="BR50" t="n">
-        <v>141</v>
-      </c>
       <c r="BT50" t="n">
-        <v>122</v>
+        <v>178</v>
       </c>
       <c r="BU50" t="n">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="BV50" t="n">
         <v>215</v>
@@ -14843,97 +14795,97 @@
         </is>
       </c>
       <c r="AQ51" t="n">
-        <v>1113</v>
+        <v>1078</v>
       </c>
       <c r="AR51" t="n">
-        <v>795</v>
+        <v>729</v>
       </c>
       <c r="AS51" t="n">
-        <v>822</v>
+        <v>1124</v>
       </c>
       <c r="AT51" t="n">
-        <v>1319</v>
+        <v>1822</v>
       </c>
       <c r="AU51" t="n">
-        <v>802</v>
+        <v>781</v>
       </c>
       <c r="AV51" t="n">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="AW51" t="n">
-        <v>532</v>
+        <v>507</v>
       </c>
       <c r="AX51" t="n">
-        <v>1503</v>
+        <v>1481</v>
       </c>
       <c r="AY51" t="n">
-        <v>936</v>
+        <v>790</v>
       </c>
       <c r="AZ51" t="n">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="BA51" t="n">
-        <v>646</v>
+        <v>913</v>
       </c>
       <c r="BB51" t="n">
-        <v>1039</v>
+        <v>1021</v>
       </c>
       <c r="BC51" t="n">
-        <v>914</v>
+        <v>803</v>
       </c>
       <c r="BD51" t="n">
         <v>675</v>
       </c>
       <c r="BE51" t="n">
-        <v>698</v>
+        <v>580</v>
       </c>
       <c r="BF51" t="n">
-        <v>721</v>
+        <v>710</v>
       </c>
       <c r="BG51" t="n">
-        <v>1686</v>
+        <v>1680</v>
       </c>
       <c r="BH51" t="n">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="BI51" t="n">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="BJ51" t="n">
-        <v>4232</v>
+        <v>4142</v>
       </c>
       <c r="BK51" t="n">
+        <v>682</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>248</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>1937</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>875</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>799</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>1650</v>
+      </c>
+      <c r="BQ51" t="n">
         <v>771</v>
       </c>
-      <c r="BL51" t="n">
-        <v>315</v>
-      </c>
-      <c r="BM51" t="n">
-        <v>2068</v>
-      </c>
-      <c r="BN51" t="n">
-        <v>879</v>
-      </c>
-      <c r="BO51" t="n">
-        <v>599</v>
-      </c>
-      <c r="BP51" t="n">
-        <v>1772</v>
-      </c>
-      <c r="BQ51" t="n">
-        <v>523</v>
-      </c>
       <c r="BR51" t="n">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="BT51" t="n">
-        <v>828</v>
+        <v>813</v>
       </c>
       <c r="BU51" t="n">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="BV51" t="n">
-        <v>694</v>
+        <v>670</v>
       </c>
       <c r="BY51" t="n">
         <v>1636</v>
@@ -15006,11 +14958,6 @@
           <t>More Than 120 Days</t>
         </is>
       </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>More Than 120 Days</t>
-        </is>
-      </c>
       <c r="U52" t="inlineStr">
         <is>
           <t>More Than 120 Days</t>
@@ -15113,9 +15060,6 @@
       </c>
       <c r="BE52" t="n">
         <v>9</v>
-      </c>
-      <c r="BF52" t="n">
-        <v>10</v>
       </c>
       <c r="BG52" t="n">
         <v>94</v>
@@ -15372,10 +15316,10 @@
         <v>72</v>
       </c>
       <c r="AZ53" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BA53" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BB53" t="n">
         <v>80</v>
@@ -15393,13 +15337,13 @@
         <v>41</v>
       </c>
       <c r="BG53" t="n">
-        <v>4552</v>
+        <v>4551</v>
       </c>
       <c r="BH53" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="BI53" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BJ53" t="n">
         <v>154</v>
@@ -15408,7 +15352,7 @@
         <v>45</v>
       </c>
       <c r="BL53" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="BM53" t="n">
         <v>54</v>
@@ -15635,94 +15579,94 @@
         <v>353</v>
       </c>
       <c r="AR54" t="n">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="AS54" t="n">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AT54" t="n">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="AU54" t="n">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="AV54" t="n">
-        <v>763</v>
+        <v>744</v>
       </c>
       <c r="AW54" t="n">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="AX54" t="n">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="AY54" t="n">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="AZ54" t="n">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="BA54" t="n">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="BB54" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="BC54" t="n">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="BD54" t="n">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="BE54" t="n">
-        <v>734</v>
+        <v>716</v>
       </c>
       <c r="BF54" t="n">
-        <v>722</v>
+        <v>709</v>
       </c>
       <c r="BG54" t="n">
-        <v>913</v>
+        <v>891</v>
       </c>
       <c r="BH54" t="n">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="BI54" t="n">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="BJ54" t="n">
-        <v>501</v>
+        <v>466</v>
       </c>
       <c r="BK54" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="BL54" t="n">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="BM54" t="n">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="BN54" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BO54" t="n">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="BP54" t="n">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="BQ54" t="n">
-        <v>332</v>
+        <v>314</v>
       </c>
       <c r="BR54" t="n">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="BT54" t="n">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="BU54" t="n">
         <v>698</v>
       </c>
       <c r="BV54" t="n">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="BY54" t="n">
         <v>2417</v>
@@ -15755,11 +15699,6 @@
           <t>More Than 120 Days</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>More Than 120 Days</t>
-        </is>
-      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>More Than 120 Days</t>
@@ -15799,28 +15738,25 @@
         </is>
       </c>
       <c r="AS55" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AV55" t="n">
-        <v>18</v>
-      </c>
-      <c r="AW55" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="AX55" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY55" t="n">
         <v>1</v>
       </c>
       <c r="BA55" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BD55" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="BG55" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
@@ -16020,7 +15956,7 @@
         <v>11</v>
       </c>
       <c r="AS56" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AT56" t="n">
         <v>72</v>
@@ -16041,13 +15977,13 @@
         <v>6</v>
       </c>
       <c r="AZ56" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BA56" t="n">
         <v>28</v>
       </c>
       <c r="BB56" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BC56" t="n">
         <v>20</v>
@@ -16056,10 +15992,10 @@
         <v>58</v>
       </c>
       <c r="BE56" t="n">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="BF56" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BG56" t="n">
         <v>1906</v>
@@ -16077,7 +16013,7 @@
         <v>12</v>
       </c>
       <c r="BL56" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BM56" t="n">
         <v>13</v>
@@ -16301,97 +16237,97 @@
         </is>
       </c>
       <c r="AQ57" t="n">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="AR57" t="n">
-        <v>2015</v>
+        <v>1965</v>
       </c>
       <c r="AS57" t="n">
-        <v>1892</v>
+        <v>1836</v>
       </c>
       <c r="AT57" t="n">
-        <v>1082</v>
+        <v>1055</v>
       </c>
       <c r="AU57" t="n">
-        <v>2407</v>
+        <v>2272</v>
       </c>
       <c r="AV57" t="n">
-        <v>4155</v>
+        <v>4103</v>
       </c>
       <c r="AW57" t="n">
-        <v>750</v>
+        <v>723</v>
       </c>
       <c r="AX57" t="n">
-        <v>1587</v>
+        <v>1512</v>
       </c>
       <c r="AY57" t="n">
-        <v>2592</v>
+        <v>2544</v>
       </c>
       <c r="AZ57" t="n">
-        <v>1179</v>
+        <v>1134</v>
       </c>
       <c r="BA57" t="n">
-        <v>1863</v>
+        <v>1809</v>
       </c>
       <c r="BB57" t="n">
-        <v>2078</v>
+        <v>2067</v>
       </c>
       <c r="BC57" t="n">
-        <v>1943</v>
+        <v>1850</v>
       </c>
       <c r="BD57" t="n">
-        <v>2507</v>
+        <v>2416</v>
       </c>
       <c r="BE57" t="n">
-        <v>2003</v>
+        <v>1811</v>
       </c>
       <c r="BF57" t="n">
-        <v>1496</v>
+        <v>1473</v>
       </c>
       <c r="BG57" t="n">
-        <v>818</v>
+        <v>779</v>
       </c>
       <c r="BH57" t="n">
-        <v>243</v>
+        <v>177</v>
       </c>
       <c r="BI57" t="n">
-        <v>3408</v>
+        <v>3296</v>
       </c>
       <c r="BJ57" t="n">
-        <v>2223</v>
+        <v>2145</v>
       </c>
       <c r="BK57" t="n">
-        <v>1749</v>
+        <v>1762</v>
       </c>
       <c r="BL57" t="n">
-        <v>460</v>
+        <v>167</v>
       </c>
       <c r="BM57" t="n">
-        <v>236</v>
+        <v>68</v>
       </c>
       <c r="BN57" t="n">
-        <v>1535</v>
+        <v>1526</v>
       </c>
       <c r="BO57" t="n">
-        <v>3535</v>
+        <v>3499</v>
       </c>
       <c r="BP57" t="n">
-        <v>2829</v>
+        <v>2837</v>
       </c>
       <c r="BQ57" t="n">
-        <v>1330</v>
+        <v>1321</v>
       </c>
       <c r="BR57" t="n">
-        <v>1428</v>
+        <v>1410</v>
       </c>
       <c r="BT57" t="n">
-        <v>2714</v>
+        <v>2647</v>
       </c>
       <c r="BU57" t="n">
-        <v>1642</v>
+        <v>1621</v>
       </c>
       <c r="BV57" t="n">
-        <v>3421</v>
+        <v>3308</v>
       </c>
       <c r="BY57" t="n">
         <v>1</v>
@@ -16583,97 +16519,97 @@
         </is>
       </c>
       <c r="AQ58" t="n">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AR58" t="n">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="AS58" t="n">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AT58" t="n">
         <v>168</v>
       </c>
       <c r="AU58" t="n">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AV58" t="n">
+        <v>116</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>275</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>408</v>
+      </c>
+      <c r="AY58" t="n">
         <v>130</v>
       </c>
-      <c r="AW58" t="n">
-        <v>280</v>
-      </c>
-      <c r="AX58" t="n">
-        <v>410</v>
-      </c>
-      <c r="AY58" t="n">
-        <v>133</v>
-      </c>
       <c r="AZ58" t="n">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="BA58" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="BB58" t="n">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="BC58" t="n">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="BD58" t="n">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="BE58" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="BF58" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="BG58" t="n">
-        <v>747</v>
+        <v>734</v>
       </c>
       <c r="BH58" t="n">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="BI58" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="BJ58" t="n">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="BK58" t="n">
+        <v>118</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>93</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>232</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>382</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>235</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>273</v>
+      </c>
+      <c r="BQ58" t="n">
         <v>119</v>
       </c>
-      <c r="BL58" t="n">
-        <v>103</v>
-      </c>
-      <c r="BM58" t="n">
-        <v>234</v>
-      </c>
-      <c r="BN58" t="n">
-        <v>383</v>
-      </c>
-      <c r="BO58" t="n">
-        <v>237</v>
-      </c>
-      <c r="BP58" t="n">
-        <v>274</v>
-      </c>
-      <c r="BQ58" t="n">
-        <v>122</v>
-      </c>
       <c r="BR58" t="n">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="BT58" t="n">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="BU58" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="BV58" t="n">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59">
@@ -16867,97 +16803,97 @@
         </is>
       </c>
       <c r="AQ59" t="n">
-        <v>1296</v>
+        <v>1269</v>
       </c>
       <c r="AR59" t="n">
-        <v>1980</v>
+        <v>1957</v>
       </c>
       <c r="AS59" t="n">
-        <v>1443</v>
+        <v>1419</v>
       </c>
       <c r="AT59" t="n">
-        <v>1905</v>
+        <v>1893</v>
       </c>
       <c r="AU59" t="n">
-        <v>637</v>
+        <v>609</v>
       </c>
       <c r="AV59" t="n">
-        <v>1728</v>
+        <v>1680</v>
       </c>
       <c r="AW59" t="n">
-        <v>2400</v>
+        <v>2316</v>
       </c>
       <c r="AX59" t="n">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="AY59" t="n">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="AZ59" t="n">
-        <v>1044</v>
+        <v>1025</v>
       </c>
       <c r="BA59" t="n">
-        <v>494</v>
+        <v>446</v>
       </c>
       <c r="BB59" t="n">
-        <v>527</v>
+        <v>495</v>
       </c>
       <c r="BC59" t="n">
-        <v>2050</v>
+        <v>2046</v>
       </c>
       <c r="BD59" t="n">
-        <v>744</v>
+        <v>722</v>
       </c>
       <c r="BE59" t="n">
-        <v>958</v>
+        <v>900</v>
       </c>
       <c r="BF59" t="n">
-        <v>1324</v>
+        <v>1309</v>
       </c>
       <c r="BG59" t="n">
-        <v>609</v>
+        <v>588</v>
       </c>
       <c r="BH59" t="n">
-        <v>842</v>
+        <v>821</v>
       </c>
       <c r="BI59" t="n">
-        <v>700</v>
+        <v>606</v>
       </c>
       <c r="BJ59" t="n">
-        <v>1633</v>
+        <v>1608</v>
       </c>
       <c r="BK59" t="n">
-        <v>1011</v>
+        <v>944</v>
       </c>
       <c r="BL59" t="n">
-        <v>1732</v>
+        <v>1636</v>
       </c>
       <c r="BM59" t="n">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="BN59" t="n">
-        <v>2418</v>
+        <v>2403</v>
       </c>
       <c r="BO59" t="n">
-        <v>1522</v>
+        <v>1464</v>
       </c>
       <c r="BP59" t="n">
-        <v>1323</v>
+        <v>1284</v>
       </c>
       <c r="BQ59" t="n">
-        <v>1287</v>
+        <v>1235</v>
       </c>
       <c r="BR59" t="n">
-        <v>2044</v>
+        <v>2037</v>
       </c>
       <c r="BT59" t="n">
-        <v>1006</v>
+        <v>990</v>
       </c>
       <c r="BU59" t="n">
-        <v>821</v>
+        <v>790</v>
       </c>
       <c r="BV59" t="n">
-        <v>1558</v>
+        <v>1479</v>
       </c>
       <c r="BW59" t="n">
         <v>25997</v>
@@ -17149,25 +17085,25 @@
         </is>
       </c>
       <c r="AQ60" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="AR60" t="n">
-        <v>488</v>
+        <v>455</v>
       </c>
       <c r="AS60" t="n">
         <v>189</v>
       </c>
       <c r="AT60" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AU60" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="AV60" t="n">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="AW60" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AX60" t="n">
         <v>414</v>
@@ -17179,10 +17115,10 @@
         <v>135</v>
       </c>
       <c r="BA60" t="n">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="BB60" t="n">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="BC60" t="n">
         <v>323</v>
@@ -17191,7 +17127,7 @@
         <v>140</v>
       </c>
       <c r="BE60" t="n">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="BF60" t="n">
         <v>359</v>
@@ -17203,7 +17139,7 @@
         <v>534</v>
       </c>
       <c r="BI60" t="n">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="BJ60" t="n">
         <v>298</v>
@@ -17212,7 +17148,7 @@
         <v>92</v>
       </c>
       <c r="BL60" t="n">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="BM60" t="n">
         <v>283</v>
@@ -17221,10 +17157,10 @@
         <v>66</v>
       </c>
       <c r="BO60" t="n">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="BP60" t="n">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="BQ60" t="n">
         <v>39</v>
@@ -17233,13 +17169,13 @@
         <v>335</v>
       </c>
       <c r="BT60" t="n">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="BU60" t="n">
         <v>187</v>
       </c>
       <c r="BV60" t="n">
-        <v>397</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61">
@@ -17433,97 +17369,97 @@
         </is>
       </c>
       <c r="AQ61" t="n">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="AR61" t="n">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AS61" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AT61" t="n">
         <v>43</v>
       </c>
       <c r="AU61" t="n">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="AV61" t="n">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="AW61" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AX61" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AY61" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AZ61" t="n">
+        <v>92</v>
+      </c>
+      <c r="BA61" t="n">
         <v>93</v>
       </c>
-      <c r="BA61" t="n">
-        <v>94</v>
-      </c>
       <c r="BB61" t="n">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="BC61" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BD61" t="n">
         <v>266</v>
       </c>
       <c r="BE61" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="BF61" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BG61" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="BH61" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="BI61" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="BJ61" t="n">
         <v>192</v>
       </c>
       <c r="BK61" t="n">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="BL61" t="n">
+        <v>62</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>89</v>
+      </c>
+      <c r="BN61" t="n">
         <v>65</v>
-      </c>
-      <c r="BM61" t="n">
-        <v>90</v>
-      </c>
-      <c r="BN61" t="n">
-        <v>66</v>
       </c>
       <c r="BO61" t="n">
         <v>91</v>
       </c>
       <c r="BP61" t="n">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="BQ61" t="n">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="BR61" t="n">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="BT61" t="n">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="BU61" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BV61" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BW61" t="n">
         <v>28</v>
@@ -17783,97 +17719,97 @@
         </is>
       </c>
       <c r="AQ63" t="n">
-        <v>1372</v>
+        <v>1335</v>
       </c>
       <c r="AR63" t="n">
-        <v>741</v>
+        <v>725</v>
       </c>
       <c r="AS63" t="n">
-        <v>885</v>
+        <v>829</v>
       </c>
       <c r="AT63" t="n">
-        <v>767</v>
+        <v>752</v>
       </c>
       <c r="AU63" t="n">
-        <v>1301</v>
+        <v>1248</v>
       </c>
       <c r="AV63" t="n">
-        <v>872</v>
+        <v>824</v>
       </c>
       <c r="AW63" t="n">
-        <v>559</v>
+        <v>146</v>
       </c>
       <c r="AX63" t="n">
-        <v>2335</v>
+        <v>2319</v>
       </c>
       <c r="AY63" t="n">
-        <v>633</v>
+        <v>606</v>
       </c>
       <c r="AZ63" t="n">
-        <v>589</v>
+        <v>563</v>
       </c>
       <c r="BA63" t="n">
-        <v>533</v>
+        <v>494</v>
       </c>
       <c r="BB63" t="n">
-        <v>555</v>
+        <v>536</v>
       </c>
       <c r="BC63" t="n">
-        <v>1113</v>
+        <v>1077</v>
       </c>
       <c r="BD63" t="n">
-        <v>993</v>
+        <v>967</v>
       </c>
       <c r="BE63" t="n">
-        <v>1018</v>
+        <v>959</v>
       </c>
       <c r="BF63" t="n">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="BG63" t="n">
-        <v>564</v>
+        <v>547</v>
       </c>
       <c r="BH63" t="n">
-        <v>1347</v>
+        <v>1333</v>
       </c>
       <c r="BI63" t="n">
-        <v>751</v>
+        <v>677</v>
       </c>
       <c r="BJ63" t="n">
-        <v>592</v>
+        <v>548</v>
       </c>
       <c r="BK63" t="n">
-        <v>1081</v>
+        <v>1044</v>
       </c>
       <c r="BL63" t="n">
-        <v>121</v>
+        <v>36</v>
       </c>
       <c r="BM63" t="n">
-        <v>1437</v>
+        <v>1429</v>
       </c>
       <c r="BN63" t="n">
-        <v>1420</v>
+        <v>1415</v>
       </c>
       <c r="BO63" t="n">
-        <v>1255</v>
+        <v>1090</v>
       </c>
       <c r="BP63" t="n">
-        <v>876</v>
+        <v>821</v>
       </c>
       <c r="BQ63" t="n">
-        <v>3056</v>
+        <v>3009</v>
       </c>
       <c r="BR63" t="n">
-        <v>2051</v>
+        <v>2047</v>
       </c>
       <c r="BT63" t="n">
-        <v>1243</v>
+        <v>1201</v>
       </c>
       <c r="BU63" t="n">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="BV63" t="n">
-        <v>761</v>
+        <v>710</v>
       </c>
       <c r="BW63" t="n">
         <v>4500</v>
@@ -18071,22 +18007,22 @@
         <v>128</v>
       </c>
       <c r="AS64" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AT64" t="n">
         <v>28</v>
       </c>
       <c r="AU64" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AV64" t="n">
         <v>87</v>
       </c>
       <c r="AW64" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AX64" t="n">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="AY64" t="n">
         <v>87</v>
@@ -18095,13 +18031,13 @@
         <v>98</v>
       </c>
       <c r="BA64" t="n">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="BB64" t="n">
         <v>134</v>
       </c>
       <c r="BC64" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BD64" t="n">
         <v>330</v>
@@ -18113,22 +18049,22 @@
         <v>61</v>
       </c>
       <c r="BG64" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BH64" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BI64" t="n">
         <v>25</v>
       </c>
       <c r="BJ64" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BK64" t="n">
         <v>262</v>
       </c>
       <c r="BL64" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BM64" t="n">
         <v>134</v>
@@ -18140,19 +18076,19 @@
         <v>145</v>
       </c>
       <c r="BP64" t="n">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="BQ64" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="BR64" t="n">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="BT64" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="BU64" t="n">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="BV64" t="n">
         <v>180</v>
@@ -18344,97 +18280,97 @@
         </is>
       </c>
       <c r="AQ65" t="n">
-        <v>486</v>
+        <v>613</v>
       </c>
       <c r="AR65" t="n">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="AS65" t="n">
-        <v>996</v>
+        <v>986</v>
       </c>
       <c r="AT65" t="n">
         <v>488</v>
       </c>
       <c r="AU65" t="n">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="AV65" t="n">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="AW65" t="n">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="AX65" t="n">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="AY65" t="n">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="AZ65" t="n">
-        <v>390</v>
+        <v>514</v>
       </c>
       <c r="BA65" t="n">
-        <v>995</v>
+        <v>983</v>
       </c>
       <c r="BB65" t="n">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="BC65" t="n">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="BD65" t="n">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="BE65" t="n">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="BF65" t="n">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="BG65" t="n">
-        <v>3909</v>
+        <v>3035</v>
       </c>
       <c r="BH65" t="n">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="BI65" t="n">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="BJ65" t="n">
-        <v>954</v>
+        <v>933</v>
       </c>
       <c r="BK65" t="n">
-        <v>372</v>
+        <v>494</v>
       </c>
       <c r="BL65" t="n">
-        <v>997</v>
+        <v>1310</v>
       </c>
       <c r="BM65" t="n">
-        <v>720</v>
+        <v>691</v>
       </c>
       <c r="BN65" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="BO65" t="n">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="BP65" t="n">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="BQ65" t="n">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="BR65" t="n">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="BT65" t="n">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="BU65" t="n">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="BV65" t="n">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="66">
@@ -18621,19 +18557,19 @@
         <v>361</v>
       </c>
       <c r="AR66" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AS66" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="AT66" t="n">
         <v>12</v>
       </c>
       <c r="AU66" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AV66" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AW66" t="n">
         <v>37</v>
@@ -18642,7 +18578,7 @@
         <v>29</v>
       </c>
       <c r="AY66" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="AZ66" t="n">
         <v>119</v>
@@ -18651,7 +18587,7 @@
         <v>6</v>
       </c>
       <c r="BB66" t="n">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="BC66" t="n">
         <v>164</v>
@@ -18666,13 +18602,13 @@
         <v>118</v>
       </c>
       <c r="BG66" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BH66" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="BI66" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="BJ66" t="n">
         <v>446</v>
@@ -18681,19 +18617,19 @@
         <v>176</v>
       </c>
       <c r="BM66" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="BN66" t="n">
         <v>11</v>
       </c>
       <c r="BO66" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="BP66" t="n">
         <v>47</v>
       </c>
       <c r="BQ66" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BR66" t="n">
         <v>200</v>
@@ -18705,7 +18641,7 @@
         <v>49</v>
       </c>
       <c r="BV66" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="67">
@@ -18892,67 +18828,67 @@
         <v>212</v>
       </c>
       <c r="AR67" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AS67" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AT67" t="n">
         <v>208</v>
       </c>
       <c r="AU67" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AV67" t="n">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AW67" t="n">
         <v>153</v>
       </c>
       <c r="AX67" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AY67" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AZ67" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BA67" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="BB67" t="n">
         <v>107</v>
       </c>
       <c r="BC67" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="BD67" t="n">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="BF67" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="BG67" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="BH67" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="BI67" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BJ67" t="n">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="BK67" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="BL67" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="BM67" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="BN67" t="n">
         <v>193</v>
@@ -18961,22 +18897,22 @@
         <v>67</v>
       </c>
       <c r="BP67" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BQ67" t="n">
         <v>148</v>
       </c>
       <c r="BR67" t="n">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="BT67" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="BU67" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BV67" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68">
@@ -19165,97 +19101,97 @@
         </is>
       </c>
       <c r="AQ68" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="AR68" t="n">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="AS68" t="n">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="AT68" t="n">
         <v>357</v>
       </c>
       <c r="AU68" t="n">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="AV68" t="n">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="AW68" t="n">
-        <v>1299</v>
+        <v>1293</v>
       </c>
       <c r="AX68" t="n">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="AY68" t="n">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="AZ68" t="n">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="BA68" t="n">
-        <v>984</v>
+        <v>972</v>
       </c>
       <c r="BB68" t="n">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="BC68" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="BD68" t="n">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="BE68" t="n">
-        <v>660</v>
+        <v>793</v>
       </c>
       <c r="BF68" t="n">
-        <v>1120</v>
+        <v>1113</v>
       </c>
       <c r="BG68" t="n">
-        <v>2845</v>
+        <v>2643</v>
       </c>
       <c r="BH68" t="n">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="BI68" t="n">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="BJ68" t="n">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="BK68" t="n">
-        <v>1185</v>
+        <v>1156</v>
       </c>
       <c r="BL68" t="n">
-        <v>724</v>
+        <v>707</v>
       </c>
       <c r="BM68" t="n">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="BN68" t="n">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="BO68" t="n">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="BP68" t="n">
         <v>505</v>
       </c>
       <c r="BQ68" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="BR68" t="n">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="BT68" t="n">
-        <v>868</v>
+        <v>996</v>
       </c>
       <c r="BU68" t="n">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="BV68" t="n">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="69">
@@ -19444,97 +19380,97 @@
         </is>
       </c>
       <c r="AQ69" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AR69" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AS69" t="n">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="AT69" t="n">
         <v>334</v>
       </c>
       <c r="AU69" t="n">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="AV69" t="n">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="AW69" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AX69" t="n">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AY69" t="n">
         <v>288</v>
       </c>
       <c r="AZ69" t="n">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BA69" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BB69" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="BC69" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="BD69" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="BE69" t="n">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="BF69" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BG69" t="n">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="BH69" t="n">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="BI69" t="n">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="BJ69" t="n">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="BK69" t="n">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="BL69" t="n">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BM69" t="n">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="BN69" t="n">
         <v>130</v>
       </c>
       <c r="BO69" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="BP69" t="n">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="BQ69" t="n">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="BR69" t="n">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="BT69" t="n">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="BU69" t="n">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="BV69" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70">
@@ -19723,97 +19659,97 @@
         </is>
       </c>
       <c r="AQ70" t="n">
-        <v>866</v>
+        <v>854</v>
       </c>
       <c r="AR70" t="n">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="AS70" t="n">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="AT70" t="n">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AU70" t="n">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="AV70" t="n">
-        <v>555</v>
+        <v>542</v>
       </c>
       <c r="AW70" t="n">
-        <v>606</v>
+        <v>580</v>
       </c>
       <c r="AX70" t="n">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="AY70" t="n">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="AZ70" t="n">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="BA70" t="n">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="BB70" t="n">
-        <v>605</v>
+        <v>592</v>
       </c>
       <c r="BC70" t="n">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="BD70" t="n">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="BE70" t="n">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="BF70" t="n">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="BG70" t="n">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="BH70" t="n">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="BI70" t="n">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="BJ70" t="n">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="BK70" t="n">
-        <v>600</v>
+        <v>574</v>
       </c>
       <c r="BL70" t="n">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="BM70" t="n">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="BN70" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="BO70" t="n">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="BP70" t="n">
-        <v>555</v>
+        <v>538</v>
       </c>
       <c r="BQ70" t="n">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="BR70" t="n">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="BT70" t="n">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="BU70" t="n">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="BV70" t="n">
-        <v>278</v>
+        <v>261</v>
       </c>
     </row>
     <row r="71">
@@ -20010,10 +19946,10 @@
         <v>409</v>
       </c>
       <c r="AR71" t="n">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="AS71" t="n">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="AT71" t="n">
         <v>252</v>
@@ -20025,13 +19961,13 @@
         <v>189</v>
       </c>
       <c r="AW71" t="n">
-        <v>85</v>
+        <v>48</v>
       </c>
       <c r="AX71" t="n">
         <v>292</v>
       </c>
       <c r="AY71" t="n">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="AZ71" t="n">
         <v>628</v>
@@ -20040,52 +19976,52 @@
         <v>186</v>
       </c>
       <c r="BB71" t="n">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BC71" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="BD71" t="n">
         <v>140</v>
       </c>
       <c r="BE71" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="BF71" t="n">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="BG71" t="n">
-        <v>1057</v>
+        <v>537</v>
       </c>
       <c r="BH71" t="n">
         <v>215</v>
       </c>
       <c r="BI71" t="n">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="BJ71" t="n">
         <v>575</v>
       </c>
       <c r="BK71" t="n">
-        <v>203</v>
+        <v>328</v>
       </c>
       <c r="BL71" t="n">
-        <v>251</v>
+        <v>381</v>
       </c>
       <c r="BM71" t="n">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="BN71" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="BO71" t="n">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="BP71" t="n">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="BQ71" t="n">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="BR71" t="n">
         <v>368</v>
@@ -20094,10 +20030,10 @@
         <v>356</v>
       </c>
       <c r="BU71" t="n">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="BV71" t="n">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="BY71" t="n">
         <v>6759</v>
@@ -20294,97 +20230,97 @@
         </is>
       </c>
       <c r="AQ72" t="n">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="AR72" t="n">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="AS72" t="n">
-        <v>753</v>
+        <v>741</v>
       </c>
       <c r="AT72" t="n">
         <v>306</v>
       </c>
       <c r="AU72" t="n">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AV72" t="n">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="AW72" t="n">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="AX72" t="n">
         <v>576</v>
       </c>
       <c r="AY72" t="n">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="AZ72" t="n">
-        <v>780</v>
+        <v>773</v>
       </c>
       <c r="BA72" t="n">
-        <v>1008</v>
+        <v>996</v>
       </c>
       <c r="BB72" t="n">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="BC72" t="n">
-        <v>546</v>
+        <v>524</v>
       </c>
       <c r="BD72" t="n">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="BE72" t="n">
-        <v>392</v>
+        <v>483</v>
       </c>
       <c r="BF72" t="n">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="BG72" t="n">
-        <v>2598</v>
+        <v>2140</v>
       </c>
       <c r="BH72" t="n">
-        <v>858</v>
+        <v>827</v>
       </c>
       <c r="BI72" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="BJ72" t="n">
-        <v>1984</v>
+        <v>1935</v>
       </c>
       <c r="BK72" t="n">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="BL72" t="n">
-        <v>988</v>
+        <v>1216</v>
       </c>
       <c r="BM72" t="n">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="BN72" t="n">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="BO72" t="n">
-        <v>1002</v>
+        <v>990</v>
       </c>
       <c r="BP72" t="n">
-        <v>1037</v>
+        <v>1018</v>
       </c>
       <c r="BQ72" t="n">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="BR72" t="n">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="BT72" t="n">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="BU72" t="n">
-        <v>595</v>
+        <v>583</v>
       </c>
       <c r="BV72" t="n">
-        <v>945</v>
+        <v>928</v>
       </c>
       <c r="BY72" t="n">
         <v>7</v>
@@ -20581,7 +20517,7 @@
         </is>
       </c>
       <c r="AQ73" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AR73" t="n">
         <v>48</v>
@@ -20599,7 +20535,7 @@
         <v>61</v>
       </c>
       <c r="AW73" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AX73" t="n">
         <v>8</v>
@@ -20608,37 +20544,37 @@
         <v>22</v>
       </c>
       <c r="AZ73" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BA73" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BB73" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC73" t="n">
         <v>19</v>
       </c>
       <c r="BD73" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="BE73" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="BF73" t="n">
         <v>62</v>
       </c>
       <c r="BG73" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BH73" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BI73" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BJ73" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BK73" t="n">
         <v>17</v>
@@ -20656,10 +20592,10 @@
         <v>39</v>
       </c>
       <c r="BP73" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="BQ73" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BR73" t="n">
         <v>22</v>
@@ -20868,97 +20804,97 @@
         </is>
       </c>
       <c r="AQ74" t="n">
-        <v>3491</v>
+        <v>3208</v>
       </c>
       <c r="AR74" t="n">
-        <v>6351</v>
+        <v>5594</v>
       </c>
       <c r="AS74" t="n">
-        <v>3949</v>
+        <v>1933</v>
       </c>
       <c r="AT74" t="n">
-        <v>1189</v>
+        <v>2348</v>
       </c>
       <c r="AU74" t="n">
-        <v>5026</v>
+        <v>4458</v>
       </c>
       <c r="AV74" t="n">
-        <v>2587</v>
+        <v>2267</v>
       </c>
       <c r="AW74" t="n">
-        <v>1305</v>
+        <v>5720</v>
       </c>
       <c r="AX74" t="n">
-        <v>3246</v>
+        <v>2181</v>
       </c>
       <c r="AY74" t="n">
-        <v>6991</v>
+        <v>6332</v>
       </c>
       <c r="AZ74" t="n">
-        <v>4702</v>
+        <v>4239</v>
       </c>
       <c r="BA74" t="n">
-        <v>2918</v>
+        <v>1514</v>
       </c>
       <c r="BB74" t="n">
-        <v>1196</v>
+        <v>1045</v>
       </c>
       <c r="BC74" t="n">
-        <v>834</v>
+        <v>583</v>
       </c>
       <c r="BD74" t="n">
-        <v>1625</v>
+        <v>1402</v>
       </c>
       <c r="BE74" t="n">
-        <v>3603</v>
+        <v>3260</v>
       </c>
       <c r="BF74" t="n">
-        <v>1122</v>
+        <v>48</v>
       </c>
       <c r="BG74" t="n">
-        <v>2271</v>
+        <v>699</v>
       </c>
       <c r="BH74" t="n">
-        <v>1956</v>
+        <v>1718</v>
       </c>
       <c r="BI74" t="n">
-        <v>2511</v>
+        <v>2129</v>
       </c>
       <c r="BJ74" t="n">
-        <v>3660</v>
+        <v>3187</v>
       </c>
       <c r="BK74" t="n">
+        <v>2448</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>664</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>3852</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>3349</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>2575</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>1862</v>
+      </c>
+      <c r="BQ74" t="n">
+        <v>2391</v>
+      </c>
+      <c r="BR74" t="n">
+        <v>1832</v>
+      </c>
+      <c r="BT74" t="n">
+        <v>2464</v>
+      </c>
+      <c r="BU74" t="n">
         <v>3235</v>
       </c>
-      <c r="BL74" t="n">
-        <v>2213</v>
-      </c>
-      <c r="BM74" t="n">
-        <v>4302</v>
-      </c>
-      <c r="BN74" t="n">
-        <v>3384</v>
-      </c>
-      <c r="BO74" t="n">
-        <v>2928</v>
-      </c>
-      <c r="BP74" t="n">
-        <v>1933</v>
-      </c>
-      <c r="BQ74" t="n">
-        <v>2873</v>
-      </c>
-      <c r="BR74" t="n">
-        <v>2110</v>
-      </c>
-      <c r="BT74" t="n">
-        <v>2302</v>
-      </c>
-      <c r="BU74" t="n">
-        <v>3323</v>
-      </c>
       <c r="BV74" t="n">
-        <v>2122</v>
+        <v>1313</v>
       </c>
       <c r="BY74" t="n">
         <v>41390</v>
@@ -21105,67 +21041,67 @@
         </is>
       </c>
       <c r="AR75" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS75" t="n">
+        <v>78</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>35</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>242</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>161</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>159</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>36</v>
+      </c>
+      <c r="BC75" t="n">
         <v>84</v>
       </c>
-      <c r="AT75" t="n">
-        <v>38</v>
-      </c>
-      <c r="AV75" t="n">
-        <v>252</v>
-      </c>
-      <c r="AW75" t="n">
-        <v>29</v>
-      </c>
-      <c r="AX75" t="n">
-        <v>174</v>
-      </c>
-      <c r="BA75" t="n">
-        <v>166</v>
-      </c>
-      <c r="BB75" t="n">
-        <v>48</v>
-      </c>
-      <c r="BC75" t="n">
-        <v>91</v>
-      </c>
       <c r="BD75" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BE75" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="BG75" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="BH75" t="n">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="BJ75" t="n">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="BN75" t="n">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="BO75" t="n">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="BP75" t="n">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BR75" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BT75" t="n">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="BU75" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="BV75" t="n">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="BY75" t="n">
         <v>6600</v>
@@ -21362,10 +21298,10 @@
         </is>
       </c>
       <c r="AQ76" t="n">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="AR76" t="n">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="AS76" t="n">
         <v>724</v>
@@ -21374,82 +21310,82 @@
         <v>464</v>
       </c>
       <c r="AU76" t="n">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="AV76" t="n">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AW76" t="n">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="AX76" t="n">
         <v>426</v>
       </c>
       <c r="AY76" t="n">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="AZ76" t="n">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="BA76" t="n">
+        <v>536</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>375</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>440</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>471</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>378</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>436</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>1532</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>547</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>452</v>
+      </c>
+      <c r="BJ76" t="n">
         <v>541</v>
       </c>
-      <c r="BB76" t="n">
-        <v>377</v>
-      </c>
-      <c r="BC76" t="n">
-        <v>451</v>
-      </c>
-      <c r="BD76" t="n">
-        <v>472</v>
-      </c>
-      <c r="BE76" t="n">
-        <v>389</v>
-      </c>
-      <c r="BF76" t="n">
-        <v>443</v>
-      </c>
-      <c r="BG76" t="n">
-        <v>1539</v>
-      </c>
-      <c r="BH76" t="n">
-        <v>552</v>
-      </c>
-      <c r="BI76" t="n">
-        <v>454</v>
-      </c>
-      <c r="BJ76" t="n">
-        <v>551</v>
-      </c>
       <c r="BK76" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="BL76" t="n">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="BM76" t="n">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="BN76" t="n">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="BO76" t="n">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="BP76" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="BQ76" t="n">
         <v>293</v>
       </c>
       <c r="BR76" t="n">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="BT76" t="n">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="BU76" t="n">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="BV76" t="n">
         <v>490</v>
@@ -21621,7 +21557,7 @@
         <v>102</v>
       </c>
       <c r="AX77" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AY77" t="n">
         <v>107</v>
@@ -21630,7 +21566,7 @@
         <v>137</v>
       </c>
       <c r="BA77" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="BD77" t="n">
         <v>133</v>
@@ -21872,19 +21808,19 @@
         </is>
       </c>
       <c r="AQ78" t="n">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="AR78" t="n">
         <v>183</v>
       </c>
       <c r="AS78" t="n">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AT78" t="n">
         <v>124</v>
       </c>
       <c r="AU78" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AV78" t="n">
         <v>275</v>
@@ -21899,16 +21835,16 @@
         <v>196</v>
       </c>
       <c r="AZ78" t="n">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="BA78" t="n">
         <v>249</v>
       </c>
       <c r="BB78" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="BC78" t="n">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="BD78" t="n">
         <v>93</v>
@@ -21917,7 +21853,7 @@
         <v>145</v>
       </c>
       <c r="BF78" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="BG78" t="n">
         <v>898</v>
@@ -21926,10 +21862,10 @@
         <v>248</v>
       </c>
       <c r="BI78" t="n">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="BJ78" t="n">
-        <v>271</v>
+        <v>284</v>
       </c>
       <c r="BK78" t="n">
         <v>374</v>
@@ -21938,13 +21874,13 @@
         <v>236</v>
       </c>
       <c r="BM78" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="BN78" t="n">
         <v>73</v>
       </c>
       <c r="BO78" t="n">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="BP78" t="n">
         <v>342</v>
@@ -21953,16 +21889,16 @@
         <v>1196</v>
       </c>
       <c r="BR78" t="n">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="BT78" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="BU78" t="n">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="BV78" t="n">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="BY78" t="n">
         <v>1</v>
@@ -22159,97 +22095,97 @@
         </is>
       </c>
       <c r="AQ79" t="n">
-        <v>2083</v>
+        <v>2568</v>
       </c>
       <c r="AR79" t="n">
-        <v>1716</v>
+        <v>1686</v>
       </c>
       <c r="AS79" t="n">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="AT79" t="n">
-        <v>1237</v>
+        <v>1226</v>
       </c>
       <c r="AU79" t="n">
-        <v>2148</v>
+        <v>2142</v>
       </c>
       <c r="AV79" t="n">
-        <v>1650</v>
+        <v>1615</v>
       </c>
       <c r="AW79" t="n">
-        <v>1005</v>
+        <v>993</v>
       </c>
       <c r="AX79" t="n">
-        <v>1231</v>
+        <v>1198</v>
       </c>
       <c r="AY79" t="n">
-        <v>1874</v>
+        <v>1860</v>
       </c>
       <c r="AZ79" t="n">
-        <v>1523</v>
+        <v>1483</v>
       </c>
       <c r="BA79" t="n">
-        <v>1347</v>
+        <v>1324</v>
       </c>
       <c r="BB79" t="n">
-        <v>1281</v>
+        <v>1256</v>
       </c>
       <c r="BC79" t="n">
-        <v>1157</v>
+        <v>1148</v>
       </c>
       <c r="BD79" t="n">
-        <v>1068</v>
+        <v>1044</v>
       </c>
       <c r="BE79" t="n">
-        <v>764</v>
+        <v>680</v>
       </c>
       <c r="BF79" t="n">
-        <v>1752</v>
+        <v>1660</v>
       </c>
       <c r="BG79" t="n">
-        <v>2621</v>
+        <v>1503</v>
       </c>
       <c r="BH79" t="n">
-        <v>897</v>
+        <v>862</v>
       </c>
       <c r="BI79" t="n">
-        <v>2361</v>
+        <v>2205</v>
       </c>
       <c r="BJ79" t="n">
-        <v>1624</v>
+        <v>1601</v>
       </c>
       <c r="BK79" t="n">
-        <v>1596</v>
+        <v>2064</v>
       </c>
       <c r="BL79" t="n">
-        <v>1603</v>
+        <v>1553</v>
       </c>
       <c r="BM79" t="n">
-        <v>1688</v>
+        <v>1672</v>
       </c>
       <c r="BN79" t="n">
         <v>1070</v>
       </c>
       <c r="BO79" t="n">
-        <v>1827</v>
+        <v>1747</v>
       </c>
       <c r="BP79" t="n">
-        <v>1791</v>
+        <v>1756</v>
       </c>
       <c r="BQ79" t="n">
-        <v>1776</v>
+        <v>1770</v>
       </c>
       <c r="BR79" t="n">
-        <v>1494</v>
+        <v>1491</v>
       </c>
       <c r="BT79" t="n">
-        <v>2218</v>
+        <v>2155</v>
       </c>
       <c r="BU79" t="n">
-        <v>2475</v>
+        <v>2460</v>
       </c>
       <c r="BV79" t="n">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="BX79" t="n">
         <v>151</v>
@@ -22446,97 +22382,97 @@
         </is>
       </c>
       <c r="AQ80" t="n">
-        <v>1114</v>
+        <v>1107</v>
       </c>
       <c r="AR80" t="n">
-        <v>1971</v>
+        <v>1951</v>
       </c>
       <c r="AS80" t="n">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="AT80" t="n">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="AU80" t="n">
-        <v>1207</v>
+        <v>1200</v>
       </c>
       <c r="AV80" t="n">
-        <v>1102</v>
+        <v>1090</v>
       </c>
       <c r="AW80" t="n">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="AX80" t="n">
-        <v>963</v>
+        <v>949</v>
       </c>
       <c r="AY80" t="n">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="AZ80" t="n">
         <v>1113</v>
       </c>
       <c r="BA80" t="n">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="BB80" t="n">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="BC80" t="n">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="BD80" t="n">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="BE80" t="n">
-        <v>1698</v>
+        <v>1673</v>
       </c>
       <c r="BF80" t="n">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="BG80" t="n">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="BH80" t="n">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="BI80" t="n">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="BJ80" t="n">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="BK80" t="n">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="BL80" t="n">
-        <v>1498</v>
+        <v>1472</v>
       </c>
       <c r="BM80" t="n">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="BN80" t="n">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="BO80" t="n">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="BP80" t="n">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="BQ80" t="n">
         <v>824</v>
       </c>
       <c r="BR80" t="n">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="BT80" t="n">
-        <v>1116</v>
+        <v>1107</v>
       </c>
       <c r="BU80" t="n">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="BV80" t="n">
-        <v>1374</v>
+        <v>1365</v>
       </c>
       <c r="BY80" t="n">
         <v>33</v>
@@ -22733,97 +22669,97 @@
         </is>
       </c>
       <c r="AQ81" t="n">
-        <v>1653</v>
+        <v>1587</v>
       </c>
       <c r="AR81" t="n">
-        <v>3430</v>
+        <v>3372</v>
       </c>
       <c r="AS81" t="n">
-        <v>1317</v>
+        <v>1283</v>
       </c>
       <c r="AT81" t="n">
-        <v>1153</v>
+        <v>1129</v>
       </c>
       <c r="AU81" t="n">
+        <v>689</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>536</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>1959</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>2512</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>3095</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>1126</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>1221</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>1571</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>1221</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>1785</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>558</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>2157</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>1470</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>2716</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>705</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>1578</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>1940</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>2079</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>2302</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>2997</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>2004</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>2636</v>
+      </c>
+      <c r="BQ81" t="n">
+        <v>2234</v>
+      </c>
+      <c r="BR81" t="n">
         <v>743</v>
       </c>
-      <c r="AV81" t="n">
-        <v>567</v>
-      </c>
-      <c r="AW81" t="n">
-        <v>1987</v>
-      </c>
-      <c r="AX81" t="n">
-        <v>2571</v>
-      </c>
-      <c r="AY81" t="n">
-        <v>3135</v>
-      </c>
-      <c r="AZ81" t="n">
-        <v>1161</v>
-      </c>
-      <c r="BA81" t="n">
-        <v>1355</v>
-      </c>
-      <c r="BB81" t="n">
-        <v>1604</v>
-      </c>
-      <c r="BC81" t="n">
-        <v>1273</v>
-      </c>
-      <c r="BD81" t="n">
-        <v>1835</v>
-      </c>
-      <c r="BE81" t="n">
-        <v>641</v>
-      </c>
-      <c r="BF81" t="n">
-        <v>2203</v>
-      </c>
-      <c r="BG81" t="n">
-        <v>1559</v>
-      </c>
-      <c r="BH81" t="n">
-        <v>2760</v>
-      </c>
-      <c r="BI81" t="n">
-        <v>766</v>
-      </c>
-      <c r="BJ81" t="n">
-        <v>1668</v>
-      </c>
-      <c r="BK81" t="n">
-        <v>1973</v>
-      </c>
-      <c r="BL81" t="n">
-        <v>2190</v>
-      </c>
-      <c r="BM81" t="n">
-        <v>2417</v>
-      </c>
-      <c r="BN81" t="n">
-        <v>3007</v>
-      </c>
-      <c r="BO81" t="n">
-        <v>2047</v>
-      </c>
-      <c r="BP81" t="n">
-        <v>2678</v>
-      </c>
-      <c r="BQ81" t="n">
-        <v>2250</v>
-      </c>
-      <c r="BR81" t="n">
-        <v>800</v>
-      </c>
       <c r="BT81" t="n">
-        <v>2524</v>
+        <v>2453</v>
       </c>
       <c r="BU81" t="n">
-        <v>1663</v>
+        <v>1586</v>
       </c>
       <c r="BV81" t="n">
-        <v>1531</v>
+        <v>1378</v>
       </c>
       <c r="BX81" t="n">
         <v>12280</v>
@@ -23020,97 +22956,97 @@
         </is>
       </c>
       <c r="AQ82" t="n">
-        <v>4197</v>
+        <v>4130</v>
       </c>
       <c r="AR82" t="n">
-        <v>7865</v>
+        <v>7811</v>
       </c>
       <c r="AS82" t="n">
-        <v>3954</v>
+        <v>3871</v>
       </c>
       <c r="AT82" t="n">
-        <v>8307</v>
+        <v>8262</v>
       </c>
       <c r="AU82" t="n">
-        <v>9916</v>
+        <v>9782</v>
       </c>
       <c r="AV82" t="n">
-        <v>9343</v>
+        <v>9223</v>
       </c>
       <c r="AW82" t="n">
-        <v>5166</v>
+        <v>5143</v>
       </c>
       <c r="AX82" t="n">
-        <v>3759</v>
+        <v>3695</v>
       </c>
       <c r="AY82" t="n">
-        <v>4716</v>
+        <v>4653</v>
       </c>
       <c r="AZ82" t="n">
-        <v>3433</v>
+        <v>3418</v>
       </c>
       <c r="BA82" t="n">
-        <v>3186</v>
+        <v>3056</v>
       </c>
       <c r="BB82" t="n">
-        <v>4174</v>
+        <v>4131</v>
       </c>
       <c r="BC82" t="n">
-        <v>2790</v>
+        <v>2716</v>
       </c>
       <c r="BD82" t="n">
-        <v>1371</v>
+        <v>1349</v>
       </c>
       <c r="BE82" t="n">
-        <v>3175</v>
+        <v>3022</v>
       </c>
       <c r="BF82" t="n">
-        <v>4883</v>
+        <v>4834</v>
       </c>
       <c r="BG82" t="n">
-        <v>2186</v>
+        <v>2135</v>
       </c>
       <c r="BH82" t="n">
-        <v>3912</v>
+        <v>3886</v>
       </c>
       <c r="BI82" t="n">
-        <v>4301</v>
+        <v>4170</v>
       </c>
       <c r="BJ82" t="n">
-        <v>3364</v>
+        <v>3252</v>
       </c>
       <c r="BK82" t="n">
-        <v>3368</v>
+        <v>3326</v>
       </c>
       <c r="BL82" t="n">
-        <v>2719</v>
+        <v>2600</v>
       </c>
       <c r="BM82" t="n">
-        <v>4607</v>
+        <v>4493</v>
       </c>
       <c r="BN82" t="n">
-        <v>2670</v>
+        <v>2658</v>
       </c>
       <c r="BO82" t="n">
-        <v>2470</v>
+        <v>2391</v>
       </c>
       <c r="BP82" t="n">
-        <v>3214</v>
+        <v>3176</v>
       </c>
       <c r="BQ82" t="n">
-        <v>4408</v>
+        <v>4349</v>
       </c>
       <c r="BR82" t="n">
-        <v>3460</v>
+        <v>3402</v>
       </c>
       <c r="BT82" t="n">
-        <v>4538</v>
+        <v>4401</v>
       </c>
       <c r="BU82" t="n">
-        <v>2044</v>
+        <v>1997</v>
       </c>
       <c r="BV82" t="n">
-        <v>2477</v>
+        <v>2398</v>
       </c>
       <c r="BY82" t="n">
         <v>1178</v>
@@ -23310,94 +23246,94 @@
         <v>349</v>
       </c>
       <c r="AR83" t="n">
-        <v>1267</v>
+        <v>1248</v>
       </c>
       <c r="AS83" t="n">
-        <v>975</v>
+        <v>960</v>
       </c>
       <c r="AT83" t="n">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="AU83" t="n">
-        <v>837</v>
+        <v>815</v>
       </c>
       <c r="AV83" t="n">
-        <v>659</v>
+        <v>633</v>
       </c>
       <c r="AW83" t="n">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AX83" t="n">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="AY83" t="n">
         <v>1213</v>
       </c>
       <c r="AZ83" t="n">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="BA83" t="n">
-        <v>795</v>
+        <v>777</v>
       </c>
       <c r="BB83" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="BC83" t="n">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="BD83" t="n">
         <v>492</v>
       </c>
       <c r="BE83" t="n">
-        <v>831</v>
+        <v>820</v>
       </c>
       <c r="BF83" t="n">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="BG83" t="n">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="BH83" t="n">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="BI83" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="BJ83" t="n">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="BK83" t="n">
-        <v>1327</v>
+        <v>1316</v>
       </c>
       <c r="BL83" t="n">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="BM83" t="n">
-        <v>594</v>
+        <v>582</v>
       </c>
       <c r="BN83" t="n">
         <v>829</v>
       </c>
       <c r="BO83" t="n">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="BP83" t="n">
         <v>401</v>
       </c>
       <c r="BQ83" t="n">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="BR83" t="n">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="BT83" t="n">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="BU83" t="n">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="BV83" t="n">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="BX83" t="n">
         <v>22</v>

--- a/Data/branch_wise_aging_stock.xlsx
+++ b/Data/branch_wise_aging_stock.xlsx
@@ -1013,34 +1013,34 @@
         <v>116</v>
       </c>
       <c r="AS2" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AT2" t="n">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AU2" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AV2" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AW2" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AX2" t="n">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AY2" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AZ2" t="n">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="BA2" t="n">
         <v>236</v>
       </c>
       <c r="BB2" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BC2" t="n">
         <v>294</v>
@@ -1052,19 +1052,19 @@
         <v>44</v>
       </c>
       <c r="BF2" t="n">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="BG2" t="n">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="BH2" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI2" t="n">
         <v>145</v>
       </c>
       <c r="BJ2" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="BK2" t="n">
         <v>208</v>
@@ -1088,13 +1088,13 @@
         <v>196</v>
       </c>
       <c r="BR2" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="BT2" t="n">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="BU2" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BV2" t="n">
         <v>173</v>
@@ -1286,7 +1286,7 @@
         </is>
       </c>
       <c r="AQ3" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AR3" t="n">
         <v>176</v>
@@ -1295,13 +1295,13 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="AU3" t="n">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AV3" t="n">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AW3" t="n">
         <v>161</v>
@@ -1310,19 +1310,19 @@
         <v>169</v>
       </c>
       <c r="AY3" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AZ3" t="n">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="BB3" t="n">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="BC3" t="n">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="BD3" t="n">
         <v>204</v>
@@ -1331,46 +1331,46 @@
         <v>186</v>
       </c>
       <c r="BF3" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="BG3" t="n">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="BH3" t="n">
-        <v>251</v>
+        <v>194</v>
       </c>
       <c r="BI3" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="BJ3" t="n">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="BK3" t="n">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="BL3" t="n">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="BM3" t="n">
         <v>124</v>
       </c>
       <c r="BN3" t="n">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="BO3" t="n">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="BP3" t="n">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="BQ3" t="n">
         <v>146</v>
       </c>
       <c r="BR3" t="n">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="BT3" t="n">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="BU3" t="n">
         <v>154</v>
@@ -1583,13 +1583,13 @@
         <v>144</v>
       </c>
       <c r="AW4" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AX4" t="n">
         <v>47</v>
       </c>
       <c r="AY4" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AZ4" t="n">
         <v>48</v>
@@ -1598,7 +1598,7 @@
         <v>47</v>
       </c>
       <c r="BB4" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="BC4" t="n">
         <v>171</v>
@@ -1610,13 +1610,13 @@
         <v>48</v>
       </c>
       <c r="BF4" t="n">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="BG4" t="n">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="BH4" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="BI4" t="n">
         <v>48</v>
@@ -1628,28 +1628,28 @@
         <v>50</v>
       </c>
       <c r="BL4" t="n">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="BM4" t="n">
         <v>92</v>
       </c>
       <c r="BN4" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="BO4" t="n">
         <v>99</v>
       </c>
       <c r="BP4" t="n">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="BQ4" t="n">
         <v>47</v>
       </c>
       <c r="BR4" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BT4" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="BU4" t="n">
         <v>92</v>
@@ -1892,7 +1892,7 @@
         <v>20</v>
       </c>
       <c r="BG5" t="n">
-        <v>1522</v>
+        <v>1519</v>
       </c>
       <c r="BH5" t="n">
         <v>120</v>
@@ -2141,7 +2141,7 @@
         <v>31</v>
       </c>
       <c r="AW6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX6" t="n">
         <v>4</v>
@@ -2168,10 +2168,10 @@
         <v>10</v>
       </c>
       <c r="BF6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BG6" t="n">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="BH6" t="n">
         <v>7</v>
@@ -2189,7 +2189,7 @@
         <v>60</v>
       </c>
       <c r="BM6" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BN6" t="n">
         <v>10</v>
@@ -2368,10 +2368,10 @@
         <v>1</v>
       </c>
       <c r="AS7" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="AT7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>27</v>
@@ -2389,10 +2389,10 @@
         <v>19</v>
       </c>
       <c r="BF7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BG7" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="BH7" t="n">
         <v>39</v>
@@ -2404,7 +2404,7 @@
         <v>47</v>
       </c>
       <c r="BK7" t="n">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="BL7" t="n">
         <v>72</v>
@@ -2413,13 +2413,13 @@
         <v>34</v>
       </c>
       <c r="BN7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BO7" t="n">
         <v>57</v>
       </c>
       <c r="BP7" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="BQ7" t="n">
         <v>42</v>
@@ -2428,7 +2428,7 @@
         <v>41</v>
       </c>
       <c r="BV7" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8">
@@ -2617,97 +2617,97 @@
         </is>
       </c>
       <c r="AQ8" t="n">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AR8" t="n">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="AS8" t="n">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="AT8" t="n">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="AU8" t="n">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AV8" t="n">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="AW8" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AX8" t="n">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="AY8" t="n">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="AZ8" t="n">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="BA8" t="n">
+        <v>154</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>242</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>281</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>179</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>113</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>245</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>430</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>353</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>195</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>457</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>141</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>230</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>268</v>
+      </c>
+      <c r="BN8" t="n">
         <v>159</v>
       </c>
-      <c r="BB8" t="n">
+      <c r="BO8" t="n">
+        <v>167</v>
+      </c>
+      <c r="BP8" t="n">
         <v>248</v>
       </c>
-      <c r="BC8" t="n">
-        <v>287</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>181</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>116</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>254</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>467</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>387</v>
-      </c>
-      <c r="BI8" t="n">
-        <v>197</v>
-      </c>
-      <c r="BJ8" t="n">
-        <v>495</v>
-      </c>
-      <c r="BK8" t="n">
-        <v>153</v>
-      </c>
-      <c r="BL8" t="n">
-        <v>242</v>
-      </c>
-      <c r="BM8" t="n">
-        <v>271</v>
-      </c>
-      <c r="BN8" t="n">
-        <v>160</v>
-      </c>
-      <c r="BO8" t="n">
-        <v>181</v>
-      </c>
-      <c r="BP8" t="n">
-        <v>262</v>
-      </c>
       <c r="BQ8" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="BR8" t="n">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="BT8" t="n">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="BU8" t="n">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="BV8" t="n">
-        <v>226</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9">
@@ -2774,102 +2774,97 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>Within 90 Days</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Within 90 Days</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
         <is>
           <t>Within 180 Days</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Within 90 Days</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>Within 90 Days</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Within 90 Days</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Within 90 Days</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Within 90 Days</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>Within 90 Days</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>Within 90 Days</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>Within 90 Days</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>Within 90 Days</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Within 90 Days</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>Within 90 Days</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>Within 90 Days</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
         <is>
           <t>Within 180 Days</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Within 90 Days</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>Within 90 Days</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>Within 90 Days</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>Within 90 Days</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>Within 90 Days</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>Within 90 Days</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>Within 90 Days</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>Within 90 Days</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>Within 90 Days</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Within 90 Days</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>Within 90 Days</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>Within 90 Days</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>Within 90 Days</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
+      <c r="AJ9" t="inlineStr">
         <is>
           <t>Within 180 Days</t>
-        </is>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>Within 90 Days</t>
         </is>
       </c>
       <c r="AN9" t="n">
@@ -2889,19 +2884,19 @@
         <v>90</v>
       </c>
       <c r="AR9" t="n">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AS9" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AT9" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AU9" t="n">
-        <v>272</v>
+        <v>221</v>
       </c>
       <c r="AV9" t="n">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="AW9" t="n">
         <v>100</v>
@@ -2913,64 +2908,61 @@
         <v>57</v>
       </c>
       <c r="AZ9" t="n">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="BA9" t="n">
         <v>39</v>
       </c>
       <c r="BB9" t="n">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="BC9" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="BD9" t="n">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="BE9" t="n">
         <v>85</v>
       </c>
       <c r="BG9" t="n">
-        <v>1833</v>
+        <v>1815</v>
       </c>
       <c r="BH9" t="n">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="BI9" t="n">
         <v>107</v>
       </c>
       <c r="BJ9" t="n">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="BK9" t="n">
+        <v>114</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>193</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>446</v>
+      </c>
+      <c r="BN9" t="n">
         <v>120</v>
       </c>
-      <c r="BL9" t="n">
-        <v>199</v>
-      </c>
-      <c r="BM9" t="n">
-        <v>445</v>
-      </c>
-      <c r="BN9" t="n">
-        <v>123</v>
-      </c>
       <c r="BO9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BP9" t="n">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="BQ9" t="n">
-        <v>22</v>
-      </c>
-      <c r="BR9" t="n">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="BT9" t="n">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="BV9" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10">
@@ -3159,40 +3151,40 @@
         </is>
       </c>
       <c r="AQ10" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="AR10" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AS10" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AT10" t="n">
         <v>69</v>
       </c>
       <c r="AU10" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AV10" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AW10" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AX10" t="n">
         <v>123</v>
       </c>
       <c r="AY10" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AZ10" t="n">
         <v>93</v>
       </c>
       <c r="BA10" t="n">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="BB10" t="n">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="BC10" t="n">
         <v>318</v>
@@ -3204,10 +3196,10 @@
         <v>35</v>
       </c>
       <c r="BF10" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BG10" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BH10" t="n">
         <v>144</v>
@@ -3219,19 +3211,19 @@
         <v>130</v>
       </c>
       <c r="BK10" t="n">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="BL10" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="BM10" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BN10" t="n">
         <v>125</v>
       </c>
       <c r="BO10" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BP10" t="n">
         <v>56</v>
@@ -3240,13 +3232,13 @@
         <v>37</v>
       </c>
       <c r="BR10" t="n">
+        <v>56</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>95</v>
+      </c>
+      <c r="BU10" t="n">
         <v>57</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>96</v>
-      </c>
-      <c r="BU10" t="n">
-        <v>59</v>
       </c>
       <c r="BV10" t="n">
         <v>252</v>
@@ -3439,7 +3431,7 @@
         <v>102</v>
       </c>
       <c r="AS11" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AT11" t="n">
         <v>129</v>
@@ -3451,25 +3443,25 @@
         <v>57</v>
       </c>
       <c r="AW11" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="AX11" t="n">
         <v>37</v>
       </c>
       <c r="AY11" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AZ11" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="BA11" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BB11" t="n">
         <v>40</v>
       </c>
       <c r="BC11" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BD11" t="n">
         <v>32</v>
@@ -3478,7 +3470,7 @@
         <v>105</v>
       </c>
       <c r="BF11" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="BG11" t="n">
         <v>132</v>
@@ -3505,10 +3497,10 @@
         <v>25</v>
       </c>
       <c r="BO11" t="n">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="BP11" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BQ11" t="n">
         <v>27</v>
@@ -3520,7 +3512,7 @@
         <v>96</v>
       </c>
       <c r="BV11" t="n">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
@@ -3650,19 +3642,19 @@
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="BG12" t="n">
         <v>1</v>
       </c>
       <c r="BJ12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BK12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BL12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BM12" t="n">
         <v>41</v>
@@ -3769,7 +3761,7 @@
         <v>4</v>
       </c>
       <c r="AY13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ13" t="n">
         <v>4</v>
@@ -3781,10 +3773,10 @@
         <v>5</v>
       </c>
       <c r="BF13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BK13" t="n">
         <v>10</v>
@@ -4018,97 +4010,97 @@
         </is>
       </c>
       <c r="AQ15" t="n">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="AR15" t="n">
-        <v>467</v>
+        <v>441</v>
       </c>
       <c r="AS15" t="n">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="AT15" t="n">
         <v>857</v>
       </c>
       <c r="AU15" t="n">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="AV15" t="n">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="AW15" t="n">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="AX15" t="n">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="AY15" t="n">
-        <v>969</v>
+        <v>941</v>
       </c>
       <c r="AZ15" t="n">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="BA15" t="n">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="BB15" t="n">
-        <v>1350</v>
+        <v>1333</v>
       </c>
       <c r="BC15" t="n">
-        <v>1352</v>
+        <v>1327</v>
       </c>
       <c r="BD15" t="n">
         <v>204</v>
       </c>
       <c r="BE15" t="n">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="BF15" t="n">
-        <v>672</v>
+        <v>656</v>
       </c>
       <c r="BG15" t="n">
-        <v>52366</v>
+        <v>52313</v>
       </c>
       <c r="BH15" t="n">
-        <v>5107</v>
+        <v>5074</v>
       </c>
       <c r="BI15" t="n">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="BJ15" t="n">
-        <v>4227</v>
+        <v>4193</v>
       </c>
       <c r="BK15" t="n">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="BL15" t="n">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="BM15" t="n">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="BN15" t="n">
-        <v>621</v>
+        <v>586</v>
       </c>
       <c r="BO15" t="n">
-        <v>812</v>
+        <v>787</v>
       </c>
       <c r="BP15" t="n">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="BQ15" t="n">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="BR15" t="n">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="BT15" t="n">
         <v>1066</v>
       </c>
       <c r="BU15" t="n">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="BV15" t="n">
-        <v>1733</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="16">
@@ -4576,10 +4568,10 @@
         </is>
       </c>
       <c r="AQ17" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AR17" t="n">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="AS17" t="n">
         <v>102</v>
@@ -4600,7 +4592,7 @@
         <v>30</v>
       </c>
       <c r="AY17" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AZ17" t="n">
         <v>182</v>
@@ -4609,10 +4601,10 @@
         <v>66</v>
       </c>
       <c r="BB17" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BC17" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BD17" t="n">
         <v>49</v>
@@ -4621,10 +4613,10 @@
         <v>80</v>
       </c>
       <c r="BF17" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BG17" t="n">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="BH17" t="n">
         <v>87</v>
@@ -4645,19 +4637,19 @@
         <v>174</v>
       </c>
       <c r="BN17" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BO17" t="n">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="BP17" t="n">
         <v>181</v>
       </c>
       <c r="BQ17" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="BR17" t="n">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="BT17" t="n">
         <v>91</v>
@@ -4876,22 +4868,22 @@
         <v>163</v>
       </c>
       <c r="AX18" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AY18" t="n">
+        <v>139</v>
+      </c>
+      <c r="AZ18" t="n">
         <v>146</v>
       </c>
-      <c r="AZ18" t="n">
-        <v>149</v>
-      </c>
       <c r="BA18" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="BB18" t="n">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="BC18" t="n">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="BD18" t="n">
         <v>65</v>
@@ -4900,40 +4892,40 @@
         <v>143</v>
       </c>
       <c r="BF18" t="n">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="BG18" t="n">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="BH18" t="n">
-        <v>382</v>
+        <v>276</v>
       </c>
       <c r="BI18" t="n">
         <v>107</v>
       </c>
       <c r="BJ18" t="n">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BK18" t="n">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="BL18" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BM18" t="n">
         <v>152</v>
       </c>
       <c r="BN18" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="BO18" t="n">
         <v>166</v>
       </c>
       <c r="BP18" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="BQ18" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="BR18" t="n">
         <v>93</v>
@@ -4945,7 +4937,7 @@
         <v>106</v>
       </c>
       <c r="BV18" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19">
@@ -5134,43 +5126,43 @@
         </is>
       </c>
       <c r="AQ19" t="n">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AR19" t="n">
-        <v>879</v>
+        <v>851</v>
       </c>
       <c r="AS19" t="n">
-        <v>1660</v>
+        <v>1653</v>
       </c>
       <c r="AT19" t="n">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AU19" t="n">
-        <v>516</v>
+        <v>363</v>
       </c>
       <c r="AV19" t="n">
-        <v>512</v>
+        <v>501</v>
       </c>
       <c r="AW19" t="n">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="AX19" t="n">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AY19" t="n">
-        <v>505</v>
+        <v>479</v>
       </c>
       <c r="AZ19" t="n">
-        <v>184</v>
+        <v>159</v>
       </c>
       <c r="BA19" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="BB19" t="n">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="BC19" t="n">
-        <v>460</v>
+        <v>431</v>
       </c>
       <c r="BD19" t="n">
         <v>408</v>
@@ -5179,52 +5171,52 @@
         <v>257</v>
       </c>
       <c r="BF19" t="n">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="BG19" t="n">
-        <v>5363</v>
+        <v>5307</v>
       </c>
       <c r="BH19" t="n">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="BI19" t="n">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="BJ19" t="n">
-        <v>1918</v>
+        <v>1911</v>
       </c>
       <c r="BK19" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="BL19" t="n">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="BM19" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="BN19" t="n">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="BO19" t="n">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="BP19" t="n">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="BQ19" t="n">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="BR19" t="n">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="BT19" t="n">
-        <v>444</v>
+        <v>584</v>
       </c>
       <c r="BU19" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="BV19" t="n">
-        <v>294</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20">
@@ -5413,97 +5405,97 @@
         </is>
       </c>
       <c r="AQ20" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AR20" t="n">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AS20" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AT20" t="n">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AU20" t="n">
         <v>61</v>
       </c>
       <c r="AV20" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AW20" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AX20" t="n">
         <v>110</v>
       </c>
       <c r="AY20" t="n">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AZ20" t="n">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="BA20" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="BB20" t="n">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="BC20" t="n">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="BD20" t="n">
         <v>117</v>
       </c>
       <c r="BE20" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="BF20" t="n">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="BG20" t="n">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="BH20" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="BI20" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="BJ20" t="n">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="BK20" t="n">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="BL20" t="n">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="BM20" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BN20" t="n">
         <v>87</v>
       </c>
       <c r="BO20" t="n">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="BP20" t="n">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="BQ20" t="n">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="BR20" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="BT20" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="BU20" t="n">
         <v>27</v>
       </c>
       <c r="BV20" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
@@ -5692,7 +5684,7 @@
         </is>
       </c>
       <c r="AQ21" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AR21" t="n">
         <v>317</v>
@@ -5704,40 +5696,40 @@
         <v>355</v>
       </c>
       <c r="AU21" t="n">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AV21" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AW21" t="n">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="AX21" t="n">
         <v>236</v>
       </c>
       <c r="AY21" t="n">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="AZ21" t="n">
         <v>205</v>
       </c>
       <c r="BA21" t="n">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="BB21" t="n">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="BC21" t="n">
         <v>620</v>
       </c>
       <c r="BD21" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="BE21" t="n">
         <v>365</v>
       </c>
       <c r="BF21" t="n">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="BG21" t="n">
         <v>2604</v>
@@ -5749,13 +5741,13 @@
         <v>178</v>
       </c>
       <c r="BJ21" t="n">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="BK21" t="n">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="BL21" t="n">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="BM21" t="n">
         <v>135</v>
@@ -5764,10 +5756,10 @@
         <v>208</v>
       </c>
       <c r="BO21" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="BP21" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="BQ21" t="n">
         <v>294</v>
@@ -5779,7 +5771,7 @@
         <v>215</v>
       </c>
       <c r="BU21" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="BV21" t="n">
         <v>210</v>

--- a/Data/branch_wise_aging_stock.xlsx
+++ b/Data/branch_wise_aging_stock.xlsx
@@ -992,19 +992,19 @@
         </is>
       </c>
       <c r="AQ2" t="n">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="AR2" t="n">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AS2" t="n">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AT2" t="n">
         <v>260</v>
       </c>
       <c r="AU2" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="AV2" t="n">
         <v>166</v>
@@ -1016,16 +1016,16 @@
         <v>124</v>
       </c>
       <c r="AY2" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="AZ2" t="n">
         <v>64</v>
       </c>
       <c r="BB2" t="n">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="BC2" t="n">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="BD2" t="n">
         <v>38</v>
@@ -1037,22 +1037,22 @@
         <v>103</v>
       </c>
       <c r="BH2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BI2" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="BJ2" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="BK2" t="n">
         <v>145</v>
       </c>
       <c r="BL2" t="n">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="BM2" t="n">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="BN2" t="n">
         <v>23</v>
@@ -1061,19 +1061,19 @@
         <v>117</v>
       </c>
       <c r="BP2" t="n">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="BQ2" t="n">
         <v>87</v>
       </c>
       <c r="BR2" t="n">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="BT2" t="n">
-        <v>133</v>
+        <v>78</v>
       </c>
       <c r="BU2" t="n">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3">
@@ -1168,11 +1168,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V3" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -1252,91 +1247,88 @@
         </is>
       </c>
       <c r="AQ3" t="n">
-        <v>3253</v>
+        <v>3169</v>
       </c>
       <c r="AR3" t="n">
-        <v>4217</v>
+        <v>4046</v>
       </c>
       <c r="AS3" t="n">
-        <v>2435</v>
+        <v>2331</v>
       </c>
       <c r="AT3" t="n">
-        <v>1108</v>
+        <v>1211</v>
       </c>
       <c r="AU3" t="n">
-        <v>3413</v>
+        <v>3310</v>
       </c>
       <c r="AV3" t="n">
-        <v>1841</v>
+        <v>2200</v>
       </c>
       <c r="AW3" t="n">
-        <v>1180</v>
+        <v>1640</v>
       </c>
       <c r="AX3" t="n">
-        <v>2382</v>
+        <v>2250</v>
       </c>
       <c r="AY3" t="n">
-        <v>3869</v>
+        <v>3745</v>
       </c>
       <c r="AZ3" t="n">
-        <v>1327</v>
+        <v>1265</v>
       </c>
       <c r="BB3" t="n">
-        <v>2199</v>
+        <v>2110</v>
       </c>
       <c r="BC3" t="n">
-        <v>2575</v>
+        <v>2506</v>
       </c>
       <c r="BD3" t="n">
-        <v>1969</v>
+        <v>2472</v>
       </c>
       <c r="BE3" t="n">
-        <v>2348</v>
+        <v>2290</v>
       </c>
       <c r="BF3" t="n">
-        <v>1903</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>280</v>
+        <v>2317</v>
       </c>
       <c r="BH3" t="n">
-        <v>1743</v>
+        <v>2249</v>
       </c>
       <c r="BI3" t="n">
-        <v>2129</v>
+        <v>2010</v>
       </c>
       <c r="BJ3" t="n">
-        <v>2620</v>
+        <v>2550</v>
       </c>
       <c r="BK3" t="n">
-        <v>2077</v>
+        <v>2014</v>
       </c>
       <c r="BL3" t="n">
-        <v>1449</v>
+        <v>1894</v>
       </c>
       <c r="BM3" t="n">
-        <v>2128</v>
+        <v>2012</v>
       </c>
       <c r="BN3" t="n">
-        <v>3256</v>
+        <v>3207</v>
       </c>
       <c r="BO3" t="n">
-        <v>2923</v>
+        <v>2840</v>
       </c>
       <c r="BP3" t="n">
-        <v>3082</v>
+        <v>2979</v>
       </c>
       <c r="BQ3" t="n">
-        <v>2108</v>
+        <v>3415</v>
       </c>
       <c r="BR3" t="n">
-        <v>901</v>
+        <v>823</v>
       </c>
       <c r="BT3" t="n">
-        <v>2378</v>
+        <v>2228</v>
       </c>
       <c r="BU3" t="n">
-        <v>1926</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="4">
@@ -1549,88 +1541,88 @@
         </is>
       </c>
       <c r="AQ5" t="n">
-        <v>1746</v>
+        <v>1607</v>
       </c>
       <c r="AR5" t="n">
-        <v>1068</v>
+        <v>887</v>
       </c>
       <c r="AS5" t="n">
-        <v>1046</v>
+        <v>931</v>
       </c>
       <c r="AT5" t="n">
-        <v>1665</v>
+        <v>1620</v>
       </c>
       <c r="AU5" t="n">
-        <v>1003</v>
+        <v>923</v>
       </c>
       <c r="AV5" t="n">
-        <v>1454</v>
+        <v>1313</v>
       </c>
       <c r="AW5" t="n">
-        <v>999</v>
+        <v>926</v>
       </c>
       <c r="AX5" t="n">
-        <v>2533</v>
+        <v>2438</v>
       </c>
       <c r="AY5" t="n">
-        <v>1573</v>
+        <v>1483</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1771</v>
+        <v>1675</v>
       </c>
       <c r="BB5" t="n">
-        <v>4580</v>
+        <v>4499</v>
       </c>
       <c r="BC5" t="n">
-        <v>3550</v>
+        <v>3439</v>
       </c>
       <c r="BD5" t="n">
-        <v>2198</v>
+        <v>2126</v>
       </c>
       <c r="BE5" t="n">
-        <v>2497</v>
+        <v>2405</v>
       </c>
       <c r="BF5" t="n">
-        <v>2513</v>
+        <v>2421</v>
       </c>
       <c r="BH5" t="n">
-        <v>573</v>
+        <v>471</v>
       </c>
       <c r="BI5" t="n">
-        <v>3187</v>
+        <v>3103</v>
       </c>
       <c r="BJ5" t="n">
-        <v>1067</v>
+        <v>943</v>
       </c>
       <c r="BK5" t="n">
-        <v>1515</v>
+        <v>1366</v>
       </c>
       <c r="BL5" t="n">
-        <v>1486</v>
+        <v>1352</v>
       </c>
       <c r="BM5" t="n">
-        <v>3359</v>
+        <v>3317</v>
       </c>
       <c r="BN5" t="n">
-        <v>1627</v>
+        <v>1580</v>
       </c>
       <c r="BO5" t="n">
-        <v>1344</v>
+        <v>1218</v>
       </c>
       <c r="BP5" t="n">
-        <v>2143</v>
+        <v>2000</v>
       </c>
       <c r="BQ5" t="n">
-        <v>1836</v>
+        <v>1740</v>
       </c>
       <c r="BR5" t="n">
-        <v>1658</v>
+        <v>1536</v>
       </c>
       <c r="BT5" t="n">
-        <v>3585</v>
+        <v>3447</v>
       </c>
       <c r="BU5" t="n">
-        <v>2020</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="6">
@@ -1725,11 +1717,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V6" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -1809,91 +1796,88 @@
         </is>
       </c>
       <c r="AQ6" t="n">
-        <v>403</v>
+        <v>518</v>
       </c>
       <c r="AR6" t="n">
-        <v>167</v>
+        <v>33</v>
       </c>
       <c r="AS6" t="n">
-        <v>345</v>
+        <v>287</v>
       </c>
       <c r="AT6" t="n">
-        <v>415</v>
+        <v>671</v>
       </c>
       <c r="AU6" t="n">
-        <v>736</v>
+        <v>716</v>
       </c>
       <c r="AV6" t="n">
-        <v>439</v>
+        <v>390</v>
       </c>
       <c r="AW6" t="n">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="AX6" t="n">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="AY6" t="n">
-        <v>217</v>
+        <v>90</v>
       </c>
       <c r="AZ6" t="n">
-        <v>438</v>
+        <v>569</v>
       </c>
       <c r="BB6" t="n">
-        <v>479</v>
+        <v>272</v>
       </c>
       <c r="BC6" t="n">
-        <v>217</v>
+        <v>455</v>
       </c>
       <c r="BD6" t="n">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="BE6" t="n">
-        <v>635</v>
+        <v>915</v>
       </c>
       <c r="BF6" t="n">
-        <v>447</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>4800</v>
+        <v>298</v>
       </c>
       <c r="BH6" t="n">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="BI6" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="BJ6" t="n">
-        <v>342</v>
+        <v>466</v>
       </c>
       <c r="BK6" t="n">
-        <v>209</v>
+        <v>475</v>
       </c>
       <c r="BL6" t="n">
-        <v>781</v>
+        <v>875</v>
       </c>
       <c r="BM6" t="n">
-        <v>401</v>
+        <v>681</v>
       </c>
       <c r="BN6" t="n">
-        <v>440</v>
+        <v>348</v>
       </c>
       <c r="BO6" t="n">
-        <v>647</v>
+        <v>613</v>
       </c>
       <c r="BP6" t="n">
-        <v>837</v>
+        <v>1460</v>
       </c>
       <c r="BQ6" t="n">
-        <v>597</v>
+        <v>745</v>
       </c>
       <c r="BR6" t="n">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="BT6" t="n">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="BU6" t="n">
-        <v>111</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7">
@@ -1988,11 +1972,6 @@
           <t>Within 90 Days</t>
         </is>
       </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V7" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -2072,91 +2051,88 @@
         </is>
       </c>
       <c r="AQ7" t="n">
-        <v>4139</v>
+        <v>6103</v>
       </c>
       <c r="AR7" t="n">
-        <v>4019</v>
+        <v>3651</v>
       </c>
       <c r="AS7" t="n">
-        <v>3982</v>
+        <v>3797</v>
       </c>
       <c r="AT7" t="n">
-        <v>6252</v>
+        <v>6102</v>
       </c>
       <c r="AU7" t="n">
-        <v>6156</v>
+        <v>6131</v>
       </c>
       <c r="AV7" t="n">
-        <v>3413</v>
+        <v>4472</v>
       </c>
       <c r="AW7" t="n">
-        <v>4802</v>
+        <v>5786</v>
       </c>
       <c r="AX7" t="n">
-        <v>3216</v>
+        <v>3170</v>
       </c>
       <c r="AY7" t="n">
-        <v>2679</v>
+        <v>2359</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2467</v>
+        <v>2455</v>
       </c>
       <c r="BB7" t="n">
-        <v>4061</v>
+        <v>3746</v>
       </c>
       <c r="BC7" t="n">
-        <v>5412</v>
+        <v>5282</v>
       </c>
       <c r="BD7" t="n">
-        <v>2738</v>
+        <v>4732</v>
       </c>
       <c r="BE7" t="n">
-        <v>957</v>
+        <v>817</v>
       </c>
       <c r="BF7" t="n">
-        <v>16190</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>4032</v>
+        <v>19837</v>
       </c>
       <c r="BH7" t="n">
         <v>1947</v>
       </c>
       <c r="BI7" t="n">
-        <v>2543</v>
+        <v>2428</v>
       </c>
       <c r="BJ7" t="n">
-        <v>1507</v>
+        <v>4371</v>
       </c>
       <c r="BK7" t="n">
-        <v>2400</v>
+        <v>2265</v>
       </c>
       <c r="BL7" t="n">
-        <v>1499</v>
+        <v>5624</v>
       </c>
       <c r="BM7" t="n">
-        <v>3186</v>
+        <v>3096</v>
       </c>
       <c r="BN7" t="n">
-        <v>3085</v>
+        <v>3015</v>
       </c>
       <c r="BO7" t="n">
-        <v>5063</v>
+        <v>3183</v>
       </c>
       <c r="BP7" t="n">
-        <v>6455</v>
+        <v>5925</v>
       </c>
       <c r="BQ7" t="n">
-        <v>9318</v>
+        <v>9203</v>
       </c>
       <c r="BR7" t="n">
-        <v>2238</v>
+        <v>2080</v>
       </c>
       <c r="BT7" t="n">
-        <v>2847</v>
+        <v>2755</v>
       </c>
       <c r="BU7" t="n">
-        <v>4344</v>
+        <v>4257</v>
       </c>
     </row>
     <row r="8">
@@ -2251,11 +2227,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V8" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -2335,91 +2306,88 @@
         </is>
       </c>
       <c r="AQ8" t="n">
-        <v>605</v>
+        <v>560</v>
       </c>
       <c r="AR8" t="n">
-        <v>624</v>
+        <v>560</v>
       </c>
       <c r="AS8" t="n">
-        <v>722</v>
+        <v>706</v>
       </c>
       <c r="AT8" t="n">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="AU8" t="n">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="AV8" t="n">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="AW8" t="n">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="AX8" t="n">
-        <v>1615</v>
+        <v>1596</v>
       </c>
       <c r="AY8" t="n">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="AZ8" t="n">
-        <v>1338</v>
+        <v>1330</v>
       </c>
       <c r="BB8" t="n">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="BC8" t="n">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="BD8" t="n">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="BE8" t="n">
-        <v>417</v>
+        <v>381</v>
       </c>
       <c r="BF8" t="n">
-        <v>868</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>117</v>
+        <v>856</v>
       </c>
       <c r="BH8" t="n">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="BI8" t="n">
-        <v>845</v>
+        <v>830</v>
       </c>
       <c r="BJ8" t="n">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="BK8" t="n">
-        <v>623</v>
+        <v>575</v>
       </c>
       <c r="BL8" t="n">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="BM8" t="n">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="BN8" t="n">
-        <v>792</v>
+        <v>782</v>
       </c>
       <c r="BO8" t="n">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="BP8" t="n">
-        <v>653</v>
+        <v>637</v>
       </c>
       <c r="BQ8" t="n">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="BR8" t="n">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="BT8" t="n">
-        <v>699</v>
+        <v>671</v>
       </c>
       <c r="BU8" t="n">
-        <v>357</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9">
@@ -2459,7 +2427,7 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
@@ -2479,16 +2447,16 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="R9" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -2509,11 +2477,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="X9" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -2545,11 +2508,6 @@
         </is>
       </c>
       <c r="AD9" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
@@ -2583,82 +2541,76 @@
         </is>
       </c>
       <c r="AQ9" t="n">
-        <v>292</v>
+        <v>172</v>
       </c>
       <c r="AR9" t="n">
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>251</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>188</v>
+        <v>171</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>90</v>
       </c>
       <c r="AW9" t="n">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="AX9" t="n">
-        <v>185</v>
+        <v>58</v>
       </c>
       <c r="AY9" t="n">
-        <v>309</v>
+        <v>159</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>33</v>
       </c>
       <c r="BB9" t="n">
-        <v>119</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="BD9" t="n">
-        <v>345</v>
+        <v>202</v>
       </c>
       <c r="BE9" t="n">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="BF9" t="n">
-        <v>307</v>
+        <v>212</v>
       </c>
       <c r="BH9" t="n">
-        <v>71</v>
-      </c>
-      <c r="BI9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BJ9" t="n">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="BK9" t="n">
-        <v>224</v>
+        <v>93</v>
       </c>
       <c r="BL9" t="n">
-        <v>206</v>
+        <v>58</v>
       </c>
       <c r="BM9" t="n">
-        <v>389</v>
+        <v>173</v>
       </c>
       <c r="BN9" t="n">
-        <v>354</v>
+        <v>258</v>
       </c>
       <c r="BO9" t="n">
-        <v>314</v>
+        <v>157</v>
       </c>
       <c r="BP9" t="n">
-        <v>319</v>
-      </c>
-      <c r="BQ9" t="n">
-        <v>101</v>
+        <v>210</v>
       </c>
       <c r="BR9" t="n">
-        <v>195</v>
+        <v>5</v>
       </c>
       <c r="BT9" t="n">
-        <v>352</v>
+        <v>29</v>
       </c>
       <c r="BU9" t="n">
-        <v>312</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10">
@@ -2753,11 +2705,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V10" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -2837,91 +2784,88 @@
         </is>
       </c>
       <c r="AQ10" t="n">
+        <v>126</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>231</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>117</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>115</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>124</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>115</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>138</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>63</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>255</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>224</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>272</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>279</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>295</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>139</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>197</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>180</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>135</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>212</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>191</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>287</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>240</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>156</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>208</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>268</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>99</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>114</v>
+      </c>
+      <c r="BT10" t="n">
         <v>132</v>
       </c>
-      <c r="AR10" t="n">
-        <v>118</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>147</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>126</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>130</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>122</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>140</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>95</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>267</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>59</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>322</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>249</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>303</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>3</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>209</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>540</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>204</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>154</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>243</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>182</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>323</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>203</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>66</v>
-      </c>
-      <c r="BO10" t="n">
-        <v>218</v>
-      </c>
-      <c r="BP10" t="n">
-        <v>153</v>
-      </c>
-      <c r="BQ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="BR10" t="n">
-        <v>123</v>
-      </c>
-      <c r="BT10" t="n">
-        <v>162</v>
-      </c>
       <c r="BU10" t="n">
-        <v>202</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11">
@@ -3016,11 +2960,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V11" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -3100,91 +3039,88 @@
         </is>
       </c>
       <c r="AQ11" t="n">
-        <v>7423</v>
+        <v>7773</v>
       </c>
       <c r="AR11" t="n">
-        <v>5997</v>
+        <v>5940</v>
       </c>
       <c r="AS11" t="n">
-        <v>9336</v>
+        <v>9156</v>
       </c>
       <c r="AT11" t="n">
-        <v>7422</v>
+        <v>7151</v>
       </c>
       <c r="AU11" t="n">
-        <v>5927</v>
+        <v>5528</v>
       </c>
       <c r="AV11" t="n">
-        <v>10470</v>
+        <v>10137</v>
       </c>
       <c r="AW11" t="n">
-        <v>5244</v>
+        <v>5164</v>
       </c>
       <c r="AX11" t="n">
-        <v>6508</v>
+        <v>6335</v>
       </c>
       <c r="AY11" t="n">
-        <v>5372</v>
+        <v>5220</v>
       </c>
       <c r="AZ11" t="n">
-        <v>5667</v>
+        <v>5474</v>
       </c>
       <c r="BB11" t="n">
-        <v>3290</v>
+        <v>3218</v>
       </c>
       <c r="BC11" t="n">
-        <v>3352</v>
+        <v>3680</v>
       </c>
       <c r="BD11" t="n">
-        <v>4324</v>
+        <v>4212</v>
       </c>
       <c r="BE11" t="n">
-        <v>3487</v>
+        <v>3196</v>
       </c>
       <c r="BF11" t="n">
-        <v>5333</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>8910</v>
+        <v>5191</v>
       </c>
       <c r="BH11" t="n">
-        <v>3143</v>
+        <v>3070</v>
       </c>
       <c r="BI11" t="n">
-        <v>6821</v>
+        <v>6542</v>
       </c>
       <c r="BJ11" t="n">
-        <v>2096</v>
+        <v>1963</v>
       </c>
       <c r="BK11" t="n">
-        <v>5772</v>
+        <v>6045</v>
       </c>
       <c r="BL11" t="n">
-        <v>8928</v>
+        <v>8488</v>
       </c>
       <c r="BM11" t="n">
-        <v>12217</v>
+        <v>11969</v>
       </c>
       <c r="BN11" t="n">
-        <v>2224</v>
+        <v>2742</v>
       </c>
       <c r="BO11" t="n">
-        <v>5904</v>
+        <v>5704</v>
       </c>
       <c r="BP11" t="n">
-        <v>4948</v>
+        <v>4793</v>
       </c>
       <c r="BQ11" t="n">
-        <v>5561</v>
+        <v>5345</v>
       </c>
       <c r="BR11" t="n">
-        <v>6407</v>
+        <v>6314</v>
       </c>
       <c r="BT11" t="n">
-        <v>10971</v>
+        <v>10676</v>
       </c>
       <c r="BU11" t="n">
-        <v>7012</v>
+        <v>6717</v>
       </c>
     </row>
     <row r="12">
@@ -3358,88 +3294,88 @@
         </is>
       </c>
       <c r="AQ12" t="n">
-        <v>669</v>
+        <v>619</v>
       </c>
       <c r="AR12" t="n">
-        <v>1098</v>
+        <v>1064</v>
       </c>
       <c r="AS12" t="n">
-        <v>1235</v>
+        <v>1194</v>
       </c>
       <c r="AT12" t="n">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="AU12" t="n">
-        <v>769</v>
+        <v>695</v>
       </c>
       <c r="AV12" t="n">
-        <v>1169</v>
+        <v>996</v>
       </c>
       <c r="AW12" t="n">
-        <v>689</v>
+        <v>666</v>
       </c>
       <c r="AX12" t="n">
-        <v>1199</v>
+        <v>1141</v>
       </c>
       <c r="AY12" t="n">
-        <v>825</v>
+        <v>776</v>
       </c>
       <c r="AZ12" t="n">
-        <v>1111</v>
+        <v>1060</v>
       </c>
       <c r="BB12" t="n">
-        <v>442</v>
+        <v>401</v>
       </c>
       <c r="BC12" t="n">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="BD12" t="n">
-        <v>707</v>
+        <v>665</v>
       </c>
       <c r="BE12" t="n">
-        <v>1077</v>
+        <v>1036</v>
       </c>
       <c r="BF12" t="n">
-        <v>732</v>
+        <v>706</v>
       </c>
       <c r="BH12" t="n">
-        <v>1569</v>
+        <v>1506</v>
       </c>
       <c r="BI12" t="n">
-        <v>885</v>
+        <v>855</v>
       </c>
       <c r="BJ12" t="n">
-        <v>1195</v>
+        <v>1081</v>
       </c>
       <c r="BK12" t="n">
-        <v>778</v>
+        <v>750</v>
       </c>
       <c r="BL12" t="n">
-        <v>1067</v>
+        <v>1011</v>
       </c>
       <c r="BM12" t="n">
-        <v>1007</v>
+        <v>952</v>
       </c>
       <c r="BN12" t="n">
-        <v>911</v>
+        <v>882</v>
       </c>
       <c r="BO12" t="n">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="BP12" t="n">
-        <v>1095</v>
+        <v>1012</v>
       </c>
       <c r="BQ12" t="n">
-        <v>451</v>
+        <v>372</v>
       </c>
       <c r="BR12" t="n">
-        <v>1003</v>
+        <v>969</v>
       </c>
       <c r="BT12" t="n">
-        <v>1543</v>
+        <v>1457</v>
       </c>
       <c r="BU12" t="n">
-        <v>561</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13">
@@ -3613,88 +3549,88 @@
         </is>
       </c>
       <c r="AQ13" t="n">
-        <v>2083</v>
+        <v>2053</v>
       </c>
       <c r="AR13" t="n">
-        <v>1754</v>
+        <v>1649</v>
       </c>
       <c r="AS13" t="n">
-        <v>2378</v>
+        <v>2355</v>
       </c>
       <c r="AT13" t="n">
-        <v>932</v>
+        <v>911</v>
       </c>
       <c r="AU13" t="n">
-        <v>2123</v>
+        <v>2060</v>
       </c>
       <c r="AV13" t="n">
-        <v>1429</v>
+        <v>1340</v>
       </c>
       <c r="AW13" t="n">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="AX13" t="n">
-        <v>1121</v>
+        <v>1099</v>
       </c>
       <c r="AY13" t="n">
-        <v>1582</v>
+        <v>1564</v>
       </c>
       <c r="AZ13" t="n">
-        <v>1023</v>
+        <v>998</v>
       </c>
       <c r="BB13" t="n">
-        <v>1129</v>
+        <v>1116</v>
       </c>
       <c r="BC13" t="n">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="BD13" t="n">
-        <v>982</v>
+        <v>959</v>
       </c>
       <c r="BE13" t="n">
-        <v>1170</v>
+        <v>1139</v>
       </c>
       <c r="BF13" t="n">
-        <v>993</v>
+        <v>977</v>
       </c>
       <c r="BH13" t="n">
-        <v>1438</v>
+        <v>1409</v>
       </c>
       <c r="BI13" t="n">
-        <v>1564</v>
+        <v>1527</v>
       </c>
       <c r="BJ13" t="n">
-        <v>1469</v>
+        <v>1405</v>
       </c>
       <c r="BK13" t="n">
-        <v>1606</v>
+        <v>1590</v>
       </c>
       <c r="BL13" t="n">
-        <v>1275</v>
+        <v>1225</v>
       </c>
       <c r="BM13" t="n">
-        <v>1764</v>
+        <v>1639</v>
       </c>
       <c r="BN13" t="n">
-        <v>1040</v>
+        <v>1010</v>
       </c>
       <c r="BO13" t="n">
-        <v>2184</v>
+        <v>2163</v>
       </c>
       <c r="BP13" t="n">
-        <v>1565</v>
+        <v>1437</v>
       </c>
       <c r="BQ13" t="n">
-        <v>1110</v>
+        <v>1095</v>
       </c>
       <c r="BR13" t="n">
-        <v>2274</v>
+        <v>2255</v>
       </c>
       <c r="BT13" t="n">
-        <v>2080</v>
+        <v>1929</v>
       </c>
       <c r="BU13" t="n">
-        <v>1159</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="14">
@@ -3868,88 +3804,88 @@
         </is>
       </c>
       <c r="AQ14" t="n">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AR14" t="n">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="AS14" t="n">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AT14" t="n">
         <v>185</v>
       </c>
       <c r="AU14" t="n">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AV14" t="n">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="AW14" t="n">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="AX14" t="n">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="AY14" t="n">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="AZ14" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="BB14" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BC14" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BD14" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="BE14" t="n">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="BF14" t="n">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="BH14" t="n">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="BI14" t="n">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="BJ14" t="n">
-        <v>809</v>
+        <v>799</v>
       </c>
       <c r="BK14" t="n">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BL14" t="n">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="BM14" t="n">
+        <v>158</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>353</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>424</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>270</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>269</v>
+      </c>
+      <c r="BR14" t="n">
         <v>162</v>
       </c>
-      <c r="BN14" t="n">
-        <v>354</v>
-      </c>
-      <c r="BO14" t="n">
-        <v>432</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>277</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>271</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>164</v>
-      </c>
       <c r="BT14" t="n">
-        <v>617</v>
+        <v>590</v>
       </c>
       <c r="BU14" t="n">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
@@ -4123,88 +4059,88 @@
         </is>
       </c>
       <c r="AQ15" t="n">
-        <v>565</v>
+        <v>528</v>
       </c>
       <c r="AR15" t="n">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="AS15" t="n">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="AT15" t="n">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="AU15" t="n">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="AV15" t="n">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="AW15" t="n">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="AX15" t="n">
-        <v>329</v>
+        <v>303</v>
       </c>
       <c r="AY15" t="n">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="AZ15" t="n">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="BB15" t="n">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="BC15" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="BD15" t="n">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="BE15" t="n">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="BF15" t="n">
+        <v>443</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>611</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>288</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>782</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>715</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>495</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>346</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>350</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>492</v>
+      </c>
+      <c r="BP15" t="n">
         <v>455</v>
       </c>
-      <c r="BH15" t="n">
-        <v>648</v>
-      </c>
-      <c r="BI15" t="n">
-        <v>291</v>
-      </c>
-      <c r="BJ15" t="n">
-        <v>817</v>
-      </c>
-      <c r="BK15" t="n">
-        <v>735</v>
-      </c>
-      <c r="BL15" t="n">
-        <v>511</v>
-      </c>
-      <c r="BM15" t="n">
-        <v>374</v>
-      </c>
-      <c r="BN15" t="n">
-        <v>355</v>
-      </c>
-      <c r="BO15" t="n">
-        <v>543</v>
-      </c>
-      <c r="BP15" t="n">
-        <v>482</v>
-      </c>
       <c r="BQ15" t="n">
-        <v>559</v>
+        <v>518</v>
       </c>
       <c r="BR15" t="n">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="BT15" t="n">
-        <v>598</v>
+        <v>570</v>
       </c>
       <c r="BU15" t="n">
-        <v>465</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16">
@@ -4299,11 +4235,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V16" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -4383,91 +4314,88 @@
         </is>
       </c>
       <c r="AQ16" t="n">
-        <v>826</v>
+        <v>786</v>
       </c>
       <c r="AR16" t="n">
-        <v>851</v>
+        <v>983</v>
       </c>
       <c r="AS16" t="n">
-        <v>1055</v>
+        <v>1020</v>
       </c>
       <c r="AT16" t="n">
-        <v>960</v>
+        <v>936</v>
       </c>
       <c r="AU16" t="n">
-        <v>1768</v>
+        <v>1713</v>
       </c>
       <c r="AV16" t="n">
-        <v>1783</v>
+        <v>1699</v>
       </c>
       <c r="AW16" t="n">
+        <v>907</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>845</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>725</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>947</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>606</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>869</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>750</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>714</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>765</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>1136</v>
+      </c>
+      <c r="BI16" t="n">
         <v>932</v>
       </c>
-      <c r="AX16" t="n">
-        <v>913</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>757</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>974</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>643</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>893</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>783</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>757</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>800</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>432</v>
-      </c>
-      <c r="BH16" t="n">
-        <v>1186</v>
-      </c>
-      <c r="BI16" t="n">
-        <v>1018</v>
-      </c>
       <c r="BJ16" t="n">
-        <v>1617</v>
+        <v>1545</v>
       </c>
       <c r="BK16" t="n">
-        <v>1036</v>
+        <v>1006</v>
       </c>
       <c r="BL16" t="n">
-        <v>1497</v>
+        <v>1430</v>
       </c>
       <c r="BM16" t="n">
-        <v>1584</v>
+        <v>1479</v>
       </c>
       <c r="BN16" t="n">
-        <v>1134</v>
+        <v>1091</v>
       </c>
       <c r="BO16" t="n">
-        <v>1245</v>
+        <v>1223</v>
       </c>
       <c r="BP16" t="n">
-        <v>1178</v>
+        <v>1127</v>
       </c>
       <c r="BQ16" t="n">
-        <v>1026</v>
+        <v>984</v>
       </c>
       <c r="BR16" t="n">
-        <v>1021</v>
+        <v>987</v>
       </c>
       <c r="BT16" t="n">
-        <v>2357</v>
+        <v>2173</v>
       </c>
       <c r="BU16" t="n">
-        <v>1432</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="17">
@@ -4647,7 +4575,7 @@
         <v>62</v>
       </c>
       <c r="AS17" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AT17" t="n">
         <v>58</v>
@@ -4656,7 +4584,7 @@
         <v>95</v>
       </c>
       <c r="AV17" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AW17" t="n">
         <v>46</v>
@@ -4668,7 +4596,7 @@
         <v>27</v>
       </c>
       <c r="AZ17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB17" t="n">
         <v>74</v>
@@ -4689,10 +4617,10 @@
         <v>88</v>
       </c>
       <c r="BI17" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BJ17" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BK17" t="n">
         <v>41</v>
@@ -4704,10 +4632,10 @@
         <v>65</v>
       </c>
       <c r="BN17" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BO17" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="BP17" t="n">
         <v>68</v>
@@ -4827,11 +4755,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="Z18" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -4886,40 +4809,40 @@
         </is>
       </c>
       <c r="AQ18" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AR18" t="n">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="AS18" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AT18" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AU18" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AV18" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AW18" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AX18" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AY18" t="n">
         <v>25</v>
       </c>
       <c r="AZ18" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="BB18" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BC18" t="n">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="BD18" t="n">
         <v>13</v>
@@ -4928,40 +4851,37 @@
         <v>27</v>
       </c>
       <c r="BF18" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="BH18" t="n">
         <v>63</v>
       </c>
       <c r="BI18" t="n">
-        <v>12</v>
-      </c>
-      <c r="BK18" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BL18" t="n">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="BN18" t="n">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="BO18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BP18" t="n">
         <v>52</v>
       </c>
       <c r="BQ18" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="BR18" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BT18" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="BU18" t="n">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="19">
@@ -5135,19 +5055,19 @@
         </is>
       </c>
       <c r="AQ19" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AR19" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AS19" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AT19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV19" t="n">
         <v>52</v>
@@ -5156,7 +5076,7 @@
         <v>17</v>
       </c>
       <c r="AX19" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AY19" t="n">
         <v>20</v>
@@ -5171,7 +5091,7 @@
         <v>13</v>
       </c>
       <c r="BD19" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BE19" t="n">
         <v>16</v>
@@ -5183,19 +5103,19 @@
         <v>264</v>
       </c>
       <c r="BI19" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BJ19" t="n">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="BK19" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BL19" t="n">
         <v>24</v>
       </c>
       <c r="BM19" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="BN19" t="n">
         <v>42</v>
@@ -5207,7 +5127,7 @@
         <v>19</v>
       </c>
       <c r="BQ19" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BR19" t="n">
         <v>48</v>
@@ -5216,7 +5136,7 @@
         <v>16</v>
       </c>
       <c r="BU19" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -5241,11 +5161,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -5266,22 +5181,12 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="W20" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="Z20" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
@@ -5310,10 +5215,7 @@
         </is>
       </c>
       <c r="AT20" t="n">
-        <v>33</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="BB20" t="n">
         <v>2</v>
@@ -5322,28 +5224,22 @@
         <v>17</v>
       </c>
       <c r="BD20" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BF20" t="n">
-        <v>26</v>
-      </c>
-      <c r="BH20" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="BI20" t="n">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="BJ20" t="n">
         <v>24</v>
       </c>
-      <c r="BL20" t="n">
-        <v>4</v>
-      </c>
       <c r="BR20" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="BU20" t="n">
-        <v>341</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21">
@@ -5438,11 +5334,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V21" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -5522,91 +5413,88 @@
         </is>
       </c>
       <c r="AQ21" t="n">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="AR21" t="n">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AS21" t="n">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="AT21" t="n">
+        <v>178</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>226</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>377</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>146</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>208</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>217</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>176</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>257</v>
+      </c>
+      <c r="BC21" t="n">
         <v>187</v>
       </c>
-      <c r="AU21" t="n">
-        <v>242</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>391</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>143</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>227</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>228</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>186</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>263</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>190</v>
-      </c>
       <c r="BD21" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="BE21" t="n">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BF21" t="n">
-        <v>268</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>168</v>
+        <v>253</v>
       </c>
       <c r="BH21" t="n">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="BI21" t="n">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="BJ21" t="n">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="BK21" t="n">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="BL21" t="n">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="BM21" t="n">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="BN21" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="BO21" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="BP21" t="n">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="BQ21" t="n">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="BR21" t="n">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="BT21" t="n">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="BU21" t="n">
-        <v>568</v>
+        <v>541</v>
       </c>
     </row>
     <row r="22">
@@ -5666,11 +5554,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V22" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -5767,9 +5650,6 @@
       </c>
       <c r="BD22" t="n">
         <v>108</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>540</v>
       </c>
       <c r="BH22" t="n">
         <v>324</v>
@@ -5939,11 +5819,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V24" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -6029,7 +5904,7 @@
         <v>47</v>
       </c>
       <c r="AS24" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AT24" t="n">
         <v>91</v>
@@ -6041,7 +5916,7 @@
         <v>24</v>
       </c>
       <c r="AW24" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AX24" t="n">
         <v>70</v>
@@ -6062,14 +5937,11 @@
         <v>40</v>
       </c>
       <c r="BE24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BF24" t="n">
         <v>17</v>
       </c>
-      <c r="BG24" t="n">
-        <v>640</v>
-      </c>
       <c r="BH24" t="n">
         <v>79</v>
       </c>
@@ -6083,13 +5955,13 @@
         <v>36</v>
       </c>
       <c r="BL24" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="BM24" t="n">
         <v>61</v>
       </c>
       <c r="BN24" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="BO24" t="n">
         <v>52</v>
@@ -6101,7 +5973,7 @@
         <v>46</v>
       </c>
       <c r="BR24" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BT24" t="n">
         <v>79</v>
@@ -6137,11 +6009,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -6192,11 +6059,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V25" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -6222,11 +6084,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="AA25" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="AB25" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -6253,11 +6110,6 @@
         </is>
       </c>
       <c r="AH25" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="AI25" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
@@ -6276,85 +6128,73 @@
         </is>
       </c>
       <c r="AQ25" t="n">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="AR25" t="n">
-        <v>124</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>178</v>
+        <v>4</v>
       </c>
       <c r="AT25" t="n">
-        <v>574</v>
+        <v>289</v>
       </c>
       <c r="AU25" t="n">
-        <v>158</v>
+        <v>4</v>
       </c>
       <c r="AV25" t="n">
-        <v>242</v>
+        <v>63</v>
       </c>
       <c r="AW25" t="n">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="AY25" t="n">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="BB25" t="n">
-        <v>334</v>
+        <v>118</v>
       </c>
       <c r="BC25" t="n">
-        <v>425</v>
+        <v>163</v>
       </c>
       <c r="BD25" t="n">
-        <v>255</v>
+        <v>138</v>
       </c>
       <c r="BE25" t="n">
-        <v>209</v>
+        <v>155</v>
       </c>
       <c r="BF25" t="n">
-        <v>160</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>770</v>
+        <v>7</v>
       </c>
       <c r="BH25" t="n">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="BI25" t="n">
-        <v>124</v>
+        <v>11</v>
       </c>
       <c r="BJ25" t="n">
-        <v>22</v>
+        <v>163</v>
       </c>
       <c r="BK25" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="BL25" t="n">
-        <v>160</v>
-      </c>
-      <c r="BM25" t="n">
-        <v>96</v>
+        <v>9</v>
       </c>
       <c r="BN25" t="n">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="BO25" t="n">
-        <v>239</v>
+        <v>169</v>
       </c>
       <c r="BP25" t="n">
-        <v>125</v>
+        <v>35</v>
       </c>
       <c r="BQ25" t="n">
-        <v>285</v>
+        <v>246</v>
       </c>
       <c r="BR25" t="n">
-        <v>154</v>
+        <v>87</v>
       </c>
       <c r="BT25" t="n">
-        <v>236</v>
-      </c>
-      <c r="BU25" t="n">
-        <v>68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -6528,76 +6368,76 @@
         </is>
       </c>
       <c r="AQ26" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="AR26" t="n">
         <v>37</v>
       </c>
       <c r="AS26" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AT26" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AU26" t="n">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="AV26" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AW26" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AX26" t="n">
         <v>26</v>
       </c>
       <c r="AY26" t="n">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="AZ26" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="BB26" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="BC26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD26" t="n">
         <v>17</v>
       </c>
-      <c r="BD26" t="n">
-        <v>33</v>
-      </c>
       <c r="BE26" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="BF26" t="n">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="BH26" t="n">
         <v>49</v>
       </c>
       <c r="BI26" t="n">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="BJ26" t="n">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="BK26" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="BL26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>25</v>
+      </c>
+      <c r="BN26" t="n">
         <v>20</v>
       </c>
-      <c r="BM26" t="n">
-        <v>50</v>
-      </c>
-      <c r="BN26" t="n">
-        <v>40</v>
-      </c>
       <c r="BO26" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="BP26" t="n">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="BQ26" t="n">
         <v>50</v>
@@ -6606,7 +6446,7 @@
         <v>14</v>
       </c>
       <c r="BT26" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="BU26" t="n">
         <v>15</v>
@@ -6783,76 +6623,76 @@
         </is>
       </c>
       <c r="AQ27" t="n">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="AR27" t="n">
         <v>137</v>
       </c>
       <c r="AS27" t="n">
-        <v>416</v>
+        <v>331</v>
       </c>
       <c r="AT27" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="AU27" t="n">
-        <v>399</v>
+        <v>319</v>
       </c>
       <c r="AV27" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AW27" t="n">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="AX27" t="n">
         <v>126</v>
       </c>
       <c r="AY27" t="n">
-        <v>73</v>
+        <v>48</v>
       </c>
       <c r="AZ27" t="n">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="BB27" t="n">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="BC27" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="BD27" t="n">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="BE27" t="n">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="BF27" t="n">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="BH27" t="n">
         <v>108</v>
       </c>
       <c r="BI27" t="n">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="BJ27" t="n">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="BK27" t="n">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="BL27" t="n">
-        <v>433</v>
+        <v>348</v>
       </c>
       <c r="BM27" t="n">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="BN27" t="n">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="BO27" t="n">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="BP27" t="n">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="BQ27" t="n">
         <v>83</v>
@@ -6861,7 +6701,7 @@
         <v>46</v>
       </c>
       <c r="BT27" t="n">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="BU27" t="n">
         <v>103</v>
@@ -6959,11 +6799,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V28" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -7043,37 +6878,37 @@
         </is>
       </c>
       <c r="AQ28" t="n">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="AR28" t="n">
-        <v>408</v>
+        <v>532</v>
       </c>
       <c r="AS28" t="n">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="AT28" t="n">
-        <v>426</v>
+        <v>469</v>
       </c>
       <c r="AU28" t="n">
-        <v>703</v>
+        <v>684</v>
       </c>
       <c r="AV28" t="n">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="AW28" t="n">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AX28" t="n">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="AY28" t="n">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="AZ28" t="n">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="BB28" t="n">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="BC28" t="n">
         <v>406</v>
@@ -7085,49 +6920,46 @@
         <v>267</v>
       </c>
       <c r="BF28" t="n">
-        <v>427</v>
-      </c>
-      <c r="BG28" t="n">
-        <v>1472</v>
+        <v>419</v>
       </c>
       <c r="BH28" t="n">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="BI28" t="n">
-        <v>485</v>
+        <v>474</v>
       </c>
       <c r="BJ28" t="n">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="BK28" t="n">
         <v>484</v>
       </c>
       <c r="BL28" t="n">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="BM28" t="n">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="BN28" t="n">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="BO28" t="n">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="BP28" t="n">
-        <v>322</v>
+        <v>381</v>
       </c>
       <c r="BQ28" t="n">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="BR28" t="n">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="BT28" t="n">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="BU28" t="n">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29">
@@ -7232,11 +7064,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="Y29" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -7304,10 +7131,10 @@
         <v>97</v>
       </c>
       <c r="AR29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS29" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT29" t="n">
         <v>46</v>
@@ -7316,64 +7143,61 @@
         <v>79</v>
       </c>
       <c r="AV29" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AW29" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AX29" t="n">
         <v>99</v>
       </c>
       <c r="AY29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ29" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="BB29" t="n">
         <v>78</v>
       </c>
       <c r="BC29" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BD29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BE29" t="n">
         <v>19</v>
       </c>
       <c r="BF29" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BH29" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="BI29" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK29" t="n">
         <v>17</v>
-      </c>
-      <c r="BJ29" t="n">
-        <v>4</v>
-      </c>
-      <c r="BK29" t="n">
-        <v>18</v>
       </c>
       <c r="BL29" t="n">
         <v>25</v>
       </c>
       <c r="BM29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BN29" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="BO29" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="BP29" t="n">
         <v>43</v>
       </c>
       <c r="BQ29" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="BR29" t="n">
         <v>11</v>
@@ -7382,7 +7206,7 @@
         <v>22</v>
       </c>
       <c r="BU29" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30">
@@ -7477,11 +7301,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="W30" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -7556,88 +7375,85 @@
         </is>
       </c>
       <c r="AQ30" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="AR30" t="n">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AS30" t="n">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="AT30" t="n">
         <v>115</v>
       </c>
       <c r="AU30" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AV30" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="AW30" t="n">
         <v>44</v>
       </c>
       <c r="AX30" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AY30" t="n">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="AZ30" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BB30" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC30" t="n">
         <v>7</v>
       </c>
-      <c r="BC30" t="n">
-        <v>16</v>
-      </c>
       <c r="BD30" t="n">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="BE30" t="n">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="BF30" t="n">
-        <v>104</v>
-      </c>
-      <c r="BH30" t="n">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="BI30" t="n">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="BJ30" t="n">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="BK30" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="BL30" t="n">
         <v>96</v>
       </c>
       <c r="BM30" t="n">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="BN30" t="n">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="BO30" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="BP30" t="n">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="BQ30" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="BR30" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="BT30" t="n">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="BU30" t="n">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31">
@@ -7850,88 +7666,88 @@
         </is>
       </c>
       <c r="AQ32" t="n">
-        <v>524</v>
+        <v>460</v>
       </c>
       <c r="AR32" t="n">
-        <v>1196</v>
+        <v>1014</v>
       </c>
       <c r="AS32" t="n">
-        <v>356</v>
+        <v>245</v>
       </c>
       <c r="AT32" t="n">
-        <v>830</v>
+        <v>802</v>
       </c>
       <c r="AU32" t="n">
-        <v>723</v>
+        <v>673</v>
       </c>
       <c r="AV32" t="n">
-        <v>996</v>
+        <v>930</v>
       </c>
       <c r="AW32" t="n">
-        <v>626</v>
+        <v>587</v>
       </c>
       <c r="AX32" t="n">
-        <v>440</v>
+        <v>361</v>
       </c>
       <c r="AY32" t="n">
-        <v>1090</v>
+        <v>997</v>
       </c>
       <c r="AZ32" t="n">
-        <v>1820</v>
+        <v>1764</v>
       </c>
       <c r="BB32" t="n">
-        <v>755</v>
+        <v>713</v>
       </c>
       <c r="BC32" t="n">
-        <v>921</v>
+        <v>882</v>
       </c>
       <c r="BD32" t="n">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="BE32" t="n">
-        <v>741</v>
+        <v>707</v>
       </c>
       <c r="BF32" t="n">
-        <v>1131</v>
+        <v>1091</v>
       </c>
       <c r="BH32" t="n">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="BI32" t="n">
-        <v>337</v>
+        <v>263</v>
       </c>
       <c r="BJ32" t="n">
-        <v>415</v>
+        <v>368</v>
       </c>
       <c r="BK32" t="n">
-        <v>215</v>
+        <v>160</v>
       </c>
       <c r="BL32" t="n">
-        <v>373</v>
+        <v>268</v>
       </c>
       <c r="BM32" t="n">
-        <v>582</v>
+        <v>513</v>
       </c>
       <c r="BN32" t="n">
-        <v>765</v>
+        <v>714</v>
       </c>
       <c r="BO32" t="n">
-        <v>983</v>
+        <v>931</v>
       </c>
       <c r="BP32" t="n">
-        <v>943</v>
+        <v>902</v>
       </c>
       <c r="BQ32" t="n">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="BR32" t="n">
-        <v>491</v>
+        <v>443</v>
       </c>
       <c r="BT32" t="n">
-        <v>713</v>
+        <v>623</v>
       </c>
       <c r="BU32" t="n">
-        <v>199</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33">
@@ -8065,11 +7881,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V34" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -8149,91 +7960,88 @@
         </is>
       </c>
       <c r="AQ34" t="n">
-        <v>9320</v>
+        <v>8458</v>
       </c>
       <c r="AR34" t="n">
-        <v>8659</v>
+        <v>7288</v>
       </c>
       <c r="AS34" t="n">
-        <v>7040</v>
+        <v>6328</v>
       </c>
       <c r="AT34" t="n">
-        <v>5927</v>
+        <v>6795</v>
       </c>
       <c r="AU34" t="n">
-        <v>10268</v>
+        <v>9210</v>
       </c>
       <c r="AV34" t="n">
-        <v>8450</v>
+        <v>9248</v>
       </c>
       <c r="AW34" t="n">
-        <v>3166</v>
+        <v>2652</v>
       </c>
       <c r="AX34" t="n">
-        <v>12465</v>
+        <v>11646</v>
       </c>
       <c r="AY34" t="n">
-        <v>7184</v>
+        <v>6258</v>
       </c>
       <c r="AZ34" t="n">
-        <v>5039</v>
+        <v>6242</v>
       </c>
       <c r="BB34" t="n">
-        <v>12001</v>
+        <v>11427</v>
       </c>
       <c r="BC34" t="n">
-        <v>8979</v>
+        <v>8434</v>
       </c>
       <c r="BD34" t="n">
-        <v>5555</v>
+        <v>5149</v>
       </c>
       <c r="BE34" t="n">
-        <v>7178</v>
+        <v>8705</v>
       </c>
       <c r="BF34" t="n">
-        <v>11221</v>
-      </c>
-      <c r="BG34" t="n">
-        <v>7</v>
+        <v>10638</v>
       </c>
       <c r="BH34" t="n">
-        <v>4243</v>
+        <v>3494</v>
       </c>
       <c r="BI34" t="n">
-        <v>4530</v>
+        <v>6030</v>
       </c>
       <c r="BJ34" t="n">
-        <v>8734</v>
+        <v>7963</v>
       </c>
       <c r="BK34" t="n">
-        <v>5752</v>
+        <v>5097</v>
       </c>
       <c r="BL34" t="n">
-        <v>7981</v>
+        <v>9900</v>
       </c>
       <c r="BM34" t="n">
-        <v>11643</v>
+        <v>10633</v>
       </c>
       <c r="BN34" t="n">
-        <v>9895</v>
+        <v>9384</v>
       </c>
       <c r="BO34" t="n">
-        <v>7604</v>
+        <v>6455</v>
       </c>
       <c r="BP34" t="n">
-        <v>1774</v>
+        <v>478</v>
       </c>
       <c r="BQ34" t="n">
-        <v>6233</v>
+        <v>5661</v>
       </c>
       <c r="BR34" t="n">
-        <v>6201</v>
+        <v>7407</v>
       </c>
       <c r="BT34" t="n">
-        <v>3518</v>
+        <v>4715</v>
       </c>
       <c r="BU34" t="n">
-        <v>5637</v>
+        <v>4765</v>
       </c>
     </row>
     <row r="35">
@@ -8328,11 +8136,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V35" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -8412,91 +8215,88 @@
         </is>
       </c>
       <c r="AQ35" t="n">
-        <v>1211</v>
+        <v>944</v>
       </c>
       <c r="AR35" t="n">
-        <v>672</v>
+        <v>583</v>
       </c>
       <c r="AS35" t="n">
-        <v>690</v>
+        <v>662</v>
       </c>
       <c r="AT35" t="n">
-        <v>296</v>
+        <v>277</v>
       </c>
       <c r="AU35" t="n">
-        <v>878</v>
+        <v>851</v>
       </c>
       <c r="AV35" t="n">
-        <v>1043</v>
+        <v>988</v>
       </c>
       <c r="AW35" t="n">
-        <v>378</v>
+        <v>235</v>
       </c>
       <c r="AX35" t="n">
-        <v>931</v>
+        <v>911</v>
       </c>
       <c r="AY35" t="n">
-        <v>640</v>
+        <v>564</v>
       </c>
       <c r="AZ35" t="n">
-        <v>880</v>
+        <v>811</v>
       </c>
       <c r="BB35" t="n">
-        <v>1711</v>
+        <v>1580</v>
       </c>
       <c r="BC35" t="n">
-        <v>518</v>
+        <v>368</v>
       </c>
       <c r="BD35" t="n">
-        <v>1101</v>
+        <v>1072</v>
       </c>
       <c r="BE35" t="n">
-        <v>497</v>
+        <v>448</v>
       </c>
       <c r="BF35" t="n">
-        <v>1593</v>
-      </c>
-      <c r="BG35" t="n">
-        <v>96</v>
+        <v>1483</v>
       </c>
       <c r="BH35" t="n">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="BI35" t="n">
-        <v>574</v>
+        <v>923</v>
       </c>
       <c r="BJ35" t="n">
-        <v>740</v>
+        <v>359</v>
       </c>
       <c r="BK35" t="n">
-        <v>1400</v>
+        <v>1285</v>
       </c>
       <c r="BL35" t="n">
-        <v>1106</v>
+        <v>998</v>
       </c>
       <c r="BM35" t="n">
-        <v>637</v>
+        <v>602</v>
       </c>
       <c r="BN35" t="n">
-        <v>622</v>
+        <v>700</v>
       </c>
       <c r="BO35" t="n">
-        <v>1551</v>
+        <v>1358</v>
       </c>
       <c r="BP35" t="n">
-        <v>493</v>
+        <v>221</v>
       </c>
       <c r="BQ35" t="n">
-        <v>808</v>
+        <v>641</v>
       </c>
       <c r="BR35" t="n">
-        <v>685</v>
+        <v>530</v>
       </c>
       <c r="BT35" t="n">
-        <v>538</v>
+        <v>513</v>
       </c>
       <c r="BU35" t="n">
-        <v>1213</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="36">
@@ -8670,88 +8470,88 @@
         </is>
       </c>
       <c r="AQ36" t="n">
-        <v>317</v>
+        <v>282</v>
       </c>
       <c r="AR36" t="n">
-        <v>686</v>
+        <v>582</v>
       </c>
       <c r="AS36" t="n">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="AT36" t="n">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="AU36" t="n">
+        <v>626</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>929</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>539</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>859</v>
+      </c>
+      <c r="AY36" t="n">
         <v>655</v>
       </c>
-      <c r="AV36" t="n">
-        <v>956</v>
-      </c>
-      <c r="AW36" t="n">
-        <v>553</v>
-      </c>
-      <c r="AX36" t="n">
-        <v>882</v>
-      </c>
-      <c r="AY36" t="n">
-        <v>701</v>
-      </c>
       <c r="AZ36" t="n">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="BB36" t="n">
-        <v>782</v>
+        <v>695</v>
       </c>
       <c r="BC36" t="n">
-        <v>480</v>
+        <v>423</v>
       </c>
       <c r="BD36" t="n">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="BE36" t="n">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="BF36" t="n">
-        <v>909</v>
+        <v>872</v>
       </c>
       <c r="BH36" t="n">
-        <v>230</v>
+        <v>196</v>
       </c>
       <c r="BI36" t="n">
-        <v>595</v>
+        <v>575</v>
       </c>
       <c r="BJ36" t="n">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="BK36" t="n">
-        <v>634</v>
+        <v>617</v>
       </c>
       <c r="BL36" t="n">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="BM36" t="n">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="BN36" t="n">
-        <v>860</v>
+        <v>798</v>
       </c>
       <c r="BO36" t="n">
-        <v>819</v>
+        <v>808</v>
       </c>
       <c r="BP36" t="n">
-        <v>493</v>
+        <v>472</v>
       </c>
       <c r="BQ36" t="n">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="BR36" t="n">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="BT36" t="n">
-        <v>580</v>
+        <v>533</v>
       </c>
       <c r="BU36" t="n">
-        <v>296</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37">
@@ -8846,11 +8646,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V37" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -8930,91 +8725,88 @@
         </is>
       </c>
       <c r="AQ37" t="n">
-        <v>2349</v>
+        <v>2238</v>
       </c>
       <c r="AR37" t="n">
-        <v>2759</v>
+        <v>2724</v>
       </c>
       <c r="AS37" t="n">
-        <v>4224</v>
+        <v>4199</v>
       </c>
       <c r="AT37" t="n">
-        <v>1980</v>
+        <v>1800</v>
       </c>
       <c r="AU37" t="n">
         <v>3456</v>
       </c>
       <c r="AV37" t="n">
-        <v>1882</v>
+        <v>1840</v>
       </c>
       <c r="AW37" t="n">
-        <v>5429</v>
+        <v>5405</v>
       </c>
       <c r="AX37" t="n">
-        <v>1542</v>
+        <v>1516</v>
       </c>
       <c r="AY37" t="n">
-        <v>2149</v>
+        <v>2082</v>
       </c>
       <c r="AZ37" t="n">
-        <v>2900</v>
+        <v>2850</v>
       </c>
       <c r="BB37" t="n">
-        <v>3248</v>
+        <v>3188</v>
       </c>
       <c r="BC37" t="n">
-        <v>3686</v>
+        <v>3551</v>
       </c>
       <c r="BD37" t="n">
-        <v>1800</v>
+        <v>1770</v>
       </c>
       <c r="BE37" t="n">
         <v>1866</v>
       </c>
       <c r="BF37" t="n">
-        <v>6366</v>
-      </c>
-      <c r="BG37" t="n">
-        <v>539</v>
+        <v>6336</v>
       </c>
       <c r="BH37" t="n">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="BI37" t="n">
-        <v>4895</v>
+        <v>4885</v>
       </c>
       <c r="BJ37" t="n">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="BK37" t="n">
-        <v>1305</v>
+        <v>1255</v>
       </c>
       <c r="BL37" t="n">
-        <v>2184</v>
+        <v>2104</v>
       </c>
       <c r="BM37" t="n">
-        <v>1302</v>
+        <v>1292</v>
       </c>
       <c r="BN37" t="n">
-        <v>2462</v>
+        <v>2442</v>
       </c>
       <c r="BO37" t="n">
-        <v>4602</v>
+        <v>4462</v>
       </c>
       <c r="BP37" t="n">
-        <v>3336</v>
+        <v>3129</v>
       </c>
       <c r="BQ37" t="n">
-        <v>6022</v>
+        <v>5927</v>
       </c>
       <c r="BR37" t="n">
-        <v>1775</v>
+        <v>1755</v>
       </c>
       <c r="BT37" t="n">
-        <v>3339</v>
+        <v>3223</v>
       </c>
       <c r="BU37" t="n">
-        <v>1862</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="38">
@@ -9188,88 +8980,88 @@
         </is>
       </c>
       <c r="AQ38" t="n">
-        <v>301</v>
+        <v>277</v>
       </c>
       <c r="AR38" t="n">
+        <v>244</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>246</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>314</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>418</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>425</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>359</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>176</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>233</v>
+      </c>
+      <c r="AZ38" t="n">
         <v>262</v>
       </c>
-      <c r="AS38" t="n">
-        <v>263</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>319</v>
-      </c>
-      <c r="AU38" t="n">
-        <v>421</v>
-      </c>
-      <c r="AV38" t="n">
-        <v>428</v>
-      </c>
-      <c r="AW38" t="n">
-        <v>366</v>
-      </c>
-      <c r="AX38" t="n">
-        <v>178</v>
-      </c>
-      <c r="AY38" t="n">
-        <v>273</v>
-      </c>
-      <c r="AZ38" t="n">
-        <v>284</v>
-      </c>
       <c r="BB38" t="n">
-        <v>714</v>
+        <v>620</v>
       </c>
       <c r="BC38" t="n">
-        <v>452</v>
+        <v>417</v>
       </c>
       <c r="BD38" t="n">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="BE38" t="n">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="BF38" t="n">
-        <v>553</v>
+        <v>527</v>
       </c>
       <c r="BH38" t="n">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="BI38" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="BJ38" t="n">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="BK38" t="n">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="BL38" t="n">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="BM38" t="n">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="BN38" t="n">
-        <v>280</v>
+        <v>329</v>
       </c>
       <c r="BO38" t="n">
-        <v>676</v>
+        <v>635</v>
       </c>
       <c r="BP38" t="n">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="BQ38" t="n">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="BR38" t="n">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="BT38" t="n">
+        <v>222</v>
+      </c>
+      <c r="BU38" t="n">
         <v>229</v>
-      </c>
-      <c r="BU38" t="n">
-        <v>255</v>
       </c>
     </row>
     <row r="39">
@@ -9344,11 +9136,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="R39" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -9420,11 +9207,6 @@
         </is>
       </c>
       <c r="AH39" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="AI39" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
@@ -9443,88 +9225,82 @@
         </is>
       </c>
       <c r="AQ39" t="n">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="AR39" t="n">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="AS39" t="n">
-        <v>382</v>
+        <v>359</v>
       </c>
       <c r="AT39" t="n">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="AU39" t="n">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="AV39" t="n">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="AW39" t="n">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="AX39" t="n">
-        <v>506</v>
+        <v>342</v>
       </c>
       <c r="AY39" t="n">
+        <v>92</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>211</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>85</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>296</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>145</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>184</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>52</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>107</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>187</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>201</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>178</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>271</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>94</v>
+      </c>
+      <c r="BO39" t="n">
         <v>124</v>
       </c>
-      <c r="AZ39" t="n">
-        <v>224</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>99</v>
-      </c>
-      <c r="BC39" t="n">
-        <v>3</v>
-      </c>
-      <c r="BD39" t="n">
-        <v>471</v>
-      </c>
-      <c r="BE39" t="n">
-        <v>175</v>
-      </c>
-      <c r="BF39" t="n">
-        <v>346</v>
-      </c>
-      <c r="BH39" t="n">
-        <v>70</v>
-      </c>
-      <c r="BI39" t="n">
-        <v>131</v>
-      </c>
-      <c r="BJ39" t="n">
-        <v>208</v>
-      </c>
-      <c r="BK39" t="n">
-        <v>386</v>
-      </c>
-      <c r="BL39" t="n">
-        <v>188</v>
-      </c>
-      <c r="BM39" t="n">
+      <c r="BP39" t="n">
+        <v>145</v>
+      </c>
+      <c r="BQ39" t="n">
+        <v>241</v>
+      </c>
+      <c r="BR39" t="n">
         <v>287</v>
       </c>
-      <c r="BN39" t="n">
+      <c r="BT39" t="n">
         <v>102</v>
-      </c>
-      <c r="BO39" t="n">
-        <v>147</v>
-      </c>
-      <c r="BP39" t="n">
-        <v>157</v>
-      </c>
-      <c r="BQ39" t="n">
-        <v>252</v>
-      </c>
-      <c r="BR39" t="n">
-        <v>303</v>
-      </c>
-      <c r="BT39" t="n">
-        <v>138</v>
-      </c>
-      <c r="BU39" t="n">
-        <v>17</v>
       </c>
     </row>
     <row r="40">
@@ -9644,11 +9420,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="AB40" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -9698,40 +9469,40 @@
         </is>
       </c>
       <c r="AQ40" t="n">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AR40" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AS40" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="AT40" t="n">
         <v>141</v>
       </c>
       <c r="AU40" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV40" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AW40" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AX40" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AY40" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="AZ40" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BB40" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="BC40" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="BD40" t="n">
         <v>73</v>
@@ -9740,31 +9511,28 @@
         <v>61</v>
       </c>
       <c r="BF40" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="BH40" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="BI40" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="BJ40" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BK40" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="BL40" t="n">
-        <v>7</v>
-      </c>
-      <c r="BM40" t="n">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="BN40" t="n">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="BO40" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BP40" t="n">
         <v>11</v>
@@ -9773,13 +9541,13 @@
         <v>45</v>
       </c>
       <c r="BR40" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="BT40" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="BU40" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
@@ -9874,11 +9642,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V41" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -9958,91 +9721,88 @@
         </is>
       </c>
       <c r="AQ41" t="n">
-        <v>1667</v>
+        <v>1633</v>
       </c>
       <c r="AR41" t="n">
-        <v>421</v>
+        <v>329</v>
       </c>
       <c r="AS41" t="n">
-        <v>405</v>
+        <v>384</v>
       </c>
       <c r="AT41" t="n">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="AU41" t="n">
-        <v>444</v>
+        <v>419</v>
       </c>
       <c r="AV41" t="n">
+        <v>320</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>298</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>906</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>544</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>797</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>512</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>141</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>1044</v>
+      </c>
+      <c r="BE41" t="n">
         <v>361</v>
       </c>
-      <c r="AW41" t="n">
-        <v>338</v>
-      </c>
-      <c r="AX41" t="n">
-        <v>913</v>
-      </c>
-      <c r="AY41" t="n">
-        <v>568</v>
-      </c>
-      <c r="AZ41" t="n">
-        <v>848</v>
-      </c>
-      <c r="BB41" t="n">
-        <v>546</v>
-      </c>
-      <c r="BC41" t="n">
-        <v>196</v>
-      </c>
-      <c r="BD41" t="n">
-        <v>1063</v>
-      </c>
-      <c r="BE41" t="n">
-        <v>393</v>
-      </c>
       <c r="BF41" t="n">
-        <v>746</v>
-      </c>
-      <c r="BG41" t="n">
-        <v>77</v>
+        <v>733</v>
       </c>
       <c r="BH41" t="n">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="BI41" t="n">
-        <v>938</v>
+        <v>922</v>
       </c>
       <c r="BJ41" t="n">
-        <v>947</v>
+        <v>906</v>
       </c>
       <c r="BK41" t="n">
-        <v>251</v>
+        <v>228</v>
       </c>
       <c r="BL41" t="n">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="BM41" t="n">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="BN41" t="n">
-        <v>678</v>
+        <v>634</v>
       </c>
       <c r="BO41" t="n">
-        <v>510</v>
+        <v>484</v>
       </c>
       <c r="BP41" t="n">
-        <v>720</v>
+        <v>679</v>
       </c>
       <c r="BQ41" t="n">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="BR41" t="n">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="BT41" t="n">
-        <v>691</v>
+        <v>650</v>
       </c>
       <c r="BU41" t="n">
-        <v>1066</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="42">
@@ -10137,11 +9897,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V42" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -10221,16 +9976,16 @@
         </is>
       </c>
       <c r="AQ42" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AR42" t="n">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="AS42" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="AT42" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AU42" t="n">
         <v>126</v>
@@ -10239,34 +9994,31 @@
         <v>119</v>
       </c>
       <c r="AW42" t="n">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="AX42" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AY42" t="n">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="AZ42" t="n">
         <v>92</v>
       </c>
       <c r="BB42" t="n">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="BC42" t="n">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="BD42" t="n">
         <v>118</v>
       </c>
       <c r="BE42" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="BF42" t="n">
-        <v>153</v>
-      </c>
-      <c r="BG42" t="n">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="BH42" t="n">
         <v>197</v>
@@ -10275,25 +10027,25 @@
         <v>109</v>
       </c>
       <c r="BJ42" t="n">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BK42" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="BL42" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="BM42" t="n">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="BN42" t="n">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="BO42" t="n">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="BP42" t="n">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="BQ42" t="n">
         <v>143</v>
@@ -10302,10 +10054,10 @@
         <v>205</v>
       </c>
       <c r="BT42" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="BU42" t="n">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43">
@@ -10479,88 +10231,88 @@
         </is>
       </c>
       <c r="AQ43" t="n">
-        <v>596</v>
+        <v>485</v>
       </c>
       <c r="AR43" t="n">
-        <v>603</v>
+        <v>935</v>
       </c>
       <c r="AS43" t="n">
-        <v>873</v>
+        <v>450</v>
       </c>
       <c r="AT43" t="n">
-        <v>1649</v>
+        <v>2073</v>
       </c>
       <c r="AU43" t="n">
-        <v>2047</v>
+        <v>4147</v>
       </c>
       <c r="AV43" t="n">
-        <v>4284</v>
+        <v>6180</v>
       </c>
       <c r="AW43" t="n">
-        <v>776</v>
+        <v>698</v>
       </c>
       <c r="AX43" t="n">
-        <v>2165</v>
+        <v>1927</v>
       </c>
       <c r="AY43" t="n">
-        <v>1691</v>
+        <v>1560</v>
       </c>
       <c r="AZ43" t="n">
-        <v>134</v>
+        <v>1229</v>
       </c>
       <c r="BB43" t="n">
-        <v>874</v>
+        <v>629</v>
       </c>
       <c r="BC43" t="n">
-        <v>1116</v>
+        <v>1557</v>
       </c>
       <c r="BD43" t="n">
-        <v>2471</v>
+        <v>2321</v>
       </c>
       <c r="BE43" t="n">
-        <v>610</v>
+        <v>1340</v>
       </c>
       <c r="BF43" t="n">
-        <v>1665</v>
+        <v>1625</v>
       </c>
       <c r="BH43" t="n">
-        <v>1141</v>
+        <v>865</v>
       </c>
       <c r="BI43" t="n">
-        <v>1504</v>
+        <v>1990</v>
       </c>
       <c r="BJ43" t="n">
-        <v>1177</v>
+        <v>905</v>
       </c>
       <c r="BK43" t="n">
-        <v>1224</v>
+        <v>1739</v>
       </c>
       <c r="BL43" t="n">
-        <v>3717</v>
+        <v>3346</v>
       </c>
       <c r="BM43" t="n">
-        <v>1226</v>
+        <v>822</v>
       </c>
       <c r="BN43" t="n">
-        <v>865</v>
+        <v>1066</v>
       </c>
       <c r="BO43" t="n">
-        <v>663</v>
+        <v>1012</v>
       </c>
       <c r="BP43" t="n">
-        <v>622</v>
+        <v>403</v>
       </c>
       <c r="BQ43" t="n">
-        <v>634</v>
+        <v>1169</v>
       </c>
       <c r="BR43" t="n">
-        <v>1281</v>
+        <v>1152</v>
       </c>
       <c r="BT43" t="n">
-        <v>1307</v>
+        <v>1503</v>
       </c>
       <c r="BU43" t="n">
-        <v>808</v>
+        <v>652</v>
       </c>
     </row>
     <row r="44">
@@ -10655,16 +10407,16 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="W44" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
       </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
       <c r="Y44" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -10681,11 +10433,6 @@
         </is>
       </c>
       <c r="AB44" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
@@ -10729,85 +10476,82 @@
         </is>
       </c>
       <c r="AQ44" t="n">
-        <v>629</v>
+        <v>359</v>
       </c>
       <c r="AR44" t="n">
-        <v>315</v>
+        <v>246</v>
       </c>
       <c r="AS44" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="AT44" t="n">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="AU44" t="n">
-        <v>444</v>
+        <v>220</v>
       </c>
       <c r="AV44" t="n">
-        <v>704</v>
+        <v>448</v>
       </c>
       <c r="AW44" t="n">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="AX44" t="n">
-        <v>248</v>
+        <v>196</v>
       </c>
       <c r="AY44" t="n">
-        <v>518</v>
+        <v>488</v>
       </c>
       <c r="AZ44" t="n">
-        <v>128</v>
+        <v>69</v>
       </c>
       <c r="BB44" t="n">
-        <v>160</v>
+        <v>125</v>
       </c>
       <c r="BC44" t="n">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="BD44" t="n">
-        <v>331</v>
+        <v>108</v>
       </c>
       <c r="BE44" t="n">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="BF44" t="n">
-        <v>174</v>
-      </c>
-      <c r="BH44" t="n">
+        <v>126</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>116</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>51</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>130</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>136</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>80</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>294</v>
+      </c>
+      <c r="BP44" t="n">
         <v>95</v>
       </c>
-      <c r="BI44" t="n">
-        <v>138</v>
-      </c>
-      <c r="BK44" t="n">
-        <v>323</v>
-      </c>
-      <c r="BL44" t="n">
+      <c r="BQ44" t="n">
+        <v>121</v>
+      </c>
+      <c r="BR44" t="n">
         <v>2</v>
       </c>
-      <c r="BM44" t="n">
-        <v>215</v>
-      </c>
-      <c r="BN44" t="n">
-        <v>302</v>
-      </c>
-      <c r="BO44" t="n">
-        <v>4</v>
-      </c>
-      <c r="BP44" t="n">
-        <v>469</v>
-      </c>
-      <c r="BQ44" t="n">
-        <v>158</v>
-      </c>
-      <c r="BR44" t="n">
-        <v>24</v>
-      </c>
       <c r="BT44" t="n">
-        <v>343</v>
+        <v>247</v>
       </c>
       <c r="BU44" t="n">
-        <v>390</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45">
@@ -10847,21 +10591,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -10887,11 +10616,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="X45" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -10912,11 +10636,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="AC45" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -10927,17 +10646,7 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="AE45" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="AF45" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="AH45" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
@@ -10961,76 +10670,55 @@
         </is>
       </c>
       <c r="AQ45" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="AR45" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="AS45" t="n">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="AT45" t="n">
-        <v>46</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="AX45" t="n">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="AY45" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="BC45" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="BE45" t="n">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="BH45" t="n">
-        <v>476</v>
-      </c>
-      <c r="BI45" t="n">
-        <v>13</v>
+        <v>251</v>
       </c>
       <c r="BJ45" t="n">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="BK45" t="n">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="BL45" t="n">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="BM45" t="n">
-        <v>69</v>
-      </c>
-      <c r="BN45" t="n">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="BO45" t="n">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="BP45" t="n">
-        <v>128</v>
-      </c>
-      <c r="BQ45" t="n">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="BR45" t="n">
-        <v>144</v>
-      </c>
-      <c r="BT45" t="n">
-        <v>3</v>
+        <v>131</v>
       </c>
       <c r="BU45" t="n">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46">
@@ -11060,11 +10748,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="H46" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -11204,14 +10887,11 @@
       <c r="AR46" t="n">
         <v>85</v>
       </c>
-      <c r="AS46" t="n">
-        <v>1</v>
-      </c>
       <c r="AT46" t="n">
         <v>60</v>
       </c>
       <c r="AU46" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AV46" t="n">
         <v>70</v>
@@ -11226,28 +10906,28 @@
         <v>29</v>
       </c>
       <c r="BB46" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="BC46" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="BD46" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="BE46" t="n">
         <v>41</v>
       </c>
       <c r="BF46" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BH46" t="n">
         <v>164</v>
       </c>
       <c r="BI46" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BJ46" t="n">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="BK46" t="n">
         <v>60</v>
@@ -11262,16 +10942,16 @@
         <v>37</v>
       </c>
       <c r="BO46" t="n">
+        <v>51</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>53</v>
+      </c>
+      <c r="BQ46" t="n">
         <v>56</v>
       </c>
-      <c r="BP46" t="n">
-        <v>54</v>
-      </c>
-      <c r="BQ46" t="n">
-        <v>60</v>
-      </c>
       <c r="BR46" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BT46" t="n">
         <v>26</v>
@@ -11372,11 +11052,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V47" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -11456,91 +11131,88 @@
         </is>
       </c>
       <c r="AQ47" t="n">
-        <v>515</v>
+        <v>654</v>
       </c>
       <c r="AR47" t="n">
-        <v>347</v>
+        <v>547</v>
       </c>
       <c r="AS47" t="n">
-        <v>155</v>
+        <v>526</v>
       </c>
       <c r="AT47" t="n">
-        <v>463</v>
+        <v>838</v>
       </c>
       <c r="AU47" t="n">
-        <v>566</v>
+        <v>524</v>
       </c>
       <c r="AV47" t="n">
-        <v>754</v>
+        <v>651</v>
       </c>
       <c r="AW47" t="n">
-        <v>204</v>
+        <v>431</v>
       </c>
       <c r="AX47" t="n">
-        <v>255</v>
+        <v>199</v>
       </c>
       <c r="AY47" t="n">
-        <v>775</v>
+        <v>973</v>
       </c>
       <c r="AZ47" t="n">
-        <v>363</v>
+        <v>569</v>
       </c>
       <c r="BB47" t="n">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="BC47" t="n">
-        <v>301</v>
+        <v>615</v>
       </c>
       <c r="BD47" t="n">
-        <v>157</v>
+        <v>55</v>
       </c>
       <c r="BE47" t="n">
-        <v>435</v>
+        <v>413</v>
       </c>
       <c r="BF47" t="n">
-        <v>305</v>
-      </c>
-      <c r="BG47" t="n">
-        <v>7729</v>
+        <v>523</v>
       </c>
       <c r="BH47" t="n">
-        <v>611</v>
+        <v>575</v>
       </c>
       <c r="BI47" t="n">
-        <v>371</v>
+        <v>759</v>
       </c>
       <c r="BJ47" t="n">
-        <v>549</v>
+        <v>858</v>
       </c>
       <c r="BK47" t="n">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="BL47" t="n">
-        <v>713</v>
+        <v>795</v>
       </c>
       <c r="BM47" t="n">
-        <v>365</v>
+        <v>691</v>
       </c>
       <c r="BN47" t="n">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="BO47" t="n">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="BP47" t="n">
-        <v>529</v>
+        <v>918</v>
       </c>
       <c r="BQ47" t="n">
-        <v>239</v>
+        <v>383</v>
       </c>
       <c r="BR47" t="n">
-        <v>866</v>
+        <v>837</v>
       </c>
       <c r="BT47" t="n">
-        <v>890</v>
+        <v>999</v>
       </c>
       <c r="BU47" t="n">
-        <v>467</v>
+        <v>683</v>
       </c>
     </row>
     <row r="48">
@@ -11635,11 +11307,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V48" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -11719,91 +11386,88 @@
         </is>
       </c>
       <c r="AQ48" t="n">
-        <v>122</v>
+        <v>310</v>
       </c>
       <c r="AR48" t="n">
-        <v>208</v>
+        <v>775</v>
       </c>
       <c r="AS48" t="n">
-        <v>457</v>
+        <v>635</v>
       </c>
       <c r="AT48" t="n">
-        <v>73</v>
+        <v>681</v>
       </c>
       <c r="AU48" t="n">
-        <v>187</v>
+        <v>965</v>
       </c>
       <c r="AV48" t="n">
-        <v>287</v>
+        <v>607</v>
       </c>
       <c r="AW48" t="n">
-        <v>242</v>
+        <v>593</v>
       </c>
       <c r="AX48" t="n">
-        <v>415</v>
+        <v>766</v>
       </c>
       <c r="AY48" t="n">
-        <v>626</v>
+        <v>807</v>
       </c>
       <c r="AZ48" t="n">
-        <v>379</v>
+        <v>569</v>
       </c>
       <c r="BB48" t="n">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="BC48" t="n">
-        <v>76</v>
+        <v>484</v>
       </c>
       <c r="BD48" t="n">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="BE48" t="n">
-        <v>202</v>
+        <v>409</v>
       </c>
       <c r="BF48" t="n">
-        <v>342</v>
-      </c>
-      <c r="BG48" t="n">
-        <v>3004</v>
+        <v>528</v>
       </c>
       <c r="BH48" t="n">
-        <v>992</v>
+        <v>964</v>
       </c>
       <c r="BI48" t="n">
-        <v>616</v>
+        <v>797</v>
       </c>
       <c r="BJ48" t="n">
-        <v>807</v>
+        <v>1162</v>
       </c>
       <c r="BK48" t="n">
-        <v>417</v>
+        <v>583</v>
       </c>
       <c r="BL48" t="n">
+        <v>391</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>1393</v>
+      </c>
+      <c r="BN48" t="n">
         <v>414</v>
       </c>
-      <c r="BM48" t="n">
-        <v>189</v>
-      </c>
-      <c r="BN48" t="n">
-        <v>304</v>
-      </c>
       <c r="BO48" t="n">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="BP48" t="n">
-        <v>182</v>
+        <v>290</v>
       </c>
       <c r="BQ48" t="n">
-        <v>130</v>
+        <v>331</v>
       </c>
       <c r="BR48" t="n">
-        <v>177</v>
+        <v>358</v>
       </c>
       <c r="BT48" t="n">
-        <v>548</v>
+        <v>1037</v>
       </c>
       <c r="BU48" t="n">
-        <v>259</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49">
@@ -11977,88 +11641,88 @@
         </is>
       </c>
       <c r="AQ49" t="n">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="AR49" t="n">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="AS49" t="n">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="AT49" t="n">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="AU49" t="n">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="AV49" t="n">
-        <v>148</v>
+        <v>97</v>
       </c>
       <c r="AW49" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="AX49" t="n">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="AY49" t="n">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="AZ49" t="n">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="BB49" t="n">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="BC49" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="BD49" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BE49" t="n">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="BF49" t="n">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="BH49" t="n">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="BI49" t="n">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="BJ49" t="n">
-        <v>243</v>
+        <v>113</v>
       </c>
       <c r="BK49" t="n">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="BL49" t="n">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="BM49" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="BN49" t="n">
         <v>102</v>
       </c>
       <c r="BO49" t="n">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="BP49" t="n">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="BQ49" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="BR49" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="BT49" t="n">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="BU49" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50">
@@ -12153,11 +11817,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V50" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -12237,91 +11896,88 @@
         </is>
       </c>
       <c r="AQ50" t="n">
-        <v>1529</v>
+        <v>1447</v>
       </c>
       <c r="AR50" t="n">
-        <v>1834</v>
+        <v>1794</v>
       </c>
       <c r="AS50" t="n">
-        <v>1425</v>
+        <v>1342</v>
       </c>
       <c r="AT50" t="n">
-        <v>728</v>
+        <v>715</v>
       </c>
       <c r="AU50" t="n">
-        <v>1710</v>
+        <v>1678</v>
       </c>
       <c r="AV50" t="n">
-        <v>1015</v>
+        <v>1003</v>
       </c>
       <c r="AW50" t="n">
-        <v>1239</v>
+        <v>1219</v>
       </c>
       <c r="AX50" t="n">
-        <v>1526</v>
+        <v>1508</v>
       </c>
       <c r="AY50" t="n">
-        <v>1795</v>
+        <v>1759</v>
       </c>
       <c r="AZ50" t="n">
-        <v>624</v>
+        <v>599</v>
       </c>
       <c r="BB50" t="n">
-        <v>1274</v>
+        <v>1261</v>
       </c>
       <c r="BC50" t="n">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="BD50" t="n">
         <v>762</v>
       </c>
       <c r="BE50" t="n">
-        <v>632</v>
+        <v>601</v>
       </c>
       <c r="BF50" t="n">
-        <v>1641</v>
-      </c>
-      <c r="BG50" t="n">
-        <v>972</v>
+        <v>1644</v>
       </c>
       <c r="BH50" t="n">
         <v>1067</v>
       </c>
       <c r="BI50" t="n">
-        <v>1094</v>
+        <v>1030</v>
       </c>
       <c r="BJ50" t="n">
-        <v>1741</v>
+        <v>1712</v>
       </c>
       <c r="BK50" t="n">
-        <v>1314</v>
+        <v>1294</v>
       </c>
       <c r="BL50" t="n">
-        <v>1687</v>
+        <v>1650</v>
       </c>
       <c r="BM50" t="n">
-        <v>1019</v>
+        <v>991</v>
       </c>
       <c r="BN50" t="n">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="BO50" t="n">
-        <v>1475</v>
+        <v>1468</v>
       </c>
       <c r="BP50" t="n">
-        <v>2410</v>
+        <v>2372</v>
       </c>
       <c r="BQ50" t="n">
-        <v>1442</v>
+        <v>1384</v>
       </c>
       <c r="BR50" t="n">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="BT50" t="n">
-        <v>1309</v>
+        <v>1268</v>
       </c>
       <c r="BU50" t="n">
-        <v>1050</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="51">
@@ -12416,11 +12072,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V51" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -12500,10 +12151,10 @@
         </is>
       </c>
       <c r="AQ51" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AR51" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AS51" t="n">
         <v>217</v>
@@ -12515,76 +12166,73 @@
         <v>320</v>
       </c>
       <c r="AV51" t="n">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="AW51" t="n">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="AX51" t="n">
         <v>96</v>
       </c>
       <c r="AY51" t="n">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AZ51" t="n">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="BB51" t="n">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="BC51" t="n">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="BD51" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="BE51" t="n">
         <v>163</v>
       </c>
       <c r="BF51" t="n">
-        <v>240</v>
-      </c>
-      <c r="BG51" t="n">
-        <v>1925</v>
+        <v>237</v>
       </c>
       <c r="BH51" t="n">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="BI51" t="n">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="BJ51" t="n">
         <v>308</v>
       </c>
       <c r="BK51" t="n">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="BL51" t="n">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="BM51" t="n">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="BN51" t="n">
         <v>198</v>
       </c>
       <c r="BO51" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="BP51" t="n">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="BQ51" t="n">
         <v>138</v>
       </c>
       <c r="BR51" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="BT51" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BU51" t="n">
-        <v>109</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52">
@@ -12679,11 +12327,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V52" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -12778,7 +12421,7 @@
         <v>46</v>
       </c>
       <c r="AV52" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AW52" t="n">
         <v>48</v>
@@ -12790,31 +12433,28 @@
         <v>38</v>
       </c>
       <c r="AZ52" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="BB52" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BC52" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="BD52" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="BE52" t="n">
         <v>45</v>
       </c>
       <c r="BF52" t="n">
-        <v>104</v>
-      </c>
-      <c r="BG52" t="n">
-        <v>198</v>
+        <v>103</v>
       </c>
       <c r="BH52" t="n">
         <v>131</v>
       </c>
       <c r="BI52" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BJ52" t="n">
         <v>157</v>
@@ -12847,7 +12487,7 @@
         <v>33</v>
       </c>
       <c r="BU52" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="53">
@@ -12942,11 +12582,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V53" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -13026,91 +12661,88 @@
         </is>
       </c>
       <c r="AQ53" t="n">
-        <v>948</v>
+        <v>911</v>
       </c>
       <c r="AR53" t="n">
-        <v>1383</v>
+        <v>1328</v>
       </c>
       <c r="AS53" t="n">
+        <v>1074</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>791</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>1116</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>908</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>829</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>472</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>1002</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>1007</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>907</v>
+      </c>
+      <c r="BC53" t="n">
         <v>1089</v>
       </c>
-      <c r="AT53" t="n">
-        <v>680</v>
-      </c>
-      <c r="AU53" t="n">
-        <v>1148</v>
-      </c>
-      <c r="AV53" t="n">
-        <v>956</v>
-      </c>
-      <c r="AW53" t="n">
-        <v>888</v>
-      </c>
-      <c r="AX53" t="n">
-        <v>523</v>
-      </c>
-      <c r="AY53" t="n">
-        <v>1026</v>
-      </c>
-      <c r="AZ53" t="n">
-        <v>1035</v>
-      </c>
-      <c r="BB53" t="n">
-        <v>922</v>
-      </c>
-      <c r="BC53" t="n">
-        <v>1098</v>
-      </c>
       <c r="BD53" t="n">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="BE53" t="n">
         <v>576</v>
       </c>
       <c r="BF53" t="n">
-        <v>1529</v>
-      </c>
-      <c r="BG53" t="n">
-        <v>1985</v>
+        <v>1520</v>
       </c>
       <c r="BH53" t="n">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="BI53" t="n">
-        <v>1258</v>
+        <v>1221</v>
       </c>
       <c r="BJ53" t="n">
-        <v>3259</v>
+        <v>3257</v>
       </c>
       <c r="BK53" t="n">
-        <v>668</v>
+        <v>776</v>
       </c>
       <c r="BL53" t="n">
-        <v>1143</v>
+        <v>1116</v>
       </c>
       <c r="BM53" t="n">
-        <v>833</v>
+        <v>805</v>
       </c>
       <c r="BN53" t="n">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="BO53" t="n">
-        <v>857</v>
+        <v>837</v>
       </c>
       <c r="BP53" t="n">
-        <v>858</v>
+        <v>969</v>
       </c>
       <c r="BQ53" t="n">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="BR53" t="n">
-        <v>350</v>
+        <v>175</v>
       </c>
       <c r="BT53" t="n">
-        <v>1089</v>
+        <v>1039</v>
       </c>
       <c r="BU53" t="n">
-        <v>965</v>
+        <v>949</v>
       </c>
     </row>
     <row r="54">
@@ -13205,11 +12837,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V54" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -13289,91 +12916,88 @@
         </is>
       </c>
       <c r="AQ54" t="n">
-        <v>1629</v>
+        <v>2001</v>
       </c>
       <c r="AR54" t="n">
-        <v>2227</v>
+        <v>2154</v>
       </c>
       <c r="AS54" t="n">
-        <v>921</v>
+        <v>832</v>
       </c>
       <c r="AT54" t="n">
-        <v>1468</v>
+        <v>1434</v>
       </c>
       <c r="AU54" t="n">
-        <v>1480</v>
+        <v>1450</v>
       </c>
       <c r="AV54" t="n">
-        <v>1651</v>
+        <v>1584</v>
       </c>
       <c r="AW54" t="n">
-        <v>2341</v>
+        <v>2289</v>
       </c>
       <c r="AX54" t="n">
-        <v>1161</v>
+        <v>1143</v>
       </c>
       <c r="AY54" t="n">
-        <v>2095</v>
+        <v>2040</v>
       </c>
       <c r="AZ54" t="n">
-        <v>1051</v>
+        <v>1026</v>
       </c>
       <c r="BB54" t="n">
-        <v>2156</v>
+        <v>2089</v>
       </c>
       <c r="BC54" t="n">
-        <v>1232</v>
+        <v>1207</v>
       </c>
       <c r="BD54" t="n">
-        <v>1396</v>
+        <v>1380</v>
       </c>
       <c r="BE54" t="n">
-        <v>5275</v>
+        <v>5218</v>
       </c>
       <c r="BF54" t="n">
-        <v>1080</v>
-      </c>
-      <c r="BG54" t="n">
-        <v>3920</v>
+        <v>1040</v>
       </c>
       <c r="BH54" t="n">
-        <v>865</v>
+        <v>845</v>
       </c>
       <c r="BI54" t="n">
-        <v>1228</v>
+        <v>1214</v>
       </c>
       <c r="BJ54" t="n">
-        <v>1141</v>
+        <v>1122</v>
       </c>
       <c r="BK54" t="n">
-        <v>1479</v>
+        <v>1462</v>
       </c>
       <c r="BL54" t="n">
-        <v>988</v>
+        <v>1352</v>
       </c>
       <c r="BM54" t="n">
-        <v>2140</v>
+        <v>2109</v>
       </c>
       <c r="BN54" t="n">
-        <v>1686</v>
+        <v>1645</v>
       </c>
       <c r="BO54" t="n">
-        <v>1348</v>
+        <v>1332</v>
       </c>
       <c r="BP54" t="n">
-        <v>952</v>
+        <v>885</v>
       </c>
       <c r="BQ54" t="n">
-        <v>2855</v>
+        <v>2844</v>
       </c>
       <c r="BR54" t="n">
-        <v>1854</v>
+        <v>1828</v>
       </c>
       <c r="BT54" t="n">
-        <v>1553</v>
+        <v>1488</v>
       </c>
       <c r="BU54" t="n">
-        <v>1223</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="55">
@@ -13403,6 +13027,11 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
       <c r="I55" t="inlineStr">
         <is>
           <t>Within 210 Days</t>
@@ -13456,11 +13085,6 @@
       <c r="T55" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>Within 210 Days</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -13537,20 +13161,23 @@
       <c r="AS55" t="n">
         <v>154</v>
       </c>
+      <c r="AT55" t="n">
+        <v>24</v>
+      </c>
       <c r="AU55" t="n">
         <v>188</v>
       </c>
       <c r="AV55" t="n">
-        <v>403</v>
+        <v>335</v>
       </c>
       <c r="AW55" t="n">
-        <v>48</v>
+        <v>144</v>
       </c>
       <c r="AX55" t="n">
         <v>66</v>
       </c>
       <c r="AY55" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AZ55" t="n">
         <v>90</v>
@@ -13559,7 +13186,7 @@
         <v>30</v>
       </c>
       <c r="BC55" t="n">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="BD55" t="n">
         <v>45</v>
@@ -13570,17 +13197,14 @@
       <c r="BF55" t="n">
         <v>24</v>
       </c>
-      <c r="BG55" t="n">
-        <v>2045</v>
-      </c>
       <c r="BH55" t="n">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="BI55" t="n">
         <v>6</v>
       </c>
       <c r="BJ55" t="n">
-        <v>906</v>
+        <v>636</v>
       </c>
       <c r="BK55" t="n">
         <v>24</v>
@@ -13595,16 +13219,16 @@
         <v>34</v>
       </c>
       <c r="BP55" t="n">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="BQ55" t="n">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="BR55" t="n">
         <v>6</v>
       </c>
       <c r="BT55" t="n">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56">
@@ -13704,11 +13328,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="Y56" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -13773,85 +13392,82 @@
         </is>
       </c>
       <c r="AQ56" t="n">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="AR56" t="n">
         <v>83</v>
       </c>
       <c r="AS56" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="AT56" t="n">
         <v>79</v>
       </c>
       <c r="AU56" t="n">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="AV56" t="n">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="AW56" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="AX56" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AY56" t="n">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="AZ56" t="n">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="BB56" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="BC56" t="n">
         <v>131</v>
       </c>
       <c r="BD56" t="n">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="BE56" t="n">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="BF56" t="n">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="BI56" t="n">
-        <v>124</v>
-      </c>
-      <c r="BJ56" t="n">
-        <v>10</v>
+        <v>116</v>
       </c>
       <c r="BK56" t="n">
         <v>188</v>
       </c>
       <c r="BL56" t="n">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="BM56" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BN56" t="n">
         <v>181</v>
       </c>
       <c r="BO56" t="n">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="BP56" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="BQ56" t="n">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="BR56" t="n">
+        <v>16</v>
+      </c>
+      <c r="BT56" t="n">
         <v>21</v>
       </c>
-      <c r="BT56" t="n">
-        <v>30</v>
-      </c>
       <c r="BU56" t="n">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57">
@@ -13946,11 +13562,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V57" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -14030,40 +13641,40 @@
         </is>
       </c>
       <c r="AQ57" t="n">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="AR57" t="n">
         <v>99</v>
       </c>
       <c r="AS57" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="AT57" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AU57" t="n">
         <v>147</v>
       </c>
       <c r="AV57" t="n">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="AW57" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AX57" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="AY57" t="n">
         <v>136</v>
       </c>
       <c r="AZ57" t="n">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="BB57" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="BC57" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BD57" t="n">
         <v>107</v>
@@ -14072,10 +13683,7 @@
         <v>94</v>
       </c>
       <c r="BF57" t="n">
-        <v>131</v>
-      </c>
-      <c r="BG57" t="n">
-        <v>2030</v>
+        <v>128</v>
       </c>
       <c r="BH57" t="n">
         <v>124</v>
@@ -14084,25 +13692,25 @@
         <v>132</v>
       </c>
       <c r="BJ57" t="n">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="BK57" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="BL57" t="n">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="BM57" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="BN57" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="BO57" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="BP57" t="n">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="BQ57" t="n">
         <v>80</v>
@@ -14111,10 +13719,10 @@
         <v>122</v>
       </c>
       <c r="BT57" t="n">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="BU57" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="58">
@@ -14283,85 +13891,85 @@
         </is>
       </c>
       <c r="AQ58" t="n">
-        <v>168</v>
+        <v>76</v>
       </c>
       <c r="AR58" t="n">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="AS58" t="n">
-        <v>1076</v>
+        <v>1063</v>
       </c>
       <c r="AT58" t="n">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="AU58" t="n">
-        <v>670</v>
+        <v>641</v>
       </c>
       <c r="AV58" t="n">
-        <v>546</v>
+        <v>514</v>
       </c>
       <c r="AW58" t="n">
-        <v>81</v>
+        <v>19</v>
       </c>
       <c r="AX58" t="n">
-        <v>977</v>
+        <v>902</v>
       </c>
       <c r="AY58" t="n">
-        <v>1067</v>
+        <v>1051</v>
       </c>
       <c r="AZ58" t="n">
-        <v>711</v>
+        <v>692</v>
       </c>
       <c r="BC58" t="n">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="BD58" t="n">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="BE58" t="n">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="BF58" t="n">
-        <v>1355</v>
+        <v>1159</v>
       </c>
       <c r="BH58" t="n">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="BI58" t="n">
-        <v>760</v>
+        <v>721</v>
       </c>
       <c r="BJ58" t="n">
-        <v>600</v>
+        <v>550</v>
       </c>
       <c r="BK58" t="n">
-        <v>876</v>
+        <v>528</v>
       </c>
       <c r="BL58" t="n">
-        <v>628</v>
+        <v>568</v>
       </c>
       <c r="BM58" t="n">
-        <v>820</v>
+        <v>773</v>
       </c>
       <c r="BN58" t="n">
         <v>1052</v>
       </c>
       <c r="BO58" t="n">
-        <v>675</v>
+        <v>610</v>
       </c>
       <c r="BP58" t="n">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="BQ58" t="n">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="BR58" t="n">
-        <v>836</v>
+        <v>796</v>
       </c>
       <c r="BT58" t="n">
-        <v>1343</v>
+        <v>1264</v>
       </c>
       <c r="BU58" t="n">
-        <v>792</v>
+        <v>735</v>
       </c>
     </row>
     <row r="59">
@@ -14456,11 +14064,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V59" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -14540,28 +14143,28 @@
         </is>
       </c>
       <c r="AQ59" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AR59" t="n">
         <v>193</v>
       </c>
       <c r="AS59" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="AT59" t="n">
         <v>266</v>
       </c>
       <c r="AU59" t="n">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="AV59" t="n">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="AW59" t="n">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="AX59" t="n">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="AY59" t="n">
         <v>136</v>
@@ -14570,7 +14173,7 @@
         <v>141</v>
       </c>
       <c r="BB59" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="BC59" t="n">
         <v>188</v>
@@ -14582,37 +14185,34 @@
         <v>166</v>
       </c>
       <c r="BF59" t="n">
-        <v>212</v>
-      </c>
-      <c r="BG59" t="n">
-        <v>108</v>
+        <v>210</v>
       </c>
       <c r="BH59" t="n">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="BI59" t="n">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="BJ59" t="n">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="BK59" t="n">
         <v>217</v>
       </c>
       <c r="BL59" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="BM59" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BN59" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="BO59" t="n">
         <v>158</v>
       </c>
       <c r="BP59" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="BQ59" t="n">
         <v>888</v>
@@ -14621,10 +14221,10 @@
         <v>320</v>
       </c>
       <c r="BT59" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BU59" t="n">
-        <v>309</v>
+        <v>302</v>
       </c>
     </row>
     <row r="60">
@@ -14719,11 +14319,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V60" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -14803,37 +14398,37 @@
         </is>
       </c>
       <c r="AQ60" t="n">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AR60" t="n">
         <v>533</v>
       </c>
       <c r="AS60" t="n">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="AT60" t="n">
         <v>252</v>
       </c>
       <c r="AU60" t="n">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AV60" t="n">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="AW60" t="n">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="AX60" t="n">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="AY60" t="n">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="AZ60" t="n">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="BB60" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="BC60" t="n">
         <v>337</v>
@@ -14842,52 +14437,49 @@
         <v>324</v>
       </c>
       <c r="BE60" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="BF60" t="n">
-        <v>637</v>
-      </c>
-      <c r="BG60" t="n">
-        <v>756</v>
+        <v>632</v>
       </c>
       <c r="BH60" t="n">
         <v>521</v>
       </c>
       <c r="BI60" t="n">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="BJ60" t="n">
-        <v>990</v>
+        <v>967</v>
       </c>
       <c r="BK60" t="n">
         <v>1013</v>
       </c>
       <c r="BL60" t="n">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="BM60" t="n">
         <v>505</v>
       </c>
       <c r="BN60" t="n">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="BO60" t="n">
         <v>337</v>
       </c>
       <c r="BP60" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BQ60" t="n">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="BR60" t="n">
         <v>530</v>
       </c>
       <c r="BT60" t="n">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="BU60" t="n">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="61">
@@ -14982,11 +14574,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V61" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -15066,91 +14653,88 @@
         </is>
       </c>
       <c r="AQ61" t="n">
-        <v>1329</v>
+        <v>1245</v>
       </c>
       <c r="AR61" t="n">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="AS61" t="n">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="AT61" t="n">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="AU61" t="n">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="AV61" t="n">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="AW61" t="n">
-        <v>504</v>
+        <v>440</v>
       </c>
       <c r="AX61" t="n">
-        <v>552</v>
+        <v>520</v>
       </c>
       <c r="AY61" t="n">
-        <v>1298</v>
+        <v>1283</v>
       </c>
       <c r="AZ61" t="n">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="BB61" t="n">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="BC61" t="n">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="BD61" t="n">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="BE61" t="n">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="BF61" t="n">
-        <v>916</v>
-      </c>
-      <c r="BG61" t="n">
-        <v>480</v>
+        <v>847</v>
       </c>
       <c r="BH61" t="n">
-        <v>787</v>
+        <v>780</v>
       </c>
       <c r="BI61" t="n">
-        <v>1123</v>
+        <v>1106</v>
       </c>
       <c r="BJ61" t="n">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="BK61" t="n">
-        <v>1660</v>
+        <v>1636</v>
       </c>
       <c r="BL61" t="n">
-        <v>1223</v>
+        <v>1179</v>
       </c>
       <c r="BM61" t="n">
-        <v>1166</v>
+        <v>1139</v>
       </c>
       <c r="BN61" t="n">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="BO61" t="n">
-        <v>652</v>
+        <v>613</v>
       </c>
       <c r="BP61" t="n">
-        <v>1424</v>
+        <v>1422</v>
       </c>
       <c r="BQ61" t="n">
-        <v>978</v>
+        <v>961</v>
       </c>
       <c r="BR61" t="n">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="BT61" t="n">
-        <v>1276</v>
+        <v>1235</v>
       </c>
       <c r="BU61" t="n">
-        <v>780</v>
+        <v>718</v>
       </c>
     </row>
     <row r="62">
@@ -15245,11 +14829,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V62" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -15329,91 +14908,88 @@
         </is>
       </c>
       <c r="AQ62" t="n">
-        <v>8671</v>
+        <v>8528</v>
       </c>
       <c r="AR62" t="n">
-        <v>8954</v>
+        <v>8774</v>
       </c>
       <c r="AS62" t="n">
-        <v>3646</v>
+        <v>3483</v>
       </c>
       <c r="AT62" t="n">
-        <v>2842</v>
+        <v>2815</v>
       </c>
       <c r="AU62" t="n">
-        <v>5192</v>
+        <v>5030</v>
       </c>
       <c r="AV62" t="n">
-        <v>5907</v>
+        <v>5715</v>
       </c>
       <c r="AW62" t="n">
-        <v>2507</v>
+        <v>2446</v>
       </c>
       <c r="AX62" t="n">
-        <v>6931</v>
+        <v>6788</v>
       </c>
       <c r="AY62" t="n">
-        <v>3881</v>
+        <v>3825</v>
       </c>
       <c r="AZ62" t="n">
-        <v>4875</v>
+        <v>4739</v>
       </c>
       <c r="BB62" t="n">
-        <v>3539</v>
+        <v>3427</v>
       </c>
       <c r="BC62" t="n">
-        <v>3718</v>
+        <v>3668</v>
       </c>
       <c r="BD62" t="n">
-        <v>5620</v>
+        <v>5552</v>
       </c>
       <c r="BE62" t="n">
-        <v>5196</v>
+        <v>5085</v>
       </c>
       <c r="BF62" t="n">
-        <v>3806</v>
-      </c>
-      <c r="BG62" t="n">
-        <v>3780</v>
+        <v>3736</v>
       </c>
       <c r="BH62" t="n">
-        <v>2515</v>
+        <v>2452</v>
       </c>
       <c r="BI62" t="n">
-        <v>4255</v>
+        <v>4162</v>
       </c>
       <c r="BJ62" t="n">
-        <v>4874</v>
+        <v>4754</v>
       </c>
       <c r="BK62" t="n">
-        <v>4095</v>
+        <v>3930</v>
       </c>
       <c r="BL62" t="n">
-        <v>6654</v>
+        <v>7071</v>
       </c>
       <c r="BM62" t="n">
-        <v>4736</v>
+        <v>4641</v>
       </c>
       <c r="BN62" t="n">
-        <v>4281</v>
+        <v>4205</v>
       </c>
       <c r="BO62" t="n">
-        <v>5394</v>
+        <v>5360</v>
       </c>
       <c r="BP62" t="n">
-        <v>4081</v>
+        <v>4019</v>
       </c>
       <c r="BQ62" t="n">
-        <v>4346</v>
+        <v>4206</v>
       </c>
       <c r="BR62" t="n">
-        <v>5987</v>
+        <v>6421</v>
       </c>
       <c r="BT62" t="n">
-        <v>5619</v>
+        <v>5423</v>
       </c>
       <c r="BU62" t="n">
-        <v>5266</v>
+        <v>5134</v>
       </c>
     </row>
     <row r="63">
@@ -15555,11 +15131,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="V64" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -15639,91 +15210,88 @@
         </is>
       </c>
       <c r="AQ64" t="n">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="AR64" t="n">
-        <v>348</v>
+        <v>522</v>
       </c>
       <c r="AS64" t="n">
-        <v>740</v>
+        <v>710</v>
       </c>
       <c r="AT64" t="n">
         <v>309</v>
       </c>
       <c r="AU64" t="n">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="AV64" t="n">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="AW64" t="n">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="AX64" t="n">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="AY64" t="n">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AZ64" t="n">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="BB64" t="n">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="BC64" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="BD64" t="n">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="BE64" t="n">
         <v>295</v>
       </c>
       <c r="BF64" t="n">
-        <v>184</v>
-      </c>
-      <c r="BG64" t="n">
-        <v>3933</v>
+        <v>175</v>
       </c>
       <c r="BH64" t="n">
-        <v>721</v>
+        <v>698</v>
       </c>
       <c r="BI64" t="n">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="BJ64" t="n">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="BK64" t="n">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="BL64" t="n">
-        <v>332</v>
+        <v>425</v>
       </c>
       <c r="BM64" t="n">
-        <v>453</v>
+        <v>440</v>
       </c>
       <c r="BN64" t="n">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="BO64" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BP64" t="n">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="BQ64" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="BR64" t="n">
         <v>246</v>
       </c>
       <c r="BT64" t="n">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="BU64" t="n">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/Data/branch_wise_aging_stock.xlsx
+++ b/Data/branch_wise_aging_stock.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -66,74 +66,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -913,17 +845,7 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="W2" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
@@ -992,10 +914,10 @@
         </is>
       </c>
       <c r="AQ2" t="n">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="AR2" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="AS2" t="n">
         <v>118</v>
@@ -1004,76 +926,70 @@
         <v>260</v>
       </c>
       <c r="AU2" t="n">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="AV2" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AW2" t="n">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="AX2" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AY2" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="AZ2" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="BB2" t="n">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="BC2" t="n">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="BD2" t="n">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="BE2" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="BF2" t="n">
-        <v>103</v>
-      </c>
-      <c r="BH2" t="n">
+        <v>101</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>54</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>138</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>50</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>93</v>
+      </c>
+      <c r="BN2" t="n">
         <v>8</v>
       </c>
-      <c r="BI2" t="n">
-        <v>75</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>38</v>
-      </c>
-      <c r="BK2" t="n">
-        <v>145</v>
-      </c>
-      <c r="BL2" t="n">
-        <v>71</v>
-      </c>
-      <c r="BM2" t="n">
-        <v>105</v>
-      </c>
-      <c r="BN2" t="n">
-        <v>23</v>
-      </c>
       <c r="BO2" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="BP2" t="n">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="BQ2" t="n">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="BR2" t="n">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="BT2" t="n">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="BU2" t="n">
-        <v>216</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3">
@@ -1247,88 +1163,88 @@
         </is>
       </c>
       <c r="AQ3" t="n">
-        <v>3169</v>
+        <v>2813</v>
       </c>
       <c r="AR3" t="n">
-        <v>4046</v>
+        <v>4401</v>
       </c>
       <c r="AS3" t="n">
-        <v>2331</v>
+        <v>2814</v>
       </c>
       <c r="AT3" t="n">
-        <v>1211</v>
+        <v>727</v>
       </c>
       <c r="AU3" t="n">
-        <v>3310</v>
+        <v>2788</v>
       </c>
       <c r="AV3" t="n">
-        <v>2200</v>
+        <v>2665</v>
       </c>
       <c r="AW3" t="n">
-        <v>1640</v>
+        <v>1307</v>
       </c>
       <c r="AX3" t="n">
-        <v>2250</v>
+        <v>3009</v>
       </c>
       <c r="AY3" t="n">
-        <v>3745</v>
+        <v>4319</v>
       </c>
       <c r="AZ3" t="n">
-        <v>1265</v>
+        <v>1408</v>
       </c>
       <c r="BB3" t="n">
-        <v>2110</v>
+        <v>2759</v>
       </c>
       <c r="BC3" t="n">
-        <v>2506</v>
+        <v>2828</v>
       </c>
       <c r="BD3" t="n">
-        <v>2472</v>
+        <v>3341</v>
       </c>
       <c r="BE3" t="n">
-        <v>2290</v>
+        <v>2006</v>
       </c>
       <c r="BF3" t="n">
-        <v>2317</v>
+        <v>2639</v>
       </c>
       <c r="BH3" t="n">
-        <v>2249</v>
+        <v>2591</v>
       </c>
       <c r="BI3" t="n">
-        <v>2010</v>
+        <v>2119</v>
       </c>
       <c r="BJ3" t="n">
-        <v>2550</v>
+        <v>2837</v>
       </c>
       <c r="BK3" t="n">
-        <v>2014</v>
+        <v>2877</v>
       </c>
       <c r="BL3" t="n">
-        <v>1894</v>
+        <v>3204</v>
       </c>
       <c r="BM3" t="n">
-        <v>2012</v>
+        <v>2802</v>
       </c>
       <c r="BN3" t="n">
-        <v>3207</v>
+        <v>2942</v>
       </c>
       <c r="BO3" t="n">
-        <v>2840</v>
+        <v>3096</v>
       </c>
       <c r="BP3" t="n">
-        <v>2979</v>
+        <v>2679</v>
       </c>
       <c r="BQ3" t="n">
-        <v>3415</v>
+        <v>3612</v>
       </c>
       <c r="BR3" t="n">
-        <v>823</v>
+        <v>539</v>
       </c>
       <c r="BT3" t="n">
-        <v>2228</v>
+        <v>1696</v>
       </c>
       <c r="BU3" t="n">
-        <v>2430</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="4">
@@ -1541,88 +1457,88 @@
         </is>
       </c>
       <c r="AQ5" t="n">
-        <v>1607</v>
+        <v>1055</v>
       </c>
       <c r="AR5" t="n">
-        <v>887</v>
+        <v>345</v>
       </c>
       <c r="AS5" t="n">
-        <v>931</v>
+        <v>598</v>
       </c>
       <c r="AT5" t="n">
-        <v>1620</v>
+        <v>1429</v>
       </c>
       <c r="AU5" t="n">
-        <v>923</v>
+        <v>848</v>
       </c>
       <c r="AV5" t="n">
-        <v>1313</v>
+        <v>717</v>
       </c>
       <c r="AW5" t="n">
-        <v>926</v>
+        <v>578</v>
       </c>
       <c r="AX5" t="n">
-        <v>2438</v>
+        <v>2221</v>
       </c>
       <c r="AY5" t="n">
-        <v>1483</v>
+        <v>1125</v>
       </c>
       <c r="AZ5" t="n">
-        <v>1675</v>
+        <v>1206</v>
       </c>
       <c r="BB5" t="n">
-        <v>4499</v>
+        <v>4210</v>
       </c>
       <c r="BC5" t="n">
-        <v>3439</v>
+        <v>3103</v>
       </c>
       <c r="BD5" t="n">
-        <v>2126</v>
+        <v>1810</v>
       </c>
       <c r="BE5" t="n">
-        <v>2405</v>
+        <v>1942</v>
       </c>
       <c r="BF5" t="n">
-        <v>2421</v>
+        <v>2054</v>
       </c>
       <c r="BH5" t="n">
-        <v>471</v>
+        <v>20</v>
       </c>
       <c r="BI5" t="n">
-        <v>3103</v>
+        <v>2799</v>
       </c>
       <c r="BJ5" t="n">
-        <v>943</v>
+        <v>456</v>
       </c>
       <c r="BK5" t="n">
-        <v>1366</v>
+        <v>775</v>
       </c>
       <c r="BL5" t="n">
-        <v>1352</v>
+        <v>854</v>
       </c>
       <c r="BM5" t="n">
-        <v>3317</v>
+        <v>3140</v>
       </c>
       <c r="BN5" t="n">
-        <v>1580</v>
+        <v>1372</v>
       </c>
       <c r="BO5" t="n">
-        <v>1218</v>
+        <v>881</v>
       </c>
       <c r="BP5" t="n">
-        <v>2000</v>
+        <v>1636</v>
       </c>
       <c r="BQ5" t="n">
-        <v>1740</v>
+        <v>1480</v>
       </c>
       <c r="BR5" t="n">
-        <v>1536</v>
+        <v>1129</v>
       </c>
       <c r="BT5" t="n">
-        <v>3447</v>
+        <v>2980</v>
       </c>
       <c r="BU5" t="n">
-        <v>1843</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="6">
@@ -1796,88 +1712,88 @@
         </is>
       </c>
       <c r="AQ6" t="n">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="AR6" t="n">
-        <v>33</v>
+        <v>564</v>
       </c>
       <c r="AS6" t="n">
-        <v>287</v>
+        <v>766</v>
       </c>
       <c r="AT6" t="n">
-        <v>671</v>
+        <v>1040</v>
       </c>
       <c r="AU6" t="n">
-        <v>716</v>
+        <v>903</v>
       </c>
       <c r="AV6" t="n">
-        <v>390</v>
+        <v>1084</v>
       </c>
       <c r="AW6" t="n">
-        <v>504</v>
+        <v>456</v>
       </c>
       <c r="AX6" t="n">
-        <v>233</v>
+        <v>917</v>
       </c>
       <c r="AY6" t="n">
-        <v>90</v>
+        <v>1324</v>
       </c>
       <c r="AZ6" t="n">
-        <v>569</v>
+        <v>873</v>
       </c>
       <c r="BB6" t="n">
-        <v>272</v>
+        <v>707</v>
       </c>
       <c r="BC6" t="n">
-        <v>455</v>
+        <v>998</v>
       </c>
       <c r="BD6" t="n">
-        <v>535</v>
+        <v>703</v>
       </c>
       <c r="BE6" t="n">
-        <v>915</v>
+        <v>1112</v>
       </c>
       <c r="BF6" t="n">
-        <v>298</v>
+        <v>70</v>
       </c>
       <c r="BH6" t="n">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="BI6" t="n">
-        <v>1</v>
+        <v>952</v>
       </c>
       <c r="BJ6" t="n">
-        <v>466</v>
+        <v>326</v>
       </c>
       <c r="BK6" t="n">
-        <v>475</v>
+        <v>974</v>
       </c>
       <c r="BL6" t="n">
-        <v>875</v>
+        <v>805</v>
       </c>
       <c r="BM6" t="n">
-        <v>681</v>
+        <v>815</v>
       </c>
       <c r="BN6" t="n">
-        <v>348</v>
+        <v>485</v>
       </c>
       <c r="BO6" t="n">
-        <v>613</v>
+        <v>891</v>
       </c>
       <c r="BP6" t="n">
-        <v>1460</v>
+        <v>1318</v>
       </c>
       <c r="BQ6" t="n">
-        <v>745</v>
+        <v>696</v>
       </c>
       <c r="BR6" t="n">
-        <v>463</v>
+        <v>497</v>
       </c>
       <c r="BT6" t="n">
-        <v>14</v>
+        <v>906</v>
       </c>
       <c r="BU6" t="n">
-        <v>394</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="7">
@@ -2051,88 +1967,88 @@
         </is>
       </c>
       <c r="AQ7" t="n">
-        <v>6103</v>
+        <v>5453</v>
       </c>
       <c r="AR7" t="n">
-        <v>3651</v>
+        <v>6606</v>
       </c>
       <c r="AS7" t="n">
-        <v>3797</v>
+        <v>5846</v>
       </c>
       <c r="AT7" t="n">
-        <v>6102</v>
+        <v>7014</v>
       </c>
       <c r="AU7" t="n">
-        <v>6131</v>
+        <v>5876</v>
       </c>
       <c r="AV7" t="n">
+        <v>6187</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>5297</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>5025</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>7874</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>3300</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>3771</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>6979</v>
+      </c>
+      <c r="BD7" t="n">
         <v>4472</v>
       </c>
-      <c r="AW7" t="n">
-        <v>5786</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>3170</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>2359</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>2455</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>3746</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>5282</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>4732</v>
-      </c>
       <c r="BE7" t="n">
-        <v>817</v>
+        <v>3003</v>
       </c>
       <c r="BF7" t="n">
-        <v>19837</v>
+        <v>18178</v>
       </c>
       <c r="BH7" t="n">
-        <v>1947</v>
+        <v>2390</v>
       </c>
       <c r="BI7" t="n">
-        <v>2428</v>
+        <v>5063</v>
       </c>
       <c r="BJ7" t="n">
-        <v>4371</v>
+        <v>3872</v>
       </c>
       <c r="BK7" t="n">
-        <v>2265</v>
+        <v>3250</v>
       </c>
       <c r="BL7" t="n">
-        <v>5624</v>
+        <v>5043</v>
       </c>
       <c r="BM7" t="n">
-        <v>3096</v>
+        <v>2714</v>
       </c>
       <c r="BN7" t="n">
-        <v>3015</v>
+        <v>7609</v>
       </c>
       <c r="BO7" t="n">
-        <v>3183</v>
+        <v>5138</v>
       </c>
       <c r="BP7" t="n">
-        <v>5925</v>
+        <v>5662</v>
       </c>
       <c r="BQ7" t="n">
-        <v>9203</v>
+        <v>8779</v>
       </c>
       <c r="BR7" t="n">
-        <v>2080</v>
+        <v>3892</v>
       </c>
       <c r="BT7" t="n">
-        <v>2755</v>
+        <v>6551</v>
       </c>
       <c r="BU7" t="n">
-        <v>4257</v>
+        <v>3712</v>
       </c>
     </row>
     <row r="8">
@@ -2306,88 +2222,88 @@
         </is>
       </c>
       <c r="AQ8" t="n">
-        <v>560</v>
+        <v>415</v>
       </c>
       <c r="AR8" t="n">
-        <v>560</v>
+        <v>362</v>
       </c>
       <c r="AS8" t="n">
-        <v>706</v>
+        <v>662</v>
       </c>
       <c r="AT8" t="n">
-        <v>502</v>
+        <v>423</v>
       </c>
       <c r="AU8" t="n">
-        <v>647</v>
+        <v>582</v>
       </c>
       <c r="AV8" t="n">
-        <v>506</v>
+        <v>453</v>
       </c>
       <c r="AW8" t="n">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="AX8" t="n">
-        <v>1596</v>
+        <v>1573</v>
       </c>
       <c r="AY8" t="n">
-        <v>794</v>
+        <v>750</v>
       </c>
       <c r="AZ8" t="n">
-        <v>1330</v>
+        <v>1287</v>
       </c>
       <c r="BB8" t="n">
-        <v>516</v>
+        <v>457</v>
       </c>
       <c r="BC8" t="n">
+        <v>455</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>587</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>202</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>803</v>
+      </c>
+      <c r="BH8" t="n">
         <v>536</v>
       </c>
-      <c r="BD8" t="n">
-        <v>654</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>381</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>856</v>
-      </c>
-      <c r="BH8" t="n">
-        <v>615</v>
-      </c>
       <c r="BI8" t="n">
-        <v>830</v>
+        <v>795</v>
       </c>
       <c r="BJ8" t="n">
-        <v>769</v>
+        <v>691</v>
       </c>
       <c r="BK8" t="n">
-        <v>575</v>
+        <v>376</v>
       </c>
       <c r="BL8" t="n">
-        <v>491</v>
+        <v>416</v>
       </c>
       <c r="BM8" t="n">
-        <v>622</v>
+        <v>602</v>
       </c>
       <c r="BN8" t="n">
-        <v>782</v>
+        <v>694</v>
       </c>
       <c r="BO8" t="n">
-        <v>682</v>
+        <v>641</v>
       </c>
       <c r="BP8" t="n">
-        <v>637</v>
+        <v>571</v>
       </c>
       <c r="BQ8" t="n">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="BR8" t="n">
-        <v>683</v>
+        <v>645</v>
       </c>
       <c r="BT8" t="n">
-        <v>671</v>
+        <v>608</v>
       </c>
       <c r="BU8" t="n">
-        <v>325</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9">
@@ -2432,6 +2348,11 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
       <c r="K9" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -2457,6 +2378,11 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
       <c r="R9" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -2477,6 +2403,11 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
       <c r="X9" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -2508,6 +2439,11 @@
         </is>
       </c>
       <c r="AD9" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
@@ -2541,76 +2477,88 @@
         </is>
       </c>
       <c r="AQ9" t="n">
-        <v>172</v>
+        <v>570</v>
       </c>
       <c r="AR9" t="n">
-        <v>3</v>
+        <v>545</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>171</v>
       </c>
       <c r="AT9" t="n">
-        <v>171</v>
+        <v>670</v>
       </c>
       <c r="AU9" t="n">
-        <v>90</v>
+        <v>332</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>1055</v>
       </c>
       <c r="AW9" t="n">
-        <v>98</v>
+        <v>740</v>
       </c>
       <c r="AX9" t="n">
-        <v>58</v>
+        <v>609</v>
       </c>
       <c r="AY9" t="n">
-        <v>159</v>
+        <v>1004</v>
       </c>
       <c r="AZ9" t="n">
-        <v>33</v>
+        <v>727</v>
       </c>
       <c r="BB9" t="n">
-        <v>2</v>
+        <v>1227</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>988</v>
       </c>
       <c r="BD9" t="n">
-        <v>202</v>
+        <v>523</v>
       </c>
       <c r="BE9" t="n">
-        <v>34</v>
+        <v>623</v>
       </c>
       <c r="BF9" t="n">
+        <v>363</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>192</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>549</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>241</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>406</v>
+      </c>
+      <c r="BL9" t="n">
         <v>212</v>
       </c>
-      <c r="BH9" t="n">
-        <v>10</v>
-      </c>
-      <c r="BJ9" t="n">
-        <v>11</v>
-      </c>
-      <c r="BK9" t="n">
-        <v>93</v>
-      </c>
-      <c r="BL9" t="n">
-        <v>58</v>
-      </c>
       <c r="BM9" t="n">
-        <v>173</v>
+        <v>713</v>
       </c>
       <c r="BN9" t="n">
-        <v>258</v>
+        <v>566</v>
       </c>
       <c r="BO9" t="n">
-        <v>157</v>
+        <v>488</v>
       </c>
       <c r="BP9" t="n">
-        <v>210</v>
+        <v>654</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>610</v>
       </c>
       <c r="BR9" t="n">
-        <v>5</v>
+        <v>769</v>
       </c>
       <c r="BT9" t="n">
-        <v>29</v>
+        <v>506</v>
       </c>
       <c r="BU9" t="n">
-        <v>155</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10">
@@ -2784,88 +2732,88 @@
         </is>
       </c>
       <c r="AQ10" t="n">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="AR10" t="n">
-        <v>231</v>
+        <v>4</v>
       </c>
       <c r="AS10" t="n">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="AT10" t="n">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="AU10" t="n">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="AV10" t="n">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="AW10" t="n">
+        <v>122</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>77</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>185</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>152</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>91</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>155</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>70</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>105</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>213</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>78</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>36</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>92</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>80</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>182</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>171</v>
+      </c>
+      <c r="BN10" t="n">
         <v>138</v>
       </c>
-      <c r="AX10" t="n">
-        <v>63</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>255</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>224</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>272</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>279</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>295</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>139</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>197</v>
-      </c>
-      <c r="BH10" t="n">
-        <v>180</v>
-      </c>
-      <c r="BI10" t="n">
-        <v>135</v>
-      </c>
-      <c r="BJ10" t="n">
-        <v>212</v>
-      </c>
-      <c r="BK10" t="n">
-        <v>191</v>
-      </c>
-      <c r="BL10" t="n">
-        <v>287</v>
-      </c>
-      <c r="BM10" t="n">
-        <v>240</v>
-      </c>
-      <c r="BN10" t="n">
-        <v>156</v>
-      </c>
       <c r="BO10" t="n">
-        <v>208</v>
+        <v>164</v>
       </c>
       <c r="BP10" t="n">
-        <v>268</v>
+        <v>73</v>
       </c>
       <c r="BQ10" t="n">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="BR10" t="n">
-        <v>114</v>
+        <v>68</v>
       </c>
       <c r="BT10" t="n">
-        <v>132</v>
+        <v>74</v>
       </c>
       <c r="BU10" t="n">
-        <v>180</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11">
@@ -3039,88 +2987,88 @@
         </is>
       </c>
       <c r="AQ11" t="n">
-        <v>7773</v>
+        <v>7039</v>
       </c>
       <c r="AR11" t="n">
-        <v>5940</v>
+        <v>5649</v>
       </c>
       <c r="AS11" t="n">
-        <v>9156</v>
+        <v>8518</v>
       </c>
       <c r="AT11" t="n">
-        <v>7151</v>
+        <v>6153</v>
       </c>
       <c r="AU11" t="n">
-        <v>5528</v>
+        <v>4979</v>
       </c>
       <c r="AV11" t="n">
-        <v>10137</v>
+        <v>8927</v>
       </c>
       <c r="AW11" t="n">
-        <v>5164</v>
+        <v>4339</v>
       </c>
       <c r="AX11" t="n">
-        <v>6335</v>
+        <v>5965</v>
       </c>
       <c r="AY11" t="n">
-        <v>5220</v>
+        <v>4857</v>
       </c>
       <c r="AZ11" t="n">
-        <v>5474</v>
+        <v>4968</v>
       </c>
       <c r="BB11" t="n">
-        <v>3218</v>
+        <v>2737</v>
       </c>
       <c r="BC11" t="n">
-        <v>3680</v>
+        <v>3619</v>
       </c>
       <c r="BD11" t="n">
-        <v>4212</v>
+        <v>3828</v>
       </c>
       <c r="BE11" t="n">
-        <v>3196</v>
+        <v>2967</v>
       </c>
       <c r="BF11" t="n">
-        <v>5191</v>
+        <v>4539</v>
       </c>
       <c r="BH11" t="n">
-        <v>3070</v>
+        <v>3433</v>
       </c>
       <c r="BI11" t="n">
-        <v>6542</v>
+        <v>5826</v>
       </c>
       <c r="BJ11" t="n">
-        <v>1963</v>
+        <v>4489</v>
       </c>
       <c r="BK11" t="n">
-        <v>6045</v>
+        <v>5421</v>
       </c>
       <c r="BL11" t="n">
-        <v>8488</v>
+        <v>7580</v>
       </c>
       <c r="BM11" t="n">
-        <v>11969</v>
+        <v>10947</v>
       </c>
       <c r="BN11" t="n">
-        <v>2742</v>
+        <v>2651</v>
       </c>
       <c r="BO11" t="n">
-        <v>5704</v>
+        <v>5320</v>
       </c>
       <c r="BP11" t="n">
-        <v>4793</v>
+        <v>4447</v>
       </c>
       <c r="BQ11" t="n">
-        <v>5345</v>
+        <v>4744</v>
       </c>
       <c r="BR11" t="n">
-        <v>6314</v>
+        <v>5935</v>
       </c>
       <c r="BT11" t="n">
-        <v>10676</v>
+        <v>9935</v>
       </c>
       <c r="BU11" t="n">
-        <v>6717</v>
+        <v>5958</v>
       </c>
     </row>
     <row r="12">
@@ -3294,88 +3242,88 @@
         </is>
       </c>
       <c r="AQ12" t="n">
-        <v>619</v>
+        <v>438</v>
       </c>
       <c r="AR12" t="n">
-        <v>1064</v>
+        <v>917</v>
       </c>
       <c r="AS12" t="n">
-        <v>1194</v>
+        <v>961</v>
       </c>
       <c r="AT12" t="n">
-        <v>407</v>
+        <v>289</v>
       </c>
       <c r="AU12" t="n">
-        <v>695</v>
+        <v>534</v>
       </c>
       <c r="AV12" t="n">
-        <v>996</v>
+        <v>511</v>
       </c>
       <c r="AW12" t="n">
-        <v>666</v>
+        <v>533</v>
       </c>
       <c r="AX12" t="n">
-        <v>1141</v>
+        <v>908</v>
       </c>
       <c r="AY12" t="n">
-        <v>776</v>
+        <v>671</v>
       </c>
       <c r="AZ12" t="n">
-        <v>1060</v>
+        <v>869</v>
       </c>
       <c r="BB12" t="n">
-        <v>401</v>
+        <v>322</v>
       </c>
       <c r="BC12" t="n">
-        <v>393</v>
+        <v>316</v>
       </c>
       <c r="BD12" t="n">
-        <v>665</v>
+        <v>579</v>
       </c>
       <c r="BE12" t="n">
-        <v>1036</v>
+        <v>927</v>
       </c>
       <c r="BF12" t="n">
-        <v>706</v>
+        <v>630</v>
       </c>
       <c r="BH12" t="n">
-        <v>1506</v>
+        <v>1243</v>
       </c>
       <c r="BI12" t="n">
-        <v>855</v>
+        <v>704</v>
       </c>
       <c r="BJ12" t="n">
-        <v>1081</v>
+        <v>735</v>
       </c>
       <c r="BK12" t="n">
-        <v>750</v>
+        <v>617</v>
       </c>
       <c r="BL12" t="n">
-        <v>1011</v>
+        <v>834</v>
       </c>
       <c r="BM12" t="n">
-        <v>952</v>
+        <v>807</v>
       </c>
       <c r="BN12" t="n">
-        <v>882</v>
+        <v>826</v>
       </c>
       <c r="BO12" t="n">
-        <v>676</v>
+        <v>570</v>
       </c>
       <c r="BP12" t="n">
-        <v>1012</v>
+        <v>563</v>
       </c>
       <c r="BQ12" t="n">
-        <v>372</v>
+        <v>123</v>
       </c>
       <c r="BR12" t="n">
-        <v>969</v>
+        <v>821</v>
       </c>
       <c r="BT12" t="n">
-        <v>1457</v>
+        <v>1232</v>
       </c>
       <c r="BU12" t="n">
-        <v>516</v>
+        <v>432</v>
       </c>
     </row>
     <row r="13">
@@ -3549,88 +3497,88 @@
         </is>
       </c>
       <c r="AQ13" t="n">
-        <v>2053</v>
+        <v>1939</v>
       </c>
       <c r="AR13" t="n">
-        <v>1649</v>
+        <v>1417</v>
       </c>
       <c r="AS13" t="n">
-        <v>2355</v>
+        <v>2278</v>
       </c>
       <c r="AT13" t="n">
-        <v>911</v>
+        <v>833</v>
       </c>
       <c r="AU13" t="n">
-        <v>2060</v>
+        <v>1803</v>
       </c>
       <c r="AV13" t="n">
-        <v>1340</v>
+        <v>950</v>
       </c>
       <c r="AW13" t="n">
-        <v>1038</v>
+        <v>931</v>
       </c>
       <c r="AX13" t="n">
-        <v>1099</v>
+        <v>993</v>
       </c>
       <c r="AY13" t="n">
-        <v>1564</v>
+        <v>1532</v>
       </c>
       <c r="AZ13" t="n">
-        <v>998</v>
+        <v>886</v>
       </c>
       <c r="BB13" t="n">
-        <v>1116</v>
+        <v>1085</v>
       </c>
       <c r="BC13" t="n">
-        <v>1068</v>
+        <v>1033</v>
       </c>
       <c r="BD13" t="n">
-        <v>959</v>
+        <v>891</v>
       </c>
       <c r="BE13" t="n">
-        <v>1139</v>
+        <v>1029</v>
       </c>
       <c r="BF13" t="n">
-        <v>977</v>
+        <v>887</v>
       </c>
       <c r="BH13" t="n">
-        <v>1409</v>
+        <v>698</v>
       </c>
       <c r="BI13" t="n">
-        <v>1527</v>
+        <v>1348</v>
       </c>
       <c r="BJ13" t="n">
-        <v>1405</v>
+        <v>1281</v>
       </c>
       <c r="BK13" t="n">
-        <v>1590</v>
+        <v>1552</v>
       </c>
       <c r="BL13" t="n">
-        <v>1225</v>
+        <v>1034</v>
       </c>
       <c r="BM13" t="n">
-        <v>1639</v>
+        <v>1326</v>
       </c>
       <c r="BN13" t="n">
-        <v>1010</v>
+        <v>962</v>
       </c>
       <c r="BO13" t="n">
-        <v>2163</v>
+        <v>2079</v>
       </c>
       <c r="BP13" t="n">
-        <v>1437</v>
+        <v>1013</v>
       </c>
       <c r="BQ13" t="n">
-        <v>1095</v>
+        <v>1029</v>
       </c>
       <c r="BR13" t="n">
-        <v>2255</v>
+        <v>2217</v>
       </c>
       <c r="BT13" t="n">
-        <v>1929</v>
+        <v>1626</v>
       </c>
       <c r="BU13" t="n">
-        <v>1122</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="14">
@@ -3804,88 +3752,88 @@
         </is>
       </c>
       <c r="AQ14" t="n">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="AR14" t="n">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="AS14" t="n">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="AT14" t="n">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="AU14" t="n">
-        <v>350</v>
+        <v>295</v>
       </c>
       <c r="AV14" t="n">
-        <v>367</v>
+        <v>341</v>
       </c>
       <c r="AW14" t="n">
-        <v>218</v>
+        <v>192</v>
       </c>
       <c r="AX14" t="n">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="AY14" t="n">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="AZ14" t="n">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="BB14" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="BC14" t="n">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="BD14" t="n">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="BE14" t="n">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="BF14" t="n">
-        <v>350</v>
+        <v>314</v>
       </c>
       <c r="BH14" t="n">
-        <v>729</v>
+        <v>701</v>
       </c>
       <c r="BI14" t="n">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="BJ14" t="n">
-        <v>799</v>
+        <v>755</v>
       </c>
       <c r="BK14" t="n">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="BL14" t="n">
-        <v>370</v>
+        <v>324</v>
       </c>
       <c r="BM14" t="n">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="BN14" t="n">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="BO14" t="n">
-        <v>424</v>
+        <v>403</v>
       </c>
       <c r="BP14" t="n">
-        <v>270</v>
+        <v>129</v>
       </c>
       <c r="BQ14" t="n">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="BR14" t="n">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="BT14" t="n">
-        <v>590</v>
+        <v>531</v>
       </c>
       <c r="BU14" t="n">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
@@ -4059,88 +4007,88 @@
         </is>
       </c>
       <c r="AQ15" t="n">
-        <v>528</v>
+        <v>407</v>
       </c>
       <c r="AR15" t="n">
-        <v>651</v>
+        <v>590</v>
       </c>
       <c r="AS15" t="n">
-        <v>423</v>
+        <v>324</v>
       </c>
       <c r="AT15" t="n">
-        <v>228</v>
+        <v>211</v>
       </c>
       <c r="AU15" t="n">
-        <v>623</v>
+        <v>612</v>
       </c>
       <c r="AV15" t="n">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="AW15" t="n">
-        <v>374</v>
+        <v>315</v>
       </c>
       <c r="AX15" t="n">
-        <v>303</v>
+        <v>256</v>
       </c>
       <c r="AY15" t="n">
-        <v>269</v>
+        <v>488</v>
       </c>
       <c r="AZ15" t="n">
-        <v>631</v>
+        <v>538</v>
       </c>
       <c r="BB15" t="n">
-        <v>187</v>
+        <v>251</v>
       </c>
       <c r="BC15" t="n">
-        <v>257</v>
+        <v>202</v>
       </c>
       <c r="BD15" t="n">
-        <v>402</v>
+        <v>490</v>
       </c>
       <c r="BE15" t="n">
-        <v>472</v>
+        <v>430</v>
       </c>
       <c r="BF15" t="n">
-        <v>443</v>
+        <v>400</v>
       </c>
       <c r="BH15" t="n">
-        <v>611</v>
+        <v>776</v>
       </c>
       <c r="BI15" t="n">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="BJ15" t="n">
-        <v>782</v>
+        <v>893</v>
       </c>
       <c r="BK15" t="n">
-        <v>715</v>
+        <v>597</v>
       </c>
       <c r="BL15" t="n">
-        <v>495</v>
+        <v>642</v>
       </c>
       <c r="BM15" t="n">
-        <v>346</v>
+        <v>401</v>
       </c>
       <c r="BN15" t="n">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="BO15" t="n">
-        <v>492</v>
+        <v>640</v>
       </c>
       <c r="BP15" t="n">
-        <v>455</v>
+        <v>376</v>
       </c>
       <c r="BQ15" t="n">
-        <v>518</v>
+        <v>448</v>
       </c>
       <c r="BR15" t="n">
-        <v>356</v>
+        <v>291</v>
       </c>
       <c r="BT15" t="n">
-        <v>570</v>
+        <v>509</v>
       </c>
       <c r="BU15" t="n">
-        <v>422</v>
+        <v>347</v>
       </c>
     </row>
     <row r="16">
@@ -4314,88 +4262,88 @@
         </is>
       </c>
       <c r="AQ16" t="n">
-        <v>786</v>
+        <v>630</v>
       </c>
       <c r="AR16" t="n">
-        <v>983</v>
+        <v>765</v>
       </c>
       <c r="AS16" t="n">
-        <v>1020</v>
+        <v>876</v>
       </c>
       <c r="AT16" t="n">
-        <v>936</v>
+        <v>829</v>
       </c>
       <c r="AU16" t="n">
-        <v>1713</v>
+        <v>1370</v>
       </c>
       <c r="AV16" t="n">
-        <v>1699</v>
+        <v>1360</v>
       </c>
       <c r="AW16" t="n">
-        <v>907</v>
+        <v>781</v>
       </c>
       <c r="AX16" t="n">
-        <v>845</v>
+        <v>701</v>
       </c>
       <c r="AY16" t="n">
-        <v>725</v>
+        <v>599</v>
       </c>
       <c r="AZ16" t="n">
-        <v>947</v>
+        <v>766</v>
       </c>
       <c r="BB16" t="n">
-        <v>606</v>
+        <v>486</v>
       </c>
       <c r="BC16" t="n">
-        <v>869</v>
+        <v>798</v>
       </c>
       <c r="BD16" t="n">
-        <v>750</v>
+        <v>602</v>
       </c>
       <c r="BE16" t="n">
-        <v>714</v>
+        <v>595</v>
       </c>
       <c r="BF16" t="n">
-        <v>765</v>
+        <v>654</v>
       </c>
       <c r="BH16" t="n">
-        <v>1136</v>
+        <v>984</v>
       </c>
       <c r="BI16" t="n">
-        <v>932</v>
+        <v>734</v>
       </c>
       <c r="BJ16" t="n">
-        <v>1545</v>
+        <v>1261</v>
       </c>
       <c r="BK16" t="n">
-        <v>1006</v>
+        <v>895</v>
       </c>
       <c r="BL16" t="n">
-        <v>1430</v>
+        <v>1262</v>
       </c>
       <c r="BM16" t="n">
-        <v>1479</v>
+        <v>1244</v>
       </c>
       <c r="BN16" t="n">
-        <v>1091</v>
+        <v>1034</v>
       </c>
       <c r="BO16" t="n">
-        <v>1223</v>
+        <v>1161</v>
       </c>
       <c r="BP16" t="n">
-        <v>1127</v>
+        <v>818</v>
       </c>
       <c r="BQ16" t="n">
-        <v>984</v>
+        <v>863</v>
       </c>
       <c r="BR16" t="n">
-        <v>987</v>
+        <v>876</v>
       </c>
       <c r="BT16" t="n">
-        <v>2173</v>
+        <v>1801</v>
       </c>
       <c r="BU16" t="n">
-        <v>1385</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="17">
@@ -4430,11 +4378,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -4569,85 +4512,82 @@
         </is>
       </c>
       <c r="AQ17" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="AR17" t="n">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="AS17" t="n">
-        <v>35</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="AU17" t="n">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="AV17" t="n">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="AW17" t="n">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="AX17" t="n">
         <v>34</v>
       </c>
       <c r="AY17" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="AZ17" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="BB17" t="n">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="BC17" t="n">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="BD17" t="n">
         <v>50</v>
       </c>
       <c r="BE17" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="BF17" t="n">
         <v>27</v>
       </c>
       <c r="BH17" t="n">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="BI17" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="BJ17" t="n">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="BK17" t="n">
-        <v>41</v>
+        <v>6</v>
       </c>
       <c r="BL17" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="BM17" t="n">
-        <v>65</v>
+        <v>2</v>
       </c>
       <c r="BN17" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="BO17" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="BP17" t="n">
         <v>68</v>
       </c>
       <c r="BQ17" t="n">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="BR17" t="n">
         <v>28</v>
       </c>
       <c r="BT17" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="BU17" t="n">
         <v>29</v>
@@ -4750,11 +4690,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="Z18" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -4809,79 +4744,76 @@
         </is>
       </c>
       <c r="AQ18" t="n">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="AR18" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AS18" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="AT18" t="n">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="AU18" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AV18" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AW18" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AX18" t="n">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="AY18" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AZ18" t="n">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="BB18" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="BC18" t="n">
+        <v>54</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>20</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>44</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>35</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>89</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>20</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>51</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>69</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>71</v>
+      </c>
+      <c r="BT18" t="n">
         <v>73</v>
       </c>
-      <c r="BD18" t="n">
-        <v>13</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>27</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>56</v>
-      </c>
-      <c r="BH18" t="n">
-        <v>63</v>
-      </c>
-      <c r="BI18" t="n">
-        <v>10</v>
-      </c>
-      <c r="BL18" t="n">
-        <v>58</v>
-      </c>
-      <c r="BN18" t="n">
-        <v>94</v>
-      </c>
-      <c r="BO18" t="n">
-        <v>22</v>
-      </c>
-      <c r="BP18" t="n">
-        <v>52</v>
-      </c>
-      <c r="BQ18" t="n">
-        <v>75</v>
-      </c>
-      <c r="BR18" t="n">
-        <v>75</v>
-      </c>
-      <c r="BT18" t="n">
-        <v>81</v>
-      </c>
       <c r="BU18" t="n">
-        <v>635</v>
+        <v>626</v>
       </c>
     </row>
     <row r="19">
@@ -5001,11 +4933,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="AB19" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -5055,88 +4982,85 @@
         </is>
       </c>
       <c r="AQ19" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="AR19" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AS19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT19" t="n">
         <v>24</v>
       </c>
       <c r="AU19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>18</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD19" t="n">
         <v>23</v>
       </c>
-      <c r="AV19" t="n">
-        <v>52</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>18</v>
-      </c>
-      <c r="AY19" t="n">
+      <c r="BE19" t="n">
+        <v>15</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>13</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>263</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>42</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>221</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>8</v>
+      </c>
+      <c r="BL19" t="n">
         <v>20</v>
       </c>
-      <c r="AZ19" t="n">
-        <v>27</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>7</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>13</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>27</v>
-      </c>
-      <c r="BE19" t="n">
+      <c r="BN19" t="n">
+        <v>39</v>
+      </c>
+      <c r="BO19" t="n">
         <v>16</v>
       </c>
-      <c r="BF19" t="n">
-        <v>21</v>
-      </c>
-      <c r="BH19" t="n">
-        <v>264</v>
-      </c>
-      <c r="BI19" t="n">
-        <v>43</v>
-      </c>
-      <c r="BJ19" t="n">
-        <v>224</v>
-      </c>
-      <c r="BK19" t="n">
-        <v>11</v>
-      </c>
-      <c r="BL19" t="n">
-        <v>24</v>
-      </c>
-      <c r="BM19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BN19" t="n">
-        <v>42</v>
-      </c>
-      <c r="BO19" t="n">
-        <v>17</v>
-      </c>
       <c r="BP19" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BQ19" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BR19" t="n">
         <v>48</v>
       </c>
       <c r="BT19" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="BU19" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
@@ -5156,11 +5080,56 @@
           <t>Flucoder 35ml Dry Suspension</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -5176,11 +5145,21 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
       </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
       <c r="W20" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -5191,7 +5170,47 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
+      <c r="AD20" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
+      <c r="AE20" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
       <c r="AF20" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
+      <c r="AH20" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
@@ -5214,32 +5233,89 @@
           <t>Flucoder 35ml Dry Suspension</t>
         </is>
       </c>
+      <c r="AQ20" t="n">
+        <v>37</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>32</v>
+      </c>
       <c r="AT20" t="n">
-        <v>22</v>
+        <v>107</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>144</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>139</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>48</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>142</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>43</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>117</v>
       </c>
       <c r="BB20" t="n">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="BC20" t="n">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="BD20" t="n">
-        <v>7</v>
+        <v>80</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>190</v>
       </c>
       <c r="BF20" t="n">
-        <v>25</v>
+        <v>138</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>94</v>
       </c>
       <c r="BI20" t="n">
-        <v>50</v>
+        <v>174</v>
       </c>
       <c r="BJ20" t="n">
-        <v>24</v>
+        <v>267</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>13</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>48</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>68</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>48</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>93</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>91</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>46</v>
       </c>
       <c r="BR20" t="n">
-        <v>9</v>
+        <v>135</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>117</v>
       </c>
       <c r="BU20" t="n">
-        <v>310</v>
+        <v>764</v>
       </c>
     </row>
     <row r="21">
@@ -5413,88 +5489,88 @@
         </is>
       </c>
       <c r="AQ21" t="n">
-        <v>278</v>
+        <v>232</v>
       </c>
       <c r="AR21" t="n">
-        <v>238</v>
+        <v>215</v>
       </c>
       <c r="AS21" t="n">
-        <v>659</v>
+        <v>625</v>
       </c>
       <c r="AT21" t="n">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="AU21" t="n">
+        <v>216</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>334</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>164</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>181</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>208</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>217</v>
+      </c>
+      <c r="BB21" t="n">
         <v>226</v>
       </c>
-      <c r="AV21" t="n">
-        <v>377</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>146</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>208</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>217</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>176</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>257</v>
-      </c>
       <c r="BC21" t="n">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="BD21" t="n">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="BE21" t="n">
-        <v>118</v>
+        <v>181</v>
       </c>
       <c r="BF21" t="n">
-        <v>253</v>
+        <v>199</v>
       </c>
       <c r="BH21" t="n">
-        <v>479</v>
+        <v>671</v>
       </c>
       <c r="BI21" t="n">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="BJ21" t="n">
-        <v>240</v>
+        <v>435</v>
       </c>
       <c r="BK21" t="n">
-        <v>285</v>
+        <v>327</v>
       </c>
       <c r="BL21" t="n">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="BM21" t="n">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="BN21" t="n">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="BO21" t="n">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="BP21" t="n">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="BQ21" t="n">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="BR21" t="n">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="BT21" t="n">
-        <v>424</v>
+        <v>376</v>
       </c>
       <c r="BU21" t="n">
-        <v>541</v>
+        <v>787</v>
       </c>
     </row>
     <row r="22">
@@ -5655,7 +5731,7 @@
         <v>324</v>
       </c>
       <c r="BJ22" t="n">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="BK22" t="n">
         <v>216</v>
@@ -5898,25 +5974,25 @@
         </is>
       </c>
       <c r="AQ24" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AR24" t="n">
         <v>47</v>
       </c>
       <c r="AS24" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="AT24" t="n">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AU24" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AV24" t="n">
         <v>24</v>
       </c>
       <c r="AW24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX24" t="n">
         <v>70</v>
@@ -5925,37 +6001,37 @@
         <v>20</v>
       </c>
       <c r="AZ24" t="n">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="BB24" t="n">
         <v>20</v>
       </c>
       <c r="BC24" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="BD24" t="n">
         <v>40</v>
       </c>
       <c r="BE24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BF24" t="n">
         <v>17</v>
       </c>
       <c r="BH24" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="BI24" t="n">
         <v>73</v>
       </c>
       <c r="BJ24" t="n">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="BK24" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="BL24" t="n">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="BM24" t="n">
         <v>61</v>
@@ -5964,10 +6040,10 @@
         <v>30</v>
       </c>
       <c r="BO24" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="BP24" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="BQ24" t="n">
         <v>46</v>
@@ -5976,10 +6052,10 @@
         <v>82</v>
       </c>
       <c r="BT24" t="n">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="BU24" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
@@ -5999,117 +6075,12 @@
           <t>Itchnil 20g Cream - 1's</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="V25" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="W25" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="AB25" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="AE25" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="AF25" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="AH25" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
@@ -6127,74 +6098,11 @@
           <t>Itchnil 20g Cream - 1's</t>
         </is>
       </c>
-      <c r="AQ25" t="n">
-        <v>133</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>4</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>289</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>63</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>77</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>25</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>118</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>163</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>138</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>155</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>7</v>
-      </c>
-      <c r="BH25" t="n">
-        <v>11</v>
-      </c>
-      <c r="BI25" t="n">
-        <v>11</v>
-      </c>
-      <c r="BJ25" t="n">
-        <v>163</v>
-      </c>
-      <c r="BK25" t="n">
-        <v>43</v>
-      </c>
-      <c r="BL25" t="n">
-        <v>9</v>
-      </c>
       <c r="BN25" t="n">
-        <v>191</v>
-      </c>
-      <c r="BO25" t="n">
-        <v>169</v>
-      </c>
-      <c r="BP25" t="n">
-        <v>35</v>
-      </c>
-      <c r="BQ25" t="n">
-        <v>246</v>
+        <v>20</v>
       </c>
       <c r="BR25" t="n">
-        <v>87</v>
-      </c>
-      <c r="BT25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -6413,13 +6321,13 @@
         <v>15</v>
       </c>
       <c r="BH26" t="n">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="BI26" t="n">
         <v>26</v>
       </c>
       <c r="BJ26" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="BK26" t="n">
         <v>10</v>
@@ -6428,7 +6336,7 @@
         <v>8</v>
       </c>
       <c r="BM26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BN26" t="n">
         <v>20</v>
@@ -6440,7 +6348,7 @@
         <v>23</v>
       </c>
       <c r="BQ26" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="BR26" t="n">
         <v>14</v>
@@ -6632,7 +6540,7 @@
         <v>331</v>
       </c>
       <c r="AT27" t="n">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="AU27" t="n">
         <v>319</v>
@@ -6650,34 +6558,34 @@
         <v>48</v>
       </c>
       <c r="AZ27" t="n">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="BB27" t="n">
         <v>79</v>
       </c>
       <c r="BC27" t="n">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="BD27" t="n">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="BE27" t="n">
         <v>105</v>
       </c>
       <c r="BF27" t="n">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="BH27" t="n">
-        <v>108</v>
+        <v>221</v>
       </c>
       <c r="BI27" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="BJ27" t="n">
-        <v>219</v>
+        <v>503</v>
       </c>
       <c r="BK27" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BL27" t="n">
         <v>348</v>
@@ -6689,19 +6597,19 @@
         <v>33</v>
       </c>
       <c r="BO27" t="n">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="BP27" t="n">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="BQ27" t="n">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="BR27" t="n">
         <v>46</v>
       </c>
       <c r="BT27" t="n">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="BU27" t="n">
         <v>103</v>
@@ -6878,88 +6786,88 @@
         </is>
       </c>
       <c r="AQ28" t="n">
-        <v>488</v>
+        <v>463</v>
       </c>
       <c r="AR28" t="n">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="AS28" t="n">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="AT28" t="n">
-        <v>469</v>
+        <v>494</v>
       </c>
       <c r="AU28" t="n">
-        <v>684</v>
+        <v>622</v>
       </c>
       <c r="AV28" t="n">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="AW28" t="n">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="AX28" t="n">
-        <v>361</v>
+        <v>414</v>
       </c>
       <c r="AY28" t="n">
-        <v>436</v>
+        <v>409</v>
       </c>
       <c r="AZ28" t="n">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="BB28" t="n">
-        <v>452</v>
+        <v>431</v>
       </c>
       <c r="BC28" t="n">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="BD28" t="n">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="BE28" t="n">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="BF28" t="n">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="BH28" t="n">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="BI28" t="n">
-        <v>474</v>
+        <v>431</v>
       </c>
       <c r="BJ28" t="n">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="BK28" t="n">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="BL28" t="n">
-        <v>854</v>
+        <v>822</v>
       </c>
       <c r="BM28" t="n">
-        <v>420</v>
+        <v>381</v>
       </c>
       <c r="BN28" t="n">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="BO28" t="n">
-        <v>374</v>
+        <v>487</v>
       </c>
       <c r="BP28" t="n">
-        <v>381</v>
+        <v>440</v>
       </c>
       <c r="BQ28" t="n">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="BR28" t="n">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="BT28" t="n">
-        <v>467</v>
+        <v>423</v>
       </c>
       <c r="BU28" t="n">
-        <v>425</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29">
@@ -7131,82 +7039,82 @@
         <v>97</v>
       </c>
       <c r="AR29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AS29" t="n">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="AT29" t="n">
         <v>46</v>
       </c>
       <c r="AU29" t="n">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AV29" t="n">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="AW29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX29" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AY29" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="BB29" t="n">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="BC29" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="BD29" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="BE29" t="n">
         <v>19</v>
       </c>
       <c r="BF29" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="BH29" t="n">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="BI29" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>15</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>19</v>
+      </c>
+      <c r="BM29" t="n">
         <v>14</v>
       </c>
-      <c r="BK29" t="n">
+      <c r="BN29" t="n">
+        <v>50</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>42</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>42</v>
+      </c>
+      <c r="BQ29" t="n">
+        <v>32</v>
+      </c>
+      <c r="BR29" t="n">
+        <v>7</v>
+      </c>
+      <c r="BT29" t="n">
         <v>17</v>
       </c>
-      <c r="BL29" t="n">
-        <v>25</v>
-      </c>
-      <c r="BM29" t="n">
-        <v>19</v>
-      </c>
-      <c r="BN29" t="n">
-        <v>53</v>
-      </c>
-      <c r="BO29" t="n">
-        <v>46</v>
-      </c>
-      <c r="BP29" t="n">
-        <v>43</v>
-      </c>
-      <c r="BQ29" t="n">
-        <v>33</v>
-      </c>
-      <c r="BR29" t="n">
-        <v>11</v>
-      </c>
-      <c r="BT29" t="n">
-        <v>22</v>
-      </c>
       <c r="BU29" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -7276,16 +7184,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="R30" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -7302,11 +7200,6 @@
         </is>
       </c>
       <c r="W30" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="X30" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
@@ -7375,85 +7268,76 @@
         </is>
       </c>
       <c r="AQ30" t="n">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="AR30" t="n">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="AS30" t="n">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="AT30" t="n">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AU30" t="n">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="AV30" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW30" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="AX30" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="AY30" t="n">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="AZ30" t="n">
-        <v>54</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>3</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="BD30" t="n">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="BE30" t="n">
         <v>77</v>
       </c>
       <c r="BF30" t="n">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="BI30" t="n">
-        <v>79</v>
-      </c>
-      <c r="BJ30" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="BK30" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="BL30" t="n">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="BM30" t="n">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="BN30" t="n">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="BO30" t="n">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="BP30" t="n">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="BQ30" t="n">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="BR30" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="BT30" t="n">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="BU30" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
@@ -7666,88 +7550,88 @@
         </is>
       </c>
       <c r="AQ32" t="n">
-        <v>460</v>
+        <v>1638</v>
       </c>
       <c r="AR32" t="n">
-        <v>1014</v>
+        <v>1259</v>
       </c>
       <c r="AS32" t="n">
-        <v>245</v>
+        <v>1211</v>
       </c>
       <c r="AT32" t="n">
-        <v>802</v>
+        <v>605</v>
       </c>
       <c r="AU32" t="n">
-        <v>673</v>
+        <v>870</v>
       </c>
       <c r="AV32" t="n">
-        <v>930</v>
+        <v>1112</v>
       </c>
       <c r="AW32" t="n">
-        <v>587</v>
+        <v>1474</v>
       </c>
       <c r="AX32" t="n">
-        <v>361</v>
+        <v>1600</v>
       </c>
       <c r="AY32" t="n">
-        <v>997</v>
+        <v>1434</v>
       </c>
       <c r="AZ32" t="n">
-        <v>1764</v>
+        <v>1561</v>
       </c>
       <c r="BB32" t="n">
-        <v>713</v>
+        <v>1569</v>
       </c>
       <c r="BC32" t="n">
-        <v>882</v>
+        <v>2025</v>
       </c>
       <c r="BD32" t="n">
-        <v>39</v>
+        <v>1382</v>
       </c>
       <c r="BE32" t="n">
-        <v>707</v>
+        <v>731</v>
       </c>
       <c r="BF32" t="n">
-        <v>1091</v>
+        <v>1767</v>
       </c>
       <c r="BH32" t="n">
-        <v>642</v>
+        <v>1445</v>
       </c>
       <c r="BI32" t="n">
-        <v>263</v>
+        <v>1917</v>
       </c>
       <c r="BJ32" t="n">
-        <v>368</v>
+        <v>1266</v>
       </c>
       <c r="BK32" t="n">
-        <v>160</v>
+        <v>995</v>
       </c>
       <c r="BL32" t="n">
-        <v>268</v>
+        <v>1571</v>
       </c>
       <c r="BM32" t="n">
-        <v>513</v>
+        <v>948</v>
       </c>
       <c r="BN32" t="n">
-        <v>714</v>
+        <v>1243</v>
       </c>
       <c r="BO32" t="n">
-        <v>931</v>
+        <v>1689</v>
       </c>
       <c r="BP32" t="n">
-        <v>902</v>
+        <v>1569</v>
       </c>
       <c r="BQ32" t="n">
-        <v>391</v>
+        <v>1748</v>
       </c>
       <c r="BR32" t="n">
-        <v>443</v>
+        <v>1136</v>
       </c>
       <c r="BT32" t="n">
-        <v>623</v>
+        <v>1420</v>
       </c>
       <c r="BU32" t="n">
-        <v>152</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="33">
@@ -7960,88 +7844,88 @@
         </is>
       </c>
       <c r="AQ34" t="n">
-        <v>8458</v>
+        <v>10731</v>
       </c>
       <c r="AR34" t="n">
-        <v>7288</v>
+        <v>4343</v>
       </c>
       <c r="AS34" t="n">
-        <v>6328</v>
+        <v>3724</v>
       </c>
       <c r="AT34" t="n">
-        <v>6795</v>
+        <v>6998</v>
       </c>
       <c r="AU34" t="n">
-        <v>9210</v>
+        <v>10114</v>
       </c>
       <c r="AV34" t="n">
-        <v>9248</v>
+        <v>8447</v>
       </c>
       <c r="AW34" t="n">
-        <v>2652</v>
+        <v>11019</v>
       </c>
       <c r="AX34" t="n">
-        <v>11646</v>
+        <v>8047</v>
       </c>
       <c r="AY34" t="n">
-        <v>6258</v>
+        <v>2740</v>
       </c>
       <c r="AZ34" t="n">
-        <v>6242</v>
+        <v>7321</v>
       </c>
       <c r="BB34" t="n">
-        <v>11427</v>
+        <v>11527</v>
       </c>
       <c r="BC34" t="n">
-        <v>8434</v>
+        <v>6159</v>
       </c>
       <c r="BD34" t="n">
-        <v>5149</v>
+        <v>7435</v>
       </c>
       <c r="BE34" t="n">
-        <v>8705</v>
+        <v>7656</v>
       </c>
       <c r="BF34" t="n">
-        <v>10638</v>
+        <v>9129</v>
       </c>
       <c r="BH34" t="n">
-        <v>3494</v>
+        <v>5061</v>
       </c>
       <c r="BI34" t="n">
-        <v>6030</v>
+        <v>4666</v>
       </c>
       <c r="BJ34" t="n">
-        <v>7963</v>
+        <v>9605</v>
       </c>
       <c r="BK34" t="n">
-        <v>5097</v>
+        <v>7724</v>
       </c>
       <c r="BL34" t="n">
-        <v>9900</v>
+        <v>9679</v>
       </c>
       <c r="BM34" t="n">
-        <v>10633</v>
+        <v>13061</v>
       </c>
       <c r="BN34" t="n">
-        <v>9384</v>
+        <v>7620</v>
       </c>
       <c r="BO34" t="n">
-        <v>6455</v>
+        <v>4346</v>
       </c>
       <c r="BP34" t="n">
-        <v>478</v>
+        <v>7540</v>
       </c>
       <c r="BQ34" t="n">
-        <v>5661</v>
+        <v>11218</v>
       </c>
       <c r="BR34" t="n">
-        <v>7407</v>
+        <v>6951</v>
       </c>
       <c r="BT34" t="n">
-        <v>4715</v>
+        <v>3282</v>
       </c>
       <c r="BU34" t="n">
-        <v>4765</v>
+        <v>5590</v>
       </c>
     </row>
     <row r="35">
@@ -8215,88 +8099,88 @@
         </is>
       </c>
       <c r="AQ35" t="n">
-        <v>944</v>
+        <v>493</v>
       </c>
       <c r="AR35" t="n">
-        <v>583</v>
+        <v>887</v>
       </c>
       <c r="AS35" t="n">
-        <v>662</v>
+        <v>538</v>
       </c>
       <c r="AT35" t="n">
-        <v>277</v>
+        <v>223</v>
       </c>
       <c r="AU35" t="n">
-        <v>851</v>
+        <v>720</v>
       </c>
       <c r="AV35" t="n">
-        <v>988</v>
+        <v>845</v>
       </c>
       <c r="AW35" t="n">
-        <v>235</v>
+        <v>15</v>
       </c>
       <c r="AX35" t="n">
-        <v>911</v>
+        <v>967</v>
       </c>
       <c r="AY35" t="n">
+        <v>1208</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>456</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>1081</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>409</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>926</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>569</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>1296</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>508</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>864</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>918</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>813</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>595</v>
+      </c>
+      <c r="BM35" t="n">
         <v>564</v>
       </c>
-      <c r="AZ35" t="n">
-        <v>811</v>
-      </c>
-      <c r="BB35" t="n">
-        <v>1580</v>
-      </c>
-      <c r="BC35" t="n">
-        <v>368</v>
-      </c>
-      <c r="BD35" t="n">
-        <v>1072</v>
-      </c>
-      <c r="BE35" t="n">
-        <v>448</v>
-      </c>
-      <c r="BF35" t="n">
-        <v>1483</v>
-      </c>
-      <c r="BH35" t="n">
-        <v>231</v>
-      </c>
-      <c r="BI35" t="n">
-        <v>923</v>
-      </c>
-      <c r="BJ35" t="n">
-        <v>359</v>
-      </c>
-      <c r="BK35" t="n">
-        <v>1285</v>
-      </c>
-      <c r="BL35" t="n">
-        <v>998</v>
-      </c>
-      <c r="BM35" t="n">
-        <v>602</v>
-      </c>
       <c r="BN35" t="n">
-        <v>700</v>
+        <v>1095</v>
       </c>
       <c r="BO35" t="n">
-        <v>1358</v>
+        <v>1481</v>
       </c>
       <c r="BP35" t="n">
-        <v>221</v>
+        <v>183</v>
       </c>
       <c r="BQ35" t="n">
-        <v>641</v>
+        <v>797</v>
       </c>
       <c r="BR35" t="n">
-        <v>530</v>
+        <v>466</v>
       </c>
       <c r="BT35" t="n">
-        <v>513</v>
+        <v>429</v>
       </c>
       <c r="BU35" t="n">
-        <v>1056</v>
+        <v>582</v>
       </c>
     </row>
     <row r="36">
@@ -8470,88 +8354,88 @@
         </is>
       </c>
       <c r="AQ36" t="n">
-        <v>282</v>
+        <v>188</v>
       </c>
       <c r="AR36" t="n">
-        <v>582</v>
+        <v>244</v>
       </c>
       <c r="AS36" t="n">
-        <v>469</v>
+        <v>348</v>
       </c>
       <c r="AT36" t="n">
-        <v>341</v>
+        <v>269</v>
       </c>
       <c r="AU36" t="n">
-        <v>626</v>
+        <v>529</v>
       </c>
       <c r="AV36" t="n">
-        <v>929</v>
+        <v>816</v>
       </c>
       <c r="AW36" t="n">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="AX36" t="n">
-        <v>859</v>
+        <v>805</v>
       </c>
       <c r="AY36" t="n">
-        <v>655</v>
+        <v>462</v>
       </c>
       <c r="AZ36" t="n">
-        <v>319</v>
+        <v>220</v>
       </c>
       <c r="BB36" t="n">
-        <v>695</v>
+        <v>464</v>
       </c>
       <c r="BC36" t="n">
-        <v>423</v>
+        <v>169</v>
       </c>
       <c r="BD36" t="n">
-        <v>419</v>
+        <v>290</v>
       </c>
       <c r="BE36" t="n">
-        <v>603</v>
+        <v>517</v>
       </c>
       <c r="BF36" t="n">
-        <v>872</v>
+        <v>784</v>
       </c>
       <c r="BH36" t="n">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="BI36" t="n">
-        <v>575</v>
+        <v>496</v>
       </c>
       <c r="BJ36" t="n">
-        <v>329</v>
+        <v>138</v>
       </c>
       <c r="BK36" t="n">
-        <v>617</v>
+        <v>510</v>
       </c>
       <c r="BL36" t="n">
-        <v>452</v>
+        <v>333</v>
       </c>
       <c r="BM36" t="n">
-        <v>467</v>
+        <v>324</v>
       </c>
       <c r="BN36" t="n">
-        <v>798</v>
+        <v>602</v>
       </c>
       <c r="BO36" t="n">
-        <v>808</v>
+        <v>749</v>
       </c>
       <c r="BP36" t="n">
-        <v>472</v>
+        <v>390</v>
       </c>
       <c r="BQ36" t="n">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="BR36" t="n">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="BT36" t="n">
-        <v>533</v>
+        <v>336</v>
       </c>
       <c r="BU36" t="n">
-        <v>268</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37">
@@ -8593,7 +8477,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Within 180 Days</t>
+          <t>More Than 210 Days</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -8725,88 +8609,88 @@
         </is>
       </c>
       <c r="AQ37" t="n">
-        <v>2238</v>
+        <v>2432</v>
       </c>
       <c r="AR37" t="n">
-        <v>2724</v>
+        <v>6433</v>
       </c>
       <c r="AS37" t="n">
-        <v>4199</v>
+        <v>4694</v>
       </c>
       <c r="AT37" t="n">
-        <v>1800</v>
+        <v>3970</v>
       </c>
       <c r="AU37" t="n">
-        <v>3456</v>
+        <v>3311</v>
       </c>
       <c r="AV37" t="n">
-        <v>1840</v>
+        <v>4235</v>
       </c>
       <c r="AW37" t="n">
-        <v>5405</v>
+        <v>3547</v>
       </c>
       <c r="AX37" t="n">
-        <v>1516</v>
+        <v>4056</v>
       </c>
       <c r="AY37" t="n">
-        <v>2082</v>
+        <v>5997</v>
       </c>
       <c r="AZ37" t="n">
-        <v>2850</v>
+        <v>2765</v>
       </c>
       <c r="BB37" t="n">
-        <v>3188</v>
+        <v>3970</v>
       </c>
       <c r="BC37" t="n">
-        <v>3551</v>
+        <v>5921</v>
       </c>
       <c r="BD37" t="n">
-        <v>1770</v>
+        <v>2950</v>
       </c>
       <c r="BE37" t="n">
-        <v>1866</v>
+        <v>3041</v>
       </c>
       <c r="BF37" t="n">
-        <v>6336</v>
+        <v>6320</v>
       </c>
       <c r="BH37" t="n">
-        <v>990</v>
+        <v>3314</v>
       </c>
       <c r="BI37" t="n">
-        <v>4885</v>
+        <v>4733</v>
       </c>
       <c r="BJ37" t="n">
-        <v>114</v>
+        <v>5438</v>
       </c>
       <c r="BK37" t="n">
-        <v>1255</v>
+        <v>2740</v>
       </c>
       <c r="BL37" t="n">
-        <v>2104</v>
+        <v>2651</v>
       </c>
       <c r="BM37" t="n">
-        <v>1292</v>
+        <v>2455</v>
       </c>
       <c r="BN37" t="n">
-        <v>2442</v>
+        <v>4905</v>
       </c>
       <c r="BO37" t="n">
-        <v>4462</v>
+        <v>7012</v>
       </c>
       <c r="BP37" t="n">
-        <v>3129</v>
+        <v>2878</v>
       </c>
       <c r="BQ37" t="n">
-        <v>5927</v>
+        <v>6875</v>
       </c>
       <c r="BR37" t="n">
-        <v>1755</v>
+        <v>1585</v>
       </c>
       <c r="BT37" t="n">
-        <v>3223</v>
+        <v>3026</v>
       </c>
       <c r="BU37" t="n">
-        <v>1837</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="38">
@@ -8980,88 +8864,88 @@
         </is>
       </c>
       <c r="AQ38" t="n">
-        <v>277</v>
+        <v>747</v>
       </c>
       <c r="AR38" t="n">
-        <v>244</v>
+        <v>387</v>
       </c>
       <c r="AS38" t="n">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="AT38" t="n">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="AU38" t="n">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="AV38" t="n">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="AW38" t="n">
-        <v>359</v>
+        <v>504</v>
       </c>
       <c r="AX38" t="n">
-        <v>176</v>
+        <v>373</v>
       </c>
       <c r="AY38" t="n">
-        <v>233</v>
+        <v>335</v>
       </c>
       <c r="AZ38" t="n">
-        <v>262</v>
+        <v>181</v>
       </c>
       <c r="BB38" t="n">
-        <v>620</v>
+        <v>685</v>
       </c>
       <c r="BC38" t="n">
-        <v>417</v>
+        <v>542</v>
       </c>
       <c r="BD38" t="n">
-        <v>132</v>
+        <v>309</v>
       </c>
       <c r="BE38" t="n">
-        <v>184</v>
+        <v>302</v>
       </c>
       <c r="BF38" t="n">
-        <v>527</v>
+        <v>494</v>
       </c>
       <c r="BH38" t="n">
-        <v>59</v>
+        <v>172</v>
       </c>
       <c r="BI38" t="n">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="BJ38" t="n">
-        <v>63</v>
+        <v>205</v>
       </c>
       <c r="BK38" t="n">
-        <v>215</v>
+        <v>165</v>
       </c>
       <c r="BL38" t="n">
-        <v>249</v>
+        <v>281</v>
       </c>
       <c r="BM38" t="n">
-        <v>294</v>
+        <v>260</v>
       </c>
       <c r="BN38" t="n">
-        <v>329</v>
+        <v>278</v>
       </c>
       <c r="BO38" t="n">
-        <v>635</v>
+        <v>512</v>
       </c>
       <c r="BP38" t="n">
-        <v>251</v>
+        <v>372</v>
       </c>
       <c r="BQ38" t="n">
-        <v>228</v>
+        <v>833</v>
       </c>
       <c r="BR38" t="n">
-        <v>320</v>
+        <v>258</v>
       </c>
       <c r="BT38" t="n">
-        <v>222</v>
+        <v>311</v>
       </c>
       <c r="BU38" t="n">
-        <v>229</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39">
@@ -9121,11 +9005,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="N39" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -9136,6 +9015,11 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
       <c r="R39" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -9207,6 +9091,11 @@
         </is>
       </c>
       <c r="AH39" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
+      <c r="AI39" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
@@ -9225,82 +9114,85 @@
         </is>
       </c>
       <c r="AQ39" t="n">
-        <v>173</v>
+        <v>101</v>
       </c>
       <c r="AR39" t="n">
-        <v>137</v>
+        <v>29</v>
       </c>
       <c r="AS39" t="n">
-        <v>359</v>
+        <v>272</v>
       </c>
       <c r="AT39" t="n">
-        <v>262</v>
+        <v>178</v>
       </c>
       <c r="AU39" t="n">
-        <v>356</v>
+        <v>154</v>
       </c>
       <c r="AV39" t="n">
-        <v>223</v>
+        <v>49</v>
       </c>
       <c r="AW39" t="n">
-        <v>213</v>
+        <v>152</v>
       </c>
       <c r="AX39" t="n">
-        <v>342</v>
-      </c>
-      <c r="AY39" t="n">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="AZ39" t="n">
-        <v>211</v>
+        <v>155</v>
       </c>
       <c r="BB39" t="n">
-        <v>85</v>
+        <v>17</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>59</v>
       </c>
       <c r="BD39" t="n">
-        <v>296</v>
+        <v>30</v>
       </c>
       <c r="BE39" t="n">
-        <v>145</v>
+        <v>56</v>
       </c>
       <c r="BF39" t="n">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="BH39" t="n">
-        <v>52</v>
+        <v>112</v>
       </c>
       <c r="BI39" t="n">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="BJ39" t="n">
-        <v>187</v>
+        <v>98</v>
       </c>
       <c r="BK39" t="n">
-        <v>201</v>
+        <v>125</v>
       </c>
       <c r="BL39" t="n">
-        <v>178</v>
+        <v>73</v>
       </c>
       <c r="BM39" t="n">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="BN39" t="n">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="BO39" t="n">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="BP39" t="n">
-        <v>145</v>
+        <v>110</v>
       </c>
       <c r="BQ39" t="n">
-        <v>241</v>
+        <v>194</v>
       </c>
       <c r="BR39" t="n">
-        <v>287</v>
+        <v>125</v>
       </c>
       <c r="BT39" t="n">
-        <v>102</v>
+        <v>8</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="40">
@@ -9325,11 +9217,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="G40" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -9375,11 +9262,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="R40" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -9416,6 +9298,11 @@
         </is>
       </c>
       <c r="Z40" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
@@ -9469,85 +9356,82 @@
         </is>
       </c>
       <c r="AQ40" t="n">
-        <v>173</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>24</v>
+        <v>151</v>
       </c>
       <c r="AS40" t="n">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="AT40" t="n">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="AU40" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AV40" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AW40" t="n">
         <v>59</v>
       </c>
       <c r="AX40" t="n">
-        <v>125</v>
+        <v>33</v>
       </c>
       <c r="AY40" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>77</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>45</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>72</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>55</v>
+      </c>
+      <c r="BF40" t="n">
         <v>30</v>
       </c>
-      <c r="AZ40" t="n">
-        <v>82</v>
-      </c>
-      <c r="BB40" t="n">
-        <v>67</v>
-      </c>
-      <c r="BC40" t="n">
-        <v>12</v>
-      </c>
-      <c r="BD40" t="n">
-        <v>73</v>
-      </c>
-      <c r="BE40" t="n">
-        <v>61</v>
-      </c>
-      <c r="BF40" t="n">
-        <v>41</v>
-      </c>
       <c r="BH40" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="BI40" t="n">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="BJ40" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="BK40" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="BL40" t="n">
-        <v>96</v>
+        <v>70</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>62</v>
       </c>
       <c r="BN40" t="n">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="BO40" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="BP40" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="BQ40" t="n">
         <v>45</v>
       </c>
       <c r="BR40" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="BT40" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="BU40" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
@@ -9721,88 +9605,88 @@
         </is>
       </c>
       <c r="AQ41" t="n">
-        <v>1633</v>
+        <v>1481</v>
       </c>
       <c r="AR41" t="n">
-        <v>329</v>
+        <v>734</v>
       </c>
       <c r="AS41" t="n">
-        <v>384</v>
+        <v>256</v>
       </c>
       <c r="AT41" t="n">
-        <v>854</v>
+        <v>1015</v>
       </c>
       <c r="AU41" t="n">
-        <v>419</v>
+        <v>1361</v>
       </c>
       <c r="AV41" t="n">
-        <v>320</v>
+        <v>1204</v>
       </c>
       <c r="AW41" t="n">
-        <v>298</v>
+        <v>794</v>
       </c>
       <c r="AX41" t="n">
-        <v>906</v>
+        <v>1409</v>
       </c>
       <c r="AY41" t="n">
-        <v>544</v>
+        <v>924</v>
       </c>
       <c r="AZ41" t="n">
-        <v>797</v>
+        <v>1224</v>
       </c>
       <c r="BB41" t="n">
-        <v>512</v>
+        <v>1454</v>
       </c>
       <c r="BC41" t="n">
-        <v>141</v>
+        <v>542</v>
       </c>
       <c r="BD41" t="n">
-        <v>1044</v>
+        <v>993</v>
       </c>
       <c r="BE41" t="n">
-        <v>361</v>
+        <v>776</v>
       </c>
       <c r="BF41" t="n">
-        <v>733</v>
+        <v>638</v>
       </c>
       <c r="BH41" t="n">
-        <v>400</v>
+        <v>833</v>
       </c>
       <c r="BI41" t="n">
-        <v>922</v>
+        <v>837</v>
       </c>
       <c r="BJ41" t="n">
-        <v>906</v>
+        <v>1295</v>
       </c>
       <c r="BK41" t="n">
-        <v>228</v>
+        <v>670</v>
       </c>
       <c r="BL41" t="n">
-        <v>209</v>
+        <v>764</v>
       </c>
       <c r="BM41" t="n">
-        <v>790</v>
+        <v>718</v>
       </c>
       <c r="BN41" t="n">
-        <v>634</v>
+        <v>522</v>
       </c>
       <c r="BO41" t="n">
-        <v>484</v>
+        <v>595</v>
       </c>
       <c r="BP41" t="n">
-        <v>679</v>
+        <v>1140</v>
       </c>
       <c r="BQ41" t="n">
-        <v>182</v>
+        <v>575</v>
       </c>
       <c r="BR41" t="n">
-        <v>219</v>
+        <v>715</v>
       </c>
       <c r="BT41" t="n">
-        <v>650</v>
+        <v>1080</v>
       </c>
       <c r="BU41" t="n">
-        <v>1039</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="42">
@@ -9976,88 +9860,88 @@
         </is>
       </c>
       <c r="AQ42" t="n">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AR42" t="n">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="AS42" t="n">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="AT42" t="n">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="AU42" t="n">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="AV42" t="n">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="AW42" t="n">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="AX42" t="n">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AY42" t="n">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AZ42" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="BB42" t="n">
-        <v>228</v>
+        <v>194</v>
       </c>
       <c r="BC42" t="n">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="BD42" t="n">
         <v>118</v>
       </c>
       <c r="BE42" t="n">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="BF42" t="n">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="BH42" t="n">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="BI42" t="n">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="BJ42" t="n">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="BK42" t="n">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="BL42" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="BM42" t="n">
-        <v>255</v>
+        <v>230</v>
       </c>
       <c r="BN42" t="n">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="BO42" t="n">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="BP42" t="n">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="BQ42" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="BR42" t="n">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="BT42" t="n">
-        <v>150</v>
+        <v>112</v>
       </c>
       <c r="BU42" t="n">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43">
@@ -10231,88 +10115,88 @@
         </is>
       </c>
       <c r="AQ43" t="n">
-        <v>485</v>
+        <v>1801</v>
       </c>
       <c r="AR43" t="n">
-        <v>935</v>
+        <v>1323</v>
       </c>
       <c r="AS43" t="n">
-        <v>450</v>
+        <v>610</v>
       </c>
       <c r="AT43" t="n">
-        <v>2073</v>
+        <v>2894</v>
       </c>
       <c r="AU43" t="n">
-        <v>4147</v>
+        <v>4736</v>
       </c>
       <c r="AV43" t="n">
-        <v>6180</v>
+        <v>7008</v>
       </c>
       <c r="AW43" t="n">
-        <v>698</v>
+        <v>2232</v>
       </c>
       <c r="AX43" t="n">
-        <v>1927</v>
+        <v>2044</v>
       </c>
       <c r="AY43" t="n">
-        <v>1560</v>
+        <v>1825</v>
       </c>
       <c r="AZ43" t="n">
-        <v>1229</v>
+        <v>1843</v>
       </c>
       <c r="BB43" t="n">
-        <v>629</v>
+        <v>2703</v>
       </c>
       <c r="BC43" t="n">
-        <v>1557</v>
+        <v>739</v>
       </c>
       <c r="BD43" t="n">
-        <v>2321</v>
+        <v>2115</v>
       </c>
       <c r="BE43" t="n">
-        <v>1340</v>
+        <v>2232</v>
       </c>
       <c r="BF43" t="n">
-        <v>1625</v>
+        <v>1852</v>
       </c>
       <c r="BH43" t="n">
-        <v>865</v>
+        <v>926</v>
       </c>
       <c r="BI43" t="n">
-        <v>1990</v>
+        <v>2057</v>
       </c>
       <c r="BJ43" t="n">
-        <v>905</v>
+        <v>2240</v>
       </c>
       <c r="BK43" t="n">
-        <v>1739</v>
+        <v>2522</v>
       </c>
       <c r="BL43" t="n">
-        <v>3346</v>
+        <v>3359</v>
       </c>
       <c r="BM43" t="n">
-        <v>822</v>
+        <v>1392</v>
       </c>
       <c r="BN43" t="n">
-        <v>1066</v>
+        <v>2306</v>
       </c>
       <c r="BO43" t="n">
-        <v>1012</v>
+        <v>1422</v>
       </c>
       <c r="BP43" t="n">
-        <v>403</v>
+        <v>3135</v>
       </c>
       <c r="BQ43" t="n">
-        <v>1169</v>
+        <v>2409</v>
       </c>
       <c r="BR43" t="n">
-        <v>1152</v>
+        <v>1746</v>
       </c>
       <c r="BT43" t="n">
-        <v>1503</v>
+        <v>2946</v>
       </c>
       <c r="BU43" t="n">
-        <v>652</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="44">
@@ -10377,21 +10261,11 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="R44" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -10412,11 +10286,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="Y44" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -10433,6 +10302,11 @@
         </is>
       </c>
       <c r="AB44" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
@@ -10476,82 +10350,76 @@
         </is>
       </c>
       <c r="AQ44" t="n">
-        <v>359</v>
+        <v>449</v>
       </c>
       <c r="AR44" t="n">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="AS44" t="n">
-        <v>2</v>
+        <v>415</v>
       </c>
       <c r="AT44" t="n">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="AU44" t="n">
-        <v>220</v>
+        <v>453</v>
       </c>
       <c r="AV44" t="n">
-        <v>448</v>
+        <v>1</v>
       </c>
       <c r="AW44" t="n">
-        <v>148</v>
+        <v>331</v>
       </c>
       <c r="AX44" t="n">
-        <v>196</v>
+        <v>373</v>
       </c>
       <c r="AY44" t="n">
-        <v>488</v>
-      </c>
-      <c r="AZ44" t="n">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="BB44" t="n">
-        <v>125</v>
-      </c>
-      <c r="BC44" t="n">
-        <v>94</v>
+        <v>242</v>
       </c>
       <c r="BD44" t="n">
-        <v>108</v>
+        <v>284</v>
       </c>
       <c r="BE44" t="n">
-        <v>80</v>
+        <v>494</v>
       </c>
       <c r="BF44" t="n">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="BI44" t="n">
-        <v>116</v>
-      </c>
-      <c r="BJ44" t="n">
-        <v>51</v>
+        <v>247</v>
       </c>
       <c r="BK44" t="n">
-        <v>130</v>
+        <v>24</v>
       </c>
       <c r="BL44" t="n">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="BM44" t="n">
-        <v>80</v>
+        <v>697</v>
       </c>
       <c r="BN44" t="n">
-        <v>294</v>
+        <v>308</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>213</v>
       </c>
       <c r="BP44" t="n">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="BQ44" t="n">
-        <v>121</v>
+        <v>447</v>
       </c>
       <c r="BR44" t="n">
-        <v>2</v>
+        <v>242</v>
       </c>
       <c r="BT44" t="n">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="BU44" t="n">
-        <v>204</v>
+        <v>758</v>
       </c>
     </row>
     <row r="45">
@@ -10591,6 +10459,21 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -10601,21 +10484,46 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
       <c r="Q45" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
       </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
       <c r="S45" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
       </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
       <c r="V45" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
       </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
       <c r="X45" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -10636,6 +10544,11 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
       <c r="AC45" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -10646,7 +10559,17 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
       <c r="AF45" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
+      <c r="AH45" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
@@ -10670,55 +10593,88 @@
         </is>
       </c>
       <c r="AQ45" t="n">
-        <v>26</v>
+        <v>271</v>
       </c>
       <c r="AR45" t="n">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="AS45" t="n">
-        <v>119</v>
+        <v>275</v>
       </c>
       <c r="AT45" t="n">
-        <v>40</v>
+        <v>231</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>198</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>179</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>379</v>
       </c>
       <c r="AX45" t="n">
-        <v>164</v>
+        <v>355</v>
       </c>
       <c r="AY45" t="n">
-        <v>45</v>
+        <v>135</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>481</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>162</v>
       </c>
       <c r="BC45" t="n">
-        <v>24</v>
+        <v>217</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>52</v>
       </c>
       <c r="BE45" t="n">
-        <v>140</v>
+        <v>123</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>198</v>
       </c>
       <c r="BH45" t="n">
-        <v>251</v>
+        <v>445</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>177</v>
       </c>
       <c r="BJ45" t="n">
-        <v>105</v>
+        <v>576</v>
       </c>
       <c r="BK45" t="n">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="BL45" t="n">
-        <v>55</v>
+        <v>267</v>
       </c>
       <c r="BM45" t="n">
-        <v>63</v>
+        <v>252</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>174</v>
       </c>
       <c r="BO45" t="n">
-        <v>17</v>
+        <v>200</v>
       </c>
       <c r="BP45" t="n">
-        <v>127</v>
+        <v>336</v>
+      </c>
+      <c r="BQ45" t="n">
+        <v>404</v>
       </c>
       <c r="BR45" t="n">
-        <v>131</v>
+        <v>304</v>
+      </c>
+      <c r="BT45" t="n">
+        <v>486</v>
       </c>
       <c r="BU45" t="n">
-        <v>39</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46">
@@ -10882,7 +10838,7 @@
         </is>
       </c>
       <c r="AQ46" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="AR46" t="n">
         <v>85</v>
@@ -10891,70 +10847,70 @@
         <v>60</v>
       </c>
       <c r="AU46" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AV46" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="AX46" t="n">
         <v>9</v>
       </c>
       <c r="AY46" t="n">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="AZ46" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="BB46" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="BC46" t="n">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="BD46" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="BE46" t="n">
         <v>41</v>
       </c>
       <c r="BF46" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BH46" t="n">
-        <v>164</v>
+        <v>139</v>
       </c>
       <c r="BI46" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="BJ46" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="BK46" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="BL46" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BM46" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="BN46" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="BO46" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="BP46" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="BQ46" t="n">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="BR46" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="BT46" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="BU46" t="n">
         <v>49</v>
@@ -11131,88 +11087,88 @@
         </is>
       </c>
       <c r="AQ47" t="n">
-        <v>654</v>
+        <v>559</v>
       </c>
       <c r="AR47" t="n">
-        <v>547</v>
+        <v>392</v>
       </c>
       <c r="AS47" t="n">
-        <v>526</v>
+        <v>396</v>
       </c>
       <c r="AT47" t="n">
-        <v>838</v>
+        <v>899</v>
       </c>
       <c r="AU47" t="n">
-        <v>524</v>
+        <v>905</v>
       </c>
       <c r="AV47" t="n">
-        <v>651</v>
+        <v>983</v>
       </c>
       <c r="AW47" t="n">
-        <v>431</v>
+        <v>373</v>
       </c>
       <c r="AX47" t="n">
-        <v>199</v>
+        <v>433</v>
       </c>
       <c r="AY47" t="n">
-        <v>973</v>
+        <v>877</v>
       </c>
       <c r="AZ47" t="n">
-        <v>569</v>
+        <v>430</v>
       </c>
       <c r="BB47" t="n">
-        <v>328</v>
+        <v>413</v>
       </c>
       <c r="BC47" t="n">
-        <v>615</v>
+        <v>553</v>
       </c>
       <c r="BD47" t="n">
-        <v>55</v>
+        <v>353</v>
       </c>
       <c r="BE47" t="n">
-        <v>413</v>
+        <v>362</v>
       </c>
       <c r="BF47" t="n">
-        <v>523</v>
+        <v>610</v>
       </c>
       <c r="BH47" t="n">
-        <v>575</v>
+        <v>446</v>
       </c>
       <c r="BI47" t="n">
-        <v>759</v>
+        <v>636</v>
       </c>
       <c r="BJ47" t="n">
-        <v>858</v>
+        <v>635</v>
       </c>
       <c r="BK47" t="n">
-        <v>651</v>
+        <v>580</v>
       </c>
       <c r="BL47" t="n">
-        <v>795</v>
+        <v>555</v>
       </c>
       <c r="BM47" t="n">
-        <v>691</v>
+        <v>874</v>
       </c>
       <c r="BN47" t="n">
-        <v>354</v>
+        <v>460</v>
       </c>
       <c r="BO47" t="n">
-        <v>430</v>
+        <v>1048</v>
       </c>
       <c r="BP47" t="n">
-        <v>918</v>
+        <v>885</v>
       </c>
       <c r="BQ47" t="n">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="BR47" t="n">
-        <v>837</v>
+        <v>703</v>
       </c>
       <c r="BT47" t="n">
-        <v>999</v>
+        <v>764</v>
       </c>
       <c r="BU47" t="n">
-        <v>683</v>
+        <v>557</v>
       </c>
     </row>
     <row r="48">
@@ -11386,88 +11342,88 @@
         </is>
       </c>
       <c r="AQ48" t="n">
-        <v>310</v>
+        <v>495</v>
       </c>
       <c r="AR48" t="n">
-        <v>775</v>
+        <v>1047</v>
       </c>
       <c r="AS48" t="n">
-        <v>635</v>
+        <v>867</v>
       </c>
       <c r="AT48" t="n">
-        <v>681</v>
+        <v>753</v>
       </c>
       <c r="AU48" t="n">
-        <v>965</v>
+        <v>899</v>
       </c>
       <c r="AV48" t="n">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="AW48" t="n">
-        <v>593</v>
+        <v>513</v>
       </c>
       <c r="AX48" t="n">
-        <v>766</v>
+        <v>597</v>
       </c>
       <c r="AY48" t="n">
-        <v>807</v>
+        <v>1138</v>
       </c>
       <c r="AZ48" t="n">
-        <v>569</v>
+        <v>852</v>
       </c>
       <c r="BB48" t="n">
-        <v>57</v>
+        <v>381</v>
       </c>
       <c r="BC48" t="n">
-        <v>484</v>
+        <v>443</v>
       </c>
       <c r="BD48" t="n">
-        <v>378</v>
+        <v>279</v>
       </c>
       <c r="BE48" t="n">
-        <v>409</v>
+        <v>351</v>
       </c>
       <c r="BF48" t="n">
-        <v>528</v>
+        <v>442</v>
       </c>
       <c r="BH48" t="n">
-        <v>964</v>
+        <v>859</v>
       </c>
       <c r="BI48" t="n">
-        <v>797</v>
+        <v>1087</v>
       </c>
       <c r="BJ48" t="n">
-        <v>1162</v>
+        <v>1009</v>
       </c>
       <c r="BK48" t="n">
-        <v>583</v>
+        <v>531</v>
       </c>
       <c r="BL48" t="n">
-        <v>391</v>
+        <v>699</v>
       </c>
       <c r="BM48" t="n">
-        <v>1393</v>
+        <v>1116</v>
       </c>
       <c r="BN48" t="n">
-        <v>414</v>
+        <v>364</v>
       </c>
       <c r="BO48" t="n">
-        <v>292</v>
+        <v>479</v>
       </c>
       <c r="BP48" t="n">
+        <v>478</v>
+      </c>
+      <c r="BQ48" t="n">
+        <v>893</v>
+      </c>
+      <c r="BR48" t="n">
         <v>290</v>
       </c>
-      <c r="BQ48" t="n">
-        <v>331</v>
-      </c>
-      <c r="BR48" t="n">
-        <v>358</v>
-      </c>
       <c r="BT48" t="n">
-        <v>1037</v>
+        <v>1589</v>
       </c>
       <c r="BU48" t="n">
-        <v>295</v>
+        <v>208</v>
       </c>
     </row>
     <row r="49">
@@ -11507,16 +11463,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="K49" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -11608,11 +11554,6 @@
         </is>
       </c>
       <c r="AE49" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="AF49" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
@@ -11641,88 +11582,79 @@
         </is>
       </c>
       <c r="AQ49" t="n">
-        <v>142</v>
+        <v>72</v>
       </c>
       <c r="AR49" t="n">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="AS49" t="n">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="AT49" t="n">
-        <v>113</v>
-      </c>
-      <c r="AU49" t="n">
-        <v>77</v>
-      </c>
-      <c r="AV49" t="n">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="AW49" t="n">
-        <v>235</v>
+        <v>89</v>
       </c>
       <c r="AX49" t="n">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="AY49" t="n">
-        <v>88</v>
+        <v>56</v>
       </c>
       <c r="AZ49" t="n">
-        <v>160</v>
+        <v>53</v>
       </c>
       <c r="BB49" t="n">
-        <v>175</v>
+        <v>55</v>
       </c>
       <c r="BC49" t="n">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="BD49" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="BE49" t="n">
-        <v>132</v>
+        <v>15</v>
       </c>
       <c r="BF49" t="n">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="BH49" t="n">
-        <v>161</v>
+        <v>38</v>
       </c>
       <c r="BI49" t="n">
-        <v>144</v>
+        <v>54</v>
       </c>
       <c r="BJ49" t="n">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="BK49" t="n">
-        <v>88</v>
+        <v>29</v>
       </c>
       <c r="BL49" t="n">
-        <v>71</v>
+        <v>37</v>
       </c>
       <c r="BM49" t="n">
-        <v>231</v>
+        <v>115</v>
       </c>
       <c r="BN49" t="n">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="BO49" t="n">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="BP49" t="n">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="BQ49" t="n">
-        <v>47</v>
-      </c>
-      <c r="BR49" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="BT49" t="n">
-        <v>151</v>
+        <v>7</v>
       </c>
       <c r="BU49" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50">
@@ -11896,88 +11828,88 @@
         </is>
       </c>
       <c r="AQ50" t="n">
-        <v>1447</v>
+        <v>1324</v>
       </c>
       <c r="AR50" t="n">
-        <v>1794</v>
+        <v>1735</v>
       </c>
       <c r="AS50" t="n">
-        <v>1342</v>
+        <v>1231</v>
       </c>
       <c r="AT50" t="n">
-        <v>715</v>
+        <v>649</v>
       </c>
       <c r="AU50" t="n">
-        <v>1678</v>
+        <v>1577</v>
       </c>
       <c r="AV50" t="n">
-        <v>1003</v>
+        <v>911</v>
       </c>
       <c r="AW50" t="n">
-        <v>1219</v>
+        <v>1121</v>
       </c>
       <c r="AX50" t="n">
-        <v>1508</v>
+        <v>1411</v>
       </c>
       <c r="AY50" t="n">
-        <v>1759</v>
+        <v>1677</v>
       </c>
       <c r="AZ50" t="n">
-        <v>599</v>
+        <v>527</v>
       </c>
       <c r="BB50" t="n">
-        <v>1261</v>
+        <v>1151</v>
       </c>
       <c r="BC50" t="n">
-        <v>700</v>
+        <v>654</v>
       </c>
       <c r="BD50" t="n">
-        <v>762</v>
+        <v>738</v>
       </c>
       <c r="BE50" t="n">
-        <v>601</v>
+        <v>486</v>
       </c>
       <c r="BF50" t="n">
-        <v>1644</v>
+        <v>1575</v>
       </c>
       <c r="BH50" t="n">
-        <v>1067</v>
+        <v>1044</v>
       </c>
       <c r="BI50" t="n">
-        <v>1030</v>
+        <v>1033</v>
       </c>
       <c r="BJ50" t="n">
-        <v>1712</v>
+        <v>1692</v>
       </c>
       <c r="BK50" t="n">
-        <v>1294</v>
+        <v>1143</v>
       </c>
       <c r="BL50" t="n">
-        <v>1650</v>
+        <v>1540</v>
       </c>
       <c r="BM50" t="n">
-        <v>991</v>
+        <v>867</v>
       </c>
       <c r="BN50" t="n">
-        <v>720</v>
+        <v>672</v>
       </c>
       <c r="BO50" t="n">
-        <v>1468</v>
+        <v>1428</v>
       </c>
       <c r="BP50" t="n">
-        <v>2372</v>
+        <v>2264</v>
       </c>
       <c r="BQ50" t="n">
-        <v>1384</v>
+        <v>1253</v>
       </c>
       <c r="BR50" t="n">
-        <v>660</v>
+        <v>605</v>
       </c>
       <c r="BT50" t="n">
-        <v>1268</v>
+        <v>1139</v>
       </c>
       <c r="BU50" t="n">
-        <v>1015</v>
+        <v>918</v>
       </c>
     </row>
     <row r="51">
@@ -12151,88 +12083,88 @@
         </is>
       </c>
       <c r="AQ51" t="n">
-        <v>112</v>
+        <v>330</v>
       </c>
       <c r="AR51" t="n">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="AS51" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="AT51" t="n">
-        <v>964</v>
+        <v>952</v>
       </c>
       <c r="AU51" t="n">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="AV51" t="n">
-        <v>279</v>
+        <v>244</v>
       </c>
       <c r="AW51" t="n">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="AX51" t="n">
-        <v>96</v>
+        <v>200</v>
       </c>
       <c r="AY51" t="n">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="AZ51" t="n">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="BB51" t="n">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="BC51" t="n">
-        <v>295</v>
+        <v>240</v>
       </c>
       <c r="BD51" t="n">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="BE51" t="n">
-        <v>163</v>
+        <v>374</v>
       </c>
       <c r="BF51" t="n">
-        <v>237</v>
+        <v>337</v>
       </c>
       <c r="BH51" t="n">
         <v>278</v>
       </c>
       <c r="BI51" t="n">
-        <v>132</v>
+        <v>449</v>
       </c>
       <c r="BJ51" t="n">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="BK51" t="n">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="BL51" t="n">
-        <v>148</v>
+        <v>355</v>
       </c>
       <c r="BM51" t="n">
-        <v>112</v>
+        <v>298</v>
       </c>
       <c r="BN51" t="n">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="BO51" t="n">
-        <v>154</v>
+        <v>365</v>
       </c>
       <c r="BP51" t="n">
-        <v>138</v>
+        <v>242</v>
       </c>
       <c r="BQ51" t="n">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="BR51" t="n">
-        <v>149</v>
+        <v>359</v>
       </c>
       <c r="BT51" t="n">
-        <v>230</v>
+        <v>411</v>
       </c>
       <c r="BU51" t="n">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52">
@@ -12406,13 +12338,13 @@
         </is>
       </c>
       <c r="AQ52" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="AR52" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="AS52" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AT52" t="n">
         <v>121</v>
@@ -12421,25 +12353,25 @@
         <v>46</v>
       </c>
       <c r="AV52" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="AW52" t="n">
         <v>48</v>
       </c>
       <c r="AX52" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AY52" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="AZ52" t="n">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="BB52" t="n">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="BC52" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="BD52" t="n">
         <v>60</v>
@@ -12448,46 +12380,46 @@
         <v>45</v>
       </c>
       <c r="BF52" t="n">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="BH52" t="n">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="BI52" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="BJ52" t="n">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="BK52" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="BL52" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="BM52" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="BN52" t="n">
         <v>35</v>
       </c>
       <c r="BO52" t="n">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="BP52" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="BQ52" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BR52" t="n">
         <v>63</v>
       </c>
       <c r="BT52" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="BU52" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
@@ -12661,88 +12593,88 @@
         </is>
       </c>
       <c r="AQ53" t="n">
+        <v>826</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>1229</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>956</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>769</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>955</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>914</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>757</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>408</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>931</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>974</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>820</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>1042</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>1160</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>545</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>1453</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>900</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>1116</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>3225</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>704</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>1045</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>747</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>1169</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>921</v>
+      </c>
+      <c r="BP53" t="n">
         <v>911</v>
       </c>
-      <c r="AR53" t="n">
-        <v>1328</v>
-      </c>
-      <c r="AS53" t="n">
-        <v>1074</v>
-      </c>
-      <c r="AT53" t="n">
-        <v>791</v>
-      </c>
-      <c r="AU53" t="n">
-        <v>1116</v>
-      </c>
-      <c r="AV53" t="n">
-        <v>908</v>
-      </c>
-      <c r="AW53" t="n">
-        <v>829</v>
-      </c>
-      <c r="AX53" t="n">
-        <v>472</v>
-      </c>
-      <c r="AY53" t="n">
-        <v>1002</v>
-      </c>
-      <c r="AZ53" t="n">
-        <v>1007</v>
-      </c>
-      <c r="BB53" t="n">
-        <v>907</v>
-      </c>
-      <c r="BC53" t="n">
-        <v>1089</v>
-      </c>
-      <c r="BD53" t="n">
-        <v>1169</v>
-      </c>
-      <c r="BE53" t="n">
-        <v>576</v>
-      </c>
-      <c r="BF53" t="n">
-        <v>1520</v>
-      </c>
-      <c r="BH53" t="n">
-        <v>916</v>
-      </c>
-      <c r="BI53" t="n">
-        <v>1221</v>
-      </c>
-      <c r="BJ53" t="n">
-        <v>3257</v>
-      </c>
-      <c r="BK53" t="n">
-        <v>776</v>
-      </c>
-      <c r="BL53" t="n">
-        <v>1116</v>
-      </c>
-      <c r="BM53" t="n">
-        <v>805</v>
-      </c>
-      <c r="BN53" t="n">
-        <v>1203</v>
-      </c>
-      <c r="BO53" t="n">
-        <v>837</v>
-      </c>
-      <c r="BP53" t="n">
-        <v>969</v>
-      </c>
       <c r="BQ53" t="n">
-        <v>1240</v>
+        <v>1141</v>
       </c>
       <c r="BR53" t="n">
-        <v>175</v>
+        <v>344</v>
       </c>
       <c r="BT53" t="n">
-        <v>1039</v>
+        <v>935</v>
       </c>
       <c r="BU53" t="n">
-        <v>949</v>
+        <v>882</v>
       </c>
     </row>
     <row r="54">
@@ -12916,88 +12848,88 @@
         </is>
       </c>
       <c r="AQ54" t="n">
-        <v>2001</v>
+        <v>2198</v>
       </c>
       <c r="AR54" t="n">
-        <v>2154</v>
+        <v>2000</v>
       </c>
       <c r="AS54" t="n">
-        <v>832</v>
+        <v>1132</v>
       </c>
       <c r="AT54" t="n">
-        <v>1434</v>
+        <v>1742</v>
       </c>
       <c r="AU54" t="n">
-        <v>1450</v>
+        <v>1595</v>
       </c>
       <c r="AV54" t="n">
-        <v>1584</v>
+        <v>2199</v>
       </c>
       <c r="AW54" t="n">
-        <v>2289</v>
+        <v>2582</v>
       </c>
       <c r="AX54" t="n">
-        <v>1143</v>
+        <v>1507</v>
       </c>
       <c r="AY54" t="n">
-        <v>2040</v>
+        <v>1797</v>
       </c>
       <c r="AZ54" t="n">
-        <v>1026</v>
+        <v>1568</v>
       </c>
       <c r="BB54" t="n">
-        <v>2089</v>
+        <v>1904</v>
       </c>
       <c r="BC54" t="n">
-        <v>1207</v>
+        <v>1943</v>
       </c>
       <c r="BD54" t="n">
-        <v>1380</v>
+        <v>1305</v>
       </c>
       <c r="BE54" t="n">
-        <v>5218</v>
+        <v>5106</v>
       </c>
       <c r="BF54" t="n">
+        <v>1203</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>1344</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>1121</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>2000</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>1360</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>1900</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>2316</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>1579</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>1230</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>1135</v>
+      </c>
+      <c r="BQ54" t="n">
+        <v>3169</v>
+      </c>
+      <c r="BR54" t="n">
+        <v>2167</v>
+      </c>
+      <c r="BT54" t="n">
+        <v>1353</v>
+      </c>
+      <c r="BU54" t="n">
         <v>1040</v>
-      </c>
-      <c r="BH54" t="n">
-        <v>845</v>
-      </c>
-      <c r="BI54" t="n">
-        <v>1214</v>
-      </c>
-      <c r="BJ54" t="n">
-        <v>1122</v>
-      </c>
-      <c r="BK54" t="n">
-        <v>1462</v>
-      </c>
-      <c r="BL54" t="n">
-        <v>1352</v>
-      </c>
-      <c r="BM54" t="n">
-        <v>2109</v>
-      </c>
-      <c r="BN54" t="n">
-        <v>1645</v>
-      </c>
-      <c r="BO54" t="n">
-        <v>1332</v>
-      </c>
-      <c r="BP54" t="n">
-        <v>885</v>
-      </c>
-      <c r="BQ54" t="n">
-        <v>2844</v>
-      </c>
-      <c r="BR54" t="n">
-        <v>1828</v>
-      </c>
-      <c r="BT54" t="n">
-        <v>1488</v>
-      </c>
-      <c r="BU54" t="n">
-        <v>1188</v>
       </c>
     </row>
     <row r="55">
@@ -13022,6 +12954,11 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
       <c r="G55" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -13089,34 +13026,34 @@
       </c>
       <c r="V55" t="inlineStr">
         <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Within 180 Days</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
           <t>Within 210 Days</t>
         </is>
       </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>Within 180 Days</t>
-        </is>
-      </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="Z55" t="inlineStr">
+      <c r="AB55" t="inlineStr">
         <is>
           <t>Within 210 Days</t>
         </is>
       </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>Within 210 Days</t>
-        </is>
-      </c>
       <c r="AC55" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -13124,7 +13061,7 @@
       </c>
       <c r="AD55" t="inlineStr">
         <is>
-          <t>Within 210 Days</t>
+          <t>More Than 210 Days</t>
         </is>
       </c>
       <c r="AE55" t="inlineStr">
@@ -13158,32 +13095,35 @@
       <c r="AQ55" t="n">
         <v>144</v>
       </c>
+      <c r="AR55" t="n">
+        <v>30</v>
+      </c>
       <c r="AS55" t="n">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="AT55" t="n">
         <v>24</v>
       </c>
       <c r="AU55" t="n">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="AV55" t="n">
-        <v>335</v>
+        <v>459</v>
       </c>
       <c r="AW55" t="n">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="AX55" t="n">
         <v>66</v>
       </c>
       <c r="AY55" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="AZ55" t="n">
         <v>90</v>
       </c>
       <c r="BB55" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="BC55" t="n">
         <v>67</v>
@@ -13198,37 +13138,37 @@
         <v>24</v>
       </c>
       <c r="BH55" t="n">
-        <v>655</v>
+        <v>598</v>
       </c>
       <c r="BI55" t="n">
         <v>6</v>
       </c>
       <c r="BJ55" t="n">
-        <v>636</v>
+        <v>880</v>
       </c>
       <c r="BK55" t="n">
         <v>24</v>
       </c>
       <c r="BL55" t="n">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="BN55" t="n">
         <v>40</v>
       </c>
       <c r="BO55" t="n">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="BP55" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="BQ55" t="n">
-        <v>312</v>
+        <v>395</v>
       </c>
       <c r="BR55" t="n">
         <v>6</v>
       </c>
       <c r="BT55" t="n">
-        <v>54</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56">
@@ -13258,11 +13198,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="H56" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -13273,16 +13208,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -13308,11 +13233,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="S56" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -13338,11 +13258,6 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
-      <c r="AA56" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
       <c r="AB56" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -13359,16 +13274,6 @@
         </is>
       </c>
       <c r="AE56" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="AF56" t="inlineStr">
-        <is>
-          <t>More Than 210 Days</t>
-        </is>
-      </c>
-      <c r="AH56" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
         </is>
@@ -13392,82 +13297,61 @@
         </is>
       </c>
       <c r="AQ56" t="n">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="AR56" t="n">
+        <v>66</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>50</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>22</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>37</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>156</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>36</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>34</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>124</v>
+      </c>
+      <c r="BE56" t="n">
         <v>83</v>
       </c>
-      <c r="AS56" t="n">
-        <v>8</v>
-      </c>
-      <c r="AT56" t="n">
-        <v>79</v>
-      </c>
-      <c r="AU56" t="n">
-        <v>72</v>
-      </c>
-      <c r="AV56" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW56" t="n">
-        <v>24</v>
-      </c>
-      <c r="AX56" t="n">
-        <v>66</v>
-      </c>
-      <c r="AY56" t="n">
-        <v>168</v>
-      </c>
-      <c r="AZ56" t="n">
-        <v>62</v>
-      </c>
-      <c r="BB56" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC56" t="n">
-        <v>131</v>
-      </c>
-      <c r="BD56" t="n">
-        <v>24</v>
-      </c>
-      <c r="BE56" t="n">
-        <v>88</v>
-      </c>
       <c r="BF56" t="n">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="BI56" t="n">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="BK56" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="BL56" t="n">
-        <v>114</v>
-      </c>
-      <c r="BM56" t="n">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="BN56" t="n">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="BO56" t="n">
         <v>108</v>
       </c>
       <c r="BP56" t="n">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="BQ56" t="n">
-        <v>135</v>
-      </c>
-      <c r="BR56" t="n">
-        <v>16</v>
-      </c>
-      <c r="BT56" t="n">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="BU56" t="n">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57">
@@ -13641,40 +13525,40 @@
         </is>
       </c>
       <c r="AQ57" t="n">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="AR57" t="n">
         <v>99</v>
       </c>
       <c r="AS57" t="n">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="AT57" t="n">
+        <v>86</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>125</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>116</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>92</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>160</v>
+      </c>
+      <c r="AY57" t="n">
         <v>112</v>
       </c>
-      <c r="AU57" t="n">
-        <v>147</v>
-      </c>
-      <c r="AV57" t="n">
-        <v>68</v>
-      </c>
-      <c r="AW57" t="n">
-        <v>101</v>
-      </c>
-      <c r="AX57" t="n">
-        <v>167</v>
-      </c>
-      <c r="AY57" t="n">
-        <v>136</v>
-      </c>
       <c r="AZ57" t="n">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="BB57" t="n">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="BC57" t="n">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="BD57" t="n">
         <v>107</v>
@@ -13683,46 +13567,46 @@
         <v>94</v>
       </c>
       <c r="BF57" t="n">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="BH57" t="n">
         <v>124</v>
       </c>
       <c r="BI57" t="n">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="BJ57" t="n">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="BK57" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BL57" t="n">
-        <v>265</v>
+        <v>249</v>
       </c>
       <c r="BM57" t="n">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="BN57" t="n">
         <v>104</v>
       </c>
       <c r="BO57" t="n">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="BP57" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BQ57" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="BR57" t="n">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="BT57" t="n">
-        <v>100</v>
+        <v>128</v>
       </c>
       <c r="BU57" t="n">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58">
@@ -13792,6 +13676,11 @@
           <t>More Than 210 Days</t>
         </is>
       </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>More Than 210 Days</t>
+        </is>
+      </c>
       <c r="Q58" t="inlineStr">
         <is>
           <t>More Than 210 Days</t>
@@ -13891,85 +13780,88 @@
         </is>
       </c>
       <c r="AQ58" t="n">
-        <v>76</v>
+        <v>1049</v>
       </c>
       <c r="AR58" t="n">
-        <v>753</v>
+        <v>720</v>
       </c>
       <c r="AS58" t="n">
-        <v>1063</v>
+        <v>956</v>
       </c>
       <c r="AT58" t="n">
-        <v>391</v>
+        <v>508</v>
       </c>
       <c r="AU58" t="n">
-        <v>641</v>
+        <v>584</v>
       </c>
       <c r="AV58" t="n">
+        <v>646</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>1548</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>840</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>842</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>568</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>1569</v>
+      </c>
+      <c r="BC58" t="n">
         <v>514</v>
       </c>
-      <c r="AW58" t="n">
-        <v>19</v>
-      </c>
-      <c r="AX58" t="n">
-        <v>902</v>
-      </c>
-      <c r="AY58" t="n">
+      <c r="BD58" t="n">
+        <v>529</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>887</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>1711</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>624</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>552</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>931</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>3293</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>980</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>878</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>1035</v>
+      </c>
+      <c r="BO58" t="n">
         <v>1051</v>
       </c>
-      <c r="AZ58" t="n">
-        <v>692</v>
-      </c>
-      <c r="BC58" t="n">
-        <v>142</v>
-      </c>
-      <c r="BD58" t="n">
-        <v>333</v>
-      </c>
-      <c r="BE58" t="n">
-        <v>379</v>
-      </c>
-      <c r="BF58" t="n">
-        <v>1159</v>
-      </c>
-      <c r="BH58" t="n">
-        <v>644</v>
-      </c>
-      <c r="BI58" t="n">
-        <v>721</v>
-      </c>
-      <c r="BJ58" t="n">
-        <v>550</v>
-      </c>
-      <c r="BK58" t="n">
-        <v>528</v>
-      </c>
-      <c r="BL58" t="n">
-        <v>568</v>
-      </c>
-      <c r="BM58" t="n">
-        <v>773</v>
-      </c>
-      <c r="BN58" t="n">
-        <v>1052</v>
-      </c>
-      <c r="BO58" t="n">
-        <v>610</v>
-      </c>
       <c r="BP58" t="n">
-        <v>291</v>
+        <v>759</v>
       </c>
       <c r="BQ58" t="n">
-        <v>355</v>
+        <v>745</v>
       </c>
       <c r="BR58" t="n">
-        <v>796</v>
+        <v>1095</v>
       </c>
       <c r="BT58" t="n">
-        <v>1264</v>
+        <v>831</v>
       </c>
       <c r="BU58" t="n">
-        <v>735</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="59">
@@ -14143,88 +14035,88 @@
         </is>
       </c>
       <c r="AQ59" t="n">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="AR59" t="n">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="AS59" t="n">
-        <v>265</v>
+        <v>232</v>
       </c>
       <c r="AT59" t="n">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="AU59" t="n">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="AV59" t="n">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="AW59" t="n">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AX59" t="n">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="AY59" t="n">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="AZ59" t="n">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="BB59" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BC59" t="n">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="BD59" t="n">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="BE59" t="n">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="BF59" t="n">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="BH59" t="n">
-        <v>460</v>
+        <v>440</v>
       </c>
       <c r="BI59" t="n">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="BJ59" t="n">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="BK59" t="n">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="BL59" t="n">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="BM59" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BN59" t="n">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="BO59" t="n">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="BP59" t="n">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="BQ59" t="n">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="BR59" t="n">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="BT59" t="n">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="BU59" t="n">
-        <v>302</v>
+        <v>269</v>
       </c>
     </row>
     <row r="60">
@@ -14398,88 +14290,88 @@
         </is>
       </c>
       <c r="AQ60" t="n">
-        <v>488</v>
+        <v>453</v>
       </c>
       <c r="AR60" t="n">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="AS60" t="n">
+        <v>199</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>246</v>
+      </c>
+      <c r="AU60" t="n">
         <v>242</v>
       </c>
-      <c r="AT60" t="n">
-        <v>252</v>
-      </c>
-      <c r="AU60" t="n">
-        <v>261</v>
-      </c>
       <c r="AV60" t="n">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="AW60" t="n">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="AX60" t="n">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="AY60" t="n">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="AZ60" t="n">
-        <v>487</v>
+        <v>419</v>
       </c>
       <c r="BB60" t="n">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="BC60" t="n">
         <v>337</v>
       </c>
       <c r="BD60" t="n">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="BE60" t="n">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="BF60" t="n">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="BH60" t="n">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="BI60" t="n">
-        <v>506</v>
+        <v>485</v>
       </c>
       <c r="BJ60" t="n">
-        <v>967</v>
+        <v>954</v>
       </c>
       <c r="BK60" t="n">
-        <v>1013</v>
+        <v>1003</v>
       </c>
       <c r="BL60" t="n">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="BM60" t="n">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="BN60" t="n">
         <v>323</v>
       </c>
       <c r="BO60" t="n">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="BP60" t="n">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="BQ60" t="n">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="BR60" t="n">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="BT60" t="n">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="BU60" t="n">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61">
@@ -14653,88 +14545,88 @@
         </is>
       </c>
       <c r="AQ61" t="n">
-        <v>1245</v>
+        <v>1151</v>
       </c>
       <c r="AR61" t="n">
-        <v>1223</v>
+        <v>1206</v>
       </c>
       <c r="AS61" t="n">
-        <v>758</v>
+        <v>686</v>
       </c>
       <c r="AT61" t="n">
-        <v>691</v>
+        <v>612</v>
       </c>
       <c r="AU61" t="n">
-        <v>727</v>
+        <v>643</v>
       </c>
       <c r="AV61" t="n">
-        <v>789</v>
+        <v>697</v>
       </c>
       <c r="AW61" t="n">
-        <v>440</v>
+        <v>350</v>
       </c>
       <c r="AX61" t="n">
-        <v>520</v>
+        <v>474</v>
       </c>
       <c r="AY61" t="n">
-        <v>1283</v>
+        <v>1183</v>
       </c>
       <c r="AZ61" t="n">
-        <v>651</v>
+        <v>566</v>
       </c>
       <c r="BB61" t="n">
-        <v>701</v>
+        <v>632</v>
       </c>
       <c r="BC61" t="n">
-        <v>705</v>
+        <v>672</v>
       </c>
       <c r="BD61" t="n">
-        <v>425</v>
+        <v>376</v>
       </c>
       <c r="BE61" t="n">
-        <v>509</v>
+        <v>491</v>
       </c>
       <c r="BF61" t="n">
-        <v>847</v>
+        <v>696</v>
       </c>
       <c r="BH61" t="n">
-        <v>780</v>
+        <v>754</v>
       </c>
       <c r="BI61" t="n">
-        <v>1106</v>
+        <v>1042</v>
       </c>
       <c r="BJ61" t="n">
-        <v>986</v>
+        <v>927</v>
       </c>
       <c r="BK61" t="n">
-        <v>1636</v>
+        <v>1527</v>
       </c>
       <c r="BL61" t="n">
-        <v>1179</v>
+        <v>1091</v>
       </c>
       <c r="BM61" t="n">
-        <v>1139</v>
+        <v>1114</v>
       </c>
       <c r="BN61" t="n">
-        <v>236</v>
+        <v>214</v>
       </c>
       <c r="BO61" t="n">
-        <v>613</v>
+        <v>557</v>
       </c>
       <c r="BP61" t="n">
-        <v>1422</v>
+        <v>1385</v>
       </c>
       <c r="BQ61" t="n">
-        <v>961</v>
+        <v>852</v>
       </c>
       <c r="BR61" t="n">
-        <v>977</v>
+        <v>949</v>
       </c>
       <c r="BT61" t="n">
-        <v>1235</v>
+        <v>1158</v>
       </c>
       <c r="BU61" t="n">
-        <v>718</v>
+        <v>626</v>
       </c>
     </row>
     <row r="62">
@@ -14908,88 +14800,88 @@
         </is>
       </c>
       <c r="AQ62" t="n">
-        <v>8528</v>
+        <v>8063</v>
       </c>
       <c r="AR62" t="n">
-        <v>8774</v>
+        <v>8418</v>
       </c>
       <c r="AS62" t="n">
-        <v>3483</v>
+        <v>2928</v>
       </c>
       <c r="AT62" t="n">
-        <v>2815</v>
+        <v>2473</v>
       </c>
       <c r="AU62" t="n">
-        <v>5030</v>
+        <v>4453</v>
       </c>
       <c r="AV62" t="n">
-        <v>5715</v>
+        <v>5559</v>
       </c>
       <c r="AW62" t="n">
-        <v>2446</v>
+        <v>2152</v>
       </c>
       <c r="AX62" t="n">
-        <v>6788</v>
+        <v>6357</v>
       </c>
       <c r="AY62" t="n">
-        <v>3825</v>
+        <v>3656</v>
       </c>
       <c r="AZ62" t="n">
-        <v>4739</v>
+        <v>4199</v>
       </c>
       <c r="BB62" t="n">
-        <v>3427</v>
+        <v>3180</v>
       </c>
       <c r="BC62" t="n">
-        <v>3668</v>
+        <v>3386</v>
       </c>
       <c r="BD62" t="n">
-        <v>5552</v>
+        <v>5397</v>
       </c>
       <c r="BE62" t="n">
-        <v>5085</v>
+        <v>4752</v>
       </c>
       <c r="BF62" t="n">
-        <v>3736</v>
+        <v>4069</v>
       </c>
       <c r="BH62" t="n">
-        <v>2452</v>
+        <v>2156</v>
       </c>
       <c r="BI62" t="n">
-        <v>4162</v>
+        <v>3809</v>
       </c>
       <c r="BJ62" t="n">
-        <v>4754</v>
+        <v>4379</v>
       </c>
       <c r="BK62" t="n">
-        <v>3930</v>
+        <v>3510</v>
       </c>
       <c r="BL62" t="n">
-        <v>7071</v>
+        <v>6585</v>
       </c>
       <c r="BM62" t="n">
-        <v>4641</v>
+        <v>4232</v>
       </c>
       <c r="BN62" t="n">
-        <v>4205</v>
+        <v>4119</v>
       </c>
       <c r="BO62" t="n">
-        <v>5360</v>
+        <v>5177</v>
       </c>
       <c r="BP62" t="n">
-        <v>4019</v>
+        <v>3723</v>
       </c>
       <c r="BQ62" t="n">
-        <v>4206</v>
+        <v>3875</v>
       </c>
       <c r="BR62" t="n">
-        <v>6421</v>
+        <v>6141</v>
       </c>
       <c r="BT62" t="n">
-        <v>5423</v>
+        <v>4881</v>
       </c>
       <c r="BU62" t="n">
-        <v>5134</v>
+        <v>4556</v>
       </c>
     </row>
     <row r="63">
@@ -15210,88 +15102,88 @@
         </is>
       </c>
       <c r="AQ64" t="n">
-        <v>409</v>
+        <v>616</v>
       </c>
       <c r="AR64" t="n">
-        <v>522</v>
+        <v>602</v>
       </c>
       <c r="AS64" t="n">
-        <v>710</v>
+        <v>635</v>
       </c>
       <c r="AT64" t="n">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="AU64" t="n">
-        <v>503</v>
+        <v>454</v>
       </c>
       <c r="AV64" t="n">
-        <v>369</v>
+        <v>436</v>
       </c>
       <c r="AW64" t="n">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="AX64" t="n">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="AY64" t="n">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="AZ64" t="n">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="BB64" t="n">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="BC64" t="n">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="BD64" t="n">
+        <v>230</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>268</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>256</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>647</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>301</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>1040</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>701</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>592</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>398</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>438</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>187</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>1209</v>
+      </c>
+      <c r="BQ64" t="n">
         <v>102</v>
       </c>
-      <c r="BE64" t="n">
-        <v>295</v>
-      </c>
-      <c r="BF64" t="n">
-        <v>175</v>
-      </c>
-      <c r="BH64" t="n">
-        <v>698</v>
-      </c>
-      <c r="BI64" t="n">
-        <v>309</v>
-      </c>
-      <c r="BJ64" t="n">
-        <v>1111</v>
-      </c>
-      <c r="BK64" t="n">
-        <v>764</v>
-      </c>
-      <c r="BL64" t="n">
-        <v>425</v>
-      </c>
-      <c r="BM64" t="n">
-        <v>440</v>
-      </c>
-      <c r="BN64" t="n">
-        <v>446</v>
-      </c>
-      <c r="BO64" t="n">
-        <v>101</v>
-      </c>
-      <c r="BP64" t="n">
-        <v>1233</v>
-      </c>
-      <c r="BQ64" t="n">
-        <v>125</v>
-      </c>
       <c r="BR64" t="n">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="BT64" t="n">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="BU64" t="n">
-        <v>321</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
